--- a/Documents/AssetList-Planning.xlsx
+++ b/Documents/AssetList-Planning.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rilana\Desktop\School\Gamelab 2\Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rilana\Desktop\School\Gamelab 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="356">
   <si>
     <t>Planning</t>
   </si>
@@ -357,161 +357,749 @@
     <t>4U-ENV-Bush2</t>
   </si>
   <si>
+    <t>Bunny</t>
+  </si>
+  <si>
+    <t>3D-ENV-Bunny</t>
+  </si>
+  <si>
+    <t>2D-ENV-Bunny</t>
+  </si>
+  <si>
+    <t>4U-ENV-Bunny</t>
+  </si>
+  <si>
+    <t>5R-ENV-Bunny</t>
+  </si>
+  <si>
+    <t>Bush 2</t>
+  </si>
+  <si>
+    <t>Rocks</t>
+  </si>
+  <si>
+    <t>2D-ENV-Rocks</t>
+  </si>
+  <si>
+    <t>3D-ENV-Rocks</t>
+  </si>
+  <si>
+    <t>4U-ENV-Rocks</t>
+  </si>
+  <si>
+    <t>Treetrunks</t>
+  </si>
+  <si>
+    <t>2D-ENV-Treetrunks</t>
+  </si>
+  <si>
+    <t>3D-ENV-Treetrunks</t>
+  </si>
+  <si>
+    <t>4U-ENV-Treetrunks</t>
+  </si>
+  <si>
+    <t>Props</t>
+  </si>
+  <si>
+    <t>Flower Box</t>
+  </si>
+  <si>
+    <t>Chair</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Candle</t>
+  </si>
+  <si>
+    <t>Pillars</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Well</t>
+  </si>
+  <si>
+    <t>tempel</t>
+  </si>
+  <si>
+    <t>building</t>
+  </si>
+  <si>
+    <t>props</t>
+  </si>
+  <si>
+    <t>axe</t>
+  </si>
+  <si>
+    <t>tablet</t>
+  </si>
+  <si>
+    <t>Window wall 2</t>
+  </si>
+  <si>
+    <t>2D-ENV-Winwall2</t>
+  </si>
+  <si>
+    <t>3D-ENV-Winwall2</t>
+  </si>
+  <si>
+    <t>4U-ENV-Winwall2</t>
+  </si>
+  <si>
+    <t>Stair piece</t>
+  </si>
+  <si>
+    <t>2D-ENV-Stair</t>
+  </si>
+  <si>
+    <t>3D-ENV-Stair</t>
+  </si>
+  <si>
+    <t>4U-ENV-Stair</t>
+  </si>
+  <si>
+    <t>Floor piece</t>
+  </si>
+  <si>
+    <t>2D-ENV-Floor</t>
+  </si>
+  <si>
+    <t>3D-ENV-Floor</t>
+  </si>
+  <si>
+    <t>4U-ENV-Floor</t>
+  </si>
+  <si>
+    <t>Roof piece 1</t>
+  </si>
+  <si>
+    <t>2D-ENV-Roof1</t>
+  </si>
+  <si>
+    <t>3D-ENV-Roof1</t>
+  </si>
+  <si>
+    <t>4U-ENV-Roof1</t>
+  </si>
+  <si>
+    <t>Roof piece 2</t>
+  </si>
+  <si>
+    <t>2D-ENV-Roof2</t>
+  </si>
+  <si>
+    <t>3D-ENV-Roof2</t>
+  </si>
+  <si>
+    <t>4U-ENV-Roof2</t>
+  </si>
+  <si>
+    <t>Roof Terrace</t>
+  </si>
+  <si>
+    <t>2D-ENV-RoofTer</t>
+  </si>
+  <si>
+    <t>3D-ENV-RoofTer</t>
+  </si>
+  <si>
+    <t>4U-ENV-RoofTer</t>
+  </si>
+  <si>
+    <t>Wall Edge</t>
+  </si>
+  <si>
+    <t>2D-ENV-WallEdge</t>
+  </si>
+  <si>
+    <t>3D-ENV-WallEdge</t>
+  </si>
+  <si>
+    <t>4U-ENV-WallEdge</t>
+  </si>
+  <si>
+    <t>Temple</t>
+  </si>
+  <si>
+    <t>Piller</t>
+  </si>
+  <si>
+    <t>Door</t>
+  </si>
+  <si>
+    <t>2D-ENV-TempleDoor</t>
+  </si>
+  <si>
+    <t>3D-ENV-TempleDoor</t>
+  </si>
+  <si>
+    <t>4U-ENV-TempleDoor</t>
+  </si>
+  <si>
+    <t>2D-ENV-TemplePiller</t>
+  </si>
+  <si>
+    <t>3D-ENV-TemplePiller</t>
+  </si>
+  <si>
+    <t>4U-ENV-TemplePiller</t>
+  </si>
+  <si>
+    <t>Roof</t>
+  </si>
+  <si>
+    <t>2D-ENV-TempleRoof</t>
+  </si>
+  <si>
+    <t>3D-ENV-TempleRoof</t>
+  </si>
+  <si>
+    <t>4U-ENV-TempleRoof</t>
+  </si>
+  <si>
+    <t>Floor</t>
+  </si>
+  <si>
+    <t>2D-ENV-TempleFloor</t>
+  </si>
+  <si>
+    <t>3D-ENV-TempleFloor</t>
+  </si>
+  <si>
+    <t>4U-ENV-TempleFloor</t>
+  </si>
+  <si>
+    <t>Stairs</t>
+  </si>
+  <si>
+    <t>2D-ENV-TempleStair</t>
+  </si>
+  <si>
+    <t>3D-ENV-TempleStair</t>
+  </si>
+  <si>
+    <t>4U-ENV-TempleStair</t>
+  </si>
+  <si>
+    <t>Labyrinth piece 1</t>
+  </si>
+  <si>
+    <t>2D-ENV-Labyrinth1</t>
+  </si>
+  <si>
+    <t>3D-ENV-Labyrinth1</t>
+  </si>
+  <si>
+    <t>4U-ENV-Labyrinth1</t>
+  </si>
+  <si>
+    <t>2D-ENV-Labyrinth2</t>
+  </si>
+  <si>
+    <t>3D-ENV-Labyrinth2</t>
+  </si>
+  <si>
+    <t>4U-ENV-Labyrinth2</t>
+  </si>
+  <si>
+    <t>Labyrinth piece 2</t>
+  </si>
+  <si>
+    <t>Labyrinth circle</t>
+  </si>
+  <si>
+    <t>2D-ENV-LabyCircle</t>
+  </si>
+  <si>
+    <t>3D-ENV-LabyCircle</t>
+  </si>
+  <si>
+    <t>4U-ENV-LabyCircle</t>
+  </si>
+  <si>
+    <t>Labyrinth piller</t>
+  </si>
+  <si>
+    <t>2D-ENV-LabyPiller</t>
+  </si>
+  <si>
+    <t>3D-ENV-LabyPiller</t>
+  </si>
+  <si>
+    <t>4U-ENV-LabyPiller</t>
+  </si>
+  <si>
+    <t>Items</t>
+  </si>
+  <si>
+    <t>Sword</t>
+  </si>
+  <si>
+    <t>2D-PRP-Sword</t>
+  </si>
+  <si>
+    <t>3D-PRP-Sword</t>
+  </si>
+  <si>
+    <t>4U-PRP-Sword</t>
+  </si>
+  <si>
+    <t>Axe</t>
+  </si>
+  <si>
+    <t>2D-PRP-Axe</t>
+  </si>
+  <si>
+    <t>3D-PRP-Axe</t>
+  </si>
+  <si>
+    <t>4U-PRP-Axe</t>
+  </si>
+  <si>
+    <t>Torch</t>
+  </si>
+  <si>
+    <t>2D-PRP-Torch</t>
+  </si>
+  <si>
+    <t>3D-PRP-Torch</t>
+  </si>
+  <si>
+    <t>4U-PRP-Torch</t>
+  </si>
+  <si>
+    <t>Chest</t>
+  </si>
+  <si>
+    <t>2D-PRP-Flowerbox</t>
+  </si>
+  <si>
+    <t>3D-PRP-Flowerbox</t>
+  </si>
+  <si>
+    <t>4U-PRP-Flowerbox</t>
+  </si>
+  <si>
+    <t>2D-PRP-Chair</t>
+  </si>
+  <si>
+    <t>3D-PRP-Chair</t>
+  </si>
+  <si>
+    <t>4U-PRP-Chair</t>
+  </si>
+  <si>
+    <t>2D-PRP-Table</t>
+  </si>
+  <si>
+    <t>3D-PRP-Table</t>
+  </si>
+  <si>
+    <t>4U-PRP-Table</t>
+  </si>
+  <si>
+    <t>2D-PRP-Candle</t>
+  </si>
+  <si>
+    <t>3D-PRP-Candle</t>
+  </si>
+  <si>
+    <t>4U-PRP-Candle</t>
+  </si>
+  <si>
+    <t>2D-PRP-Pillars</t>
+  </si>
+  <si>
+    <t>3D-PRP-Pillars</t>
+  </si>
+  <si>
+    <t>4U-PRP-Pillars</t>
+  </si>
+  <si>
+    <t>2D-PRP-Well</t>
+  </si>
+  <si>
+    <t>3D-PRP-Well</t>
+  </si>
+  <si>
+    <t>4U-PRP-Well</t>
+  </si>
+  <si>
+    <t>2D-PRP-Chest</t>
+  </si>
+  <si>
+    <t>3D-PRP-Chest</t>
+  </si>
+  <si>
+    <t>4U-PRP-Chest</t>
+  </si>
+  <si>
+    <t>Bones</t>
+  </si>
+  <si>
+    <t>2D-PRP-Bones</t>
+  </si>
+  <si>
+    <t>3D-PRP-Bones</t>
+  </si>
+  <si>
+    <t>4U-PRP-Bones</t>
+  </si>
+  <si>
+    <t>Shields</t>
+  </si>
+  <si>
+    <t>Jars</t>
+  </si>
+  <si>
+    <t>3D-PRP-Jars</t>
+  </si>
+  <si>
+    <t>2D-PRP-Shields</t>
+  </si>
+  <si>
+    <t>3D-PRP-Shields</t>
+  </si>
+  <si>
+    <t>4U-PRP-Shields</t>
+  </si>
+  <si>
+    <t>2D-PRP-Jars</t>
+  </si>
+  <si>
+    <t>4U-PRP-Jars</t>
+  </si>
+  <si>
+    <t>Hanging Torch</t>
+  </si>
+  <si>
+    <t>2D-PRP-HangTorch</t>
+  </si>
+  <si>
+    <t>3D-PRP-HangTorch</t>
+  </si>
+  <si>
+    <t>4U-PRP-HangTorch</t>
+  </si>
+  <si>
+    <t>Coins</t>
+  </si>
+  <si>
+    <t>2D-PRP-Coins</t>
+  </si>
+  <si>
+    <t>3D-PRP-Coins</t>
+  </si>
+  <si>
+    <t>4U-PRP-Coins</t>
+  </si>
+  <si>
+    <t>Scrolls</t>
+  </si>
+  <si>
+    <t>2D-PRP-Scroll</t>
+  </si>
+  <si>
+    <t>3D-PRP-Scroll</t>
+  </si>
+  <si>
+    <t>4U-PRP-Scroll</t>
+  </si>
+  <si>
+    <t>Bed</t>
+  </si>
+  <si>
+    <t>2D-PRP-Bed</t>
+  </si>
+  <si>
+    <t>3D-PRP-Bed</t>
+  </si>
+  <si>
+    <t>4U-PRP-Bed</t>
+  </si>
+  <si>
+    <t>Pots</t>
+  </si>
+  <si>
+    <t>2D-PRP-Pots</t>
+  </si>
+  <si>
+    <t>3D-PRP-Pots</t>
+  </si>
+  <si>
+    <t>4U-PRP-Pots</t>
+  </si>
+  <si>
+    <t>couch</t>
+  </si>
+  <si>
+    <t>2D-PRP-Couch</t>
+  </si>
+  <si>
+    <t>3D-PRP-Couch</t>
+  </si>
+  <si>
+    <t>4U-PRP-Couch</t>
+  </si>
+  <si>
+    <t>CraftingStation</t>
+  </si>
+  <si>
+    <t>9Sc-CraftingStation</t>
+  </si>
+  <si>
+    <t>GameManager</t>
+  </si>
+  <si>
+    <t>9Sc-GameManager</t>
+  </si>
+  <si>
+    <t>Minotaur</t>
+  </si>
+  <si>
+    <t>9Sc-Minotaur</t>
+  </si>
+  <si>
+    <t>Npc</t>
+  </si>
+  <si>
+    <t>9Sc-Npc</t>
+  </si>
+  <si>
+    <t>DialogueManager</t>
+  </si>
+  <si>
+    <t>9Sc-DialogueManager</t>
+  </si>
+  <si>
+    <t>InventoryManager</t>
+  </si>
+  <si>
+    <t>9Sc-InventoryManager</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>9Sc-Item</t>
+  </si>
+  <si>
+    <t>FpsInputController</t>
+  </si>
+  <si>
+    <t>9sc-FpsInputController</t>
+  </si>
+  <si>
+    <t>CombatManager</t>
+  </si>
+  <si>
+    <t>9sc-CombatManager</t>
+  </si>
+  <si>
+    <t>UIManager</t>
+  </si>
+  <si>
+    <t>9Sc-UIManager</t>
+  </si>
+  <si>
+    <t>Particle/Sprite</t>
+  </si>
+  <si>
     <t>Grass</t>
   </si>
   <si>
     <t>2D-ENV-Grass</t>
   </si>
   <si>
+    <t>Cloud</t>
+  </si>
+  <si>
+    <t>8P-ENV-Cloud</t>
+  </si>
+  <si>
     <t>Waterfall</t>
   </si>
   <si>
-    <t>8P-ENV-Waterfall</t>
-  </si>
-  <si>
-    <t>Bunny</t>
-  </si>
-  <si>
-    <t>3D-ENV-Bunny</t>
-  </si>
-  <si>
-    <t>2D-ENV-Bunny</t>
-  </si>
-  <si>
-    <t>4U-ENV-Bunny</t>
-  </si>
-  <si>
-    <t>5R-ENV-Bunny</t>
-  </si>
-  <si>
-    <t>Bush 2</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>2D-ENV-Path</t>
-  </si>
-  <si>
-    <t>Ground</t>
-  </si>
-  <si>
-    <t>Grassbase</t>
-  </si>
-  <si>
-    <t>2D-ENV-Grassbase</t>
-  </si>
-  <si>
-    <t>2D-ENV-Groud</t>
-  </si>
-  <si>
-    <t>Stone</t>
-  </si>
-  <si>
-    <t>2D-ENV-Stone</t>
-  </si>
-  <si>
-    <t>Rocks</t>
-  </si>
-  <si>
-    <t>2D-ENV-Rocks</t>
-  </si>
-  <si>
-    <t>3D-ENV-Rocks</t>
-  </si>
-  <si>
-    <t>4U-ENV-Rocks</t>
-  </si>
-  <si>
-    <t>Skybox</t>
-  </si>
-  <si>
-    <t>2D-ENV-Skybox</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>Clouds</t>
-  </si>
-  <si>
-    <t>8P-ENV-Clouds</t>
-  </si>
-  <si>
-    <t>Treetrunks</t>
-  </si>
-  <si>
-    <t>2D-ENV-Treetrunks</t>
-  </si>
-  <si>
-    <t>3D-ENV-Treetrunks</t>
-  </si>
-  <si>
-    <t>4U-ENV-Treetrunks</t>
-  </si>
-  <si>
-    <t>Props</t>
-  </si>
-  <si>
-    <t>Flower Box</t>
-  </si>
-  <si>
-    <t>4U-ENV-FlowerBox</t>
-  </si>
-  <si>
-    <t>3D-ENV-FlowerBox</t>
-  </si>
-  <si>
-    <t>2D-ENV-FlowerBox</t>
-  </si>
-  <si>
-    <t>Chair</t>
-  </si>
-  <si>
-    <t>2D-ENV-Chair</t>
-  </si>
-  <si>
-    <t>3D-ENV-Chair</t>
-  </si>
-  <si>
-    <t>4U-ENV-Chair</t>
-  </si>
-  <si>
-    <t>Table</t>
-  </si>
-  <si>
-    <t>2D-ENV-Table</t>
-  </si>
-  <si>
-    <t>3D-ENV-Table</t>
-  </si>
-  <si>
-    <t>4U-ENV-Table</t>
-  </si>
-  <si>
-    <t>Candle</t>
-  </si>
-  <si>
-    <t>Pillars</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Well</t>
-  </si>
-  <si>
-    <t>2D-ENV-Well</t>
-  </si>
-  <si>
-    <t>3D-ENV-Well</t>
-  </si>
-  <si>
-    <t>4U-ENV-Well</t>
+    <t>8P-eNV-Waterfall</t>
+  </si>
+  <si>
+    <t>Rilana</t>
+  </si>
+  <si>
+    <t>Maaike</t>
+  </si>
+  <si>
+    <t>Janneke</t>
+  </si>
+  <si>
+    <t>(planning na de concept fase)</t>
+  </si>
+  <si>
+    <t>Naam</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Walter</t>
+  </si>
+  <si>
+    <t>Gerwin</t>
+  </si>
+  <si>
+    <t>presentatie</t>
+  </si>
+  <si>
+    <t>Lvl Design[</t>
+  </si>
+  <si>
+    <t>Huisjes textures</t>
+  </si>
+  <si>
+    <t>flowers</t>
+  </si>
+  <si>
+    <t>animals</t>
+  </si>
+  <si>
+    <t>nature pieces</t>
+  </si>
+  <si>
+    <t>bed</t>
+  </si>
+  <si>
+    <t>chair</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>pans</t>
+  </si>
+  <si>
+    <t>candle</t>
+  </si>
+  <si>
+    <t>crafting</t>
+  </si>
+  <si>
+    <t>slab</t>
+  </si>
+  <si>
+    <t>crafting implementing</t>
+  </si>
+  <si>
+    <t>pickup script</t>
+  </si>
+  <si>
+    <t>quest implementing</t>
+  </si>
+  <si>
+    <t>remake quest hud</t>
+  </si>
+  <si>
+    <t>minotaur scripts</t>
+  </si>
+  <si>
+    <t>minotaur</t>
+  </si>
+  <si>
+    <t>player controller</t>
+  </si>
+  <si>
+    <t>dialogue</t>
+  </si>
+  <si>
+    <t>pauzeren</t>
+  </si>
+  <si>
+    <t>arm animations</t>
+  </si>
+  <si>
+    <t>combat scripts</t>
+  </si>
+  <si>
+    <t>player controller 2.0</t>
+  </si>
+  <si>
+    <t>water prefab</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>`bunny script</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Arne</t>
+  </si>
+  <si>
+    <t>shields textures</t>
+  </si>
+  <si>
+    <t>sprites en ui slab</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>new in group</t>
+  </si>
+  <si>
+    <t>animation armen</t>
+  </si>
+  <si>
+    <t>lady-3D</t>
+  </si>
+  <si>
+    <t>Lady-U4</t>
+  </si>
+  <si>
+    <t>Minotaur afmaken</t>
+  </si>
+  <si>
+    <t>pots</t>
+  </si>
+  <si>
+    <t>Alchemist-3D</t>
+  </si>
+  <si>
+    <t>Alchemist-4U</t>
+  </si>
+  <si>
+    <t>Alchemist-2D</t>
+  </si>
+  <si>
+    <t>monitaur rig</t>
+  </si>
+  <si>
+    <t>alchemsit rig</t>
+  </si>
+  <si>
+    <t>lady rig</t>
+  </si>
+  <si>
+    <t>Dees</t>
+  </si>
+  <si>
+    <t>Temple maze Implementing</t>
+  </si>
+  <si>
+    <t>Vegatation</t>
+  </si>
+  <si>
+    <t>Vegetation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -598,8 +1186,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -633,6 +1227,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -658,13 +1276,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -684,12 +1303,28 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="13" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="3" builtinId="10"/>
+    <cellStyle name="Percent" xfId="4" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1001,21 +1636,1247 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:BI93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="28"/>
+    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="28"/>
+    <col min="10" max="10" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" style="28"/>
+    <col min="17" max="17" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.88671875" style="28"/>
+    <col min="24" max="24" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.88671875" style="28"/>
+    <col min="37" max="37" width="8.88671875" style="28"/>
+    <col min="44" max="44" width="8.88671875" style="28"/>
+    <col min="51" max="51" width="8.88671875" style="28"/>
+    <col min="58" max="58" width="8.88671875" style="28"/>
+    <col min="59" max="59" width="8.88671875" style="29"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="35.4" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:61" ht="35.4" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
+      <c r="B1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="12"/>
+      <c r="AQ1" s="12"/>
+      <c r="AR1" s="12"/>
+      <c r="AS1" s="12"/>
+      <c r="AX1" s="12"/>
+      <c r="AY1" s="12"/>
+      <c r="AZ1" s="12"/>
+      <c r="BD1" s="12"/>
+      <c r="BE1" s="12"/>
+      <c r="BF1" s="12"/>
+    </row>
+    <row r="2" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="B2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="12"/>
+      <c r="AQ2" s="12"/>
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="12"/>
+      <c r="AX2" s="12"/>
+      <c r="AY2" s="12"/>
+      <c r="AZ2" s="12"/>
+      <c r="BD2" s="12"/>
+      <c r="BE2" s="12"/>
+      <c r="BF2" s="12"/>
+    </row>
+    <row r="3" spans="1:61" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="12"/>
+      <c r="AM3" s="12"/>
+      <c r="AQ3" s="12"/>
+      <c r="AR3" s="12"/>
+      <c r="AS3" s="12"/>
+      <c r="AX3" s="12"/>
+      <c r="AY3" s="12"/>
+      <c r="AZ3" s="12"/>
+      <c r="BD3" s="12"/>
+      <c r="BE3" s="12"/>
+      <c r="BF3" s="12"/>
+    </row>
+    <row r="4" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="B4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="12"/>
+      <c r="AM4" s="12"/>
+      <c r="AQ4" s="12"/>
+      <c r="AR4" s="12"/>
+      <c r="AS4" s="12"/>
+      <c r="AX4" s="12"/>
+      <c r="AY4" s="12"/>
+      <c r="AZ4" s="12"/>
+      <c r="BD4" s="12"/>
+      <c r="BE4" s="12"/>
+      <c r="BF4" s="12"/>
+    </row>
+    <row r="5" spans="1:61" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="30">
+        <v>42863</v>
+      </c>
+      <c r="D5" s="30">
+        <v>42869</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="30">
+        <v>42870</v>
+      </c>
+      <c r="K5" s="30">
+        <v>42876</v>
+      </c>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="30">
+        <v>42877</v>
+      </c>
+      <c r="R5" s="30">
+        <v>42883</v>
+      </c>
+      <c r="W5" s="14"/>
+      <c r="X5" s="30">
+        <v>42884</v>
+      </c>
+      <c r="Y5" s="30">
+        <v>42859</v>
+      </c>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="30">
+        <v>42891</v>
+      </c>
+      <c r="AF5" s="30">
+        <v>42897</v>
+      </c>
+      <c r="AK5" s="14"/>
+      <c r="AL5" s="31">
+        <v>42898</v>
+      </c>
+      <c r="AM5" s="31">
+        <v>42904</v>
+      </c>
+      <c r="AQ5" s="14"/>
+      <c r="AR5" s="14"/>
+      <c r="AS5" s="31">
+        <v>42905</v>
+      </c>
+      <c r="AT5" s="30">
+        <v>42914</v>
+      </c>
+      <c r="AX5" s="14"/>
+      <c r="AY5" s="14"/>
+      <c r="AZ5" s="31">
+        <v>42915</v>
+      </c>
+      <c r="BA5" s="30">
+        <v>42916</v>
+      </c>
+      <c r="BD5" s="14"/>
+      <c r="BE5" s="14"/>
+      <c r="BF5" s="14"/>
+      <c r="BG5" s="32"/>
+      <c r="BH5" s="30">
+        <v>42916</v>
+      </c>
+      <c r="BI5" s="9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="6" spans="1:61" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="BG6" s="32"/>
+    </row>
+    <row r="7" spans="1:61" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="I7" s="27"/>
+      <c r="J7" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="W7" s="27"/>
+      <c r="X7" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="AD7" s="27"/>
+      <c r="AK7" s="27"/>
+      <c r="AR7" s="27"/>
+      <c r="AY7" s="27"/>
+      <c r="BF7" s="27"/>
+      <c r="BG7" s="32"/>
+      <c r="BH7" s="30"/>
+    </row>
+    <row r="8" spans="1:61" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B8" s="27"/>
+      <c r="C8" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="I8" s="27"/>
+      <c r="J8" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="W8" s="27"/>
+      <c r="AD8" s="27"/>
+      <c r="AK8" s="27"/>
+      <c r="AR8" s="27"/>
+      <c r="AY8" s="27"/>
+      <c r="BF8" s="27"/>
+      <c r="BG8" s="32"/>
+    </row>
+    <row r="9" spans="1:61" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B9" s="27"/>
+      <c r="C9" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="I9" s="27"/>
+      <c r="J9" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="P9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="AD9" s="27"/>
+      <c r="AK9" s="27"/>
+      <c r="AR9" s="27"/>
+      <c r="AY9" s="27"/>
+      <c r="BF9" s="27"/>
+      <c r="BG9" s="32"/>
+    </row>
+    <row r="10" spans="1:61" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B10" s="27"/>
+      <c r="C10" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="I10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="AD10" s="27"/>
+      <c r="AK10" s="27"/>
+      <c r="AR10" s="27"/>
+      <c r="AY10" s="27"/>
+      <c r="BF10" s="27"/>
+      <c r="BG10" s="32"/>
+    </row>
+    <row r="11" spans="1:61" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="AD11" s="27"/>
+      <c r="AK11" s="27"/>
+      <c r="AR11" s="27"/>
+      <c r="AY11" s="27"/>
+      <c r="BF11" s="27"/>
+      <c r="BG11" s="32"/>
+    </row>
+    <row r="12" spans="1:61" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="AD12" s="27"/>
+      <c r="AK12" s="27"/>
+      <c r="AR12" s="27"/>
+      <c r="AY12" s="27"/>
+      <c r="BF12" s="27"/>
+      <c r="BG12" s="32"/>
+    </row>
+    <row r="13" spans="1:61" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="AD13" s="27"/>
+      <c r="AK13" s="27"/>
+      <c r="AR13" s="27"/>
+      <c r="AY13" s="27"/>
+      <c r="BF13" s="27"/>
+      <c r="BG13" s="32"/>
+    </row>
+    <row r="14" spans="1:61" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="AD14" s="27"/>
+      <c r="AK14" s="27"/>
+      <c r="AR14" s="27"/>
+      <c r="AY14" s="27"/>
+      <c r="BF14" s="27"/>
+      <c r="BG14" s="32"/>
+    </row>
+    <row r="15" spans="1:61" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="AD15" s="27"/>
+      <c r="AK15" s="27"/>
+      <c r="AR15" s="27"/>
+      <c r="AY15" s="27"/>
+      <c r="BF15" s="27"/>
+      <c r="BG15" s="32"/>
+    </row>
+    <row r="16" spans="1:61" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="AD16" s="27"/>
+      <c r="AK16" s="27"/>
+      <c r="AR16" s="27"/>
+      <c r="AY16" s="27"/>
+      <c r="BF16" s="27"/>
+      <c r="BG16" s="32"/>
+    </row>
+    <row r="17" spans="1:59" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="BG17" s="32"/>
+    </row>
+    <row r="18" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="B18" s="27"/>
+      <c r="C18" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="I18" s="27"/>
+      <c r="J18" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="P18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="AD18" s="27"/>
+      <c r="AK18" s="27"/>
+      <c r="AR18" s="27"/>
+      <c r="AY18" s="27"/>
+      <c r="BF18" s="27"/>
+      <c r="BG18" s="32"/>
+    </row>
+    <row r="19" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B19" s="27"/>
+      <c r="C19" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="I19" s="27"/>
+      <c r="J19" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="P19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="AD19" s="27"/>
+      <c r="AK19" s="27"/>
+      <c r="AR19" s="27"/>
+      <c r="AY19" s="27"/>
+      <c r="BF19" s="27"/>
+      <c r="BG19" s="32"/>
+    </row>
+    <row r="20" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B20" s="27"/>
+      <c r="C20" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="I20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="AD20" s="27"/>
+      <c r="AK20" s="27"/>
+      <c r="AR20" s="27"/>
+      <c r="AY20" s="27"/>
+      <c r="BF20" s="27"/>
+      <c r="BG20" s="32"/>
+    </row>
+    <row r="21" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="AD21" s="27"/>
+      <c r="AK21" s="27"/>
+      <c r="AR21" s="27"/>
+      <c r="AY21" s="27"/>
+      <c r="BF21" s="27"/>
+      <c r="BG21" s="32"/>
+    </row>
+    <row r="22" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="AD22" s="27"/>
+      <c r="AK22" s="27"/>
+      <c r="AR22" s="27"/>
+      <c r="AY22" s="27"/>
+      <c r="BF22" s="27"/>
+      <c r="BG22" s="32"/>
+    </row>
+    <row r="23" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="AD23" s="27"/>
+      <c r="AK23" s="27"/>
+      <c r="AR23" s="27"/>
+      <c r="AY23" s="27"/>
+      <c r="BF23" s="27"/>
+      <c r="BG23" s="32"/>
+    </row>
+    <row r="24" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="AD24" s="27"/>
+      <c r="AK24" s="27"/>
+      <c r="AR24" s="27"/>
+      <c r="AY24" s="27"/>
+      <c r="BF24" s="27"/>
+      <c r="BG24" s="32"/>
+    </row>
+    <row r="25" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="W25" s="27"/>
+      <c r="AD25" s="27"/>
+      <c r="AK25" s="27"/>
+      <c r="AR25" s="27"/>
+      <c r="AY25" s="27"/>
+      <c r="BF25" s="27"/>
+      <c r="BG25" s="32"/>
+    </row>
+    <row r="26" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="W26" s="27"/>
+      <c r="AD26" s="27"/>
+      <c r="AK26" s="27"/>
+      <c r="AR26" s="27"/>
+      <c r="AY26" s="27"/>
+      <c r="BF26" s="27"/>
+      <c r="BG26" s="32"/>
+    </row>
+    <row r="27" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="W27" s="27"/>
+      <c r="AD27" s="27"/>
+      <c r="AK27" s="27"/>
+      <c r="AR27" s="27"/>
+      <c r="AY27" s="27"/>
+      <c r="BF27" s="27"/>
+      <c r="BG27" s="32"/>
+    </row>
+    <row r="28" spans="1:59" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="BG28" s="32"/>
+    </row>
+    <row r="29" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="B29" s="27"/>
+      <c r="C29" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="I29" s="27"/>
+      <c r="J29" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="W29" s="27"/>
+      <c r="AD29" s="27"/>
+      <c r="AK29" s="27"/>
+      <c r="AR29" s="27"/>
+      <c r="AY29" s="27"/>
+      <c r="BF29" s="27"/>
+      <c r="BG29" s="32"/>
+    </row>
+    <row r="30" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B30" s="27"/>
+      <c r="C30" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="I30" s="27"/>
+      <c r="J30" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="W30" s="27"/>
+      <c r="AD30" s="27"/>
+      <c r="AK30" s="27"/>
+      <c r="AR30" s="27"/>
+      <c r="AY30" s="27"/>
+      <c r="BF30" s="27"/>
+      <c r="BG30" s="32"/>
+    </row>
+    <row r="31" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="W31" s="27"/>
+      <c r="AD31" s="27"/>
+      <c r="AK31" s="27"/>
+      <c r="AR31" s="27"/>
+      <c r="AY31" s="27"/>
+      <c r="BF31" s="27"/>
+      <c r="BG31" s="32"/>
+    </row>
+    <row r="32" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="P32" s="27"/>
+      <c r="W32" s="27"/>
+      <c r="AD32" s="27"/>
+      <c r="AK32" s="27"/>
+      <c r="AR32" s="27"/>
+      <c r="AY32" s="27"/>
+      <c r="BF32" s="27"/>
+      <c r="BG32" s="32"/>
+    </row>
+    <row r="33" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="P33" s="27"/>
+      <c r="W33" s="27"/>
+      <c r="AD33" s="27"/>
+      <c r="AK33" s="27"/>
+      <c r="AR33" s="27"/>
+      <c r="AY33" s="27"/>
+      <c r="BF33" s="27"/>
+      <c r="BG33" s="32"/>
+    </row>
+    <row r="34" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="P34" s="27"/>
+      <c r="W34" s="27"/>
+      <c r="AD34" s="27"/>
+      <c r="AK34" s="27"/>
+      <c r="AR34" s="27"/>
+      <c r="AY34" s="27"/>
+      <c r="BF34" s="27"/>
+      <c r="BG34" s="32"/>
+    </row>
+    <row r="35" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="P35" s="27"/>
+      <c r="W35" s="27"/>
+      <c r="AD35" s="27"/>
+      <c r="AK35" s="27"/>
+      <c r="AR35" s="27"/>
+      <c r="AY35" s="27"/>
+      <c r="BF35" s="27"/>
+      <c r="BG35" s="32"/>
+    </row>
+    <row r="36" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="P36" s="27"/>
+      <c r="W36" s="27"/>
+      <c r="AD36" s="27"/>
+      <c r="AK36" s="27"/>
+      <c r="AR36" s="27"/>
+      <c r="AY36" s="27"/>
+      <c r="BF36" s="27"/>
+      <c r="BG36" s="32"/>
+    </row>
+    <row r="37" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="P37" s="27"/>
+      <c r="W37" s="27"/>
+      <c r="AD37" s="27"/>
+      <c r="AK37" s="27"/>
+      <c r="AR37" s="27"/>
+      <c r="AY37" s="27"/>
+      <c r="BF37" s="27"/>
+      <c r="BG37" s="32"/>
+    </row>
+    <row r="38" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="P38" s="27"/>
+      <c r="W38" s="27"/>
+      <c r="AD38" s="27"/>
+      <c r="AK38" s="27"/>
+      <c r="AR38" s="27"/>
+      <c r="AY38" s="27"/>
+      <c r="BF38" s="27"/>
+      <c r="BG38" s="32"/>
+    </row>
+    <row r="39" spans="1:59" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="BG39" s="32"/>
+    </row>
+    <row r="40" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="B40" s="27"/>
+      <c r="C40" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="I40" s="27"/>
+      <c r="J40" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="M40" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="W40" s="27"/>
+      <c r="AD40" s="27"/>
+      <c r="AK40" s="27"/>
+      <c r="AR40" s="27"/>
+      <c r="AY40" s="27"/>
+      <c r="BF40" s="27"/>
+      <c r="BG40" s="32"/>
+    </row>
+    <row r="41" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="N41" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="W41" s="27"/>
+      <c r="AD41" s="27"/>
+      <c r="AK41" s="27"/>
+      <c r="AR41" s="27"/>
+      <c r="AY41" s="27"/>
+      <c r="BF41" s="27"/>
+      <c r="BG41" s="32"/>
+    </row>
+    <row r="42" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="W42" s="27"/>
+      <c r="AD42" s="27"/>
+      <c r="AK42" s="27"/>
+      <c r="AR42" s="27"/>
+      <c r="AY42" s="27"/>
+      <c r="BF42" s="27"/>
+      <c r="BG42" s="32"/>
+    </row>
+    <row r="43" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="P43" s="27"/>
+      <c r="W43" s="27"/>
+      <c r="AD43" s="27"/>
+      <c r="AK43" s="27"/>
+      <c r="AR43" s="27"/>
+      <c r="AY43" s="27"/>
+      <c r="BF43" s="27"/>
+      <c r="BG43" s="32"/>
+    </row>
+    <row r="44" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="P44" s="27"/>
+      <c r="W44" s="27"/>
+      <c r="AD44" s="27"/>
+      <c r="AK44" s="27"/>
+      <c r="AR44" s="27"/>
+      <c r="AY44" s="27"/>
+      <c r="BF44" s="27"/>
+      <c r="BG44" s="32"/>
+    </row>
+    <row r="45" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="P45" s="27"/>
+      <c r="W45" s="27"/>
+      <c r="AD45" s="27"/>
+      <c r="AK45" s="27"/>
+      <c r="AR45" s="27"/>
+      <c r="AY45" s="27"/>
+      <c r="BF45" s="27"/>
+      <c r="BG45" s="32"/>
+    </row>
+    <row r="46" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="P46" s="27"/>
+      <c r="W46" s="27"/>
+      <c r="AD46" s="27"/>
+      <c r="AK46" s="27"/>
+      <c r="AR46" s="27"/>
+      <c r="AY46" s="27"/>
+      <c r="BF46" s="27"/>
+      <c r="BG46" s="32"/>
+    </row>
+    <row r="47" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="P47" s="27"/>
+      <c r="W47" s="27"/>
+      <c r="AD47" s="27"/>
+      <c r="AK47" s="27"/>
+      <c r="AR47" s="27"/>
+      <c r="AY47" s="27"/>
+      <c r="BF47" s="27"/>
+      <c r="BG47" s="32"/>
+    </row>
+    <row r="48" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="P48" s="27"/>
+      <c r="W48" s="27"/>
+      <c r="AD48" s="27"/>
+      <c r="AK48" s="27"/>
+      <c r="AR48" s="27"/>
+      <c r="AY48" s="27"/>
+      <c r="BF48" s="27"/>
+      <c r="BG48" s="32"/>
+    </row>
+    <row r="49" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="P49" s="27"/>
+      <c r="W49" s="27"/>
+      <c r="AD49" s="27"/>
+      <c r="AK49" s="27"/>
+      <c r="AR49" s="27"/>
+      <c r="AY49" s="27"/>
+      <c r="BF49" s="27"/>
+      <c r="BG49" s="32"/>
+    </row>
+    <row r="50" spans="1:59" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="BG50" s="32"/>
+    </row>
+    <row r="51" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B51" s="27"/>
+      <c r="C51" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="I51" s="27"/>
+      <c r="J51" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="P51" s="27"/>
+      <c r="W51" s="27"/>
+      <c r="AD51" s="27"/>
+      <c r="AK51" s="27"/>
+      <c r="AR51" s="27"/>
+      <c r="AY51" s="27"/>
+      <c r="BF51" s="27"/>
+      <c r="BG51" s="32"/>
+    </row>
+    <row r="52" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B52" s="27"/>
+      <c r="C52" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="I52" s="27"/>
+      <c r="J52" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="P52" s="27"/>
+      <c r="W52" s="27"/>
+      <c r="AD52" s="27"/>
+      <c r="AK52" s="27"/>
+      <c r="AR52" s="27"/>
+      <c r="AY52" s="27"/>
+      <c r="BF52" s="27"/>
+      <c r="BG52" s="32"/>
+    </row>
+    <row r="53" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="P53" s="27"/>
+      <c r="W53" s="27"/>
+      <c r="AD53" s="27"/>
+      <c r="AK53" s="27"/>
+      <c r="AR53" s="27"/>
+      <c r="AY53" s="27"/>
+      <c r="BF53" s="27"/>
+      <c r="BG53" s="32"/>
+    </row>
+    <row r="54" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="P54" s="27"/>
+      <c r="W54" s="27"/>
+      <c r="AD54" s="27"/>
+      <c r="AK54" s="27"/>
+      <c r="AR54" s="27"/>
+      <c r="AY54" s="27"/>
+      <c r="BF54" s="27"/>
+      <c r="BG54" s="32"/>
+    </row>
+    <row r="55" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="P55" s="27"/>
+      <c r="W55" s="27"/>
+      <c r="AD55" s="27"/>
+      <c r="AK55" s="27"/>
+      <c r="AR55" s="27"/>
+      <c r="AY55" s="27"/>
+      <c r="BF55" s="27"/>
+      <c r="BG55" s="32"/>
+    </row>
+    <row r="56" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B56" s="27"/>
+      <c r="I56" s="27"/>
+      <c r="P56" s="27"/>
+      <c r="W56" s="27"/>
+      <c r="AD56" s="27"/>
+      <c r="AK56" s="27"/>
+      <c r="AR56" s="27"/>
+      <c r="AY56" s="27"/>
+      <c r="BF56" s="27"/>
+      <c r="BG56" s="32"/>
+    </row>
+    <row r="57" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="P57" s="27"/>
+      <c r="W57" s="27"/>
+      <c r="AD57" s="27"/>
+      <c r="AK57" s="27"/>
+      <c r="AR57" s="27"/>
+      <c r="AY57" s="27"/>
+      <c r="BF57" s="27"/>
+      <c r="BG57" s="32"/>
+    </row>
+    <row r="58" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B58" s="27"/>
+      <c r="I58" s="27"/>
+      <c r="P58" s="27"/>
+      <c r="W58" s="27"/>
+      <c r="AD58" s="27"/>
+      <c r="AK58" s="27"/>
+      <c r="AR58" s="27"/>
+      <c r="AY58" s="27"/>
+      <c r="BF58" s="27"/>
+      <c r="BG58" s="32"/>
+    </row>
+    <row r="59" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="P59" s="27"/>
+      <c r="W59" s="27"/>
+      <c r="AD59" s="27"/>
+      <c r="AK59" s="27"/>
+      <c r="AR59" s="27"/>
+      <c r="AY59" s="27"/>
+      <c r="BF59" s="27"/>
+      <c r="BG59" s="32"/>
+    </row>
+    <row r="60" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B60" s="27"/>
+      <c r="I60" s="27"/>
+      <c r="P60" s="27"/>
+      <c r="W60" s="27"/>
+      <c r="AD60" s="27"/>
+      <c r="AK60" s="27"/>
+      <c r="AR60" s="27"/>
+      <c r="AY60" s="27"/>
+      <c r="BF60" s="27"/>
+      <c r="BG60" s="32"/>
+    </row>
+    <row r="61" spans="1:59" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="BG61" s="32"/>
+    </row>
+    <row r="62" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="B62" s="27"/>
+      <c r="C62" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="I62" s="27"/>
+      <c r="J62" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="P62" s="27"/>
+      <c r="W62" s="27"/>
+      <c r="AD62" s="27"/>
+      <c r="AK62" s="27"/>
+      <c r="AR62" s="27"/>
+      <c r="AY62" s="27"/>
+      <c r="BF62" s="27"/>
+      <c r="BG62" s="32"/>
+    </row>
+    <row r="63" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B63" s="27"/>
+      <c r="I63" s="27"/>
+      <c r="P63" s="27"/>
+      <c r="W63" s="27"/>
+      <c r="AD63" s="27"/>
+      <c r="AK63" s="27"/>
+      <c r="AR63" s="27"/>
+      <c r="AY63" s="27"/>
+      <c r="BF63" s="27"/>
+      <c r="BG63" s="32"/>
+    </row>
+    <row r="64" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="P64" s="27"/>
+      <c r="W64" s="27"/>
+      <c r="AD64" s="27"/>
+      <c r="AK64" s="27"/>
+      <c r="AR64" s="27"/>
+      <c r="AY64" s="27"/>
+      <c r="BF64" s="27"/>
+      <c r="BG64" s="32"/>
+    </row>
+    <row r="65" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B65" s="27"/>
+      <c r="I65" s="27"/>
+      <c r="P65" s="27"/>
+      <c r="W65" s="27"/>
+      <c r="AD65" s="27"/>
+      <c r="AK65" s="27"/>
+      <c r="AR65" s="27"/>
+      <c r="AY65" s="27"/>
+      <c r="BF65" s="27"/>
+      <c r="BG65" s="32"/>
+    </row>
+    <row r="66" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B66" s="27"/>
+      <c r="I66" s="27"/>
+      <c r="P66" s="27"/>
+      <c r="W66" s="27"/>
+      <c r="AD66" s="27"/>
+      <c r="AK66" s="27"/>
+      <c r="AR66" s="27"/>
+      <c r="AY66" s="27"/>
+      <c r="BF66" s="27"/>
+      <c r="BG66" s="32"/>
+    </row>
+    <row r="67" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B67" s="27"/>
+      <c r="I67" s="27"/>
+      <c r="P67" s="27"/>
+      <c r="W67" s="27"/>
+      <c r="AD67" s="27"/>
+      <c r="AK67" s="27"/>
+      <c r="AR67" s="27"/>
+      <c r="AY67" s="27"/>
+      <c r="BF67" s="27"/>
+      <c r="BG67" s="32"/>
+    </row>
+    <row r="68" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B68" s="27"/>
+      <c r="I68" s="27"/>
+      <c r="P68" s="27"/>
+      <c r="W68" s="27"/>
+      <c r="AD68" s="27"/>
+      <c r="AK68" s="27"/>
+      <c r="AR68" s="27"/>
+      <c r="AY68" s="27"/>
+      <c r="BF68" s="27"/>
+      <c r="BG68" s="32"/>
+    </row>
+    <row r="69" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B69" s="27"/>
+      <c r="I69" s="27"/>
+      <c r="P69" s="27"/>
+      <c r="W69" s="27"/>
+      <c r="AD69" s="27"/>
+      <c r="AK69" s="27"/>
+      <c r="AR69" s="27"/>
+      <c r="AY69" s="27"/>
+      <c r="BF69" s="27"/>
+      <c r="BG69" s="32"/>
+    </row>
+    <row r="70" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B70" s="27"/>
+      <c r="I70" s="27"/>
+      <c r="P70" s="27"/>
+      <c r="W70" s="27"/>
+      <c r="AD70" s="27"/>
+      <c r="AK70" s="27"/>
+      <c r="AR70" s="27"/>
+      <c r="AY70" s="27"/>
+      <c r="BF70" s="27"/>
+      <c r="BG70" s="32"/>
+    </row>
+    <row r="71" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B71" s="27"/>
+      <c r="I71" s="27"/>
+      <c r="P71" s="27"/>
+      <c r="W71" s="27"/>
+      <c r="AD71" s="27"/>
+      <c r="AK71" s="27"/>
+      <c r="AR71" s="27"/>
+      <c r="AY71" s="27"/>
+      <c r="BF71" s="27"/>
+      <c r="BG71" s="32"/>
+    </row>
+    <row r="72" spans="1:59" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="BG72" s="32"/>
+    </row>
+    <row r="73" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="B73" s="27"/>
+      <c r="C73" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="I73" s="27"/>
+      <c r="J73" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="P73" s="27"/>
+      <c r="W73" s="27"/>
+      <c r="AD73" s="27"/>
+      <c r="AK73" s="27"/>
+      <c r="AR73" s="27"/>
+      <c r="AY73" s="27"/>
+      <c r="BF73" s="27"/>
+      <c r="BG73" s="32"/>
+    </row>
+    <row r="74" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B74" s="27"/>
+      <c r="I74" s="27"/>
+      <c r="P74" s="27"/>
+      <c r="W74" s="27"/>
+      <c r="AD74" s="27"/>
+      <c r="AK74" s="27"/>
+      <c r="AR74" s="27"/>
+      <c r="AY74" s="27"/>
+      <c r="BF74" s="27"/>
+      <c r="BG74" s="32"/>
+    </row>
+    <row r="83" spans="1:59" s="28" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A84" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="B84" s="27"/>
+      <c r="C84" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="I84" s="27"/>
+      <c r="P84" s="27"/>
+      <c r="W84" s="27"/>
+      <c r="AD84" s="27"/>
+      <c r="AK84" s="27"/>
+      <c r="AR84" s="27"/>
+      <c r="AY84" s="27"/>
+      <c r="BF84" s="27"/>
+      <c r="BG84" s="32"/>
+    </row>
+    <row r="85" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B85" s="27"/>
+      <c r="I85" s="27"/>
+      <c r="P85" s="27"/>
+      <c r="W85" s="27"/>
+      <c r="AD85" s="27"/>
+      <c r="AK85" s="27"/>
+      <c r="AR85" s="27"/>
+      <c r="AY85" s="27"/>
+      <c r="BF85" s="27"/>
+      <c r="BG85" s="32"/>
+    </row>
+    <row r="86" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B86" s="27"/>
+      <c r="I86" s="27"/>
+      <c r="P86" s="27"/>
+      <c r="W86" s="27"/>
+      <c r="AD86" s="27"/>
+      <c r="AK86" s="27"/>
+      <c r="AR86" s="27"/>
+      <c r="AY86" s="27"/>
+      <c r="BF86" s="27"/>
+      <c r="BG86" s="32"/>
+    </row>
+    <row r="87" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B87" s="27"/>
+      <c r="I87" s="27"/>
+      <c r="P87" s="27"/>
+      <c r="W87" s="27"/>
+      <c r="AD87" s="27"/>
+      <c r="AK87" s="27"/>
+      <c r="AR87" s="27"/>
+      <c r="AY87" s="27"/>
+      <c r="BF87" s="27"/>
+      <c r="BG87" s="32"/>
+    </row>
+    <row r="88" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B88" s="27"/>
+      <c r="I88" s="27"/>
+      <c r="P88" s="27"/>
+      <c r="W88" s="27"/>
+      <c r="AD88" s="27"/>
+      <c r="AK88" s="27"/>
+      <c r="AR88" s="27"/>
+      <c r="AY88" s="27"/>
+      <c r="BF88" s="27"/>
+      <c r="BG88" s="32"/>
+    </row>
+    <row r="89" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B89" s="27"/>
+      <c r="I89" s="27"/>
+      <c r="P89" s="27"/>
+      <c r="W89" s="27"/>
+      <c r="AD89" s="27"/>
+      <c r="AK89" s="27"/>
+      <c r="AR89" s="27"/>
+      <c r="AY89" s="27"/>
+      <c r="BF89" s="27"/>
+      <c r="BG89" s="32"/>
+    </row>
+    <row r="90" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B90" s="27"/>
+      <c r="I90" s="27"/>
+      <c r="P90" s="27"/>
+      <c r="W90" s="27"/>
+      <c r="AD90" s="27"/>
+      <c r="AK90" s="27"/>
+      <c r="AR90" s="27"/>
+      <c r="AY90" s="27"/>
+      <c r="BF90" s="27"/>
+      <c r="BG90" s="32"/>
+    </row>
+    <row r="91" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B91" s="27"/>
+      <c r="I91" s="27"/>
+      <c r="P91" s="27"/>
+      <c r="W91" s="27"/>
+      <c r="AD91" s="27"/>
+      <c r="AK91" s="27"/>
+      <c r="AR91" s="27"/>
+      <c r="AY91" s="27"/>
+      <c r="BF91" s="27"/>
+      <c r="BG91" s="32"/>
+    </row>
+    <row r="92" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B92" s="27"/>
+      <c r="I92" s="27"/>
+      <c r="P92" s="27"/>
+      <c r="W92" s="27"/>
+      <c r="AD92" s="27"/>
+      <c r="AK92" s="27"/>
+      <c r="AR92" s="27"/>
+      <c r="AY92" s="27"/>
+      <c r="BF92" s="27"/>
+      <c r="BG92" s="32"/>
+    </row>
+    <row r="93" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B93" s="27"/>
+      <c r="I93" s="27"/>
+      <c r="P93" s="27"/>
+      <c r="W93" s="27"/>
+      <c r="AD93" s="27"/>
+      <c r="AK93" s="27"/>
+      <c r="AR93" s="27"/>
+      <c r="AY93" s="27"/>
+      <c r="BF93" s="27"/>
+      <c r="BG93" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1025,10 +2886,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q158"/>
+  <dimension ref="A1:Q508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="A158" sqref="A158"/>
+    <sheetView topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1200,6 +3061,9 @@
       <c r="I14" s="9" t="s">
         <v>39</v>
       </c>
+      <c r="K14" s="9" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="15" spans="1:17" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
@@ -1211,6 +3075,9 @@
       <c r="I15" s="9" t="s">
         <v>39</v>
       </c>
+      <c r="K15" s="9" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="16" spans="1:17" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
@@ -1221,8 +3088,11 @@
       <c r="I16" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="K16" s="9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="D17" s="9" t="s">
@@ -1231,9 +3101,12 @@
       <c r="I17" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="K17" s="9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>40</v>
       </c>
@@ -1243,33 +3116,45 @@
       <c r="I19" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="K19" s="9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D20" s="9" t="s">
         <v>42</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="K20" s="9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D21" s="9" t="s">
         <v>43</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="K21" s="9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D22" s="9" t="s">
         <v>44</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:9" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="K22" s="9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>45</v>
       </c>
@@ -1279,33 +3164,45 @@
       <c r="I24" s="15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="K24" s="15" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D25" s="15" t="s">
         <v>47</v>
       </c>
       <c r="I25" s="15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="K25" s="15" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D26" s="15" t="s">
         <v>48</v>
       </c>
       <c r="I26" s="15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="K26" s="15" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D27" s="15" t="s">
         <v>49</v>
       </c>
       <c r="I27" s="15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:9" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="K27" s="15" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>50</v>
       </c>
@@ -1316,7 +3213,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D30" s="15" t="s">
         <v>52</v>
       </c>
@@ -1324,7 +3221,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D31" s="15" t="s">
         <v>53</v>
       </c>
@@ -1332,7 +3229,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D32" s="15" t="s">
         <v>54</v>
       </c>
@@ -1383,8 +3280,8 @@
     <row r="42" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:9" s="8" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A45" s="8" t="s">
+    <row r="45" spans="1:9" s="25" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A45" s="25" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1395,503 +3292,2719 @@
       </c>
     </row>
     <row r="48" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>62</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="I49" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D50" s="9" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="I50" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D51" s="9" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="I51" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>66</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="I53" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D54" s="9" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="I54" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D55" s="9" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="I55" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="I57" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D58" s="9" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="I58" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D59" s="9" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A63" s="18" t="s">
+      <c r="I59" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D62" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D63" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="I63" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D66" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D67" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D70" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D71" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D74" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="I74" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D75" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="I77" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D78" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="I78" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D79" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I79" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D82" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="I82" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D83" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="I83" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A85" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="I85" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D86" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="I86" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D87" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="1:9" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A90" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="1:9" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A92" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="I92" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D93" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="I93" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D94" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I94" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="1:9" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A96" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D96" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="I96" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D97" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="I97" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D98" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="I98" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="1:9" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A100" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D100" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="I100" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D101" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="I101" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D102" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="I102" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="1:9" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A104" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D104" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="I104" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D105" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="I105" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D106" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="I106" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="108" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A108" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="I108" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D109" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="I109" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D110" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="I110" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A112" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="I112" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D113" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="I113" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D114" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="I114" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="116" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A116" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="I116" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D117" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="I117" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D118" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="I118" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A120" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="I120" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D121" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="I121" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D122" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="I122" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A124" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="I124" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D125" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="I125" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D126" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="I126" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A128" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D128" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="I128" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D129" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="I129" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D130" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="I130" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="132" spans="1:11" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="133" spans="1:11" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A133" s="22" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
+    <row r="134" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="135" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A135" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D65" s="9" t="s">
+      <c r="D135" s="9" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D66" s="9" t="s">
+      <c r="I135" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K135"/>
+    </row>
+    <row r="136" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D136" s="9" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D67" s="9" t="s">
+      <c r="I136" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K136"/>
+    </row>
+    <row r="137" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A137" s="9"/>
+      <c r="B137" s="9"/>
+      <c r="C137" s="9"/>
+      <c r="D137" s="9" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
+      <c r="E137" s="9"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9"/>
+      <c r="H137" s="9"/>
+      <c r="I137" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J137" s="9"/>
+      <c r="K137"/>
+    </row>
+    <row r="138" spans="1:11" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K138" s="20"/>
+    </row>
+    <row r="139" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A139" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="D139" s="9" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D70" s="9" t="s">
+      <c r="I139" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K139"/>
+    </row>
+    <row r="140" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D140" s="9" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D71" s="9" t="s">
+      <c r="I140" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K140"/>
+    </row>
+    <row r="141" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A141" s="9"/>
+      <c r="B141" s="9"/>
+      <c r="C141" s="9"/>
+      <c r="D141" s="9" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A73" s="9" t="s">
+      <c r="E141" s="9"/>
+      <c r="F141" s="9"/>
+      <c r="G141" s="9"/>
+      <c r="H141" s="9"/>
+      <c r="I141" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J141" s="9"/>
+      <c r="K141"/>
+    </row>
+    <row r="142" spans="1:11" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K142" s="20"/>
+    </row>
+    <row r="143" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A143" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="D143" s="9" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D74" s="9" t="s">
+      <c r="I143" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K143"/>
+    </row>
+    <row r="144" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D144" s="9" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D75" s="9" t="s">
+      <c r="I144" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K144"/>
+    </row>
+    <row r="145" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A145" s="9"/>
+      <c r="B145" s="9"/>
+      <c r="C145" s="9"/>
+      <c r="D145" s="9" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A77" s="9" t="s">
+      <c r="E145" s="9"/>
+      <c r="F145" s="9"/>
+      <c r="G145" s="9"/>
+      <c r="H145" s="9"/>
+      <c r="I145" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J145" s="9"/>
+      <c r="K145"/>
+    </row>
+    <row r="146" spans="1:11" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K146" s="20"/>
+    </row>
+    <row r="147" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A147" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D77" s="9" t="s">
+      <c r="D147" s="9" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D78" s="9" t="s">
+      <c r="I147" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K147"/>
+    </row>
+    <row r="148" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D148" s="9" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D79" s="9" t="s">
+      <c r="I148" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K148"/>
+    </row>
+    <row r="149" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A149" s="9"/>
+      <c r="B149" s="9"/>
+      <c r="C149" s="9"/>
+      <c r="D149" s="9" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A81" s="9" t="s">
+      <c r="E149" s="9"/>
+      <c r="F149" s="9"/>
+      <c r="G149" s="9"/>
+      <c r="H149" s="9"/>
+      <c r="I149" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J149" s="9"/>
+      <c r="K149"/>
+    </row>
+    <row r="150" spans="1:11" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K150" s="20"/>
+    </row>
+    <row r="151" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A151" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="D151" s="9" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D82" s="9" t="s">
+      <c r="I151" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K151"/>
+    </row>
+    <row r="152" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D152" s="9" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D83" s="9" t="s">
+      <c r="I152" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K152"/>
+    </row>
+    <row r="153" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A153" s="9"/>
+      <c r="B153" s="9"/>
+      <c r="C153" s="9"/>
+      <c r="D153" s="9" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A85" s="9" t="s">
+      <c r="E153" s="9"/>
+      <c r="F153" s="9"/>
+      <c r="G153" s="9"/>
+      <c r="H153" s="9"/>
+      <c r="I153" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J153" s="9"/>
+      <c r="K153"/>
+    </row>
+    <row r="154" spans="1:11" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K154" s="20"/>
+    </row>
+    <row r="155" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A155" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D85" s="9" t="s">
+      <c r="D155" s="9" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D86" s="9" t="s">
+      <c r="I155" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K155"/>
+    </row>
+    <row r="156" spans="1:11" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D156" s="9" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D87" s="9" t="s">
+      <c r="I156" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K156"/>
+    </row>
+    <row r="157" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D157" s="14" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A89" s="9" t="s">
+      <c r="I157" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="K157" s="12"/>
+    </row>
+    <row r="158" spans="1:11" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K158" s="20"/>
+    </row>
+    <row r="159" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A159" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D89" s="9" t="s">
+      <c r="B159" s="9"/>
+      <c r="C159" s="9"/>
+      <c r="D159" s="9" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D90" s="9" t="s">
+      <c r="E159" s="9"/>
+      <c r="F159" s="9"/>
+      <c r="G159" s="9"/>
+      <c r="H159" s="9"/>
+      <c r="I159" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J159" s="9"/>
+    </row>
+    <row r="160" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A160" s="9"/>
+      <c r="B160" s="9"/>
+      <c r="C160" s="9"/>
+      <c r="D160" s="9" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D91" s="9" t="s">
+      <c r="E160" s="9"/>
+      <c r="F160" s="9"/>
+      <c r="G160" s="9"/>
+      <c r="H160" s="9"/>
+      <c r="I160" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J160" s="9"/>
+    </row>
+    <row r="161" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A161" s="9"/>
+      <c r="B161" s="9"/>
+      <c r="C161" s="9"/>
+      <c r="D161" s="9" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A93" s="9" t="s">
+      <c r="E161" s="9"/>
+      <c r="F161" s="9"/>
+      <c r="G161" s="9"/>
+      <c r="H161" s="9"/>
+      <c r="I161" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J161" s="9"/>
+    </row>
+    <row r="162" spans="1:10" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A162" s="17"/>
+      <c r="B162" s="17"/>
+      <c r="C162" s="17"/>
+      <c r="D162" s="17"/>
+      <c r="E162" s="17"/>
+      <c r="F162" s="17"/>
+      <c r="G162" s="17"/>
+      <c r="H162" s="17"/>
+      <c r="I162" s="17"/>
+      <c r="J162" s="17"/>
+    </row>
+    <row r="163" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A163" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D93" s="9" t="s">
+      <c r="B163" s="9"/>
+      <c r="C163" s="9"/>
+      <c r="D163" s="9" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D94" s="9" t="s">
+      <c r="E163" s="9"/>
+      <c r="F163" s="9"/>
+      <c r="G163" s="9"/>
+      <c r="H163" s="9"/>
+      <c r="I163" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J163" s="9"/>
+    </row>
+    <row r="164" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A164" s="9"/>
+      <c r="B164" s="9"/>
+      <c r="C164" s="9"/>
+      <c r="D164" s="9" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D95" s="9" t="s">
+      <c r="E164" s="9"/>
+      <c r="F164" s="9"/>
+      <c r="G164" s="9"/>
+      <c r="H164" s="9"/>
+      <c r="I164" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J164" s="9"/>
+    </row>
+    <row r="165" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A165" s="9"/>
+      <c r="B165" s="9"/>
+      <c r="C165" s="9"/>
+      <c r="D165" s="9" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="97" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A97" s="9" t="s">
+      <c r="E165" s="9"/>
+      <c r="F165" s="9"/>
+      <c r="G165" s="9"/>
+      <c r="H165" s="9"/>
+      <c r="I165" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J165" s="9"/>
+    </row>
+    <row r="166" spans="1:10" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A166" s="17"/>
+      <c r="B166" s="17"/>
+      <c r="C166" s="17"/>
+      <c r="D166" s="17"/>
+      <c r="E166" s="17"/>
+      <c r="F166" s="17"/>
+      <c r="G166" s="17"/>
+      <c r="H166" s="17"/>
+      <c r="I166" s="17"/>
+      <c r="J166" s="17"/>
+    </row>
+    <row r="167" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A167" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B167" s="9"/>
+      <c r="C167" s="9"/>
+      <c r="D167" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E167" s="9"/>
+      <c r="F167" s="9"/>
+      <c r="G167" s="9"/>
+      <c r="H167" s="9"/>
+      <c r="I167" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J167" s="9"/>
+    </row>
+    <row r="168" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A168" s="9"/>
+      <c r="B168" s="9"/>
+      <c r="C168" s="9"/>
+      <c r="D168" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E168" s="9"/>
+      <c r="F168" s="9"/>
+      <c r="G168" s="9"/>
+      <c r="H168" s="9"/>
+      <c r="I168" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J168" s="9"/>
+    </row>
+    <row r="169" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A169" s="9"/>
+      <c r="B169" s="9"/>
+      <c r="C169" s="9"/>
+      <c r="D169" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E169" s="9"/>
+      <c r="F169" s="9"/>
+      <c r="G169" s="9"/>
+      <c r="H169" s="9"/>
+      <c r="I169" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J169" s="9"/>
+    </row>
+    <row r="170" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="171" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A171" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B171" s="9"/>
+      <c r="C171" s="9"/>
+      <c r="D171" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E171" s="9"/>
+      <c r="F171" s="9"/>
+      <c r="G171" s="9"/>
+      <c r="H171" s="9"/>
+      <c r="I171" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J171" s="9"/>
+    </row>
+    <row r="172" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A172" s="9"/>
+      <c r="B172" s="9"/>
+      <c r="C172" s="9"/>
+      <c r="D172" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E172" s="9"/>
+      <c r="F172" s="9"/>
+      <c r="G172" s="9"/>
+      <c r="H172" s="9"/>
+      <c r="I172" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J172" s="9"/>
+    </row>
+    <row r="173" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A173" s="9"/>
+      <c r="B173" s="9"/>
+      <c r="C173" s="9"/>
+      <c r="D173" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E173" s="9"/>
+      <c r="F173" s="9"/>
+      <c r="G173" s="9"/>
+      <c r="H173" s="9"/>
+      <c r="I173" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J173" s="9"/>
+    </row>
+    <row r="174" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A174" s="9"/>
+      <c r="B174" s="9"/>
+      <c r="C174" s="9"/>
+      <c r="D174" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E174" s="9"/>
+      <c r="F174" s="9"/>
+      <c r="G174" s="9"/>
+      <c r="H174" s="9"/>
+      <c r="I174" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J174" s="9"/>
+    </row>
+    <row r="175" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="176" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A176" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B176" s="9"/>
+      <c r="C176" s="9"/>
+      <c r="D176" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E176" s="9"/>
+      <c r="F176" s="9"/>
+      <c r="G176" s="9"/>
+      <c r="H176" s="9"/>
+      <c r="I176" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J176" s="9"/>
+    </row>
+    <row r="177" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A177" s="9"/>
+      <c r="B177" s="9"/>
+      <c r="C177" s="9"/>
+      <c r="D177" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E177" s="9"/>
+      <c r="F177" s="9"/>
+      <c r="G177" s="9"/>
+      <c r="H177" s="9"/>
+      <c r="I177" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J177" s="9"/>
+    </row>
+    <row r="178" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A178" s="9"/>
+      <c r="B178" s="9"/>
+      <c r="C178" s="9"/>
+      <c r="D178" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D97" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D98" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D99" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="101" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A101" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="103" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A103" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="105" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A105" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D106" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D107" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D108" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="110" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A110" s="9" t="s">
+      <c r="E178" s="9"/>
+      <c r="F178" s="9"/>
+      <c r="G178" s="9"/>
+      <c r="H178" s="9"/>
+      <c r="I178" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J178" s="9"/>
+    </row>
+    <row r="179" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="180" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A180" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="D110" s="9" t="s">
+      <c r="B180" s="9"/>
+      <c r="C180" s="9"/>
+      <c r="D180" s="9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="112" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A112" s="9" t="s">
+      <c r="E180" s="9"/>
+      <c r="F180" s="9"/>
+      <c r="G180" s="9"/>
+      <c r="H180" s="9"/>
+      <c r="I180" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J180" s="9"/>
+    </row>
+    <row r="181" spans="1:11" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A181" s="9"/>
+      <c r="B181" s="9"/>
+      <c r="C181" s="9"/>
+      <c r="D181" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="D112" s="9" t="s">
+      <c r="E181" s="9"/>
+      <c r="F181" s="9"/>
+      <c r="G181" s="14"/>
+      <c r="H181" s="14"/>
+      <c r="I181" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J181" s="14"/>
+    </row>
+    <row r="182" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A182" s="9"/>
+      <c r="B182" s="9"/>
+      <c r="C182" s="9"/>
+      <c r="D182" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E182" s="9"/>
+      <c r="F182" s="9"/>
+      <c r="G182" s="9"/>
+      <c r="H182" s="9"/>
+      <c r="I182" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J182" s="9"/>
+    </row>
+    <row r="183" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="185" spans="1:11" s="24" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A185" s="24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="187" spans="1:11" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A187" s="19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A189" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D189" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="I189" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K189" s="9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D190" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="I190" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K190" s="9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D191" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="I191" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K191" s="9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="193" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A193" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D193" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="I193" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K193" s="9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D194" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="I194" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K194" s="9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D195" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="I195" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K195" s="9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="197" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A197" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D197" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="I197" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D198" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="I198" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D199" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="I199" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="201" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="202" spans="1:11" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A202" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="204" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A204" s="9" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="114" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A114" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D114" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="116" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A116" s="9" t="s">
+      <c r="D204" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="I204" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K204"/>
+    </row>
+    <row r="205" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D205" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="I205" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K205"/>
+    </row>
+    <row r="206" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D206" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="I206" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K206"/>
+    </row>
+    <row r="207" spans="1:11" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K207" s="20"/>
+    </row>
+    <row r="208" spans="1:11" s="9" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D116" s="9" t="s">
+      <c r="D208" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="I208" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K208"/>
+    </row>
+    <row r="209" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D209" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="I209" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K209"/>
+    </row>
+    <row r="210" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A210" s="9"/>
+      <c r="B210" s="9"/>
+      <c r="C210" s="9"/>
+      <c r="D210" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="E210" s="9"/>
+      <c r="F210" s="9"/>
+      <c r="G210" s="9"/>
+      <c r="H210" s="9"/>
+      <c r="I210" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J210" s="9"/>
+    </row>
+    <row r="211" spans="1:11" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A211" s="17"/>
+      <c r="B211" s="17"/>
+      <c r="C211" s="17"/>
+      <c r="D211" s="17"/>
+      <c r="E211" s="17"/>
+      <c r="F211" s="17"/>
+      <c r="G211" s="17"/>
+      <c r="H211" s="17"/>
+      <c r="I211" s="17"/>
+      <c r="J211" s="17"/>
+    </row>
+    <row r="212" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A212" s="9" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="118" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A118" s="9" t="s">
+      <c r="B212" s="9"/>
+      <c r="C212" s="9"/>
+      <c r="D212" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E212" s="9"/>
+      <c r="F212" s="9"/>
+      <c r="G212" s="9"/>
+      <c r="H212" s="9"/>
+      <c r="I212" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J212" s="9"/>
+    </row>
+    <row r="213" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A213" s="9"/>
+      <c r="B213" s="9"/>
+      <c r="C213" s="9"/>
+      <c r="D213" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="E213" s="9"/>
+      <c r="F213" s="9"/>
+      <c r="G213" s="9"/>
+      <c r="H213" s="9"/>
+      <c r="I213" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J213" s="9"/>
+    </row>
+    <row r="214" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A214" s="9"/>
+      <c r="B214" s="9"/>
+      <c r="C214" s="9"/>
+      <c r="D214" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="E214" s="9"/>
+      <c r="F214" s="9"/>
+      <c r="G214" s="9"/>
+      <c r="H214" s="9"/>
+      <c r="I214" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J214" s="9"/>
+    </row>
+    <row r="215" spans="1:11" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A215" s="17"/>
+      <c r="B215" s="17"/>
+      <c r="C215" s="17"/>
+      <c r="D215" s="17"/>
+      <c r="E215" s="17"/>
+      <c r="F215" s="17"/>
+      <c r="G215" s="17"/>
+      <c r="H215" s="17"/>
+      <c r="I215" s="17"/>
+      <c r="J215" s="17"/>
+    </row>
+    <row r="216" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A216" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="D118" s="9" t="s">
+      <c r="B216" s="9"/>
+      <c r="C216" s="9"/>
+      <c r="D216" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E216" s="9"/>
+      <c r="F216" s="9"/>
+      <c r="G216" s="9"/>
+      <c r="H216" s="9"/>
+      <c r="I216" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J216" s="9"/>
+    </row>
+    <row r="217" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A217" s="9"/>
+      <c r="B217" s="9"/>
+      <c r="C217" s="9"/>
+      <c r="D217" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E217" s="9"/>
+      <c r="F217" s="9"/>
+      <c r="G217" s="9"/>
+      <c r="H217" s="9"/>
+      <c r="I217" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J217" s="9"/>
+    </row>
+    <row r="218" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A218" s="9"/>
+      <c r="B218" s="9"/>
+      <c r="C218" s="9"/>
+      <c r="D218" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E218" s="9"/>
+      <c r="F218" s="9"/>
+      <c r="G218" s="9"/>
+      <c r="H218" s="9"/>
+      <c r="I218" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J218" s="9"/>
+    </row>
+    <row r="219" spans="1:11" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A219" s="17"/>
+      <c r="B219" s="17"/>
+      <c r="C219" s="17"/>
+      <c r="D219" s="17"/>
+      <c r="E219" s="17"/>
+      <c r="F219" s="17"/>
+      <c r="G219" s="17"/>
+      <c r="H219" s="17"/>
+      <c r="I219" s="17"/>
+      <c r="J219" s="17"/>
+    </row>
+    <row r="220" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A220" s="9" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D119" s="9" t="s">
+      <c r="B220" s="9"/>
+      <c r="C220" s="9"/>
+      <c r="D220" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E220" s="9"/>
+      <c r="F220" s="9"/>
+      <c r="G220" s="9"/>
+      <c r="H220" s="9"/>
+      <c r="I220" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J220" s="9"/>
+    </row>
+    <row r="221" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A221" s="9"/>
+      <c r="B221" s="9"/>
+      <c r="C221" s="9"/>
+      <c r="D221" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="E221" s="9"/>
+      <c r="F221" s="9"/>
+      <c r="G221" s="9"/>
+      <c r="H221" s="9"/>
+      <c r="I221" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J221" s="9"/>
+    </row>
+    <row r="222" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A222" s="9"/>
+      <c r="B222" s="9"/>
+      <c r="C222" s="9"/>
+      <c r="D222" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="E222" s="9"/>
+      <c r="F222" s="9"/>
+      <c r="G222" s="9"/>
+      <c r="H222" s="9"/>
+      <c r="I222" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J222" s="9"/>
+    </row>
+    <row r="223" spans="1:11" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A223" s="17"/>
+      <c r="B223" s="17"/>
+      <c r="C223" s="17"/>
+      <c r="D223" s="17"/>
+      <c r="E223" s="17"/>
+      <c r="F223" s="17"/>
+      <c r="G223" s="17"/>
+      <c r="H223" s="17"/>
+      <c r="I223" s="17"/>
+      <c r="J223" s="17"/>
+    </row>
+    <row r="224" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A224" s="9" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D120" s="9" t="s">
+      <c r="B224" s="9"/>
+      <c r="C224" s="9"/>
+      <c r="D224" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E224" s="9"/>
+      <c r="F224" s="9"/>
+      <c r="G224" s="9"/>
+      <c r="H224" s="9"/>
+      <c r="I224" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J224" s="9"/>
+    </row>
+    <row r="225" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A225" s="9"/>
+      <c r="B225" s="9"/>
+      <c r="C225" s="9"/>
+      <c r="D225" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="E225" s="9"/>
+      <c r="F225" s="9"/>
+      <c r="G225" s="9"/>
+      <c r="H225" s="9"/>
+      <c r="I225" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J225" s="9"/>
+    </row>
+    <row r="226" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A226" s="9"/>
+      <c r="B226" s="9"/>
+      <c r="C226" s="9"/>
+      <c r="D226" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E226" s="9"/>
+      <c r="F226" s="9"/>
+      <c r="G226" s="9"/>
+      <c r="H226" s="9"/>
+      <c r="I226" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J226" s="9"/>
+    </row>
+    <row r="227" spans="1:10" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A227" s="17"/>
+      <c r="B227" s="17"/>
+      <c r="C227" s="17"/>
+      <c r="D227" s="17"/>
+      <c r="E227" s="17"/>
+      <c r="F227" s="17"/>
+      <c r="G227" s="17"/>
+      <c r="H227" s="17"/>
+      <c r="I227" s="17"/>
+      <c r="J227" s="17"/>
+    </row>
+    <row r="228" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A228" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D228" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="I228" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D229" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="I229" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D230" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="I230" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="232" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A232" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="D232" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="I232" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D233" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="I233" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D234" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="I234" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="236" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A236" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D236" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="I236" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D237" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="I237" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D238" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="I238" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="240" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A240" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D240" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I240" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D241" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="I241" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D242" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="I242" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="244" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A244" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D244" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="I244" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D245" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="I245" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D246" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="I246" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="248" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A248" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="D248" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="I248" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D249" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="I249" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D250" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="I250" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="252" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A252" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D252" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="I252" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D253" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="I253" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D254" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="I254" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="256" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A256" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="D256" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="I256" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D257" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="I257" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D258" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="I258" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="260" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A260" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D260" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="I260" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D261" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="I261" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D262" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="I262" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="264" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A264" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="D264" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="I264" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D265" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="I265" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D266" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="I266" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="268" spans="1:9" s="21" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A268" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="270" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A270" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D270" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="I270" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="272" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A272" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="D272" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="I272" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="274" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A274" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="D274" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I274" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="276" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A276" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="D276" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="I276" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="278" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A278" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D278" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="I278" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="280" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A280" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="D280" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="I280" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="282" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A282" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D282" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="I282" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="284" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A284" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="D284" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="I284" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="286" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A286" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="D286" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="I286" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="288" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A288" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="D288" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="I288" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="290" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="291" spans="1:9" s="23" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A291" s="23" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="293" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A293" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="D293" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="I293" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="295" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A295" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="D295" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="I295" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="297" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A297" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="D297" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="I297" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="299" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="300" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="301" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="302" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="303" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="304" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="305" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="306" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="307" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="308" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="309" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="310" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="311" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="312" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="313" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="314" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="315" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="316" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="317" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="318" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="319" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="320" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="321" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="322" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="323" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="324" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="325" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="326" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="327" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="328" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="329" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="330" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="331" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="332" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="333" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="334" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="335" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="336" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="337" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="338" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="339" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="340" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="341" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="342" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="343" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="344" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="345" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="346" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="347" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="348" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="349" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="350" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="351" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="352" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="353" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="354" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="355" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="356" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="357" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="358" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="359" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="360" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="361" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="362" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="363" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="364" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="365" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="366" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="367" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="368" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="369" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="370" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="371" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="372" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="373" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="374" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="375" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="376" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="377" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="378" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="379" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="380" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="381" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="382" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="383" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="384" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="385" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="386" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="440" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A440" s="12"/>
+      <c r="B440" s="12"/>
+      <c r="C440" s="12"/>
+      <c r="D440" s="12"/>
+      <c r="E440" s="12"/>
+      <c r="F440" s="12"/>
+      <c r="G440" s="12"/>
+      <c r="H440" s="12"/>
+      <c r="I440" s="12"/>
+      <c r="J440" s="12"/>
+      <c r="K440" s="12"/>
+      <c r="L440" s="12"/>
+    </row>
+    <row r="441" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A441" s="12"/>
+      <c r="B441" s="12"/>
+      <c r="C441" s="12"/>
+      <c r="D441" s="12"/>
+      <c r="E441" s="12"/>
+      <c r="F441" s="12"/>
+      <c r="G441" s="12"/>
+      <c r="H441" s="12"/>
+      <c r="I441" s="12"/>
+      <c r="J441" s="12"/>
+      <c r="K441" s="12"/>
+      <c r="L441" s="12"/>
+    </row>
+    <row r="442" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A442" s="12"/>
+      <c r="B442" s="12"/>
+      <c r="C442" s="12"/>
+      <c r="D442" s="12"/>
+      <c r="E442" s="12"/>
+      <c r="F442" s="12"/>
+      <c r="G442" s="12"/>
+      <c r="H442" s="12"/>
+      <c r="I442" s="12"/>
+      <c r="J442" s="12"/>
+      <c r="K442" s="12"/>
+      <c r="L442" s="12"/>
+    </row>
+    <row r="443" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A443" s="12"/>
+      <c r="B443" s="12"/>
+      <c r="C443" s="12"/>
+      <c r="D443" s="12"/>
+      <c r="E443" s="12"/>
+      <c r="F443" s="12"/>
+      <c r="G443" s="12"/>
+      <c r="H443" s="12"/>
+      <c r="I443" s="12"/>
+      <c r="J443" s="12"/>
+      <c r="K443" s="12"/>
+      <c r="L443" s="12"/>
+    </row>
+    <row r="444" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A444" s="14"/>
+      <c r="B444" s="14"/>
+      <c r="C444" s="14"/>
+      <c r="D444" s="14"/>
+      <c r="E444" s="14"/>
+      <c r="F444" s="14"/>
+      <c r="G444" s="14"/>
+      <c r="H444" s="14"/>
+      <c r="I444" s="14"/>
+      <c r="J444" s="14"/>
+      <c r="K444" s="12"/>
+      <c r="L444" s="12"/>
+    </row>
+    <row r="445" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A445" s="14"/>
+      <c r="B445" s="14"/>
+      <c r="C445" s="14"/>
+      <c r="D445" s="14"/>
+      <c r="E445" s="14"/>
+      <c r="F445" s="14"/>
+      <c r="G445" s="14"/>
+      <c r="H445" s="14"/>
+      <c r="I445" s="14"/>
+      <c r="J445" s="14"/>
+      <c r="K445" s="12"/>
+      <c r="L445" s="12"/>
+    </row>
+    <row r="446" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A446" s="14"/>
+      <c r="B446" s="14"/>
+      <c r="C446" s="14"/>
+      <c r="D446" s="14"/>
+      <c r="E446" s="14"/>
+      <c r="F446" s="14"/>
+      <c r="G446" s="14"/>
+      <c r="H446" s="14"/>
+      <c r="I446" s="14"/>
+      <c r="J446" s="14"/>
+      <c r="K446" s="12"/>
+      <c r="L446" s="12"/>
+    </row>
+    <row r="447" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A447" s="14"/>
+      <c r="B447" s="14"/>
+      <c r="C447" s="14"/>
+      <c r="D447" s="14"/>
+      <c r="E447" s="14"/>
+      <c r="F447" s="14"/>
+      <c r="G447" s="14"/>
+      <c r="H447" s="14"/>
+      <c r="I447" s="14"/>
+      <c r="J447" s="14"/>
+      <c r="K447" s="12"/>
+      <c r="L447" s="12"/>
+    </row>
+    <row r="448" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A448" s="14"/>
+      <c r="B448" s="14"/>
+      <c r="C448" s="14"/>
+      <c r="D448" s="14"/>
+      <c r="E448" s="14"/>
+      <c r="F448" s="14"/>
+      <c r="G448" s="14"/>
+      <c r="H448" s="14"/>
+      <c r="I448" s="14"/>
+      <c r="J448" s="14"/>
+      <c r="K448" s="12"/>
+      <c r="L448" s="12"/>
+    </row>
+    <row r="449" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A449" s="12"/>
+      <c r="B449" s="12"/>
+      <c r="C449" s="12"/>
+      <c r="D449" s="12"/>
+      <c r="E449" s="12"/>
+      <c r="F449" s="12"/>
+      <c r="G449" s="12"/>
+      <c r="H449" s="12"/>
+      <c r="I449" s="12"/>
+      <c r="J449" s="12"/>
+      <c r="K449" s="12"/>
+      <c r="L449" s="12"/>
+    </row>
+    <row r="450" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A450" s="12"/>
+      <c r="B450" s="12"/>
+      <c r="C450" s="12"/>
+      <c r="D450" s="12"/>
+      <c r="E450" s="12"/>
+      <c r="F450" s="12"/>
+      <c r="G450" s="12"/>
+      <c r="H450" s="12"/>
+      <c r="I450" s="12"/>
+      <c r="J450" s="12"/>
+      <c r="K450" s="12"/>
+      <c r="L450" s="12"/>
+    </row>
+    <row r="451" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A451" s="12"/>
+      <c r="B451" s="12"/>
+      <c r="C451" s="12"/>
+      <c r="D451" s="12"/>
+      <c r="E451" s="12"/>
+      <c r="F451" s="12"/>
+      <c r="G451" s="12"/>
+      <c r="H451" s="12"/>
+      <c r="I451" s="12"/>
+      <c r="J451" s="12"/>
+      <c r="K451" s="12"/>
+      <c r="L451" s="12"/>
+    </row>
+    <row r="452" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A452" s="12"/>
+      <c r="B452" s="12"/>
+      <c r="C452" s="12"/>
+      <c r="D452" s="12"/>
+      <c r="E452" s="12"/>
+      <c r="F452" s="12"/>
+      <c r="G452" s="12"/>
+      <c r="H452" s="12"/>
+      <c r="I452" s="12"/>
+      <c r="J452" s="12"/>
+      <c r="K452" s="12"/>
+      <c r="L452" s="12"/>
+    </row>
+    <row r="453" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A453" s="14"/>
+      <c r="B453" s="14"/>
+      <c r="C453" s="14"/>
+      <c r="D453" s="14"/>
+      <c r="E453" s="14"/>
+      <c r="F453" s="14"/>
+      <c r="G453" s="14"/>
+      <c r="H453" s="14"/>
+      <c r="I453" s="14"/>
+      <c r="J453" s="14"/>
+      <c r="K453" s="12"/>
+      <c r="L453" s="12"/>
+    </row>
+    <row r="454" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A454" s="14"/>
+      <c r="B454" s="14"/>
+      <c r="C454" s="14"/>
+      <c r="D454" s="14"/>
+      <c r="E454" s="14"/>
+      <c r="F454" s="14"/>
+      <c r="G454" s="14"/>
+      <c r="H454" s="14"/>
+      <c r="I454" s="14"/>
+      <c r="J454" s="14"/>
+      <c r="K454" s="12"/>
+      <c r="L454" s="12"/>
+    </row>
+    <row r="455" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A455" s="14"/>
+      <c r="B455" s="14"/>
+      <c r="C455" s="14"/>
+      <c r="D455" s="14"/>
+      <c r="E455" s="14"/>
+      <c r="F455" s="14"/>
+      <c r="G455" s="14"/>
+      <c r="H455" s="14"/>
+      <c r="I455" s="14"/>
+      <c r="J455" s="14"/>
+      <c r="K455" s="12"/>
+      <c r="L455" s="12"/>
+    </row>
+    <row r="456" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A456" s="14"/>
+      <c r="B456" s="14"/>
+      <c r="C456" s="14"/>
+      <c r="D456" s="14"/>
+      <c r="E456" s="14"/>
+      <c r="F456" s="14"/>
+      <c r="G456" s="14"/>
+      <c r="H456" s="14"/>
+      <c r="I456" s="14"/>
+      <c r="J456" s="14"/>
+      <c r="K456" s="12"/>
+      <c r="L456" s="12"/>
+    </row>
+    <row r="457" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A457" s="14"/>
+      <c r="B457" s="14"/>
+      <c r="C457" s="14"/>
+      <c r="D457" s="14"/>
+      <c r="E457" s="14"/>
+      <c r="F457" s="14"/>
+      <c r="G457" s="14"/>
+      <c r="H457" s="14"/>
+      <c r="I457" s="14"/>
+      <c r="J457" s="14"/>
+      <c r="K457" s="12"/>
+      <c r="L457" s="12"/>
+    </row>
+    <row r="458" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A458" s="14"/>
+      <c r="B458" s="14"/>
+      <c r="C458" s="14"/>
+      <c r="D458" s="14"/>
+      <c r="E458" s="14"/>
+      <c r="F458" s="14"/>
+      <c r="G458" s="14"/>
+      <c r="H458" s="14"/>
+      <c r="I458" s="14"/>
+      <c r="J458" s="14"/>
+      <c r="K458" s="12"/>
+      <c r="L458" s="12"/>
+    </row>
+    <row r="459" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A459" s="14"/>
+      <c r="B459" s="14"/>
+      <c r="C459" s="14"/>
+      <c r="D459" s="14"/>
+      <c r="E459" s="14"/>
+      <c r="F459" s="14"/>
+      <c r="G459" s="14"/>
+      <c r="H459" s="14"/>
+      <c r="I459" s="14"/>
+      <c r="J459" s="14"/>
+      <c r="K459" s="12"/>
+      <c r="L459" s="12"/>
+    </row>
+    <row r="460" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A460" s="14"/>
+      <c r="B460" s="14"/>
+      <c r="C460" s="14"/>
+      <c r="D460" s="14"/>
+      <c r="E460" s="14"/>
+      <c r="F460" s="14"/>
+      <c r="G460" s="14"/>
+      <c r="H460" s="14"/>
+      <c r="I460" s="14"/>
+      <c r="J460" s="14"/>
+      <c r="K460" s="12"/>
+      <c r="L460" s="12"/>
+    </row>
+    <row r="461" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A461" s="14"/>
+      <c r="B461" s="14"/>
+      <c r="C461" s="14"/>
+      <c r="D461" s="14"/>
+      <c r="E461" s="14"/>
+      <c r="F461" s="14"/>
+      <c r="G461" s="14"/>
+      <c r="H461" s="14"/>
+      <c r="I461" s="14"/>
+      <c r="J461" s="14"/>
+      <c r="K461" s="12"/>
+      <c r="L461" s="12"/>
+    </row>
+    <row r="462" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A462" s="12"/>
+      <c r="B462" s="12"/>
+      <c r="C462" s="12"/>
+      <c r="D462" s="12"/>
+      <c r="E462" s="12"/>
+      <c r="F462" s="12"/>
+      <c r="G462" s="12"/>
+      <c r="H462" s="12"/>
+      <c r="I462" s="12"/>
+      <c r="J462" s="12"/>
+      <c r="K462" s="12"/>
+      <c r="L462" s="12"/>
+    </row>
+    <row r="463" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A463" s="12"/>
+      <c r="B463" s="12"/>
+      <c r="C463" s="12"/>
+      <c r="D463" s="12"/>
+      <c r="E463" s="12"/>
+      <c r="F463" s="12"/>
+      <c r="G463" s="12"/>
+      <c r="H463" s="12"/>
+      <c r="I463" s="12"/>
+      <c r="J463" s="12"/>
+      <c r="K463" s="12"/>
+      <c r="L463" s="12"/>
+    </row>
+    <row r="464" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A464" s="12"/>
+      <c r="B464" s="12"/>
+      <c r="C464" s="12"/>
+      <c r="D464" s="12"/>
+      <c r="E464" s="12"/>
+      <c r="F464" s="12"/>
+      <c r="G464" s="12"/>
+      <c r="H464" s="12"/>
+      <c r="I464" s="12"/>
+      <c r="J464" s="12"/>
+      <c r="K464" s="12"/>
+      <c r="L464" s="12"/>
+    </row>
+    <row r="465" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A465" s="14"/>
+      <c r="B465" s="14"/>
+      <c r="C465" s="14"/>
+      <c r="D465" s="14"/>
+      <c r="E465" s="14"/>
+      <c r="F465" s="14"/>
+      <c r="G465" s="14"/>
+      <c r="H465" s="14"/>
+      <c r="I465" s="14"/>
+      <c r="J465" s="14"/>
+      <c r="K465" s="12"/>
+      <c r="L465" s="12"/>
+    </row>
+    <row r="466" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A466" s="14"/>
+      <c r="B466" s="14"/>
+      <c r="C466" s="14"/>
+      <c r="D466" s="14"/>
+      <c r="E466" s="14"/>
+      <c r="F466" s="14"/>
+      <c r="G466" s="14"/>
+      <c r="H466" s="14"/>
+      <c r="I466" s="14"/>
+      <c r="J466" s="14"/>
+      <c r="K466" s="12"/>
+      <c r="L466" s="12"/>
+    </row>
+    <row r="467" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A467" s="14"/>
+      <c r="B467" s="14"/>
+      <c r="C467" s="14"/>
+      <c r="D467" s="14"/>
+      <c r="E467" s="14"/>
+      <c r="F467" s="14"/>
+      <c r="G467" s="14"/>
+      <c r="H467" s="14"/>
+      <c r="I467" s="14"/>
+      <c r="J467" s="14"/>
+      <c r="K467" s="12"/>
+      <c r="L467" s="12"/>
+    </row>
+    <row r="468" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A468" s="14"/>
+      <c r="B468" s="14"/>
+      <c r="C468" s="14"/>
+      <c r="D468" s="14"/>
+      <c r="E468" s="14"/>
+      <c r="F468" s="14"/>
+      <c r="G468" s="14"/>
+      <c r="H468" s="14"/>
+      <c r="I468" s="14"/>
+      <c r="J468" s="14"/>
+      <c r="K468" s="12"/>
+      <c r="L468" s="12"/>
+    </row>
+    <row r="469" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A469" s="14"/>
+      <c r="B469" s="14"/>
+      <c r="C469" s="14"/>
+      <c r="D469" s="14"/>
+      <c r="E469" s="14"/>
+      <c r="F469" s="14"/>
+      <c r="G469" s="14"/>
+      <c r="H469" s="14"/>
+      <c r="I469" s="14"/>
+      <c r="J469" s="14"/>
+      <c r="K469" s="12"/>
+      <c r="L469" s="12"/>
+    </row>
+    <row r="470" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A470" s="14"/>
+      <c r="B470" s="14"/>
+      <c r="C470" s="14"/>
+      <c r="D470" s="14"/>
+      <c r="E470" s="14"/>
+      <c r="F470" s="14"/>
+      <c r="G470" s="14"/>
+      <c r="H470" s="14"/>
+      <c r="I470" s="14"/>
+      <c r="J470" s="14"/>
+      <c r="K470" s="12"/>
+      <c r="L470" s="12"/>
+    </row>
+    <row r="471" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A471" s="14"/>
+      <c r="B471" s="14"/>
+      <c r="C471" s="14"/>
+      <c r="D471" s="14"/>
+      <c r="E471" s="14"/>
+      <c r="F471" s="14"/>
+      <c r="G471" s="14"/>
+      <c r="H471" s="14"/>
+      <c r="I471" s="14"/>
+      <c r="J471" s="14"/>
+      <c r="K471" s="12"/>
+      <c r="L471" s="12"/>
+    </row>
+    <row r="472" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A472" s="12"/>
+      <c r="B472" s="12"/>
+      <c r="C472" s="12"/>
+      <c r="D472" s="12"/>
+      <c r="E472" s="12"/>
+      <c r="F472" s="12"/>
+      <c r="G472" s="14"/>
+      <c r="H472" s="14"/>
+      <c r="I472" s="14"/>
+      <c r="J472" s="14"/>
+      <c r="K472" s="12"/>
+      <c r="L472" s="12"/>
+    </row>
+    <row r="473" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A473" s="12"/>
+      <c r="B473" s="12"/>
+      <c r="C473" s="12"/>
+      <c r="D473" s="12"/>
+      <c r="E473" s="12"/>
+      <c r="F473" s="12"/>
+      <c r="G473" s="14"/>
+      <c r="H473" s="14"/>
+      <c r="I473" s="14"/>
+      <c r="J473" s="14"/>
+      <c r="K473" s="12"/>
+      <c r="L473" s="12"/>
+    </row>
+    <row r="474" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A474" s="12"/>
+      <c r="B474" s="12"/>
+      <c r="C474" s="12"/>
+      <c r="D474" s="12"/>
+      <c r="E474" s="12"/>
+      <c r="F474" s="12"/>
+      <c r="G474" s="14"/>
+      <c r="H474" s="14"/>
+      <c r="I474" s="14"/>
+      <c r="J474" s="14"/>
+      <c r="K474" s="12"/>
+      <c r="L474" s="12"/>
+    </row>
+    <row r="475" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A475" s="12"/>
+      <c r="B475" s="12"/>
+      <c r="C475" s="12"/>
+      <c r="D475" s="12"/>
+      <c r="E475" s="12"/>
+      <c r="F475" s="12"/>
+      <c r="G475" s="12"/>
+      <c r="H475" s="12"/>
+      <c r="I475" s="12"/>
+      <c r="J475" s="12"/>
+      <c r="K475" s="12"/>
+      <c r="L475" s="12"/>
+    </row>
+    <row r="476" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A476" s="14"/>
+      <c r="B476" s="14"/>
+      <c r="C476" s="14"/>
+      <c r="D476" s="14"/>
+      <c r="E476" s="14"/>
+      <c r="F476" s="14"/>
+      <c r="G476" s="14"/>
+      <c r="H476" s="14"/>
+      <c r="I476" s="14"/>
+      <c r="J476" s="14"/>
+      <c r="K476" s="12"/>
+      <c r="L476" s="12"/>
+    </row>
+    <row r="477" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A477" s="14"/>
+      <c r="B477" s="14"/>
+      <c r="C477" s="14"/>
+      <c r="D477" s="14"/>
+      <c r="E477" s="14"/>
+      <c r="F477" s="14"/>
+      <c r="G477" s="14"/>
+      <c r="H477" s="14"/>
+      <c r="I477" s="14"/>
+      <c r="J477" s="14"/>
+      <c r="K477" s="12"/>
+      <c r="L477" s="12"/>
+    </row>
+    <row r="502" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A502" s="9"/>
+      <c r="B502" s="9"/>
+      <c r="C502" s="9"/>
+      <c r="D502" s="9"/>
+      <c r="E502" s="9"/>
+      <c r="F502" s="9"/>
+      <c r="G502" s="9"/>
+      <c r="H502" s="9"/>
+      <c r="I502" s="9"/>
+      <c r="J502" s="9"/>
+    </row>
+    <row r="504" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="121" spans="1:4" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A122" s="9" t="s">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
         <v>132</v>
       </c>
-      <c r="D122" s="9" t="s">
+    </row>
+    <row r="506" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="123" spans="1:4" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A124" s="9" t="s">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="125" spans="1:4" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A126" s="9" t="s">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
         <v>135</v>
       </c>
-      <c r="D126" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A128" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D128" s="9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D129" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D130" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="132" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A132" s="18" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="134" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A134" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D134" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D135" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D136" s="9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="138" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A138" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="D138" s="9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D139" s="9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D140" s="9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A142" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="D142" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D143" s="9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D144" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="146" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A146" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D146" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D147" s="9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D148" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="150" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A150" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="D150" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D151" s="9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D152" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="154" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A154" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="D154" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D155" s="9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D156" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="158" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/AssetList-Planning.xlsx
+++ b/Documents/AssetList-Planning.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rilana\Desktop\School\Gamelab 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enra\Pictures\Sexy-Egels\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9105"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="341">
   <si>
     <t>Planning</t>
   </si>
@@ -177,39 +177,9 @@
     <t>5R-Char-Lady</t>
   </si>
   <si>
-    <t>Villager 1 (old man)</t>
-  </si>
-  <si>
-    <t>2D-Char-Villager1</t>
-  </si>
-  <si>
-    <t>3D-Char-Villager1</t>
-  </si>
-  <si>
-    <t>4U-Char-Villager1</t>
-  </si>
-  <si>
-    <t>5R-Char-Villager1</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
-    <t>Villager 2</t>
-  </si>
-  <si>
-    <t>2D-Char-Villager2</t>
-  </si>
-  <si>
-    <t>3D-Char-Villager2</t>
-  </si>
-  <si>
-    <t>4D-Char-Villager2</t>
-  </si>
-  <si>
-    <t>5R-Char-Villager2</t>
-  </si>
-  <si>
     <t>Houses</t>
   </si>
   <si>
@@ -522,30 +492,6 @@
     <t>Temple</t>
   </si>
   <si>
-    <t>Piller</t>
-  </si>
-  <si>
-    <t>Door</t>
-  </si>
-  <si>
-    <t>2D-ENV-TempleDoor</t>
-  </si>
-  <si>
-    <t>3D-ENV-TempleDoor</t>
-  </si>
-  <si>
-    <t>4U-ENV-TempleDoor</t>
-  </si>
-  <si>
-    <t>2D-ENV-TemplePiller</t>
-  </si>
-  <si>
-    <t>3D-ENV-TemplePiller</t>
-  </si>
-  <si>
-    <t>4U-ENV-TemplePiller</t>
-  </si>
-  <si>
     <t>Roof</t>
   </si>
   <si>
@@ -621,15 +567,6 @@
     <t>Labyrinth piller</t>
   </si>
   <si>
-    <t>2D-ENV-LabyPiller</t>
-  </si>
-  <si>
-    <t>3D-ENV-LabyPiller</t>
-  </si>
-  <si>
-    <t>4U-ENV-LabyPiller</t>
-  </si>
-  <si>
     <t>Items</t>
   </si>
   <si>
@@ -951,120 +888,21 @@
     <t>presentatie</t>
   </si>
   <si>
-    <t>Lvl Design[</t>
-  </si>
-  <si>
-    <t>Huisjes textures</t>
-  </si>
-  <si>
-    <t>flowers</t>
-  </si>
-  <si>
-    <t>animals</t>
-  </si>
-  <si>
-    <t>nature pieces</t>
-  </si>
-  <si>
-    <t>bed</t>
-  </si>
-  <si>
-    <t>chair</t>
-  </si>
-  <si>
-    <t>table</t>
-  </si>
-  <si>
-    <t>pans</t>
-  </si>
-  <si>
-    <t>candle</t>
-  </si>
-  <si>
-    <t>crafting</t>
-  </si>
-  <si>
-    <t>slab</t>
-  </si>
-  <si>
-    <t>crafting implementing</t>
-  </si>
-  <si>
-    <t>pickup script</t>
-  </si>
-  <si>
-    <t>quest implementing</t>
-  </si>
-  <si>
-    <t>remake quest hud</t>
-  </si>
-  <si>
-    <t>minotaur scripts</t>
-  </si>
-  <si>
-    <t>minotaur</t>
-  </si>
-  <si>
-    <t>player controller</t>
-  </si>
-  <si>
-    <t>dialogue</t>
-  </si>
-  <si>
-    <t>pauzeren</t>
-  </si>
-  <si>
-    <t>arm animations</t>
-  </si>
-  <si>
-    <t>combat scripts</t>
-  </si>
-  <si>
-    <t>player controller 2.0</t>
-  </si>
-  <si>
-    <t>water prefab</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>`bunny script</t>
-  </si>
-  <si>
     <t>Thomas</t>
   </si>
   <si>
     <t>Arne</t>
   </si>
   <si>
-    <t>shields textures</t>
-  </si>
-  <si>
-    <t>sprites en ui slab</t>
-  </si>
-  <si>
     <t>priority</t>
   </si>
   <si>
-    <t>new in group</t>
-  </si>
-  <si>
-    <t>animation armen</t>
-  </si>
-  <si>
-    <t>lady-3D</t>
-  </si>
-  <si>
     <t>Lady-U4</t>
   </si>
   <si>
-    <t>Minotaur afmaken</t>
-  </si>
-  <si>
-    <t>pots</t>
-  </si>
-  <si>
     <t>Alchemist-3D</t>
   </si>
   <si>
@@ -1074,31 +912,148 @@
     <t>Alchemist-2D</t>
   </si>
   <si>
-    <t>monitaur rig</t>
-  </si>
-  <si>
-    <t>alchemsit rig</t>
-  </si>
-  <si>
-    <t>lady rig</t>
-  </si>
-  <si>
     <t>Dees</t>
   </si>
   <si>
-    <t>Temple maze Implementing</t>
-  </si>
-  <si>
-    <t>Vegatation</t>
-  </si>
-  <si>
     <t>Vegetation</t>
+  </si>
+  <si>
+    <t>Water Shader</t>
+  </si>
+  <si>
+    <t>Bushes</t>
+  </si>
+  <si>
+    <t>Mushroom</t>
+  </si>
+  <si>
+    <t>Pillar</t>
+  </si>
+  <si>
+    <t>2D-ENV-TemplePillar</t>
+  </si>
+  <si>
+    <t>3D-ENV-TemplePillar</t>
+  </si>
+  <si>
+    <t>4U-ENV-TemplePillar</t>
+  </si>
+  <si>
+    <t>Alchemist</t>
+  </si>
+  <si>
+    <t>2D-Char-Alchemist</t>
+  </si>
+  <si>
+    <t>3D-Char-Alchemist</t>
+  </si>
+  <si>
+    <t>4U-Char-Alchemist</t>
+  </si>
+  <si>
+    <t>5R-Char-Alchemist</t>
+  </si>
+  <si>
+    <t>2D-ENV-TempleWall</t>
+  </si>
+  <si>
+    <t>3D-ENV-TempleWall</t>
+  </si>
+  <si>
+    <t>4U-ENV-TempleWall</t>
+  </si>
+  <si>
+    <t>2D-ENV-LabyPillar</t>
+  </si>
+  <si>
+    <t>3D-ENV-LabyPillar</t>
+  </si>
+  <si>
+    <t>4U-ENV-LabyPillar</t>
+  </si>
+  <si>
+    <t>Crafting</t>
+  </si>
+  <si>
+    <t>Slab</t>
+  </si>
+  <si>
+    <t>Pickup Script</t>
+  </si>
+  <si>
+    <t>Crafting Implementing</t>
+  </si>
+  <si>
+    <t>Lady-3D</t>
+  </si>
+  <si>
+    <t>House Textures</t>
+  </si>
+  <si>
+    <t>Temple Maze Implementing</t>
+  </si>
+  <si>
+    <t>Arms Animations</t>
+  </si>
+  <si>
+    <t>UISlab</t>
+  </si>
+  <si>
+    <t>Shields Textures</t>
+  </si>
+  <si>
+    <t>Flowers</t>
+  </si>
+  <si>
+    <t>Lady Rig</t>
+  </si>
+  <si>
+    <t>Alchemist Rig</t>
+  </si>
+  <si>
+    <t>Minotaur Rig</t>
+  </si>
+  <si>
+    <t>Quest Implementing</t>
+  </si>
+  <si>
+    <t>Remake Quest HUD</t>
+  </si>
+  <si>
+    <t>Minotaur Scripts</t>
+  </si>
+  <si>
+    <t>Bunny Script</t>
+  </si>
+  <si>
+    <t>Arms Animations Implementing</t>
+  </si>
+  <si>
+    <t>Pans</t>
+  </si>
+  <si>
+    <t>Lvl Design</t>
+  </si>
+  <si>
+    <t>new in group (NIG)</t>
+  </si>
+  <si>
+    <t>Combat Script</t>
+  </si>
+  <si>
+    <t>PlayerController</t>
+  </si>
+  <si>
+    <t>PlayerController 2.0</t>
+  </si>
+  <si>
+    <t>Minotaur Finishing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1320,11 +1275,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="3" builtinId="10"/>
-    <cellStyle name="Percent" xfId="4" builtinId="5"/>
+    <cellStyle name="Neutraal" xfId="2" builtinId="28"/>
+    <cellStyle name="Notitie" xfId="3" builtinId="10"/>
+    <cellStyle name="Ongeldig" xfId="1" builtinId="27"/>
+    <cellStyle name="Procent" xfId="4" builtinId="5"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1638,30 +1593,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28:J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" style="28"/>
-    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="28"/>
-    <col min="10" max="10" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" style="28"/>
-    <col min="17" max="17" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.88671875" style="28"/>
-    <col min="24" max="24" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.88671875" style="28"/>
-    <col min="37" max="37" width="8.88671875" style="28"/>
-    <col min="44" max="44" width="8.88671875" style="28"/>
-    <col min="51" max="51" width="8.88671875" style="28"/>
-    <col min="58" max="58" width="8.88671875" style="28"/>
-    <col min="59" max="59" width="8.88671875" style="29"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="28"/>
+    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="28"/>
+    <col min="10" max="10" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="28"/>
+    <col min="17" max="17" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.85546875" style="28"/>
+    <col min="24" max="24" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.85546875" style="28"/>
+    <col min="37" max="37" width="8.85546875" style="28"/>
+    <col min="44" max="44" width="8.85546875" style="28"/>
+    <col min="51" max="51" width="8.85546875" style="28"/>
+    <col min="58" max="58" width="8.85546875" style="28"/>
+    <col min="59" max="59" width="8.85546875" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" ht="35.4" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:61" ht="35.25" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1684,7 +1641,7 @@
       <c r="BE1" s="12"/>
       <c r="BF1" s="12"/>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B2" s="12"/>
       <c r="I2" s="12"/>
       <c r="P2" s="12"/>
@@ -1704,9 +1661,9 @@
       <c r="BE2" s="12"/>
       <c r="BF2" s="12"/>
     </row>
-    <row r="3" spans="1:61" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:61" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="B3" s="12"/>
       <c r="I3" s="12"/>
@@ -1727,7 +1684,7 @@
       <c r="BE3" s="12"/>
       <c r="BF3" s="12"/>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B4" s="12"/>
       <c r="I4" s="12"/>
       <c r="P4" s="12"/>
@@ -1747,9 +1704,9 @@
       <c r="BE4" s="12"/>
       <c r="BF4" s="12"/>
     </row>
-    <row r="5" spans="1:61" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="30">
@@ -1817,31 +1774,31 @@
         <v>42916</v>
       </c>
       <c r="BI5" s="9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="6" spans="1:61" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:61" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="BG6" s="32"/>
     </row>
-    <row r="7" spans="1:61" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="B7" s="27"/>
       <c r="C7" s="9" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I7" s="27"/>
       <c r="J7" s="9" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="P7" s="27"/>
       <c r="Q7" s="9" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="W7" s="27"/>
       <c r="X7" s="9" t="s">
-        <v>325</v>
+        <v>255</v>
       </c>
       <c r="AD7" s="27"/>
       <c r="AK7" s="27"/>
@@ -1851,18 +1808,18 @@
       <c r="BG7" s="32"/>
       <c r="BH7" s="30"/>
     </row>
-    <row r="8" spans="1:61" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="27"/>
       <c r="C8" s="9" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I8" s="27"/>
       <c r="J8" s="9" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="P8" s="27"/>
       <c r="Q8" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="W8" s="27"/>
       <c r="AD8" s="27"/>
@@ -1872,14 +1829,14 @@
       <c r="BF8" s="27"/>
       <c r="BG8" s="32"/>
     </row>
-    <row r="9" spans="1:61" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="27"/>
       <c r="C9" s="9" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I9" s="27"/>
       <c r="J9" s="9" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="P9" s="27"/>
       <c r="W9" s="27"/>
@@ -1890,10 +1847,10 @@
       <c r="BF9" s="27"/>
       <c r="BG9" s="32"/>
     </row>
-    <row r="10" spans="1:61" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="27"/>
       <c r="C10" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I10" s="27"/>
       <c r="P10" s="27"/>
@@ -1905,7 +1862,7 @@
       <c r="BF10" s="27"/>
       <c r="BG10" s="32"/>
     </row>
-    <row r="11" spans="1:61" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="27"/>
       <c r="I11" s="27"/>
       <c r="P11" s="27"/>
@@ -1917,7 +1874,7 @@
       <c r="BF11" s="27"/>
       <c r="BG11" s="32"/>
     </row>
-    <row r="12" spans="1:61" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="27"/>
       <c r="I12" s="27"/>
       <c r="P12" s="27"/>
@@ -1929,7 +1886,7 @@
       <c r="BF12" s="27"/>
       <c r="BG12" s="32"/>
     </row>
-    <row r="13" spans="1:61" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="27"/>
       <c r="I13" s="27"/>
       <c r="P13" s="27"/>
@@ -1941,7 +1898,7 @@
       <c r="BF13" s="27"/>
       <c r="BG13" s="32"/>
     </row>
-    <row r="14" spans="1:61" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="27"/>
       <c r="I14" s="27"/>
       <c r="P14" s="27"/>
@@ -1953,7 +1910,7 @@
       <c r="BF14" s="27"/>
       <c r="BG14" s="32"/>
     </row>
-    <row r="15" spans="1:61" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="27"/>
       <c r="I15" s="27"/>
       <c r="P15" s="27"/>
@@ -1965,7 +1922,7 @@
       <c r="BF15" s="27"/>
       <c r="BG15" s="32"/>
     </row>
-    <row r="16" spans="1:61" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="27"/>
       <c r="I16" s="27"/>
       <c r="P16" s="27"/>
@@ -1977,25 +1934,25 @@
       <c r="BF16" s="27"/>
       <c r="BG16" s="32"/>
     </row>
-    <row r="17" spans="1:59" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="BG17" s="32"/>
     </row>
-    <row r="18" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="B18" s="27"/>
       <c r="C18" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="I18" s="27"/>
       <c r="J18" s="9" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="P18" s="27"/>
+      <c r="Q18" s="9" t="s">
+        <v>333</v>
+      </c>
       <c r="W18" s="27"/>
       <c r="AD18" s="27"/>
       <c r="AK18" s="27"/>
@@ -2004,17 +1961,11 @@
       <c r="BF18" s="27"/>
       <c r="BG18" s="32"/>
     </row>
-    <row r="19" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="27"/>
-      <c r="C19" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>332</v>
-      </c>
       <c r="I19" s="27"/>
       <c r="J19" s="9" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="P19" s="27"/>
       <c r="W19" s="27"/>
@@ -2025,15 +1976,15 @@
       <c r="BF19" s="27"/>
       <c r="BG19" s="32"/>
     </row>
-    <row r="20" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="27"/>
-      <c r="C20" s="9" t="s">
-        <v>328</v>
-      </c>
       <c r="F20" s="9" t="s">
-        <v>333</v>
+        <v>287</v>
       </c>
       <c r="I20" s="27"/>
+      <c r="J20" s="9" t="s">
+        <v>339</v>
+      </c>
       <c r="P20" s="27"/>
       <c r="W20" s="27"/>
       <c r="AD20" s="27"/>
@@ -2043,9 +1994,12 @@
       <c r="BF20" s="27"/>
       <c r="BG20" s="32"/>
     </row>
-    <row r="21" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="27"/>
       <c r="I21" s="27"/>
+      <c r="J21" s="9" t="s">
+        <v>259</v>
+      </c>
       <c r="P21" s="27"/>
       <c r="W21" s="27"/>
       <c r="AD21" s="27"/>
@@ -2055,7 +2009,7 @@
       <c r="BF21" s="27"/>
       <c r="BG21" s="32"/>
     </row>
-    <row r="22" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="27"/>
       <c r="I22" s="27"/>
       <c r="P22" s="27"/>
@@ -2067,7 +2021,7 @@
       <c r="BF22" s="27"/>
       <c r="BG22" s="32"/>
     </row>
-    <row r="23" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="27"/>
       <c r="I23" s="27"/>
       <c r="P23" s="27"/>
@@ -2079,7 +2033,7 @@
       <c r="BF23" s="27"/>
       <c r="BG23" s="32"/>
     </row>
-    <row r="24" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="27"/>
       <c r="I24" s="27"/>
       <c r="P24" s="27"/>
@@ -2091,7 +2045,7 @@
       <c r="BF24" s="27"/>
       <c r="BG24" s="32"/>
     </row>
-    <row r="25" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="27"/>
       <c r="I25" s="27"/>
       <c r="P25" s="27"/>
@@ -2103,7 +2057,7 @@
       <c r="BF25" s="27"/>
       <c r="BG25" s="32"/>
     </row>
-    <row r="26" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="27"/>
       <c r="I26" s="27"/>
       <c r="P26" s="27"/>
@@ -2115,7 +2069,7 @@
       <c r="BF26" s="27"/>
       <c r="BG26" s="32"/>
     </row>
-    <row r="27" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="27"/>
       <c r="I27" s="27"/>
       <c r="P27" s="27"/>
@@ -2127,27 +2081,27 @@
       <c r="BF27" s="27"/>
       <c r="BG27" s="32"/>
     </row>
-    <row r="28" spans="1:59" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="BG28" s="32"/>
     </row>
-    <row r="29" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="B29" s="27"/>
       <c r="C29" s="9" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="I29" s="27"/>
       <c r="J29" s="9" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="P29" s="27"/>
       <c r="Q29" s="9" t="s">
-        <v>313</v>
+        <v>239</v>
       </c>
       <c r="W29" s="27"/>
       <c r="AD29" s="27"/>
@@ -2157,21 +2111,21 @@
       <c r="BF29" s="27"/>
       <c r="BG29" s="32"/>
     </row>
-    <row r="30" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="27"/>
       <c r="C30" s="9" t="s">
-        <v>343</v>
+        <v>291</v>
       </c>
       <c r="I30" s="27"/>
       <c r="J30" s="9" t="s">
-        <v>346</v>
+        <v>292</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="P30" s="27"/>
       <c r="Q30" s="9" t="s">
-        <v>314</v>
+        <v>116</v>
       </c>
       <c r="W30" s="27"/>
       <c r="AD30" s="27"/>
@@ -2181,18 +2135,18 @@
       <c r="BF30" s="27"/>
       <c r="BG30" s="32"/>
     </row>
-    <row r="31" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="27"/>
       <c r="I31" s="27"/>
       <c r="J31" s="9" t="s">
-        <v>347</v>
+        <v>293</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="P31" s="27"/>
       <c r="Q31" s="9" t="s">
-        <v>315</v>
+        <v>117</v>
       </c>
       <c r="W31" s="27"/>
       <c r="AD31" s="27"/>
@@ -2202,11 +2156,11 @@
       <c r="BF31" s="27"/>
       <c r="BG31" s="32"/>
     </row>
-    <row r="32" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="27"/>
       <c r="I32" s="27"/>
       <c r="J32" s="9" t="s">
-        <v>348</v>
+        <v>294</v>
       </c>
       <c r="P32" s="27"/>
       <c r="W32" s="27"/>
@@ -2217,7 +2171,7 @@
       <c r="BF32" s="27"/>
       <c r="BG32" s="32"/>
     </row>
-    <row r="33" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="27"/>
       <c r="I33" s="27"/>
       <c r="P33" s="27"/>
@@ -2229,7 +2183,7 @@
       <c r="BF33" s="27"/>
       <c r="BG33" s="32"/>
     </row>
-    <row r="34" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="27"/>
       <c r="I34" s="27"/>
       <c r="P34" s="27"/>
@@ -2241,7 +2195,7 @@
       <c r="BF34" s="27"/>
       <c r="BG34" s="32"/>
     </row>
-    <row r="35" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="27"/>
       <c r="I35" s="27"/>
       <c r="P35" s="27"/>
@@ -2253,7 +2207,7 @@
       <c r="BF35" s="27"/>
       <c r="BG35" s="32"/>
     </row>
-    <row r="36" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="27"/>
       <c r="I36" s="27"/>
       <c r="P36" s="27"/>
@@ -2265,7 +2219,7 @@
       <c r="BF36" s="27"/>
       <c r="BG36" s="32"/>
     </row>
-    <row r="37" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="27"/>
       <c r="I37" s="27"/>
       <c r="P37" s="27"/>
@@ -2277,7 +2231,7 @@
       <c r="BF37" s="27"/>
       <c r="BG37" s="32"/>
     </row>
-    <row r="38" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="27"/>
       <c r="I38" s="27"/>
       <c r="P38" s="27"/>
@@ -2289,27 +2243,27 @@
       <c r="BF38" s="27"/>
       <c r="BG38" s="32"/>
     </row>
-    <row r="39" spans="1:59" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="BG39" s="32"/>
     </row>
-    <row r="40" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="B40" s="27"/>
       <c r="C40" s="9" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="I40" s="27"/>
       <c r="J40" s="9" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>338</v>
+        <v>35</v>
       </c>
       <c r="P40" s="27"/>
       <c r="Q40" s="9" t="s">
-        <v>345</v>
+        <v>243</v>
       </c>
       <c r="W40" s="27"/>
       <c r="AD40" s="27"/>
@@ -2319,18 +2273,21 @@
       <c r="BF40" s="27"/>
       <c r="BG40" s="32"/>
     </row>
-    <row r="41" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="27"/>
       <c r="I41" s="27"/>
       <c r="J41" s="9" t="s">
-        <v>311</v>
+        <v>100</v>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>323</v>
       </c>
       <c r="N41" s="33" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="P41" s="27"/>
       <c r="Q41" s="9" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="W41" s="27"/>
       <c r="AD41" s="27"/>
@@ -2340,15 +2297,15 @@
       <c r="BF41" s="27"/>
       <c r="BG41" s="32"/>
     </row>
-    <row r="42" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="27"/>
       <c r="I42" s="27"/>
       <c r="J42" s="9" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="P42" s="27"/>
       <c r="Q42" s="9" t="s">
-        <v>317</v>
+        <v>118</v>
       </c>
       <c r="W42" s="27"/>
       <c r="AD42" s="27"/>
@@ -2358,9 +2315,12 @@
       <c r="BF42" s="27"/>
       <c r="BG42" s="32"/>
     </row>
-    <row r="43" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="27"/>
       <c r="I43" s="27"/>
+      <c r="J43" s="9" t="s">
+        <v>299</v>
+      </c>
       <c r="P43" s="27"/>
       <c r="W43" s="27"/>
       <c r="AD43" s="27"/>
@@ -2370,11 +2330,11 @@
       <c r="BF43" s="27"/>
       <c r="BG43" s="32"/>
     </row>
-    <row r="44" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="27"/>
       <c r="I44" s="27"/>
       <c r="J44" s="9" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="P44" s="27"/>
       <c r="W44" s="27"/>
@@ -2385,7 +2345,7 @@
       <c r="BF44" s="27"/>
       <c r="BG44" s="32"/>
     </row>
-    <row r="45" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="27"/>
       <c r="I45" s="27"/>
       <c r="P45" s="27"/>
@@ -2397,7 +2357,7 @@
       <c r="BF45" s="27"/>
       <c r="BG45" s="32"/>
     </row>
-    <row r="46" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="27"/>
       <c r="I46" s="27"/>
       <c r="P46" s="27"/>
@@ -2409,7 +2369,7 @@
       <c r="BF46" s="27"/>
       <c r="BG46" s="32"/>
     </row>
-    <row r="47" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="27"/>
       <c r="I47" s="27"/>
       <c r="P47" s="27"/>
@@ -2421,7 +2381,7 @@
       <c r="BF47" s="27"/>
       <c r="BG47" s="32"/>
     </row>
-    <row r="48" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="27"/>
       <c r="I48" s="27"/>
       <c r="P48" s="27"/>
@@ -2433,7 +2393,7 @@
       <c r="BF48" s="27"/>
       <c r="BG48" s="32"/>
     </row>
-    <row r="49" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="27"/>
       <c r="I49" s="27"/>
       <c r="P49" s="27"/>
@@ -2445,20 +2405,20 @@
       <c r="BF49" s="27"/>
       <c r="BG49" s="32"/>
     </row>
-    <row r="50" spans="1:59" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="BG50" s="32"/>
     </row>
-    <row r="51" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="B51" s="27"/>
       <c r="C51" s="9" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="I51" s="27"/>
       <c r="J51" s="9" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="P51" s="27"/>
       <c r="W51" s="27"/>
@@ -2469,14 +2429,14 @@
       <c r="BF51" s="27"/>
       <c r="BG51" s="32"/>
     </row>
-    <row r="52" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="27"/>
       <c r="C52" s="9" t="s">
-        <v>354</v>
+        <v>296</v>
       </c>
       <c r="I52" s="27"/>
       <c r="J52" s="9" t="s">
-        <v>355</v>
+        <v>296</v>
       </c>
       <c r="P52" s="27"/>
       <c r="W52" s="27"/>
@@ -2487,7 +2447,7 @@
       <c r="BF52" s="27"/>
       <c r="BG52" s="32"/>
     </row>
-    <row r="53" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="27"/>
       <c r="I53" s="27"/>
       <c r="P53" s="27"/>
@@ -2499,7 +2459,7 @@
       <c r="BF53" s="27"/>
       <c r="BG53" s="32"/>
     </row>
-    <row r="54" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="27"/>
       <c r="I54" s="27"/>
       <c r="P54" s="27"/>
@@ -2511,7 +2471,7 @@
       <c r="BF54" s="27"/>
       <c r="BG54" s="32"/>
     </row>
-    <row r="55" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="27"/>
       <c r="I55" s="27"/>
       <c r="P55" s="27"/>
@@ -2523,7 +2483,7 @@
       <c r="BF55" s="27"/>
       <c r="BG55" s="32"/>
     </row>
-    <row r="56" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="27"/>
       <c r="I56" s="27"/>
       <c r="P56" s="27"/>
@@ -2535,7 +2495,7 @@
       <c r="BF56" s="27"/>
       <c r="BG56" s="32"/>
     </row>
-    <row r="57" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="27"/>
       <c r="I57" s="27"/>
       <c r="P57" s="27"/>
@@ -2547,7 +2507,7 @@
       <c r="BF57" s="27"/>
       <c r="BG57" s="32"/>
     </row>
-    <row r="58" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="27"/>
       <c r="I58" s="27"/>
       <c r="P58" s="27"/>
@@ -2559,7 +2519,7 @@
       <c r="BF58" s="27"/>
       <c r="BG58" s="32"/>
     </row>
-    <row r="59" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="27"/>
       <c r="I59" s="27"/>
       <c r="P59" s="27"/>
@@ -2571,7 +2531,7 @@
       <c r="BF59" s="27"/>
       <c r="BG59" s="32"/>
     </row>
-    <row r="60" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="27"/>
       <c r="I60" s="27"/>
       <c r="P60" s="27"/>
@@ -2583,20 +2543,20 @@
       <c r="BF60" s="27"/>
       <c r="BG60" s="32"/>
     </row>
-    <row r="61" spans="1:59" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="BG61" s="32"/>
     </row>
-    <row r="62" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
-        <v>335</v>
+        <v>288</v>
       </c>
       <c r="B62" s="27"/>
       <c r="C62" s="9" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="I62" s="27"/>
       <c r="J62" s="9" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="P62" s="27"/>
       <c r="W62" s="27"/>
@@ -2607,7 +2567,7 @@
       <c r="BF62" s="27"/>
       <c r="BG62" s="32"/>
     </row>
-    <row r="63" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="27"/>
       <c r="I63" s="27"/>
       <c r="P63" s="27"/>
@@ -2619,7 +2579,7 @@
       <c r="BF63" s="27"/>
       <c r="BG63" s="32"/>
     </row>
-    <row r="64" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="27"/>
       <c r="I64" s="27"/>
       <c r="P64" s="27"/>
@@ -2631,7 +2591,7 @@
       <c r="BF64" s="27"/>
       <c r="BG64" s="32"/>
     </row>
-    <row r="65" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="27"/>
       <c r="I65" s="27"/>
       <c r="P65" s="27"/>
@@ -2643,7 +2603,7 @@
       <c r="BF65" s="27"/>
       <c r="BG65" s="32"/>
     </row>
-    <row r="66" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="27"/>
       <c r="I66" s="27"/>
       <c r="P66" s="27"/>
@@ -2655,7 +2615,7 @@
       <c r="BF66" s="27"/>
       <c r="BG66" s="32"/>
     </row>
-    <row r="67" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="27"/>
       <c r="I67" s="27"/>
       <c r="P67" s="27"/>
@@ -2667,7 +2627,7 @@
       <c r="BF67" s="27"/>
       <c r="BG67" s="32"/>
     </row>
-    <row r="68" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="27"/>
       <c r="I68" s="27"/>
       <c r="P68" s="27"/>
@@ -2679,7 +2639,7 @@
       <c r="BF68" s="27"/>
       <c r="BG68" s="32"/>
     </row>
-    <row r="69" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="27"/>
       <c r="I69" s="27"/>
       <c r="P69" s="27"/>
@@ -2691,7 +2651,7 @@
       <c r="BF69" s="27"/>
       <c r="BG69" s="32"/>
     </row>
-    <row r="70" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="27"/>
       <c r="I70" s="27"/>
       <c r="P70" s="27"/>
@@ -2703,7 +2663,7 @@
       <c r="BF70" s="27"/>
       <c r="BG70" s="32"/>
     </row>
-    <row r="71" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="27"/>
       <c r="I71" s="27"/>
       <c r="P71" s="27"/>
@@ -2715,20 +2675,20 @@
       <c r="BF71" s="27"/>
       <c r="BG71" s="32"/>
     </row>
-    <row r="72" spans="1:59" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="BG72" s="32"/>
     </row>
-    <row r="73" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
-        <v>336</v>
+        <v>289</v>
       </c>
       <c r="B73" s="27"/>
       <c r="C73" s="9" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="I73" s="27"/>
       <c r="J73" s="9" t="s">
-        <v>333</v>
+        <v>287</v>
       </c>
       <c r="P73" s="27"/>
       <c r="W73" s="27"/>
@@ -2739,7 +2699,7 @@
       <c r="BF73" s="27"/>
       <c r="BG73" s="32"/>
     </row>
-    <row r="74" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="27"/>
       <c r="I74" s="27"/>
       <c r="P74" s="27"/>
@@ -2751,14 +2711,14 @@
       <c r="BF74" s="27"/>
       <c r="BG74" s="32"/>
     </row>
-    <row r="83" spans="1:59" s="28" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:59" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="9" t="s">
-        <v>352</v>
+        <v>295</v>
       </c>
       <c r="B84" s="27"/>
       <c r="C84" s="9" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="I84" s="27"/>
       <c r="P84" s="27"/>
@@ -2770,7 +2730,7 @@
       <c r="BF84" s="27"/>
       <c r="BG84" s="32"/>
     </row>
-    <row r="85" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="27"/>
       <c r="I85" s="27"/>
       <c r="P85" s="27"/>
@@ -2782,7 +2742,7 @@
       <c r="BF85" s="27"/>
       <c r="BG85" s="32"/>
     </row>
-    <row r="86" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86" s="27"/>
       <c r="I86" s="27"/>
       <c r="P86" s="27"/>
@@ -2794,7 +2754,7 @@
       <c r="BF86" s="27"/>
       <c r="BG86" s="32"/>
     </row>
-    <row r="87" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="27"/>
       <c r="I87" s="27"/>
       <c r="P87" s="27"/>
@@ -2806,7 +2766,7 @@
       <c r="BF87" s="27"/>
       <c r="BG87" s="32"/>
     </row>
-    <row r="88" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="27"/>
       <c r="I88" s="27"/>
       <c r="P88" s="27"/>
@@ -2818,7 +2778,7 @@
       <c r="BF88" s="27"/>
       <c r="BG88" s="32"/>
     </row>
-    <row r="89" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B89" s="27"/>
       <c r="I89" s="27"/>
       <c r="P89" s="27"/>
@@ -2830,7 +2790,7 @@
       <c r="BF89" s="27"/>
       <c r="BG89" s="32"/>
     </row>
-    <row r="90" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="27"/>
       <c r="I90" s="27"/>
       <c r="P90" s="27"/>
@@ -2842,7 +2802,7 @@
       <c r="BF90" s="27"/>
       <c r="BG90" s="32"/>
     </row>
-    <row r="91" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B91" s="27"/>
       <c r="I91" s="27"/>
       <c r="P91" s="27"/>
@@ -2854,7 +2814,7 @@
       <c r="BF91" s="27"/>
       <c r="BG91" s="32"/>
     </row>
-    <row r="92" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B92" s="27"/>
       <c r="I92" s="27"/>
       <c r="P92" s="27"/>
@@ -2866,7 +2826,7 @@
       <c r="BF92" s="27"/>
       <c r="BG92" s="32"/>
     </row>
-    <row r="93" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B93" s="27"/>
       <c r="I93" s="27"/>
       <c r="P93" s="27"/>
@@ -2886,20 +2846,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q508"/>
+  <dimension ref="A1:Q498"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView topLeftCell="A241" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A258" sqref="A258"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="35.4" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:17" ht="35.25" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
@@ -2909,7 +2873,7 @@
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
     </row>
-    <row r="4" spans="1:17" s="3" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -2939,7 +2903,7 @@
       <c r="P4" s="13"/>
       <c r="Q4" s="13"/>
     </row>
-    <row r="5" spans="1:17" s="3" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -2969,7 +2933,7 @@
       <c r="P5" s="13"/>
       <c r="Q5" s="13"/>
     </row>
-    <row r="6" spans="1:17" s="3" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -2995,7 +2959,7 @@
       <c r="P6" s="13"/>
       <c r="Q6" s="13"/>
     </row>
-    <row r="7" spans="1:17" s="3" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -3021,11 +2985,11 @@
       <c r="P7" s="13"/>
       <c r="Q7" s="13"/>
     </row>
-    <row r="8" spans="1:17" s="4" customFormat="1" ht="24.6" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:17" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:17" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
     </row>
-    <row r="10" spans="1:17" s="7" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" s="7" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>19</v>
       </c>
@@ -3039,18 +3003,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:17" s="8" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:17" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
     </row>
-    <row r="14" spans="1:17" s="9" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" s="9" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>24</v>
       </c>
@@ -3062,10 +3026,10 @@
         <v>39</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -3076,10 +3040,10 @@
         <v>39</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="D16" s="9" t="s">
@@ -3089,10 +3053,10 @@
         <v>39</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="D17" s="9" t="s">
@@ -3102,11 +3066,11 @@
         <v>39</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>40</v>
       </c>
@@ -3117,10 +3081,10 @@
         <v>39</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D20" s="9" t="s">
         <v>42</v>
       </c>
@@ -3128,10 +3092,10 @@
         <v>39</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D21" s="9" t="s">
         <v>43</v>
       </c>
@@ -3139,10 +3103,10 @@
         <v>39</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D22" s="9" t="s">
         <v>44</v>
       </c>
@@ -3150,11 +3114,11 @@
         <v>39</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
         <v>45</v>
       </c>
@@ -3165,10 +3129,10 @@
         <v>39</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D25" s="15" t="s">
         <v>47</v>
       </c>
@@ -3176,10 +3140,10 @@
         <v>39</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D26" s="15" t="s">
         <v>48</v>
       </c>
@@ -3187,10 +3151,10 @@
         <v>39</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D27" s="15" t="s">
         <v>49</v>
       </c>
@@ -3198,861 +3162,913 @@
         <v>39</v>
       </c>
       <c r="K27" s="15" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D30" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D31" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D32" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:9" s="25" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A39" s="25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D44" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D45" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D48" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D49" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D52" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D53" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D56" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D57" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="I57" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D60" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D61" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D64" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D65" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D68" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D69" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D72" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="I72" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D73" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D76" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I76" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D77" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="I77" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="I79" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D80" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="I80" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D81" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="86" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="14" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+      <c r="D86" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="I86" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D87" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D88" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="I88" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="90" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D90" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="I90" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D91" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="I91" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D92" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="I92" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="94" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D94" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I94" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D95" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="I95" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D96" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="I96" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="I98" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D99" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="I99" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D100" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="I100" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="102" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="I102" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D103" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="I103" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D104" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="I104" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="106" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="I106" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D107" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="I107" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D108" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="I108" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="110" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="I110" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D30" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D31" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="I31" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D32" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:9" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="I34" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D35" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="I35" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D36" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="I36" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D37" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="I37" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:9" s="25" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A45" s="25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:9" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="I49" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D50" s="9" t="s">
+    </row>
+    <row r="111" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D111" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="I111" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D112" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="I112" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="114" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="I114" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D115" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="I115" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D116" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="I116" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="118" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="I118" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D119" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="I119" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D120" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="I120" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="123" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="125" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A125" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D125" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="I50" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D51" s="9" t="s">
+      <c r="I125" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K125"/>
+    </row>
+    <row r="126" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D126" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="I51" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
+      <c r="I126" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K126"/>
+    </row>
+    <row r="127" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A127" s="9"/>
+      <c r="B127" s="9"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="9"/>
+      <c r="I127" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J127" s="9"/>
+      <c r="K127"/>
+    </row>
+    <row r="128" spans="1:11" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K128" s="20"/>
+    </row>
+    <row r="129" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A129" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D129" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="I53" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D54" s="9" t="s">
+      <c r="I129" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K129"/>
+    </row>
+    <row r="130" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D130" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I54" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D55" s="9" t="s">
+      <c r="I130" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K130"/>
+    </row>
+    <row r="131" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A131" s="9"/>
+      <c r="B131" s="9"/>
+      <c r="C131" s="9"/>
+      <c r="D131" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="I55" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
+      <c r="E131" s="9"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="9"/>
+      <c r="H131" s="9"/>
+      <c r="I131" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J131" s="9"/>
+      <c r="K131"/>
+    </row>
+    <row r="132" spans="1:11" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K132" s="20"/>
+    </row>
+    <row r="133" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A133" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D133" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="I133" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K133"/>
+    </row>
+    <row r="134" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D134" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="I57" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D58" s="9" t="s">
+      <c r="I134" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K134"/>
+    </row>
+    <row r="135" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A135" s="9"/>
+      <c r="B135" s="9"/>
+      <c r="C135" s="9"/>
+      <c r="D135" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I58" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D59" s="9" t="s">
+      <c r="E135" s="9"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="9"/>
+      <c r="H135" s="9"/>
+      <c r="I135" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J135" s="9"/>
+      <c r="K135"/>
+    </row>
+    <row r="136" spans="1:11" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K136" s="20"/>
+    </row>
+    <row r="137" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A137" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I59" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="I61" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D62" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="I62" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D63" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="I63" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="I65" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D66" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="I66" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D67" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="I67" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="I69" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D70" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="I70" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D71" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="I71" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A73" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="I73" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D74" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="I74" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D75" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="I75" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A77" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="I77" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D78" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="I78" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D79" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="I79" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A81" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="I81" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D82" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="I82" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D83" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="I83" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A85" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="I85" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D86" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="I86" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D87" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="I87" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="1:9" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A90" s="19" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="1:9" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A92" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="D92" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="I92" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D93" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="I93" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D94" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="I94" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="1:9" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A96" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="D96" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="I96" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D97" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="I97" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D98" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="I98" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="100" spans="1:9" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A100" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D100" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="I100" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D101" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="I101" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D102" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="I102" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="104" spans="1:9" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A104" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="D104" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="I104" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D105" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="I105" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D106" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="I106" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="108" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A108" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="I108" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D109" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="I109" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D110" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="I110" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="112" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A112" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="D112" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="I112" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D113" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="I113" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D114" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="I114" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="116" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A116" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="D116" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="I116" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D117" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="I117" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D118" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="I118" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="120" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A120" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="D120" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="I120" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D121" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="I121" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D122" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="I122" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A124" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D124" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="I124" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D125" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="I125" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D126" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="I126" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A128" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D128" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="I128" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D129" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="I129" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D130" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="I130" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="132" spans="1:11" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="133" spans="1:11" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A133" s="22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="135" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A135" s="9" t="s">
+      <c r="D137" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I137" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K137"/>
+    </row>
+    <row r="138" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D138" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I138" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K138"/>
+    </row>
+    <row r="139" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A139" s="9"/>
+      <c r="B139" s="9"/>
+      <c r="C139" s="9"/>
+      <c r="D139" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E139" s="9"/>
+      <c r="F139" s="9"/>
+      <c r="G139" s="9"/>
+      <c r="H139" s="9"/>
+      <c r="I139" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J139" s="9"/>
+      <c r="K139"/>
+    </row>
+    <row r="140" spans="1:11" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K140" s="20"/>
+    </row>
+    <row r="141" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A141" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I141" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K141"/>
+    </row>
+    <row r="142" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D142" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I142" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K142"/>
+    </row>
+    <row r="143" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A143" s="9"/>
+      <c r="B143" s="9"/>
+      <c r="C143" s="9"/>
+      <c r="D143" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E143" s="9"/>
+      <c r="F143" s="9"/>
+      <c r="G143" s="9"/>
+      <c r="H143" s="9"/>
+      <c r="I143" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J143" s="9"/>
+      <c r="K143"/>
+    </row>
+    <row r="144" spans="1:11" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K144" s="20"/>
+    </row>
+    <row r="145" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A145" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D145" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D135" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="I135" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K135"/>
-    </row>
-    <row r="136" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D136" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="I136" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K136"/>
-    </row>
-    <row r="137" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A137" s="9"/>
-      <c r="B137" s="9"/>
-      <c r="C137" s="9"/>
-      <c r="D137" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E137" s="9"/>
-      <c r="F137" s="9"/>
-      <c r="G137" s="9"/>
-      <c r="H137" s="9"/>
-      <c r="I137" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J137" s="9"/>
-      <c r="K137"/>
-    </row>
-    <row r="138" spans="1:11" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="K138" s="20"/>
-    </row>
-    <row r="139" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A139" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D139" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="I139" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K139"/>
-    </row>
-    <row r="140" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D140" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="I140" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K140"/>
-    </row>
-    <row r="141" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A141" s="9"/>
-      <c r="B141" s="9"/>
-      <c r="C141" s="9"/>
-      <c r="D141" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E141" s="9"/>
-      <c r="F141" s="9"/>
-      <c r="G141" s="9"/>
-      <c r="H141" s="9"/>
-      <c r="I141" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J141" s="9"/>
-      <c r="K141"/>
-    </row>
-    <row r="142" spans="1:11" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="K142" s="20"/>
-    </row>
-    <row r="143" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A143" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D143" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="I143" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K143"/>
-    </row>
-    <row r="144" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D144" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I144" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K144"/>
-    </row>
-    <row r="145" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A145" s="9"/>
-      <c r="B145" s="9"/>
-      <c r="C145" s="9"/>
-      <c r="D145" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E145" s="9"/>
-      <c r="F145" s="9"/>
-      <c r="G145" s="9"/>
-      <c r="H145" s="9"/>
       <c r="I145" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J145" s="9"/>
+        <v>39</v>
+      </c>
       <c r="K145"/>
     </row>
-    <row r="146" spans="1:11" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="K146" s="20"/>
-    </row>
-    <row r="147" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A147" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D147" s="9" t="s">
+    <row r="146" spans="1:11" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D146" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="I147" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K147"/>
-    </row>
-    <row r="148" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D148" s="9" t="s">
+      <c r="I146" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K146"/>
+    </row>
+    <row r="147" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D147" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="I148" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K148"/>
-    </row>
-    <row r="149" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A149" s="9"/>
+      <c r="I147" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="K147" s="12"/>
+    </row>
+    <row r="148" spans="1:11" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K148" s="20"/>
+    </row>
+    <row r="149" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A149" s="9" t="s">
+        <v>89</v>
+      </c>
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
       <c r="D149" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E149" s="9"/>
       <c r="F149" s="9"/>
       <c r="G149" s="9"/>
       <c r="H149" s="9"/>
       <c r="I149" s="9" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J149" s="9"/>
-      <c r="K149"/>
-    </row>
-    <row r="150" spans="1:11" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="K150" s="20"/>
-    </row>
-    <row r="151" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A151" s="9" t="s">
-        <v>90</v>
-      </c>
+    </row>
+    <row r="150" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A150" s="9"/>
+      <c r="B150" s="9"/>
+      <c r="C150" s="9"/>
+      <c r="D150" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E150" s="9"/>
+      <c r="F150" s="9"/>
+      <c r="G150" s="9"/>
+      <c r="H150" s="9"/>
+      <c r="I150" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J150" s="9"/>
+    </row>
+    <row r="151" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A151" s="9"/>
+      <c r="B151" s="9"/>
+      <c r="C151" s="9"/>
       <c r="D151" s="9" t="s">
-        <v>91</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="E151" s="9"/>
+      <c r="F151" s="9"/>
+      <c r="G151" s="9"/>
+      <c r="H151" s="9"/>
       <c r="I151" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K151"/>
-    </row>
-    <row r="152" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D152" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="I152" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K152"/>
-    </row>
-    <row r="153" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A153" s="9"/>
+        <v>50</v>
+      </c>
+      <c r="J151" s="9"/>
+    </row>
+    <row r="152" spans="1:11" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A152" s="17"/>
+      <c r="B152" s="17"/>
+      <c r="C152" s="17"/>
+      <c r="D152" s="17"/>
+      <c r="E152" s="17"/>
+      <c r="F152" s="17"/>
+      <c r="G152" s="17"/>
+      <c r="H152" s="17"/>
+      <c r="I152" s="17"/>
+      <c r="J152" s="17"/>
+    </row>
+    <row r="153" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A153" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="B153" s="9"/>
       <c r="C153" s="9"/>
       <c r="D153" s="9" t="s">
@@ -4063,83 +4079,109 @@
       <c r="G153" s="9"/>
       <c r="H153" s="9"/>
       <c r="I153" s="9" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="J153" s="9"/>
-      <c r="K153"/>
-    </row>
-    <row r="154" spans="1:11" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="K154" s="20"/>
-    </row>
-    <row r="155" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A155" s="9" t="s">
+    </row>
+    <row r="154" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A154" s="9"/>
+      <c r="B154" s="9"/>
+      <c r="C154" s="9"/>
+      <c r="D154" s="9" t="s">
         <v>95</v>
       </c>
+      <c r="E154" s="9"/>
+      <c r="F154" s="9"/>
+      <c r="G154" s="9"/>
+      <c r="H154" s="9"/>
+      <c r="I154" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J154" s="9"/>
+    </row>
+    <row r="155" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A155" s="9"/>
+      <c r="B155" s="9"/>
+      <c r="C155" s="9"/>
       <c r="D155" s="9" t="s">
         <v>96</v>
       </c>
+      <c r="E155" s="9"/>
+      <c r="F155" s="9"/>
+      <c r="G155" s="9"/>
+      <c r="H155" s="9"/>
       <c r="I155" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="K155"/>
-    </row>
-    <row r="156" spans="1:11" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D156" s="9" t="s">
+      <c r="J155" s="9"/>
+    </row>
+    <row r="156" spans="1:11" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A156" s="17"/>
+      <c r="B156" s="17"/>
+      <c r="C156" s="17"/>
+      <c r="D156" s="17"/>
+      <c r="E156" s="17"/>
+      <c r="F156" s="17"/>
+      <c r="G156" s="17"/>
+      <c r="H156" s="17"/>
+      <c r="I156" s="17"/>
+      <c r="J156" s="17"/>
+    </row>
+    <row r="157" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A157" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B157" s="9"/>
+      <c r="C157" s="9"/>
+      <c r="D157" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="I156" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K156"/>
-    </row>
-    <row r="157" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D157" s="14" t="s">
+      <c r="E157" s="9"/>
+      <c r="F157" s="9"/>
+      <c r="G157" s="9"/>
+      <c r="H157" s="9"/>
+      <c r="I157" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J157" s="9"/>
+    </row>
+    <row r="158" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A158" s="9"/>
+      <c r="B158" s="9"/>
+      <c r="C158" s="9"/>
+      <c r="D158" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="I157" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="K157" s="12"/>
-    </row>
-    <row r="158" spans="1:11" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="K158" s="20"/>
-    </row>
-    <row r="159" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A159" s="9" t="s">
-        <v>99</v>
-      </c>
+      <c r="E158" s="9"/>
+      <c r="F158" s="9"/>
+      <c r="G158" s="9"/>
+      <c r="H158" s="9"/>
+      <c r="I158" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J158" s="9"/>
+    </row>
+    <row r="159" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A159" s="9"/>
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
       <c r="D159" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E159" s="9"/>
       <c r="F159" s="9"/>
       <c r="G159" s="9"/>
       <c r="H159" s="9"/>
       <c r="I159" s="9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J159" s="9"/>
     </row>
-    <row r="160" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A160" s="9"/>
-      <c r="B160" s="9"/>
-      <c r="C160" s="9"/>
-      <c r="D160" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E160" s="9"/>
-      <c r="F160" s="9"/>
-      <c r="G160" s="9"/>
-      <c r="H160" s="9"/>
-      <c r="I160" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J160" s="9"/>
-    </row>
-    <row r="161" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A161" s="9"/>
+    <row r="160" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A161" s="9" t="s">
+        <v>100</v>
+      </c>
       <c r="B161" s="9"/>
       <c r="C161" s="9"/>
       <c r="D161" s="9" t="s">
@@ -4150,26 +4192,28 @@
       <c r="G161" s="9"/>
       <c r="H161" s="9"/>
       <c r="I161" s="9" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="J161" s="9"/>
     </row>
-    <row r="162" spans="1:10" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A162" s="17"/>
-      <c r="B162" s="17"/>
-      <c r="C162" s="17"/>
-      <c r="D162" s="17"/>
-      <c r="E162" s="17"/>
-      <c r="F162" s="17"/>
-      <c r="G162" s="17"/>
-      <c r="H162" s="17"/>
-      <c r="I162" s="17"/>
-      <c r="J162" s="17"/>
-    </row>
-    <row r="163" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A163" s="9" t="s">
-        <v>104</v>
-      </c>
+    <row r="162" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A162" s="9"/>
+      <c r="B162" s="9"/>
+      <c r="C162" s="9"/>
+      <c r="D162" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E162" s="9"/>
+      <c r="F162" s="9"/>
+      <c r="G162" s="9"/>
+      <c r="H162" s="9"/>
+      <c r="I162" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J162" s="9"/>
+    </row>
+    <row r="163" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A163" s="9"/>
       <c r="B163" s="9"/>
       <c r="C163" s="9"/>
       <c r="D163" s="9" t="s">
@@ -4184,12 +4228,12 @@
       </c>
       <c r="J163" s="9"/>
     </row>
-    <row r="164" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="9"/>
       <c r="B164" s="9"/>
       <c r="C164" s="9"/>
       <c r="D164" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E164" s="9"/>
       <c r="F164" s="9"/>
@@ -4200,89 +4244,78 @@
       </c>
       <c r="J164" s="9"/>
     </row>
-    <row r="165" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A165" s="9"/>
-      <c r="B165" s="9"/>
-      <c r="C165" s="9"/>
-      <c r="D165" s="9" t="s">
+    <row r="165" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A166" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="E165" s="9"/>
-      <c r="F165" s="9"/>
-      <c r="G165" s="9"/>
-      <c r="H165" s="9"/>
-      <c r="I165" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J165" s="9"/>
-    </row>
-    <row r="166" spans="1:10" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A166" s="17"/>
-      <c r="B166" s="17"/>
-      <c r="C166" s="17"/>
-      <c r="D166" s="17"/>
-      <c r="E166" s="17"/>
-      <c r="F166" s="17"/>
-      <c r="G166" s="17"/>
-      <c r="H166" s="17"/>
-      <c r="I166" s="17"/>
-      <c r="J166" s="17"/>
-    </row>
-    <row r="167" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A167" s="9" t="s">
-        <v>115</v>
-      </c>
+      <c r="B166" s="9"/>
+      <c r="C166" s="9"/>
+      <c r="D166" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E166" s="9"/>
+      <c r="F166" s="9"/>
+      <c r="G166" s="9"/>
+      <c r="H166" s="9"/>
+      <c r="I166" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J166" s="9"/>
+    </row>
+    <row r="167" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A167" s="9"/>
       <c r="B167" s="9"/>
       <c r="C167" s="9"/>
       <c r="D167" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E167" s="9"/>
       <c r="F167" s="9"/>
       <c r="G167" s="9"/>
       <c r="H167" s="9"/>
       <c r="I167" s="9" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="J167" s="9"/>
     </row>
-    <row r="168" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="9"/>
       <c r="B168" s="9"/>
       <c r="C168" s="9"/>
       <c r="D168" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E168" s="9"/>
       <c r="F168" s="9"/>
       <c r="G168" s="9"/>
       <c r="H168" s="9"/>
       <c r="I168" s="9" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="J168" s="9"/>
     </row>
-    <row r="169" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A169" s="9"/>
-      <c r="B169" s="9"/>
-      <c r="C169" s="9"/>
-      <c r="D169" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E169" s="9"/>
-      <c r="F169" s="9"/>
-      <c r="G169" s="9"/>
-      <c r="H169" s="9"/>
-      <c r="I169" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J169" s="9"/>
-    </row>
-    <row r="170" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="171" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A171" s="9" t="s">
+    <row r="169" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A170" s="9" t="s">
         <v>110</v>
       </c>
+      <c r="B170" s="9"/>
+      <c r="C170" s="9"/>
+      <c r="D170" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E170" s="9"/>
+      <c r="F170" s="9"/>
+      <c r="G170" s="9"/>
+      <c r="H170" s="9"/>
+      <c r="I170" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J170" s="9"/>
+    </row>
+    <row r="171" spans="1:10" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A171" s="9"/>
       <c r="B171" s="9"/>
       <c r="C171" s="9"/>
       <c r="D171" s="9" t="s">
@@ -4290,19 +4323,19 @@
       </c>
       <c r="E171" s="9"/>
       <c r="F171" s="9"/>
-      <c r="G171" s="9"/>
-      <c r="H171" s="9"/>
-      <c r="I171" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J171" s="9"/>
-    </row>
-    <row r="172" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G171" s="14"/>
+      <c r="H171" s="14"/>
+      <c r="I171" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J171" s="14"/>
+    </row>
+    <row r="172" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="9"/>
       <c r="B172" s="9"/>
       <c r="C172" s="9"/>
       <c r="D172" s="9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E172" s="9"/>
       <c r="F172" s="9"/>
@@ -4313,322 +4346,342 @@
       </c>
       <c r="J172" s="9"/>
     </row>
-    <row r="173" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A173" s="9"/>
-      <c r="B173" s="9"/>
-      <c r="C173" s="9"/>
-      <c r="D173" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="E173" s="9"/>
-      <c r="F173" s="9"/>
-      <c r="G173" s="9"/>
-      <c r="H173" s="9"/>
-      <c r="I173" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J173" s="9"/>
-    </row>
-    <row r="174" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A174" s="9"/>
-      <c r="B174" s="9"/>
-      <c r="C174" s="9"/>
-      <c r="D174" s="9" t="s">
+    <row r="173" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" spans="1:10" s="24" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A175" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="E174" s="9"/>
-      <c r="F174" s="9"/>
-      <c r="G174" s="9"/>
-      <c r="H174" s="9"/>
-      <c r="I174" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J174" s="9"/>
-    </row>
-    <row r="175" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="176" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A176" s="9" t="s">
+    </row>
+    <row r="176" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="177" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D179" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="I179" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K179" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D180" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="I180" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K180" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D181" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="I181" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K181" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="183" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D183" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="I183" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K183" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D184" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="I184" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K184" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D185" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="I185" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K185" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="187" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D187" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="I187" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D188" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="I188" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D189" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I189" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="191" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="192" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="194" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A194" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D194" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="I194" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K194"/>
+    </row>
+    <row r="195" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D195" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="I195" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K195"/>
+    </row>
+    <row r="196" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D196" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="I196" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K196"/>
+    </row>
+    <row r="197" spans="1:11" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K197" s="20"/>
+    </row>
+    <row r="198" spans="1:11" s="9" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B176" s="9"/>
-      <c r="C176" s="9"/>
-      <c r="D176" s="9" t="s">
+      <c r="D198" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="I198" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K198"/>
+    </row>
+    <row r="199" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D199" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="I199" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K199"/>
+    </row>
+    <row r="200" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A200" s="9"/>
+      <c r="B200" s="9"/>
+      <c r="C200" s="9"/>
+      <c r="D200" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E200" s="9"/>
+      <c r="F200" s="9"/>
+      <c r="G200" s="9"/>
+      <c r="H200" s="9"/>
+      <c r="I200" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J200" s="9"/>
+    </row>
+    <row r="201" spans="1:11" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A201" s="17"/>
+      <c r="B201" s="17"/>
+      <c r="C201" s="17"/>
+      <c r="D201" s="17"/>
+      <c r="E201" s="17"/>
+      <c r="F201" s="17"/>
+      <c r="G201" s="17"/>
+      <c r="H201" s="17"/>
+      <c r="I201" s="17"/>
+      <c r="J201" s="17"/>
+    </row>
+    <row r="202" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A202" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E176" s="9"/>
-      <c r="F176" s="9"/>
-      <c r="G176" s="9"/>
-      <c r="H176" s="9"/>
-      <c r="I176" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J176" s="9"/>
-    </row>
-    <row r="177" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A177" s="9"/>
-      <c r="B177" s="9"/>
-      <c r="C177" s="9"/>
-      <c r="D177" s="9" t="s">
+      <c r="B202" s="9"/>
+      <c r="C202" s="9"/>
+      <c r="D202" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="E202" s="9"/>
+      <c r="F202" s="9"/>
+      <c r="G202" s="9"/>
+      <c r="H202" s="9"/>
+      <c r="I202" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J202" s="9"/>
+    </row>
+    <row r="203" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A203" s="9"/>
+      <c r="B203" s="9"/>
+      <c r="C203" s="9"/>
+      <c r="D203" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E203" s="9"/>
+      <c r="F203" s="9"/>
+      <c r="G203" s="9"/>
+      <c r="H203" s="9"/>
+      <c r="I203" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J203" s="9"/>
+    </row>
+    <row r="204" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A204" s="9"/>
+      <c r="B204" s="9"/>
+      <c r="C204" s="9"/>
+      <c r="D204" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E204" s="9"/>
+      <c r="F204" s="9"/>
+      <c r="G204" s="9"/>
+      <c r="H204" s="9"/>
+      <c r="I204" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J204" s="9"/>
+    </row>
+    <row r="205" spans="1:11" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A205" s="17"/>
+      <c r="B205" s="17"/>
+      <c r="C205" s="17"/>
+      <c r="D205" s="17"/>
+      <c r="E205" s="17"/>
+      <c r="F205" s="17"/>
+      <c r="G205" s="17"/>
+      <c r="H205" s="17"/>
+      <c r="I205" s="17"/>
+      <c r="J205" s="17"/>
+    </row>
+    <row r="206" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A206" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E177" s="9"/>
-      <c r="F177" s="9"/>
-      <c r="G177" s="9"/>
-      <c r="H177" s="9"/>
-      <c r="I177" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J177" s="9"/>
-    </row>
-    <row r="178" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A178" s="9"/>
-      <c r="B178" s="9"/>
-      <c r="C178" s="9"/>
-      <c r="D178" s="9" t="s">
+      <c r="B206" s="9"/>
+      <c r="C206" s="9"/>
+      <c r="D206" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E206" s="9"/>
+      <c r="F206" s="9"/>
+      <c r="G206" s="9"/>
+      <c r="H206" s="9"/>
+      <c r="I206" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J206" s="9"/>
+    </row>
+    <row r="207" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A207" s="9"/>
+      <c r="B207" s="9"/>
+      <c r="C207" s="9"/>
+      <c r="D207" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E207" s="9"/>
+      <c r="F207" s="9"/>
+      <c r="G207" s="9"/>
+      <c r="H207" s="9"/>
+      <c r="I207" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J207" s="9"/>
+    </row>
+    <row r="208" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A208" s="9"/>
+      <c r="B208" s="9"/>
+      <c r="C208" s="9"/>
+      <c r="D208" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E208" s="9"/>
+      <c r="F208" s="9"/>
+      <c r="G208" s="9"/>
+      <c r="H208" s="9"/>
+      <c r="I208" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J208" s="9"/>
+    </row>
+    <row r="209" spans="1:10" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A209" s="17"/>
+      <c r="B209" s="17"/>
+      <c r="C209" s="17"/>
+      <c r="D209" s="17"/>
+      <c r="E209" s="17"/>
+      <c r="F209" s="17"/>
+      <c r="G209" s="17"/>
+      <c r="H209" s="17"/>
+      <c r="I209" s="17"/>
+      <c r="J209" s="17"/>
+    </row>
+    <row r="210" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A210" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="E178" s="9"/>
-      <c r="F178" s="9"/>
-      <c r="G178" s="9"/>
-      <c r="H178" s="9"/>
-      <c r="I178" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J178" s="9"/>
-    </row>
-    <row r="179" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="180" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A180" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B180" s="9"/>
-      <c r="C180" s="9"/>
-      <c r="D180" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E180" s="9"/>
-      <c r="F180" s="9"/>
-      <c r="G180" s="9"/>
-      <c r="H180" s="9"/>
-      <c r="I180" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J180" s="9"/>
-    </row>
-    <row r="181" spans="1:11" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A181" s="9"/>
-      <c r="B181" s="9"/>
-      <c r="C181" s="9"/>
-      <c r="D181" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E181" s="9"/>
-      <c r="F181" s="9"/>
-      <c r="G181" s="14"/>
-      <c r="H181" s="14"/>
-      <c r="I181" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="J181" s="14"/>
-    </row>
-    <row r="182" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A182" s="9"/>
-      <c r="B182" s="9"/>
-      <c r="C182" s="9"/>
-      <c r="D182" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E182" s="9"/>
-      <c r="F182" s="9"/>
-      <c r="G182" s="9"/>
-      <c r="H182" s="9"/>
-      <c r="I182" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J182" s="9"/>
-    </row>
-    <row r="183" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="185" spans="1:11" s="24" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A185" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="187" spans="1:11" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A187" s="19" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A189" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D189" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="I189" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K189" s="9" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D190" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="I190" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K190" s="9" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D191" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="I191" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K191" s="9" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="193" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A193" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D193" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="I193" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K193" s="9" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D194" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="I194" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K194" s="9" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D195" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="I195" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K195" s="9" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="197" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A197" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="D197" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="I197" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D198" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="I198" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D199" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="I199" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="201" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="202" spans="1:11" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A202" s="18" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="204" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A204" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D204" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="I204" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K204"/>
-    </row>
-    <row r="205" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D205" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I205" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K205"/>
-    </row>
-    <row r="206" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D206" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="I206" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K206"/>
-    </row>
-    <row r="207" spans="1:11" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="K207" s="20"/>
-    </row>
-    <row r="208" spans="1:11" s="9" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D208" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="I208" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K208"/>
-    </row>
-    <row r="209" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D209" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="I209" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K209"/>
-    </row>
-    <row r="210" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A210" s="9"/>
       <c r="B210" s="9"/>
       <c r="C210" s="9"/>
       <c r="D210" s="9" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="E210" s="9"/>
       <c r="F210" s="9"/>
@@ -4639,26 +4692,28 @@
       </c>
       <c r="J210" s="9"/>
     </row>
-    <row r="211" spans="1:11" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A211" s="17"/>
-      <c r="B211" s="17"/>
-      <c r="C211" s="17"/>
-      <c r="D211" s="17"/>
-      <c r="E211" s="17"/>
-      <c r="F211" s="17"/>
-      <c r="G211" s="17"/>
-      <c r="H211" s="17"/>
-      <c r="I211" s="17"/>
-      <c r="J211" s="17"/>
-    </row>
-    <row r="212" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A212" s="9" t="s">
-        <v>127</v>
-      </c>
+    <row r="211" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A211" s="9"/>
+      <c r="B211" s="9"/>
+      <c r="C211" s="9"/>
+      <c r="D211" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="E211" s="9"/>
+      <c r="F211" s="9"/>
+      <c r="G211" s="9"/>
+      <c r="H211" s="9"/>
+      <c r="I211" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J211" s="9"/>
+    </row>
+    <row r="212" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A212" s="9"/>
       <c r="B212" s="9"/>
       <c r="C212" s="9"/>
       <c r="D212" s="9" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="E212" s="9"/>
       <c r="F212" s="9"/>
@@ -4669,28 +4724,26 @@
       </c>
       <c r="J212" s="9"/>
     </row>
-    <row r="213" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A213" s="9"/>
-      <c r="B213" s="9"/>
-      <c r="C213" s="9"/>
-      <c r="D213" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="E213" s="9"/>
-      <c r="F213" s="9"/>
-      <c r="G213" s="9"/>
-      <c r="H213" s="9"/>
-      <c r="I213" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J213" s="9"/>
-    </row>
-    <row r="214" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A214" s="9"/>
+    <row r="213" spans="1:10" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A213" s="17"/>
+      <c r="B213" s="17"/>
+      <c r="C213" s="17"/>
+      <c r="D213" s="17"/>
+      <c r="E213" s="17"/>
+      <c r="F213" s="17"/>
+      <c r="G213" s="17"/>
+      <c r="H213" s="17"/>
+      <c r="I213" s="17"/>
+      <c r="J213" s="17"/>
+    </row>
+    <row r="214" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A214" s="9" t="s">
+        <v>120</v>
+      </c>
       <c r="B214" s="9"/>
       <c r="C214" s="9"/>
       <c r="D214" s="9" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="E214" s="9"/>
       <c r="F214" s="9"/>
@@ -4701,26 +4754,28 @@
       </c>
       <c r="J214" s="9"/>
     </row>
-    <row r="215" spans="1:11" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A215" s="17"/>
-      <c r="B215" s="17"/>
-      <c r="C215" s="17"/>
-      <c r="D215" s="17"/>
-      <c r="E215" s="17"/>
-      <c r="F215" s="17"/>
-      <c r="G215" s="17"/>
-      <c r="H215" s="17"/>
-      <c r="I215" s="17"/>
-      <c r="J215" s="17"/>
-    </row>
-    <row r="216" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A216" s="9" t="s">
-        <v>128</v>
-      </c>
+    <row r="215" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A215" s="9"/>
+      <c r="B215" s="9"/>
+      <c r="C215" s="9"/>
+      <c r="D215" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="E215" s="9"/>
+      <c r="F215" s="9"/>
+      <c r="G215" s="9"/>
+      <c r="H215" s="9"/>
+      <c r="I215" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J215" s="9"/>
+    </row>
+    <row r="216" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A216" s="9"/>
       <c r="B216" s="9"/>
       <c r="C216" s="9"/>
       <c r="D216" s="9" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="E216" s="9"/>
       <c r="F216" s="9"/>
@@ -4731,712 +4786,696 @@
       </c>
       <c r="J216" s="9"/>
     </row>
-    <row r="217" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A217" s="9"/>
-      <c r="B217" s="9"/>
-      <c r="C217" s="9"/>
-      <c r="D217" s="9" t="s">
+    <row r="217" spans="1:10" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A217" s="17"/>
+      <c r="B217" s="17"/>
+      <c r="C217" s="17"/>
+      <c r="D217" s="17"/>
+      <c r="E217" s="17"/>
+      <c r="F217" s="17"/>
+      <c r="G217" s="17"/>
+      <c r="H217" s="17"/>
+      <c r="I217" s="17"/>
+      <c r="J217" s="17"/>
+    </row>
+    <row r="218" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D218" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="I218" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D219" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="I219" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D220" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="I220" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="222" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="D222" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="I222" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D223" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="I223" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D224" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="I224" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="226" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="D226" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="I226" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D227" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="I227" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D228" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="I228" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="230" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="D230" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="E217" s="9"/>
-      <c r="F217" s="9"/>
-      <c r="G217" s="9"/>
-      <c r="H217" s="9"/>
-      <c r="I217" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J217" s="9"/>
-    </row>
-    <row r="218" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A218" s="9"/>
-      <c r="B218" s="9"/>
-      <c r="C218" s="9"/>
-      <c r="D218" s="9" t="s">
+      <c r="I230" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D231" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="I231" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D232" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="E218" s="9"/>
-      <c r="F218" s="9"/>
-      <c r="G218" s="9"/>
-      <c r="H218" s="9"/>
-      <c r="I218" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J218" s="9"/>
-    </row>
-    <row r="219" spans="1:11" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A219" s="17"/>
-      <c r="B219" s="17"/>
-      <c r="C219" s="17"/>
-      <c r="D219" s="17"/>
-      <c r="E219" s="17"/>
-      <c r="F219" s="17"/>
-      <c r="G219" s="17"/>
-      <c r="H219" s="17"/>
-      <c r="I219" s="17"/>
-      <c r="J219" s="17"/>
-    </row>
-    <row r="220" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A220" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B220" s="9"/>
-      <c r="C220" s="9"/>
-      <c r="D220" s="9" t="s">
+      <c r="I232" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="234" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="E220" s="9"/>
-      <c r="F220" s="9"/>
-      <c r="G220" s="9"/>
-      <c r="H220" s="9"/>
-      <c r="I220" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J220" s="9"/>
-    </row>
-    <row r="221" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A221" s="9"/>
-      <c r="B221" s="9"/>
-      <c r="C221" s="9"/>
-      <c r="D221" s="9" t="s">
+      <c r="D234" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="E221" s="9"/>
-      <c r="F221" s="9"/>
-      <c r="G221" s="9"/>
-      <c r="H221" s="9"/>
-      <c r="I221" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J221" s="9"/>
-    </row>
-    <row r="222" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A222" s="9"/>
-      <c r="B222" s="9"/>
-      <c r="C222" s="9"/>
-      <c r="D222" s="9" t="s">
+      <c r="I234" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D235" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="E222" s="9"/>
-      <c r="F222" s="9"/>
-      <c r="G222" s="9"/>
-      <c r="H222" s="9"/>
-      <c r="I222" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J222" s="9"/>
-    </row>
-    <row r="223" spans="1:11" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A223" s="17"/>
-      <c r="B223" s="17"/>
-      <c r="C223" s="17"/>
-      <c r="D223" s="17"/>
-      <c r="E223" s="17"/>
-      <c r="F223" s="17"/>
-      <c r="G223" s="17"/>
-      <c r="H223" s="17"/>
-      <c r="I223" s="17"/>
-      <c r="J223" s="17"/>
-    </row>
-    <row r="224" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A224" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B224" s="9"/>
-      <c r="C224" s="9"/>
-      <c r="D224" s="9" t="s">
+      <c r="I235" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D236" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="E224" s="9"/>
-      <c r="F224" s="9"/>
-      <c r="G224" s="9"/>
-      <c r="H224" s="9"/>
-      <c r="I224" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J224" s="9"/>
-    </row>
-    <row r="225" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A225" s="9"/>
-      <c r="B225" s="9"/>
-      <c r="C225" s="9"/>
-      <c r="D225" s="9" t="s">
+      <c r="I236" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="238" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="E225" s="9"/>
-      <c r="F225" s="9"/>
-      <c r="G225" s="9"/>
-      <c r="H225" s="9"/>
-      <c r="I225" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J225" s="9"/>
-    </row>
-    <row r="226" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A226" s="9"/>
-      <c r="B226" s="9"/>
-      <c r="C226" s="9"/>
-      <c r="D226" s="9" t="s">
+      <c r="D238" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="E226" s="9"/>
-      <c r="F226" s="9"/>
-      <c r="G226" s="9"/>
-      <c r="H226" s="9"/>
-      <c r="I226" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J226" s="9"/>
-    </row>
-    <row r="227" spans="1:10" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A227" s="17"/>
-      <c r="B227" s="17"/>
-      <c r="C227" s="17"/>
-      <c r="D227" s="17"/>
-      <c r="E227" s="17"/>
-      <c r="F227" s="17"/>
-      <c r="G227" s="17"/>
-      <c r="H227" s="17"/>
-      <c r="I227" s="17"/>
-      <c r="J227" s="17"/>
-    </row>
-    <row r="228" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A228" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="D228" s="9" t="s">
+      <c r="I238" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D239" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="I228" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D229" s="9" t="s">
+      <c r="I239" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D240" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="I229" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D230" s="9" t="s">
+      <c r="I240" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="242" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="I230" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="232" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A232" s="9" t="s">
+      <c r="D242" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="D232" s="9" t="s">
+      <c r="I242" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D243" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="I232" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D233" s="9" t="s">
+      <c r="I243" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D244" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="I233" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D234" s="9" t="s">
+      <c r="I244" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="246" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A246" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="I234" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="236" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A236" s="9" t="s">
+      <c r="D246" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="D236" s="9" t="s">
+      <c r="I246" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D247" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="I247" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D248" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="I248" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="250" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A250" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="I236" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D237" s="9" t="s">
+      <c r="D250" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="I237" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D238" s="9" t="s">
+      <c r="I250" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D251" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="I238" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="240" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A240" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="D240" s="9" t="s">
+      <c r="I251" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D252" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="I240" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D241" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="I241" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D242" s="9" t="s">
+      <c r="I252" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="254" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A254" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="I242" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="244" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A244" s="9" t="s">
+      <c r="D254" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="D244" s="9" t="s">
+      <c r="I254" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D255" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="I244" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D245" s="9" t="s">
+      <c r="I255" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D256" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="I245" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D246" s="9" t="s">
+      <c r="I256" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="258" spans="1:9" s="21" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A258" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="260" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A260" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="I246" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="248" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A248" s="9" t="s">
+      <c r="D260" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="D248" s="9" t="s">
+      <c r="I260" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="262" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A262" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="I248" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D249" s="9" t="s">
+      <c r="D262" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="I249" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D250" s="9" t="s">
+      <c r="I262" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="264" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A264" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="I250" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="252" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A252" s="9" t="s">
+      <c r="D264" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="D252" s="9" t="s">
+      <c r="I264" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="266" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A266" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="I252" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D253" s="9" t="s">
+      <c r="D266" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="I253" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D254" s="9" t="s">
+      <c r="I266" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="268" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A268" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="I254" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="256" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A256" s="9" t="s">
+      <c r="D268" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="D256" s="9" t="s">
+      <c r="I268" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="270" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A270" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="I256" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D257" s="9" t="s">
+      <c r="D270" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="I257" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D258" s="9" t="s">
+      <c r="I270" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="272" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A272" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="I258" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="260" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A260" s="9" t="s">
+      <c r="D272" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="D260" s="9" t="s">
+      <c r="I272" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="274" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A274" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="I260" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D261" s="9" t="s">
+      <c r="D274" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="I261" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D262" s="9" t="s">
+      <c r="I274" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="276" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A276" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="I262" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="264" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A264" s="9" t="s">
+      <c r="D276" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="D264" s="9" t="s">
+      <c r="I276" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="278" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A278" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="I264" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D265" s="9" t="s">
+      <c r="D278" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="I265" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D266" s="9" t="s">
+      <c r="I278" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="280" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="281" spans="1:9" s="23" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A281" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="I266" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="268" spans="1:9" s="21" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A268" s="23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="270" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A270" s="9" t="s">
+    </row>
+    <row r="282" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="283" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A283" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="D270" s="9" t="s">
+      <c r="D283" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="I270" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="272" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A272" s="9" t="s">
+      <c r="I283" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="285" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A285" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="D272" s="9" t="s">
+      <c r="D285" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="I272" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="274" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A274" s="9" t="s">
+      <c r="I285" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="287" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A287" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="D274" s="9" t="s">
+      <c r="D287" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="I274" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="276" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A276" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="D276" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="I276" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="278" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A278" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="D278" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="I278" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="280" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A280" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="D280" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="I280" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="282" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A282" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="D282" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="I282" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="284" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A284" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="D284" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="I284" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="286" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A286" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="D286" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="I286" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="288" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A288" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="D288" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="I288" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="290" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="291" spans="1:9" s="23" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A291" s="23" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="293" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A293" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="D293" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="I293" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="295" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A295" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="D295" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="I295" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="297" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A297" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="D297" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="I297" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="299" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="300" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="301" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="302" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="303" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="304" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="305" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="306" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="307" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="308" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="309" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="310" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="311" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="312" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="313" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="314" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="315" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="316" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="317" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="318" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="319" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="320" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="321" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="322" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="323" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="324" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="325" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="326" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="327" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="328" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="329" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="330" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="331" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="332" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="333" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="334" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="335" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="336" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="337" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="338" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="339" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="340" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="341" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="342" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="343" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="344" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="345" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="346" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="347" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="348" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="349" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="350" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="351" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="352" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="353" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="354" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="355" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="356" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="357" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="358" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="359" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="360" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="361" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="362" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="363" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="364" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="365" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="366" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="367" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="368" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="369" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="370" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="371" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="372" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="373" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="374" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="375" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="376" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="377" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="378" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="379" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="380" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="381" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="382" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="383" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="384" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="385" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="386" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I287" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="289" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="290" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="291" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="292" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="293" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="294" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="295" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="296" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="297" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="298" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="299" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="300" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="301" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="302" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="303" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="304" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="305" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="306" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="307" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="308" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="309" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="310" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="311" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="312" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="313" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="314" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="315" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="316" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="317" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="318" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="319" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="320" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="321" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="322" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="323" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="324" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="325" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="326" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="327" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="328" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="329" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="330" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="331" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="332" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="333" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="334" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="335" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="336" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="337" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="338" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="339" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="340" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="341" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="342" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="343" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="344" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="345" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="346" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="347" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="348" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="349" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="350" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="351" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="352" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="353" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="354" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="355" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="356" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="357" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="358" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="359" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="360" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="361" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="362" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="363" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="364" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="365" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="366" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="367" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="368" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="369" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="370" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="371" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="372" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="373" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="374" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="375" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="376" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A430" s="12"/>
+      <c r="B430" s="12"/>
+      <c r="C430" s="12"/>
+      <c r="D430" s="12"/>
+      <c r="E430" s="12"/>
+      <c r="F430" s="12"/>
+      <c r="G430" s="12"/>
+      <c r="H430" s="12"/>
+      <c r="I430" s="12"/>
+      <c r="J430" s="12"/>
+      <c r="K430" s="12"/>
+      <c r="L430" s="12"/>
+    </row>
+    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A431" s="12"/>
+      <c r="B431" s="12"/>
+      <c r="C431" s="12"/>
+      <c r="D431" s="12"/>
+      <c r="E431" s="12"/>
+      <c r="F431" s="12"/>
+      <c r="G431" s="12"/>
+      <c r="H431" s="12"/>
+      <c r="I431" s="12"/>
+      <c r="J431" s="12"/>
+      <c r="K431" s="12"/>
+      <c r="L431" s="12"/>
+    </row>
+    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A432" s="12"/>
+      <c r="B432" s="12"/>
+      <c r="C432" s="12"/>
+      <c r="D432" s="12"/>
+      <c r="E432" s="12"/>
+      <c r="F432" s="12"/>
+      <c r="G432" s="12"/>
+      <c r="H432" s="12"/>
+      <c r="I432" s="12"/>
+      <c r="J432" s="12"/>
+      <c r="K432" s="12"/>
+      <c r="L432" s="12"/>
+    </row>
+    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A433" s="12"/>
+      <c r="B433" s="12"/>
+      <c r="C433" s="12"/>
+      <c r="D433" s="12"/>
+      <c r="E433" s="12"/>
+      <c r="F433" s="12"/>
+      <c r="G433" s="12"/>
+      <c r="H433" s="12"/>
+      <c r="I433" s="12"/>
+      <c r="J433" s="12"/>
+      <c r="K433" s="12"/>
+      <c r="L433" s="12"/>
+    </row>
+    <row r="434" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A434" s="14"/>
+      <c r="B434" s="14"/>
+      <c r="C434" s="14"/>
+      <c r="D434" s="14"/>
+      <c r="E434" s="14"/>
+      <c r="F434" s="14"/>
+      <c r="G434" s="14"/>
+      <c r="H434" s="14"/>
+      <c r="I434" s="14"/>
+      <c r="J434" s="14"/>
+      <c r="K434" s="12"/>
+      <c r="L434" s="12"/>
+    </row>
+    <row r="435" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A435" s="14"/>
+      <c r="B435" s="14"/>
+      <c r="C435" s="14"/>
+      <c r="D435" s="14"/>
+      <c r="E435" s="14"/>
+      <c r="F435" s="14"/>
+      <c r="G435" s="14"/>
+      <c r="H435" s="14"/>
+      <c r="I435" s="14"/>
+      <c r="J435" s="14"/>
+      <c r="K435" s="12"/>
+      <c r="L435" s="12"/>
+    </row>
+    <row r="436" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A436" s="14"/>
+      <c r="B436" s="14"/>
+      <c r="C436" s="14"/>
+      <c r="D436" s="14"/>
+      <c r="E436" s="14"/>
+      <c r="F436" s="14"/>
+      <c r="G436" s="14"/>
+      <c r="H436" s="14"/>
+      <c r="I436" s="14"/>
+      <c r="J436" s="14"/>
+      <c r="K436" s="12"/>
+      <c r="L436" s="12"/>
+    </row>
+    <row r="437" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A437" s="14"/>
+      <c r="B437" s="14"/>
+      <c r="C437" s="14"/>
+      <c r="D437" s="14"/>
+      <c r="E437" s="14"/>
+      <c r="F437" s="14"/>
+      <c r="G437" s="14"/>
+      <c r="H437" s="14"/>
+      <c r="I437" s="14"/>
+      <c r="J437" s="14"/>
+      <c r="K437" s="12"/>
+      <c r="L437" s="12"/>
+    </row>
+    <row r="438" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A438" s="14"/>
+      <c r="B438" s="14"/>
+      <c r="C438" s="14"/>
+      <c r="D438" s="14"/>
+      <c r="E438" s="14"/>
+      <c r="F438" s="14"/>
+      <c r="G438" s="14"/>
+      <c r="H438" s="14"/>
+      <c r="I438" s="14"/>
+      <c r="J438" s="14"/>
+      <c r="K438" s="12"/>
+      <c r="L438" s="12"/>
+    </row>
+    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A439" s="12"/>
+      <c r="B439" s="12"/>
+      <c r="C439" s="12"/>
+      <c r="D439" s="12"/>
+      <c r="E439" s="12"/>
+      <c r="F439" s="12"/>
+      <c r="G439" s="12"/>
+      <c r="H439" s="12"/>
+      <c r="I439" s="12"/>
+      <c r="J439" s="12"/>
+      <c r="K439" s="12"/>
+      <c r="L439" s="12"/>
+    </row>
+    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A440" s="12"/>
       <c r="B440" s="12"/>
       <c r="C440" s="12"/>
@@ -5450,7 +5489,7 @@
       <c r="K440" s="12"/>
       <c r="L440" s="12"/>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A441" s="12"/>
       <c r="B441" s="12"/>
       <c r="C441" s="12"/>
@@ -5464,7 +5503,7 @@
       <c r="K441" s="12"/>
       <c r="L441" s="12"/>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A442" s="12"/>
       <c r="B442" s="12"/>
       <c r="C442" s="12"/>
@@ -5478,21 +5517,21 @@
       <c r="K442" s="12"/>
       <c r="L442" s="12"/>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A443" s="12"/>
-      <c r="B443" s="12"/>
-      <c r="C443" s="12"/>
-      <c r="D443" s="12"/>
-      <c r="E443" s="12"/>
-      <c r="F443" s="12"/>
-      <c r="G443" s="12"/>
-      <c r="H443" s="12"/>
-      <c r="I443" s="12"/>
-      <c r="J443" s="12"/>
+    <row r="443" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A443" s="14"/>
+      <c r="B443" s="14"/>
+      <c r="C443" s="14"/>
+      <c r="D443" s="14"/>
+      <c r="E443" s="14"/>
+      <c r="F443" s="14"/>
+      <c r="G443" s="14"/>
+      <c r="H443" s="14"/>
+      <c r="I443" s="14"/>
+      <c r="J443" s="14"/>
       <c r="K443" s="12"/>
       <c r="L443" s="12"/>
     </row>
-    <row r="444" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A444" s="14"/>
       <c r="B444" s="14"/>
       <c r="C444" s="14"/>
@@ -5506,7 +5545,7 @@
       <c r="K444" s="12"/>
       <c r="L444" s="12"/>
     </row>
-    <row r="445" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A445" s="14"/>
       <c r="B445" s="14"/>
       <c r="C445" s="14"/>
@@ -5520,7 +5559,7 @@
       <c r="K445" s="12"/>
       <c r="L445" s="12"/>
     </row>
-    <row r="446" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A446" s="14"/>
       <c r="B446" s="14"/>
       <c r="C446" s="14"/>
@@ -5534,7 +5573,7 @@
       <c r="K446" s="12"/>
       <c r="L446" s="12"/>
     </row>
-    <row r="447" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A447" s="14"/>
       <c r="B447" s="14"/>
       <c r="C447" s="14"/>
@@ -5548,7 +5587,7 @@
       <c r="K447" s="12"/>
       <c r="L447" s="12"/>
     </row>
-    <row r="448" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A448" s="14"/>
       <c r="B448" s="14"/>
       <c r="C448" s="14"/>
@@ -5562,49 +5601,49 @@
       <c r="K448" s="12"/>
       <c r="L448" s="12"/>
     </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A449" s="12"/>
-      <c r="B449" s="12"/>
-      <c r="C449" s="12"/>
-      <c r="D449" s="12"/>
-      <c r="E449" s="12"/>
-      <c r="F449" s="12"/>
-      <c r="G449" s="12"/>
-      <c r="H449" s="12"/>
-      <c r="I449" s="12"/>
-      <c r="J449" s="12"/>
+    <row r="449" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A449" s="14"/>
+      <c r="B449" s="14"/>
+      <c r="C449" s="14"/>
+      <c r="D449" s="14"/>
+      <c r="E449" s="14"/>
+      <c r="F449" s="14"/>
+      <c r="G449" s="14"/>
+      <c r="H449" s="14"/>
+      <c r="I449" s="14"/>
+      <c r="J449" s="14"/>
       <c r="K449" s="12"/>
       <c r="L449" s="12"/>
     </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A450" s="12"/>
-      <c r="B450" s="12"/>
-      <c r="C450" s="12"/>
-      <c r="D450" s="12"/>
-      <c r="E450" s="12"/>
-      <c r="F450" s="12"/>
-      <c r="G450" s="12"/>
-      <c r="H450" s="12"/>
-      <c r="I450" s="12"/>
-      <c r="J450" s="12"/>
+    <row r="450" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A450" s="14"/>
+      <c r="B450" s="14"/>
+      <c r="C450" s="14"/>
+      <c r="D450" s="14"/>
+      <c r="E450" s="14"/>
+      <c r="F450" s="14"/>
+      <c r="G450" s="14"/>
+      <c r="H450" s="14"/>
+      <c r="I450" s="14"/>
+      <c r="J450" s="14"/>
       <c r="K450" s="12"/>
       <c r="L450" s="12"/>
     </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A451" s="12"/>
-      <c r="B451" s="12"/>
-      <c r="C451" s="12"/>
-      <c r="D451" s="12"/>
-      <c r="E451" s="12"/>
-      <c r="F451" s="12"/>
-      <c r="G451" s="12"/>
-      <c r="H451" s="12"/>
-      <c r="I451" s="12"/>
-      <c r="J451" s="12"/>
+    <row r="451" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A451" s="14"/>
+      <c r="B451" s="14"/>
+      <c r="C451" s="14"/>
+      <c r="D451" s="14"/>
+      <c r="E451" s="14"/>
+      <c r="F451" s="14"/>
+      <c r="G451" s="14"/>
+      <c r="H451" s="14"/>
+      <c r="I451" s="14"/>
+      <c r="J451" s="14"/>
       <c r="K451" s="12"/>
       <c r="L451" s="12"/>
     </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A452" s="12"/>
       <c r="B452" s="12"/>
       <c r="C452" s="12"/>
@@ -5618,35 +5657,35 @@
       <c r="K452" s="12"/>
       <c r="L452" s="12"/>
     </row>
-    <row r="453" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A453" s="14"/>
-      <c r="B453" s="14"/>
-      <c r="C453" s="14"/>
-      <c r="D453" s="14"/>
-      <c r="E453" s="14"/>
-      <c r="F453" s="14"/>
-      <c r="G453" s="14"/>
-      <c r="H453" s="14"/>
-      <c r="I453" s="14"/>
-      <c r="J453" s="14"/>
+    <row r="453" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A453" s="12"/>
+      <c r="B453" s="12"/>
+      <c r="C453" s="12"/>
+      <c r="D453" s="12"/>
+      <c r="E453" s="12"/>
+      <c r="F453" s="12"/>
+      <c r="G453" s="12"/>
+      <c r="H453" s="12"/>
+      <c r="I453" s="12"/>
+      <c r="J453" s="12"/>
       <c r="K453" s="12"/>
       <c r="L453" s="12"/>
     </row>
-    <row r="454" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A454" s="14"/>
-      <c r="B454" s="14"/>
-      <c r="C454" s="14"/>
-      <c r="D454" s="14"/>
-      <c r="E454" s="14"/>
-      <c r="F454" s="14"/>
-      <c r="G454" s="14"/>
-      <c r="H454" s="14"/>
-      <c r="I454" s="14"/>
-      <c r="J454" s="14"/>
+    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A454" s="12"/>
+      <c r="B454" s="12"/>
+      <c r="C454" s="12"/>
+      <c r="D454" s="12"/>
+      <c r="E454" s="12"/>
+      <c r="F454" s="12"/>
+      <c r="G454" s="12"/>
+      <c r="H454" s="12"/>
+      <c r="I454" s="12"/>
+      <c r="J454" s="12"/>
       <c r="K454" s="12"/>
       <c r="L454" s="12"/>
     </row>
-    <row r="455" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A455" s="14"/>
       <c r="B455" s="14"/>
       <c r="C455" s="14"/>
@@ -5660,7 +5699,7 @@
       <c r="K455" s="12"/>
       <c r="L455" s="12"/>
     </row>
-    <row r="456" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A456" s="14"/>
       <c r="B456" s="14"/>
       <c r="C456" s="14"/>
@@ -5674,7 +5713,7 @@
       <c r="K456" s="12"/>
       <c r="L456" s="12"/>
     </row>
-    <row r="457" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A457" s="14"/>
       <c r="B457" s="14"/>
       <c r="C457" s="14"/>
@@ -5688,7 +5727,7 @@
       <c r="K457" s="12"/>
       <c r="L457" s="12"/>
     </row>
-    <row r="458" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A458" s="14"/>
       <c r="B458" s="14"/>
       <c r="C458" s="14"/>
@@ -5702,7 +5741,7 @@
       <c r="K458" s="12"/>
       <c r="L458" s="12"/>
     </row>
-    <row r="459" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A459" s="14"/>
       <c r="B459" s="14"/>
       <c r="C459" s="14"/>
@@ -5716,7 +5755,7 @@
       <c r="K459" s="12"/>
       <c r="L459" s="12"/>
     </row>
-    <row r="460" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A460" s="14"/>
       <c r="B460" s="14"/>
       <c r="C460" s="14"/>
@@ -5730,7 +5769,7 @@
       <c r="K460" s="12"/>
       <c r="L460" s="12"/>
     </row>
-    <row r="461" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A461" s="14"/>
       <c r="B461" s="14"/>
       <c r="C461" s="14"/>
@@ -5744,63 +5783,63 @@
       <c r="K461" s="12"/>
       <c r="L461" s="12"/>
     </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A462" s="12"/>
       <c r="B462" s="12"/>
       <c r="C462" s="12"/>
       <c r="D462" s="12"/>
       <c r="E462" s="12"/>
       <c r="F462" s="12"/>
-      <c r="G462" s="12"/>
-      <c r="H462" s="12"/>
-      <c r="I462" s="12"/>
-      <c r="J462" s="12"/>
+      <c r="G462" s="14"/>
+      <c r="H462" s="14"/>
+      <c r="I462" s="14"/>
+      <c r="J462" s="14"/>
       <c r="K462" s="12"/>
       <c r="L462" s="12"/>
     </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A463" s="12"/>
       <c r="B463" s="12"/>
       <c r="C463" s="12"/>
       <c r="D463" s="12"/>
       <c r="E463" s="12"/>
       <c r="F463" s="12"/>
-      <c r="G463" s="12"/>
-      <c r="H463" s="12"/>
-      <c r="I463" s="12"/>
-      <c r="J463" s="12"/>
+      <c r="G463" s="14"/>
+      <c r="H463" s="14"/>
+      <c r="I463" s="14"/>
+      <c r="J463" s="14"/>
       <c r="K463" s="12"/>
       <c r="L463" s="12"/>
     </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A464" s="12"/>
       <c r="B464" s="12"/>
       <c r="C464" s="12"/>
       <c r="D464" s="12"/>
       <c r="E464" s="12"/>
       <c r="F464" s="12"/>
-      <c r="G464" s="12"/>
-      <c r="H464" s="12"/>
-      <c r="I464" s="12"/>
-      <c r="J464" s="12"/>
+      <c r="G464" s="14"/>
+      <c r="H464" s="14"/>
+      <c r="I464" s="14"/>
+      <c r="J464" s="14"/>
       <c r="K464" s="12"/>
       <c r="L464" s="12"/>
     </row>
-    <row r="465" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A465" s="14"/>
-      <c r="B465" s="14"/>
-      <c r="C465" s="14"/>
-      <c r="D465" s="14"/>
-      <c r="E465" s="14"/>
-      <c r="F465" s="14"/>
-      <c r="G465" s="14"/>
-      <c r="H465" s="14"/>
-      <c r="I465" s="14"/>
-      <c r="J465" s="14"/>
+    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A465" s="12"/>
+      <c r="B465" s="12"/>
+      <c r="C465" s="12"/>
+      <c r="D465" s="12"/>
+      <c r="E465" s="12"/>
+      <c r="F465" s="12"/>
+      <c r="G465" s="12"/>
+      <c r="H465" s="12"/>
+      <c r="I465" s="12"/>
+      <c r="J465" s="12"/>
       <c r="K465" s="12"/>
       <c r="L465" s="12"/>
     </row>
-    <row r="466" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A466" s="14"/>
       <c r="B466" s="14"/>
       <c r="C466" s="14"/>
@@ -5814,7 +5853,7 @@
       <c r="K466" s="12"/>
       <c r="L466" s="12"/>
     </row>
-    <row r="467" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A467" s="14"/>
       <c r="B467" s="14"/>
       <c r="C467" s="14"/>
@@ -5828,181 +5867,41 @@
       <c r="K467" s="12"/>
       <c r="L467" s="12"/>
     </row>
-    <row r="468" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A468" s="14"/>
-      <c r="B468" s="14"/>
-      <c r="C468" s="14"/>
-      <c r="D468" s="14"/>
-      <c r="E468" s="14"/>
-      <c r="F468" s="14"/>
-      <c r="G468" s="14"/>
-      <c r="H468" s="14"/>
-      <c r="I468" s="14"/>
-      <c r="J468" s="14"/>
-      <c r="K468" s="12"/>
-      <c r="L468" s="12"/>
-    </row>
-    <row r="469" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A469" s="14"/>
-      <c r="B469" s="14"/>
-      <c r="C469" s="14"/>
-      <c r="D469" s="14"/>
-      <c r="E469" s="14"/>
-      <c r="F469" s="14"/>
-      <c r="G469" s="14"/>
-      <c r="H469" s="14"/>
-      <c r="I469" s="14"/>
-      <c r="J469" s="14"/>
-      <c r="K469" s="12"/>
-      <c r="L469" s="12"/>
-    </row>
-    <row r="470" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A470" s="14"/>
-      <c r="B470" s="14"/>
-      <c r="C470" s="14"/>
-      <c r="D470" s="14"/>
-      <c r="E470" s="14"/>
-      <c r="F470" s="14"/>
-      <c r="G470" s="14"/>
-      <c r="H470" s="14"/>
-      <c r="I470" s="14"/>
-      <c r="J470" s="14"/>
-      <c r="K470" s="12"/>
-      <c r="L470" s="12"/>
-    </row>
-    <row r="471" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A471" s="14"/>
-      <c r="B471" s="14"/>
-      <c r="C471" s="14"/>
-      <c r="D471" s="14"/>
-      <c r="E471" s="14"/>
-      <c r="F471" s="14"/>
-      <c r="G471" s="14"/>
-      <c r="H471" s="14"/>
-      <c r="I471" s="14"/>
-      <c r="J471" s="14"/>
-      <c r="K471" s="12"/>
-      <c r="L471" s="12"/>
-    </row>
-    <row r="472" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A472" s="12"/>
-      <c r="B472" s="12"/>
-      <c r="C472" s="12"/>
-      <c r="D472" s="12"/>
-      <c r="E472" s="12"/>
-      <c r="F472" s="12"/>
-      <c r="G472" s="14"/>
-      <c r="H472" s="14"/>
-      <c r="I472" s="14"/>
-      <c r="J472" s="14"/>
-      <c r="K472" s="12"/>
-      <c r="L472" s="12"/>
-    </row>
-    <row r="473" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A473" s="12"/>
-      <c r="B473" s="12"/>
-      <c r="C473" s="12"/>
-      <c r="D473" s="12"/>
-      <c r="E473" s="12"/>
-      <c r="F473" s="12"/>
-      <c r="G473" s="14"/>
-      <c r="H473" s="14"/>
-      <c r="I473" s="14"/>
-      <c r="J473" s="14"/>
-      <c r="K473" s="12"/>
-      <c r="L473" s="12"/>
-    </row>
-    <row r="474" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A474" s="12"/>
-      <c r="B474" s="12"/>
-      <c r="C474" s="12"/>
-      <c r="D474" s="12"/>
-      <c r="E474" s="12"/>
-      <c r="F474" s="12"/>
-      <c r="G474" s="14"/>
-      <c r="H474" s="14"/>
-      <c r="I474" s="14"/>
-      <c r="J474" s="14"/>
-      <c r="K474" s="12"/>
-      <c r="L474" s="12"/>
-    </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A475" s="12"/>
-      <c r="B475" s="12"/>
-      <c r="C475" s="12"/>
-      <c r="D475" s="12"/>
-      <c r="E475" s="12"/>
-      <c r="F475" s="12"/>
-      <c r="G475" s="12"/>
-      <c r="H475" s="12"/>
-      <c r="I475" s="12"/>
-      <c r="J475" s="12"/>
-      <c r="K475" s="12"/>
-      <c r="L475" s="12"/>
-    </row>
-    <row r="476" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A476" s="14"/>
-      <c r="B476" s="14"/>
-      <c r="C476" s="14"/>
-      <c r="D476" s="14"/>
-      <c r="E476" s="14"/>
-      <c r="F476" s="14"/>
-      <c r="G476" s="14"/>
-      <c r="H476" s="14"/>
-      <c r="I476" s="14"/>
-      <c r="J476" s="14"/>
-      <c r="K476" s="12"/>
-      <c r="L476" s="12"/>
-    </row>
-    <row r="477" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A477" s="14"/>
-      <c r="B477" s="14"/>
-      <c r="C477" s="14"/>
-      <c r="D477" s="14"/>
-      <c r="E477" s="14"/>
-      <c r="F477" s="14"/>
-      <c r="G477" s="14"/>
-      <c r="H477" s="14"/>
-      <c r="I477" s="14"/>
-      <c r="J477" s="14"/>
-      <c r="K477" s="12"/>
-      <c r="L477" s="12"/>
-    </row>
-    <row r="502" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A502" s="9"/>
-      <c r="B502" s="9"/>
-      <c r="C502" s="9"/>
-      <c r="D502" s="9"/>
-      <c r="E502" s="9"/>
-      <c r="F502" s="9"/>
-      <c r="G502" s="9"/>
-      <c r="H502" s="9"/>
-      <c r="I502" s="9"/>
-      <c r="J502" s="9"/>
-    </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A504" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A505" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A506" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A507" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A508" t="s">
-        <v>135</v>
+    <row r="492" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A492" s="9"/>
+      <c r="B492" s="9"/>
+      <c r="C492" s="9"/>
+      <c r="D492" s="9"/>
+      <c r="E492" s="9"/>
+      <c r="F492" s="9"/>
+      <c r="G492" s="9"/>
+      <c r="H492" s="9"/>
+      <c r="I492" s="9"/>
+      <c r="J492" s="9"/>
+    </row>
+    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/AssetList-Planning.xlsx
+++ b/Documents/AssetList-Planning.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enra\Pictures\Sexy-Egels\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sepi\Desktop\Sexy-Egels\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9105"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="343">
   <si>
     <t>Planning</t>
   </si>
@@ -1023,9 +1023,6 @@
     <t>Minotaur Scripts</t>
   </si>
   <si>
-    <t>Bunny Script</t>
-  </si>
-  <si>
     <t>Arms Animations Implementing</t>
   </si>
   <si>
@@ -1048,12 +1045,21 @@
   </si>
   <si>
     <t>Minotaur Finishing</t>
+  </si>
+  <si>
+    <t>Bunny AI and pathing</t>
+  </si>
+  <si>
+    <t>Prefab player</t>
+  </si>
+  <si>
+    <t>Particles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1275,11 +1281,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Neutraal" xfId="2" builtinId="28"/>
-    <cellStyle name="Notitie" xfId="3" builtinId="10"/>
-    <cellStyle name="Ongeldig" xfId="1" builtinId="27"/>
-    <cellStyle name="Procent" xfId="4" builtinId="5"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="3" builtinId="10"/>
+    <cellStyle name="Percent" xfId="4" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1593,32 +1599,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28:J29"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J73" sqref="J73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="28"/>
-    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="28"/>
+    <col min="3" max="3" width="25.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="28"/>
-    <col min="10" max="10" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" style="28"/>
-    <col min="17" max="17" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.85546875" style="28"/>
-    <col min="24" max="24" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.85546875" style="28"/>
-    <col min="37" max="37" width="8.85546875" style="28"/>
-    <col min="44" max="44" width="8.85546875" style="28"/>
-    <col min="51" max="51" width="8.85546875" style="28"/>
-    <col min="58" max="58" width="8.85546875" style="28"/>
-    <col min="59" max="59" width="8.85546875" style="29"/>
+    <col min="9" max="9" width="8.88671875" style="28"/>
+    <col min="10" max="10" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" style="28"/>
+    <col min="17" max="17" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.88671875" style="28"/>
+    <col min="24" max="24" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.88671875" style="28"/>
+    <col min="37" max="37" width="8.88671875" style="28"/>
+    <col min="44" max="44" width="8.88671875" style="28"/>
+    <col min="51" max="51" width="8.88671875" style="28"/>
+    <col min="58" max="58" width="8.88671875" style="28"/>
+    <col min="59" max="59" width="8.88671875" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" ht="35.25" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:61" ht="35.4" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1641,7 +1647,7 @@
       <c r="BE1" s="12"/>
       <c r="BF1" s="12"/>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.3">
       <c r="B2" s="12"/>
       <c r="I2" s="12"/>
       <c r="P2" s="12"/>
@@ -1661,7 +1667,7 @@
       <c r="BE2" s="12"/>
       <c r="BF2" s="12"/>
     </row>
-    <row r="3" spans="1:61" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:61" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>281</v>
       </c>
@@ -1684,7 +1690,7 @@
       <c r="BE3" s="12"/>
       <c r="BF3" s="12"/>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.3">
       <c r="B4" s="12"/>
       <c r="I4" s="12"/>
       <c r="P4" s="12"/>
@@ -1704,7 +1710,7 @@
       <c r="BE4" s="12"/>
       <c r="BF4" s="12"/>
     </row>
-    <row r="5" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:61" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>282</v>
       </c>
@@ -1777,10 +1783,10 @@
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="1:61" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:61" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="BG6" s="32"/>
     </row>
-    <row r="7" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:61" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>283</v>
       </c>
@@ -1808,7 +1814,7 @@
       <c r="BG7" s="32"/>
       <c r="BH7" s="30"/>
     </row>
-    <row r="8" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:61" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="27"/>
       <c r="C8" s="9" t="s">
         <v>316</v>
@@ -1818,9 +1824,6 @@
         <v>329</v>
       </c>
       <c r="P8" s="27"/>
-      <c r="Q8" s="9" t="s">
-        <v>332</v>
-      </c>
       <c r="W8" s="27"/>
       <c r="AD8" s="27"/>
       <c r="AK8" s="27"/>
@@ -1829,7 +1832,7 @@
       <c r="BF8" s="27"/>
       <c r="BG8" s="32"/>
     </row>
-    <row r="9" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:61" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="27"/>
       <c r="C9" s="9" t="s">
         <v>317</v>
@@ -1847,7 +1850,7 @@
       <c r="BF9" s="27"/>
       <c r="BG9" s="32"/>
     </row>
-    <row r="10" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:61" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="27"/>
       <c r="C10" s="9" t="s">
         <v>318</v>
@@ -1862,7 +1865,7 @@
       <c r="BF10" s="27"/>
       <c r="BG10" s="32"/>
     </row>
-    <row r="11" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:61" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="27"/>
       <c r="I11" s="27"/>
       <c r="P11" s="27"/>
@@ -1874,7 +1877,7 @@
       <c r="BF11" s="27"/>
       <c r="BG11" s="32"/>
     </row>
-    <row r="12" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:61" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="27"/>
       <c r="I12" s="27"/>
       <c r="P12" s="27"/>
@@ -1886,7 +1889,7 @@
       <c r="BF12" s="27"/>
       <c r="BG12" s="32"/>
     </row>
-    <row r="13" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:61" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="27"/>
       <c r="I13" s="27"/>
       <c r="P13" s="27"/>
@@ -1898,7 +1901,7 @@
       <c r="BF13" s="27"/>
       <c r="BG13" s="32"/>
     </row>
-    <row r="14" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:61" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="27"/>
       <c r="I14" s="27"/>
       <c r="P14" s="27"/>
@@ -1910,7 +1913,7 @@
       <c r="BF14" s="27"/>
       <c r="BG14" s="32"/>
     </row>
-    <row r="15" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:61" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="27"/>
       <c r="I15" s="27"/>
       <c r="P15" s="27"/>
@@ -1922,7 +1925,7 @@
       <c r="BF15" s="27"/>
       <c r="BG15" s="32"/>
     </row>
-    <row r="16" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:61" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="27"/>
       <c r="I16" s="27"/>
       <c r="P16" s="27"/>
@@ -1934,10 +1937,10 @@
       <c r="BF16" s="27"/>
       <c r="BG16" s="32"/>
     </row>
-    <row r="17" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:59" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="BG17" s="32"/>
     </row>
-    <row r="18" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>284</v>
       </c>
@@ -1947,11 +1950,14 @@
       </c>
       <c r="I18" s="27"/>
       <c r="J18" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
+      </c>
+      <c r="M18" s="33" t="s">
+        <v>341</v>
       </c>
       <c r="P18" s="27"/>
       <c r="Q18" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="W18" s="27"/>
       <c r="AD18" s="27"/>
@@ -1961,11 +1967,11 @@
       <c r="BF18" s="27"/>
       <c r="BG18" s="32"/>
     </row>
-    <row r="19" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="27"/>
       <c r="I19" s="27"/>
       <c r="J19" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="P19" s="27"/>
       <c r="W19" s="27"/>
@@ -1976,14 +1982,14 @@
       <c r="BF19" s="27"/>
       <c r="BG19" s="32"/>
     </row>
-    <row r="20" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="27"/>
       <c r="F20" s="9" t="s">
         <v>287</v>
       </c>
       <c r="I20" s="27"/>
       <c r="J20" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P20" s="27"/>
       <c r="W20" s="27"/>
@@ -1994,7 +2000,7 @@
       <c r="BF20" s="27"/>
       <c r="BG20" s="32"/>
     </row>
-    <row r="21" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="27"/>
       <c r="I21" s="27"/>
       <c r="J21" s="9" t="s">
@@ -2009,7 +2015,7 @@
       <c r="BF21" s="27"/>
       <c r="BG21" s="32"/>
     </row>
-    <row r="22" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="27"/>
       <c r="I22" s="27"/>
       <c r="P22" s="27"/>
@@ -2021,7 +2027,7 @@
       <c r="BF22" s="27"/>
       <c r="BG22" s="32"/>
     </row>
-    <row r="23" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="27"/>
       <c r="I23" s="27"/>
       <c r="P23" s="27"/>
@@ -2033,7 +2039,7 @@
       <c r="BF23" s="27"/>
       <c r="BG23" s="32"/>
     </row>
-    <row r="24" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="27"/>
       <c r="I24" s="27"/>
       <c r="P24" s="27"/>
@@ -2045,7 +2051,7 @@
       <c r="BF24" s="27"/>
       <c r="BG24" s="32"/>
     </row>
-    <row r="25" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="27"/>
       <c r="I25" s="27"/>
       <c r="P25" s="27"/>
@@ -2057,7 +2063,7 @@
       <c r="BF25" s="27"/>
       <c r="BG25" s="32"/>
     </row>
-    <row r="26" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="27"/>
       <c r="I26" s="27"/>
       <c r="P26" s="27"/>
@@ -2069,7 +2075,7 @@
       <c r="BF26" s="27"/>
       <c r="BG26" s="32"/>
     </row>
-    <row r="27" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B27" s="27"/>
       <c r="I27" s="27"/>
       <c r="P27" s="27"/>
@@ -2081,10 +2087,10 @@
       <c r="BF27" s="27"/>
       <c r="BG27" s="32"/>
     </row>
-    <row r="28" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:59" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="BG28" s="32"/>
     </row>
-    <row r="29" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>278</v>
       </c>
@@ -2094,7 +2100,7 @@
       </c>
       <c r="I29" s="27"/>
       <c r="J29" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M29" s="9" t="s">
         <v>328</v>
@@ -2111,7 +2117,7 @@
       <c r="BF29" s="27"/>
       <c r="BG29" s="32"/>
     </row>
-    <row r="30" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B30" s="27"/>
       <c r="C30" s="9" t="s">
         <v>291</v>
@@ -2135,7 +2141,7 @@
       <c r="BF30" s="27"/>
       <c r="BG30" s="32"/>
     </row>
-    <row r="31" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B31" s="27"/>
       <c r="I31" s="27"/>
       <c r="J31" s="9" t="s">
@@ -2156,7 +2162,7 @@
       <c r="BF31" s="27"/>
       <c r="BG31" s="32"/>
     </row>
-    <row r="32" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B32" s="27"/>
       <c r="I32" s="27"/>
       <c r="J32" s="9" t="s">
@@ -2171,7 +2177,7 @@
       <c r="BF32" s="27"/>
       <c r="BG32" s="32"/>
     </row>
-    <row r="33" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B33" s="27"/>
       <c r="I33" s="27"/>
       <c r="P33" s="27"/>
@@ -2183,7 +2189,7 @@
       <c r="BF33" s="27"/>
       <c r="BG33" s="32"/>
     </row>
-    <row r="34" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B34" s="27"/>
       <c r="I34" s="27"/>
       <c r="P34" s="27"/>
@@ -2195,7 +2201,7 @@
       <c r="BF34" s="27"/>
       <c r="BG34" s="32"/>
     </row>
-    <row r="35" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B35" s="27"/>
       <c r="I35" s="27"/>
       <c r="P35" s="27"/>
@@ -2207,7 +2213,7 @@
       <c r="BF35" s="27"/>
       <c r="BG35" s="32"/>
     </row>
-    <row r="36" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B36" s="27"/>
       <c r="I36" s="27"/>
       <c r="P36" s="27"/>
@@ -2219,7 +2225,7 @@
       <c r="BF36" s="27"/>
       <c r="BG36" s="32"/>
     </row>
-    <row r="37" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B37" s="27"/>
       <c r="I37" s="27"/>
       <c r="P37" s="27"/>
@@ -2231,7 +2237,7 @@
       <c r="BF37" s="27"/>
       <c r="BG37" s="32"/>
     </row>
-    <row r="38" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B38" s="27"/>
       <c r="I38" s="27"/>
       <c r="P38" s="27"/>
@@ -2243,10 +2249,10 @@
       <c r="BF38" s="27"/>
       <c r="BG38" s="32"/>
     </row>
-    <row r="39" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:59" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="BG39" s="32"/>
     </row>
-    <row r="40" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>280</v>
       </c>
@@ -2273,7 +2279,7 @@
       <c r="BF40" s="27"/>
       <c r="BG40" s="32"/>
     </row>
-    <row r="41" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B41" s="27"/>
       <c r="I41" s="27"/>
       <c r="J41" s="9" t="s">
@@ -2287,7 +2293,7 @@
       </c>
       <c r="P41" s="27"/>
       <c r="Q41" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="W41" s="27"/>
       <c r="AD41" s="27"/>
@@ -2297,7 +2303,7 @@
       <c r="BF41" s="27"/>
       <c r="BG41" s="32"/>
     </row>
-    <row r="42" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B42" s="27"/>
       <c r="I42" s="27"/>
       <c r="J42" s="9" t="s">
@@ -2315,7 +2321,7 @@
       <c r="BF42" s="27"/>
       <c r="BG42" s="32"/>
     </row>
-    <row r="43" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B43" s="27"/>
       <c r="I43" s="27"/>
       <c r="J43" s="9" t="s">
@@ -2330,7 +2336,7 @@
       <c r="BF43" s="27"/>
       <c r="BG43" s="32"/>
     </row>
-    <row r="44" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B44" s="27"/>
       <c r="I44" s="27"/>
       <c r="J44" s="9" t="s">
@@ -2345,7 +2351,7 @@
       <c r="BF44" s="27"/>
       <c r="BG44" s="32"/>
     </row>
-    <row r="45" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B45" s="27"/>
       <c r="I45" s="27"/>
       <c r="P45" s="27"/>
@@ -2357,7 +2363,7 @@
       <c r="BF45" s="27"/>
       <c r="BG45" s="32"/>
     </row>
-    <row r="46" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B46" s="27"/>
       <c r="I46" s="27"/>
       <c r="P46" s="27"/>
@@ -2369,7 +2375,7 @@
       <c r="BF46" s="27"/>
       <c r="BG46" s="32"/>
     </row>
-    <row r="47" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B47" s="27"/>
       <c r="I47" s="27"/>
       <c r="P47" s="27"/>
@@ -2381,7 +2387,7 @@
       <c r="BF47" s="27"/>
       <c r="BG47" s="32"/>
     </row>
-    <row r="48" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B48" s="27"/>
       <c r="I48" s="27"/>
       <c r="P48" s="27"/>
@@ -2393,7 +2399,7 @@
       <c r="BF48" s="27"/>
       <c r="BG48" s="32"/>
     </row>
-    <row r="49" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B49" s="27"/>
       <c r="I49" s="27"/>
       <c r="P49" s="27"/>
@@ -2405,16 +2411,16 @@
       <c r="BF49" s="27"/>
       <c r="BG49" s="32"/>
     </row>
-    <row r="50" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:59" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="BG50" s="32"/>
     </row>
-    <row r="51" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>285</v>
       </c>
       <c r="B51" s="27"/>
       <c r="C51" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I51" s="27"/>
       <c r="J51" s="9" t="s">
@@ -2429,7 +2435,7 @@
       <c r="BF51" s="27"/>
       <c r="BG51" s="32"/>
     </row>
-    <row r="52" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B52" s="27"/>
       <c r="C52" s="9" t="s">
         <v>296</v>
@@ -2447,7 +2453,7 @@
       <c r="BF52" s="27"/>
       <c r="BG52" s="32"/>
     </row>
-    <row r="53" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B53" s="27"/>
       <c r="I53" s="27"/>
       <c r="P53" s="27"/>
@@ -2459,7 +2465,7 @@
       <c r="BF53" s="27"/>
       <c r="BG53" s="32"/>
     </row>
-    <row r="54" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B54" s="27"/>
       <c r="I54" s="27"/>
       <c r="P54" s="27"/>
@@ -2471,7 +2477,7 @@
       <c r="BF54" s="27"/>
       <c r="BG54" s="32"/>
     </row>
-    <row r="55" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B55" s="27"/>
       <c r="I55" s="27"/>
       <c r="P55" s="27"/>
@@ -2483,7 +2489,7 @@
       <c r="BF55" s="27"/>
       <c r="BG55" s="32"/>
     </row>
-    <row r="56" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B56" s="27"/>
       <c r="I56" s="27"/>
       <c r="P56" s="27"/>
@@ -2495,7 +2501,7 @@
       <c r="BF56" s="27"/>
       <c r="BG56" s="32"/>
     </row>
-    <row r="57" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B57" s="27"/>
       <c r="I57" s="27"/>
       <c r="P57" s="27"/>
@@ -2507,7 +2513,7 @@
       <c r="BF57" s="27"/>
       <c r="BG57" s="32"/>
     </row>
-    <row r="58" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B58" s="27"/>
       <c r="I58" s="27"/>
       <c r="P58" s="27"/>
@@ -2519,7 +2525,7 @@
       <c r="BF58" s="27"/>
       <c r="BG58" s="32"/>
     </row>
-    <row r="59" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B59" s="27"/>
       <c r="I59" s="27"/>
       <c r="P59" s="27"/>
@@ -2531,7 +2537,7 @@
       <c r="BF59" s="27"/>
       <c r="BG59" s="32"/>
     </row>
-    <row r="60" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B60" s="27"/>
       <c r="I60" s="27"/>
       <c r="P60" s="27"/>
@@ -2543,16 +2549,16 @@
       <c r="BF60" s="27"/>
       <c r="BG60" s="32"/>
     </row>
-    <row r="61" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:59" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="BG61" s="32"/>
     </row>
-    <row r="62" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>288</v>
       </c>
       <c r="B62" s="27"/>
       <c r="C62" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I62" s="27"/>
       <c r="J62" s="9" t="s">
@@ -2567,7 +2573,7 @@
       <c r="BF62" s="27"/>
       <c r="BG62" s="32"/>
     </row>
-    <row r="63" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B63" s="27"/>
       <c r="I63" s="27"/>
       <c r="P63" s="27"/>
@@ -2579,7 +2585,7 @@
       <c r="BF63" s="27"/>
       <c r="BG63" s="32"/>
     </row>
-    <row r="64" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B64" s="27"/>
       <c r="I64" s="27"/>
       <c r="P64" s="27"/>
@@ -2591,7 +2597,7 @@
       <c r="BF64" s="27"/>
       <c r="BG64" s="32"/>
     </row>
-    <row r="65" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B65" s="27"/>
       <c r="I65" s="27"/>
       <c r="P65" s="27"/>
@@ -2603,7 +2609,7 @@
       <c r="BF65" s="27"/>
       <c r="BG65" s="32"/>
     </row>
-    <row r="66" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B66" s="27"/>
       <c r="I66" s="27"/>
       <c r="P66" s="27"/>
@@ -2615,7 +2621,7 @@
       <c r="BF66" s="27"/>
       <c r="BG66" s="32"/>
     </row>
-    <row r="67" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B67" s="27"/>
       <c r="I67" s="27"/>
       <c r="P67" s="27"/>
@@ -2627,7 +2633,7 @@
       <c r="BF67" s="27"/>
       <c r="BG67" s="32"/>
     </row>
-    <row r="68" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B68" s="27"/>
       <c r="I68" s="27"/>
       <c r="P68" s="27"/>
@@ -2639,7 +2645,7 @@
       <c r="BF68" s="27"/>
       <c r="BG68" s="32"/>
     </row>
-    <row r="69" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B69" s="27"/>
       <c r="I69" s="27"/>
       <c r="P69" s="27"/>
@@ -2651,7 +2657,7 @@
       <c r="BF69" s="27"/>
       <c r="BG69" s="32"/>
     </row>
-    <row r="70" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B70" s="27"/>
       <c r="I70" s="27"/>
       <c r="P70" s="27"/>
@@ -2663,7 +2669,7 @@
       <c r="BF70" s="27"/>
       <c r="BG70" s="32"/>
     </row>
-    <row r="71" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B71" s="27"/>
       <c r="I71" s="27"/>
       <c r="P71" s="27"/>
@@ -2675,20 +2681,20 @@
       <c r="BF71" s="27"/>
       <c r="BG71" s="32"/>
     </row>
-    <row r="72" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:59" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="BG72" s="32"/>
     </row>
-    <row r="73" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>289</v>
       </c>
       <c r="B73" s="27"/>
       <c r="C73" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I73" s="27"/>
       <c r="J73" s="9" t="s">
-        <v>287</v>
+        <v>342</v>
       </c>
       <c r="P73" s="27"/>
       <c r="W73" s="27"/>
@@ -2699,7 +2705,7 @@
       <c r="BF73" s="27"/>
       <c r="BG73" s="32"/>
     </row>
-    <row r="74" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B74" s="27"/>
       <c r="I74" s="27"/>
       <c r="P74" s="27"/>
@@ -2711,16 +2717,19 @@
       <c r="BF74" s="27"/>
       <c r="BG74" s="32"/>
     </row>
-    <row r="83" spans="1:59" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:59" s="28" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>295</v>
       </c>
       <c r="B84" s="27"/>
       <c r="C84" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I84" s="27"/>
+      <c r="J84" s="9" t="s">
+        <v>340</v>
+      </c>
       <c r="P84" s="27"/>
       <c r="W84" s="27"/>
       <c r="AD84" s="27"/>
@@ -2730,7 +2739,7 @@
       <c r="BF84" s="27"/>
       <c r="BG84" s="32"/>
     </row>
-    <row r="85" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B85" s="27"/>
       <c r="I85" s="27"/>
       <c r="P85" s="27"/>
@@ -2742,7 +2751,7 @@
       <c r="BF85" s="27"/>
       <c r="BG85" s="32"/>
     </row>
-    <row r="86" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B86" s="27"/>
       <c r="I86" s="27"/>
       <c r="P86" s="27"/>
@@ -2754,7 +2763,7 @@
       <c r="BF86" s="27"/>
       <c r="BG86" s="32"/>
     </row>
-    <row r="87" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B87" s="27"/>
       <c r="I87" s="27"/>
       <c r="P87" s="27"/>
@@ -2766,7 +2775,7 @@
       <c r="BF87" s="27"/>
       <c r="BG87" s="32"/>
     </row>
-    <row r="88" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B88" s="27"/>
       <c r="I88" s="27"/>
       <c r="P88" s="27"/>
@@ -2778,7 +2787,7 @@
       <c r="BF88" s="27"/>
       <c r="BG88" s="32"/>
     </row>
-    <row r="89" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B89" s="27"/>
       <c r="I89" s="27"/>
       <c r="P89" s="27"/>
@@ -2790,7 +2799,7 @@
       <c r="BF89" s="27"/>
       <c r="BG89" s="32"/>
     </row>
-    <row r="90" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B90" s="27"/>
       <c r="I90" s="27"/>
       <c r="P90" s="27"/>
@@ -2802,7 +2811,7 @@
       <c r="BF90" s="27"/>
       <c r="BG90" s="32"/>
     </row>
-    <row r="91" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B91" s="27"/>
       <c r="I91" s="27"/>
       <c r="P91" s="27"/>
@@ -2814,7 +2823,7 @@
       <c r="BF91" s="27"/>
       <c r="BG91" s="32"/>
     </row>
-    <row r="92" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B92" s="27"/>
       <c r="I92" s="27"/>
       <c r="P92" s="27"/>
@@ -2826,7 +2835,7 @@
       <c r="BF92" s="27"/>
       <c r="BG92" s="32"/>
     </row>
-    <row r="93" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B93" s="27"/>
       <c r="I93" s="27"/>
       <c r="P93" s="27"/>
@@ -2852,18 +2861,18 @@
       <selection activeCell="A258" sqref="A258"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="35.25" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:17" ht="35.4" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
@@ -2873,7 +2882,7 @@
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
     </row>
-    <row r="4" spans="1:17" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" s="3" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -2903,7 +2912,7 @@
       <c r="P4" s="13"/>
       <c r="Q4" s="13"/>
     </row>
-    <row r="5" spans="1:17" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" s="3" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -2933,7 +2942,7 @@
       <c r="P5" s="13"/>
       <c r="Q5" s="13"/>
     </row>
-    <row r="6" spans="1:17" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" s="3" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -2959,7 +2968,7 @@
       <c r="P6" s="13"/>
       <c r="Q6" s="13"/>
     </row>
-    <row r="7" spans="1:17" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" s="3" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -2985,11 +2994,11 @@
       <c r="P7" s="13"/>
       <c r="Q7" s="13"/>
     </row>
-    <row r="8" spans="1:17" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:17" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="4" customFormat="1" ht="24.6" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:17" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
     </row>
-    <row r="10" spans="1:17" s="7" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="7" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>19</v>
       </c>
@@ -3003,18 +3012,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:17" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:17" s="8" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
     </row>
-    <row r="14" spans="1:17" s="9" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" s="9" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>24</v>
       </c>
@@ -3029,7 +3038,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -3043,7 +3052,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="D16" s="9" t="s">
@@ -3056,7 +3065,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="D17" s="9" t="s">
@@ -3069,8 +3078,8 @@
         <v>278</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>40</v>
       </c>
@@ -3084,7 +3093,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D20" s="9" t="s">
         <v>42</v>
       </c>
@@ -3095,7 +3104,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D21" s="9" t="s">
         <v>43</v>
       </c>
@@ -3106,7 +3115,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D22" s="9" t="s">
         <v>44</v>
       </c>
@@ -3117,8 +3126,8 @@
         <v>278</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>45</v>
       </c>
@@ -3132,7 +3141,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D25" s="15" t="s">
         <v>47</v>
       </c>
@@ -3143,7 +3152,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D26" s="15" t="s">
         <v>48</v>
       </c>
@@ -3154,7 +3163,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D27" s="15" t="s">
         <v>49</v>
       </c>
@@ -3165,8 +3174,8 @@
         <v>279</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>304</v>
       </c>
@@ -3177,7 +3186,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D30" s="15" t="s">
         <v>306</v>
       </c>
@@ -3185,7 +3194,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D31" s="15" t="s">
         <v>307</v>
       </c>
@@ -3193,7 +3202,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D32" s="15" t="s">
         <v>308</v>
       </c>
@@ -3201,25 +3210,25 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:9" s="25" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:9" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:9" s="25" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A39" s="25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:9" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>52</v>
       </c>
@@ -3230,7 +3239,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D44" s="9" t="s">
         <v>54</v>
       </c>
@@ -3238,7 +3247,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D45" s="9" t="s">
         <v>55</v>
       </c>
@@ -3246,8 +3255,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>56</v>
       </c>
@@ -3258,7 +3267,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D48" s="9" t="s">
         <v>58</v>
       </c>
@@ -3266,7 +3275,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D49" s="9" t="s">
         <v>59</v>
       </c>
@@ -3274,8 +3283,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>60</v>
       </c>
@@ -3286,7 +3295,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D52" s="9" t="s">
         <v>62</v>
       </c>
@@ -3294,7 +3303,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D53" s="9" t="s">
         <v>63</v>
       </c>
@@ -3302,8 +3311,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>126</v>
       </c>
@@ -3314,7 +3323,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D56" s="9" t="s">
         <v>128</v>
       </c>
@@ -3322,7 +3331,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D57" s="14" t="s">
         <v>129</v>
       </c>
@@ -3330,8 +3339,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>130</v>
       </c>
@@ -3342,7 +3351,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D60" s="9" t="s">
         <v>132</v>
       </c>
@@ -3350,7 +3359,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D61" s="9" t="s">
         <v>133</v>
       </c>
@@ -3358,8 +3367,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>134</v>
       </c>
@@ -3370,7 +3379,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D64" s="9" t="s">
         <v>136</v>
       </c>
@@ -3378,7 +3387,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D65" s="9" t="s">
         <v>137</v>
       </c>
@@ -3386,8 +3395,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>138</v>
       </c>
@@ -3398,7 +3407,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D68" s="9" t="s">
         <v>140</v>
       </c>
@@ -3406,7 +3415,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D69" s="9" t="s">
         <v>141</v>
       </c>
@@ -3414,8 +3423,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>142</v>
       </c>
@@ -3426,7 +3435,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D72" s="9" t="s">
         <v>144</v>
       </c>
@@ -3434,7 +3443,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D73" s="9" t="s">
         <v>145</v>
       </c>
@@ -3442,8 +3451,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>146</v>
       </c>
@@ -3454,7 +3463,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D76" s="9" t="s">
         <v>148</v>
       </c>
@@ -3462,7 +3471,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D77" s="9" t="s">
         <v>149</v>
       </c>
@@ -3470,8 +3479,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>150</v>
       </c>
@@ -3482,7 +3491,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D80" s="9" t="s">
         <v>152</v>
       </c>
@@ -3490,7 +3499,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D81" s="9" t="s">
         <v>153</v>
       </c>
@@ -3498,15 +3507,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="84" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:9" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="19" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="85" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="86" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:9" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
         <v>300</v>
       </c>
@@ -3517,7 +3526,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D87" s="9" t="s">
         <v>302</v>
       </c>
@@ -3525,7 +3534,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D88" s="9" t="s">
         <v>303</v>
       </c>
@@ -3533,8 +3542,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="90" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="1:9" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
         <v>60</v>
       </c>
@@ -3545,7 +3554,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D91" s="9" t="s">
         <v>310</v>
       </c>
@@ -3553,7 +3562,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D92" s="14" t="s">
         <v>311</v>
       </c>
@@ -3561,8 +3570,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="94" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="1:9" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
         <v>155</v>
       </c>
@@ -3573,7 +3582,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D95" s="9" t="s">
         <v>157</v>
       </c>
@@ -3581,7 +3590,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="96" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D96" s="9" t="s">
         <v>158</v>
       </c>
@@ -3589,8 +3598,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="98" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="98" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>159</v>
       </c>
@@ -3601,7 +3610,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D99" s="14" t="s">
         <v>161</v>
       </c>
@@ -3609,7 +3618,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D100" s="9" t="s">
         <v>162</v>
       </c>
@@ -3617,8 +3626,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="102" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="102" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>163</v>
       </c>
@@ -3629,7 +3638,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D103" s="14" t="s">
         <v>165</v>
       </c>
@@ -3637,7 +3646,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D104" s="9" t="s">
         <v>166</v>
       </c>
@@ -3645,8 +3654,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="106" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
         <v>167</v>
       </c>
@@ -3657,7 +3666,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D107" s="14" t="s">
         <v>169</v>
       </c>
@@ -3665,7 +3674,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D108" s="9" t="s">
         <v>170</v>
       </c>
@@ -3673,8 +3682,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="109" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="110" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
         <v>174</v>
       </c>
@@ -3685,7 +3694,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D111" s="14" t="s">
         <v>172</v>
       </c>
@@ -3693,7 +3702,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D112" s="9" t="s">
         <v>173</v>
       </c>
@@ -3701,8 +3710,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="114" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="114" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
         <v>175</v>
       </c>
@@ -3713,7 +3722,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="115" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D115" s="14" t="s">
         <v>177</v>
       </c>
@@ -3721,7 +3730,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="116" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D116" s="9" t="s">
         <v>178</v>
       </c>
@@ -3729,8 +3738,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="117" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="118" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="118" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
         <v>179</v>
       </c>
@@ -3741,7 +3750,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="119" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D119" s="9" t="s">
         <v>313</v>
       </c>
@@ -3749,7 +3758,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="120" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D120" s="9" t="s">
         <v>314</v>
       </c>
@@ -3757,15 +3766,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="123" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="1:11" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="1:11" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="22" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="124" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="125" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
         <v>76</v>
       </c>
@@ -3777,7 +3786,7 @@
       </c>
       <c r="K125"/>
     </row>
-    <row r="126" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D126" s="9" t="s">
         <v>65</v>
       </c>
@@ -3786,7 +3795,7 @@
       </c>
       <c r="K126"/>
     </row>
-    <row r="127" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="9"/>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
@@ -3803,10 +3812,10 @@
       <c r="J127" s="9"/>
       <c r="K127"/>
     </row>
-    <row r="128" spans="1:11" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="9" t="s">
         <v>75</v>
       </c>
@@ -3818,7 +3827,7 @@
       </c>
       <c r="K129"/>
     </row>
-    <row r="130" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D130" s="9" t="s">
         <v>68</v>
       </c>
@@ -3827,7 +3836,7 @@
       </c>
       <c r="K130"/>
     </row>
-    <row r="131" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="9"/>
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
@@ -3844,10 +3853,10 @@
       <c r="J131" s="9"/>
       <c r="K131"/>
     </row>
-    <row r="132" spans="1:11" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="9" t="s">
         <v>74</v>
       </c>
@@ -3859,7 +3868,7 @@
       </c>
       <c r="K133"/>
     </row>
-    <row r="134" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D134" s="9" t="s">
         <v>71</v>
       </c>
@@ -3868,7 +3877,7 @@
       </c>
       <c r="K134"/>
     </row>
-    <row r="135" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="9"/>
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
@@ -3885,10 +3894,10 @@
       <c r="J135" s="9"/>
       <c r="K135"/>
     </row>
-    <row r="136" spans="1:11" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="9" t="s">
         <v>73</v>
       </c>
@@ -3900,7 +3909,7 @@
       </c>
       <c r="K137"/>
     </row>
-    <row r="138" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D138" s="9" t="s">
         <v>78</v>
       </c>
@@ -3909,7 +3918,7 @@
       </c>
       <c r="K138"/>
     </row>
-    <row r="139" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="9"/>
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
@@ -3926,10 +3935,10 @@
       <c r="J139" s="9"/>
       <c r="K139"/>
     </row>
-    <row r="140" spans="1:11" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="9" t="s">
         <v>80</v>
       </c>
@@ -3941,7 +3950,7 @@
       </c>
       <c r="K141"/>
     </row>
-    <row r="142" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D142" s="9" t="s">
         <v>82</v>
       </c>
@@ -3950,7 +3959,7 @@
       </c>
       <c r="K142"/>
     </row>
-    <row r="143" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="9"/>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
@@ -3967,10 +3976,10 @@
       <c r="J143" s="9"/>
       <c r="K143"/>
     </row>
-    <row r="144" spans="1:11" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="9" t="s">
         <v>85</v>
       </c>
@@ -3982,7 +3991,7 @@
       </c>
       <c r="K145"/>
     </row>
-    <row r="146" spans="1:11" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D146" s="9" t="s">
         <v>87</v>
       </c>
@@ -3991,7 +4000,7 @@
       </c>
       <c r="K146"/>
     </row>
-    <row r="147" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D147" s="14" t="s">
         <v>88</v>
       </c>
@@ -4000,10 +4009,10 @@
       </c>
       <c r="K147" s="12"/>
     </row>
-    <row r="148" spans="1:11" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="9" t="s">
         <v>89</v>
       </c>
@@ -4021,7 +4030,7 @@
       </c>
       <c r="J149" s="9"/>
     </row>
-    <row r="150" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="9"/>
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
@@ -4037,7 +4046,7 @@
       </c>
       <c r="J150" s="9"/>
     </row>
-    <row r="151" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="9"/>
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
@@ -4053,7 +4062,7 @@
       </c>
       <c r="J151" s="9"/>
     </row>
-    <row r="152" spans="1:11" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="17"/>
       <c r="B152" s="17"/>
       <c r="C152" s="17"/>
@@ -4065,7 +4074,7 @@
       <c r="I152" s="17"/>
       <c r="J152" s="17"/>
     </row>
-    <row r="153" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="9" t="s">
         <v>94</v>
       </c>
@@ -4083,7 +4092,7 @@
       </c>
       <c r="J153" s="9"/>
     </row>
-    <row r="154" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="9"/>
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
@@ -4099,7 +4108,7 @@
       </c>
       <c r="J154" s="9"/>
     </row>
-    <row r="155" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="9"/>
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
@@ -4115,7 +4124,7 @@
       </c>
       <c r="J155" s="9"/>
     </row>
-    <row r="156" spans="1:11" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="17"/>
       <c r="B156" s="17"/>
       <c r="C156" s="17"/>
@@ -4127,7 +4136,7 @@
       <c r="I156" s="17"/>
       <c r="J156" s="17"/>
     </row>
-    <row r="157" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="9" t="s">
         <v>105</v>
       </c>
@@ -4145,7 +4154,7 @@
       </c>
       <c r="J157" s="9"/>
     </row>
-    <row r="158" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="9"/>
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
@@ -4161,7 +4170,7 @@
       </c>
       <c r="J158" s="9"/>
     </row>
-    <row r="159" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="9"/>
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
@@ -4177,8 +4186,8 @@
       </c>
       <c r="J159" s="9"/>
     </row>
-    <row r="160" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="161" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="9" t="s">
         <v>100</v>
       </c>
@@ -4196,7 +4205,7 @@
       </c>
       <c r="J161" s="9"/>
     </row>
-    <row r="162" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="9"/>
       <c r="B162" s="9"/>
       <c r="C162" s="9"/>
@@ -4212,7 +4221,7 @@
       </c>
       <c r="J162" s="9"/>
     </row>
-    <row r="163" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="9"/>
       <c r="B163" s="9"/>
       <c r="C163" s="9"/>
@@ -4228,7 +4237,7 @@
       </c>
       <c r="J163" s="9"/>
     </row>
-    <row r="164" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="9"/>
       <c r="B164" s="9"/>
       <c r="C164" s="9"/>
@@ -4244,8 +4253,8 @@
       </c>
       <c r="J164" s="9"/>
     </row>
-    <row r="165" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="166" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="9" t="s">
         <v>106</v>
       </c>
@@ -4263,7 +4272,7 @@
       </c>
       <c r="J166" s="9"/>
     </row>
-    <row r="167" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="9"/>
       <c r="B167" s="9"/>
       <c r="C167" s="9"/>
@@ -4279,7 +4288,7 @@
       </c>
       <c r="J167" s="9"/>
     </row>
-    <row r="168" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="9"/>
       <c r="B168" s="9"/>
       <c r="C168" s="9"/>
@@ -4295,8 +4304,8 @@
       </c>
       <c r="J168" s="9"/>
     </row>
-    <row r="169" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="170" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="9" t="s">
         <v>110</v>
       </c>
@@ -4314,7 +4323,7 @@
       </c>
       <c r="J170" s="9"/>
     </row>
-    <row r="171" spans="1:10" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="9"/>
       <c r="B171" s="9"/>
       <c r="C171" s="9"/>
@@ -4330,7 +4339,7 @@
       </c>
       <c r="J171" s="14"/>
     </row>
-    <row r="172" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="9"/>
       <c r="B172" s="9"/>
       <c r="C172" s="9"/>
@@ -4346,20 +4355,20 @@
       </c>
       <c r="J172" s="9"/>
     </row>
-    <row r="173" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" spans="1:10" s="24" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="175" spans="1:10" s="24" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A175" s="24" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="176" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="177" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="177" spans="1:11" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A177" s="19" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="178" spans="1:11" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
         <v>181</v>
       </c>
@@ -4373,7 +4382,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="180" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D180" s="9" t="s">
         <v>183</v>
       </c>
@@ -4384,7 +4393,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="181" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D181" s="9" t="s">
         <v>184</v>
       </c>
@@ -4395,8 +4404,8 @@
         <v>280</v>
       </c>
     </row>
-    <row r="182" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="183" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="183" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
         <v>185</v>
       </c>
@@ -4410,7 +4419,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="184" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D184" s="9" t="s">
         <v>187</v>
       </c>
@@ -4421,7 +4430,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="185" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D185" s="9" t="s">
         <v>188</v>
       </c>
@@ -4432,8 +4441,8 @@
         <v>278</v>
       </c>
     </row>
-    <row r="186" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="187" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="187" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
         <v>189</v>
       </c>
@@ -4444,7 +4453,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="188" spans="1:11" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D188" s="9" t="s">
         <v>191</v>
       </c>
@@ -4452,7 +4461,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="189" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D189" s="9" t="s">
         <v>192</v>
       </c>
@@ -4460,15 +4469,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="190" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="191" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="192" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="191" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="192" spans="1:11" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A192" s="18" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="193" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="194" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="194" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="9" t="s">
         <v>115</v>
       </c>
@@ -4480,7 +4489,7 @@
       </c>
       <c r="K194"/>
     </row>
-    <row r="195" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D195" s="9" t="s">
         <v>195</v>
       </c>
@@ -4489,7 +4498,7 @@
       </c>
       <c r="K195"/>
     </row>
-    <row r="196" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D196" s="9" t="s">
         <v>196</v>
       </c>
@@ -4498,10 +4507,10 @@
       </c>
       <c r="K196"/>
     </row>
-    <row r="197" spans="1:11" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" s="9" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" s="9" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="9" t="s">
         <v>116</v>
       </c>
@@ -4513,7 +4522,7 @@
       </c>
       <c r="K198"/>
     </row>
-    <row r="199" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D199" s="9" t="s">
         <v>198</v>
       </c>
@@ -4522,7 +4531,7 @@
       </c>
       <c r="K199"/>
     </row>
-    <row r="200" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="9"/>
       <c r="B200" s="9"/>
       <c r="C200" s="9"/>
@@ -4538,7 +4547,7 @@
       </c>
       <c r="J200" s="9"/>
     </row>
-    <row r="201" spans="1:11" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="17"/>
       <c r="B201" s="17"/>
       <c r="C201" s="17"/>
@@ -4550,7 +4559,7 @@
       <c r="I201" s="17"/>
       <c r="J201" s="17"/>
     </row>
-    <row r="202" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="9" t="s">
         <v>117</v>
       </c>
@@ -4568,7 +4577,7 @@
       </c>
       <c r="J202" s="9"/>
     </row>
-    <row r="203" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="9"/>
       <c r="B203" s="9"/>
       <c r="C203" s="9"/>
@@ -4584,7 +4593,7 @@
       </c>
       <c r="J203" s="9"/>
     </row>
-    <row r="204" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="9"/>
       <c r="B204" s="9"/>
       <c r="C204" s="9"/>
@@ -4600,7 +4609,7 @@
       </c>
       <c r="J204" s="9"/>
     </row>
-    <row r="205" spans="1:11" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="17"/>
       <c r="B205" s="17"/>
       <c r="C205" s="17"/>
@@ -4612,7 +4621,7 @@
       <c r="I205" s="17"/>
       <c r="J205" s="17"/>
     </row>
-    <row r="206" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="9" t="s">
         <v>118</v>
       </c>
@@ -4630,7 +4639,7 @@
       </c>
       <c r="J206" s="9"/>
     </row>
-    <row r="207" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="9"/>
       <c r="B207" s="9"/>
       <c r="C207" s="9"/>
@@ -4646,7 +4655,7 @@
       </c>
       <c r="J207" s="9"/>
     </row>
-    <row r="208" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="9"/>
       <c r="B208" s="9"/>
       <c r="C208" s="9"/>
@@ -4662,7 +4671,7 @@
       </c>
       <c r="J208" s="9"/>
     </row>
-    <row r="209" spans="1:10" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="17"/>
       <c r="B209" s="17"/>
       <c r="C209" s="17"/>
@@ -4674,7 +4683,7 @@
       <c r="I209" s="17"/>
       <c r="J209" s="17"/>
     </row>
-    <row r="210" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="9" t="s">
         <v>119</v>
       </c>
@@ -4692,7 +4701,7 @@
       </c>
       <c r="J210" s="9"/>
     </row>
-    <row r="211" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="9"/>
       <c r="B211" s="9"/>
       <c r="C211" s="9"/>
@@ -4708,7 +4717,7 @@
       </c>
       <c r="J211" s="9"/>
     </row>
-    <row r="212" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="9"/>
       <c r="B212" s="9"/>
       <c r="C212" s="9"/>
@@ -4724,7 +4733,7 @@
       </c>
       <c r="J212" s="9"/>
     </row>
-    <row r="213" spans="1:10" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="17"/>
       <c r="B213" s="17"/>
       <c r="C213" s="17"/>
@@ -4736,7 +4745,7 @@
       <c r="I213" s="17"/>
       <c r="J213" s="17"/>
     </row>
-    <row r="214" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="9" t="s">
         <v>120</v>
       </c>
@@ -4754,7 +4763,7 @@
       </c>
       <c r="J214" s="9"/>
     </row>
-    <row r="215" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="9"/>
       <c r="B215" s="9"/>
       <c r="C215" s="9"/>
@@ -4770,7 +4779,7 @@
       </c>
       <c r="J215" s="9"/>
     </row>
-    <row r="216" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="9"/>
       <c r="B216" s="9"/>
       <c r="C216" s="9"/>
@@ -4786,7 +4795,7 @@
       </c>
       <c r="J216" s="9"/>
     </row>
-    <row r="217" spans="1:10" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="17"/>
       <c r="B217" s="17"/>
       <c r="C217" s="17"/>
@@ -4798,7 +4807,7 @@
       <c r="I217" s="17"/>
       <c r="J217" s="17"/>
     </row>
-    <row r="218" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A218" s="9" t="s">
         <v>193</v>
       </c>
@@ -4809,7 +4818,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="219" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D219" s="9" t="s">
         <v>213</v>
       </c>
@@ -4817,7 +4826,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="220" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D220" s="9" t="s">
         <v>214</v>
       </c>
@@ -4825,8 +4834,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="221" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="222" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:10" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="222" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A222" s="9" t="s">
         <v>215</v>
       </c>
@@ -4837,7 +4846,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="223" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D223" s="9" t="s">
         <v>217</v>
       </c>
@@ -4845,7 +4854,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="224" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D224" s="9" t="s">
         <v>218</v>
       </c>
@@ -4853,8 +4862,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="225" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="226" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="226" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A226" s="9" t="s">
         <v>219</v>
       </c>
@@ -4865,7 +4874,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="227" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D227" s="9" t="s">
         <v>223</v>
       </c>
@@ -4873,7 +4882,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="228" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D228" s="9" t="s">
         <v>224</v>
       </c>
@@ -4881,8 +4890,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="229" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="230" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="230" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A230" s="9" t="s">
         <v>220</v>
       </c>
@@ -4893,7 +4902,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="231" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D231" s="9" t="s">
         <v>221</v>
       </c>
@@ -4901,7 +4910,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="232" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D232" s="9" t="s">
         <v>226</v>
       </c>
@@ -4909,8 +4918,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="233" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="234" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="234" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A234" s="9" t="s">
         <v>227</v>
       </c>
@@ -4921,7 +4930,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="235" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D235" s="9" t="s">
         <v>229</v>
       </c>
@@ -4929,7 +4938,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="236" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D236" s="9" t="s">
         <v>230</v>
       </c>
@@ -4937,8 +4946,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="237" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="238" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="238" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A238" s="9" t="s">
         <v>231</v>
       </c>
@@ -4949,7 +4958,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="239" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D239" s="9" t="s">
         <v>233</v>
       </c>
@@ -4957,7 +4966,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="240" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D240" s="9" t="s">
         <v>234</v>
       </c>
@@ -4965,8 +4974,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="241" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="242" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="242" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A242" s="9" t="s">
         <v>235</v>
       </c>
@@ -4977,7 +4986,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="243" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D243" s="9" t="s">
         <v>237</v>
       </c>
@@ -4985,7 +4994,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="244" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D244" s="9" t="s">
         <v>238</v>
       </c>
@@ -4993,8 +5002,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="245" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="246" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="246" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A246" s="9" t="s">
         <v>239</v>
       </c>
@@ -5005,7 +5014,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="247" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D247" s="9" t="s">
         <v>241</v>
       </c>
@@ -5013,7 +5022,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="248" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D248" s="9" t="s">
         <v>242</v>
       </c>
@@ -5021,8 +5030,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="249" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="250" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="250" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A250" s="9" t="s">
         <v>243</v>
       </c>
@@ -5033,7 +5042,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="251" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D251" s="9" t="s">
         <v>245</v>
       </c>
@@ -5041,7 +5050,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="252" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D252" s="9" t="s">
         <v>246</v>
       </c>
@@ -5049,8 +5058,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="253" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="254" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="254" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A254" s="9" t="s">
         <v>247</v>
       </c>
@@ -5061,7 +5070,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="255" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D255" s="9" t="s">
         <v>249</v>
       </c>
@@ -5069,7 +5078,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="256" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D256" s="9" t="s">
         <v>250</v>
       </c>
@@ -5077,14 +5086,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="257" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="258" spans="1:9" s="21" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="258" spans="1:9" s="21" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A258" s="23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="259" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="260" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="260" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A260" s="9" t="s">
         <v>251</v>
       </c>
@@ -5095,8 +5104,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="261" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="262" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:9" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="262" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A262" s="9" t="s">
         <v>253</v>
       </c>
@@ -5107,8 +5116,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="263" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="264" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="264" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A264" s="9" t="s">
         <v>255</v>
       </c>
@@ -5119,8 +5128,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="265" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="266" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="266" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A266" s="9" t="s">
         <v>257</v>
       </c>
@@ -5131,8 +5140,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="267" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="268" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="268" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A268" s="9" t="s">
         <v>259</v>
       </c>
@@ -5143,8 +5152,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="269" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="270" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="270" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A270" s="9" t="s">
         <v>261</v>
       </c>
@@ -5155,8 +5164,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="271" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="272" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="272" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A272" s="9" t="s">
         <v>263</v>
       </c>
@@ -5167,8 +5176,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="273" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="274" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="274" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A274" s="9" t="s">
         <v>265</v>
       </c>
@@ -5179,8 +5188,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="275" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="276" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="276" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A276" s="9" t="s">
         <v>267</v>
       </c>
@@ -5191,8 +5200,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="277" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="278" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:9" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="278" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A278" s="9" t="s">
         <v>269</v>
       </c>
@@ -5203,15 +5212,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="279" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="280" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="281" spans="1:9" s="23" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="280" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="281" spans="1:9" s="23" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A281" s="23" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="282" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="283" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="283" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A283" s="9" t="s">
         <v>272</v>
       </c>
@@ -5222,8 +5231,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="284" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="285" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="285" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A285" s="9" t="s">
         <v>274</v>
       </c>
@@ -5234,8 +5243,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="286" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="287" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="287" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A287" s="9" t="s">
         <v>276</v>
       </c>
@@ -5246,96 +5255,96 @@
         <v>39</v>
       </c>
     </row>
-    <row r="288" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="289" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="290" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="291" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="292" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="293" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="294" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="295" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="296" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="297" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="298" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="299" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="300" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="301" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="302" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="303" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="304" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="305" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="306" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="307" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="308" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="309" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="310" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="311" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="312" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="313" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="314" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="315" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="316" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="317" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="318" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="319" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="320" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="321" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="322" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="323" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="324" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="325" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="326" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="327" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="328" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="329" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="330" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="331" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="332" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="333" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="334" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="335" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="336" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="337" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="338" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="339" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="340" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="341" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="342" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="343" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="344" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="345" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="346" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="347" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="348" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="349" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="350" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="351" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="352" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="353" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="354" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="355" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="356" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="357" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="358" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="359" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="360" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="361" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="362" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="363" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="364" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="365" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="366" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="367" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="368" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="369" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="370" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="371" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="372" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="373" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="374" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="375" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="376" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="289" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="290" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="291" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="292" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="293" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="294" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="295" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="296" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="297" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="298" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="299" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="300" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="301" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="302" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="303" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="304" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="305" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="306" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="307" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="308" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="309" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="310" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="311" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="312" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="313" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="314" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="315" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="316" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="317" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="318" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="319" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="320" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="321" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="322" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="323" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="324" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="325" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="326" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="327" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="328" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="329" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="330" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="331" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="332" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="333" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="334" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="335" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="336" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="337" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="338" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="339" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="340" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="341" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="342" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="343" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="344" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="345" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="346" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="347" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="348" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="349" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="350" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="351" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="352" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="353" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="354" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="355" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="356" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="357" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="358" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="359" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="360" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="361" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="362" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="363" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="364" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="365" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="366" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="367" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="368" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="369" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="370" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="371" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="372" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="373" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="374" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="375" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="376" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="430" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A430" s="12"/>
       <c r="B430" s="12"/>
       <c r="C430" s="12"/>
@@ -5349,7 +5358,7 @@
       <c r="K430" s="12"/>
       <c r="L430" s="12"/>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A431" s="12"/>
       <c r="B431" s="12"/>
       <c r="C431" s="12"/>
@@ -5363,7 +5372,7 @@
       <c r="K431" s="12"/>
       <c r="L431" s="12"/>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A432" s="12"/>
       <c r="B432" s="12"/>
       <c r="C432" s="12"/>
@@ -5377,7 +5386,7 @@
       <c r="K432" s="12"/>
       <c r="L432" s="12"/>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A433" s="12"/>
       <c r="B433" s="12"/>
       <c r="C433" s="12"/>
@@ -5391,7 +5400,7 @@
       <c r="K433" s="12"/>
       <c r="L433" s="12"/>
     </row>
-    <row r="434" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A434" s="14"/>
       <c r="B434" s="14"/>
       <c r="C434" s="14"/>
@@ -5405,7 +5414,7 @@
       <c r="K434" s="12"/>
       <c r="L434" s="12"/>
     </row>
-    <row r="435" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A435" s="14"/>
       <c r="B435" s="14"/>
       <c r="C435" s="14"/>
@@ -5419,7 +5428,7 @@
       <c r="K435" s="12"/>
       <c r="L435" s="12"/>
     </row>
-    <row r="436" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A436" s="14"/>
       <c r="B436" s="14"/>
       <c r="C436" s="14"/>
@@ -5433,7 +5442,7 @@
       <c r="K436" s="12"/>
       <c r="L436" s="12"/>
     </row>
-    <row r="437" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A437" s="14"/>
       <c r="B437" s="14"/>
       <c r="C437" s="14"/>
@@ -5447,7 +5456,7 @@
       <c r="K437" s="12"/>
       <c r="L437" s="12"/>
     </row>
-    <row r="438" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A438" s="14"/>
       <c r="B438" s="14"/>
       <c r="C438" s="14"/>
@@ -5461,7 +5470,7 @@
       <c r="K438" s="12"/>
       <c r="L438" s="12"/>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A439" s="12"/>
       <c r="B439" s="12"/>
       <c r="C439" s="12"/>
@@ -5475,7 +5484,7 @@
       <c r="K439" s="12"/>
       <c r="L439" s="12"/>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A440" s="12"/>
       <c r="B440" s="12"/>
       <c r="C440" s="12"/>
@@ -5489,7 +5498,7 @@
       <c r="K440" s="12"/>
       <c r="L440" s="12"/>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A441" s="12"/>
       <c r="B441" s="12"/>
       <c r="C441" s="12"/>
@@ -5503,7 +5512,7 @@
       <c r="K441" s="12"/>
       <c r="L441" s="12"/>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A442" s="12"/>
       <c r="B442" s="12"/>
       <c r="C442" s="12"/>
@@ -5517,7 +5526,7 @@
       <c r="K442" s="12"/>
       <c r="L442" s="12"/>
     </row>
-    <row r="443" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A443" s="14"/>
       <c r="B443" s="14"/>
       <c r="C443" s="14"/>
@@ -5531,7 +5540,7 @@
       <c r="K443" s="12"/>
       <c r="L443" s="12"/>
     </row>
-    <row r="444" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A444" s="14"/>
       <c r="B444" s="14"/>
       <c r="C444" s="14"/>
@@ -5545,7 +5554,7 @@
       <c r="K444" s="12"/>
       <c r="L444" s="12"/>
     </row>
-    <row r="445" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A445" s="14"/>
       <c r="B445" s="14"/>
       <c r="C445" s="14"/>
@@ -5559,7 +5568,7 @@
       <c r="K445" s="12"/>
       <c r="L445" s="12"/>
     </row>
-    <row r="446" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A446" s="14"/>
       <c r="B446" s="14"/>
       <c r="C446" s="14"/>
@@ -5573,7 +5582,7 @@
       <c r="K446" s="12"/>
       <c r="L446" s="12"/>
     </row>
-    <row r="447" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A447" s="14"/>
       <c r="B447" s="14"/>
       <c r="C447" s="14"/>
@@ -5587,7 +5596,7 @@
       <c r="K447" s="12"/>
       <c r="L447" s="12"/>
     </row>
-    <row r="448" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A448" s="14"/>
       <c r="B448" s="14"/>
       <c r="C448" s="14"/>
@@ -5601,7 +5610,7 @@
       <c r="K448" s="12"/>
       <c r="L448" s="12"/>
     </row>
-    <row r="449" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A449" s="14"/>
       <c r="B449" s="14"/>
       <c r="C449" s="14"/>
@@ -5615,7 +5624,7 @@
       <c r="K449" s="12"/>
       <c r="L449" s="12"/>
     </row>
-    <row r="450" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A450" s="14"/>
       <c r="B450" s="14"/>
       <c r="C450" s="14"/>
@@ -5629,7 +5638,7 @@
       <c r="K450" s="12"/>
       <c r="L450" s="12"/>
     </row>
-    <row r="451" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A451" s="14"/>
       <c r="B451" s="14"/>
       <c r="C451" s="14"/>
@@ -5643,7 +5652,7 @@
       <c r="K451" s="12"/>
       <c r="L451" s="12"/>
     </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A452" s="12"/>
       <c r="B452" s="12"/>
       <c r="C452" s="12"/>
@@ -5657,7 +5666,7 @@
       <c r="K452" s="12"/>
       <c r="L452" s="12"/>
     </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A453" s="12"/>
       <c r="B453" s="12"/>
       <c r="C453" s="12"/>
@@ -5671,7 +5680,7 @@
       <c r="K453" s="12"/>
       <c r="L453" s="12"/>
     </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A454" s="12"/>
       <c r="B454" s="12"/>
       <c r="C454" s="12"/>
@@ -5685,7 +5694,7 @@
       <c r="K454" s="12"/>
       <c r="L454" s="12"/>
     </row>
-    <row r="455" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A455" s="14"/>
       <c r="B455" s="14"/>
       <c r="C455" s="14"/>
@@ -5699,7 +5708,7 @@
       <c r="K455" s="12"/>
       <c r="L455" s="12"/>
     </row>
-    <row r="456" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A456" s="14"/>
       <c r="B456" s="14"/>
       <c r="C456" s="14"/>
@@ -5713,7 +5722,7 @@
       <c r="K456" s="12"/>
       <c r="L456" s="12"/>
     </row>
-    <row r="457" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A457" s="14"/>
       <c r="B457" s="14"/>
       <c r="C457" s="14"/>
@@ -5727,7 +5736,7 @@
       <c r="K457" s="12"/>
       <c r="L457" s="12"/>
     </row>
-    <row r="458" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A458" s="14"/>
       <c r="B458" s="14"/>
       <c r="C458" s="14"/>
@@ -5741,7 +5750,7 @@
       <c r="K458" s="12"/>
       <c r="L458" s="12"/>
     </row>
-    <row r="459" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A459" s="14"/>
       <c r="B459" s="14"/>
       <c r="C459" s="14"/>
@@ -5755,7 +5764,7 @@
       <c r="K459" s="12"/>
       <c r="L459" s="12"/>
     </row>
-    <row r="460" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A460" s="14"/>
       <c r="B460" s="14"/>
       <c r="C460" s="14"/>
@@ -5769,7 +5778,7 @@
       <c r="K460" s="12"/>
       <c r="L460" s="12"/>
     </row>
-    <row r="461" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A461" s="14"/>
       <c r="B461" s="14"/>
       <c r="C461" s="14"/>
@@ -5783,7 +5792,7 @@
       <c r="K461" s="12"/>
       <c r="L461" s="12"/>
     </row>
-    <row r="462" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A462" s="12"/>
       <c r="B462" s="12"/>
       <c r="C462" s="12"/>
@@ -5797,7 +5806,7 @@
       <c r="K462" s="12"/>
       <c r="L462" s="12"/>
     </row>
-    <row r="463" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A463" s="12"/>
       <c r="B463" s="12"/>
       <c r="C463" s="12"/>
@@ -5811,7 +5820,7 @@
       <c r="K463" s="12"/>
       <c r="L463" s="12"/>
     </row>
-    <row r="464" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A464" s="12"/>
       <c r="B464" s="12"/>
       <c r="C464" s="12"/>
@@ -5825,7 +5834,7 @@
       <c r="K464" s="12"/>
       <c r="L464" s="12"/>
     </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A465" s="12"/>
       <c r="B465" s="12"/>
       <c r="C465" s="12"/>
@@ -5839,7 +5848,7 @@
       <c r="K465" s="12"/>
       <c r="L465" s="12"/>
     </row>
-    <row r="466" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A466" s="14"/>
       <c r="B466" s="14"/>
       <c r="C466" s="14"/>
@@ -5853,7 +5862,7 @@
       <c r="K466" s="12"/>
       <c r="L466" s="12"/>
     </row>
-    <row r="467" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A467" s="14"/>
       <c r="B467" s="14"/>
       <c r="C467" s="14"/>
@@ -5867,7 +5876,7 @@
       <c r="K467" s="12"/>
       <c r="L467" s="12"/>
     </row>
-    <row r="492" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A492" s="9"/>
       <c r="B492" s="9"/>
       <c r="C492" s="9"/>
@@ -5879,27 +5888,27 @@
       <c r="I492" s="9"/>
       <c r="J492" s="9"/>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>125</v>
       </c>

--- a/Documents/AssetList-Planning.xlsx
+++ b/Documents/AssetList-Planning.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sepi\Desktop\Sexy-Egels\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enra\Pictures\Sexy-Egels\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9105" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="425">
   <si>
     <t>Planning</t>
   </si>
@@ -858,9 +858,6 @@
     <t>Waterfall</t>
   </si>
   <si>
-    <t>8P-eNV-Waterfall</t>
-  </si>
-  <si>
     <t>Rilana</t>
   </si>
   <si>
@@ -1054,12 +1051,261 @@
   </si>
   <si>
     <t>Particles</t>
+  </si>
+  <si>
+    <t>Jump Dust</t>
+  </si>
+  <si>
+    <t>Run Dust</t>
+  </si>
+  <si>
+    <t>8P-ENV-Waterfall</t>
+  </si>
+  <si>
+    <t>Water Splash</t>
+  </si>
+  <si>
+    <t>Fire (Candle)</t>
+  </si>
+  <si>
+    <t>Brazier</t>
+  </si>
+  <si>
+    <t>Bunny Damage</t>
+  </si>
+  <si>
+    <t>Bunny Death</t>
+  </si>
+  <si>
+    <t>Player Death</t>
+  </si>
+  <si>
+    <t>Greek Fire</t>
+  </si>
+  <si>
+    <t>Colored Clouds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glimmer </t>
+  </si>
+  <si>
+    <t>Finishing Crafting</t>
+  </si>
+  <si>
+    <t>PickUp Dust?</t>
+  </si>
+  <si>
+    <t>Fire (Torch)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hit Environment </t>
+  </si>
+  <si>
+    <t>Player ShieldBlock</t>
+  </si>
+  <si>
+    <t>When something goes in a bush</t>
+  </si>
+  <si>
+    <t>Coins Glimmer</t>
+  </si>
+  <si>
+    <t>Chest Glow?</t>
+  </si>
+  <si>
+    <t>Sounds</t>
+  </si>
+  <si>
+    <t>Fire Crackle</t>
+  </si>
+  <si>
+    <t>Grass Moving</t>
+  </si>
+  <si>
+    <t>Crafting Complete</t>
+  </si>
+  <si>
+    <t>PickUp Sound</t>
+  </si>
+  <si>
+    <t>Weapon Hit</t>
+  </si>
+  <si>
+    <t>Breaking Pot</t>
+  </si>
+  <si>
+    <t>NPC Talking</t>
+  </si>
+  <si>
+    <t>Shield Block</t>
+  </si>
+  <si>
+    <t>Minotaures</t>
+  </si>
+  <si>
+    <t>Footsteps</t>
+  </si>
+  <si>
+    <t>Jump</t>
+  </si>
+  <si>
+    <t>Bubbly Sound</t>
+  </si>
+  <si>
+    <t>Quest Complete</t>
+  </si>
+  <si>
+    <t>Bunny Noise</t>
+  </si>
+  <si>
+    <t>Opening Gate</t>
+  </si>
+  <si>
+    <t>Chest Opening</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>8P-CHAR-Jump</t>
+  </si>
+  <si>
+    <t>8P-CHAR-Run</t>
+  </si>
+  <si>
+    <t>8P-CHAR-EnemyHit</t>
+  </si>
+  <si>
+    <t>8P-CHAR-PlayerHit</t>
+  </si>
+  <si>
+    <t>8P-ENV-WaterSplash</t>
+  </si>
+  <si>
+    <t>8P-ENV-Fire</t>
+  </si>
+  <si>
+    <t>8P-INT-BunnyDamage</t>
+  </si>
+  <si>
+    <t>8P-INT-BunnyDeath</t>
+  </si>
+  <si>
+    <t>8P-CHAR-PlayerDeath</t>
+  </si>
+  <si>
+    <t>8P-ENV-GreekFire</t>
+  </si>
+  <si>
+    <t>8P-INT-ColorClouds</t>
+  </si>
+  <si>
+    <t>8P-INT-Glimmer</t>
+  </si>
+  <si>
+    <t>8P-INT-CoinGlimmer</t>
+  </si>
+  <si>
+    <t>8P-ENV-TorchFire</t>
+  </si>
+  <si>
+    <t>8P-ENV-HitEnvironment</t>
+  </si>
+  <si>
+    <t>8P-CHAR-ShieldBlock</t>
+  </si>
+  <si>
+    <t>8P-INT-ChestGlow</t>
+  </si>
+  <si>
+    <t>8P-ENV-FallingLeaves</t>
+  </si>
+  <si>
+    <t>8P-INT-PickUpDust</t>
+  </si>
+  <si>
+    <t>7S-ENV-FireCrackle</t>
+  </si>
+  <si>
+    <t>7S-ENV-GrassMoving</t>
+  </si>
+  <si>
+    <t>7S-INT-CraftingComplete</t>
+  </si>
+  <si>
+    <t>7S-INT-PickUp</t>
+  </si>
+  <si>
+    <t>7S-INT-WeaponHit</t>
+  </si>
+  <si>
+    <t>7S-INT-BreakPot</t>
+  </si>
+  <si>
+    <t>7S-INT-NPCTalking</t>
+  </si>
+  <si>
+    <t>7S-INT-ShieldBlock</t>
+  </si>
+  <si>
+    <t>7S-CHAR-Minotaures</t>
+  </si>
+  <si>
+    <t>7S-CHAR-Footsteps</t>
+  </si>
+  <si>
+    <t>7S-CHAR-Jump</t>
+  </si>
+  <si>
+    <t>7S-INT-Bubbles</t>
+  </si>
+  <si>
+    <t>7S-INT-QuestComplete</t>
+  </si>
+  <si>
+    <t>7S-INT-Bunny</t>
+  </si>
+  <si>
+    <t>7S-INT-OpeningGate</t>
+  </si>
+  <si>
+    <t>7S-ENV-WaterSplash</t>
+  </si>
+  <si>
+    <t>7S-INT-OpenChest</t>
+  </si>
+  <si>
+    <t>Blood Enemy</t>
+  </si>
+  <si>
+    <t>Blood Player (HUD)</t>
+  </si>
+  <si>
+    <t>Falling Leaves</t>
+  </si>
+  <si>
+    <t>Environment Rustle</t>
+  </si>
+  <si>
+    <t>7S-INT-Rustle</t>
+  </si>
+  <si>
+    <t>Ambient/Music</t>
+  </si>
+  <si>
+    <t>7S-ENV-Ambient</t>
+  </si>
+  <si>
+    <t>Combat Music</t>
+  </si>
+  <si>
+    <t>7S-ENV-CombatMusic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1281,11 +1527,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="3" builtinId="10"/>
-    <cellStyle name="Percent" xfId="4" builtinId="5"/>
+    <cellStyle name="Neutraal" xfId="2" builtinId="28"/>
+    <cellStyle name="Notitie" xfId="3" builtinId="10"/>
+    <cellStyle name="Ongeldig" xfId="1" builtinId="27"/>
+    <cellStyle name="Procent" xfId="4" builtinId="5"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1599,32 +1845,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J73" sqref="J73"/>
+    <sheetView topLeftCell="L46" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="28"/>
-    <col min="3" max="3" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="28"/>
+    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="28"/>
-    <col min="10" max="10" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" style="28"/>
-    <col min="17" max="17" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.88671875" style="28"/>
-    <col min="24" max="24" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.88671875" style="28"/>
-    <col min="37" max="37" width="8.88671875" style="28"/>
-    <col min="44" max="44" width="8.88671875" style="28"/>
-    <col min="51" max="51" width="8.88671875" style="28"/>
-    <col min="58" max="58" width="8.88671875" style="28"/>
-    <col min="59" max="59" width="8.88671875" style="29"/>
+    <col min="9" max="9" width="8.85546875" style="28"/>
+    <col min="10" max="10" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="28"/>
+    <col min="17" max="17" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.85546875" style="28"/>
+    <col min="24" max="24" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.85546875" style="28"/>
+    <col min="37" max="37" width="8.85546875" style="28"/>
+    <col min="44" max="44" width="8.85546875" style="28"/>
+    <col min="51" max="51" width="8.85546875" style="28"/>
+    <col min="58" max="58" width="8.85546875" style="28"/>
+    <col min="59" max="59" width="8.85546875" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" ht="35.4" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:61" ht="35.25" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1647,7 +1893,7 @@
       <c r="BE1" s="12"/>
       <c r="BF1" s="12"/>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B2" s="12"/>
       <c r="I2" s="12"/>
       <c r="P2" s="12"/>
@@ -1667,9 +1913,9 @@
       <c r="BE2" s="12"/>
       <c r="BF2" s="12"/>
     </row>
-    <row r="3" spans="1:61" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:61" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B3" s="12"/>
       <c r="I3" s="12"/>
@@ -1690,7 +1936,7 @@
       <c r="BE3" s="12"/>
       <c r="BF3" s="12"/>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B4" s="12"/>
       <c r="I4" s="12"/>
       <c r="P4" s="12"/>
@@ -1710,9 +1956,9 @@
       <c r="BE4" s="12"/>
       <c r="BF4" s="12"/>
     </row>
-    <row r="5" spans="1:61" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="30">
@@ -1780,27 +2026,27 @@
         <v>42916</v>
       </c>
       <c r="BI5" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:61" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:61" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="BG6" s="32"/>
     </row>
-    <row r="7" spans="1:61" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B7" s="27"/>
       <c r="C7" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I7" s="27"/>
       <c r="J7" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P7" s="27"/>
       <c r="Q7" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="W7" s="27"/>
       <c r="X7" s="9" t="s">
@@ -1814,14 +2060,14 @@
       <c r="BG7" s="32"/>
       <c r="BH7" s="30"/>
     </row>
-    <row r="8" spans="1:61" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="27"/>
       <c r="C8" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I8" s="27"/>
       <c r="J8" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P8" s="27"/>
       <c r="W8" s="27"/>
@@ -1832,14 +2078,14 @@
       <c r="BF8" s="27"/>
       <c r="BG8" s="32"/>
     </row>
-    <row r="9" spans="1:61" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="27"/>
       <c r="C9" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I9" s="27"/>
       <c r="J9" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P9" s="27"/>
       <c r="W9" s="27"/>
@@ -1850,10 +2096,10 @@
       <c r="BF9" s="27"/>
       <c r="BG9" s="32"/>
     </row>
-    <row r="10" spans="1:61" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="27"/>
       <c r="C10" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I10" s="27"/>
       <c r="P10" s="27"/>
@@ -1865,7 +2111,7 @@
       <c r="BF10" s="27"/>
       <c r="BG10" s="32"/>
     </row>
-    <row r="11" spans="1:61" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="27"/>
       <c r="I11" s="27"/>
       <c r="P11" s="27"/>
@@ -1877,7 +2123,7 @@
       <c r="BF11" s="27"/>
       <c r="BG11" s="32"/>
     </row>
-    <row r="12" spans="1:61" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="27"/>
       <c r="I12" s="27"/>
       <c r="P12" s="27"/>
@@ -1889,7 +2135,7 @@
       <c r="BF12" s="27"/>
       <c r="BG12" s="32"/>
     </row>
-    <row r="13" spans="1:61" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="27"/>
       <c r="I13" s="27"/>
       <c r="P13" s="27"/>
@@ -1901,7 +2147,7 @@
       <c r="BF13" s="27"/>
       <c r="BG13" s="32"/>
     </row>
-    <row r="14" spans="1:61" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="27"/>
       <c r="I14" s="27"/>
       <c r="P14" s="27"/>
@@ -1913,7 +2159,7 @@
       <c r="BF14" s="27"/>
       <c r="BG14" s="32"/>
     </row>
-    <row r="15" spans="1:61" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="27"/>
       <c r="I15" s="27"/>
       <c r="P15" s="27"/>
@@ -1925,7 +2171,7 @@
       <c r="BF15" s="27"/>
       <c r="BG15" s="32"/>
     </row>
-    <row r="16" spans="1:61" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="27"/>
       <c r="I16" s="27"/>
       <c r="P16" s="27"/>
@@ -1937,27 +2183,27 @@
       <c r="BF16" s="27"/>
       <c r="BG16" s="32"/>
     </row>
-    <row r="17" spans="1:59" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="BG17" s="32"/>
     </row>
-    <row r="18" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B18" s="27"/>
       <c r="C18" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I18" s="27"/>
       <c r="J18" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M18" s="33" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="P18" s="27"/>
       <c r="Q18" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="W18" s="27"/>
       <c r="AD18" s="27"/>
@@ -1967,11 +2213,11 @@
       <c r="BF18" s="27"/>
       <c r="BG18" s="32"/>
     </row>
-    <row r="19" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="27"/>
       <c r="I19" s="27"/>
       <c r="J19" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="P19" s="27"/>
       <c r="W19" s="27"/>
@@ -1982,14 +2228,14 @@
       <c r="BF19" s="27"/>
       <c r="BG19" s="32"/>
     </row>
-    <row r="20" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="27"/>
       <c r="F20" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I20" s="27"/>
       <c r="J20" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="P20" s="27"/>
       <c r="W20" s="27"/>
@@ -2000,7 +2246,7 @@
       <c r="BF20" s="27"/>
       <c r="BG20" s="32"/>
     </row>
-    <row r="21" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="27"/>
       <c r="I21" s="27"/>
       <c r="J21" s="9" t="s">
@@ -2015,7 +2261,7 @@
       <c r="BF21" s="27"/>
       <c r="BG21" s="32"/>
     </row>
-    <row r="22" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="27"/>
       <c r="I22" s="27"/>
       <c r="P22" s="27"/>
@@ -2027,7 +2273,7 @@
       <c r="BF22" s="27"/>
       <c r="BG22" s="32"/>
     </row>
-    <row r="23" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="27"/>
       <c r="I23" s="27"/>
       <c r="P23" s="27"/>
@@ -2039,7 +2285,7 @@
       <c r="BF23" s="27"/>
       <c r="BG23" s="32"/>
     </row>
-    <row r="24" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="27"/>
       <c r="I24" s="27"/>
       <c r="P24" s="27"/>
@@ -2051,7 +2297,7 @@
       <c r="BF24" s="27"/>
       <c r="BG24" s="32"/>
     </row>
-    <row r="25" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="27"/>
       <c r="I25" s="27"/>
       <c r="P25" s="27"/>
@@ -2063,7 +2309,7 @@
       <c r="BF25" s="27"/>
       <c r="BG25" s="32"/>
     </row>
-    <row r="26" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="27"/>
       <c r="I26" s="27"/>
       <c r="P26" s="27"/>
@@ -2075,7 +2321,7 @@
       <c r="BF26" s="27"/>
       <c r="BG26" s="32"/>
     </row>
-    <row r="27" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="27"/>
       <c r="I27" s="27"/>
       <c r="P27" s="27"/>
@@ -2087,23 +2333,23 @@
       <c r="BF27" s="27"/>
       <c r="BG27" s="32"/>
     </row>
-    <row r="28" spans="1:59" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="BG28" s="32"/>
     </row>
-    <row r="29" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B29" s="27"/>
       <c r="C29" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I29" s="27"/>
       <c r="J29" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P29" s="27"/>
       <c r="Q29" s="9" t="s">
@@ -2117,17 +2363,17 @@
       <c r="BF29" s="27"/>
       <c r="BG29" s="32"/>
     </row>
-    <row r="30" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="27"/>
       <c r="C30" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I30" s="27"/>
       <c r="J30" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="P30" s="27"/>
       <c r="Q30" s="9" t="s">
@@ -2141,14 +2387,14 @@
       <c r="BF30" s="27"/>
       <c r="BG30" s="32"/>
     </row>
-    <row r="31" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="27"/>
       <c r="I31" s="27"/>
       <c r="J31" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P31" s="27"/>
       <c r="Q31" s="9" t="s">
@@ -2162,11 +2408,11 @@
       <c r="BF31" s="27"/>
       <c r="BG31" s="32"/>
     </row>
-    <row r="32" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="27"/>
       <c r="I32" s="27"/>
       <c r="J32" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P32" s="27"/>
       <c r="W32" s="27"/>
@@ -2177,7 +2423,7 @@
       <c r="BF32" s="27"/>
       <c r="BG32" s="32"/>
     </row>
-    <row r="33" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="27"/>
       <c r="I33" s="27"/>
       <c r="P33" s="27"/>
@@ -2189,7 +2435,7 @@
       <c r="BF33" s="27"/>
       <c r="BG33" s="32"/>
     </row>
-    <row r="34" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="27"/>
       <c r="I34" s="27"/>
       <c r="P34" s="27"/>
@@ -2201,7 +2447,7 @@
       <c r="BF34" s="27"/>
       <c r="BG34" s="32"/>
     </row>
-    <row r="35" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="27"/>
       <c r="I35" s="27"/>
       <c r="P35" s="27"/>
@@ -2213,7 +2459,7 @@
       <c r="BF35" s="27"/>
       <c r="BG35" s="32"/>
     </row>
-    <row r="36" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="27"/>
       <c r="I36" s="27"/>
       <c r="P36" s="27"/>
@@ -2225,7 +2471,7 @@
       <c r="BF36" s="27"/>
       <c r="BG36" s="32"/>
     </row>
-    <row r="37" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="27"/>
       <c r="I37" s="27"/>
       <c r="P37" s="27"/>
@@ -2237,7 +2483,7 @@
       <c r="BF37" s="27"/>
       <c r="BG37" s="32"/>
     </row>
-    <row r="38" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="27"/>
       <c r="I38" s="27"/>
       <c r="P38" s="27"/>
@@ -2249,20 +2495,20 @@
       <c r="BF38" s="27"/>
       <c r="BG38" s="32"/>
     </row>
-    <row r="39" spans="1:59" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="BG39" s="32"/>
     </row>
-    <row r="40" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B40" s="27"/>
       <c r="C40" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I40" s="27"/>
       <c r="J40" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M40" s="9" t="s">
         <v>35</v>
@@ -2279,21 +2525,21 @@
       <c r="BF40" s="27"/>
       <c r="BG40" s="32"/>
     </row>
-    <row r="41" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="27"/>
       <c r="I41" s="27"/>
       <c r="J41" s="9" t="s">
         <v>100</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N41" s="33" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P41" s="27"/>
       <c r="Q41" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="W41" s="27"/>
       <c r="AD41" s="27"/>
@@ -2303,11 +2549,11 @@
       <c r="BF41" s="27"/>
       <c r="BG41" s="32"/>
     </row>
-    <row r="42" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="27"/>
       <c r="I42" s="27"/>
       <c r="J42" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P42" s="27"/>
       <c r="Q42" s="9" t="s">
@@ -2321,13 +2567,16 @@
       <c r="BF42" s="27"/>
       <c r="BG42" s="32"/>
     </row>
-    <row r="43" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="27"/>
       <c r="I43" s="27"/>
       <c r="J43" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P43" s="27"/>
+      <c r="Q43" s="9" t="s">
+        <v>347</v>
+      </c>
       <c r="W43" s="27"/>
       <c r="AD43" s="27"/>
       <c r="AK43" s="27"/>
@@ -2336,11 +2585,11 @@
       <c r="BF43" s="27"/>
       <c r="BG43" s="32"/>
     </row>
-    <row r="44" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="27"/>
       <c r="I44" s="27"/>
       <c r="J44" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P44" s="27"/>
       <c r="W44" s="27"/>
@@ -2351,7 +2600,7 @@
       <c r="BF44" s="27"/>
       <c r="BG44" s="32"/>
     </row>
-    <row r="45" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="27"/>
       <c r="I45" s="27"/>
       <c r="P45" s="27"/>
@@ -2363,7 +2612,7 @@
       <c r="BF45" s="27"/>
       <c r="BG45" s="32"/>
     </row>
-    <row r="46" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="27"/>
       <c r="I46" s="27"/>
       <c r="P46" s="27"/>
@@ -2375,7 +2624,7 @@
       <c r="BF46" s="27"/>
       <c r="BG46" s="32"/>
     </row>
-    <row r="47" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="27"/>
       <c r="I47" s="27"/>
       <c r="P47" s="27"/>
@@ -2387,7 +2636,7 @@
       <c r="BF47" s="27"/>
       <c r="BG47" s="32"/>
     </row>
-    <row r="48" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="27"/>
       <c r="I48" s="27"/>
       <c r="P48" s="27"/>
@@ -2399,7 +2648,7 @@
       <c r="BF48" s="27"/>
       <c r="BG48" s="32"/>
     </row>
-    <row r="49" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="27"/>
       <c r="I49" s="27"/>
       <c r="P49" s="27"/>
@@ -2411,20 +2660,20 @@
       <c r="BF49" s="27"/>
       <c r="BG49" s="32"/>
     </row>
-    <row r="50" spans="1:59" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="BG50" s="32"/>
     </row>
-    <row r="51" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B51" s="27"/>
       <c r="C51" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I51" s="27"/>
       <c r="J51" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P51" s="27"/>
       <c r="W51" s="27"/>
@@ -2435,14 +2684,14 @@
       <c r="BF51" s="27"/>
       <c r="BG51" s="32"/>
     </row>
-    <row r="52" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="27"/>
       <c r="C52" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I52" s="27"/>
       <c r="J52" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P52" s="27"/>
       <c r="W52" s="27"/>
@@ -2453,7 +2702,7 @@
       <c r="BF52" s="27"/>
       <c r="BG52" s="32"/>
     </row>
-    <row r="53" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="27"/>
       <c r="I53" s="27"/>
       <c r="P53" s="27"/>
@@ -2465,7 +2714,7 @@
       <c r="BF53" s="27"/>
       <c r="BG53" s="32"/>
     </row>
-    <row r="54" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="27"/>
       <c r="I54" s="27"/>
       <c r="P54" s="27"/>
@@ -2477,7 +2726,7 @@
       <c r="BF54" s="27"/>
       <c r="BG54" s="32"/>
     </row>
-    <row r="55" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="27"/>
       <c r="I55" s="27"/>
       <c r="P55" s="27"/>
@@ -2489,7 +2738,7 @@
       <c r="BF55" s="27"/>
       <c r="BG55" s="32"/>
     </row>
-    <row r="56" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="27"/>
       <c r="I56" s="27"/>
       <c r="P56" s="27"/>
@@ -2501,7 +2750,7 @@
       <c r="BF56" s="27"/>
       <c r="BG56" s="32"/>
     </row>
-    <row r="57" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="27"/>
       <c r="I57" s="27"/>
       <c r="P57" s="27"/>
@@ -2513,7 +2762,7 @@
       <c r="BF57" s="27"/>
       <c r="BG57" s="32"/>
     </row>
-    <row r="58" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="27"/>
       <c r="I58" s="27"/>
       <c r="P58" s="27"/>
@@ -2525,7 +2774,7 @@
       <c r="BF58" s="27"/>
       <c r="BG58" s="32"/>
     </row>
-    <row r="59" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="27"/>
       <c r="I59" s="27"/>
       <c r="P59" s="27"/>
@@ -2537,7 +2786,7 @@
       <c r="BF59" s="27"/>
       <c r="BG59" s="32"/>
     </row>
-    <row r="60" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="27"/>
       <c r="I60" s="27"/>
       <c r="P60" s="27"/>
@@ -2549,20 +2798,20 @@
       <c r="BF60" s="27"/>
       <c r="BG60" s="32"/>
     </row>
-    <row r="61" spans="1:59" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="BG61" s="32"/>
     </row>
-    <row r="62" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B62" s="27"/>
       <c r="C62" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I62" s="27"/>
       <c r="J62" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P62" s="27"/>
       <c r="W62" s="27"/>
@@ -2573,7 +2822,7 @@
       <c r="BF62" s="27"/>
       <c r="BG62" s="32"/>
     </row>
-    <row r="63" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="27"/>
       <c r="I63" s="27"/>
       <c r="P63" s="27"/>
@@ -2585,7 +2834,7 @@
       <c r="BF63" s="27"/>
       <c r="BG63" s="32"/>
     </row>
-    <row r="64" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="27"/>
       <c r="I64" s="27"/>
       <c r="P64" s="27"/>
@@ -2597,7 +2846,7 @@
       <c r="BF64" s="27"/>
       <c r="BG64" s="32"/>
     </row>
-    <row r="65" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="27"/>
       <c r="I65" s="27"/>
       <c r="P65" s="27"/>
@@ -2609,7 +2858,7 @@
       <c r="BF65" s="27"/>
       <c r="BG65" s="32"/>
     </row>
-    <row r="66" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="27"/>
       <c r="I66" s="27"/>
       <c r="P66" s="27"/>
@@ -2621,7 +2870,7 @@
       <c r="BF66" s="27"/>
       <c r="BG66" s="32"/>
     </row>
-    <row r="67" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="27"/>
       <c r="I67" s="27"/>
       <c r="P67" s="27"/>
@@ -2633,7 +2882,7 @@
       <c r="BF67" s="27"/>
       <c r="BG67" s="32"/>
     </row>
-    <row r="68" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="27"/>
       <c r="I68" s="27"/>
       <c r="P68" s="27"/>
@@ -2645,7 +2894,7 @@
       <c r="BF68" s="27"/>
       <c r="BG68" s="32"/>
     </row>
-    <row r="69" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="27"/>
       <c r="I69" s="27"/>
       <c r="P69" s="27"/>
@@ -2657,7 +2906,7 @@
       <c r="BF69" s="27"/>
       <c r="BG69" s="32"/>
     </row>
-    <row r="70" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="27"/>
       <c r="I70" s="27"/>
       <c r="P70" s="27"/>
@@ -2669,7 +2918,7 @@
       <c r="BF70" s="27"/>
       <c r="BG70" s="32"/>
     </row>
-    <row r="71" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="27"/>
       <c r="I71" s="27"/>
       <c r="P71" s="27"/>
@@ -2681,20 +2930,20 @@
       <c r="BF71" s="27"/>
       <c r="BG71" s="32"/>
     </row>
-    <row r="72" spans="1:59" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="BG72" s="32"/>
     </row>
-    <row r="73" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B73" s="27"/>
       <c r="C73" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I73" s="27"/>
       <c r="J73" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P73" s="27"/>
       <c r="W73" s="27"/>
@@ -2705,7 +2954,7 @@
       <c r="BF73" s="27"/>
       <c r="BG73" s="32"/>
     </row>
-    <row r="74" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="27"/>
       <c r="I74" s="27"/>
       <c r="P74" s="27"/>
@@ -2717,18 +2966,18 @@
       <c r="BF74" s="27"/>
       <c r="BG74" s="32"/>
     </row>
-    <row r="83" spans="1:59" s="28" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:59" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B84" s="27"/>
       <c r="C84" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I84" s="27"/>
       <c r="J84" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P84" s="27"/>
       <c r="W84" s="27"/>
@@ -2739,7 +2988,7 @@
       <c r="BF84" s="27"/>
       <c r="BG84" s="32"/>
     </row>
-    <row r="85" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="27"/>
       <c r="I85" s="27"/>
       <c r="P85" s="27"/>
@@ -2751,7 +3000,7 @@
       <c r="BF85" s="27"/>
       <c r="BG85" s="32"/>
     </row>
-    <row r="86" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86" s="27"/>
       <c r="I86" s="27"/>
       <c r="P86" s="27"/>
@@ -2763,7 +3012,7 @@
       <c r="BF86" s="27"/>
       <c r="BG86" s="32"/>
     </row>
-    <row r="87" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="27"/>
       <c r="I87" s="27"/>
       <c r="P87" s="27"/>
@@ -2775,7 +3024,7 @@
       <c r="BF87" s="27"/>
       <c r="BG87" s="32"/>
     </row>
-    <row r="88" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="27"/>
       <c r="I88" s="27"/>
       <c r="P88" s="27"/>
@@ -2787,7 +3036,7 @@
       <c r="BF88" s="27"/>
       <c r="BG88" s="32"/>
     </row>
-    <row r="89" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B89" s="27"/>
       <c r="I89" s="27"/>
       <c r="P89" s="27"/>
@@ -2799,7 +3048,7 @@
       <c r="BF89" s="27"/>
       <c r="BG89" s="32"/>
     </row>
-    <row r="90" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="27"/>
       <c r="I90" s="27"/>
       <c r="P90" s="27"/>
@@ -2811,7 +3060,7 @@
       <c r="BF90" s="27"/>
       <c r="BG90" s="32"/>
     </row>
-    <row r="91" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B91" s="27"/>
       <c r="I91" s="27"/>
       <c r="P91" s="27"/>
@@ -2823,7 +3072,7 @@
       <c r="BF91" s="27"/>
       <c r="BG91" s="32"/>
     </row>
-    <row r="92" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B92" s="27"/>
       <c r="I92" s="27"/>
       <c r="P92" s="27"/>
@@ -2835,7 +3084,7 @@
       <c r="BF92" s="27"/>
       <c r="BG92" s="32"/>
     </row>
-    <row r="93" spans="1:59" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B93" s="27"/>
       <c r="I93" s="27"/>
       <c r="P93" s="27"/>
@@ -2855,24 +3104,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q498"/>
+  <dimension ref="A1:QF496"/>
   <sheetViews>
-    <sheetView topLeftCell="A241" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A258" sqref="A258"/>
+    <sheetView tabSelected="1" topLeftCell="A300" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G309" sqref="G309"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="35.4" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:17" ht="35.25" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
@@ -2882,7 +3132,7 @@
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
     </row>
-    <row r="4" spans="1:17" s="3" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -2912,7 +3162,7 @@
       <c r="P4" s="13"/>
       <c r="Q4" s="13"/>
     </row>
-    <row r="5" spans="1:17" s="3" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -2942,7 +3192,7 @@
       <c r="P5" s="13"/>
       <c r="Q5" s="13"/>
     </row>
-    <row r="6" spans="1:17" s="3" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -2968,7 +3218,7 @@
       <c r="P6" s="13"/>
       <c r="Q6" s="13"/>
     </row>
-    <row r="7" spans="1:17" s="3" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -2994,14 +3244,17 @@
       <c r="P7" s="13"/>
       <c r="Q7" s="13"/>
     </row>
-    <row r="8" spans="1:17" s="4" customFormat="1" ht="24.6" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:17" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:17" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
     </row>
-    <row r="10" spans="1:17" s="7" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" s="7" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>19</v>
       </c>
+      <c r="B10" s="7" t="s">
+        <v>379</v>
+      </c>
       <c r="D10" s="7" t="s">
         <v>20</v>
       </c>
@@ -3012,18 +3265,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:17" s="8" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:17" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
     </row>
-    <row r="14" spans="1:17" s="9" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" s="9" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>24</v>
       </c>
@@ -3035,10 +3288,10 @@
         <v>39</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -3049,10 +3302,10 @@
         <v>39</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="D16" s="9" t="s">
@@ -3062,10 +3315,10 @@
         <v>39</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="D17" s="9" t="s">
@@ -3075,11 +3328,11 @@
         <v>39</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>40</v>
       </c>
@@ -3090,10 +3343,10 @@
         <v>39</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D20" s="9" t="s">
         <v>42</v>
       </c>
@@ -3101,10 +3354,10 @@
         <v>39</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D21" s="9" t="s">
         <v>43</v>
       </c>
@@ -3112,10 +3365,10 @@
         <v>39</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D22" s="9" t="s">
         <v>44</v>
       </c>
@@ -3123,11 +3376,11 @@
         <v>39</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
         <v>45</v>
       </c>
@@ -3138,10 +3391,10 @@
         <v>39</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D25" s="15" t="s">
         <v>47</v>
       </c>
@@ -3149,10 +3402,10 @@
         <v>39</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D26" s="15" t="s">
         <v>48</v>
       </c>
@@ -3160,10 +3413,10 @@
         <v>39</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D27" s="15" t="s">
         <v>49</v>
       </c>
@@ -3171,64 +3424,64 @@
         <v>39</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="D29" s="15" t="s">
         <v>304</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>305</v>
       </c>
       <c r="I29" s="15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D30" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I30" s="15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D31" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I31" s="15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D32" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I32" s="15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:9" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:9" s="25" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:9" s="25" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A39" s="25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:9" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>52</v>
       </c>
@@ -3239,7 +3492,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D44" s="9" t="s">
         <v>54</v>
       </c>
@@ -3247,7 +3500,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D45" s="9" t="s">
         <v>55</v>
       </c>
@@ -3255,8 +3508,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>56</v>
       </c>
@@ -3267,7 +3520,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D48" s="9" t="s">
         <v>58</v>
       </c>
@@ -3275,7 +3528,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D49" s="9" t="s">
         <v>59</v>
       </c>
@@ -3283,8 +3536,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>60</v>
       </c>
@@ -3295,7 +3548,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D52" s="9" t="s">
         <v>62</v>
       </c>
@@ -3303,7 +3556,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D53" s="9" t="s">
         <v>63</v>
       </c>
@@ -3311,8 +3564,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>126</v>
       </c>
@@ -3323,7 +3576,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D56" s="9" t="s">
         <v>128</v>
       </c>
@@ -3331,7 +3584,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D57" s="14" t="s">
         <v>129</v>
       </c>
@@ -3339,8 +3592,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>130</v>
       </c>
@@ -3351,7 +3604,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D60" s="9" t="s">
         <v>132</v>
       </c>
@@ -3359,7 +3612,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D61" s="9" t="s">
         <v>133</v>
       </c>
@@ -3367,8 +3620,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
         <v>134</v>
       </c>
@@ -3379,7 +3632,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D64" s="9" t="s">
         <v>136</v>
       </c>
@@ -3387,7 +3640,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D65" s="9" t="s">
         <v>137</v>
       </c>
@@ -3395,8 +3648,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
         <v>138</v>
       </c>
@@ -3407,7 +3660,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D68" s="9" t="s">
         <v>140</v>
       </c>
@@ -3415,7 +3668,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D69" s="9" t="s">
         <v>141</v>
       </c>
@@ -3423,8 +3676,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
         <v>142</v>
       </c>
@@ -3435,7 +3688,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D72" s="9" t="s">
         <v>144</v>
       </c>
@@ -3443,7 +3696,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D73" s="9" t="s">
         <v>145</v>
       </c>
@@ -3451,8 +3704,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
         <v>146</v>
       </c>
@@ -3463,7 +3716,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D76" s="9" t="s">
         <v>148</v>
       </c>
@@ -3471,7 +3724,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D77" s="9" t="s">
         <v>149</v>
       </c>
@@ -3479,8 +3732,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
         <v>150</v>
       </c>
@@ -3491,7 +3744,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D80" s="9" t="s">
         <v>152</v>
       </c>
@@ -3499,7 +3752,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D81" s="9" t="s">
         <v>153</v>
       </c>
@@ -3507,71 +3760,71 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:9" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="19" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="85" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="1:9" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="86" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="D86" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="D86" s="14" t="s">
+      <c r="I86" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D87" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="I86" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D87" s="9" t="s">
+      <c r="I87" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D88" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="I87" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D88" s="9" t="s">
-        <v>303</v>
-      </c>
       <c r="I88" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="1:9" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="90" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
         <v>60</v>
       </c>
       <c r="D90" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="I90" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D91" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="I90" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D91" s="9" t="s">
+      <c r="I91" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D92" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="I91" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D92" s="14" t="s">
-        <v>311</v>
-      </c>
       <c r="I92" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="1:9" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="94" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="14" t="s">
         <v>155</v>
       </c>
@@ -3582,7 +3835,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D95" s="9" t="s">
         <v>157</v>
       </c>
@@ -3590,7 +3843,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="96" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D96" s="9" t="s">
         <v>158</v>
       </c>
@@ -3598,8 +3851,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="98" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
         <v>159</v>
       </c>
@@ -3610,7 +3863,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D99" s="14" t="s">
         <v>161</v>
       </c>
@@ -3618,7 +3871,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D100" s="9" t="s">
         <v>162</v>
       </c>
@@ -3626,8 +3879,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="102" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="102" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="9" t="s">
         <v>163</v>
       </c>
@@ -3638,7 +3891,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D103" s="14" t="s">
         <v>165</v>
       </c>
@@ -3646,7 +3899,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D104" s="9" t="s">
         <v>166</v>
       </c>
@@ -3654,8 +3907,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="106" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="106" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="9" t="s">
         <v>167</v>
       </c>
@@ -3666,7 +3919,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D107" s="14" t="s">
         <v>169</v>
       </c>
@@ -3674,7 +3927,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D108" s="9" t="s">
         <v>170</v>
       </c>
@@ -3682,8 +3935,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="109" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="110" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="110" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="9" t="s">
         <v>174</v>
       </c>
@@ -3694,7 +3947,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D111" s="14" t="s">
         <v>172</v>
       </c>
@@ -3702,7 +3955,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D112" s="9" t="s">
         <v>173</v>
       </c>
@@ -3710,8 +3963,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="1:11" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="114" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="114" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
         <v>175</v>
       </c>
@@ -3722,7 +3975,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="115" spans="1:11" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D115" s="14" t="s">
         <v>177</v>
       </c>
@@ -3730,7 +3983,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="116" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D116" s="9" t="s">
         <v>178</v>
       </c>
@@ -3738,43 +3991,43 @@
         <v>39</v>
       </c>
     </row>
-    <row r="117" spans="1:11" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="118" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="118" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="9" t="s">
         <v>179</v>
       </c>
       <c r="D118" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="I118" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D119" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="I118" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D119" s="9" t="s">
+      <c r="I119" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D120" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="I119" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D120" s="9" t="s">
-        <v>314</v>
-      </c>
       <c r="I120" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="122" spans="1:11" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="1:11" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="123" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="22" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="124" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="125" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
         <v>76</v>
       </c>
@@ -3786,7 +4039,7 @@
       </c>
       <c r="K125"/>
     </row>
-    <row r="126" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D126" s="9" t="s">
         <v>65</v>
       </c>
@@ -3795,7 +4048,7 @@
       </c>
       <c r="K126"/>
     </row>
-    <row r="127" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="9"/>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
@@ -3812,10 +4065,10 @@
       <c r="J127" s="9"/>
       <c r="K127"/>
     </row>
-    <row r="128" spans="1:11" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
         <v>75</v>
       </c>
@@ -3827,7 +4080,7 @@
       </c>
       <c r="K129"/>
     </row>
-    <row r="130" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D130" s="9" t="s">
         <v>68</v>
       </c>
@@ -3836,7 +4089,7 @@
       </c>
       <c r="K130"/>
     </row>
-    <row r="131" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="9"/>
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
@@ -3853,10 +4106,10 @@
       <c r="J131" s="9"/>
       <c r="K131"/>
     </row>
-    <row r="132" spans="1:11" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
         <v>74</v>
       </c>
@@ -3868,7 +4121,7 @@
       </c>
       <c r="K133"/>
     </row>
-    <row r="134" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D134" s="9" t="s">
         <v>71</v>
       </c>
@@ -3877,7 +4130,7 @@
       </c>
       <c r="K134"/>
     </row>
-    <row r="135" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="9"/>
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
@@ -3894,10 +4147,10 @@
       <c r="J135" s="9"/>
       <c r="K135"/>
     </row>
-    <row r="136" spans="1:11" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
         <v>73</v>
       </c>
@@ -3909,7 +4162,7 @@
       </c>
       <c r="K137"/>
     </row>
-    <row r="138" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D138" s="9" t="s">
         <v>78</v>
       </c>
@@ -3918,7 +4171,7 @@
       </c>
       <c r="K138"/>
     </row>
-    <row r="139" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="9"/>
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
@@ -3935,10 +4188,10 @@
       <c r="J139" s="9"/>
       <c r="K139"/>
     </row>
-    <row r="140" spans="1:11" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
         <v>80</v>
       </c>
@@ -3950,7 +4203,7 @@
       </c>
       <c r="K141"/>
     </row>
-    <row r="142" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D142" s="9" t="s">
         <v>82</v>
       </c>
@@ -3959,7 +4212,7 @@
       </c>
       <c r="K142"/>
     </row>
-    <row r="143" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="9"/>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
@@ -3976,10 +4229,10 @@
       <c r="J143" s="9"/>
       <c r="K143"/>
     </row>
-    <row r="144" spans="1:11" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
         <v>85</v>
       </c>
@@ -3991,7 +4244,7 @@
       </c>
       <c r="K145"/>
     </row>
-    <row r="146" spans="1:11" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D146" s="9" t="s">
         <v>87</v>
       </c>
@@ -4000,7 +4253,7 @@
       </c>
       <c r="K146"/>
     </row>
-    <row r="147" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D147" s="14" t="s">
         <v>88</v>
       </c>
@@ -4009,10 +4262,10 @@
       </c>
       <c r="K147" s="12"/>
     </row>
-    <row r="148" spans="1:11" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="s">
         <v>89</v>
       </c>
@@ -4030,7 +4283,7 @@
       </c>
       <c r="J149" s="9"/>
     </row>
-    <row r="150" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="9"/>
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
@@ -4046,7 +4299,7 @@
       </c>
       <c r="J150" s="9"/>
     </row>
-    <row r="151" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="9"/>
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
@@ -4062,7 +4315,7 @@
       </c>
       <c r="J151" s="9"/>
     </row>
-    <row r="152" spans="1:11" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="17"/>
       <c r="B152" s="17"/>
       <c r="C152" s="17"/>
@@ -4074,7 +4327,7 @@
       <c r="I152" s="17"/>
       <c r="J152" s="17"/>
     </row>
-    <row r="153" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
         <v>94</v>
       </c>
@@ -4092,7 +4345,7 @@
       </c>
       <c r="J153" s="9"/>
     </row>
-    <row r="154" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="9"/>
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
@@ -4108,7 +4361,7 @@
       </c>
       <c r="J154" s="9"/>
     </row>
-    <row r="155" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="9"/>
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
@@ -4124,7 +4377,7 @@
       </c>
       <c r="J155" s="9"/>
     </row>
-    <row r="156" spans="1:11" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="17"/>
       <c r="B156" s="17"/>
       <c r="C156" s="17"/>
@@ -4136,7 +4389,7 @@
       <c r="I156" s="17"/>
       <c r="J156" s="17"/>
     </row>
-    <row r="157" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="s">
         <v>105</v>
       </c>
@@ -4154,7 +4407,7 @@
       </c>
       <c r="J157" s="9"/>
     </row>
-    <row r="158" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="9"/>
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
@@ -4170,7 +4423,7 @@
       </c>
       <c r="J158" s="9"/>
     </row>
-    <row r="159" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="9"/>
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
@@ -4186,8 +4439,8 @@
       </c>
       <c r="J159" s="9"/>
     </row>
-    <row r="160" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="161" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="s">
         <v>100</v>
       </c>
@@ -4205,7 +4458,7 @@
       </c>
       <c r="J161" s="9"/>
     </row>
-    <row r="162" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="9"/>
       <c r="B162" s="9"/>
       <c r="C162" s="9"/>
@@ -4221,7 +4474,7 @@
       </c>
       <c r="J162" s="9"/>
     </row>
-    <row r="163" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="9"/>
       <c r="B163" s="9"/>
       <c r="C163" s="9"/>
@@ -4237,7 +4490,7 @@
       </c>
       <c r="J163" s="9"/>
     </row>
-    <row r="164" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="9"/>
       <c r="B164" s="9"/>
       <c r="C164" s="9"/>
@@ -4253,8 +4506,8 @@
       </c>
       <c r="J164" s="9"/>
     </row>
-    <row r="165" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="166" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" s="9" t="s">
         <v>106</v>
       </c>
@@ -4272,7 +4525,7 @@
       </c>
       <c r="J166" s="9"/>
     </row>
-    <row r="167" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="9"/>
       <c r="B167" s="9"/>
       <c r="C167" s="9"/>
@@ -4288,7 +4541,7 @@
       </c>
       <c r="J167" s="9"/>
     </row>
-    <row r="168" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="9"/>
       <c r="B168" s="9"/>
       <c r="C168" s="9"/>
@@ -4304,8 +4557,8 @@
       </c>
       <c r="J168" s="9"/>
     </row>
-    <row r="169" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="170" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="s">
         <v>110</v>
       </c>
@@ -4323,7 +4576,7 @@
       </c>
       <c r="J170" s="9"/>
     </row>
-    <row r="171" spans="1:10" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" s="9"/>
       <c r="B171" s="9"/>
       <c r="C171" s="9"/>
@@ -4339,7 +4592,7 @@
       </c>
       <c r="J171" s="14"/>
     </row>
-    <row r="172" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="9"/>
       <c r="B172" s="9"/>
       <c r="C172" s="9"/>
@@ -4355,20 +4608,20 @@
       </c>
       <c r="J172" s="9"/>
     </row>
-    <row r="173" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="175" spans="1:10" s="24" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" spans="1:10" s="24" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A175" s="24" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="176" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="177" spans="1:11" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="177" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="19" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="178" spans="1:11" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="9" t="s">
         <v>181</v>
       </c>
@@ -4379,10 +4632,10 @@
         <v>39</v>
       </c>
       <c r="K179" s="9" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D180" s="9" t="s">
         <v>183</v>
       </c>
@@ -4390,10 +4643,10 @@
         <v>39</v>
       </c>
       <c r="K180" s="9" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D181" s="9" t="s">
         <v>184</v>
       </c>
@@ -4401,11 +4654,11 @@
         <v>39</v>
       </c>
       <c r="K181" s="9" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="183" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="183" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="9" t="s">
         <v>185</v>
       </c>
@@ -4416,10 +4669,10 @@
         <v>39</v>
       </c>
       <c r="K183" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D184" s="9" t="s">
         <v>187</v>
       </c>
@@ -4427,10 +4680,10 @@
         <v>39</v>
       </c>
       <c r="K184" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D185" s="9" t="s">
         <v>188</v>
       </c>
@@ -4438,11 +4691,11 @@
         <v>39</v>
       </c>
       <c r="K185" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="187" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="187" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="9" t="s">
         <v>189</v>
       </c>
@@ -4453,7 +4706,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="188" spans="1:11" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D188" s="9" t="s">
         <v>191</v>
       </c>
@@ -4461,7 +4714,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="189" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D189" s="9" t="s">
         <v>192</v>
       </c>
@@ -4469,15 +4722,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="190" spans="1:11" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="191" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="192" spans="1:11" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="191" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="192" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="18" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="193" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="194" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="194" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="s">
         <v>115</v>
       </c>
@@ -4489,7 +4742,7 @@
       </c>
       <c r="K194"/>
     </row>
-    <row r="195" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D195" s="9" t="s">
         <v>195</v>
       </c>
@@ -4498,7 +4751,7 @@
       </c>
       <c r="K195"/>
     </row>
-    <row r="196" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D196" s="9" t="s">
         <v>196</v>
       </c>
@@ -4507,10 +4760,10 @@
       </c>
       <c r="K196"/>
     </row>
-    <row r="197" spans="1:11" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" s="9" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" s="9" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="s">
         <v>116</v>
       </c>
@@ -4522,7 +4775,7 @@
       </c>
       <c r="K198"/>
     </row>
-    <row r="199" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D199" s="9" t="s">
         <v>198</v>
       </c>
@@ -4531,7 +4784,7 @@
       </c>
       <c r="K199"/>
     </row>
-    <row r="200" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A200" s="9"/>
       <c r="B200" s="9"/>
       <c r="C200" s="9"/>
@@ -4547,7 +4800,7 @@
       </c>
       <c r="J200" s="9"/>
     </row>
-    <row r="201" spans="1:11" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A201" s="17"/>
       <c r="B201" s="17"/>
       <c r="C201" s="17"/>
@@ -4559,7 +4812,7 @@
       <c r="I201" s="17"/>
       <c r="J201" s="17"/>
     </row>
-    <row r="202" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="s">
         <v>117</v>
       </c>
@@ -4577,7 +4830,7 @@
       </c>
       <c r="J202" s="9"/>
     </row>
-    <row r="203" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="9"/>
       <c r="B203" s="9"/>
       <c r="C203" s="9"/>
@@ -4593,7 +4846,7 @@
       </c>
       <c r="J203" s="9"/>
     </row>
-    <row r="204" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" s="9"/>
       <c r="B204" s="9"/>
       <c r="C204" s="9"/>
@@ -4609,7 +4862,7 @@
       </c>
       <c r="J204" s="9"/>
     </row>
-    <row r="205" spans="1:11" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A205" s="17"/>
       <c r="B205" s="17"/>
       <c r="C205" s="17"/>
@@ -4621,7 +4874,7 @@
       <c r="I205" s="17"/>
       <c r="J205" s="17"/>
     </row>
-    <row r="206" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A206" s="9" t="s">
         <v>118</v>
       </c>
@@ -4639,7 +4892,7 @@
       </c>
       <c r="J206" s="9"/>
     </row>
-    <row r="207" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" s="9"/>
       <c r="B207" s="9"/>
       <c r="C207" s="9"/>
@@ -4655,7 +4908,7 @@
       </c>
       <c r="J207" s="9"/>
     </row>
-    <row r="208" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" s="9"/>
       <c r="B208" s="9"/>
       <c r="C208" s="9"/>
@@ -4671,7 +4924,7 @@
       </c>
       <c r="J208" s="9"/>
     </row>
-    <row r="209" spans="1:10" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A209" s="17"/>
       <c r="B209" s="17"/>
       <c r="C209" s="17"/>
@@ -4683,7 +4936,7 @@
       <c r="I209" s="17"/>
       <c r="J209" s="17"/>
     </row>
-    <row r="210" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" s="9" t="s">
         <v>119</v>
       </c>
@@ -4701,7 +4954,7 @@
       </c>
       <c r="J210" s="9"/>
     </row>
-    <row r="211" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" s="9"/>
       <c r="B211" s="9"/>
       <c r="C211" s="9"/>
@@ -4717,7 +4970,7 @@
       </c>
       <c r="J211" s="9"/>
     </row>
-    <row r="212" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" s="9"/>
       <c r="B212" s="9"/>
       <c r="C212" s="9"/>
@@ -4733,7 +4986,7 @@
       </c>
       <c r="J212" s="9"/>
     </row>
-    <row r="213" spans="1:10" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:10" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="17"/>
       <c r="B213" s="17"/>
       <c r="C213" s="17"/>
@@ -4745,7 +4998,7 @@
       <c r="I213" s="17"/>
       <c r="J213" s="17"/>
     </row>
-    <row r="214" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" s="9" t="s">
         <v>120</v>
       </c>
@@ -4763,7 +5016,7 @@
       </c>
       <c r="J214" s="9"/>
     </row>
-    <row r="215" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" s="9"/>
       <c r="B215" s="9"/>
       <c r="C215" s="9"/>
@@ -4779,7 +5032,7 @@
       </c>
       <c r="J215" s="9"/>
     </row>
-    <row r="216" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" s="9"/>
       <c r="B216" s="9"/>
       <c r="C216" s="9"/>
@@ -4795,7 +5048,7 @@
       </c>
       <c r="J216" s="9"/>
     </row>
-    <row r="217" spans="1:10" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:10" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="17"/>
       <c r="B217" s="17"/>
       <c r="C217" s="17"/>
@@ -4807,7 +5060,7 @@
       <c r="I217" s="17"/>
       <c r="J217" s="17"/>
     </row>
-    <row r="218" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A218" s="9" t="s">
         <v>193</v>
       </c>
@@ -4818,7 +5071,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="219" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D219" s="9" t="s">
         <v>213</v>
       </c>
@@ -4826,7 +5079,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="220" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D220" s="9" t="s">
         <v>214</v>
       </c>
@@ -4834,8 +5087,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="221" spans="1:10" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="222" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="222" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A222" s="9" t="s">
         <v>215</v>
       </c>
@@ -4846,7 +5099,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="223" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D223" s="9" t="s">
         <v>217</v>
       </c>
@@ -4854,7 +5107,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="224" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D224" s="9" t="s">
         <v>218</v>
       </c>
@@ -4862,8 +5115,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="225" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="226" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="226" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A226" s="9" t="s">
         <v>219</v>
       </c>
@@ -4874,7 +5127,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="227" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D227" s="9" t="s">
         <v>223</v>
       </c>
@@ -4882,7 +5135,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="228" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D228" s="9" t="s">
         <v>224</v>
       </c>
@@ -4890,8 +5143,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="229" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="230" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="230" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A230" s="9" t="s">
         <v>220</v>
       </c>
@@ -4902,7 +5155,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="231" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D231" s="9" t="s">
         <v>221</v>
       </c>
@@ -4910,7 +5163,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="232" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D232" s="9" t="s">
         <v>226</v>
       </c>
@@ -4918,8 +5171,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="233" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="234" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="234" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A234" s="9" t="s">
         <v>227</v>
       </c>
@@ -4930,7 +5183,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="235" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D235" s="9" t="s">
         <v>229</v>
       </c>
@@ -4938,7 +5191,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="236" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D236" s="9" t="s">
         <v>230</v>
       </c>
@@ -4946,8 +5199,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="237" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="238" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="238" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A238" s="9" t="s">
         <v>231</v>
       </c>
@@ -4958,7 +5211,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="239" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D239" s="9" t="s">
         <v>233</v>
       </c>
@@ -4966,7 +5219,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="240" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D240" s="9" t="s">
         <v>234</v>
       </c>
@@ -4974,8 +5227,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="241" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="242" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="242" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A242" s="9" t="s">
         <v>235</v>
       </c>
@@ -4986,7 +5239,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="243" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D243" s="9" t="s">
         <v>237</v>
       </c>
@@ -4994,7 +5247,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="244" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D244" s="9" t="s">
         <v>238</v>
       </c>
@@ -5002,8 +5255,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="245" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="246" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="246" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A246" s="9" t="s">
         <v>239</v>
       </c>
@@ -5014,7 +5267,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="247" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D247" s="9" t="s">
         <v>241</v>
       </c>
@@ -5022,7 +5275,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="248" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D248" s="9" t="s">
         <v>242</v>
       </c>
@@ -5030,8 +5283,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="249" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="250" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="250" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A250" s="9" t="s">
         <v>243</v>
       </c>
@@ -5042,7 +5295,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="251" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D251" s="9" t="s">
         <v>245</v>
       </c>
@@ -5050,7 +5303,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="252" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D252" s="9" t="s">
         <v>246</v>
       </c>
@@ -5058,8 +5311,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="253" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="254" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="254" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A254" s="9" t="s">
         <v>247</v>
       </c>
@@ -5070,7 +5323,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="255" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D255" s="9" t="s">
         <v>249</v>
       </c>
@@ -5078,7 +5331,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="256" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D256" s="9" t="s">
         <v>250</v>
       </c>
@@ -5086,14 +5339,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="257" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="258" spans="1:9" s="21" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="258" spans="1:9" s="21" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A258" s="23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="259" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="260" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="260" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A260" s="9" t="s">
         <v>251</v>
       </c>
@@ -5104,8 +5357,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="261" spans="1:9" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="262" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="262" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A262" s="9" t="s">
         <v>253</v>
       </c>
@@ -5116,8 +5369,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="263" spans="1:9" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="264" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="264" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A264" s="9" t="s">
         <v>255</v>
       </c>
@@ -5128,8 +5381,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="265" spans="1:9" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="266" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="266" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A266" s="9" t="s">
         <v>257</v>
       </c>
@@ -5140,8 +5393,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="267" spans="1:9" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="268" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="268" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A268" s="9" t="s">
         <v>259</v>
       </c>
@@ -5152,8 +5405,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="269" spans="1:9" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="270" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="270" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A270" s="9" t="s">
         <v>261</v>
       </c>
@@ -5164,8 +5417,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="271" spans="1:9" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="272" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="272" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A272" s="9" t="s">
         <v>263</v>
       </c>
@@ -5176,8 +5429,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="273" spans="1:9" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="274" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="274" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A274" s="9" t="s">
         <v>265</v>
       </c>
@@ -5188,8 +5441,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="275" spans="1:9" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="276" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="276" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A276" s="9" t="s">
         <v>267</v>
       </c>
@@ -5200,8 +5453,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="277" spans="1:9" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="278" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="278" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A278" s="9" t="s">
         <v>269</v>
       </c>
@@ -5212,15 +5465,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="279" spans="1:9" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="280" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="281" spans="1:9" s="23" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="280" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="281" spans="1:9" s="23" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A281" s="23" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="282" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="283" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="283" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A283" s="9" t="s">
         <v>272</v>
       </c>
@@ -5231,8 +5484,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="284" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="285" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="285" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A285" s="9" t="s">
         <v>274</v>
       </c>
@@ -5243,108 +5496,5147 @@
         <v>39</v>
       </c>
     </row>
-    <row r="286" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="287" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="287" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A287" s="9" t="s">
         <v>276</v>
       </c>
       <c r="D287" s="9" t="s">
-        <v>277</v>
+        <v>344</v>
       </c>
       <c r="I287" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="288" spans="1:9" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="289" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="290" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="291" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="292" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="293" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="294" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="295" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="296" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="297" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="298" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="299" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="300" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="301" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="302" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="303" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="304" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="305" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="306" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="307" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="308" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="309" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="310" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="311" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="312" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="313" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="314" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="315" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="316" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="317" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="318" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="319" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="320" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="321" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="322" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="323" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="324" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="325" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="326" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="327" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="328" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="329" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="330" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="331" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="332" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="333" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="334" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="335" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="336" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="337" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="338" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="339" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="340" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="341" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="342" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="343" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="344" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="345" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="346" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="347" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="348" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="349" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="350" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="351" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="352" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="353" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="354" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="355" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="356" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="357" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="358" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="359" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="360" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="361" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="362" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="363" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="364" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="365" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="366" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="367" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="368" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="369" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="370" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="371" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="372" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="373" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="374" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="375" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="376" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="289" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A289" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="D289" s="9" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="291" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A291" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="D291" s="9" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="293" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A293" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="D293" s="9" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="295" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A295" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="D295" s="9" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="297" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A297" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="D297" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="299" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A299" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="D299" s="9" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="301" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A301" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="D301" s="9" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="303" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A303" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="D303" s="9" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="305" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A305" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="D305" s="9" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="306" spans="1:448" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="307" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A307" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="D307" s="9" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="308" spans="1:448" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="309" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A309" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="B309" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="D309" s="9" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="310" spans="1:448" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="311" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A311" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="B311" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="D311" s="9" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="312" spans="1:448" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="313" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A313" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="D313" s="9" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="314" spans="1:448" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="315" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A315" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="D315" s="9" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="316" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A316" s="17"/>
+      <c r="B316" s="17"/>
+      <c r="C316" s="17"/>
+      <c r="D316" s="17"/>
+      <c r="E316" s="17"/>
+      <c r="F316" s="17"/>
+      <c r="G316" s="17"/>
+      <c r="H316" s="17"/>
+      <c r="I316" s="17"/>
+      <c r="J316" s="17"/>
+      <c r="K316" s="17"/>
+      <c r="L316" s="17"/>
+      <c r="M316" s="17"/>
+      <c r="N316" s="17"/>
+      <c r="O316" s="17"/>
+      <c r="P316" s="17"/>
+      <c r="Q316" s="17"/>
+      <c r="R316" s="17"/>
+      <c r="S316" s="17"/>
+      <c r="T316" s="17"/>
+      <c r="U316" s="17"/>
+      <c r="V316" s="17"/>
+      <c r="W316" s="17"/>
+      <c r="X316" s="17"/>
+      <c r="Y316" s="17"/>
+      <c r="Z316" s="17"/>
+      <c r="AA316" s="17"/>
+      <c r="AB316" s="17"/>
+      <c r="AC316" s="17"/>
+      <c r="AD316" s="17"/>
+      <c r="AE316" s="17"/>
+      <c r="AF316" s="17"/>
+      <c r="AG316" s="17"/>
+      <c r="AH316" s="17"/>
+      <c r="AI316" s="17"/>
+      <c r="AJ316" s="17"/>
+      <c r="AK316" s="17"/>
+      <c r="AL316" s="17"/>
+      <c r="AM316" s="17"/>
+      <c r="AN316" s="17"/>
+      <c r="AO316" s="17"/>
+      <c r="AP316" s="17"/>
+      <c r="AQ316" s="17"/>
+      <c r="AR316" s="17"/>
+      <c r="AS316" s="17"/>
+      <c r="AT316" s="17"/>
+      <c r="AU316" s="17"/>
+      <c r="AV316" s="17"/>
+      <c r="AW316" s="17"/>
+      <c r="AX316" s="17"/>
+      <c r="AY316" s="17"/>
+      <c r="AZ316" s="17"/>
+      <c r="BA316" s="17"/>
+      <c r="BB316" s="17"/>
+      <c r="BC316" s="17"/>
+      <c r="BD316" s="17"/>
+      <c r="BE316" s="17"/>
+      <c r="BF316" s="17"/>
+      <c r="BG316" s="17"/>
+      <c r="BH316" s="17"/>
+      <c r="BI316" s="17"/>
+      <c r="BJ316" s="17"/>
+      <c r="BK316" s="17"/>
+      <c r="BL316" s="17"/>
+      <c r="BM316" s="17"/>
+      <c r="BN316" s="17"/>
+      <c r="BO316" s="17"/>
+      <c r="BP316" s="17"/>
+      <c r="BQ316" s="17"/>
+      <c r="BR316" s="17"/>
+      <c r="BS316" s="17"/>
+      <c r="BT316" s="17"/>
+      <c r="BU316" s="17"/>
+      <c r="BV316" s="17"/>
+      <c r="BW316" s="17"/>
+      <c r="BX316" s="17"/>
+      <c r="BY316" s="17"/>
+      <c r="BZ316" s="17"/>
+      <c r="CA316" s="17"/>
+      <c r="CB316" s="17"/>
+      <c r="CC316" s="17"/>
+      <c r="CD316" s="17"/>
+      <c r="CE316" s="17"/>
+      <c r="CF316" s="17"/>
+      <c r="CG316" s="17"/>
+      <c r="CH316" s="17"/>
+      <c r="CI316" s="17"/>
+      <c r="CJ316" s="17"/>
+      <c r="CK316" s="17"/>
+      <c r="CL316" s="17"/>
+      <c r="CM316" s="17"/>
+      <c r="CN316" s="17"/>
+      <c r="CO316" s="17"/>
+      <c r="CP316" s="17"/>
+      <c r="CQ316" s="17"/>
+      <c r="CR316" s="17"/>
+      <c r="CS316" s="17"/>
+      <c r="CT316" s="17"/>
+      <c r="CU316" s="17"/>
+      <c r="CV316" s="17"/>
+      <c r="CW316" s="17"/>
+      <c r="CX316" s="17"/>
+      <c r="CY316" s="17"/>
+      <c r="CZ316" s="17"/>
+      <c r="DA316" s="17"/>
+      <c r="DB316" s="17"/>
+      <c r="DC316" s="17"/>
+      <c r="DD316" s="17"/>
+      <c r="DE316" s="17"/>
+      <c r="DF316" s="17"/>
+      <c r="DG316" s="17"/>
+      <c r="DH316" s="17"/>
+      <c r="DI316" s="17"/>
+      <c r="DJ316" s="17"/>
+      <c r="DK316" s="17"/>
+      <c r="DL316" s="17"/>
+      <c r="DM316" s="17"/>
+      <c r="DN316" s="17"/>
+      <c r="DO316" s="17"/>
+      <c r="DP316" s="17"/>
+      <c r="DQ316" s="17"/>
+      <c r="DR316" s="17"/>
+      <c r="DS316" s="17"/>
+      <c r="DT316" s="17"/>
+      <c r="DU316" s="17"/>
+      <c r="DV316" s="17"/>
+      <c r="DW316" s="17"/>
+      <c r="DX316" s="17"/>
+      <c r="DY316" s="17"/>
+      <c r="DZ316" s="17"/>
+      <c r="EA316" s="17"/>
+      <c r="EB316" s="17"/>
+      <c r="EC316" s="17"/>
+      <c r="ED316" s="17"/>
+      <c r="EE316" s="17"/>
+      <c r="EF316" s="17"/>
+      <c r="EG316" s="17"/>
+      <c r="EH316" s="17"/>
+      <c r="EI316" s="17"/>
+      <c r="EJ316" s="17"/>
+      <c r="EK316" s="17"/>
+      <c r="EL316" s="17"/>
+      <c r="EM316" s="17"/>
+      <c r="EN316" s="17"/>
+      <c r="EO316" s="17"/>
+      <c r="EP316" s="17"/>
+      <c r="EQ316" s="17"/>
+      <c r="ER316" s="17"/>
+      <c r="ES316" s="17"/>
+      <c r="ET316" s="17"/>
+      <c r="EU316" s="17"/>
+      <c r="EV316" s="17"/>
+      <c r="EW316" s="17"/>
+      <c r="EX316" s="17"/>
+      <c r="EY316" s="17"/>
+      <c r="EZ316" s="17"/>
+      <c r="FA316" s="17"/>
+      <c r="FB316" s="17"/>
+      <c r="FC316" s="17"/>
+      <c r="FD316" s="17"/>
+      <c r="FE316" s="17"/>
+      <c r="FF316" s="17"/>
+      <c r="FG316" s="17"/>
+      <c r="FH316" s="17"/>
+      <c r="FI316" s="17"/>
+      <c r="FJ316" s="17"/>
+      <c r="FK316" s="17"/>
+      <c r="FL316" s="17"/>
+      <c r="FM316" s="17"/>
+      <c r="FN316" s="17"/>
+      <c r="FO316" s="17"/>
+      <c r="FP316" s="17"/>
+      <c r="FQ316" s="17"/>
+      <c r="FR316" s="17"/>
+      <c r="FS316" s="17"/>
+      <c r="FT316" s="17"/>
+      <c r="FU316" s="17"/>
+      <c r="FV316" s="17"/>
+      <c r="FW316" s="17"/>
+      <c r="FX316" s="17"/>
+      <c r="FY316" s="17"/>
+      <c r="FZ316" s="17"/>
+      <c r="GA316" s="17"/>
+      <c r="GB316" s="17"/>
+      <c r="GC316" s="17"/>
+      <c r="GD316" s="17"/>
+      <c r="GE316" s="17"/>
+      <c r="GF316" s="17"/>
+      <c r="GG316" s="17"/>
+      <c r="GH316" s="17"/>
+      <c r="GI316" s="17"/>
+      <c r="GJ316" s="17"/>
+      <c r="GK316" s="17"/>
+      <c r="GL316" s="17"/>
+      <c r="GM316" s="17"/>
+      <c r="GN316" s="17"/>
+      <c r="GO316" s="17"/>
+      <c r="GP316" s="17"/>
+      <c r="GQ316" s="17"/>
+      <c r="GR316" s="17"/>
+      <c r="GS316" s="17"/>
+      <c r="GT316" s="17"/>
+      <c r="GU316" s="17"/>
+      <c r="GV316" s="17"/>
+      <c r="GW316" s="17"/>
+      <c r="GX316" s="17"/>
+      <c r="GY316" s="17"/>
+      <c r="GZ316" s="17"/>
+      <c r="HA316" s="17"/>
+      <c r="HB316" s="17"/>
+      <c r="HC316" s="17"/>
+      <c r="HD316" s="17"/>
+      <c r="HE316" s="17"/>
+      <c r="HF316" s="17"/>
+      <c r="HG316" s="17"/>
+      <c r="HH316" s="17"/>
+      <c r="HI316" s="17"/>
+      <c r="HJ316" s="17"/>
+      <c r="HK316" s="17"/>
+      <c r="HL316" s="17"/>
+      <c r="HM316" s="17"/>
+      <c r="HN316" s="17"/>
+      <c r="HO316" s="17"/>
+      <c r="HP316" s="17"/>
+      <c r="HQ316" s="17"/>
+      <c r="HR316" s="17"/>
+      <c r="HS316" s="17"/>
+      <c r="HT316" s="17"/>
+      <c r="HU316" s="17"/>
+      <c r="HV316" s="17"/>
+      <c r="HW316" s="17"/>
+      <c r="HX316" s="17"/>
+      <c r="HY316" s="17"/>
+      <c r="HZ316" s="17"/>
+      <c r="IA316" s="17"/>
+      <c r="IB316" s="17"/>
+      <c r="IC316" s="17"/>
+      <c r="ID316" s="17"/>
+      <c r="IE316" s="17"/>
+      <c r="IF316" s="17"/>
+      <c r="IG316" s="17"/>
+      <c r="IH316" s="17"/>
+      <c r="II316" s="17"/>
+      <c r="IJ316" s="17"/>
+      <c r="IK316" s="17"/>
+      <c r="IL316" s="17"/>
+      <c r="IM316" s="17"/>
+      <c r="IN316" s="17"/>
+      <c r="IO316" s="17"/>
+      <c r="IP316" s="17"/>
+      <c r="IQ316" s="17"/>
+      <c r="IR316" s="17"/>
+      <c r="IS316" s="17"/>
+      <c r="IT316" s="17"/>
+      <c r="IU316" s="17"/>
+      <c r="IV316" s="17"/>
+      <c r="IW316" s="17"/>
+      <c r="IX316" s="17"/>
+      <c r="IY316" s="17"/>
+      <c r="IZ316" s="17"/>
+      <c r="JA316" s="17"/>
+      <c r="JB316" s="17"/>
+      <c r="JC316" s="17"/>
+      <c r="JD316" s="17"/>
+      <c r="JE316" s="17"/>
+      <c r="JF316" s="17"/>
+      <c r="JG316" s="17"/>
+      <c r="JH316" s="17"/>
+      <c r="JI316" s="17"/>
+      <c r="JJ316" s="17"/>
+      <c r="JK316" s="17"/>
+      <c r="JL316" s="17"/>
+      <c r="JM316" s="17"/>
+      <c r="JN316" s="17"/>
+      <c r="JO316" s="17"/>
+      <c r="JP316" s="17"/>
+      <c r="JQ316" s="17"/>
+      <c r="JR316" s="17"/>
+      <c r="JS316" s="17"/>
+      <c r="JT316" s="17"/>
+      <c r="JU316" s="17"/>
+      <c r="JV316" s="17"/>
+      <c r="JW316" s="17"/>
+      <c r="JX316" s="17"/>
+      <c r="JY316" s="17"/>
+      <c r="JZ316" s="17"/>
+      <c r="KA316" s="17"/>
+      <c r="KB316" s="17"/>
+      <c r="KC316" s="17"/>
+      <c r="KD316" s="17"/>
+      <c r="KE316" s="17"/>
+      <c r="KF316" s="17"/>
+      <c r="KG316" s="17"/>
+      <c r="KH316" s="17"/>
+      <c r="KI316" s="17"/>
+      <c r="KJ316" s="17"/>
+      <c r="KK316" s="17"/>
+      <c r="KL316" s="17"/>
+      <c r="KM316" s="17"/>
+      <c r="KN316" s="17"/>
+      <c r="KO316" s="17"/>
+      <c r="KP316" s="17"/>
+      <c r="KQ316" s="17"/>
+      <c r="KR316" s="17"/>
+      <c r="KS316" s="17"/>
+      <c r="KT316" s="17"/>
+      <c r="KU316" s="17"/>
+      <c r="KV316" s="17"/>
+      <c r="KW316" s="17"/>
+      <c r="KX316" s="17"/>
+      <c r="KY316" s="17"/>
+      <c r="KZ316" s="17"/>
+      <c r="LA316" s="17"/>
+      <c r="LB316" s="17"/>
+      <c r="LC316" s="17"/>
+      <c r="LD316" s="17"/>
+      <c r="LE316" s="17"/>
+      <c r="LF316" s="17"/>
+      <c r="LG316" s="17"/>
+      <c r="LH316" s="17"/>
+      <c r="LI316" s="17"/>
+      <c r="LJ316" s="17"/>
+      <c r="LK316" s="17"/>
+      <c r="LL316" s="17"/>
+      <c r="LM316" s="17"/>
+      <c r="LN316" s="17"/>
+      <c r="LO316" s="17"/>
+      <c r="LP316" s="17"/>
+      <c r="LQ316" s="17"/>
+      <c r="LR316" s="17"/>
+      <c r="LS316" s="17"/>
+      <c r="LT316" s="17"/>
+      <c r="LU316" s="17"/>
+      <c r="LV316" s="17"/>
+      <c r="LW316" s="17"/>
+      <c r="LX316" s="17"/>
+      <c r="LY316" s="17"/>
+      <c r="LZ316" s="17"/>
+      <c r="MA316" s="17"/>
+      <c r="MB316" s="17"/>
+      <c r="MC316" s="17"/>
+      <c r="MD316" s="17"/>
+      <c r="ME316" s="17"/>
+      <c r="MF316" s="17"/>
+      <c r="MG316" s="17"/>
+      <c r="MH316" s="17"/>
+      <c r="MI316" s="17"/>
+      <c r="MJ316" s="17"/>
+      <c r="MK316" s="17"/>
+      <c r="ML316" s="17"/>
+      <c r="MM316" s="17"/>
+      <c r="MN316" s="17"/>
+      <c r="MO316" s="17"/>
+      <c r="MP316" s="17"/>
+      <c r="MQ316" s="17"/>
+      <c r="MR316" s="17"/>
+      <c r="MS316" s="17"/>
+      <c r="MT316" s="17"/>
+      <c r="MU316" s="17"/>
+      <c r="MV316" s="17"/>
+      <c r="MW316" s="17"/>
+      <c r="MX316" s="17"/>
+      <c r="MY316" s="17"/>
+      <c r="MZ316" s="17"/>
+      <c r="NA316" s="17"/>
+      <c r="NB316" s="17"/>
+      <c r="NC316" s="17"/>
+      <c r="ND316" s="17"/>
+      <c r="NE316" s="17"/>
+      <c r="NF316" s="17"/>
+      <c r="NG316" s="17"/>
+      <c r="NH316" s="17"/>
+      <c r="NI316" s="17"/>
+      <c r="NJ316" s="17"/>
+      <c r="NK316" s="17"/>
+      <c r="NL316" s="17"/>
+      <c r="NM316" s="17"/>
+      <c r="NN316" s="17"/>
+      <c r="NO316" s="17"/>
+      <c r="NP316" s="17"/>
+      <c r="NQ316" s="17"/>
+      <c r="NR316" s="17"/>
+      <c r="NS316" s="17"/>
+      <c r="NT316" s="17"/>
+      <c r="NU316" s="17"/>
+      <c r="NV316" s="17"/>
+      <c r="NW316" s="17"/>
+      <c r="NX316" s="17"/>
+      <c r="NY316" s="17"/>
+      <c r="NZ316" s="17"/>
+      <c r="OA316" s="17"/>
+      <c r="OB316" s="17"/>
+      <c r="OC316" s="17"/>
+      <c r="OD316" s="17"/>
+      <c r="OE316" s="17"/>
+      <c r="OF316" s="17"/>
+      <c r="OG316" s="17"/>
+      <c r="OH316" s="17"/>
+      <c r="OI316" s="17"/>
+      <c r="OJ316" s="17"/>
+      <c r="OK316" s="17"/>
+      <c r="OL316" s="17"/>
+      <c r="OM316" s="17"/>
+      <c r="ON316" s="17"/>
+      <c r="OO316" s="17"/>
+      <c r="OP316" s="17"/>
+      <c r="OQ316" s="17"/>
+      <c r="OR316" s="17"/>
+      <c r="OS316" s="17"/>
+      <c r="OT316" s="17"/>
+      <c r="OU316" s="17"/>
+      <c r="OV316" s="17"/>
+      <c r="OW316" s="17"/>
+      <c r="OX316" s="17"/>
+      <c r="OY316" s="17"/>
+      <c r="OZ316" s="17"/>
+      <c r="PA316" s="17"/>
+      <c r="PB316" s="17"/>
+      <c r="PC316" s="17"/>
+      <c r="PD316" s="17"/>
+      <c r="PE316" s="17"/>
+      <c r="PF316" s="17"/>
+      <c r="PG316" s="17"/>
+      <c r="PH316" s="17"/>
+      <c r="PI316" s="17"/>
+      <c r="PJ316" s="17"/>
+      <c r="PK316" s="17"/>
+      <c r="PL316" s="17"/>
+      <c r="PM316" s="17"/>
+      <c r="PN316" s="17"/>
+      <c r="PO316" s="17"/>
+      <c r="PP316" s="17"/>
+      <c r="PQ316" s="17"/>
+      <c r="PR316" s="17"/>
+      <c r="PS316" s="17"/>
+      <c r="PT316" s="17"/>
+      <c r="PU316" s="17"/>
+      <c r="PV316" s="17"/>
+      <c r="PW316" s="17"/>
+      <c r="PX316" s="17"/>
+      <c r="PY316" s="17"/>
+      <c r="PZ316" s="17"/>
+      <c r="QA316" s="17"/>
+      <c r="QB316" s="17"/>
+      <c r="QC316" s="17"/>
+      <c r="QD316" s="17"/>
+      <c r="QE316" s="17"/>
+      <c r="QF316" s="17"/>
+    </row>
+    <row r="317" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A317" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="D317" s="9" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="318" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A318" s="17"/>
+      <c r="B318" s="17"/>
+      <c r="C318" s="17"/>
+      <c r="D318" s="17"/>
+      <c r="E318" s="17"/>
+      <c r="F318" s="17"/>
+      <c r="G318" s="17"/>
+      <c r="H318" s="17"/>
+      <c r="I318" s="17"/>
+      <c r="J318" s="17"/>
+      <c r="K318" s="17"/>
+      <c r="L318" s="17"/>
+      <c r="M318" s="17"/>
+      <c r="N318" s="17"/>
+      <c r="O318" s="17"/>
+      <c r="P318" s="17"/>
+      <c r="Q318" s="17"/>
+      <c r="R318" s="17"/>
+      <c r="S318" s="17"/>
+      <c r="T318" s="17"/>
+      <c r="U318" s="17"/>
+      <c r="V318" s="17"/>
+      <c r="W318" s="17"/>
+      <c r="X318" s="17"/>
+      <c r="Y318" s="17"/>
+      <c r="Z318" s="17"/>
+      <c r="AA318" s="17"/>
+      <c r="AB318" s="17"/>
+      <c r="AC318" s="17"/>
+      <c r="AD318" s="17"/>
+      <c r="AE318" s="17"/>
+      <c r="AF318" s="17"/>
+      <c r="AG318" s="17"/>
+      <c r="AH318" s="17"/>
+      <c r="AI318" s="17"/>
+      <c r="AJ318" s="17"/>
+      <c r="AK318" s="17"/>
+      <c r="AL318" s="17"/>
+      <c r="AM318" s="17"/>
+      <c r="AN318" s="17"/>
+      <c r="AO318" s="17"/>
+      <c r="AP318" s="17"/>
+      <c r="AQ318" s="17"/>
+      <c r="AR318" s="17"/>
+      <c r="AS318" s="17"/>
+      <c r="AT318" s="17"/>
+      <c r="AU318" s="17"/>
+      <c r="AV318" s="17"/>
+      <c r="AW318" s="17"/>
+      <c r="AX318" s="17"/>
+      <c r="AY318" s="17"/>
+      <c r="AZ318" s="17"/>
+      <c r="BA318" s="17"/>
+      <c r="BB318" s="17"/>
+      <c r="BC318" s="17"/>
+      <c r="BD318" s="17"/>
+      <c r="BE318" s="17"/>
+      <c r="BF318" s="17"/>
+      <c r="BG318" s="17"/>
+      <c r="BH318" s="17"/>
+      <c r="BI318" s="17"/>
+      <c r="BJ318" s="17"/>
+      <c r="BK318" s="17"/>
+      <c r="BL318" s="17"/>
+      <c r="BM318" s="17"/>
+      <c r="BN318" s="17"/>
+      <c r="BO318" s="17"/>
+      <c r="BP318" s="17"/>
+      <c r="BQ318" s="17"/>
+      <c r="BR318" s="17"/>
+      <c r="BS318" s="17"/>
+      <c r="BT318" s="17"/>
+      <c r="BU318" s="17"/>
+      <c r="BV318" s="17"/>
+      <c r="BW318" s="17"/>
+      <c r="BX318" s="17"/>
+      <c r="BY318" s="17"/>
+      <c r="BZ318" s="17"/>
+      <c r="CA318" s="17"/>
+      <c r="CB318" s="17"/>
+      <c r="CC318" s="17"/>
+      <c r="CD318" s="17"/>
+      <c r="CE318" s="17"/>
+      <c r="CF318" s="17"/>
+      <c r="CG318" s="17"/>
+      <c r="CH318" s="17"/>
+      <c r="CI318" s="17"/>
+      <c r="CJ318" s="17"/>
+      <c r="CK318" s="17"/>
+      <c r="CL318" s="17"/>
+      <c r="CM318" s="17"/>
+      <c r="CN318" s="17"/>
+      <c r="CO318" s="17"/>
+      <c r="CP318" s="17"/>
+      <c r="CQ318" s="17"/>
+      <c r="CR318" s="17"/>
+      <c r="CS318" s="17"/>
+      <c r="CT318" s="17"/>
+      <c r="CU318" s="17"/>
+      <c r="CV318" s="17"/>
+      <c r="CW318" s="17"/>
+      <c r="CX318" s="17"/>
+      <c r="CY318" s="17"/>
+      <c r="CZ318" s="17"/>
+      <c r="DA318" s="17"/>
+      <c r="DB318" s="17"/>
+      <c r="DC318" s="17"/>
+      <c r="DD318" s="17"/>
+      <c r="DE318" s="17"/>
+      <c r="DF318" s="17"/>
+      <c r="DG318" s="17"/>
+      <c r="DH318" s="17"/>
+      <c r="DI318" s="17"/>
+      <c r="DJ318" s="17"/>
+      <c r="DK318" s="17"/>
+      <c r="DL318" s="17"/>
+      <c r="DM318" s="17"/>
+      <c r="DN318" s="17"/>
+      <c r="DO318" s="17"/>
+      <c r="DP318" s="17"/>
+      <c r="DQ318" s="17"/>
+      <c r="DR318" s="17"/>
+      <c r="DS318" s="17"/>
+      <c r="DT318" s="17"/>
+      <c r="DU318" s="17"/>
+      <c r="DV318" s="17"/>
+      <c r="DW318" s="17"/>
+      <c r="DX318" s="17"/>
+      <c r="DY318" s="17"/>
+      <c r="DZ318" s="17"/>
+      <c r="EA318" s="17"/>
+      <c r="EB318" s="17"/>
+      <c r="EC318" s="17"/>
+      <c r="ED318" s="17"/>
+      <c r="EE318" s="17"/>
+      <c r="EF318" s="17"/>
+      <c r="EG318" s="17"/>
+      <c r="EH318" s="17"/>
+      <c r="EI318" s="17"/>
+      <c r="EJ318" s="17"/>
+      <c r="EK318" s="17"/>
+      <c r="EL318" s="17"/>
+      <c r="EM318" s="17"/>
+      <c r="EN318" s="17"/>
+      <c r="EO318" s="17"/>
+      <c r="EP318" s="17"/>
+      <c r="EQ318" s="17"/>
+      <c r="ER318" s="17"/>
+      <c r="ES318" s="17"/>
+      <c r="ET318" s="17"/>
+      <c r="EU318" s="17"/>
+      <c r="EV318" s="17"/>
+      <c r="EW318" s="17"/>
+      <c r="EX318" s="17"/>
+      <c r="EY318" s="17"/>
+      <c r="EZ318" s="17"/>
+      <c r="FA318" s="17"/>
+      <c r="FB318" s="17"/>
+      <c r="FC318" s="17"/>
+      <c r="FD318" s="17"/>
+      <c r="FE318" s="17"/>
+      <c r="FF318" s="17"/>
+      <c r="FG318" s="17"/>
+      <c r="FH318" s="17"/>
+      <c r="FI318" s="17"/>
+      <c r="FJ318" s="17"/>
+      <c r="FK318" s="17"/>
+      <c r="FL318" s="17"/>
+      <c r="FM318" s="17"/>
+      <c r="FN318" s="17"/>
+      <c r="FO318" s="17"/>
+      <c r="FP318" s="17"/>
+      <c r="FQ318" s="17"/>
+      <c r="FR318" s="17"/>
+      <c r="FS318" s="17"/>
+      <c r="FT318" s="17"/>
+      <c r="FU318" s="17"/>
+      <c r="FV318" s="17"/>
+      <c r="FW318" s="17"/>
+      <c r="FX318" s="17"/>
+      <c r="FY318" s="17"/>
+      <c r="FZ318" s="17"/>
+      <c r="GA318" s="17"/>
+      <c r="GB318" s="17"/>
+      <c r="GC318" s="17"/>
+      <c r="GD318" s="17"/>
+      <c r="GE318" s="17"/>
+      <c r="GF318" s="17"/>
+      <c r="GG318" s="17"/>
+      <c r="GH318" s="17"/>
+      <c r="GI318" s="17"/>
+      <c r="GJ318" s="17"/>
+      <c r="GK318" s="17"/>
+      <c r="GL318" s="17"/>
+      <c r="GM318" s="17"/>
+      <c r="GN318" s="17"/>
+      <c r="GO318" s="17"/>
+      <c r="GP318" s="17"/>
+      <c r="GQ318" s="17"/>
+      <c r="GR318" s="17"/>
+      <c r="GS318" s="17"/>
+      <c r="GT318" s="17"/>
+      <c r="GU318" s="17"/>
+      <c r="GV318" s="17"/>
+      <c r="GW318" s="17"/>
+      <c r="GX318" s="17"/>
+      <c r="GY318" s="17"/>
+      <c r="GZ318" s="17"/>
+      <c r="HA318" s="17"/>
+      <c r="HB318" s="17"/>
+      <c r="HC318" s="17"/>
+      <c r="HD318" s="17"/>
+      <c r="HE318" s="17"/>
+      <c r="HF318" s="17"/>
+      <c r="HG318" s="17"/>
+      <c r="HH318" s="17"/>
+      <c r="HI318" s="17"/>
+      <c r="HJ318" s="17"/>
+      <c r="HK318" s="17"/>
+      <c r="HL318" s="17"/>
+      <c r="HM318" s="17"/>
+      <c r="HN318" s="17"/>
+      <c r="HO318" s="17"/>
+      <c r="HP318" s="17"/>
+      <c r="HQ318" s="17"/>
+      <c r="HR318" s="17"/>
+      <c r="HS318" s="17"/>
+      <c r="HT318" s="17"/>
+      <c r="HU318" s="17"/>
+      <c r="HV318" s="17"/>
+      <c r="HW318" s="17"/>
+      <c r="HX318" s="17"/>
+      <c r="HY318" s="17"/>
+      <c r="HZ318" s="17"/>
+      <c r="IA318" s="17"/>
+      <c r="IB318" s="17"/>
+      <c r="IC318" s="17"/>
+      <c r="ID318" s="17"/>
+      <c r="IE318" s="17"/>
+      <c r="IF318" s="17"/>
+      <c r="IG318" s="17"/>
+      <c r="IH318" s="17"/>
+      <c r="II318" s="17"/>
+      <c r="IJ318" s="17"/>
+      <c r="IK318" s="17"/>
+      <c r="IL318" s="17"/>
+      <c r="IM318" s="17"/>
+      <c r="IN318" s="17"/>
+      <c r="IO318" s="17"/>
+      <c r="IP318" s="17"/>
+      <c r="IQ318" s="17"/>
+      <c r="IR318" s="17"/>
+      <c r="IS318" s="17"/>
+      <c r="IT318" s="17"/>
+      <c r="IU318" s="17"/>
+      <c r="IV318" s="17"/>
+      <c r="IW318" s="17"/>
+      <c r="IX318" s="17"/>
+      <c r="IY318" s="17"/>
+      <c r="IZ318" s="17"/>
+      <c r="JA318" s="17"/>
+      <c r="JB318" s="17"/>
+      <c r="JC318" s="17"/>
+      <c r="JD318" s="17"/>
+      <c r="JE318" s="17"/>
+      <c r="JF318" s="17"/>
+      <c r="JG318" s="17"/>
+      <c r="JH318" s="17"/>
+      <c r="JI318" s="17"/>
+      <c r="JJ318" s="17"/>
+      <c r="JK318" s="17"/>
+      <c r="JL318" s="17"/>
+      <c r="JM318" s="17"/>
+      <c r="JN318" s="17"/>
+      <c r="JO318" s="17"/>
+      <c r="JP318" s="17"/>
+      <c r="JQ318" s="17"/>
+      <c r="JR318" s="17"/>
+      <c r="JS318" s="17"/>
+      <c r="JT318" s="17"/>
+      <c r="JU318" s="17"/>
+      <c r="JV318" s="17"/>
+      <c r="JW318" s="17"/>
+      <c r="JX318" s="17"/>
+      <c r="JY318" s="17"/>
+      <c r="JZ318" s="17"/>
+      <c r="KA318" s="17"/>
+      <c r="KB318" s="17"/>
+      <c r="KC318" s="17"/>
+      <c r="KD318" s="17"/>
+      <c r="KE318" s="17"/>
+      <c r="KF318" s="17"/>
+      <c r="KG318" s="17"/>
+      <c r="KH318" s="17"/>
+      <c r="KI318" s="17"/>
+      <c r="KJ318" s="17"/>
+      <c r="KK318" s="17"/>
+      <c r="KL318" s="17"/>
+      <c r="KM318" s="17"/>
+      <c r="KN318" s="17"/>
+      <c r="KO318" s="17"/>
+      <c r="KP318" s="17"/>
+      <c r="KQ318" s="17"/>
+      <c r="KR318" s="17"/>
+      <c r="KS318" s="17"/>
+      <c r="KT318" s="17"/>
+      <c r="KU318" s="17"/>
+      <c r="KV318" s="17"/>
+      <c r="KW318" s="17"/>
+      <c r="KX318" s="17"/>
+      <c r="KY318" s="17"/>
+      <c r="KZ318" s="17"/>
+      <c r="LA318" s="17"/>
+      <c r="LB318" s="17"/>
+      <c r="LC318" s="17"/>
+      <c r="LD318" s="17"/>
+      <c r="LE318" s="17"/>
+      <c r="LF318" s="17"/>
+      <c r="LG318" s="17"/>
+      <c r="LH318" s="17"/>
+      <c r="LI318" s="17"/>
+      <c r="LJ318" s="17"/>
+      <c r="LK318" s="17"/>
+      <c r="LL318" s="17"/>
+      <c r="LM318" s="17"/>
+      <c r="LN318" s="17"/>
+      <c r="LO318" s="17"/>
+      <c r="LP318" s="17"/>
+      <c r="LQ318" s="17"/>
+      <c r="LR318" s="17"/>
+      <c r="LS318" s="17"/>
+      <c r="LT318" s="17"/>
+      <c r="LU318" s="17"/>
+      <c r="LV318" s="17"/>
+      <c r="LW318" s="17"/>
+      <c r="LX318" s="17"/>
+      <c r="LY318" s="17"/>
+      <c r="LZ318" s="17"/>
+      <c r="MA318" s="17"/>
+      <c r="MB318" s="17"/>
+      <c r="MC318" s="17"/>
+      <c r="MD318" s="17"/>
+      <c r="ME318" s="17"/>
+      <c r="MF318" s="17"/>
+      <c r="MG318" s="17"/>
+      <c r="MH318" s="17"/>
+      <c r="MI318" s="17"/>
+      <c r="MJ318" s="17"/>
+      <c r="MK318" s="17"/>
+      <c r="ML318" s="17"/>
+      <c r="MM318" s="17"/>
+      <c r="MN318" s="17"/>
+      <c r="MO318" s="17"/>
+      <c r="MP318" s="17"/>
+      <c r="MQ318" s="17"/>
+      <c r="MR318" s="17"/>
+      <c r="MS318" s="17"/>
+      <c r="MT318" s="17"/>
+      <c r="MU318" s="17"/>
+      <c r="MV318" s="17"/>
+      <c r="MW318" s="17"/>
+      <c r="MX318" s="17"/>
+      <c r="MY318" s="17"/>
+      <c r="MZ318" s="17"/>
+      <c r="NA318" s="17"/>
+      <c r="NB318" s="17"/>
+      <c r="NC318" s="17"/>
+      <c r="ND318" s="17"/>
+      <c r="NE318" s="17"/>
+      <c r="NF318" s="17"/>
+      <c r="NG318" s="17"/>
+      <c r="NH318" s="17"/>
+      <c r="NI318" s="17"/>
+      <c r="NJ318" s="17"/>
+      <c r="NK318" s="17"/>
+      <c r="NL318" s="17"/>
+      <c r="NM318" s="17"/>
+      <c r="NN318" s="17"/>
+      <c r="NO318" s="17"/>
+      <c r="NP318" s="17"/>
+      <c r="NQ318" s="17"/>
+      <c r="NR318" s="17"/>
+      <c r="NS318" s="17"/>
+      <c r="NT318" s="17"/>
+      <c r="NU318" s="17"/>
+      <c r="NV318" s="17"/>
+      <c r="NW318" s="17"/>
+      <c r="NX318" s="17"/>
+      <c r="NY318" s="17"/>
+      <c r="NZ318" s="17"/>
+      <c r="OA318" s="17"/>
+      <c r="OB318" s="17"/>
+      <c r="OC318" s="17"/>
+      <c r="OD318" s="17"/>
+      <c r="OE318" s="17"/>
+      <c r="OF318" s="17"/>
+      <c r="OG318" s="17"/>
+      <c r="OH318" s="17"/>
+      <c r="OI318" s="17"/>
+      <c r="OJ318" s="17"/>
+      <c r="OK318" s="17"/>
+      <c r="OL318" s="17"/>
+      <c r="OM318" s="17"/>
+      <c r="ON318" s="17"/>
+      <c r="OO318" s="17"/>
+      <c r="OP318" s="17"/>
+      <c r="OQ318" s="17"/>
+      <c r="OR318" s="17"/>
+      <c r="OS318" s="17"/>
+      <c r="OT318" s="17"/>
+      <c r="OU318" s="17"/>
+      <c r="OV318" s="17"/>
+      <c r="OW318" s="17"/>
+      <c r="OX318" s="17"/>
+      <c r="OY318" s="17"/>
+      <c r="OZ318" s="17"/>
+      <c r="PA318" s="17"/>
+      <c r="PB318" s="17"/>
+      <c r="PC318" s="17"/>
+      <c r="PD318" s="17"/>
+      <c r="PE318" s="17"/>
+      <c r="PF318" s="17"/>
+      <c r="PG318" s="17"/>
+      <c r="PH318" s="17"/>
+      <c r="PI318" s="17"/>
+      <c r="PJ318" s="17"/>
+      <c r="PK318" s="17"/>
+      <c r="PL318" s="17"/>
+      <c r="PM318" s="17"/>
+      <c r="PN318" s="17"/>
+      <c r="PO318" s="17"/>
+      <c r="PP318" s="17"/>
+      <c r="PQ318" s="17"/>
+      <c r="PR318" s="17"/>
+      <c r="PS318" s="17"/>
+      <c r="PT318" s="17"/>
+      <c r="PU318" s="17"/>
+      <c r="PV318" s="17"/>
+      <c r="PW318" s="17"/>
+      <c r="PX318" s="17"/>
+      <c r="PY318" s="17"/>
+      <c r="PZ318" s="17"/>
+      <c r="QA318" s="17"/>
+      <c r="QB318" s="17"/>
+      <c r="QC318" s="17"/>
+      <c r="QD318" s="17"/>
+      <c r="QE318" s="17"/>
+      <c r="QF318" s="17"/>
+    </row>
+    <row r="319" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A319" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="D319" s="9" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="320" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A320" s="17"/>
+      <c r="B320" s="17"/>
+      <c r="C320" s="17"/>
+      <c r="D320" s="17"/>
+      <c r="E320" s="17"/>
+      <c r="F320" s="17"/>
+      <c r="G320" s="17"/>
+      <c r="H320" s="17"/>
+      <c r="I320" s="17"/>
+      <c r="J320" s="17"/>
+      <c r="K320" s="17"/>
+      <c r="L320" s="17"/>
+      <c r="M320" s="17"/>
+      <c r="N320" s="17"/>
+      <c r="O320" s="17"/>
+      <c r="P320" s="17"/>
+      <c r="Q320" s="17"/>
+      <c r="R320" s="17"/>
+      <c r="S320" s="17"/>
+      <c r="T320" s="17"/>
+      <c r="U320" s="17"/>
+      <c r="V320" s="17"/>
+      <c r="W320" s="17"/>
+      <c r="X320" s="17"/>
+      <c r="Y320" s="17"/>
+      <c r="Z320" s="17"/>
+      <c r="AA320" s="17"/>
+      <c r="AB320" s="17"/>
+      <c r="AC320" s="17"/>
+      <c r="AD320" s="17"/>
+      <c r="AE320" s="17"/>
+      <c r="AF320" s="17"/>
+      <c r="AG320" s="17"/>
+      <c r="AH320" s="17"/>
+      <c r="AI320" s="17"/>
+      <c r="AJ320" s="17"/>
+      <c r="AK320" s="17"/>
+      <c r="AL320" s="17"/>
+      <c r="AM320" s="17"/>
+      <c r="AN320" s="17"/>
+      <c r="AO320" s="17"/>
+      <c r="AP320" s="17"/>
+      <c r="AQ320" s="17"/>
+      <c r="AR320" s="17"/>
+      <c r="AS320" s="17"/>
+      <c r="AT320" s="17"/>
+      <c r="AU320" s="17"/>
+      <c r="AV320" s="17"/>
+      <c r="AW320" s="17"/>
+      <c r="AX320" s="17"/>
+      <c r="AY320" s="17"/>
+      <c r="AZ320" s="17"/>
+      <c r="BA320" s="17"/>
+      <c r="BB320" s="17"/>
+      <c r="BC320" s="17"/>
+      <c r="BD320" s="17"/>
+      <c r="BE320" s="17"/>
+      <c r="BF320" s="17"/>
+      <c r="BG320" s="17"/>
+      <c r="BH320" s="17"/>
+      <c r="BI320" s="17"/>
+      <c r="BJ320" s="17"/>
+      <c r="BK320" s="17"/>
+      <c r="BL320" s="17"/>
+      <c r="BM320" s="17"/>
+      <c r="BN320" s="17"/>
+      <c r="BO320" s="17"/>
+      <c r="BP320" s="17"/>
+      <c r="BQ320" s="17"/>
+      <c r="BR320" s="17"/>
+      <c r="BS320" s="17"/>
+      <c r="BT320" s="17"/>
+      <c r="BU320" s="17"/>
+      <c r="BV320" s="17"/>
+      <c r="BW320" s="17"/>
+      <c r="BX320" s="17"/>
+      <c r="BY320" s="17"/>
+      <c r="BZ320" s="17"/>
+      <c r="CA320" s="17"/>
+      <c r="CB320" s="17"/>
+      <c r="CC320" s="17"/>
+      <c r="CD320" s="17"/>
+      <c r="CE320" s="17"/>
+      <c r="CF320" s="17"/>
+      <c r="CG320" s="17"/>
+      <c r="CH320" s="17"/>
+      <c r="CI320" s="17"/>
+      <c r="CJ320" s="17"/>
+      <c r="CK320" s="17"/>
+      <c r="CL320" s="17"/>
+      <c r="CM320" s="17"/>
+      <c r="CN320" s="17"/>
+      <c r="CO320" s="17"/>
+      <c r="CP320" s="17"/>
+      <c r="CQ320" s="17"/>
+      <c r="CR320" s="17"/>
+      <c r="CS320" s="17"/>
+      <c r="CT320" s="17"/>
+      <c r="CU320" s="17"/>
+      <c r="CV320" s="17"/>
+      <c r="CW320" s="17"/>
+      <c r="CX320" s="17"/>
+      <c r="CY320" s="17"/>
+      <c r="CZ320" s="17"/>
+      <c r="DA320" s="17"/>
+      <c r="DB320" s="17"/>
+      <c r="DC320" s="17"/>
+      <c r="DD320" s="17"/>
+      <c r="DE320" s="17"/>
+      <c r="DF320" s="17"/>
+      <c r="DG320" s="17"/>
+      <c r="DH320" s="17"/>
+      <c r="DI320" s="17"/>
+      <c r="DJ320" s="17"/>
+      <c r="DK320" s="17"/>
+      <c r="DL320" s="17"/>
+      <c r="DM320" s="17"/>
+      <c r="DN320" s="17"/>
+      <c r="DO320" s="17"/>
+      <c r="DP320" s="17"/>
+      <c r="DQ320" s="17"/>
+      <c r="DR320" s="17"/>
+      <c r="DS320" s="17"/>
+      <c r="DT320" s="17"/>
+      <c r="DU320" s="17"/>
+      <c r="DV320" s="17"/>
+      <c r="DW320" s="17"/>
+      <c r="DX320" s="17"/>
+      <c r="DY320" s="17"/>
+      <c r="DZ320" s="17"/>
+      <c r="EA320" s="17"/>
+      <c r="EB320" s="17"/>
+      <c r="EC320" s="17"/>
+      <c r="ED320" s="17"/>
+      <c r="EE320" s="17"/>
+      <c r="EF320" s="17"/>
+      <c r="EG320" s="17"/>
+      <c r="EH320" s="17"/>
+      <c r="EI320" s="17"/>
+      <c r="EJ320" s="17"/>
+      <c r="EK320" s="17"/>
+      <c r="EL320" s="17"/>
+      <c r="EM320" s="17"/>
+      <c r="EN320" s="17"/>
+      <c r="EO320" s="17"/>
+      <c r="EP320" s="17"/>
+      <c r="EQ320" s="17"/>
+      <c r="ER320" s="17"/>
+      <c r="ES320" s="17"/>
+      <c r="ET320" s="17"/>
+      <c r="EU320" s="17"/>
+      <c r="EV320" s="17"/>
+      <c r="EW320" s="17"/>
+      <c r="EX320" s="17"/>
+      <c r="EY320" s="17"/>
+      <c r="EZ320" s="17"/>
+      <c r="FA320" s="17"/>
+      <c r="FB320" s="17"/>
+      <c r="FC320" s="17"/>
+      <c r="FD320" s="17"/>
+      <c r="FE320" s="17"/>
+      <c r="FF320" s="17"/>
+      <c r="FG320" s="17"/>
+      <c r="FH320" s="17"/>
+      <c r="FI320" s="17"/>
+      <c r="FJ320" s="17"/>
+      <c r="FK320" s="17"/>
+      <c r="FL320" s="17"/>
+      <c r="FM320" s="17"/>
+      <c r="FN320" s="17"/>
+      <c r="FO320" s="17"/>
+      <c r="FP320" s="17"/>
+      <c r="FQ320" s="17"/>
+      <c r="FR320" s="17"/>
+      <c r="FS320" s="17"/>
+      <c r="FT320" s="17"/>
+      <c r="FU320" s="17"/>
+      <c r="FV320" s="17"/>
+      <c r="FW320" s="17"/>
+      <c r="FX320" s="17"/>
+      <c r="FY320" s="17"/>
+      <c r="FZ320" s="17"/>
+      <c r="GA320" s="17"/>
+      <c r="GB320" s="17"/>
+      <c r="GC320" s="17"/>
+      <c r="GD320" s="17"/>
+      <c r="GE320" s="17"/>
+      <c r="GF320" s="17"/>
+      <c r="GG320" s="17"/>
+      <c r="GH320" s="17"/>
+      <c r="GI320" s="17"/>
+      <c r="GJ320" s="17"/>
+      <c r="GK320" s="17"/>
+      <c r="GL320" s="17"/>
+      <c r="GM320" s="17"/>
+      <c r="GN320" s="17"/>
+      <c r="GO320" s="17"/>
+      <c r="GP320" s="17"/>
+      <c r="GQ320" s="17"/>
+      <c r="GR320" s="17"/>
+      <c r="GS320" s="17"/>
+      <c r="GT320" s="17"/>
+      <c r="GU320" s="17"/>
+      <c r="GV320" s="17"/>
+      <c r="GW320" s="17"/>
+      <c r="GX320" s="17"/>
+      <c r="GY320" s="17"/>
+      <c r="GZ320" s="17"/>
+      <c r="HA320" s="17"/>
+      <c r="HB320" s="17"/>
+      <c r="HC320" s="17"/>
+      <c r="HD320" s="17"/>
+      <c r="HE320" s="17"/>
+      <c r="HF320" s="17"/>
+      <c r="HG320" s="17"/>
+      <c r="HH320" s="17"/>
+      <c r="HI320" s="17"/>
+      <c r="HJ320" s="17"/>
+      <c r="HK320" s="17"/>
+      <c r="HL320" s="17"/>
+      <c r="HM320" s="17"/>
+      <c r="HN320" s="17"/>
+      <c r="HO320" s="17"/>
+      <c r="HP320" s="17"/>
+      <c r="HQ320" s="17"/>
+      <c r="HR320" s="17"/>
+      <c r="HS320" s="17"/>
+      <c r="HT320" s="17"/>
+      <c r="HU320" s="17"/>
+      <c r="HV320" s="17"/>
+      <c r="HW320" s="17"/>
+      <c r="HX320" s="17"/>
+      <c r="HY320" s="17"/>
+      <c r="HZ320" s="17"/>
+      <c r="IA320" s="17"/>
+      <c r="IB320" s="17"/>
+      <c r="IC320" s="17"/>
+      <c r="ID320" s="17"/>
+      <c r="IE320" s="17"/>
+      <c r="IF320" s="17"/>
+      <c r="IG320" s="17"/>
+      <c r="IH320" s="17"/>
+      <c r="II320" s="17"/>
+      <c r="IJ320" s="17"/>
+      <c r="IK320" s="17"/>
+      <c r="IL320" s="17"/>
+      <c r="IM320" s="17"/>
+      <c r="IN320" s="17"/>
+      <c r="IO320" s="17"/>
+      <c r="IP320" s="17"/>
+      <c r="IQ320" s="17"/>
+      <c r="IR320" s="17"/>
+      <c r="IS320" s="17"/>
+      <c r="IT320" s="17"/>
+      <c r="IU320" s="17"/>
+      <c r="IV320" s="17"/>
+      <c r="IW320" s="17"/>
+      <c r="IX320" s="17"/>
+      <c r="IY320" s="17"/>
+      <c r="IZ320" s="17"/>
+      <c r="JA320" s="17"/>
+      <c r="JB320" s="17"/>
+      <c r="JC320" s="17"/>
+      <c r="JD320" s="17"/>
+      <c r="JE320" s="17"/>
+      <c r="JF320" s="17"/>
+      <c r="JG320" s="17"/>
+      <c r="JH320" s="17"/>
+      <c r="JI320" s="17"/>
+      <c r="JJ320" s="17"/>
+      <c r="JK320" s="17"/>
+      <c r="JL320" s="17"/>
+      <c r="JM320" s="17"/>
+      <c r="JN320" s="17"/>
+      <c r="JO320" s="17"/>
+      <c r="JP320" s="17"/>
+      <c r="JQ320" s="17"/>
+      <c r="JR320" s="17"/>
+      <c r="JS320" s="17"/>
+      <c r="JT320" s="17"/>
+      <c r="JU320" s="17"/>
+      <c r="JV320" s="17"/>
+      <c r="JW320" s="17"/>
+      <c r="JX320" s="17"/>
+      <c r="JY320" s="17"/>
+      <c r="JZ320" s="17"/>
+      <c r="KA320" s="17"/>
+      <c r="KB320" s="17"/>
+      <c r="KC320" s="17"/>
+      <c r="KD320" s="17"/>
+      <c r="KE320" s="17"/>
+      <c r="KF320" s="17"/>
+      <c r="KG320" s="17"/>
+      <c r="KH320" s="17"/>
+      <c r="KI320" s="17"/>
+      <c r="KJ320" s="17"/>
+      <c r="KK320" s="17"/>
+      <c r="KL320" s="17"/>
+      <c r="KM320" s="17"/>
+      <c r="KN320" s="17"/>
+      <c r="KO320" s="17"/>
+      <c r="KP320" s="17"/>
+      <c r="KQ320" s="17"/>
+      <c r="KR320" s="17"/>
+      <c r="KS320" s="17"/>
+      <c r="KT320" s="17"/>
+      <c r="KU320" s="17"/>
+      <c r="KV320" s="17"/>
+      <c r="KW320" s="17"/>
+      <c r="KX320" s="17"/>
+      <c r="KY320" s="17"/>
+      <c r="KZ320" s="17"/>
+      <c r="LA320" s="17"/>
+      <c r="LB320" s="17"/>
+      <c r="LC320" s="17"/>
+      <c r="LD320" s="17"/>
+      <c r="LE320" s="17"/>
+      <c r="LF320" s="17"/>
+      <c r="LG320" s="17"/>
+      <c r="LH320" s="17"/>
+      <c r="LI320" s="17"/>
+      <c r="LJ320" s="17"/>
+      <c r="LK320" s="17"/>
+      <c r="LL320" s="17"/>
+      <c r="LM320" s="17"/>
+      <c r="LN320" s="17"/>
+      <c r="LO320" s="17"/>
+      <c r="LP320" s="17"/>
+      <c r="LQ320" s="17"/>
+      <c r="LR320" s="17"/>
+      <c r="LS320" s="17"/>
+      <c r="LT320" s="17"/>
+      <c r="LU320" s="17"/>
+      <c r="LV320" s="17"/>
+      <c r="LW320" s="17"/>
+      <c r="LX320" s="17"/>
+      <c r="LY320" s="17"/>
+      <c r="LZ320" s="17"/>
+      <c r="MA320" s="17"/>
+      <c r="MB320" s="17"/>
+      <c r="MC320" s="17"/>
+      <c r="MD320" s="17"/>
+      <c r="ME320" s="17"/>
+      <c r="MF320" s="17"/>
+      <c r="MG320" s="17"/>
+      <c r="MH320" s="17"/>
+      <c r="MI320" s="17"/>
+      <c r="MJ320" s="17"/>
+      <c r="MK320" s="17"/>
+      <c r="ML320" s="17"/>
+      <c r="MM320" s="17"/>
+      <c r="MN320" s="17"/>
+      <c r="MO320" s="17"/>
+      <c r="MP320" s="17"/>
+      <c r="MQ320" s="17"/>
+      <c r="MR320" s="17"/>
+      <c r="MS320" s="17"/>
+      <c r="MT320" s="17"/>
+      <c r="MU320" s="17"/>
+      <c r="MV320" s="17"/>
+      <c r="MW320" s="17"/>
+      <c r="MX320" s="17"/>
+      <c r="MY320" s="17"/>
+      <c r="MZ320" s="17"/>
+      <c r="NA320" s="17"/>
+      <c r="NB320" s="17"/>
+      <c r="NC320" s="17"/>
+      <c r="ND320" s="17"/>
+      <c r="NE320" s="17"/>
+      <c r="NF320" s="17"/>
+      <c r="NG320" s="17"/>
+      <c r="NH320" s="17"/>
+      <c r="NI320" s="17"/>
+      <c r="NJ320" s="17"/>
+      <c r="NK320" s="17"/>
+      <c r="NL320" s="17"/>
+      <c r="NM320" s="17"/>
+      <c r="NN320" s="17"/>
+      <c r="NO320" s="17"/>
+      <c r="NP320" s="17"/>
+      <c r="NQ320" s="17"/>
+      <c r="NR320" s="17"/>
+      <c r="NS320" s="17"/>
+      <c r="NT320" s="17"/>
+      <c r="NU320" s="17"/>
+      <c r="NV320" s="17"/>
+      <c r="NW320" s="17"/>
+      <c r="NX320" s="17"/>
+      <c r="NY320" s="17"/>
+      <c r="NZ320" s="17"/>
+      <c r="OA320" s="17"/>
+      <c r="OB320" s="17"/>
+      <c r="OC320" s="17"/>
+      <c r="OD320" s="17"/>
+      <c r="OE320" s="17"/>
+      <c r="OF320" s="17"/>
+      <c r="OG320" s="17"/>
+      <c r="OH320" s="17"/>
+      <c r="OI320" s="17"/>
+      <c r="OJ320" s="17"/>
+      <c r="OK320" s="17"/>
+      <c r="OL320" s="17"/>
+      <c r="OM320" s="17"/>
+      <c r="ON320" s="17"/>
+      <c r="OO320" s="17"/>
+      <c r="OP320" s="17"/>
+      <c r="OQ320" s="17"/>
+      <c r="OR320" s="17"/>
+      <c r="OS320" s="17"/>
+      <c r="OT320" s="17"/>
+      <c r="OU320" s="17"/>
+      <c r="OV320" s="17"/>
+      <c r="OW320" s="17"/>
+      <c r="OX320" s="17"/>
+      <c r="OY320" s="17"/>
+      <c r="OZ320" s="17"/>
+      <c r="PA320" s="17"/>
+      <c r="PB320" s="17"/>
+      <c r="PC320" s="17"/>
+      <c r="PD320" s="17"/>
+      <c r="PE320" s="17"/>
+      <c r="PF320" s="17"/>
+      <c r="PG320" s="17"/>
+      <c r="PH320" s="17"/>
+      <c r="PI320" s="17"/>
+      <c r="PJ320" s="17"/>
+      <c r="PK320" s="17"/>
+      <c r="PL320" s="17"/>
+      <c r="PM320" s="17"/>
+      <c r="PN320" s="17"/>
+      <c r="PO320" s="17"/>
+      <c r="PP320" s="17"/>
+      <c r="PQ320" s="17"/>
+      <c r="PR320" s="17"/>
+      <c r="PS320" s="17"/>
+      <c r="PT320" s="17"/>
+      <c r="PU320" s="17"/>
+      <c r="PV320" s="17"/>
+      <c r="PW320" s="17"/>
+      <c r="PX320" s="17"/>
+      <c r="PY320" s="17"/>
+      <c r="PZ320" s="17"/>
+      <c r="QA320" s="17"/>
+      <c r="QB320" s="17"/>
+      <c r="QC320" s="17"/>
+      <c r="QD320" s="17"/>
+      <c r="QE320" s="17"/>
+      <c r="QF320" s="17"/>
+    </row>
+    <row r="321" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A321" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="D321" s="9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="322" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A322" s="17"/>
+      <c r="B322" s="17"/>
+      <c r="C322" s="17"/>
+      <c r="D322" s="17"/>
+      <c r="E322" s="17"/>
+      <c r="F322" s="17"/>
+      <c r="G322" s="17"/>
+      <c r="H322" s="17"/>
+      <c r="I322" s="17"/>
+      <c r="J322" s="17"/>
+      <c r="K322" s="17"/>
+      <c r="L322" s="17"/>
+      <c r="M322" s="17"/>
+      <c r="N322" s="17"/>
+      <c r="O322" s="17"/>
+      <c r="P322" s="17"/>
+      <c r="Q322" s="17"/>
+      <c r="R322" s="17"/>
+      <c r="S322" s="17"/>
+      <c r="T322" s="17"/>
+      <c r="U322" s="17"/>
+      <c r="V322" s="17"/>
+      <c r="W322" s="17"/>
+      <c r="X322" s="17"/>
+      <c r="Y322" s="17"/>
+      <c r="Z322" s="17"/>
+      <c r="AA322" s="17"/>
+      <c r="AB322" s="17"/>
+      <c r="AC322" s="17"/>
+      <c r="AD322" s="17"/>
+      <c r="AE322" s="17"/>
+      <c r="AF322" s="17"/>
+      <c r="AG322" s="17"/>
+      <c r="AH322" s="17"/>
+      <c r="AI322" s="17"/>
+      <c r="AJ322" s="17"/>
+      <c r="AK322" s="17"/>
+      <c r="AL322" s="17"/>
+      <c r="AM322" s="17"/>
+      <c r="AN322" s="17"/>
+      <c r="AO322" s="17"/>
+      <c r="AP322" s="17"/>
+      <c r="AQ322" s="17"/>
+      <c r="AR322" s="17"/>
+      <c r="AS322" s="17"/>
+      <c r="AT322" s="17"/>
+      <c r="AU322" s="17"/>
+      <c r="AV322" s="17"/>
+      <c r="AW322" s="17"/>
+      <c r="AX322" s="17"/>
+      <c r="AY322" s="17"/>
+      <c r="AZ322" s="17"/>
+      <c r="BA322" s="17"/>
+      <c r="BB322" s="17"/>
+      <c r="BC322" s="17"/>
+      <c r="BD322" s="17"/>
+      <c r="BE322" s="17"/>
+      <c r="BF322" s="17"/>
+      <c r="BG322" s="17"/>
+      <c r="BH322" s="17"/>
+      <c r="BI322" s="17"/>
+      <c r="BJ322" s="17"/>
+      <c r="BK322" s="17"/>
+      <c r="BL322" s="17"/>
+      <c r="BM322" s="17"/>
+      <c r="BN322" s="17"/>
+      <c r="BO322" s="17"/>
+      <c r="BP322" s="17"/>
+      <c r="BQ322" s="17"/>
+      <c r="BR322" s="17"/>
+      <c r="BS322" s="17"/>
+      <c r="BT322" s="17"/>
+      <c r="BU322" s="17"/>
+      <c r="BV322" s="17"/>
+      <c r="BW322" s="17"/>
+      <c r="BX322" s="17"/>
+      <c r="BY322" s="17"/>
+      <c r="BZ322" s="17"/>
+      <c r="CA322" s="17"/>
+      <c r="CB322" s="17"/>
+      <c r="CC322" s="17"/>
+      <c r="CD322" s="17"/>
+      <c r="CE322" s="17"/>
+      <c r="CF322" s="17"/>
+      <c r="CG322" s="17"/>
+      <c r="CH322" s="17"/>
+      <c r="CI322" s="17"/>
+      <c r="CJ322" s="17"/>
+      <c r="CK322" s="17"/>
+      <c r="CL322" s="17"/>
+      <c r="CM322" s="17"/>
+      <c r="CN322" s="17"/>
+      <c r="CO322" s="17"/>
+      <c r="CP322" s="17"/>
+      <c r="CQ322" s="17"/>
+      <c r="CR322" s="17"/>
+      <c r="CS322" s="17"/>
+      <c r="CT322" s="17"/>
+      <c r="CU322" s="17"/>
+      <c r="CV322" s="17"/>
+      <c r="CW322" s="17"/>
+      <c r="CX322" s="17"/>
+      <c r="CY322" s="17"/>
+      <c r="CZ322" s="17"/>
+      <c r="DA322" s="17"/>
+      <c r="DB322" s="17"/>
+      <c r="DC322" s="17"/>
+      <c r="DD322" s="17"/>
+      <c r="DE322" s="17"/>
+      <c r="DF322" s="17"/>
+      <c r="DG322" s="17"/>
+      <c r="DH322" s="17"/>
+      <c r="DI322" s="17"/>
+      <c r="DJ322" s="17"/>
+      <c r="DK322" s="17"/>
+      <c r="DL322" s="17"/>
+      <c r="DM322" s="17"/>
+      <c r="DN322" s="17"/>
+      <c r="DO322" s="17"/>
+      <c r="DP322" s="17"/>
+      <c r="DQ322" s="17"/>
+      <c r="DR322" s="17"/>
+      <c r="DS322" s="17"/>
+      <c r="DT322" s="17"/>
+      <c r="DU322" s="17"/>
+      <c r="DV322" s="17"/>
+      <c r="DW322" s="17"/>
+      <c r="DX322" s="17"/>
+      <c r="DY322" s="17"/>
+      <c r="DZ322" s="17"/>
+      <c r="EA322" s="17"/>
+      <c r="EB322" s="17"/>
+      <c r="EC322" s="17"/>
+      <c r="ED322" s="17"/>
+      <c r="EE322" s="17"/>
+      <c r="EF322" s="17"/>
+      <c r="EG322" s="17"/>
+      <c r="EH322" s="17"/>
+      <c r="EI322" s="17"/>
+      <c r="EJ322" s="17"/>
+      <c r="EK322" s="17"/>
+      <c r="EL322" s="17"/>
+      <c r="EM322" s="17"/>
+      <c r="EN322" s="17"/>
+      <c r="EO322" s="17"/>
+      <c r="EP322" s="17"/>
+      <c r="EQ322" s="17"/>
+      <c r="ER322" s="17"/>
+      <c r="ES322" s="17"/>
+      <c r="ET322" s="17"/>
+      <c r="EU322" s="17"/>
+      <c r="EV322" s="17"/>
+      <c r="EW322" s="17"/>
+      <c r="EX322" s="17"/>
+      <c r="EY322" s="17"/>
+      <c r="EZ322" s="17"/>
+      <c r="FA322" s="17"/>
+      <c r="FB322" s="17"/>
+      <c r="FC322" s="17"/>
+      <c r="FD322" s="17"/>
+      <c r="FE322" s="17"/>
+      <c r="FF322" s="17"/>
+      <c r="FG322" s="17"/>
+      <c r="FH322" s="17"/>
+      <c r="FI322" s="17"/>
+      <c r="FJ322" s="17"/>
+      <c r="FK322" s="17"/>
+      <c r="FL322" s="17"/>
+      <c r="FM322" s="17"/>
+      <c r="FN322" s="17"/>
+      <c r="FO322" s="17"/>
+      <c r="FP322" s="17"/>
+      <c r="FQ322" s="17"/>
+      <c r="FR322" s="17"/>
+      <c r="FS322" s="17"/>
+      <c r="FT322" s="17"/>
+      <c r="FU322" s="17"/>
+      <c r="FV322" s="17"/>
+      <c r="FW322" s="17"/>
+      <c r="FX322" s="17"/>
+      <c r="FY322" s="17"/>
+      <c r="FZ322" s="17"/>
+      <c r="GA322" s="17"/>
+      <c r="GB322" s="17"/>
+      <c r="GC322" s="17"/>
+      <c r="GD322" s="17"/>
+      <c r="GE322" s="17"/>
+      <c r="GF322" s="17"/>
+      <c r="GG322" s="17"/>
+      <c r="GH322" s="17"/>
+      <c r="GI322" s="17"/>
+      <c r="GJ322" s="17"/>
+      <c r="GK322" s="17"/>
+      <c r="GL322" s="17"/>
+      <c r="GM322" s="17"/>
+      <c r="GN322" s="17"/>
+      <c r="GO322" s="17"/>
+      <c r="GP322" s="17"/>
+      <c r="GQ322" s="17"/>
+      <c r="GR322" s="17"/>
+      <c r="GS322" s="17"/>
+      <c r="GT322" s="17"/>
+      <c r="GU322" s="17"/>
+      <c r="GV322" s="17"/>
+      <c r="GW322" s="17"/>
+      <c r="GX322" s="17"/>
+      <c r="GY322" s="17"/>
+      <c r="GZ322" s="17"/>
+      <c r="HA322" s="17"/>
+      <c r="HB322" s="17"/>
+      <c r="HC322" s="17"/>
+      <c r="HD322" s="17"/>
+      <c r="HE322" s="17"/>
+      <c r="HF322" s="17"/>
+      <c r="HG322" s="17"/>
+      <c r="HH322" s="17"/>
+      <c r="HI322" s="17"/>
+      <c r="HJ322" s="17"/>
+      <c r="HK322" s="17"/>
+      <c r="HL322" s="17"/>
+      <c r="HM322" s="17"/>
+      <c r="HN322" s="17"/>
+      <c r="HO322" s="17"/>
+      <c r="HP322" s="17"/>
+      <c r="HQ322" s="17"/>
+      <c r="HR322" s="17"/>
+      <c r="HS322" s="17"/>
+      <c r="HT322" s="17"/>
+      <c r="HU322" s="17"/>
+      <c r="HV322" s="17"/>
+      <c r="HW322" s="17"/>
+      <c r="HX322" s="17"/>
+      <c r="HY322" s="17"/>
+      <c r="HZ322" s="17"/>
+      <c r="IA322" s="17"/>
+      <c r="IB322" s="17"/>
+      <c r="IC322" s="17"/>
+      <c r="ID322" s="17"/>
+      <c r="IE322" s="17"/>
+      <c r="IF322" s="17"/>
+      <c r="IG322" s="17"/>
+      <c r="IH322" s="17"/>
+      <c r="II322" s="17"/>
+      <c r="IJ322" s="17"/>
+      <c r="IK322" s="17"/>
+      <c r="IL322" s="17"/>
+      <c r="IM322" s="17"/>
+      <c r="IN322" s="17"/>
+      <c r="IO322" s="17"/>
+      <c r="IP322" s="17"/>
+      <c r="IQ322" s="17"/>
+      <c r="IR322" s="17"/>
+      <c r="IS322" s="17"/>
+      <c r="IT322" s="17"/>
+      <c r="IU322" s="17"/>
+      <c r="IV322" s="17"/>
+      <c r="IW322" s="17"/>
+      <c r="IX322" s="17"/>
+      <c r="IY322" s="17"/>
+      <c r="IZ322" s="17"/>
+      <c r="JA322" s="17"/>
+      <c r="JB322" s="17"/>
+      <c r="JC322" s="17"/>
+      <c r="JD322" s="17"/>
+      <c r="JE322" s="17"/>
+      <c r="JF322" s="17"/>
+      <c r="JG322" s="17"/>
+      <c r="JH322" s="17"/>
+      <c r="JI322" s="17"/>
+      <c r="JJ322" s="17"/>
+      <c r="JK322" s="17"/>
+      <c r="JL322" s="17"/>
+      <c r="JM322" s="17"/>
+      <c r="JN322" s="17"/>
+      <c r="JO322" s="17"/>
+      <c r="JP322" s="17"/>
+      <c r="JQ322" s="17"/>
+      <c r="JR322" s="17"/>
+      <c r="JS322" s="17"/>
+      <c r="JT322" s="17"/>
+      <c r="JU322" s="17"/>
+      <c r="JV322" s="17"/>
+      <c r="JW322" s="17"/>
+      <c r="JX322" s="17"/>
+      <c r="JY322" s="17"/>
+      <c r="JZ322" s="17"/>
+      <c r="KA322" s="17"/>
+      <c r="KB322" s="17"/>
+      <c r="KC322" s="17"/>
+      <c r="KD322" s="17"/>
+      <c r="KE322" s="17"/>
+      <c r="KF322" s="17"/>
+      <c r="KG322" s="17"/>
+      <c r="KH322" s="17"/>
+      <c r="KI322" s="17"/>
+      <c r="KJ322" s="17"/>
+      <c r="KK322" s="17"/>
+      <c r="KL322" s="17"/>
+      <c r="KM322" s="17"/>
+      <c r="KN322" s="17"/>
+      <c r="KO322" s="17"/>
+      <c r="KP322" s="17"/>
+      <c r="KQ322" s="17"/>
+      <c r="KR322" s="17"/>
+      <c r="KS322" s="17"/>
+      <c r="KT322" s="17"/>
+      <c r="KU322" s="17"/>
+      <c r="KV322" s="17"/>
+      <c r="KW322" s="17"/>
+      <c r="KX322" s="17"/>
+      <c r="KY322" s="17"/>
+      <c r="KZ322" s="17"/>
+      <c r="LA322" s="17"/>
+      <c r="LB322" s="17"/>
+      <c r="LC322" s="17"/>
+      <c r="LD322" s="17"/>
+      <c r="LE322" s="17"/>
+      <c r="LF322" s="17"/>
+      <c r="LG322" s="17"/>
+      <c r="LH322" s="17"/>
+      <c r="LI322" s="17"/>
+      <c r="LJ322" s="17"/>
+      <c r="LK322" s="17"/>
+      <c r="LL322" s="17"/>
+      <c r="LM322" s="17"/>
+      <c r="LN322" s="17"/>
+      <c r="LO322" s="17"/>
+      <c r="LP322" s="17"/>
+      <c r="LQ322" s="17"/>
+      <c r="LR322" s="17"/>
+      <c r="LS322" s="17"/>
+      <c r="LT322" s="17"/>
+      <c r="LU322" s="17"/>
+      <c r="LV322" s="17"/>
+      <c r="LW322" s="17"/>
+      <c r="LX322" s="17"/>
+      <c r="LY322" s="17"/>
+      <c r="LZ322" s="17"/>
+      <c r="MA322" s="17"/>
+      <c r="MB322" s="17"/>
+      <c r="MC322" s="17"/>
+      <c r="MD322" s="17"/>
+      <c r="ME322" s="17"/>
+      <c r="MF322" s="17"/>
+      <c r="MG322" s="17"/>
+      <c r="MH322" s="17"/>
+      <c r="MI322" s="17"/>
+      <c r="MJ322" s="17"/>
+      <c r="MK322" s="17"/>
+      <c r="ML322" s="17"/>
+      <c r="MM322" s="17"/>
+      <c r="MN322" s="17"/>
+      <c r="MO322" s="17"/>
+      <c r="MP322" s="17"/>
+      <c r="MQ322" s="17"/>
+      <c r="MR322" s="17"/>
+      <c r="MS322" s="17"/>
+      <c r="MT322" s="17"/>
+      <c r="MU322" s="17"/>
+      <c r="MV322" s="17"/>
+      <c r="MW322" s="17"/>
+      <c r="MX322" s="17"/>
+      <c r="MY322" s="17"/>
+      <c r="MZ322" s="17"/>
+      <c r="NA322" s="17"/>
+      <c r="NB322" s="17"/>
+      <c r="NC322" s="17"/>
+      <c r="ND322" s="17"/>
+      <c r="NE322" s="17"/>
+      <c r="NF322" s="17"/>
+      <c r="NG322" s="17"/>
+      <c r="NH322" s="17"/>
+      <c r="NI322" s="17"/>
+      <c r="NJ322" s="17"/>
+      <c r="NK322" s="17"/>
+      <c r="NL322" s="17"/>
+      <c r="NM322" s="17"/>
+      <c r="NN322" s="17"/>
+      <c r="NO322" s="17"/>
+      <c r="NP322" s="17"/>
+      <c r="NQ322" s="17"/>
+      <c r="NR322" s="17"/>
+      <c r="NS322" s="17"/>
+      <c r="NT322" s="17"/>
+      <c r="NU322" s="17"/>
+      <c r="NV322" s="17"/>
+      <c r="NW322" s="17"/>
+      <c r="NX322" s="17"/>
+      <c r="NY322" s="17"/>
+      <c r="NZ322" s="17"/>
+      <c r="OA322" s="17"/>
+      <c r="OB322" s="17"/>
+      <c r="OC322" s="17"/>
+      <c r="OD322" s="17"/>
+      <c r="OE322" s="17"/>
+      <c r="OF322" s="17"/>
+      <c r="OG322" s="17"/>
+      <c r="OH322" s="17"/>
+      <c r="OI322" s="17"/>
+      <c r="OJ322" s="17"/>
+      <c r="OK322" s="17"/>
+      <c r="OL322" s="17"/>
+      <c r="OM322" s="17"/>
+      <c r="ON322" s="17"/>
+      <c r="OO322" s="17"/>
+      <c r="OP322" s="17"/>
+      <c r="OQ322" s="17"/>
+      <c r="OR322" s="17"/>
+      <c r="OS322" s="17"/>
+      <c r="OT322" s="17"/>
+      <c r="OU322" s="17"/>
+      <c r="OV322" s="17"/>
+      <c r="OW322" s="17"/>
+      <c r="OX322" s="17"/>
+      <c r="OY322" s="17"/>
+      <c r="OZ322" s="17"/>
+      <c r="PA322" s="17"/>
+      <c r="PB322" s="17"/>
+      <c r="PC322" s="17"/>
+      <c r="PD322" s="17"/>
+      <c r="PE322" s="17"/>
+      <c r="PF322" s="17"/>
+      <c r="PG322" s="17"/>
+      <c r="PH322" s="17"/>
+      <c r="PI322" s="17"/>
+      <c r="PJ322" s="17"/>
+      <c r="PK322" s="17"/>
+      <c r="PL322" s="17"/>
+      <c r="PM322" s="17"/>
+      <c r="PN322" s="17"/>
+      <c r="PO322" s="17"/>
+      <c r="PP322" s="17"/>
+      <c r="PQ322" s="17"/>
+      <c r="PR322" s="17"/>
+      <c r="PS322" s="17"/>
+      <c r="PT322" s="17"/>
+      <c r="PU322" s="17"/>
+      <c r="PV322" s="17"/>
+      <c r="PW322" s="17"/>
+      <c r="PX322" s="17"/>
+      <c r="PY322" s="17"/>
+      <c r="PZ322" s="17"/>
+      <c r="QA322" s="17"/>
+      <c r="QB322" s="17"/>
+      <c r="QC322" s="17"/>
+      <c r="QD322" s="17"/>
+      <c r="QE322" s="17"/>
+      <c r="QF322" s="17"/>
+    </row>
+    <row r="323" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A323" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="B323" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="D323" s="9" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="324" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A324" s="17"/>
+      <c r="B324" s="17"/>
+      <c r="C324" s="17"/>
+      <c r="D324" s="17"/>
+      <c r="E324" s="17"/>
+      <c r="F324" s="17"/>
+      <c r="G324" s="17"/>
+      <c r="H324" s="17"/>
+      <c r="I324" s="17"/>
+      <c r="J324" s="17"/>
+      <c r="K324" s="17"/>
+      <c r="L324" s="17"/>
+      <c r="M324" s="17"/>
+      <c r="N324" s="17"/>
+      <c r="O324" s="17"/>
+      <c r="P324" s="17"/>
+      <c r="Q324" s="17"/>
+      <c r="R324" s="17"/>
+      <c r="S324" s="17"/>
+      <c r="T324" s="17"/>
+      <c r="U324" s="17"/>
+      <c r="V324" s="17"/>
+      <c r="W324" s="17"/>
+      <c r="X324" s="17"/>
+      <c r="Y324" s="17"/>
+      <c r="Z324" s="17"/>
+      <c r="AA324" s="17"/>
+      <c r="AB324" s="17"/>
+      <c r="AC324" s="17"/>
+      <c r="AD324" s="17"/>
+      <c r="AE324" s="17"/>
+      <c r="AF324" s="17"/>
+      <c r="AG324" s="17"/>
+      <c r="AH324" s="17"/>
+      <c r="AI324" s="17"/>
+      <c r="AJ324" s="17"/>
+      <c r="AK324" s="17"/>
+      <c r="AL324" s="17"/>
+      <c r="AM324" s="17"/>
+      <c r="AN324" s="17"/>
+      <c r="AO324" s="17"/>
+      <c r="AP324" s="17"/>
+      <c r="AQ324" s="17"/>
+      <c r="AR324" s="17"/>
+      <c r="AS324" s="17"/>
+      <c r="AT324" s="17"/>
+      <c r="AU324" s="17"/>
+      <c r="AV324" s="17"/>
+      <c r="AW324" s="17"/>
+      <c r="AX324" s="17"/>
+      <c r="AY324" s="17"/>
+      <c r="AZ324" s="17"/>
+      <c r="BA324" s="17"/>
+      <c r="BB324" s="17"/>
+      <c r="BC324" s="17"/>
+      <c r="BD324" s="17"/>
+      <c r="BE324" s="17"/>
+      <c r="BF324" s="17"/>
+      <c r="BG324" s="17"/>
+      <c r="BH324" s="17"/>
+      <c r="BI324" s="17"/>
+      <c r="BJ324" s="17"/>
+      <c r="BK324" s="17"/>
+      <c r="BL324" s="17"/>
+      <c r="BM324" s="17"/>
+      <c r="BN324" s="17"/>
+      <c r="BO324" s="17"/>
+      <c r="BP324" s="17"/>
+      <c r="BQ324" s="17"/>
+      <c r="BR324" s="17"/>
+      <c r="BS324" s="17"/>
+      <c r="BT324" s="17"/>
+      <c r="BU324" s="17"/>
+      <c r="BV324" s="17"/>
+      <c r="BW324" s="17"/>
+      <c r="BX324" s="17"/>
+      <c r="BY324" s="17"/>
+      <c r="BZ324" s="17"/>
+      <c r="CA324" s="17"/>
+      <c r="CB324" s="17"/>
+      <c r="CC324" s="17"/>
+      <c r="CD324" s="17"/>
+      <c r="CE324" s="17"/>
+      <c r="CF324" s="17"/>
+      <c r="CG324" s="17"/>
+      <c r="CH324" s="17"/>
+      <c r="CI324" s="17"/>
+      <c r="CJ324" s="17"/>
+      <c r="CK324" s="17"/>
+      <c r="CL324" s="17"/>
+      <c r="CM324" s="17"/>
+      <c r="CN324" s="17"/>
+      <c r="CO324" s="17"/>
+      <c r="CP324" s="17"/>
+      <c r="CQ324" s="17"/>
+      <c r="CR324" s="17"/>
+      <c r="CS324" s="17"/>
+      <c r="CT324" s="17"/>
+      <c r="CU324" s="17"/>
+      <c r="CV324" s="17"/>
+      <c r="CW324" s="17"/>
+      <c r="CX324" s="17"/>
+      <c r="CY324" s="17"/>
+      <c r="CZ324" s="17"/>
+      <c r="DA324" s="17"/>
+      <c r="DB324" s="17"/>
+      <c r="DC324" s="17"/>
+      <c r="DD324" s="17"/>
+      <c r="DE324" s="17"/>
+      <c r="DF324" s="17"/>
+      <c r="DG324" s="17"/>
+      <c r="DH324" s="17"/>
+      <c r="DI324" s="17"/>
+      <c r="DJ324" s="17"/>
+      <c r="DK324" s="17"/>
+      <c r="DL324" s="17"/>
+      <c r="DM324" s="17"/>
+      <c r="DN324" s="17"/>
+      <c r="DO324" s="17"/>
+      <c r="DP324" s="17"/>
+      <c r="DQ324" s="17"/>
+      <c r="DR324" s="17"/>
+      <c r="DS324" s="17"/>
+      <c r="DT324" s="17"/>
+      <c r="DU324" s="17"/>
+      <c r="DV324" s="17"/>
+      <c r="DW324" s="17"/>
+      <c r="DX324" s="17"/>
+      <c r="DY324" s="17"/>
+      <c r="DZ324" s="17"/>
+      <c r="EA324" s="17"/>
+      <c r="EB324" s="17"/>
+      <c r="EC324" s="17"/>
+      <c r="ED324" s="17"/>
+      <c r="EE324" s="17"/>
+      <c r="EF324" s="17"/>
+      <c r="EG324" s="17"/>
+      <c r="EH324" s="17"/>
+      <c r="EI324" s="17"/>
+      <c r="EJ324" s="17"/>
+      <c r="EK324" s="17"/>
+      <c r="EL324" s="17"/>
+      <c r="EM324" s="17"/>
+      <c r="EN324" s="17"/>
+      <c r="EO324" s="17"/>
+      <c r="EP324" s="17"/>
+      <c r="EQ324" s="17"/>
+      <c r="ER324" s="17"/>
+      <c r="ES324" s="17"/>
+      <c r="ET324" s="17"/>
+      <c r="EU324" s="17"/>
+      <c r="EV324" s="17"/>
+      <c r="EW324" s="17"/>
+      <c r="EX324" s="17"/>
+      <c r="EY324" s="17"/>
+      <c r="EZ324" s="17"/>
+      <c r="FA324" s="17"/>
+      <c r="FB324" s="17"/>
+      <c r="FC324" s="17"/>
+      <c r="FD324" s="17"/>
+      <c r="FE324" s="17"/>
+      <c r="FF324" s="17"/>
+      <c r="FG324" s="17"/>
+      <c r="FH324" s="17"/>
+      <c r="FI324" s="17"/>
+      <c r="FJ324" s="17"/>
+      <c r="FK324" s="17"/>
+      <c r="FL324" s="17"/>
+      <c r="FM324" s="17"/>
+      <c r="FN324" s="17"/>
+      <c r="FO324" s="17"/>
+      <c r="FP324" s="17"/>
+      <c r="FQ324" s="17"/>
+      <c r="FR324" s="17"/>
+      <c r="FS324" s="17"/>
+      <c r="FT324" s="17"/>
+      <c r="FU324" s="17"/>
+      <c r="FV324" s="17"/>
+      <c r="FW324" s="17"/>
+      <c r="FX324" s="17"/>
+      <c r="FY324" s="17"/>
+      <c r="FZ324" s="17"/>
+      <c r="GA324" s="17"/>
+      <c r="GB324" s="17"/>
+      <c r="GC324" s="17"/>
+      <c r="GD324" s="17"/>
+      <c r="GE324" s="17"/>
+      <c r="GF324" s="17"/>
+      <c r="GG324" s="17"/>
+      <c r="GH324" s="17"/>
+      <c r="GI324" s="17"/>
+      <c r="GJ324" s="17"/>
+      <c r="GK324" s="17"/>
+      <c r="GL324" s="17"/>
+      <c r="GM324" s="17"/>
+      <c r="GN324" s="17"/>
+      <c r="GO324" s="17"/>
+      <c r="GP324" s="17"/>
+      <c r="GQ324" s="17"/>
+      <c r="GR324" s="17"/>
+      <c r="GS324" s="17"/>
+      <c r="GT324" s="17"/>
+      <c r="GU324" s="17"/>
+      <c r="GV324" s="17"/>
+      <c r="GW324" s="17"/>
+      <c r="GX324" s="17"/>
+      <c r="GY324" s="17"/>
+      <c r="GZ324" s="17"/>
+      <c r="HA324" s="17"/>
+      <c r="HB324" s="17"/>
+      <c r="HC324" s="17"/>
+      <c r="HD324" s="17"/>
+      <c r="HE324" s="17"/>
+      <c r="HF324" s="17"/>
+      <c r="HG324" s="17"/>
+      <c r="HH324" s="17"/>
+      <c r="HI324" s="17"/>
+      <c r="HJ324" s="17"/>
+      <c r="HK324" s="17"/>
+      <c r="HL324" s="17"/>
+      <c r="HM324" s="17"/>
+      <c r="HN324" s="17"/>
+      <c r="HO324" s="17"/>
+      <c r="HP324" s="17"/>
+      <c r="HQ324" s="17"/>
+      <c r="HR324" s="17"/>
+      <c r="HS324" s="17"/>
+      <c r="HT324" s="17"/>
+      <c r="HU324" s="17"/>
+      <c r="HV324" s="17"/>
+      <c r="HW324" s="17"/>
+      <c r="HX324" s="17"/>
+      <c r="HY324" s="17"/>
+      <c r="HZ324" s="17"/>
+      <c r="IA324" s="17"/>
+      <c r="IB324" s="17"/>
+      <c r="IC324" s="17"/>
+      <c r="ID324" s="17"/>
+      <c r="IE324" s="17"/>
+      <c r="IF324" s="17"/>
+      <c r="IG324" s="17"/>
+      <c r="IH324" s="17"/>
+      <c r="II324" s="17"/>
+      <c r="IJ324" s="17"/>
+      <c r="IK324" s="17"/>
+      <c r="IL324" s="17"/>
+      <c r="IM324" s="17"/>
+      <c r="IN324" s="17"/>
+      <c r="IO324" s="17"/>
+      <c r="IP324" s="17"/>
+      <c r="IQ324" s="17"/>
+      <c r="IR324" s="17"/>
+      <c r="IS324" s="17"/>
+      <c r="IT324" s="17"/>
+      <c r="IU324" s="17"/>
+      <c r="IV324" s="17"/>
+      <c r="IW324" s="17"/>
+      <c r="IX324" s="17"/>
+      <c r="IY324" s="17"/>
+      <c r="IZ324" s="17"/>
+      <c r="JA324" s="17"/>
+      <c r="JB324" s="17"/>
+      <c r="JC324" s="17"/>
+      <c r="JD324" s="17"/>
+      <c r="JE324" s="17"/>
+      <c r="JF324" s="17"/>
+      <c r="JG324" s="17"/>
+      <c r="JH324" s="17"/>
+      <c r="JI324" s="17"/>
+      <c r="JJ324" s="17"/>
+      <c r="JK324" s="17"/>
+      <c r="JL324" s="17"/>
+      <c r="JM324" s="17"/>
+      <c r="JN324" s="17"/>
+      <c r="JO324" s="17"/>
+      <c r="JP324" s="17"/>
+      <c r="JQ324" s="17"/>
+      <c r="JR324" s="17"/>
+      <c r="JS324" s="17"/>
+      <c r="JT324" s="17"/>
+      <c r="JU324" s="17"/>
+      <c r="JV324" s="17"/>
+      <c r="JW324" s="17"/>
+      <c r="JX324" s="17"/>
+      <c r="JY324" s="17"/>
+      <c r="JZ324" s="17"/>
+      <c r="KA324" s="17"/>
+      <c r="KB324" s="17"/>
+      <c r="KC324" s="17"/>
+      <c r="KD324" s="17"/>
+      <c r="KE324" s="17"/>
+      <c r="KF324" s="17"/>
+      <c r="KG324" s="17"/>
+      <c r="KH324" s="17"/>
+      <c r="KI324" s="17"/>
+      <c r="KJ324" s="17"/>
+      <c r="KK324" s="17"/>
+      <c r="KL324" s="17"/>
+      <c r="KM324" s="17"/>
+      <c r="KN324" s="17"/>
+      <c r="KO324" s="17"/>
+      <c r="KP324" s="17"/>
+      <c r="KQ324" s="17"/>
+      <c r="KR324" s="17"/>
+      <c r="KS324" s="17"/>
+      <c r="KT324" s="17"/>
+      <c r="KU324" s="17"/>
+      <c r="KV324" s="17"/>
+      <c r="KW324" s="17"/>
+      <c r="KX324" s="17"/>
+      <c r="KY324" s="17"/>
+      <c r="KZ324" s="17"/>
+      <c r="LA324" s="17"/>
+      <c r="LB324" s="17"/>
+      <c r="LC324" s="17"/>
+      <c r="LD324" s="17"/>
+      <c r="LE324" s="17"/>
+      <c r="LF324" s="17"/>
+      <c r="LG324" s="17"/>
+      <c r="LH324" s="17"/>
+      <c r="LI324" s="17"/>
+      <c r="LJ324" s="17"/>
+      <c r="LK324" s="17"/>
+      <c r="LL324" s="17"/>
+      <c r="LM324" s="17"/>
+      <c r="LN324" s="17"/>
+      <c r="LO324" s="17"/>
+      <c r="LP324" s="17"/>
+      <c r="LQ324" s="17"/>
+      <c r="LR324" s="17"/>
+      <c r="LS324" s="17"/>
+      <c r="LT324" s="17"/>
+      <c r="LU324" s="17"/>
+      <c r="LV324" s="17"/>
+      <c r="LW324" s="17"/>
+      <c r="LX324" s="17"/>
+      <c r="LY324" s="17"/>
+      <c r="LZ324" s="17"/>
+      <c r="MA324" s="17"/>
+      <c r="MB324" s="17"/>
+      <c r="MC324" s="17"/>
+      <c r="MD324" s="17"/>
+      <c r="ME324" s="17"/>
+      <c r="MF324" s="17"/>
+      <c r="MG324" s="17"/>
+      <c r="MH324" s="17"/>
+      <c r="MI324" s="17"/>
+      <c r="MJ324" s="17"/>
+      <c r="MK324" s="17"/>
+      <c r="ML324" s="17"/>
+      <c r="MM324" s="17"/>
+      <c r="MN324" s="17"/>
+      <c r="MO324" s="17"/>
+      <c r="MP324" s="17"/>
+      <c r="MQ324" s="17"/>
+      <c r="MR324" s="17"/>
+      <c r="MS324" s="17"/>
+      <c r="MT324" s="17"/>
+      <c r="MU324" s="17"/>
+      <c r="MV324" s="17"/>
+      <c r="MW324" s="17"/>
+      <c r="MX324" s="17"/>
+      <c r="MY324" s="17"/>
+      <c r="MZ324" s="17"/>
+      <c r="NA324" s="17"/>
+      <c r="NB324" s="17"/>
+      <c r="NC324" s="17"/>
+      <c r="ND324" s="17"/>
+      <c r="NE324" s="17"/>
+      <c r="NF324" s="17"/>
+      <c r="NG324" s="17"/>
+      <c r="NH324" s="17"/>
+      <c r="NI324" s="17"/>
+      <c r="NJ324" s="17"/>
+      <c r="NK324" s="17"/>
+      <c r="NL324" s="17"/>
+      <c r="NM324" s="17"/>
+      <c r="NN324" s="17"/>
+      <c r="NO324" s="17"/>
+      <c r="NP324" s="17"/>
+      <c r="NQ324" s="17"/>
+      <c r="NR324" s="17"/>
+      <c r="NS324" s="17"/>
+      <c r="NT324" s="17"/>
+      <c r="NU324" s="17"/>
+      <c r="NV324" s="17"/>
+      <c r="NW324" s="17"/>
+      <c r="NX324" s="17"/>
+      <c r="NY324" s="17"/>
+      <c r="NZ324" s="17"/>
+      <c r="OA324" s="17"/>
+      <c r="OB324" s="17"/>
+      <c r="OC324" s="17"/>
+      <c r="OD324" s="17"/>
+      <c r="OE324" s="17"/>
+      <c r="OF324" s="17"/>
+      <c r="OG324" s="17"/>
+      <c r="OH324" s="17"/>
+      <c r="OI324" s="17"/>
+      <c r="OJ324" s="17"/>
+      <c r="OK324" s="17"/>
+      <c r="OL324" s="17"/>
+      <c r="OM324" s="17"/>
+      <c r="ON324" s="17"/>
+      <c r="OO324" s="17"/>
+      <c r="OP324" s="17"/>
+      <c r="OQ324" s="17"/>
+      <c r="OR324" s="17"/>
+      <c r="OS324" s="17"/>
+      <c r="OT324" s="17"/>
+      <c r="OU324" s="17"/>
+      <c r="OV324" s="17"/>
+      <c r="OW324" s="17"/>
+      <c r="OX324" s="17"/>
+      <c r="OY324" s="17"/>
+      <c r="OZ324" s="17"/>
+      <c r="PA324" s="17"/>
+      <c r="PB324" s="17"/>
+      <c r="PC324" s="17"/>
+      <c r="PD324" s="17"/>
+      <c r="PE324" s="17"/>
+      <c r="PF324" s="17"/>
+      <c r="PG324" s="17"/>
+      <c r="PH324" s="17"/>
+      <c r="PI324" s="17"/>
+      <c r="PJ324" s="17"/>
+      <c r="PK324" s="17"/>
+      <c r="PL324" s="17"/>
+      <c r="PM324" s="17"/>
+      <c r="PN324" s="17"/>
+      <c r="PO324" s="17"/>
+      <c r="PP324" s="17"/>
+      <c r="PQ324" s="17"/>
+      <c r="PR324" s="17"/>
+      <c r="PS324" s="17"/>
+      <c r="PT324" s="17"/>
+      <c r="PU324" s="17"/>
+      <c r="PV324" s="17"/>
+      <c r="PW324" s="17"/>
+      <c r="PX324" s="17"/>
+      <c r="PY324" s="17"/>
+      <c r="PZ324" s="17"/>
+      <c r="QA324" s="17"/>
+      <c r="QB324" s="17"/>
+      <c r="QC324" s="17"/>
+      <c r="QD324" s="17"/>
+      <c r="QE324" s="17"/>
+      <c r="QF324" s="17"/>
+    </row>
+    <row r="325" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A325" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="D325" s="9" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="326" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A326" s="17"/>
+      <c r="B326" s="17"/>
+      <c r="C326" s="17"/>
+      <c r="D326" s="17"/>
+      <c r="E326" s="17"/>
+      <c r="F326" s="17"/>
+      <c r="G326" s="17"/>
+      <c r="H326" s="17"/>
+      <c r="I326" s="17"/>
+      <c r="J326" s="17"/>
+      <c r="K326" s="17"/>
+      <c r="L326" s="17"/>
+      <c r="M326" s="17"/>
+      <c r="N326" s="17"/>
+      <c r="O326" s="17"/>
+      <c r="P326" s="17"/>
+      <c r="Q326" s="17"/>
+      <c r="R326" s="17"/>
+      <c r="S326" s="17"/>
+      <c r="T326" s="17"/>
+      <c r="U326" s="17"/>
+      <c r="V326" s="17"/>
+      <c r="W326" s="17"/>
+      <c r="X326" s="17"/>
+      <c r="Y326" s="17"/>
+      <c r="Z326" s="17"/>
+      <c r="AA326" s="17"/>
+      <c r="AB326" s="17"/>
+      <c r="AC326" s="17"/>
+      <c r="AD326" s="17"/>
+      <c r="AE326" s="17"/>
+      <c r="AF326" s="17"/>
+      <c r="AG326" s="17"/>
+      <c r="AH326" s="17"/>
+      <c r="AI326" s="17"/>
+      <c r="AJ326" s="17"/>
+      <c r="AK326" s="17"/>
+      <c r="AL326" s="17"/>
+      <c r="AM326" s="17"/>
+      <c r="AN326" s="17"/>
+      <c r="AO326" s="17"/>
+      <c r="AP326" s="17"/>
+      <c r="AQ326" s="17"/>
+      <c r="AR326" s="17"/>
+      <c r="AS326" s="17"/>
+      <c r="AT326" s="17"/>
+      <c r="AU326" s="17"/>
+      <c r="AV326" s="17"/>
+      <c r="AW326" s="17"/>
+      <c r="AX326" s="17"/>
+      <c r="AY326" s="17"/>
+      <c r="AZ326" s="17"/>
+      <c r="BA326" s="17"/>
+      <c r="BB326" s="17"/>
+      <c r="BC326" s="17"/>
+      <c r="BD326" s="17"/>
+      <c r="BE326" s="17"/>
+      <c r="BF326" s="17"/>
+      <c r="BG326" s="17"/>
+      <c r="BH326" s="17"/>
+      <c r="BI326" s="17"/>
+      <c r="BJ326" s="17"/>
+      <c r="BK326" s="17"/>
+      <c r="BL326" s="17"/>
+      <c r="BM326" s="17"/>
+      <c r="BN326" s="17"/>
+      <c r="BO326" s="17"/>
+      <c r="BP326" s="17"/>
+      <c r="BQ326" s="17"/>
+      <c r="BR326" s="17"/>
+      <c r="BS326" s="17"/>
+      <c r="BT326" s="17"/>
+      <c r="BU326" s="17"/>
+      <c r="BV326" s="17"/>
+      <c r="BW326" s="17"/>
+      <c r="BX326" s="17"/>
+      <c r="BY326" s="17"/>
+      <c r="BZ326" s="17"/>
+      <c r="CA326" s="17"/>
+      <c r="CB326" s="17"/>
+      <c r="CC326" s="17"/>
+      <c r="CD326" s="17"/>
+      <c r="CE326" s="17"/>
+      <c r="CF326" s="17"/>
+      <c r="CG326" s="17"/>
+      <c r="CH326" s="17"/>
+      <c r="CI326" s="17"/>
+      <c r="CJ326" s="17"/>
+      <c r="CK326" s="17"/>
+      <c r="CL326" s="17"/>
+      <c r="CM326" s="17"/>
+      <c r="CN326" s="17"/>
+      <c r="CO326" s="17"/>
+      <c r="CP326" s="17"/>
+      <c r="CQ326" s="17"/>
+      <c r="CR326" s="17"/>
+      <c r="CS326" s="17"/>
+      <c r="CT326" s="17"/>
+      <c r="CU326" s="17"/>
+      <c r="CV326" s="17"/>
+      <c r="CW326" s="17"/>
+      <c r="CX326" s="17"/>
+      <c r="CY326" s="17"/>
+      <c r="CZ326" s="17"/>
+      <c r="DA326" s="17"/>
+      <c r="DB326" s="17"/>
+      <c r="DC326" s="17"/>
+      <c r="DD326" s="17"/>
+      <c r="DE326" s="17"/>
+      <c r="DF326" s="17"/>
+      <c r="DG326" s="17"/>
+      <c r="DH326" s="17"/>
+      <c r="DI326" s="17"/>
+      <c r="DJ326" s="17"/>
+      <c r="DK326" s="17"/>
+      <c r="DL326" s="17"/>
+      <c r="DM326" s="17"/>
+      <c r="DN326" s="17"/>
+      <c r="DO326" s="17"/>
+      <c r="DP326" s="17"/>
+      <c r="DQ326" s="17"/>
+      <c r="DR326" s="17"/>
+      <c r="DS326" s="17"/>
+      <c r="DT326" s="17"/>
+      <c r="DU326" s="17"/>
+      <c r="DV326" s="17"/>
+      <c r="DW326" s="17"/>
+      <c r="DX326" s="17"/>
+      <c r="DY326" s="17"/>
+      <c r="DZ326" s="17"/>
+      <c r="EA326" s="17"/>
+      <c r="EB326" s="17"/>
+      <c r="EC326" s="17"/>
+      <c r="ED326" s="17"/>
+      <c r="EE326" s="17"/>
+      <c r="EF326" s="17"/>
+      <c r="EG326" s="17"/>
+      <c r="EH326" s="17"/>
+      <c r="EI326" s="17"/>
+      <c r="EJ326" s="17"/>
+      <c r="EK326" s="17"/>
+      <c r="EL326" s="17"/>
+      <c r="EM326" s="17"/>
+      <c r="EN326" s="17"/>
+      <c r="EO326" s="17"/>
+      <c r="EP326" s="17"/>
+      <c r="EQ326" s="17"/>
+      <c r="ER326" s="17"/>
+      <c r="ES326" s="17"/>
+      <c r="ET326" s="17"/>
+      <c r="EU326" s="17"/>
+      <c r="EV326" s="17"/>
+      <c r="EW326" s="17"/>
+      <c r="EX326" s="17"/>
+      <c r="EY326" s="17"/>
+      <c r="EZ326" s="17"/>
+      <c r="FA326" s="17"/>
+      <c r="FB326" s="17"/>
+      <c r="FC326" s="17"/>
+      <c r="FD326" s="17"/>
+      <c r="FE326" s="17"/>
+      <c r="FF326" s="17"/>
+      <c r="FG326" s="17"/>
+      <c r="FH326" s="17"/>
+      <c r="FI326" s="17"/>
+      <c r="FJ326" s="17"/>
+      <c r="FK326" s="17"/>
+      <c r="FL326" s="17"/>
+      <c r="FM326" s="17"/>
+      <c r="FN326" s="17"/>
+      <c r="FO326" s="17"/>
+      <c r="FP326" s="17"/>
+      <c r="FQ326" s="17"/>
+      <c r="FR326" s="17"/>
+      <c r="FS326" s="17"/>
+      <c r="FT326" s="17"/>
+      <c r="FU326" s="17"/>
+      <c r="FV326" s="17"/>
+      <c r="FW326" s="17"/>
+      <c r="FX326" s="17"/>
+      <c r="FY326" s="17"/>
+      <c r="FZ326" s="17"/>
+      <c r="GA326" s="17"/>
+      <c r="GB326" s="17"/>
+      <c r="GC326" s="17"/>
+      <c r="GD326" s="17"/>
+      <c r="GE326" s="17"/>
+      <c r="GF326" s="17"/>
+      <c r="GG326" s="17"/>
+      <c r="GH326" s="17"/>
+      <c r="GI326" s="17"/>
+      <c r="GJ326" s="17"/>
+      <c r="GK326" s="17"/>
+      <c r="GL326" s="17"/>
+      <c r="GM326" s="17"/>
+      <c r="GN326" s="17"/>
+      <c r="GO326" s="17"/>
+      <c r="GP326" s="17"/>
+      <c r="GQ326" s="17"/>
+      <c r="GR326" s="17"/>
+      <c r="GS326" s="17"/>
+      <c r="GT326" s="17"/>
+      <c r="GU326" s="17"/>
+      <c r="GV326" s="17"/>
+      <c r="GW326" s="17"/>
+      <c r="GX326" s="17"/>
+      <c r="GY326" s="17"/>
+      <c r="GZ326" s="17"/>
+      <c r="HA326" s="17"/>
+      <c r="HB326" s="17"/>
+      <c r="HC326" s="17"/>
+      <c r="HD326" s="17"/>
+      <c r="HE326" s="17"/>
+      <c r="HF326" s="17"/>
+      <c r="HG326" s="17"/>
+      <c r="HH326" s="17"/>
+      <c r="HI326" s="17"/>
+      <c r="HJ326" s="17"/>
+      <c r="HK326" s="17"/>
+      <c r="HL326" s="17"/>
+      <c r="HM326" s="17"/>
+      <c r="HN326" s="17"/>
+      <c r="HO326" s="17"/>
+      <c r="HP326" s="17"/>
+      <c r="HQ326" s="17"/>
+      <c r="HR326" s="17"/>
+      <c r="HS326" s="17"/>
+      <c r="HT326" s="17"/>
+      <c r="HU326" s="17"/>
+      <c r="HV326" s="17"/>
+      <c r="HW326" s="17"/>
+      <c r="HX326" s="17"/>
+      <c r="HY326" s="17"/>
+      <c r="HZ326" s="17"/>
+      <c r="IA326" s="17"/>
+      <c r="IB326" s="17"/>
+      <c r="IC326" s="17"/>
+      <c r="ID326" s="17"/>
+      <c r="IE326" s="17"/>
+      <c r="IF326" s="17"/>
+      <c r="IG326" s="17"/>
+      <c r="IH326" s="17"/>
+      <c r="II326" s="17"/>
+      <c r="IJ326" s="17"/>
+      <c r="IK326" s="17"/>
+      <c r="IL326" s="17"/>
+      <c r="IM326" s="17"/>
+      <c r="IN326" s="17"/>
+      <c r="IO326" s="17"/>
+      <c r="IP326" s="17"/>
+      <c r="IQ326" s="17"/>
+      <c r="IR326" s="17"/>
+      <c r="IS326" s="17"/>
+      <c r="IT326" s="17"/>
+      <c r="IU326" s="17"/>
+      <c r="IV326" s="17"/>
+      <c r="IW326" s="17"/>
+      <c r="IX326" s="17"/>
+      <c r="IY326" s="17"/>
+      <c r="IZ326" s="17"/>
+      <c r="JA326" s="17"/>
+      <c r="JB326" s="17"/>
+      <c r="JC326" s="17"/>
+      <c r="JD326" s="17"/>
+      <c r="JE326" s="17"/>
+      <c r="JF326" s="17"/>
+      <c r="JG326" s="17"/>
+      <c r="JH326" s="17"/>
+      <c r="JI326" s="17"/>
+      <c r="JJ326" s="17"/>
+      <c r="JK326" s="17"/>
+      <c r="JL326" s="17"/>
+      <c r="JM326" s="17"/>
+      <c r="JN326" s="17"/>
+      <c r="JO326" s="17"/>
+      <c r="JP326" s="17"/>
+      <c r="JQ326" s="17"/>
+      <c r="JR326" s="17"/>
+      <c r="JS326" s="17"/>
+      <c r="JT326" s="17"/>
+      <c r="JU326" s="17"/>
+      <c r="JV326" s="17"/>
+      <c r="JW326" s="17"/>
+      <c r="JX326" s="17"/>
+      <c r="JY326" s="17"/>
+      <c r="JZ326" s="17"/>
+      <c r="KA326" s="17"/>
+      <c r="KB326" s="17"/>
+      <c r="KC326" s="17"/>
+      <c r="KD326" s="17"/>
+      <c r="KE326" s="17"/>
+      <c r="KF326" s="17"/>
+      <c r="KG326" s="17"/>
+      <c r="KH326" s="17"/>
+      <c r="KI326" s="17"/>
+      <c r="KJ326" s="17"/>
+      <c r="KK326" s="17"/>
+      <c r="KL326" s="17"/>
+      <c r="KM326" s="17"/>
+      <c r="KN326" s="17"/>
+      <c r="KO326" s="17"/>
+      <c r="KP326" s="17"/>
+      <c r="KQ326" s="17"/>
+      <c r="KR326" s="17"/>
+      <c r="KS326" s="17"/>
+      <c r="KT326" s="17"/>
+      <c r="KU326" s="17"/>
+      <c r="KV326" s="17"/>
+      <c r="KW326" s="17"/>
+      <c r="KX326" s="17"/>
+      <c r="KY326" s="17"/>
+      <c r="KZ326" s="17"/>
+      <c r="LA326" s="17"/>
+      <c r="LB326" s="17"/>
+      <c r="LC326" s="17"/>
+      <c r="LD326" s="17"/>
+      <c r="LE326" s="17"/>
+      <c r="LF326" s="17"/>
+      <c r="LG326" s="17"/>
+      <c r="LH326" s="17"/>
+      <c r="LI326" s="17"/>
+      <c r="LJ326" s="17"/>
+      <c r="LK326" s="17"/>
+      <c r="LL326" s="17"/>
+      <c r="LM326" s="17"/>
+      <c r="LN326" s="17"/>
+      <c r="LO326" s="17"/>
+      <c r="LP326" s="17"/>
+      <c r="LQ326" s="17"/>
+      <c r="LR326" s="17"/>
+      <c r="LS326" s="17"/>
+      <c r="LT326" s="17"/>
+      <c r="LU326" s="17"/>
+      <c r="LV326" s="17"/>
+      <c r="LW326" s="17"/>
+      <c r="LX326" s="17"/>
+      <c r="LY326" s="17"/>
+      <c r="LZ326" s="17"/>
+      <c r="MA326" s="17"/>
+      <c r="MB326" s="17"/>
+      <c r="MC326" s="17"/>
+      <c r="MD326" s="17"/>
+      <c r="ME326" s="17"/>
+      <c r="MF326" s="17"/>
+      <c r="MG326" s="17"/>
+      <c r="MH326" s="17"/>
+      <c r="MI326" s="17"/>
+      <c r="MJ326" s="17"/>
+      <c r="MK326" s="17"/>
+      <c r="ML326" s="17"/>
+      <c r="MM326" s="17"/>
+      <c r="MN326" s="17"/>
+      <c r="MO326" s="17"/>
+      <c r="MP326" s="17"/>
+      <c r="MQ326" s="17"/>
+      <c r="MR326" s="17"/>
+      <c r="MS326" s="17"/>
+      <c r="MT326" s="17"/>
+      <c r="MU326" s="17"/>
+      <c r="MV326" s="17"/>
+      <c r="MW326" s="17"/>
+      <c r="MX326" s="17"/>
+      <c r="MY326" s="17"/>
+      <c r="MZ326" s="17"/>
+      <c r="NA326" s="17"/>
+      <c r="NB326" s="17"/>
+      <c r="NC326" s="17"/>
+      <c r="ND326" s="17"/>
+      <c r="NE326" s="17"/>
+      <c r="NF326" s="17"/>
+      <c r="NG326" s="17"/>
+      <c r="NH326" s="17"/>
+      <c r="NI326" s="17"/>
+      <c r="NJ326" s="17"/>
+      <c r="NK326" s="17"/>
+      <c r="NL326" s="17"/>
+      <c r="NM326" s="17"/>
+      <c r="NN326" s="17"/>
+      <c r="NO326" s="17"/>
+      <c r="NP326" s="17"/>
+      <c r="NQ326" s="17"/>
+      <c r="NR326" s="17"/>
+      <c r="NS326" s="17"/>
+      <c r="NT326" s="17"/>
+      <c r="NU326" s="17"/>
+      <c r="NV326" s="17"/>
+      <c r="NW326" s="17"/>
+      <c r="NX326" s="17"/>
+      <c r="NY326" s="17"/>
+      <c r="NZ326" s="17"/>
+      <c r="OA326" s="17"/>
+      <c r="OB326" s="17"/>
+      <c r="OC326" s="17"/>
+      <c r="OD326" s="17"/>
+      <c r="OE326" s="17"/>
+      <c r="OF326" s="17"/>
+      <c r="OG326" s="17"/>
+      <c r="OH326" s="17"/>
+      <c r="OI326" s="17"/>
+      <c r="OJ326" s="17"/>
+      <c r="OK326" s="17"/>
+      <c r="OL326" s="17"/>
+      <c r="OM326" s="17"/>
+      <c r="ON326" s="17"/>
+      <c r="OO326" s="17"/>
+      <c r="OP326" s="17"/>
+      <c r="OQ326" s="17"/>
+      <c r="OR326" s="17"/>
+      <c r="OS326" s="17"/>
+      <c r="OT326" s="17"/>
+      <c r="OU326" s="17"/>
+      <c r="OV326" s="17"/>
+      <c r="OW326" s="17"/>
+      <c r="OX326" s="17"/>
+      <c r="OY326" s="17"/>
+      <c r="OZ326" s="17"/>
+      <c r="PA326" s="17"/>
+      <c r="PB326" s="17"/>
+      <c r="PC326" s="17"/>
+      <c r="PD326" s="17"/>
+      <c r="PE326" s="17"/>
+      <c r="PF326" s="17"/>
+      <c r="PG326" s="17"/>
+      <c r="PH326" s="17"/>
+      <c r="PI326" s="17"/>
+      <c r="PJ326" s="17"/>
+      <c r="PK326" s="17"/>
+      <c r="PL326" s="17"/>
+      <c r="PM326" s="17"/>
+      <c r="PN326" s="17"/>
+      <c r="PO326" s="17"/>
+      <c r="PP326" s="17"/>
+      <c r="PQ326" s="17"/>
+      <c r="PR326" s="17"/>
+      <c r="PS326" s="17"/>
+      <c r="PT326" s="17"/>
+      <c r="PU326" s="17"/>
+      <c r="PV326" s="17"/>
+      <c r="PW326" s="17"/>
+      <c r="PX326" s="17"/>
+      <c r="PY326" s="17"/>
+      <c r="PZ326" s="17"/>
+      <c r="QA326" s="17"/>
+      <c r="QB326" s="17"/>
+      <c r="QC326" s="17"/>
+      <c r="QD326" s="17"/>
+      <c r="QE326" s="17"/>
+      <c r="QF326" s="17"/>
+    </row>
+    <row r="327" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="328" spans="1:448" s="23" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A328" s="23" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="329" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="330" spans="1:448" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A330" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="D330" s="14" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="331" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A331" s="17"/>
+      <c r="B331" s="17"/>
+      <c r="C331" s="17"/>
+      <c r="D331" s="17"/>
+      <c r="E331" s="17"/>
+      <c r="F331" s="17"/>
+      <c r="G331" s="17"/>
+      <c r="H331" s="17"/>
+      <c r="I331" s="17"/>
+      <c r="J331" s="17"/>
+      <c r="K331" s="17"/>
+      <c r="L331" s="17"/>
+      <c r="M331" s="17"/>
+      <c r="N331" s="17"/>
+      <c r="O331" s="17"/>
+      <c r="P331" s="17"/>
+      <c r="Q331" s="17"/>
+      <c r="R331" s="17"/>
+      <c r="S331" s="17"/>
+      <c r="T331" s="17"/>
+      <c r="U331" s="17"/>
+      <c r="V331" s="17"/>
+      <c r="W331" s="17"/>
+      <c r="X331" s="17"/>
+      <c r="Y331" s="17"/>
+      <c r="Z331" s="17"/>
+      <c r="AA331" s="17"/>
+      <c r="AB331" s="17"/>
+      <c r="AC331" s="17"/>
+      <c r="AD331" s="17"/>
+      <c r="AE331" s="17"/>
+      <c r="AF331" s="17"/>
+      <c r="AG331" s="17"/>
+      <c r="AH331" s="17"/>
+      <c r="AI331" s="17"/>
+      <c r="AJ331" s="17"/>
+      <c r="AK331" s="17"/>
+      <c r="AL331" s="17"/>
+      <c r="AM331" s="17"/>
+      <c r="AN331" s="17"/>
+      <c r="AO331" s="17"/>
+      <c r="AP331" s="17"/>
+      <c r="AQ331" s="17"/>
+      <c r="AR331" s="17"/>
+      <c r="AS331" s="17"/>
+      <c r="AT331" s="17"/>
+      <c r="AU331" s="17"/>
+      <c r="AV331" s="17"/>
+      <c r="AW331" s="17"/>
+      <c r="AX331" s="17"/>
+      <c r="AY331" s="17"/>
+      <c r="AZ331" s="17"/>
+      <c r="BA331" s="17"/>
+      <c r="BB331" s="17"/>
+      <c r="BC331" s="17"/>
+      <c r="BD331" s="17"/>
+      <c r="BE331" s="17"/>
+      <c r="BF331" s="17"/>
+      <c r="BG331" s="17"/>
+      <c r="BH331" s="17"/>
+      <c r="BI331" s="17"/>
+      <c r="BJ331" s="17"/>
+      <c r="BK331" s="17"/>
+      <c r="BL331" s="17"/>
+      <c r="BM331" s="17"/>
+      <c r="BN331" s="17"/>
+      <c r="BO331" s="17"/>
+      <c r="BP331" s="17"/>
+      <c r="BQ331" s="17"/>
+      <c r="BR331" s="17"/>
+      <c r="BS331" s="17"/>
+      <c r="BT331" s="17"/>
+      <c r="BU331" s="17"/>
+      <c r="BV331" s="17"/>
+    </row>
+    <row r="332" spans="1:448" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A332" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="D332" s="14" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="333" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A333" s="17"/>
+      <c r="B333" s="17"/>
+      <c r="C333" s="17"/>
+      <c r="D333" s="17"/>
+      <c r="E333" s="17"/>
+      <c r="F333" s="17"/>
+      <c r="G333" s="17"/>
+      <c r="H333" s="17"/>
+      <c r="I333" s="17"/>
+      <c r="J333" s="17"/>
+      <c r="K333" s="17"/>
+      <c r="L333" s="17"/>
+      <c r="M333" s="17"/>
+      <c r="N333" s="17"/>
+      <c r="O333" s="17"/>
+      <c r="P333" s="17"/>
+      <c r="Q333" s="17"/>
+      <c r="R333" s="17"/>
+      <c r="S333" s="17"/>
+      <c r="T333" s="17"/>
+      <c r="U333" s="17"/>
+      <c r="V333" s="17"/>
+      <c r="W333" s="17"/>
+      <c r="X333" s="17"/>
+      <c r="Y333" s="17"/>
+      <c r="Z333" s="17"/>
+      <c r="AA333" s="17"/>
+      <c r="AB333" s="17"/>
+      <c r="AC333" s="17"/>
+      <c r="AD333" s="17"/>
+      <c r="AE333" s="17"/>
+      <c r="AF333" s="17"/>
+      <c r="AG333" s="17"/>
+      <c r="AH333" s="17"/>
+      <c r="AI333" s="17"/>
+      <c r="AJ333" s="17"/>
+      <c r="AK333" s="17"/>
+      <c r="AL333" s="17"/>
+      <c r="AM333" s="17"/>
+      <c r="AN333" s="17"/>
+      <c r="AO333" s="17"/>
+      <c r="AP333" s="17"/>
+      <c r="AQ333" s="17"/>
+      <c r="AR333" s="17"/>
+      <c r="AS333" s="17"/>
+      <c r="AT333" s="17"/>
+      <c r="AU333" s="17"/>
+      <c r="AV333" s="17"/>
+      <c r="AW333" s="17"/>
+      <c r="AX333" s="17"/>
+      <c r="AY333" s="17"/>
+      <c r="AZ333" s="17"/>
+      <c r="BA333" s="17"/>
+      <c r="BB333" s="17"/>
+      <c r="BC333" s="17"/>
+      <c r="BD333" s="17"/>
+      <c r="BE333" s="17"/>
+      <c r="BF333" s="17"/>
+      <c r="BG333" s="17"/>
+      <c r="BH333" s="17"/>
+      <c r="BI333" s="17"/>
+      <c r="BJ333" s="17"/>
+      <c r="BK333" s="17"/>
+      <c r="BL333" s="17"/>
+      <c r="BM333" s="17"/>
+      <c r="BN333" s="17"/>
+      <c r="BO333" s="17"/>
+      <c r="BP333" s="17"/>
+      <c r="BQ333" s="17"/>
+      <c r="BR333" s="17"/>
+      <c r="BS333" s="17"/>
+      <c r="BT333" s="17"/>
+      <c r="BU333" s="17"/>
+      <c r="BV333" s="17"/>
+    </row>
+    <row r="334" spans="1:448" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A334" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="D334" s="14" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="335" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A335" s="17"/>
+      <c r="B335" s="17"/>
+      <c r="C335" s="17"/>
+      <c r="D335" s="17"/>
+      <c r="E335" s="17"/>
+      <c r="F335" s="17"/>
+      <c r="G335" s="17"/>
+      <c r="H335" s="17"/>
+      <c r="I335" s="17"/>
+      <c r="J335" s="17"/>
+      <c r="K335" s="17"/>
+      <c r="L335" s="17"/>
+      <c r="M335" s="17"/>
+      <c r="N335" s="17"/>
+      <c r="O335" s="17"/>
+      <c r="P335" s="17"/>
+      <c r="Q335" s="17"/>
+      <c r="R335" s="17"/>
+      <c r="S335" s="17"/>
+      <c r="T335" s="17"/>
+      <c r="U335" s="17"/>
+      <c r="V335" s="17"/>
+      <c r="W335" s="17"/>
+      <c r="X335" s="17"/>
+      <c r="Y335" s="17"/>
+      <c r="Z335" s="17"/>
+      <c r="AA335" s="17"/>
+      <c r="AB335" s="17"/>
+      <c r="AC335" s="17"/>
+      <c r="AD335" s="17"/>
+      <c r="AE335" s="17"/>
+      <c r="AF335" s="17"/>
+      <c r="AG335" s="17"/>
+      <c r="AH335" s="17"/>
+      <c r="AI335" s="17"/>
+      <c r="AJ335" s="17"/>
+      <c r="AK335" s="17"/>
+      <c r="AL335" s="17"/>
+      <c r="AM335" s="17"/>
+      <c r="AN335" s="17"/>
+      <c r="AO335" s="17"/>
+      <c r="AP335" s="17"/>
+      <c r="AQ335" s="17"/>
+      <c r="AR335" s="17"/>
+      <c r="AS335" s="17"/>
+      <c r="AT335" s="17"/>
+      <c r="AU335" s="17"/>
+      <c r="AV335" s="17"/>
+      <c r="AW335" s="17"/>
+      <c r="AX335" s="17"/>
+      <c r="AY335" s="17"/>
+      <c r="AZ335" s="17"/>
+      <c r="BA335" s="17"/>
+      <c r="BB335" s="17"/>
+      <c r="BC335" s="17"/>
+      <c r="BD335" s="17"/>
+      <c r="BE335" s="17"/>
+      <c r="BF335" s="17"/>
+      <c r="BG335" s="17"/>
+      <c r="BH335" s="17"/>
+      <c r="BI335" s="17"/>
+      <c r="BJ335" s="17"/>
+      <c r="BK335" s="17"/>
+      <c r="BL335" s="17"/>
+      <c r="BM335" s="17"/>
+      <c r="BN335" s="17"/>
+      <c r="BO335" s="17"/>
+      <c r="BP335" s="17"/>
+      <c r="BQ335" s="17"/>
+      <c r="BR335" s="17"/>
+      <c r="BS335" s="17"/>
+      <c r="BT335" s="17"/>
+      <c r="BU335" s="17"/>
+      <c r="BV335" s="17"/>
+    </row>
+    <row r="336" spans="1:448" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A336" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="D336" s="14" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="337" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A337" s="17"/>
+      <c r="B337" s="17"/>
+      <c r="C337" s="17"/>
+      <c r="D337" s="17"/>
+      <c r="E337" s="17"/>
+      <c r="F337" s="17"/>
+      <c r="G337" s="17"/>
+      <c r="H337" s="17"/>
+      <c r="I337" s="17"/>
+      <c r="J337" s="17"/>
+      <c r="K337" s="17"/>
+      <c r="L337" s="17"/>
+      <c r="M337" s="17"/>
+      <c r="N337" s="17"/>
+      <c r="O337" s="17"/>
+      <c r="P337" s="17"/>
+      <c r="Q337" s="17"/>
+      <c r="R337" s="17"/>
+      <c r="S337" s="17"/>
+      <c r="T337" s="17"/>
+      <c r="U337" s="17"/>
+      <c r="V337" s="17"/>
+      <c r="W337" s="17"/>
+      <c r="X337" s="17"/>
+      <c r="Y337" s="17"/>
+      <c r="Z337" s="17"/>
+      <c r="AA337" s="17"/>
+      <c r="AB337" s="17"/>
+      <c r="AC337" s="17"/>
+      <c r="AD337" s="17"/>
+      <c r="AE337" s="17"/>
+      <c r="AF337" s="17"/>
+      <c r="AG337" s="17"/>
+      <c r="AH337" s="17"/>
+      <c r="AI337" s="17"/>
+      <c r="AJ337" s="17"/>
+      <c r="AK337" s="17"/>
+      <c r="AL337" s="17"/>
+      <c r="AM337" s="17"/>
+      <c r="AN337" s="17"/>
+      <c r="AO337" s="17"/>
+      <c r="AP337" s="17"/>
+      <c r="AQ337" s="17"/>
+      <c r="AR337" s="17"/>
+      <c r="AS337" s="17"/>
+      <c r="AT337" s="17"/>
+      <c r="AU337" s="17"/>
+      <c r="AV337" s="17"/>
+      <c r="AW337" s="17"/>
+      <c r="AX337" s="17"/>
+      <c r="AY337" s="17"/>
+      <c r="AZ337" s="17"/>
+      <c r="BA337" s="17"/>
+      <c r="BB337" s="17"/>
+      <c r="BC337" s="17"/>
+      <c r="BD337" s="17"/>
+      <c r="BE337" s="17"/>
+      <c r="BF337" s="17"/>
+      <c r="BG337" s="17"/>
+      <c r="BH337" s="17"/>
+      <c r="BI337" s="17"/>
+      <c r="BJ337" s="17"/>
+      <c r="BK337" s="17"/>
+      <c r="BL337" s="17"/>
+      <c r="BM337" s="17"/>
+      <c r="BN337" s="17"/>
+      <c r="BO337" s="17"/>
+      <c r="BP337" s="17"/>
+      <c r="BQ337" s="17"/>
+      <c r="BR337" s="17"/>
+      <c r="BS337" s="17"/>
+      <c r="BT337" s="17"/>
+      <c r="BU337" s="17"/>
+      <c r="BV337" s="17"/>
+    </row>
+    <row r="338" spans="1:74" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A338" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="D338" s="14" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="339" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A339" s="17"/>
+      <c r="B339" s="17"/>
+      <c r="C339" s="17"/>
+      <c r="D339" s="17"/>
+      <c r="E339" s="17"/>
+      <c r="F339" s="17"/>
+      <c r="G339" s="17"/>
+      <c r="H339" s="17"/>
+      <c r="I339" s="17"/>
+      <c r="J339" s="17"/>
+      <c r="K339" s="17"/>
+      <c r="L339" s="17"/>
+      <c r="M339" s="17"/>
+      <c r="N339" s="17"/>
+      <c r="O339" s="17"/>
+      <c r="P339" s="17"/>
+      <c r="Q339" s="17"/>
+      <c r="R339" s="17"/>
+      <c r="S339" s="17"/>
+      <c r="T339" s="17"/>
+      <c r="U339" s="17"/>
+      <c r="V339" s="17"/>
+      <c r="W339" s="17"/>
+      <c r="X339" s="17"/>
+      <c r="Y339" s="17"/>
+      <c r="Z339" s="17"/>
+      <c r="AA339" s="17"/>
+      <c r="AB339" s="17"/>
+      <c r="AC339" s="17"/>
+      <c r="AD339" s="17"/>
+      <c r="AE339" s="17"/>
+      <c r="AF339" s="17"/>
+      <c r="AG339" s="17"/>
+      <c r="AH339" s="17"/>
+      <c r="AI339" s="17"/>
+      <c r="AJ339" s="17"/>
+      <c r="AK339" s="17"/>
+      <c r="AL339" s="17"/>
+      <c r="AM339" s="17"/>
+      <c r="AN339" s="17"/>
+      <c r="AO339" s="17"/>
+      <c r="AP339" s="17"/>
+      <c r="AQ339" s="17"/>
+      <c r="AR339" s="17"/>
+      <c r="AS339" s="17"/>
+      <c r="AT339" s="17"/>
+      <c r="AU339" s="17"/>
+      <c r="AV339" s="17"/>
+      <c r="AW339" s="17"/>
+      <c r="AX339" s="17"/>
+      <c r="AY339" s="17"/>
+      <c r="AZ339" s="17"/>
+      <c r="BA339" s="17"/>
+      <c r="BB339" s="17"/>
+      <c r="BC339" s="17"/>
+      <c r="BD339" s="17"/>
+      <c r="BE339" s="17"/>
+      <c r="BF339" s="17"/>
+      <c r="BG339" s="17"/>
+      <c r="BH339" s="17"/>
+      <c r="BI339" s="17"/>
+      <c r="BJ339" s="17"/>
+      <c r="BK339" s="17"/>
+      <c r="BL339" s="17"/>
+      <c r="BM339" s="17"/>
+      <c r="BN339" s="17"/>
+      <c r="BO339" s="17"/>
+      <c r="BP339" s="17"/>
+      <c r="BQ339" s="17"/>
+      <c r="BR339" s="17"/>
+      <c r="BS339" s="17"/>
+      <c r="BT339" s="17"/>
+      <c r="BU339" s="17"/>
+      <c r="BV339" s="17"/>
+    </row>
+    <row r="340" spans="1:74" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A340" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="D340" s="14" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="341" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A341" s="17"/>
+      <c r="B341" s="17"/>
+      <c r="C341" s="17"/>
+      <c r="D341" s="17"/>
+      <c r="E341" s="17"/>
+      <c r="F341" s="17"/>
+      <c r="G341" s="17"/>
+      <c r="H341" s="17"/>
+      <c r="I341" s="17"/>
+      <c r="J341" s="17"/>
+      <c r="K341" s="17"/>
+      <c r="L341" s="17"/>
+      <c r="M341" s="17"/>
+      <c r="N341" s="17"/>
+      <c r="O341" s="17"/>
+      <c r="P341" s="17"/>
+      <c r="Q341" s="17"/>
+      <c r="R341" s="17"/>
+      <c r="S341" s="17"/>
+      <c r="T341" s="17"/>
+      <c r="U341" s="17"/>
+      <c r="V341" s="17"/>
+      <c r="W341" s="17"/>
+      <c r="X341" s="17"/>
+      <c r="Y341" s="17"/>
+      <c r="Z341" s="17"/>
+      <c r="AA341" s="17"/>
+      <c r="AB341" s="17"/>
+      <c r="AC341" s="17"/>
+      <c r="AD341" s="17"/>
+      <c r="AE341" s="17"/>
+      <c r="AF341" s="17"/>
+      <c r="AG341" s="17"/>
+      <c r="AH341" s="17"/>
+      <c r="AI341" s="17"/>
+      <c r="AJ341" s="17"/>
+      <c r="AK341" s="17"/>
+      <c r="AL341" s="17"/>
+      <c r="AM341" s="17"/>
+      <c r="AN341" s="17"/>
+      <c r="AO341" s="17"/>
+      <c r="AP341" s="17"/>
+      <c r="AQ341" s="17"/>
+      <c r="AR341" s="17"/>
+      <c r="AS341" s="17"/>
+      <c r="AT341" s="17"/>
+      <c r="AU341" s="17"/>
+      <c r="AV341" s="17"/>
+      <c r="AW341" s="17"/>
+      <c r="AX341" s="17"/>
+      <c r="AY341" s="17"/>
+      <c r="AZ341" s="17"/>
+      <c r="BA341" s="17"/>
+      <c r="BB341" s="17"/>
+      <c r="BC341" s="17"/>
+      <c r="BD341" s="17"/>
+      <c r="BE341" s="17"/>
+      <c r="BF341" s="17"/>
+      <c r="BG341" s="17"/>
+      <c r="BH341" s="17"/>
+      <c r="BI341" s="17"/>
+      <c r="BJ341" s="17"/>
+      <c r="BK341" s="17"/>
+      <c r="BL341" s="17"/>
+      <c r="BM341" s="17"/>
+      <c r="BN341" s="17"/>
+      <c r="BO341" s="17"/>
+      <c r="BP341" s="17"/>
+      <c r="BQ341" s="17"/>
+      <c r="BR341" s="17"/>
+      <c r="BS341" s="17"/>
+      <c r="BT341" s="17"/>
+      <c r="BU341" s="17"/>
+      <c r="BV341" s="17"/>
+    </row>
+    <row r="342" spans="1:74" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A342" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="D342" s="14" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="343" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A343" s="17"/>
+      <c r="B343" s="17"/>
+      <c r="C343" s="17"/>
+      <c r="D343" s="17"/>
+      <c r="E343" s="17"/>
+      <c r="F343" s="17"/>
+      <c r="G343" s="17"/>
+      <c r="H343" s="17"/>
+      <c r="I343" s="17"/>
+      <c r="J343" s="17"/>
+      <c r="K343" s="17"/>
+      <c r="L343" s="17"/>
+      <c r="M343" s="17"/>
+      <c r="N343" s="17"/>
+      <c r="O343" s="17"/>
+      <c r="P343" s="17"/>
+      <c r="Q343" s="17"/>
+      <c r="R343" s="17"/>
+      <c r="S343" s="17"/>
+      <c r="T343" s="17"/>
+      <c r="U343" s="17"/>
+      <c r="V343" s="17"/>
+      <c r="W343" s="17"/>
+      <c r="X343" s="17"/>
+      <c r="Y343" s="17"/>
+      <c r="Z343" s="17"/>
+      <c r="AA343" s="17"/>
+      <c r="AB343" s="17"/>
+      <c r="AC343" s="17"/>
+      <c r="AD343" s="17"/>
+      <c r="AE343" s="17"/>
+      <c r="AF343" s="17"/>
+      <c r="AG343" s="17"/>
+      <c r="AH343" s="17"/>
+      <c r="AI343" s="17"/>
+      <c r="AJ343" s="17"/>
+      <c r="AK343" s="17"/>
+      <c r="AL343" s="17"/>
+      <c r="AM343" s="17"/>
+      <c r="AN343" s="17"/>
+      <c r="AO343" s="17"/>
+      <c r="AP343" s="17"/>
+      <c r="AQ343" s="17"/>
+      <c r="AR343" s="17"/>
+      <c r="AS343" s="17"/>
+      <c r="AT343" s="17"/>
+      <c r="AU343" s="17"/>
+      <c r="AV343" s="17"/>
+      <c r="AW343" s="17"/>
+      <c r="AX343" s="17"/>
+      <c r="AY343" s="17"/>
+      <c r="AZ343" s="17"/>
+      <c r="BA343" s="17"/>
+      <c r="BB343" s="17"/>
+      <c r="BC343" s="17"/>
+      <c r="BD343" s="17"/>
+      <c r="BE343" s="17"/>
+      <c r="BF343" s="17"/>
+      <c r="BG343" s="17"/>
+      <c r="BH343" s="17"/>
+      <c r="BI343" s="17"/>
+      <c r="BJ343" s="17"/>
+      <c r="BK343" s="17"/>
+      <c r="BL343" s="17"/>
+      <c r="BM343" s="17"/>
+      <c r="BN343" s="17"/>
+      <c r="BO343" s="17"/>
+      <c r="BP343" s="17"/>
+      <c r="BQ343" s="17"/>
+      <c r="BR343" s="17"/>
+      <c r="BS343" s="17"/>
+      <c r="BT343" s="17"/>
+      <c r="BU343" s="17"/>
+      <c r="BV343" s="17"/>
+    </row>
+    <row r="344" spans="1:74" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A344" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="D344" s="14" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="345" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A345" s="17"/>
+      <c r="B345" s="17"/>
+      <c r="C345" s="17"/>
+      <c r="D345" s="17"/>
+      <c r="E345" s="17"/>
+      <c r="F345" s="17"/>
+      <c r="G345" s="17"/>
+      <c r="H345" s="17"/>
+      <c r="I345" s="17"/>
+      <c r="J345" s="17"/>
+      <c r="K345" s="17"/>
+      <c r="L345" s="17"/>
+      <c r="M345" s="17"/>
+      <c r="N345" s="17"/>
+      <c r="O345" s="17"/>
+      <c r="P345" s="17"/>
+      <c r="Q345" s="17"/>
+      <c r="R345" s="17"/>
+      <c r="S345" s="17"/>
+      <c r="T345" s="17"/>
+      <c r="U345" s="17"/>
+      <c r="V345" s="17"/>
+      <c r="W345" s="17"/>
+      <c r="X345" s="17"/>
+      <c r="Y345" s="17"/>
+      <c r="Z345" s="17"/>
+      <c r="AA345" s="17"/>
+      <c r="AB345" s="17"/>
+      <c r="AC345" s="17"/>
+      <c r="AD345" s="17"/>
+      <c r="AE345" s="17"/>
+      <c r="AF345" s="17"/>
+      <c r="AG345" s="17"/>
+      <c r="AH345" s="17"/>
+      <c r="AI345" s="17"/>
+      <c r="AJ345" s="17"/>
+      <c r="AK345" s="17"/>
+      <c r="AL345" s="17"/>
+      <c r="AM345" s="17"/>
+      <c r="AN345" s="17"/>
+      <c r="AO345" s="17"/>
+      <c r="AP345" s="17"/>
+      <c r="AQ345" s="17"/>
+      <c r="AR345" s="17"/>
+      <c r="AS345" s="17"/>
+      <c r="AT345" s="17"/>
+      <c r="AU345" s="17"/>
+      <c r="AV345" s="17"/>
+      <c r="AW345" s="17"/>
+      <c r="AX345" s="17"/>
+      <c r="AY345" s="17"/>
+      <c r="AZ345" s="17"/>
+      <c r="BA345" s="17"/>
+      <c r="BB345" s="17"/>
+      <c r="BC345" s="17"/>
+      <c r="BD345" s="17"/>
+      <c r="BE345" s="17"/>
+      <c r="BF345" s="17"/>
+      <c r="BG345" s="17"/>
+      <c r="BH345" s="17"/>
+      <c r="BI345" s="17"/>
+      <c r="BJ345" s="17"/>
+      <c r="BK345" s="17"/>
+      <c r="BL345" s="17"/>
+      <c r="BM345" s="17"/>
+      <c r="BN345" s="17"/>
+      <c r="BO345" s="17"/>
+      <c r="BP345" s="17"/>
+      <c r="BQ345" s="17"/>
+      <c r="BR345" s="17"/>
+      <c r="BS345" s="17"/>
+      <c r="BT345" s="17"/>
+      <c r="BU345" s="17"/>
+      <c r="BV345" s="17"/>
+    </row>
+    <row r="346" spans="1:74" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A346" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="D346" s="14" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="347" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A347" s="17"/>
+      <c r="B347" s="17"/>
+      <c r="C347" s="17"/>
+      <c r="D347" s="17"/>
+      <c r="E347" s="17"/>
+      <c r="F347" s="17"/>
+      <c r="G347" s="17"/>
+      <c r="H347" s="17"/>
+      <c r="I347" s="17"/>
+      <c r="J347" s="17"/>
+      <c r="K347" s="17"/>
+      <c r="L347" s="17"/>
+      <c r="M347" s="17"/>
+      <c r="N347" s="17"/>
+      <c r="O347" s="17"/>
+      <c r="P347" s="17"/>
+      <c r="Q347" s="17"/>
+      <c r="R347" s="17"/>
+      <c r="S347" s="17"/>
+      <c r="T347" s="17"/>
+      <c r="U347" s="17"/>
+      <c r="V347" s="17"/>
+      <c r="W347" s="17"/>
+      <c r="X347" s="17"/>
+      <c r="Y347" s="17"/>
+      <c r="Z347" s="17"/>
+      <c r="AA347" s="17"/>
+      <c r="AB347" s="17"/>
+      <c r="AC347" s="17"/>
+      <c r="AD347" s="17"/>
+      <c r="AE347" s="17"/>
+      <c r="AF347" s="17"/>
+      <c r="AG347" s="17"/>
+      <c r="AH347" s="17"/>
+      <c r="AI347" s="17"/>
+      <c r="AJ347" s="17"/>
+      <c r="AK347" s="17"/>
+      <c r="AL347" s="17"/>
+      <c r="AM347" s="17"/>
+      <c r="AN347" s="17"/>
+      <c r="AO347" s="17"/>
+      <c r="AP347" s="17"/>
+      <c r="AQ347" s="17"/>
+      <c r="AR347" s="17"/>
+      <c r="AS347" s="17"/>
+      <c r="AT347" s="17"/>
+      <c r="AU347" s="17"/>
+      <c r="AV347" s="17"/>
+      <c r="AW347" s="17"/>
+      <c r="AX347" s="17"/>
+      <c r="AY347" s="17"/>
+      <c r="AZ347" s="17"/>
+      <c r="BA347" s="17"/>
+      <c r="BB347" s="17"/>
+      <c r="BC347" s="17"/>
+      <c r="BD347" s="17"/>
+      <c r="BE347" s="17"/>
+      <c r="BF347" s="17"/>
+      <c r="BG347" s="17"/>
+      <c r="BH347" s="17"/>
+      <c r="BI347" s="17"/>
+      <c r="BJ347" s="17"/>
+      <c r="BK347" s="17"/>
+      <c r="BL347" s="17"/>
+      <c r="BM347" s="17"/>
+      <c r="BN347" s="17"/>
+      <c r="BO347" s="17"/>
+      <c r="BP347" s="17"/>
+      <c r="BQ347" s="17"/>
+      <c r="BR347" s="17"/>
+      <c r="BS347" s="17"/>
+      <c r="BT347" s="17"/>
+      <c r="BU347" s="17"/>
+      <c r="BV347" s="17"/>
+    </row>
+    <row r="348" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A348" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="D348" s="9" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="349" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A349" s="17"/>
+      <c r="B349" s="17"/>
+      <c r="C349" s="17"/>
+      <c r="D349" s="17"/>
+      <c r="E349" s="17"/>
+      <c r="F349" s="17"/>
+      <c r="G349" s="17"/>
+      <c r="H349" s="17"/>
+      <c r="I349" s="17"/>
+      <c r="J349" s="17"/>
+      <c r="K349" s="17"/>
+      <c r="L349" s="17"/>
+      <c r="M349" s="17"/>
+      <c r="N349" s="17"/>
+      <c r="O349" s="17"/>
+      <c r="P349" s="17"/>
+      <c r="Q349" s="17"/>
+      <c r="R349" s="17"/>
+      <c r="S349" s="17"/>
+      <c r="T349" s="17"/>
+      <c r="U349" s="17"/>
+      <c r="V349" s="17"/>
+      <c r="W349" s="17"/>
+      <c r="X349" s="17"/>
+      <c r="Y349" s="17"/>
+      <c r="Z349" s="17"/>
+      <c r="AA349" s="17"/>
+      <c r="AB349" s="17"/>
+      <c r="AC349" s="17"/>
+      <c r="AD349" s="17"/>
+      <c r="AE349" s="17"/>
+      <c r="AF349" s="17"/>
+      <c r="AG349" s="17"/>
+      <c r="AH349" s="17"/>
+      <c r="AI349" s="17"/>
+      <c r="AJ349" s="17"/>
+      <c r="AK349" s="17"/>
+      <c r="AL349" s="17"/>
+      <c r="AM349" s="17"/>
+      <c r="AN349" s="17"/>
+      <c r="AO349" s="17"/>
+      <c r="AP349" s="17"/>
+      <c r="AQ349" s="17"/>
+      <c r="AR349" s="17"/>
+      <c r="AS349" s="17"/>
+      <c r="AT349" s="17"/>
+      <c r="AU349" s="17"/>
+      <c r="AV349" s="17"/>
+      <c r="AW349" s="17"/>
+      <c r="AX349" s="17"/>
+      <c r="AY349" s="17"/>
+      <c r="AZ349" s="17"/>
+      <c r="BA349" s="17"/>
+      <c r="BB349" s="17"/>
+      <c r="BC349" s="17"/>
+      <c r="BD349" s="17"/>
+      <c r="BE349" s="17"/>
+      <c r="BF349" s="17"/>
+      <c r="BG349" s="17"/>
+      <c r="BH349" s="17"/>
+      <c r="BI349" s="17"/>
+      <c r="BJ349" s="17"/>
+      <c r="BK349" s="17"/>
+      <c r="BL349" s="17"/>
+      <c r="BM349" s="17"/>
+      <c r="BN349" s="17"/>
+      <c r="BO349" s="17"/>
+      <c r="BP349" s="17"/>
+      <c r="BQ349" s="17"/>
+      <c r="BR349" s="17"/>
+      <c r="BS349" s="17"/>
+      <c r="BT349" s="17"/>
+      <c r="BU349" s="17"/>
+      <c r="BV349" s="17"/>
+    </row>
+    <row r="350" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A350" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="D350" s="9" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="351" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A351" s="17"/>
+      <c r="B351" s="17"/>
+      <c r="C351" s="17"/>
+      <c r="D351" s="17"/>
+      <c r="E351" s="17"/>
+      <c r="F351" s="17"/>
+      <c r="G351" s="17"/>
+      <c r="H351" s="17"/>
+      <c r="I351" s="17"/>
+      <c r="J351" s="17"/>
+      <c r="K351" s="17"/>
+      <c r="L351" s="17"/>
+      <c r="M351" s="17"/>
+      <c r="N351" s="17"/>
+      <c r="O351" s="17"/>
+      <c r="P351" s="17"/>
+      <c r="Q351" s="17"/>
+      <c r="R351" s="17"/>
+      <c r="S351" s="17"/>
+      <c r="T351" s="17"/>
+      <c r="U351" s="17"/>
+      <c r="V351" s="17"/>
+      <c r="W351" s="17"/>
+      <c r="X351" s="17"/>
+      <c r="Y351" s="17"/>
+      <c r="Z351" s="17"/>
+      <c r="AA351" s="17"/>
+      <c r="AB351" s="17"/>
+      <c r="AC351" s="17"/>
+      <c r="AD351" s="17"/>
+      <c r="AE351" s="17"/>
+      <c r="AF351" s="17"/>
+      <c r="AG351" s="17"/>
+      <c r="AH351" s="17"/>
+      <c r="AI351" s="17"/>
+      <c r="AJ351" s="17"/>
+      <c r="AK351" s="17"/>
+      <c r="AL351" s="17"/>
+      <c r="AM351" s="17"/>
+      <c r="AN351" s="17"/>
+      <c r="AO351" s="17"/>
+      <c r="AP351" s="17"/>
+      <c r="AQ351" s="17"/>
+      <c r="AR351" s="17"/>
+      <c r="AS351" s="17"/>
+      <c r="AT351" s="17"/>
+      <c r="AU351" s="17"/>
+      <c r="AV351" s="17"/>
+      <c r="AW351" s="17"/>
+      <c r="AX351" s="17"/>
+      <c r="AY351" s="17"/>
+      <c r="AZ351" s="17"/>
+      <c r="BA351" s="17"/>
+      <c r="BB351" s="17"/>
+      <c r="BC351" s="17"/>
+      <c r="BD351" s="17"/>
+      <c r="BE351" s="17"/>
+      <c r="BF351" s="17"/>
+      <c r="BG351" s="17"/>
+      <c r="BH351" s="17"/>
+      <c r="BI351" s="17"/>
+      <c r="BJ351" s="17"/>
+      <c r="BK351" s="17"/>
+      <c r="BL351" s="17"/>
+      <c r="BM351" s="17"/>
+      <c r="BN351" s="17"/>
+      <c r="BO351" s="17"/>
+      <c r="BP351" s="17"/>
+      <c r="BQ351" s="17"/>
+      <c r="BR351" s="17"/>
+      <c r="BS351" s="17"/>
+      <c r="BT351" s="17"/>
+      <c r="BU351" s="17"/>
+      <c r="BV351" s="17"/>
+    </row>
+    <row r="352" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A352" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="B352" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="D352" s="9" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="353" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A353" s="17"/>
+      <c r="B353" s="17"/>
+      <c r="C353" s="17"/>
+      <c r="D353" s="17"/>
+      <c r="E353" s="17"/>
+      <c r="F353" s="17"/>
+      <c r="G353" s="17"/>
+      <c r="H353" s="17"/>
+      <c r="I353" s="17"/>
+      <c r="J353" s="17"/>
+      <c r="K353" s="17"/>
+      <c r="L353" s="17"/>
+      <c r="M353" s="17"/>
+      <c r="N353" s="17"/>
+      <c r="O353" s="17"/>
+      <c r="P353" s="17"/>
+      <c r="Q353" s="17"/>
+      <c r="R353" s="17"/>
+      <c r="S353" s="17"/>
+      <c r="T353" s="17"/>
+      <c r="U353" s="17"/>
+      <c r="V353" s="17"/>
+      <c r="W353" s="17"/>
+      <c r="X353" s="17"/>
+      <c r="Y353" s="17"/>
+      <c r="Z353" s="17"/>
+      <c r="AA353" s="17"/>
+      <c r="AB353" s="17"/>
+      <c r="AC353" s="17"/>
+      <c r="AD353" s="17"/>
+      <c r="AE353" s="17"/>
+      <c r="AF353" s="17"/>
+      <c r="AG353" s="17"/>
+      <c r="AH353" s="17"/>
+      <c r="AI353" s="17"/>
+      <c r="AJ353" s="17"/>
+      <c r="AK353" s="17"/>
+      <c r="AL353" s="17"/>
+      <c r="AM353" s="17"/>
+      <c r="AN353" s="17"/>
+      <c r="AO353" s="17"/>
+      <c r="AP353" s="17"/>
+      <c r="AQ353" s="17"/>
+      <c r="AR353" s="17"/>
+      <c r="AS353" s="17"/>
+      <c r="AT353" s="17"/>
+      <c r="AU353" s="17"/>
+      <c r="AV353" s="17"/>
+      <c r="AW353" s="17"/>
+      <c r="AX353" s="17"/>
+      <c r="AY353" s="17"/>
+      <c r="AZ353" s="17"/>
+      <c r="BA353" s="17"/>
+      <c r="BB353" s="17"/>
+      <c r="BC353" s="17"/>
+      <c r="BD353" s="17"/>
+      <c r="BE353" s="17"/>
+      <c r="BF353" s="17"/>
+      <c r="BG353" s="17"/>
+      <c r="BH353" s="17"/>
+      <c r="BI353" s="17"/>
+      <c r="BJ353" s="17"/>
+      <c r="BK353" s="17"/>
+      <c r="BL353" s="17"/>
+      <c r="BM353" s="17"/>
+      <c r="BN353" s="17"/>
+      <c r="BO353" s="17"/>
+      <c r="BP353" s="17"/>
+      <c r="BQ353" s="17"/>
+      <c r="BR353" s="17"/>
+      <c r="BS353" s="17"/>
+      <c r="BT353" s="17"/>
+      <c r="BU353" s="17"/>
+      <c r="BV353" s="17"/>
+    </row>
+    <row r="354" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A354" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="D354" s="9" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="355" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A355" s="17"/>
+      <c r="B355" s="17"/>
+      <c r="C355" s="17"/>
+      <c r="D355" s="17"/>
+      <c r="E355" s="17"/>
+      <c r="F355" s="17"/>
+      <c r="G355" s="17"/>
+      <c r="H355" s="17"/>
+      <c r="I355" s="17"/>
+      <c r="J355" s="17"/>
+      <c r="K355" s="17"/>
+      <c r="L355" s="17"/>
+      <c r="M355" s="17"/>
+      <c r="N355" s="17"/>
+      <c r="O355" s="17"/>
+      <c r="P355" s="17"/>
+      <c r="Q355" s="17"/>
+      <c r="R355" s="17"/>
+      <c r="S355" s="17"/>
+      <c r="T355" s="17"/>
+      <c r="U355" s="17"/>
+      <c r="V355" s="17"/>
+      <c r="W355" s="17"/>
+      <c r="X355" s="17"/>
+      <c r="Y355" s="17"/>
+      <c r="Z355" s="17"/>
+      <c r="AA355" s="17"/>
+      <c r="AB355" s="17"/>
+      <c r="AC355" s="17"/>
+      <c r="AD355" s="17"/>
+      <c r="AE355" s="17"/>
+      <c r="AF355" s="17"/>
+      <c r="AG355" s="17"/>
+      <c r="AH355" s="17"/>
+      <c r="AI355" s="17"/>
+      <c r="AJ355" s="17"/>
+      <c r="AK355" s="17"/>
+      <c r="AL355" s="17"/>
+      <c r="AM355" s="17"/>
+      <c r="AN355" s="17"/>
+      <c r="AO355" s="17"/>
+      <c r="AP355" s="17"/>
+      <c r="AQ355" s="17"/>
+      <c r="AR355" s="17"/>
+      <c r="AS355" s="17"/>
+      <c r="AT355" s="17"/>
+      <c r="AU355" s="17"/>
+      <c r="AV355" s="17"/>
+      <c r="AW355" s="17"/>
+      <c r="AX355" s="17"/>
+      <c r="AY355" s="17"/>
+      <c r="AZ355" s="17"/>
+      <c r="BA355" s="17"/>
+      <c r="BB355" s="17"/>
+      <c r="BC355" s="17"/>
+      <c r="BD355" s="17"/>
+      <c r="BE355" s="17"/>
+      <c r="BF355" s="17"/>
+      <c r="BG355" s="17"/>
+      <c r="BH355" s="17"/>
+      <c r="BI355" s="17"/>
+      <c r="BJ355" s="17"/>
+      <c r="BK355" s="17"/>
+      <c r="BL355" s="17"/>
+      <c r="BM355" s="17"/>
+      <c r="BN355" s="17"/>
+      <c r="BO355" s="17"/>
+      <c r="BP355" s="17"/>
+      <c r="BQ355" s="17"/>
+      <c r="BR355" s="17"/>
+      <c r="BS355" s="17"/>
+      <c r="BT355" s="17"/>
+      <c r="BU355" s="17"/>
+      <c r="BV355" s="17"/>
+    </row>
+    <row r="356" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A356" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="D356" s="9" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="357" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A357" s="17"/>
+      <c r="B357" s="17"/>
+      <c r="C357" s="17"/>
+      <c r="D357" s="17"/>
+      <c r="E357" s="17"/>
+      <c r="F357" s="17"/>
+      <c r="G357" s="17"/>
+      <c r="H357" s="17"/>
+      <c r="I357" s="17"/>
+      <c r="J357" s="17"/>
+      <c r="K357" s="17"/>
+      <c r="L357" s="17"/>
+      <c r="M357" s="17"/>
+      <c r="N357" s="17"/>
+      <c r="O357" s="17"/>
+      <c r="P357" s="17"/>
+      <c r="Q357" s="17"/>
+      <c r="R357" s="17"/>
+      <c r="S357" s="17"/>
+      <c r="T357" s="17"/>
+      <c r="U357" s="17"/>
+      <c r="V357" s="17"/>
+      <c r="W357" s="17"/>
+      <c r="X357" s="17"/>
+      <c r="Y357" s="17"/>
+      <c r="Z357" s="17"/>
+      <c r="AA357" s="17"/>
+      <c r="AB357" s="17"/>
+      <c r="AC357" s="17"/>
+      <c r="AD357" s="17"/>
+      <c r="AE357" s="17"/>
+      <c r="AF357" s="17"/>
+      <c r="AG357" s="17"/>
+      <c r="AH357" s="17"/>
+      <c r="AI357" s="17"/>
+      <c r="AJ357" s="17"/>
+      <c r="AK357" s="17"/>
+      <c r="AL357" s="17"/>
+      <c r="AM357" s="17"/>
+      <c r="AN357" s="17"/>
+      <c r="AO357" s="17"/>
+      <c r="AP357" s="17"/>
+      <c r="AQ357" s="17"/>
+      <c r="AR357" s="17"/>
+      <c r="AS357" s="17"/>
+      <c r="AT357" s="17"/>
+      <c r="AU357" s="17"/>
+      <c r="AV357" s="17"/>
+      <c r="AW357" s="17"/>
+      <c r="AX357" s="17"/>
+      <c r="AY357" s="17"/>
+      <c r="AZ357" s="17"/>
+      <c r="BA357" s="17"/>
+      <c r="BB357" s="17"/>
+      <c r="BC357" s="17"/>
+      <c r="BD357" s="17"/>
+      <c r="BE357" s="17"/>
+      <c r="BF357" s="17"/>
+      <c r="BG357" s="17"/>
+      <c r="BH357" s="17"/>
+      <c r="BI357" s="17"/>
+      <c r="BJ357" s="17"/>
+      <c r="BK357" s="17"/>
+      <c r="BL357" s="17"/>
+      <c r="BM357" s="17"/>
+      <c r="BN357" s="17"/>
+      <c r="BO357" s="17"/>
+      <c r="BP357" s="17"/>
+      <c r="BQ357" s="17"/>
+      <c r="BR357" s="17"/>
+      <c r="BS357" s="17"/>
+      <c r="BT357" s="17"/>
+      <c r="BU357" s="17"/>
+      <c r="BV357" s="17"/>
+    </row>
+    <row r="358" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A358" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="D358" s="9" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="359" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A359" s="17"/>
+      <c r="B359" s="17"/>
+      <c r="C359" s="17"/>
+      <c r="D359" s="17"/>
+      <c r="E359" s="17"/>
+      <c r="F359" s="17"/>
+      <c r="G359" s="17"/>
+      <c r="H359" s="17"/>
+      <c r="I359" s="17"/>
+      <c r="J359" s="17"/>
+      <c r="K359" s="17"/>
+      <c r="L359" s="17"/>
+      <c r="M359" s="17"/>
+      <c r="N359" s="17"/>
+      <c r="O359" s="17"/>
+      <c r="P359" s="17"/>
+      <c r="Q359" s="17"/>
+      <c r="R359" s="17"/>
+      <c r="S359" s="17"/>
+      <c r="T359" s="17"/>
+      <c r="U359" s="17"/>
+      <c r="V359" s="17"/>
+      <c r="W359" s="17"/>
+      <c r="X359" s="17"/>
+      <c r="Y359" s="17"/>
+      <c r="Z359" s="17"/>
+      <c r="AA359" s="17"/>
+      <c r="AB359" s="17"/>
+      <c r="AC359" s="17"/>
+      <c r="AD359" s="17"/>
+      <c r="AE359" s="17"/>
+      <c r="AF359" s="17"/>
+      <c r="AG359" s="17"/>
+      <c r="AH359" s="17"/>
+      <c r="AI359" s="17"/>
+      <c r="AJ359" s="17"/>
+      <c r="AK359" s="17"/>
+      <c r="AL359" s="17"/>
+      <c r="AM359" s="17"/>
+      <c r="AN359" s="17"/>
+      <c r="AO359" s="17"/>
+      <c r="AP359" s="17"/>
+      <c r="AQ359" s="17"/>
+      <c r="AR359" s="17"/>
+      <c r="AS359" s="17"/>
+      <c r="AT359" s="17"/>
+      <c r="AU359" s="17"/>
+      <c r="AV359" s="17"/>
+      <c r="AW359" s="17"/>
+      <c r="AX359" s="17"/>
+      <c r="AY359" s="17"/>
+      <c r="AZ359" s="17"/>
+      <c r="BA359" s="17"/>
+      <c r="BB359" s="17"/>
+      <c r="BC359" s="17"/>
+      <c r="BD359" s="17"/>
+      <c r="BE359" s="17"/>
+      <c r="BF359" s="17"/>
+      <c r="BG359" s="17"/>
+      <c r="BH359" s="17"/>
+      <c r="BI359" s="17"/>
+      <c r="BJ359" s="17"/>
+      <c r="BK359" s="17"/>
+      <c r="BL359" s="17"/>
+      <c r="BM359" s="17"/>
+      <c r="BN359" s="17"/>
+      <c r="BO359" s="17"/>
+      <c r="BP359" s="17"/>
+      <c r="BQ359" s="17"/>
+      <c r="BR359" s="17"/>
+      <c r="BS359" s="17"/>
+      <c r="BT359" s="17"/>
+      <c r="BU359" s="17"/>
+      <c r="BV359" s="17"/>
+    </row>
+    <row r="360" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A360" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="D360" s="9" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="361" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A361" s="17"/>
+      <c r="B361" s="17"/>
+      <c r="C361" s="17"/>
+      <c r="D361" s="17"/>
+      <c r="E361" s="17"/>
+      <c r="F361" s="17"/>
+      <c r="G361" s="17"/>
+      <c r="H361" s="17"/>
+      <c r="I361" s="17"/>
+      <c r="J361" s="17"/>
+      <c r="K361" s="17"/>
+      <c r="L361" s="17"/>
+      <c r="M361" s="17"/>
+      <c r="N361" s="17"/>
+      <c r="O361" s="17"/>
+      <c r="P361" s="17"/>
+      <c r="Q361" s="17"/>
+      <c r="R361" s="17"/>
+      <c r="S361" s="17"/>
+      <c r="T361" s="17"/>
+      <c r="U361" s="17"/>
+      <c r="V361" s="17"/>
+      <c r="W361" s="17"/>
+      <c r="X361" s="17"/>
+      <c r="Y361" s="17"/>
+      <c r="Z361" s="17"/>
+      <c r="AA361" s="17"/>
+      <c r="AB361" s="17"/>
+      <c r="AC361" s="17"/>
+      <c r="AD361" s="17"/>
+      <c r="AE361" s="17"/>
+      <c r="AF361" s="17"/>
+      <c r="AG361" s="17"/>
+      <c r="AH361" s="17"/>
+      <c r="AI361" s="17"/>
+      <c r="AJ361" s="17"/>
+      <c r="AK361" s="17"/>
+      <c r="AL361" s="17"/>
+      <c r="AM361" s="17"/>
+      <c r="AN361" s="17"/>
+      <c r="AO361" s="17"/>
+      <c r="AP361" s="17"/>
+      <c r="AQ361" s="17"/>
+      <c r="AR361" s="17"/>
+      <c r="AS361" s="17"/>
+      <c r="AT361" s="17"/>
+      <c r="AU361" s="17"/>
+      <c r="AV361" s="17"/>
+      <c r="AW361" s="17"/>
+      <c r="AX361" s="17"/>
+      <c r="AY361" s="17"/>
+      <c r="AZ361" s="17"/>
+      <c r="BA361" s="17"/>
+      <c r="BB361" s="17"/>
+      <c r="BC361" s="17"/>
+      <c r="BD361" s="17"/>
+      <c r="BE361" s="17"/>
+      <c r="BF361" s="17"/>
+      <c r="BG361" s="17"/>
+      <c r="BH361" s="17"/>
+      <c r="BI361" s="17"/>
+      <c r="BJ361" s="17"/>
+      <c r="BK361" s="17"/>
+      <c r="BL361" s="17"/>
+      <c r="BM361" s="17"/>
+      <c r="BN361" s="17"/>
+      <c r="BO361" s="17"/>
+      <c r="BP361" s="17"/>
+      <c r="BQ361" s="17"/>
+      <c r="BR361" s="17"/>
+      <c r="BS361" s="17"/>
+      <c r="BT361" s="17"/>
+      <c r="BU361" s="17"/>
+      <c r="BV361" s="17"/>
+    </row>
+    <row r="362" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A362" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="D362" s="9" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="363" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A363" s="17"/>
+      <c r="B363" s="17"/>
+      <c r="C363" s="17"/>
+      <c r="D363" s="17"/>
+      <c r="E363" s="17"/>
+      <c r="F363" s="17"/>
+      <c r="G363" s="17"/>
+      <c r="H363" s="17"/>
+      <c r="I363" s="17"/>
+      <c r="J363" s="17"/>
+      <c r="K363" s="17"/>
+      <c r="L363" s="17"/>
+      <c r="M363" s="17"/>
+      <c r="N363" s="17"/>
+      <c r="O363" s="17"/>
+      <c r="P363" s="17"/>
+      <c r="Q363" s="17"/>
+      <c r="R363" s="17"/>
+      <c r="S363" s="17"/>
+      <c r="T363" s="17"/>
+      <c r="U363" s="17"/>
+      <c r="V363" s="17"/>
+      <c r="W363" s="17"/>
+      <c r="X363" s="17"/>
+      <c r="Y363" s="17"/>
+      <c r="Z363" s="17"/>
+      <c r="AA363" s="17"/>
+      <c r="AB363" s="17"/>
+      <c r="AC363" s="17"/>
+      <c r="AD363" s="17"/>
+      <c r="AE363" s="17"/>
+      <c r="AF363" s="17"/>
+      <c r="AG363" s="17"/>
+      <c r="AH363" s="17"/>
+      <c r="AI363" s="17"/>
+      <c r="AJ363" s="17"/>
+      <c r="AK363" s="17"/>
+      <c r="AL363" s="17"/>
+      <c r="AM363" s="17"/>
+      <c r="AN363" s="17"/>
+      <c r="AO363" s="17"/>
+      <c r="AP363" s="17"/>
+      <c r="AQ363" s="17"/>
+      <c r="AR363" s="17"/>
+      <c r="AS363" s="17"/>
+      <c r="AT363" s="17"/>
+      <c r="AU363" s="17"/>
+      <c r="AV363" s="17"/>
+      <c r="AW363" s="17"/>
+      <c r="AX363" s="17"/>
+      <c r="AY363" s="17"/>
+      <c r="AZ363" s="17"/>
+      <c r="BA363" s="17"/>
+      <c r="BB363" s="17"/>
+      <c r="BC363" s="17"/>
+      <c r="BD363" s="17"/>
+      <c r="BE363" s="17"/>
+      <c r="BF363" s="17"/>
+      <c r="BG363" s="17"/>
+      <c r="BH363" s="17"/>
+      <c r="BI363" s="17"/>
+      <c r="BJ363" s="17"/>
+      <c r="BK363" s="17"/>
+      <c r="BL363" s="17"/>
+      <c r="BM363" s="17"/>
+      <c r="BN363" s="17"/>
+      <c r="BO363" s="17"/>
+      <c r="BP363" s="17"/>
+      <c r="BQ363" s="17"/>
+      <c r="BR363" s="17"/>
+      <c r="BS363" s="17"/>
+      <c r="BT363" s="17"/>
+      <c r="BU363" s="17"/>
+      <c r="BV363" s="17"/>
+    </row>
+    <row r="364" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A364" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="D364" s="9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="365" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A365" s="17"/>
+      <c r="B365" s="17"/>
+      <c r="C365" s="17"/>
+      <c r="D365" s="17"/>
+      <c r="E365" s="17"/>
+      <c r="F365" s="17"/>
+      <c r="G365" s="17"/>
+      <c r="H365" s="17"/>
+      <c r="I365" s="17"/>
+      <c r="J365" s="17"/>
+      <c r="K365" s="17"/>
+      <c r="L365" s="17"/>
+      <c r="M365" s="17"/>
+      <c r="N365" s="17"/>
+      <c r="O365" s="17"/>
+      <c r="P365" s="17"/>
+      <c r="Q365" s="17"/>
+      <c r="R365" s="17"/>
+      <c r="S365" s="17"/>
+      <c r="T365" s="17"/>
+      <c r="U365" s="17"/>
+      <c r="V365" s="17"/>
+      <c r="W365" s="17"/>
+      <c r="X365" s="17"/>
+      <c r="Y365" s="17"/>
+      <c r="Z365" s="17"/>
+      <c r="AA365" s="17"/>
+      <c r="AB365" s="17"/>
+      <c r="AC365" s="17"/>
+      <c r="AD365" s="17"/>
+      <c r="AE365" s="17"/>
+      <c r="AF365" s="17"/>
+      <c r="AG365" s="17"/>
+      <c r="AH365" s="17"/>
+      <c r="AI365" s="17"/>
+      <c r="AJ365" s="17"/>
+      <c r="AK365" s="17"/>
+      <c r="AL365" s="17"/>
+      <c r="AM365" s="17"/>
+      <c r="AN365" s="17"/>
+      <c r="AO365" s="17"/>
+      <c r="AP365" s="17"/>
+      <c r="AQ365" s="17"/>
+      <c r="AR365" s="17"/>
+      <c r="AS365" s="17"/>
+      <c r="AT365" s="17"/>
+      <c r="AU365" s="17"/>
+      <c r="AV365" s="17"/>
+      <c r="AW365" s="17"/>
+      <c r="AX365" s="17"/>
+      <c r="AY365" s="17"/>
+      <c r="AZ365" s="17"/>
+      <c r="BA365" s="17"/>
+      <c r="BB365" s="17"/>
+      <c r="BC365" s="17"/>
+      <c r="BD365" s="17"/>
+      <c r="BE365" s="17"/>
+      <c r="BF365" s="17"/>
+      <c r="BG365" s="17"/>
+      <c r="BH365" s="17"/>
+      <c r="BI365" s="17"/>
+      <c r="BJ365" s="17"/>
+      <c r="BK365" s="17"/>
+      <c r="BL365" s="17"/>
+      <c r="BM365" s="17"/>
+      <c r="BN365" s="17"/>
+      <c r="BO365" s="17"/>
+      <c r="BP365" s="17"/>
+      <c r="BQ365" s="17"/>
+      <c r="BR365" s="17"/>
+      <c r="BS365" s="17"/>
+      <c r="BT365" s="17"/>
+      <c r="BU365" s="17"/>
+      <c r="BV365" s="17"/>
+    </row>
+    <row r="366" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A366" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="D366" s="9" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="367" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A367" s="17"/>
+      <c r="B367" s="17"/>
+      <c r="C367" s="17"/>
+      <c r="D367" s="17"/>
+      <c r="E367" s="17"/>
+      <c r="F367" s="17"/>
+      <c r="G367" s="17"/>
+      <c r="H367" s="17"/>
+      <c r="I367" s="17"/>
+      <c r="J367" s="17"/>
+      <c r="K367" s="17"/>
+      <c r="L367" s="17"/>
+      <c r="M367" s="17"/>
+      <c r="N367" s="17"/>
+      <c r="O367" s="17"/>
+      <c r="P367" s="17"/>
+      <c r="Q367" s="17"/>
+      <c r="R367" s="17"/>
+      <c r="S367" s="17"/>
+      <c r="T367" s="17"/>
+      <c r="U367" s="17"/>
+      <c r="V367" s="17"/>
+      <c r="W367" s="17"/>
+      <c r="X367" s="17"/>
+      <c r="Y367" s="17"/>
+      <c r="Z367" s="17"/>
+      <c r="AA367" s="17"/>
+      <c r="AB367" s="17"/>
+      <c r="AC367" s="17"/>
+      <c r="AD367" s="17"/>
+      <c r="AE367" s="17"/>
+      <c r="AF367" s="17"/>
+      <c r="AG367" s="17"/>
+      <c r="AH367" s="17"/>
+      <c r="AI367" s="17"/>
+      <c r="AJ367" s="17"/>
+      <c r="AK367" s="17"/>
+      <c r="AL367" s="17"/>
+      <c r="AM367" s="17"/>
+      <c r="AN367" s="17"/>
+      <c r="AO367" s="17"/>
+      <c r="AP367" s="17"/>
+      <c r="AQ367" s="17"/>
+      <c r="AR367" s="17"/>
+      <c r="AS367" s="17"/>
+      <c r="AT367" s="17"/>
+      <c r="AU367" s="17"/>
+      <c r="AV367" s="17"/>
+      <c r="AW367" s="17"/>
+      <c r="AX367" s="17"/>
+      <c r="AY367" s="17"/>
+      <c r="AZ367" s="17"/>
+      <c r="BA367" s="17"/>
+      <c r="BB367" s="17"/>
+      <c r="BC367" s="17"/>
+      <c r="BD367" s="17"/>
+      <c r="BE367" s="17"/>
+      <c r="BF367" s="17"/>
+      <c r="BG367" s="17"/>
+      <c r="BH367" s="17"/>
+      <c r="BI367" s="17"/>
+      <c r="BJ367" s="17"/>
+      <c r="BK367" s="17"/>
+      <c r="BL367" s="17"/>
+      <c r="BM367" s="17"/>
+      <c r="BN367" s="17"/>
+      <c r="BO367" s="17"/>
+      <c r="BP367" s="17"/>
+      <c r="BQ367" s="17"/>
+      <c r="BR367" s="17"/>
+      <c r="BS367" s="17"/>
+      <c r="BT367" s="17"/>
+      <c r="BU367" s="17"/>
+      <c r="BV367" s="17"/>
+    </row>
+    <row r="368" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A368" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="D368" s="9" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="369" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A369" s="17"/>
+      <c r="B369" s="17"/>
+      <c r="C369" s="17"/>
+      <c r="D369" s="17"/>
+      <c r="E369" s="17"/>
+      <c r="F369" s="17"/>
+      <c r="G369" s="17"/>
+      <c r="H369" s="17"/>
+      <c r="I369" s="17"/>
+      <c r="J369" s="17"/>
+      <c r="K369" s="17"/>
+      <c r="L369" s="17"/>
+      <c r="M369" s="17"/>
+      <c r="N369" s="17"/>
+      <c r="O369" s="17"/>
+      <c r="P369" s="17"/>
+      <c r="Q369" s="17"/>
+      <c r="R369" s="17"/>
+      <c r="S369" s="17"/>
+      <c r="T369" s="17"/>
+      <c r="U369" s="17"/>
+      <c r="V369" s="17"/>
+      <c r="W369" s="17"/>
+      <c r="X369" s="17"/>
+      <c r="Y369" s="17"/>
+      <c r="Z369" s="17"/>
+      <c r="AA369" s="17"/>
+      <c r="AB369" s="17"/>
+      <c r="AC369" s="17"/>
+      <c r="AD369" s="17"/>
+      <c r="AE369" s="17"/>
+      <c r="AF369" s="17"/>
+      <c r="AG369" s="17"/>
+      <c r="AH369" s="17"/>
+      <c r="AI369" s="17"/>
+      <c r="AJ369" s="17"/>
+      <c r="AK369" s="17"/>
+      <c r="AL369" s="17"/>
+      <c r="AM369" s="17"/>
+      <c r="AN369" s="17"/>
+      <c r="AO369" s="17"/>
+      <c r="AP369" s="17"/>
+      <c r="AQ369" s="17"/>
+      <c r="AR369" s="17"/>
+      <c r="AS369" s="17"/>
+      <c r="AT369" s="17"/>
+      <c r="AU369" s="17"/>
+      <c r="AV369" s="17"/>
+      <c r="AW369" s="17"/>
+      <c r="AX369" s="17"/>
+      <c r="AY369" s="17"/>
+      <c r="AZ369" s="17"/>
+      <c r="BA369" s="17"/>
+      <c r="BB369" s="17"/>
+      <c r="BC369" s="17"/>
+      <c r="BD369" s="17"/>
+      <c r="BE369" s="17"/>
+      <c r="BF369" s="17"/>
+      <c r="BG369" s="17"/>
+      <c r="BH369" s="17"/>
+      <c r="BI369" s="17"/>
+      <c r="BJ369" s="17"/>
+      <c r="BK369" s="17"/>
+      <c r="BL369" s="17"/>
+      <c r="BM369" s="17"/>
+      <c r="BN369" s="17"/>
+      <c r="BO369" s="17"/>
+      <c r="BP369" s="17"/>
+      <c r="BQ369" s="17"/>
+      <c r="BR369" s="17"/>
+      <c r="BS369" s="17"/>
+      <c r="BT369" s="17"/>
+      <c r="BU369" s="17"/>
+      <c r="BV369" s="17"/>
+    </row>
+    <row r="370" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="371" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A371" s="17"/>
+      <c r="B371" s="17"/>
+      <c r="C371" s="17"/>
+      <c r="D371" s="17"/>
+      <c r="E371" s="17"/>
+      <c r="F371" s="17"/>
+      <c r="G371" s="17"/>
+      <c r="H371" s="17"/>
+      <c r="I371" s="17"/>
+      <c r="J371" s="17"/>
+      <c r="K371" s="17"/>
+      <c r="L371" s="17"/>
+      <c r="M371" s="17"/>
+      <c r="N371" s="17"/>
+      <c r="O371" s="17"/>
+      <c r="P371" s="17"/>
+      <c r="Q371" s="17"/>
+      <c r="R371" s="17"/>
+      <c r="S371" s="17"/>
+      <c r="T371" s="17"/>
+      <c r="U371" s="17"/>
+      <c r="V371" s="17"/>
+      <c r="W371" s="17"/>
+      <c r="X371" s="17"/>
+      <c r="Y371" s="17"/>
+      <c r="Z371" s="17"/>
+      <c r="AA371" s="17"/>
+      <c r="AB371" s="17"/>
+      <c r="AC371" s="17"/>
+      <c r="AD371" s="17"/>
+      <c r="AE371" s="17"/>
+      <c r="AF371" s="17"/>
+      <c r="AG371" s="17"/>
+      <c r="AH371" s="17"/>
+      <c r="AI371" s="17"/>
+      <c r="AJ371" s="17"/>
+      <c r="AK371" s="17"/>
+      <c r="AL371" s="17"/>
+      <c r="AM371" s="17"/>
+      <c r="AN371" s="17"/>
+      <c r="AO371" s="17"/>
+      <c r="AP371" s="17"/>
+      <c r="AQ371" s="17"/>
+      <c r="AR371" s="17"/>
+      <c r="AS371" s="17"/>
+      <c r="AT371" s="17"/>
+      <c r="AU371" s="17"/>
+      <c r="AV371" s="17"/>
+      <c r="AW371" s="17"/>
+      <c r="AX371" s="17"/>
+      <c r="AY371" s="17"/>
+      <c r="AZ371" s="17"/>
+      <c r="BA371" s="17"/>
+      <c r="BB371" s="17"/>
+      <c r="BC371" s="17"/>
+      <c r="BD371" s="17"/>
+      <c r="BE371" s="17"/>
+      <c r="BF371" s="17"/>
+      <c r="BG371" s="17"/>
+      <c r="BH371" s="17"/>
+      <c r="BI371" s="17"/>
+      <c r="BJ371" s="17"/>
+      <c r="BK371" s="17"/>
+      <c r="BL371" s="17"/>
+      <c r="BM371" s="17"/>
+      <c r="BN371" s="17"/>
+      <c r="BO371" s="17"/>
+      <c r="BP371" s="17"/>
+      <c r="BQ371" s="17"/>
+      <c r="BR371" s="17"/>
+      <c r="BS371" s="17"/>
+      <c r="BT371" s="17"/>
+      <c r="BU371" s="17"/>
+      <c r="BV371" s="17"/>
+    </row>
+    <row r="372" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="373" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A373" s="17"/>
+      <c r="B373" s="17"/>
+      <c r="C373" s="17"/>
+      <c r="D373" s="17"/>
+      <c r="E373" s="17"/>
+      <c r="F373" s="17"/>
+      <c r="G373" s="17"/>
+      <c r="H373" s="17"/>
+      <c r="I373" s="17"/>
+      <c r="J373" s="17"/>
+      <c r="K373" s="17"/>
+      <c r="L373" s="17"/>
+      <c r="M373" s="17"/>
+      <c r="N373" s="17"/>
+      <c r="O373" s="17"/>
+      <c r="P373" s="17"/>
+      <c r="Q373" s="17"/>
+      <c r="R373" s="17"/>
+      <c r="S373" s="17"/>
+      <c r="T373" s="17"/>
+      <c r="U373" s="17"/>
+      <c r="V373" s="17"/>
+      <c r="W373" s="17"/>
+      <c r="X373" s="17"/>
+      <c r="Y373" s="17"/>
+      <c r="Z373" s="17"/>
+      <c r="AA373" s="17"/>
+      <c r="AB373" s="17"/>
+      <c r="AC373" s="17"/>
+      <c r="AD373" s="17"/>
+      <c r="AE373" s="17"/>
+      <c r="AF373" s="17"/>
+      <c r="AG373" s="17"/>
+      <c r="AH373" s="17"/>
+      <c r="AI373" s="17"/>
+      <c r="AJ373" s="17"/>
+      <c r="AK373" s="17"/>
+      <c r="AL373" s="17"/>
+      <c r="AM373" s="17"/>
+      <c r="AN373" s="17"/>
+      <c r="AO373" s="17"/>
+      <c r="AP373" s="17"/>
+      <c r="AQ373" s="17"/>
+      <c r="AR373" s="17"/>
+      <c r="AS373" s="17"/>
+      <c r="AT373" s="17"/>
+      <c r="AU373" s="17"/>
+      <c r="AV373" s="17"/>
+      <c r="AW373" s="17"/>
+      <c r="AX373" s="17"/>
+      <c r="AY373" s="17"/>
+      <c r="AZ373" s="17"/>
+      <c r="BA373" s="17"/>
+      <c r="BB373" s="17"/>
+      <c r="BC373" s="17"/>
+      <c r="BD373" s="17"/>
+      <c r="BE373" s="17"/>
+      <c r="BF373" s="17"/>
+      <c r="BG373" s="17"/>
+      <c r="BH373" s="17"/>
+      <c r="BI373" s="17"/>
+      <c r="BJ373" s="17"/>
+      <c r="BK373" s="17"/>
+      <c r="BL373" s="17"/>
+      <c r="BM373" s="17"/>
+      <c r="BN373" s="17"/>
+      <c r="BO373" s="17"/>
+      <c r="BP373" s="17"/>
+      <c r="BQ373" s="17"/>
+      <c r="BR373" s="17"/>
+      <c r="BS373" s="17"/>
+      <c r="BT373" s="17"/>
+      <c r="BU373" s="17"/>
+      <c r="BV373" s="17"/>
+    </row>
+    <row r="374" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="375" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A375" s="17"/>
+      <c r="B375" s="17"/>
+      <c r="C375" s="17"/>
+      <c r="D375" s="17"/>
+      <c r="E375" s="17"/>
+      <c r="F375" s="17"/>
+      <c r="G375" s="17"/>
+      <c r="H375" s="17"/>
+      <c r="I375" s="17"/>
+      <c r="J375" s="17"/>
+      <c r="K375" s="17"/>
+      <c r="L375" s="17"/>
+      <c r="M375" s="17"/>
+      <c r="N375" s="17"/>
+      <c r="O375" s="17"/>
+      <c r="P375" s="17"/>
+      <c r="Q375" s="17"/>
+      <c r="R375" s="17"/>
+      <c r="S375" s="17"/>
+      <c r="T375" s="17"/>
+      <c r="U375" s="17"/>
+      <c r="V375" s="17"/>
+      <c r="W375" s="17"/>
+      <c r="X375" s="17"/>
+      <c r="Y375" s="17"/>
+      <c r="Z375" s="17"/>
+      <c r="AA375" s="17"/>
+      <c r="AB375" s="17"/>
+      <c r="AC375" s="17"/>
+      <c r="AD375" s="17"/>
+      <c r="AE375" s="17"/>
+      <c r="AF375" s="17"/>
+      <c r="AG375" s="17"/>
+      <c r="AH375" s="17"/>
+      <c r="AI375" s="17"/>
+      <c r="AJ375" s="17"/>
+      <c r="AK375" s="17"/>
+      <c r="AL375" s="17"/>
+      <c r="AM375" s="17"/>
+      <c r="AN375" s="17"/>
+      <c r="AO375" s="17"/>
+      <c r="AP375" s="17"/>
+      <c r="AQ375" s="17"/>
+      <c r="AR375" s="17"/>
+      <c r="AS375" s="17"/>
+      <c r="AT375" s="17"/>
+      <c r="AU375" s="17"/>
+      <c r="AV375" s="17"/>
+      <c r="AW375" s="17"/>
+      <c r="AX375" s="17"/>
+      <c r="AY375" s="17"/>
+      <c r="AZ375" s="17"/>
+      <c r="BA375" s="17"/>
+      <c r="BB375" s="17"/>
+      <c r="BC375" s="17"/>
+      <c r="BD375" s="17"/>
+      <c r="BE375" s="17"/>
+      <c r="BF375" s="17"/>
+      <c r="BG375" s="17"/>
+      <c r="BH375" s="17"/>
+      <c r="BI375" s="17"/>
+      <c r="BJ375" s="17"/>
+      <c r="BK375" s="17"/>
+      <c r="BL375" s="17"/>
+      <c r="BM375" s="17"/>
+      <c r="BN375" s="17"/>
+      <c r="BO375" s="17"/>
+      <c r="BP375" s="17"/>
+      <c r="BQ375" s="17"/>
+      <c r="BR375" s="17"/>
+      <c r="BS375" s="17"/>
+      <c r="BT375" s="17"/>
+      <c r="BU375" s="17"/>
+      <c r="BV375" s="17"/>
+    </row>
+    <row r="377" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A377" s="17"/>
+      <c r="B377" s="17"/>
+      <c r="C377" s="17"/>
+      <c r="D377" s="17"/>
+      <c r="E377" s="17"/>
+      <c r="F377" s="17"/>
+      <c r="G377" s="17"/>
+      <c r="H377" s="17"/>
+      <c r="I377" s="17"/>
+      <c r="J377" s="17"/>
+      <c r="K377" s="17"/>
+      <c r="L377" s="17"/>
+      <c r="M377" s="17"/>
+      <c r="N377" s="17"/>
+      <c r="O377" s="17"/>
+      <c r="P377" s="17"/>
+      <c r="Q377" s="17"/>
+      <c r="R377" s="17"/>
+      <c r="S377" s="17"/>
+      <c r="T377" s="17"/>
+      <c r="U377" s="17"/>
+      <c r="V377" s="17"/>
+      <c r="W377" s="17"/>
+      <c r="X377" s="17"/>
+      <c r="Y377" s="17"/>
+      <c r="Z377" s="17"/>
+      <c r="AA377" s="17"/>
+      <c r="AB377" s="17"/>
+      <c r="AC377" s="17"/>
+      <c r="AD377" s="17"/>
+      <c r="AE377" s="17"/>
+      <c r="AF377" s="17"/>
+      <c r="AG377" s="17"/>
+      <c r="AH377" s="17"/>
+      <c r="AI377" s="17"/>
+      <c r="AJ377" s="17"/>
+      <c r="AK377" s="17"/>
+      <c r="AL377" s="17"/>
+      <c r="AM377" s="17"/>
+      <c r="AN377" s="17"/>
+      <c r="AO377" s="17"/>
+      <c r="AP377" s="17"/>
+      <c r="AQ377" s="17"/>
+      <c r="AR377" s="17"/>
+      <c r="AS377" s="17"/>
+      <c r="AT377" s="17"/>
+      <c r="AU377" s="17"/>
+      <c r="AV377" s="17"/>
+      <c r="AW377" s="17"/>
+      <c r="AX377" s="17"/>
+      <c r="AY377" s="17"/>
+      <c r="AZ377" s="17"/>
+      <c r="BA377" s="17"/>
+      <c r="BB377" s="17"/>
+      <c r="BC377" s="17"/>
+      <c r="BD377" s="17"/>
+      <c r="BE377" s="17"/>
+      <c r="BF377" s="17"/>
+      <c r="BG377" s="17"/>
+      <c r="BH377" s="17"/>
+      <c r="BI377" s="17"/>
+      <c r="BJ377" s="17"/>
+      <c r="BK377" s="17"/>
+      <c r="BL377" s="17"/>
+      <c r="BM377" s="17"/>
+      <c r="BN377" s="17"/>
+      <c r="BO377" s="17"/>
+      <c r="BP377" s="17"/>
+      <c r="BQ377" s="17"/>
+      <c r="BR377" s="17"/>
+      <c r="BS377" s="17"/>
+      <c r="BT377" s="17"/>
+      <c r="BU377" s="17"/>
+      <c r="BV377" s="17"/>
+    </row>
+    <row r="379" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A379" s="17"/>
+      <c r="B379" s="17"/>
+      <c r="C379" s="17"/>
+      <c r="D379" s="17"/>
+      <c r="E379" s="17"/>
+      <c r="F379" s="17"/>
+      <c r="G379" s="17"/>
+      <c r="H379" s="17"/>
+      <c r="I379" s="17"/>
+      <c r="J379" s="17"/>
+      <c r="K379" s="17"/>
+      <c r="L379" s="17"/>
+      <c r="M379" s="17"/>
+      <c r="N379" s="17"/>
+      <c r="O379" s="17"/>
+      <c r="P379" s="17"/>
+      <c r="Q379" s="17"/>
+      <c r="R379" s="17"/>
+      <c r="S379" s="17"/>
+      <c r="T379" s="17"/>
+      <c r="U379" s="17"/>
+      <c r="V379" s="17"/>
+      <c r="W379" s="17"/>
+      <c r="X379" s="17"/>
+      <c r="Y379" s="17"/>
+      <c r="Z379" s="17"/>
+      <c r="AA379" s="17"/>
+      <c r="AB379" s="17"/>
+      <c r="AC379" s="17"/>
+      <c r="AD379" s="17"/>
+      <c r="AE379" s="17"/>
+      <c r="AF379" s="17"/>
+      <c r="AG379" s="17"/>
+      <c r="AH379" s="17"/>
+      <c r="AI379" s="17"/>
+      <c r="AJ379" s="17"/>
+      <c r="AK379" s="17"/>
+      <c r="AL379" s="17"/>
+      <c r="AM379" s="17"/>
+      <c r="AN379" s="17"/>
+      <c r="AO379" s="17"/>
+      <c r="AP379" s="17"/>
+      <c r="AQ379" s="17"/>
+      <c r="AR379" s="17"/>
+      <c r="AS379" s="17"/>
+      <c r="AT379" s="17"/>
+      <c r="AU379" s="17"/>
+      <c r="AV379" s="17"/>
+      <c r="AW379" s="17"/>
+      <c r="AX379" s="17"/>
+      <c r="AY379" s="17"/>
+      <c r="AZ379" s="17"/>
+      <c r="BA379" s="17"/>
+      <c r="BB379" s="17"/>
+      <c r="BC379" s="17"/>
+      <c r="BD379" s="17"/>
+      <c r="BE379" s="17"/>
+      <c r="BF379" s="17"/>
+      <c r="BG379" s="17"/>
+      <c r="BH379" s="17"/>
+      <c r="BI379" s="17"/>
+      <c r="BJ379" s="17"/>
+      <c r="BK379" s="17"/>
+      <c r="BL379" s="17"/>
+      <c r="BM379" s="17"/>
+      <c r="BN379" s="17"/>
+      <c r="BO379" s="17"/>
+      <c r="BP379" s="17"/>
+      <c r="BQ379" s="17"/>
+      <c r="BR379" s="17"/>
+      <c r="BS379" s="17"/>
+      <c r="BT379" s="17"/>
+      <c r="BU379" s="17"/>
+      <c r="BV379" s="17"/>
+    </row>
+    <row r="381" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A381" s="17"/>
+      <c r="B381" s="17"/>
+      <c r="C381" s="17"/>
+      <c r="D381" s="17"/>
+      <c r="E381" s="17"/>
+      <c r="F381" s="17"/>
+      <c r="G381" s="17"/>
+      <c r="H381" s="17"/>
+      <c r="I381" s="17"/>
+      <c r="J381" s="17"/>
+      <c r="K381" s="17"/>
+      <c r="L381" s="17"/>
+      <c r="M381" s="17"/>
+      <c r="N381" s="17"/>
+      <c r="O381" s="17"/>
+      <c r="P381" s="17"/>
+      <c r="Q381" s="17"/>
+      <c r="R381" s="17"/>
+      <c r="S381" s="17"/>
+      <c r="T381" s="17"/>
+      <c r="U381" s="17"/>
+      <c r="V381" s="17"/>
+      <c r="W381" s="17"/>
+      <c r="X381" s="17"/>
+      <c r="Y381" s="17"/>
+      <c r="Z381" s="17"/>
+      <c r="AA381" s="17"/>
+      <c r="AB381" s="17"/>
+      <c r="AC381" s="17"/>
+      <c r="AD381" s="17"/>
+      <c r="AE381" s="17"/>
+      <c r="AF381" s="17"/>
+      <c r="AG381" s="17"/>
+      <c r="AH381" s="17"/>
+      <c r="AI381" s="17"/>
+      <c r="AJ381" s="17"/>
+      <c r="AK381" s="17"/>
+      <c r="AL381" s="17"/>
+      <c r="AM381" s="17"/>
+      <c r="AN381" s="17"/>
+      <c r="AO381" s="17"/>
+      <c r="AP381" s="17"/>
+      <c r="AQ381" s="17"/>
+      <c r="AR381" s="17"/>
+      <c r="AS381" s="17"/>
+      <c r="AT381" s="17"/>
+      <c r="AU381" s="17"/>
+      <c r="AV381" s="17"/>
+      <c r="AW381" s="17"/>
+      <c r="AX381" s="17"/>
+      <c r="AY381" s="17"/>
+      <c r="AZ381" s="17"/>
+      <c r="BA381" s="17"/>
+      <c r="BB381" s="17"/>
+      <c r="BC381" s="17"/>
+      <c r="BD381" s="17"/>
+      <c r="BE381" s="17"/>
+      <c r="BF381" s="17"/>
+      <c r="BG381" s="17"/>
+      <c r="BH381" s="17"/>
+      <c r="BI381" s="17"/>
+      <c r="BJ381" s="17"/>
+      <c r="BK381" s="17"/>
+      <c r="BL381" s="17"/>
+      <c r="BM381" s="17"/>
+      <c r="BN381" s="17"/>
+      <c r="BO381" s="17"/>
+      <c r="BP381" s="17"/>
+      <c r="BQ381" s="17"/>
+      <c r="BR381" s="17"/>
+      <c r="BS381" s="17"/>
+      <c r="BT381" s="17"/>
+      <c r="BU381" s="17"/>
+      <c r="BV381" s="17"/>
+    </row>
+    <row r="383" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A383" s="17"/>
+      <c r="B383" s="17"/>
+      <c r="C383" s="17"/>
+      <c r="D383" s="17"/>
+      <c r="E383" s="17"/>
+      <c r="F383" s="17"/>
+      <c r="G383" s="17"/>
+      <c r="H383" s="17"/>
+      <c r="I383" s="17"/>
+      <c r="J383" s="17"/>
+      <c r="K383" s="17"/>
+      <c r="L383" s="17"/>
+      <c r="M383" s="17"/>
+      <c r="N383" s="17"/>
+      <c r="O383" s="17"/>
+      <c r="P383" s="17"/>
+      <c r="Q383" s="17"/>
+      <c r="R383" s="17"/>
+      <c r="S383" s="17"/>
+      <c r="T383" s="17"/>
+      <c r="U383" s="17"/>
+      <c r="V383" s="17"/>
+      <c r="W383" s="17"/>
+      <c r="X383" s="17"/>
+      <c r="Y383" s="17"/>
+      <c r="Z383" s="17"/>
+      <c r="AA383" s="17"/>
+      <c r="AB383" s="17"/>
+      <c r="AC383" s="17"/>
+      <c r="AD383" s="17"/>
+      <c r="AE383" s="17"/>
+      <c r="AF383" s="17"/>
+      <c r="AG383" s="17"/>
+      <c r="AH383" s="17"/>
+      <c r="AI383" s="17"/>
+      <c r="AJ383" s="17"/>
+      <c r="AK383" s="17"/>
+      <c r="AL383" s="17"/>
+      <c r="AM383" s="17"/>
+      <c r="AN383" s="17"/>
+      <c r="AO383" s="17"/>
+      <c r="AP383" s="17"/>
+      <c r="AQ383" s="17"/>
+      <c r="AR383" s="17"/>
+      <c r="AS383" s="17"/>
+      <c r="AT383" s="17"/>
+      <c r="AU383" s="17"/>
+      <c r="AV383" s="17"/>
+      <c r="AW383" s="17"/>
+      <c r="AX383" s="17"/>
+      <c r="AY383" s="17"/>
+      <c r="AZ383" s="17"/>
+      <c r="BA383" s="17"/>
+      <c r="BB383" s="17"/>
+      <c r="BC383" s="17"/>
+      <c r="BD383" s="17"/>
+      <c r="BE383" s="17"/>
+      <c r="BF383" s="17"/>
+      <c r="BG383" s="17"/>
+      <c r="BH383" s="17"/>
+      <c r="BI383" s="17"/>
+      <c r="BJ383" s="17"/>
+      <c r="BK383" s="17"/>
+      <c r="BL383" s="17"/>
+      <c r="BM383" s="17"/>
+      <c r="BN383" s="17"/>
+      <c r="BO383" s="17"/>
+      <c r="BP383" s="17"/>
+      <c r="BQ383" s="17"/>
+      <c r="BR383" s="17"/>
+      <c r="BS383" s="17"/>
+      <c r="BT383" s="17"/>
+      <c r="BU383" s="17"/>
+      <c r="BV383" s="17"/>
+    </row>
+    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A428" s="12"/>
+      <c r="B428" s="12"/>
+      <c r="C428" s="12"/>
+      <c r="D428" s="12"/>
+      <c r="E428" s="12"/>
+      <c r="F428" s="12"/>
+      <c r="G428" s="12"/>
+      <c r="H428" s="12"/>
+      <c r="I428" s="12"/>
+      <c r="J428" s="12"/>
+      <c r="K428" s="12"/>
+      <c r="L428" s="12"/>
+    </row>
+    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A429" s="12"/>
+      <c r="B429" s="12"/>
+      <c r="C429" s="12"/>
+      <c r="D429" s="12"/>
+      <c r="E429" s="12"/>
+      <c r="F429" s="12"/>
+      <c r="G429" s="12"/>
+      <c r="H429" s="12"/>
+      <c r="I429" s="12"/>
+      <c r="J429" s="12"/>
+      <c r="K429" s="12"/>
+      <c r="L429" s="12"/>
+    </row>
+    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A430" s="12"/>
       <c r="B430" s="12"/>
       <c r="C430" s="12"/>
@@ -5358,7 +10650,7 @@
       <c r="K430" s="12"/>
       <c r="L430" s="12"/>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A431" s="12"/>
       <c r="B431" s="12"/>
       <c r="C431" s="12"/>
@@ -5372,35 +10664,35 @@
       <c r="K431" s="12"/>
       <c r="L431" s="12"/>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A432" s="12"/>
-      <c r="B432" s="12"/>
-      <c r="C432" s="12"/>
-      <c r="D432" s="12"/>
-      <c r="E432" s="12"/>
-      <c r="F432" s="12"/>
-      <c r="G432" s="12"/>
-      <c r="H432" s="12"/>
-      <c r="I432" s="12"/>
-      <c r="J432" s="12"/>
+    <row r="432" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A432" s="14"/>
+      <c r="B432" s="14"/>
+      <c r="C432" s="14"/>
+      <c r="D432" s="14"/>
+      <c r="E432" s="14"/>
+      <c r="F432" s="14"/>
+      <c r="G432" s="14"/>
+      <c r="H432" s="14"/>
+      <c r="I432" s="14"/>
+      <c r="J432" s="14"/>
       <c r="K432" s="12"/>
       <c r="L432" s="12"/>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A433" s="12"/>
-      <c r="B433" s="12"/>
-      <c r="C433" s="12"/>
-      <c r="D433" s="12"/>
-      <c r="E433" s="12"/>
-      <c r="F433" s="12"/>
-      <c r="G433" s="12"/>
-      <c r="H433" s="12"/>
-      <c r="I433" s="12"/>
-      <c r="J433" s="12"/>
+    <row r="433" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A433" s="14"/>
+      <c r="B433" s="14"/>
+      <c r="C433" s="14"/>
+      <c r="D433" s="14"/>
+      <c r="E433" s="14"/>
+      <c r="F433" s="14"/>
+      <c r="G433" s="14"/>
+      <c r="H433" s="14"/>
+      <c r="I433" s="14"/>
+      <c r="J433" s="14"/>
       <c r="K433" s="12"/>
       <c r="L433" s="12"/>
     </row>
-    <row r="434" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A434" s="14"/>
       <c r="B434" s="14"/>
       <c r="C434" s="14"/>
@@ -5414,7 +10706,7 @@
       <c r="K434" s="12"/>
       <c r="L434" s="12"/>
     </row>
-    <row r="435" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A435" s="14"/>
       <c r="B435" s="14"/>
       <c r="C435" s="14"/>
@@ -5428,7 +10720,7 @@
       <c r="K435" s="12"/>
       <c r="L435" s="12"/>
     </row>
-    <row r="436" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A436" s="14"/>
       <c r="B436" s="14"/>
       <c r="C436" s="14"/>
@@ -5442,35 +10734,35 @@
       <c r="K436" s="12"/>
       <c r="L436" s="12"/>
     </row>
-    <row r="437" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A437" s="14"/>
-      <c r="B437" s="14"/>
-      <c r="C437" s="14"/>
-      <c r="D437" s="14"/>
-      <c r="E437" s="14"/>
-      <c r="F437" s="14"/>
-      <c r="G437" s="14"/>
-      <c r="H437" s="14"/>
-      <c r="I437" s="14"/>
-      <c r="J437" s="14"/>
+    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A437" s="12"/>
+      <c r="B437" s="12"/>
+      <c r="C437" s="12"/>
+      <c r="D437" s="12"/>
+      <c r="E437" s="12"/>
+      <c r="F437" s="12"/>
+      <c r="G437" s="12"/>
+      <c r="H437" s="12"/>
+      <c r="I437" s="12"/>
+      <c r="J437" s="12"/>
       <c r="K437" s="12"/>
       <c r="L437" s="12"/>
     </row>
-    <row r="438" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A438" s="14"/>
-      <c r="B438" s="14"/>
-      <c r="C438" s="14"/>
-      <c r="D438" s="14"/>
-      <c r="E438" s="14"/>
-      <c r="F438" s="14"/>
-      <c r="G438" s="14"/>
-      <c r="H438" s="14"/>
-      <c r="I438" s="14"/>
-      <c r="J438" s="14"/>
+    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A438" s="12"/>
+      <c r="B438" s="12"/>
+      <c r="C438" s="12"/>
+      <c r="D438" s="12"/>
+      <c r="E438" s="12"/>
+      <c r="F438" s="12"/>
+      <c r="G438" s="12"/>
+      <c r="H438" s="12"/>
+      <c r="I438" s="12"/>
+      <c r="J438" s="12"/>
       <c r="K438" s="12"/>
       <c r="L438" s="12"/>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A439" s="12"/>
       <c r="B439" s="12"/>
       <c r="C439" s="12"/>
@@ -5484,7 +10776,7 @@
       <c r="K439" s="12"/>
       <c r="L439" s="12"/>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A440" s="12"/>
       <c r="B440" s="12"/>
       <c r="C440" s="12"/>
@@ -5498,35 +10790,35 @@
       <c r="K440" s="12"/>
       <c r="L440" s="12"/>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A441" s="12"/>
-      <c r="B441" s="12"/>
-      <c r="C441" s="12"/>
-      <c r="D441" s="12"/>
-      <c r="E441" s="12"/>
-      <c r="F441" s="12"/>
-      <c r="G441" s="12"/>
-      <c r="H441" s="12"/>
-      <c r="I441" s="12"/>
-      <c r="J441" s="12"/>
+    <row r="441" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A441" s="14"/>
+      <c r="B441" s="14"/>
+      <c r="C441" s="14"/>
+      <c r="D441" s="14"/>
+      <c r="E441" s="14"/>
+      <c r="F441" s="14"/>
+      <c r="G441" s="14"/>
+      <c r="H441" s="14"/>
+      <c r="I441" s="14"/>
+      <c r="J441" s="14"/>
       <c r="K441" s="12"/>
       <c r="L441" s="12"/>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A442" s="12"/>
-      <c r="B442" s="12"/>
-      <c r="C442" s="12"/>
-      <c r="D442" s="12"/>
-      <c r="E442" s="12"/>
-      <c r="F442" s="12"/>
-      <c r="G442" s="12"/>
-      <c r="H442" s="12"/>
-      <c r="I442" s="12"/>
-      <c r="J442" s="12"/>
+    <row r="442" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A442" s="14"/>
+      <c r="B442" s="14"/>
+      <c r="C442" s="14"/>
+      <c r="D442" s="14"/>
+      <c r="E442" s="14"/>
+      <c r="F442" s="14"/>
+      <c r="G442" s="14"/>
+      <c r="H442" s="14"/>
+      <c r="I442" s="14"/>
+      <c r="J442" s="14"/>
       <c r="K442" s="12"/>
       <c r="L442" s="12"/>
     </row>
-    <row r="443" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A443" s="14"/>
       <c r="B443" s="14"/>
       <c r="C443" s="14"/>
@@ -5540,7 +10832,7 @@
       <c r="K443" s="12"/>
       <c r="L443" s="12"/>
     </row>
-    <row r="444" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A444" s="14"/>
       <c r="B444" s="14"/>
       <c r="C444" s="14"/>
@@ -5554,7 +10846,7 @@
       <c r="K444" s="12"/>
       <c r="L444" s="12"/>
     </row>
-    <row r="445" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A445" s="14"/>
       <c r="B445" s="14"/>
       <c r="C445" s="14"/>
@@ -5568,7 +10860,7 @@
       <c r="K445" s="12"/>
       <c r="L445" s="12"/>
     </row>
-    <row r="446" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A446" s="14"/>
       <c r="B446" s="14"/>
       <c r="C446" s="14"/>
@@ -5582,7 +10874,7 @@
       <c r="K446" s="12"/>
       <c r="L446" s="12"/>
     </row>
-    <row r="447" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A447" s="14"/>
       <c r="B447" s="14"/>
       <c r="C447" s="14"/>
@@ -5596,7 +10888,7 @@
       <c r="K447" s="12"/>
       <c r="L447" s="12"/>
     </row>
-    <row r="448" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A448" s="14"/>
       <c r="B448" s="14"/>
       <c r="C448" s="14"/>
@@ -5610,7 +10902,7 @@
       <c r="K448" s="12"/>
       <c r="L448" s="12"/>
     </row>
-    <row r="449" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A449" s="14"/>
       <c r="B449" s="14"/>
       <c r="C449" s="14"/>
@@ -5624,35 +10916,35 @@
       <c r="K449" s="12"/>
       <c r="L449" s="12"/>
     </row>
-    <row r="450" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A450" s="14"/>
-      <c r="B450" s="14"/>
-      <c r="C450" s="14"/>
-      <c r="D450" s="14"/>
-      <c r="E450" s="14"/>
-      <c r="F450" s="14"/>
-      <c r="G450" s="14"/>
-      <c r="H450" s="14"/>
-      <c r="I450" s="14"/>
-      <c r="J450" s="14"/>
+    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A450" s="12"/>
+      <c r="B450" s="12"/>
+      <c r="C450" s="12"/>
+      <c r="D450" s="12"/>
+      <c r="E450" s="12"/>
+      <c r="F450" s="12"/>
+      <c r="G450" s="12"/>
+      <c r="H450" s="12"/>
+      <c r="I450" s="12"/>
+      <c r="J450" s="12"/>
       <c r="K450" s="12"/>
       <c r="L450" s="12"/>
     </row>
-    <row r="451" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A451" s="14"/>
-      <c r="B451" s="14"/>
-      <c r="C451" s="14"/>
-      <c r="D451" s="14"/>
-      <c r="E451" s="14"/>
-      <c r="F451" s="14"/>
-      <c r="G451" s="14"/>
-      <c r="H451" s="14"/>
-      <c r="I451" s="14"/>
-      <c r="J451" s="14"/>
+    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A451" s="12"/>
+      <c r="B451" s="12"/>
+      <c r="C451" s="12"/>
+      <c r="D451" s="12"/>
+      <c r="E451" s="12"/>
+      <c r="F451" s="12"/>
+      <c r="G451" s="12"/>
+      <c r="H451" s="12"/>
+      <c r="I451" s="12"/>
+      <c r="J451" s="12"/>
       <c r="K451" s="12"/>
       <c r="L451" s="12"/>
     </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A452" s="12"/>
       <c r="B452" s="12"/>
       <c r="C452" s="12"/>
@@ -5666,35 +10958,35 @@
       <c r="K452" s="12"/>
       <c r="L452" s="12"/>
     </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A453" s="12"/>
-      <c r="B453" s="12"/>
-      <c r="C453" s="12"/>
-      <c r="D453" s="12"/>
-      <c r="E453" s="12"/>
-      <c r="F453" s="12"/>
-      <c r="G453" s="12"/>
-      <c r="H453" s="12"/>
-      <c r="I453" s="12"/>
-      <c r="J453" s="12"/>
+    <row r="453" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A453" s="14"/>
+      <c r="B453" s="14"/>
+      <c r="C453" s="14"/>
+      <c r="D453" s="14"/>
+      <c r="E453" s="14"/>
+      <c r="F453" s="14"/>
+      <c r="G453" s="14"/>
+      <c r="H453" s="14"/>
+      <c r="I453" s="14"/>
+      <c r="J453" s="14"/>
       <c r="K453" s="12"/>
       <c r="L453" s="12"/>
     </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A454" s="12"/>
-      <c r="B454" s="12"/>
-      <c r="C454" s="12"/>
-      <c r="D454" s="12"/>
-      <c r="E454" s="12"/>
-      <c r="F454" s="12"/>
-      <c r="G454" s="12"/>
-      <c r="H454" s="12"/>
-      <c r="I454" s="12"/>
-      <c r="J454" s="12"/>
+    <row r="454" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A454" s="14"/>
+      <c r="B454" s="14"/>
+      <c r="C454" s="14"/>
+      <c r="D454" s="14"/>
+      <c r="E454" s="14"/>
+      <c r="F454" s="14"/>
+      <c r="G454" s="14"/>
+      <c r="H454" s="14"/>
+      <c r="I454" s="14"/>
+      <c r="J454" s="14"/>
       <c r="K454" s="12"/>
       <c r="L454" s="12"/>
     </row>
-    <row r="455" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A455" s="14"/>
       <c r="B455" s="14"/>
       <c r="C455" s="14"/>
@@ -5708,7 +11000,7 @@
       <c r="K455" s="12"/>
       <c r="L455" s="12"/>
     </row>
-    <row r="456" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A456" s="14"/>
       <c r="B456" s="14"/>
       <c r="C456" s="14"/>
@@ -5722,7 +11014,7 @@
       <c r="K456" s="12"/>
       <c r="L456" s="12"/>
     </row>
-    <row r="457" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A457" s="14"/>
       <c r="B457" s="14"/>
       <c r="C457" s="14"/>
@@ -5736,7 +11028,7 @@
       <c r="K457" s="12"/>
       <c r="L457" s="12"/>
     </row>
-    <row r="458" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A458" s="14"/>
       <c r="B458" s="14"/>
       <c r="C458" s="14"/>
@@ -5750,7 +11042,7 @@
       <c r="K458" s="12"/>
       <c r="L458" s="12"/>
     </row>
-    <row r="459" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A459" s="14"/>
       <c r="B459" s="14"/>
       <c r="C459" s="14"/>
@@ -5764,13 +11056,13 @@
       <c r="K459" s="12"/>
       <c r="L459" s="12"/>
     </row>
-    <row r="460" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A460" s="14"/>
-      <c r="B460" s="14"/>
-      <c r="C460" s="14"/>
-      <c r="D460" s="14"/>
-      <c r="E460" s="14"/>
-      <c r="F460" s="14"/>
+    <row r="460" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A460" s="12"/>
+      <c r="B460" s="12"/>
+      <c r="C460" s="12"/>
+      <c r="D460" s="12"/>
+      <c r="E460" s="12"/>
+      <c r="F460" s="12"/>
       <c r="G460" s="14"/>
       <c r="H460" s="14"/>
       <c r="I460" s="14"/>
@@ -5778,13 +11070,13 @@
       <c r="K460" s="12"/>
       <c r="L460" s="12"/>
     </row>
-    <row r="461" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A461" s="14"/>
-      <c r="B461" s="14"/>
-      <c r="C461" s="14"/>
-      <c r="D461" s="14"/>
-      <c r="E461" s="14"/>
-      <c r="F461" s="14"/>
+    <row r="461" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A461" s="12"/>
+      <c r="B461" s="12"/>
+      <c r="C461" s="12"/>
+      <c r="D461" s="12"/>
+      <c r="E461" s="12"/>
+      <c r="F461" s="12"/>
       <c r="G461" s="14"/>
       <c r="H461" s="14"/>
       <c r="I461" s="14"/>
@@ -5792,7 +11084,7 @@
       <c r="K461" s="12"/>
       <c r="L461" s="12"/>
     </row>
-    <row r="462" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A462" s="12"/>
       <c r="B462" s="12"/>
       <c r="C462" s="12"/>
@@ -5806,27 +11098,27 @@
       <c r="K462" s="12"/>
       <c r="L462" s="12"/>
     </row>
-    <row r="463" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A463" s="12"/>
       <c r="B463" s="12"/>
       <c r="C463" s="12"/>
       <c r="D463" s="12"/>
       <c r="E463" s="12"/>
       <c r="F463" s="12"/>
-      <c r="G463" s="14"/>
-      <c r="H463" s="14"/>
-      <c r="I463" s="14"/>
-      <c r="J463" s="14"/>
+      <c r="G463" s="12"/>
+      <c r="H463" s="12"/>
+      <c r="I463" s="12"/>
+      <c r="J463" s="12"/>
       <c r="K463" s="12"/>
       <c r="L463" s="12"/>
     </row>
-    <row r="464" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A464" s="12"/>
-      <c r="B464" s="12"/>
-      <c r="C464" s="12"/>
-      <c r="D464" s="12"/>
-      <c r="E464" s="12"/>
-      <c r="F464" s="12"/>
+    <row r="464" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A464" s="14"/>
+      <c r="B464" s="14"/>
+      <c r="C464" s="14"/>
+      <c r="D464" s="14"/>
+      <c r="E464" s="14"/>
+      <c r="F464" s="14"/>
       <c r="G464" s="14"/>
       <c r="H464" s="14"/>
       <c r="I464" s="14"/>
@@ -5834,82 +11126,54 @@
       <c r="K464" s="12"/>
       <c r="L464" s="12"/>
     </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A465" s="12"/>
-      <c r="B465" s="12"/>
-      <c r="C465" s="12"/>
-      <c r="D465" s="12"/>
-      <c r="E465" s="12"/>
-      <c r="F465" s="12"/>
-      <c r="G465" s="12"/>
-      <c r="H465" s="12"/>
-      <c r="I465" s="12"/>
-      <c r="J465" s="12"/>
+    <row r="465" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A465" s="14"/>
+      <c r="B465" s="14"/>
+      <c r="C465" s="14"/>
+      <c r="D465" s="14"/>
+      <c r="E465" s="14"/>
+      <c r="F465" s="14"/>
+      <c r="G465" s="14"/>
+      <c r="H465" s="14"/>
+      <c r="I465" s="14"/>
+      <c r="J465" s="14"/>
       <c r="K465" s="12"/>
       <c r="L465" s="12"/>
     </row>
-    <row r="466" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A466" s="14"/>
-      <c r="B466" s="14"/>
-      <c r="C466" s="14"/>
-      <c r="D466" s="14"/>
-      <c r="E466" s="14"/>
-      <c r="F466" s="14"/>
-      <c r="G466" s="14"/>
-      <c r="H466" s="14"/>
-      <c r="I466" s="14"/>
-      <c r="J466" s="14"/>
-      <c r="K466" s="12"/>
-      <c r="L466" s="12"/>
-    </row>
-    <row r="467" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A467" s="14"/>
-      <c r="B467" s="14"/>
-      <c r="C467" s="14"/>
-      <c r="D467" s="14"/>
-      <c r="E467" s="14"/>
-      <c r="F467" s="14"/>
-      <c r="G467" s="14"/>
-      <c r="H467" s="14"/>
-      <c r="I467" s="14"/>
-      <c r="J467" s="14"/>
-      <c r="K467" s="12"/>
-      <c r="L467" s="12"/>
-    </row>
-    <row r="492" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A492" s="9"/>
-      <c r="B492" s="9"/>
-      <c r="C492" s="9"/>
-      <c r="D492" s="9"/>
-      <c r="E492" s="9"/>
-      <c r="F492" s="9"/>
-      <c r="G492" s="9"/>
-      <c r="H492" s="9"/>
-      <c r="I492" s="9"/>
-      <c r="J492" s="9"/>
-    </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A490" s="9"/>
+      <c r="B490" s="9"/>
+      <c r="C490" s="9"/>
+      <c r="D490" s="9"/>
+      <c r="E490" s="9"/>
+      <c r="F490" s="9"/>
+      <c r="G490" s="9"/>
+      <c r="H490" s="9"/>
+      <c r="I490" s="9"/>
+      <c r="J490" s="9"/>
+    </row>
+    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A497" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A498" t="s">
         <v>125</v>
       </c>
     </row>

--- a/Documents/AssetList-Planning.xlsx
+++ b/Documents/AssetList-Planning.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="430">
   <si>
     <t>Planning</t>
   </si>
@@ -1300,6 +1300,21 @@
   </si>
   <si>
     <t>7S-ENV-CombatMusic</t>
+  </si>
+  <si>
+    <t>Sea Ambient Sound</t>
+  </si>
+  <si>
+    <t>Bird Chirps</t>
+  </si>
+  <si>
+    <t>WeaponSpark</t>
+  </si>
+  <si>
+    <t>Butterflies</t>
+  </si>
+  <si>
+    <t>Floating Dust</t>
   </si>
 </sst>
 </file>
@@ -1845,8 +1860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI93"/>
   <sheetViews>
-    <sheetView topLeftCell="L46" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q37" sqref="Q37"/>
+    <sheetView topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2529,7 +2544,7 @@
       <c r="B41" s="27"/>
       <c r="I41" s="27"/>
       <c r="J41" s="9" t="s">
-        <v>100</v>
+        <v>323</v>
       </c>
       <c r="M41" s="9" t="s">
         <v>322</v>
@@ -2588,10 +2603,10 @@
     <row r="44" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="27"/>
       <c r="I44" s="27"/>
-      <c r="J44" s="9" t="s">
-        <v>323</v>
-      </c>
       <c r="P44" s="27"/>
+      <c r="Q44" s="9" t="s">
+        <v>100</v>
+      </c>
       <c r="W44" s="27"/>
       <c r="AD44" s="27"/>
       <c r="AK44" s="27"/>
@@ -3104,10 +3119,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:QF496"/>
+  <dimension ref="A1:QF504"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A300" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G309" sqref="G309"/>
+    <sheetView tabSelected="1" topLeftCell="A297" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I311" sqref="I311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8383,355 +8398,1835 @@
       <c r="QE326" s="17"/>
       <c r="QF326" s="17"/>
     </row>
-    <row r="327" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="328" spans="1:448" s="23" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A328" s="23" t="s">
+    <row r="327" spans="1:448" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A327" s="14" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="328" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A328" s="17"/>
+      <c r="B328" s="17"/>
+      <c r="C328" s="17"/>
+      <c r="D328" s="17"/>
+      <c r="E328" s="17"/>
+      <c r="F328" s="17"/>
+      <c r="G328" s="17"/>
+      <c r="H328" s="17"/>
+      <c r="I328" s="17"/>
+      <c r="J328" s="17"/>
+      <c r="K328" s="17"/>
+      <c r="L328" s="17"/>
+      <c r="M328" s="17"/>
+      <c r="N328" s="17"/>
+      <c r="O328" s="17"/>
+      <c r="P328" s="17"/>
+      <c r="Q328" s="17"/>
+      <c r="R328" s="17"/>
+      <c r="S328" s="17"/>
+      <c r="T328" s="17"/>
+      <c r="U328" s="17"/>
+      <c r="V328" s="17"/>
+      <c r="W328" s="17"/>
+      <c r="X328" s="17"/>
+      <c r="Y328" s="17"/>
+      <c r="Z328" s="17"/>
+      <c r="AA328" s="17"/>
+      <c r="AB328" s="17"/>
+      <c r="AC328" s="17"/>
+      <c r="AD328" s="17"/>
+      <c r="AE328" s="17"/>
+      <c r="AF328" s="17"/>
+      <c r="AG328" s="17"/>
+      <c r="AH328" s="17"/>
+      <c r="AI328" s="17"/>
+      <c r="AJ328" s="17"/>
+      <c r="AK328" s="17"/>
+      <c r="AL328" s="17"/>
+      <c r="AM328" s="17"/>
+      <c r="AN328" s="17"/>
+      <c r="AO328" s="17"/>
+      <c r="AP328" s="17"/>
+      <c r="AQ328" s="17"/>
+      <c r="AR328" s="17"/>
+      <c r="AS328" s="17"/>
+      <c r="AT328" s="17"/>
+      <c r="AU328" s="17"/>
+      <c r="AV328" s="17"/>
+      <c r="AW328" s="17"/>
+      <c r="AX328" s="17"/>
+      <c r="AY328" s="17"/>
+      <c r="AZ328" s="17"/>
+      <c r="BA328" s="17"/>
+      <c r="BB328" s="17"/>
+      <c r="BC328" s="17"/>
+      <c r="BD328" s="17"/>
+      <c r="BE328" s="17"/>
+      <c r="BF328" s="17"/>
+      <c r="BG328" s="17"/>
+      <c r="BH328" s="17"/>
+      <c r="BI328" s="17"/>
+      <c r="BJ328" s="17"/>
+      <c r="BK328" s="17"/>
+      <c r="BL328" s="17"/>
+      <c r="BM328" s="17"/>
+      <c r="BN328" s="17"/>
+      <c r="BO328" s="17"/>
+      <c r="BP328" s="17"/>
+      <c r="BQ328" s="17"/>
+      <c r="BR328" s="17"/>
+      <c r="BS328" s="17"/>
+      <c r="BT328" s="17"/>
+      <c r="BU328" s="17"/>
+      <c r="BV328" s="17"/>
+      <c r="BW328" s="17"/>
+      <c r="BX328" s="17"/>
+      <c r="BY328" s="17"/>
+      <c r="BZ328" s="17"/>
+      <c r="CA328" s="17"/>
+      <c r="CB328" s="17"/>
+      <c r="CC328" s="17"/>
+      <c r="CD328" s="17"/>
+      <c r="CE328" s="17"/>
+      <c r="CF328" s="17"/>
+      <c r="CG328" s="17"/>
+      <c r="CH328" s="17"/>
+      <c r="CI328" s="17"/>
+      <c r="CJ328" s="17"/>
+      <c r="CK328" s="17"/>
+      <c r="CL328" s="17"/>
+      <c r="CM328" s="17"/>
+      <c r="CN328" s="17"/>
+      <c r="CO328" s="17"/>
+      <c r="CP328" s="17"/>
+      <c r="CQ328" s="17"/>
+      <c r="CR328" s="17"/>
+      <c r="CS328" s="17"/>
+      <c r="CT328" s="17"/>
+      <c r="CU328" s="17"/>
+      <c r="CV328" s="17"/>
+      <c r="CW328" s="17"/>
+      <c r="CX328" s="17"/>
+      <c r="CY328" s="17"/>
+      <c r="CZ328" s="17"/>
+      <c r="DA328" s="17"/>
+      <c r="DB328" s="17"/>
+      <c r="DC328" s="17"/>
+      <c r="DD328" s="17"/>
+      <c r="DE328" s="17"/>
+      <c r="DF328" s="17"/>
+      <c r="DG328" s="17"/>
+      <c r="DH328" s="17"/>
+      <c r="DI328" s="17"/>
+      <c r="DJ328" s="17"/>
+      <c r="DK328" s="17"/>
+      <c r="DL328" s="17"/>
+      <c r="DM328" s="17"/>
+      <c r="DN328" s="17"/>
+      <c r="DO328" s="17"/>
+      <c r="DP328" s="17"/>
+      <c r="DQ328" s="17"/>
+      <c r="DR328" s="17"/>
+      <c r="DS328" s="17"/>
+      <c r="DT328" s="17"/>
+      <c r="DU328" s="17"/>
+      <c r="DV328" s="17"/>
+      <c r="DW328" s="17"/>
+      <c r="DX328" s="17"/>
+      <c r="DY328" s="17"/>
+      <c r="DZ328" s="17"/>
+      <c r="EA328" s="17"/>
+      <c r="EB328" s="17"/>
+      <c r="EC328" s="17"/>
+      <c r="ED328" s="17"/>
+      <c r="EE328" s="17"/>
+      <c r="EF328" s="17"/>
+      <c r="EG328" s="17"/>
+      <c r="EH328" s="17"/>
+      <c r="EI328" s="17"/>
+      <c r="EJ328" s="17"/>
+      <c r="EK328" s="17"/>
+      <c r="EL328" s="17"/>
+      <c r="EM328" s="17"/>
+      <c r="EN328" s="17"/>
+      <c r="EO328" s="17"/>
+      <c r="EP328" s="17"/>
+      <c r="EQ328" s="17"/>
+      <c r="ER328" s="17"/>
+      <c r="ES328" s="17"/>
+      <c r="ET328" s="17"/>
+      <c r="EU328" s="17"/>
+      <c r="EV328" s="17"/>
+      <c r="EW328" s="17"/>
+      <c r="EX328" s="17"/>
+      <c r="EY328" s="17"/>
+      <c r="EZ328" s="17"/>
+      <c r="FA328" s="17"/>
+      <c r="FB328" s="17"/>
+      <c r="FC328" s="17"/>
+      <c r="FD328" s="17"/>
+      <c r="FE328" s="17"/>
+      <c r="FF328" s="17"/>
+      <c r="FG328" s="17"/>
+      <c r="FH328" s="17"/>
+      <c r="FI328" s="17"/>
+      <c r="FJ328" s="17"/>
+      <c r="FK328" s="17"/>
+      <c r="FL328" s="17"/>
+      <c r="FM328" s="17"/>
+      <c r="FN328" s="17"/>
+      <c r="FO328" s="17"/>
+      <c r="FP328" s="17"/>
+      <c r="FQ328" s="17"/>
+      <c r="FR328" s="17"/>
+      <c r="FS328" s="17"/>
+      <c r="FT328" s="17"/>
+      <c r="FU328" s="17"/>
+      <c r="FV328" s="17"/>
+      <c r="FW328" s="17"/>
+      <c r="FX328" s="17"/>
+      <c r="FY328" s="17"/>
+      <c r="FZ328" s="17"/>
+      <c r="GA328" s="17"/>
+      <c r="GB328" s="17"/>
+      <c r="GC328" s="17"/>
+      <c r="GD328" s="17"/>
+      <c r="GE328" s="17"/>
+      <c r="GF328" s="17"/>
+      <c r="GG328" s="17"/>
+      <c r="GH328" s="17"/>
+      <c r="GI328" s="17"/>
+      <c r="GJ328" s="17"/>
+      <c r="GK328" s="17"/>
+      <c r="GL328" s="17"/>
+      <c r="GM328" s="17"/>
+      <c r="GN328" s="17"/>
+      <c r="GO328" s="17"/>
+      <c r="GP328" s="17"/>
+      <c r="GQ328" s="17"/>
+      <c r="GR328" s="17"/>
+      <c r="GS328" s="17"/>
+      <c r="GT328" s="17"/>
+      <c r="GU328" s="17"/>
+      <c r="GV328" s="17"/>
+      <c r="GW328" s="17"/>
+      <c r="GX328" s="17"/>
+      <c r="GY328" s="17"/>
+      <c r="GZ328" s="17"/>
+      <c r="HA328" s="17"/>
+      <c r="HB328" s="17"/>
+      <c r="HC328" s="17"/>
+      <c r="HD328" s="17"/>
+      <c r="HE328" s="17"/>
+      <c r="HF328" s="17"/>
+      <c r="HG328" s="17"/>
+      <c r="HH328" s="17"/>
+      <c r="HI328" s="17"/>
+      <c r="HJ328" s="17"/>
+      <c r="HK328" s="17"/>
+      <c r="HL328" s="17"/>
+      <c r="HM328" s="17"/>
+      <c r="HN328" s="17"/>
+      <c r="HO328" s="17"/>
+      <c r="HP328" s="17"/>
+      <c r="HQ328" s="17"/>
+      <c r="HR328" s="17"/>
+      <c r="HS328" s="17"/>
+      <c r="HT328" s="17"/>
+      <c r="HU328" s="17"/>
+      <c r="HV328" s="17"/>
+      <c r="HW328" s="17"/>
+      <c r="HX328" s="17"/>
+      <c r="HY328" s="17"/>
+      <c r="HZ328" s="17"/>
+      <c r="IA328" s="17"/>
+      <c r="IB328" s="17"/>
+      <c r="IC328" s="17"/>
+      <c r="ID328" s="17"/>
+      <c r="IE328" s="17"/>
+      <c r="IF328" s="17"/>
+      <c r="IG328" s="17"/>
+      <c r="IH328" s="17"/>
+      <c r="II328" s="17"/>
+      <c r="IJ328" s="17"/>
+      <c r="IK328" s="17"/>
+      <c r="IL328" s="17"/>
+      <c r="IM328" s="17"/>
+      <c r="IN328" s="17"/>
+      <c r="IO328" s="17"/>
+      <c r="IP328" s="17"/>
+      <c r="IQ328" s="17"/>
+      <c r="IR328" s="17"/>
+      <c r="IS328" s="17"/>
+      <c r="IT328" s="17"/>
+      <c r="IU328" s="17"/>
+      <c r="IV328" s="17"/>
+      <c r="IW328" s="17"/>
+      <c r="IX328" s="17"/>
+      <c r="IY328" s="17"/>
+      <c r="IZ328" s="17"/>
+      <c r="JA328" s="17"/>
+      <c r="JB328" s="17"/>
+      <c r="JC328" s="17"/>
+      <c r="JD328" s="17"/>
+      <c r="JE328" s="17"/>
+      <c r="JF328" s="17"/>
+      <c r="JG328" s="17"/>
+      <c r="JH328" s="17"/>
+      <c r="JI328" s="17"/>
+      <c r="JJ328" s="17"/>
+      <c r="JK328" s="17"/>
+      <c r="JL328" s="17"/>
+      <c r="JM328" s="17"/>
+      <c r="JN328" s="17"/>
+      <c r="JO328" s="17"/>
+      <c r="JP328" s="17"/>
+      <c r="JQ328" s="17"/>
+      <c r="JR328" s="17"/>
+      <c r="JS328" s="17"/>
+      <c r="JT328" s="17"/>
+      <c r="JU328" s="17"/>
+      <c r="JV328" s="17"/>
+      <c r="JW328" s="17"/>
+      <c r="JX328" s="17"/>
+      <c r="JY328" s="17"/>
+      <c r="JZ328" s="17"/>
+      <c r="KA328" s="17"/>
+      <c r="KB328" s="17"/>
+      <c r="KC328" s="17"/>
+      <c r="KD328" s="17"/>
+      <c r="KE328" s="17"/>
+      <c r="KF328" s="17"/>
+      <c r="KG328" s="17"/>
+      <c r="KH328" s="17"/>
+      <c r="KI328" s="17"/>
+      <c r="KJ328" s="17"/>
+      <c r="KK328" s="17"/>
+      <c r="KL328" s="17"/>
+      <c r="KM328" s="17"/>
+      <c r="KN328" s="17"/>
+      <c r="KO328" s="17"/>
+      <c r="KP328" s="17"/>
+      <c r="KQ328" s="17"/>
+      <c r="KR328" s="17"/>
+      <c r="KS328" s="17"/>
+      <c r="KT328" s="17"/>
+      <c r="KU328" s="17"/>
+      <c r="KV328" s="17"/>
+      <c r="KW328" s="17"/>
+      <c r="KX328" s="17"/>
+      <c r="KY328" s="17"/>
+      <c r="KZ328" s="17"/>
+      <c r="LA328" s="17"/>
+      <c r="LB328" s="17"/>
+      <c r="LC328" s="17"/>
+      <c r="LD328" s="17"/>
+      <c r="LE328" s="17"/>
+      <c r="LF328" s="17"/>
+      <c r="LG328" s="17"/>
+      <c r="LH328" s="17"/>
+      <c r="LI328" s="17"/>
+      <c r="LJ328" s="17"/>
+      <c r="LK328" s="17"/>
+      <c r="LL328" s="17"/>
+      <c r="LM328" s="17"/>
+      <c r="LN328" s="17"/>
+      <c r="LO328" s="17"/>
+      <c r="LP328" s="17"/>
+      <c r="LQ328" s="17"/>
+      <c r="LR328" s="17"/>
+      <c r="LS328" s="17"/>
+      <c r="LT328" s="17"/>
+      <c r="LU328" s="17"/>
+      <c r="LV328" s="17"/>
+      <c r="LW328" s="17"/>
+      <c r="LX328" s="17"/>
+      <c r="LY328" s="17"/>
+      <c r="LZ328" s="17"/>
+      <c r="MA328" s="17"/>
+      <c r="MB328" s="17"/>
+      <c r="MC328" s="17"/>
+      <c r="MD328" s="17"/>
+      <c r="ME328" s="17"/>
+      <c r="MF328" s="17"/>
+      <c r="MG328" s="17"/>
+      <c r="MH328" s="17"/>
+      <c r="MI328" s="17"/>
+      <c r="MJ328" s="17"/>
+      <c r="MK328" s="17"/>
+      <c r="ML328" s="17"/>
+      <c r="MM328" s="17"/>
+      <c r="MN328" s="17"/>
+      <c r="MO328" s="17"/>
+      <c r="MP328" s="17"/>
+      <c r="MQ328" s="17"/>
+      <c r="MR328" s="17"/>
+      <c r="MS328" s="17"/>
+      <c r="MT328" s="17"/>
+      <c r="MU328" s="17"/>
+      <c r="MV328" s="17"/>
+      <c r="MW328" s="17"/>
+      <c r="MX328" s="17"/>
+      <c r="MY328" s="17"/>
+      <c r="MZ328" s="17"/>
+      <c r="NA328" s="17"/>
+      <c r="NB328" s="17"/>
+      <c r="NC328" s="17"/>
+      <c r="ND328" s="17"/>
+      <c r="NE328" s="17"/>
+      <c r="NF328" s="17"/>
+      <c r="NG328" s="17"/>
+      <c r="NH328" s="17"/>
+      <c r="NI328" s="17"/>
+      <c r="NJ328" s="17"/>
+      <c r="NK328" s="17"/>
+      <c r="NL328" s="17"/>
+      <c r="NM328" s="17"/>
+      <c r="NN328" s="17"/>
+      <c r="NO328" s="17"/>
+      <c r="NP328" s="17"/>
+      <c r="NQ328" s="17"/>
+      <c r="NR328" s="17"/>
+      <c r="NS328" s="17"/>
+      <c r="NT328" s="17"/>
+      <c r="NU328" s="17"/>
+      <c r="NV328" s="17"/>
+      <c r="NW328" s="17"/>
+      <c r="NX328" s="17"/>
+      <c r="NY328" s="17"/>
+      <c r="NZ328" s="17"/>
+      <c r="OA328" s="17"/>
+      <c r="OB328" s="17"/>
+      <c r="OC328" s="17"/>
+      <c r="OD328" s="17"/>
+      <c r="OE328" s="17"/>
+      <c r="OF328" s="17"/>
+      <c r="OG328" s="17"/>
+      <c r="OH328" s="17"/>
+      <c r="OI328" s="17"/>
+      <c r="OJ328" s="17"/>
+      <c r="OK328" s="17"/>
+      <c r="OL328" s="17"/>
+      <c r="OM328" s="17"/>
+      <c r="ON328" s="17"/>
+      <c r="OO328" s="17"/>
+      <c r="OP328" s="17"/>
+      <c r="OQ328" s="17"/>
+      <c r="OR328" s="17"/>
+      <c r="OS328" s="17"/>
+      <c r="OT328" s="17"/>
+      <c r="OU328" s="17"/>
+      <c r="OV328" s="17"/>
+      <c r="OW328" s="17"/>
+      <c r="OX328" s="17"/>
+      <c r="OY328" s="17"/>
+      <c r="OZ328" s="17"/>
+      <c r="PA328" s="17"/>
+      <c r="PB328" s="17"/>
+      <c r="PC328" s="17"/>
+      <c r="PD328" s="17"/>
+      <c r="PE328" s="17"/>
+      <c r="PF328" s="17"/>
+      <c r="PG328" s="17"/>
+      <c r="PH328" s="17"/>
+      <c r="PI328" s="17"/>
+      <c r="PJ328" s="17"/>
+      <c r="PK328" s="17"/>
+      <c r="PL328" s="17"/>
+      <c r="PM328" s="17"/>
+      <c r="PN328" s="17"/>
+      <c r="PO328" s="17"/>
+      <c r="PP328" s="17"/>
+      <c r="PQ328" s="17"/>
+      <c r="PR328" s="17"/>
+      <c r="PS328" s="17"/>
+      <c r="PT328" s="17"/>
+      <c r="PU328" s="17"/>
+      <c r="PV328" s="17"/>
+      <c r="PW328" s="17"/>
+      <c r="PX328" s="17"/>
+      <c r="PY328" s="17"/>
+      <c r="PZ328" s="17"/>
+      <c r="QA328" s="17"/>
+      <c r="QB328" s="17"/>
+      <c r="QC328" s="17"/>
+      <c r="QD328" s="17"/>
+      <c r="QE328" s="17"/>
+      <c r="QF328" s="17"/>
+    </row>
+    <row r="329" spans="1:448" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A329" s="14" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="330" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A330" s="17"/>
+      <c r="B330" s="17"/>
+      <c r="C330" s="17"/>
+      <c r="D330" s="17"/>
+      <c r="E330" s="17"/>
+      <c r="F330" s="17"/>
+      <c r="G330" s="17"/>
+      <c r="H330" s="17"/>
+      <c r="I330" s="17"/>
+      <c r="J330" s="17"/>
+      <c r="K330" s="17"/>
+      <c r="L330" s="17"/>
+      <c r="M330" s="17"/>
+      <c r="N330" s="17"/>
+      <c r="O330" s="17"/>
+      <c r="P330" s="17"/>
+      <c r="Q330" s="17"/>
+      <c r="R330" s="17"/>
+      <c r="S330" s="17"/>
+      <c r="T330" s="17"/>
+      <c r="U330" s="17"/>
+      <c r="V330" s="17"/>
+      <c r="W330" s="17"/>
+      <c r="X330" s="17"/>
+      <c r="Y330" s="17"/>
+      <c r="Z330" s="17"/>
+      <c r="AA330" s="17"/>
+      <c r="AB330" s="17"/>
+      <c r="AC330" s="17"/>
+      <c r="AD330" s="17"/>
+      <c r="AE330" s="17"/>
+      <c r="AF330" s="17"/>
+      <c r="AG330" s="17"/>
+      <c r="AH330" s="17"/>
+      <c r="AI330" s="17"/>
+      <c r="AJ330" s="17"/>
+      <c r="AK330" s="17"/>
+      <c r="AL330" s="17"/>
+      <c r="AM330" s="17"/>
+      <c r="AN330" s="17"/>
+      <c r="AO330" s="17"/>
+      <c r="AP330" s="17"/>
+      <c r="AQ330" s="17"/>
+      <c r="AR330" s="17"/>
+      <c r="AS330" s="17"/>
+      <c r="AT330" s="17"/>
+      <c r="AU330" s="17"/>
+      <c r="AV330" s="17"/>
+      <c r="AW330" s="17"/>
+      <c r="AX330" s="17"/>
+      <c r="AY330" s="17"/>
+      <c r="AZ330" s="17"/>
+      <c r="BA330" s="17"/>
+      <c r="BB330" s="17"/>
+      <c r="BC330" s="17"/>
+      <c r="BD330" s="17"/>
+      <c r="BE330" s="17"/>
+      <c r="BF330" s="17"/>
+      <c r="BG330" s="17"/>
+      <c r="BH330" s="17"/>
+      <c r="BI330" s="17"/>
+      <c r="BJ330" s="17"/>
+      <c r="BK330" s="17"/>
+      <c r="BL330" s="17"/>
+      <c r="BM330" s="17"/>
+      <c r="BN330" s="17"/>
+      <c r="BO330" s="17"/>
+      <c r="BP330" s="17"/>
+      <c r="BQ330" s="17"/>
+      <c r="BR330" s="17"/>
+      <c r="BS330" s="17"/>
+      <c r="BT330" s="17"/>
+      <c r="BU330" s="17"/>
+      <c r="BV330" s="17"/>
+      <c r="BW330" s="17"/>
+      <c r="BX330" s="17"/>
+      <c r="BY330" s="17"/>
+      <c r="BZ330" s="17"/>
+      <c r="CA330" s="17"/>
+      <c r="CB330" s="17"/>
+      <c r="CC330" s="17"/>
+      <c r="CD330" s="17"/>
+      <c r="CE330" s="17"/>
+      <c r="CF330" s="17"/>
+      <c r="CG330" s="17"/>
+      <c r="CH330" s="17"/>
+      <c r="CI330" s="17"/>
+      <c r="CJ330" s="17"/>
+      <c r="CK330" s="17"/>
+      <c r="CL330" s="17"/>
+      <c r="CM330" s="17"/>
+      <c r="CN330" s="17"/>
+      <c r="CO330" s="17"/>
+      <c r="CP330" s="17"/>
+      <c r="CQ330" s="17"/>
+      <c r="CR330" s="17"/>
+      <c r="CS330" s="17"/>
+      <c r="CT330" s="17"/>
+      <c r="CU330" s="17"/>
+      <c r="CV330" s="17"/>
+      <c r="CW330" s="17"/>
+      <c r="CX330" s="17"/>
+      <c r="CY330" s="17"/>
+      <c r="CZ330" s="17"/>
+      <c r="DA330" s="17"/>
+      <c r="DB330" s="17"/>
+      <c r="DC330" s="17"/>
+      <c r="DD330" s="17"/>
+      <c r="DE330" s="17"/>
+      <c r="DF330" s="17"/>
+      <c r="DG330" s="17"/>
+      <c r="DH330" s="17"/>
+      <c r="DI330" s="17"/>
+      <c r="DJ330" s="17"/>
+      <c r="DK330" s="17"/>
+      <c r="DL330" s="17"/>
+      <c r="DM330" s="17"/>
+      <c r="DN330" s="17"/>
+      <c r="DO330" s="17"/>
+      <c r="DP330" s="17"/>
+      <c r="DQ330" s="17"/>
+      <c r="DR330" s="17"/>
+      <c r="DS330" s="17"/>
+      <c r="DT330" s="17"/>
+      <c r="DU330" s="17"/>
+      <c r="DV330" s="17"/>
+      <c r="DW330" s="17"/>
+      <c r="DX330" s="17"/>
+      <c r="DY330" s="17"/>
+      <c r="DZ330" s="17"/>
+      <c r="EA330" s="17"/>
+      <c r="EB330" s="17"/>
+      <c r="EC330" s="17"/>
+      <c r="ED330" s="17"/>
+      <c r="EE330" s="17"/>
+      <c r="EF330" s="17"/>
+      <c r="EG330" s="17"/>
+      <c r="EH330" s="17"/>
+      <c r="EI330" s="17"/>
+      <c r="EJ330" s="17"/>
+      <c r="EK330" s="17"/>
+      <c r="EL330" s="17"/>
+      <c r="EM330" s="17"/>
+      <c r="EN330" s="17"/>
+      <c r="EO330" s="17"/>
+      <c r="EP330" s="17"/>
+      <c r="EQ330" s="17"/>
+      <c r="ER330" s="17"/>
+      <c r="ES330" s="17"/>
+      <c r="ET330" s="17"/>
+      <c r="EU330" s="17"/>
+      <c r="EV330" s="17"/>
+      <c r="EW330" s="17"/>
+      <c r="EX330" s="17"/>
+      <c r="EY330" s="17"/>
+      <c r="EZ330" s="17"/>
+      <c r="FA330" s="17"/>
+      <c r="FB330" s="17"/>
+      <c r="FC330" s="17"/>
+      <c r="FD330" s="17"/>
+      <c r="FE330" s="17"/>
+      <c r="FF330" s="17"/>
+      <c r="FG330" s="17"/>
+      <c r="FH330" s="17"/>
+      <c r="FI330" s="17"/>
+      <c r="FJ330" s="17"/>
+      <c r="FK330" s="17"/>
+      <c r="FL330" s="17"/>
+      <c r="FM330" s="17"/>
+      <c r="FN330" s="17"/>
+      <c r="FO330" s="17"/>
+      <c r="FP330" s="17"/>
+      <c r="FQ330" s="17"/>
+      <c r="FR330" s="17"/>
+      <c r="FS330" s="17"/>
+      <c r="FT330" s="17"/>
+      <c r="FU330" s="17"/>
+      <c r="FV330" s="17"/>
+      <c r="FW330" s="17"/>
+      <c r="FX330" s="17"/>
+      <c r="FY330" s="17"/>
+      <c r="FZ330" s="17"/>
+      <c r="GA330" s="17"/>
+      <c r="GB330" s="17"/>
+      <c r="GC330" s="17"/>
+      <c r="GD330" s="17"/>
+      <c r="GE330" s="17"/>
+      <c r="GF330" s="17"/>
+      <c r="GG330" s="17"/>
+      <c r="GH330" s="17"/>
+      <c r="GI330" s="17"/>
+      <c r="GJ330" s="17"/>
+      <c r="GK330" s="17"/>
+      <c r="GL330" s="17"/>
+      <c r="GM330" s="17"/>
+      <c r="GN330" s="17"/>
+      <c r="GO330" s="17"/>
+      <c r="GP330" s="17"/>
+      <c r="GQ330" s="17"/>
+      <c r="GR330" s="17"/>
+      <c r="GS330" s="17"/>
+      <c r="GT330" s="17"/>
+      <c r="GU330" s="17"/>
+      <c r="GV330" s="17"/>
+      <c r="GW330" s="17"/>
+      <c r="GX330" s="17"/>
+      <c r="GY330" s="17"/>
+      <c r="GZ330" s="17"/>
+      <c r="HA330" s="17"/>
+      <c r="HB330" s="17"/>
+      <c r="HC330" s="17"/>
+      <c r="HD330" s="17"/>
+      <c r="HE330" s="17"/>
+      <c r="HF330" s="17"/>
+      <c r="HG330" s="17"/>
+      <c r="HH330" s="17"/>
+      <c r="HI330" s="17"/>
+      <c r="HJ330" s="17"/>
+      <c r="HK330" s="17"/>
+      <c r="HL330" s="17"/>
+      <c r="HM330" s="17"/>
+      <c r="HN330" s="17"/>
+      <c r="HO330" s="17"/>
+      <c r="HP330" s="17"/>
+      <c r="HQ330" s="17"/>
+      <c r="HR330" s="17"/>
+      <c r="HS330" s="17"/>
+      <c r="HT330" s="17"/>
+      <c r="HU330" s="17"/>
+      <c r="HV330" s="17"/>
+      <c r="HW330" s="17"/>
+      <c r="HX330" s="17"/>
+      <c r="HY330" s="17"/>
+      <c r="HZ330" s="17"/>
+      <c r="IA330" s="17"/>
+      <c r="IB330" s="17"/>
+      <c r="IC330" s="17"/>
+      <c r="ID330" s="17"/>
+      <c r="IE330" s="17"/>
+      <c r="IF330" s="17"/>
+      <c r="IG330" s="17"/>
+      <c r="IH330" s="17"/>
+      <c r="II330" s="17"/>
+      <c r="IJ330" s="17"/>
+      <c r="IK330" s="17"/>
+      <c r="IL330" s="17"/>
+      <c r="IM330" s="17"/>
+      <c r="IN330" s="17"/>
+      <c r="IO330" s="17"/>
+      <c r="IP330" s="17"/>
+      <c r="IQ330" s="17"/>
+      <c r="IR330" s="17"/>
+      <c r="IS330" s="17"/>
+      <c r="IT330" s="17"/>
+      <c r="IU330" s="17"/>
+      <c r="IV330" s="17"/>
+      <c r="IW330" s="17"/>
+      <c r="IX330" s="17"/>
+      <c r="IY330" s="17"/>
+      <c r="IZ330" s="17"/>
+      <c r="JA330" s="17"/>
+      <c r="JB330" s="17"/>
+      <c r="JC330" s="17"/>
+      <c r="JD330" s="17"/>
+      <c r="JE330" s="17"/>
+      <c r="JF330" s="17"/>
+      <c r="JG330" s="17"/>
+      <c r="JH330" s="17"/>
+      <c r="JI330" s="17"/>
+      <c r="JJ330" s="17"/>
+      <c r="JK330" s="17"/>
+      <c r="JL330" s="17"/>
+      <c r="JM330" s="17"/>
+      <c r="JN330" s="17"/>
+      <c r="JO330" s="17"/>
+      <c r="JP330" s="17"/>
+      <c r="JQ330" s="17"/>
+      <c r="JR330" s="17"/>
+      <c r="JS330" s="17"/>
+      <c r="JT330" s="17"/>
+      <c r="JU330" s="17"/>
+      <c r="JV330" s="17"/>
+      <c r="JW330" s="17"/>
+      <c r="JX330" s="17"/>
+      <c r="JY330" s="17"/>
+      <c r="JZ330" s="17"/>
+      <c r="KA330" s="17"/>
+      <c r="KB330" s="17"/>
+      <c r="KC330" s="17"/>
+      <c r="KD330" s="17"/>
+      <c r="KE330" s="17"/>
+      <c r="KF330" s="17"/>
+      <c r="KG330" s="17"/>
+      <c r="KH330" s="17"/>
+      <c r="KI330" s="17"/>
+      <c r="KJ330" s="17"/>
+      <c r="KK330" s="17"/>
+      <c r="KL330" s="17"/>
+      <c r="KM330" s="17"/>
+      <c r="KN330" s="17"/>
+      <c r="KO330" s="17"/>
+      <c r="KP330" s="17"/>
+      <c r="KQ330" s="17"/>
+      <c r="KR330" s="17"/>
+      <c r="KS330" s="17"/>
+      <c r="KT330" s="17"/>
+      <c r="KU330" s="17"/>
+      <c r="KV330" s="17"/>
+      <c r="KW330" s="17"/>
+      <c r="KX330" s="17"/>
+      <c r="KY330" s="17"/>
+      <c r="KZ330" s="17"/>
+      <c r="LA330" s="17"/>
+      <c r="LB330" s="17"/>
+      <c r="LC330" s="17"/>
+      <c r="LD330" s="17"/>
+      <c r="LE330" s="17"/>
+      <c r="LF330" s="17"/>
+      <c r="LG330" s="17"/>
+      <c r="LH330" s="17"/>
+      <c r="LI330" s="17"/>
+      <c r="LJ330" s="17"/>
+      <c r="LK330" s="17"/>
+      <c r="LL330" s="17"/>
+      <c r="LM330" s="17"/>
+      <c r="LN330" s="17"/>
+      <c r="LO330" s="17"/>
+      <c r="LP330" s="17"/>
+      <c r="LQ330" s="17"/>
+      <c r="LR330" s="17"/>
+      <c r="LS330" s="17"/>
+      <c r="LT330" s="17"/>
+      <c r="LU330" s="17"/>
+      <c r="LV330" s="17"/>
+      <c r="LW330" s="17"/>
+      <c r="LX330" s="17"/>
+      <c r="LY330" s="17"/>
+      <c r="LZ330" s="17"/>
+      <c r="MA330" s="17"/>
+      <c r="MB330" s="17"/>
+      <c r="MC330" s="17"/>
+      <c r="MD330" s="17"/>
+      <c r="ME330" s="17"/>
+      <c r="MF330" s="17"/>
+      <c r="MG330" s="17"/>
+      <c r="MH330" s="17"/>
+      <c r="MI330" s="17"/>
+      <c r="MJ330" s="17"/>
+      <c r="MK330" s="17"/>
+      <c r="ML330" s="17"/>
+      <c r="MM330" s="17"/>
+      <c r="MN330" s="17"/>
+      <c r="MO330" s="17"/>
+      <c r="MP330" s="17"/>
+      <c r="MQ330" s="17"/>
+      <c r="MR330" s="17"/>
+      <c r="MS330" s="17"/>
+      <c r="MT330" s="17"/>
+      <c r="MU330" s="17"/>
+      <c r="MV330" s="17"/>
+      <c r="MW330" s="17"/>
+      <c r="MX330" s="17"/>
+      <c r="MY330" s="17"/>
+      <c r="MZ330" s="17"/>
+      <c r="NA330" s="17"/>
+      <c r="NB330" s="17"/>
+      <c r="NC330" s="17"/>
+      <c r="ND330" s="17"/>
+      <c r="NE330" s="17"/>
+      <c r="NF330" s="17"/>
+      <c r="NG330" s="17"/>
+      <c r="NH330" s="17"/>
+      <c r="NI330" s="17"/>
+      <c r="NJ330" s="17"/>
+      <c r="NK330" s="17"/>
+      <c r="NL330" s="17"/>
+      <c r="NM330" s="17"/>
+      <c r="NN330" s="17"/>
+      <c r="NO330" s="17"/>
+      <c r="NP330" s="17"/>
+      <c r="NQ330" s="17"/>
+      <c r="NR330" s="17"/>
+      <c r="NS330" s="17"/>
+      <c r="NT330" s="17"/>
+      <c r="NU330" s="17"/>
+      <c r="NV330" s="17"/>
+      <c r="NW330" s="17"/>
+      <c r="NX330" s="17"/>
+      <c r="NY330" s="17"/>
+      <c r="NZ330" s="17"/>
+      <c r="OA330" s="17"/>
+      <c r="OB330" s="17"/>
+      <c r="OC330" s="17"/>
+      <c r="OD330" s="17"/>
+      <c r="OE330" s="17"/>
+      <c r="OF330" s="17"/>
+      <c r="OG330" s="17"/>
+      <c r="OH330" s="17"/>
+      <c r="OI330" s="17"/>
+      <c r="OJ330" s="17"/>
+      <c r="OK330" s="17"/>
+      <c r="OL330" s="17"/>
+      <c r="OM330" s="17"/>
+      <c r="ON330" s="17"/>
+      <c r="OO330" s="17"/>
+      <c r="OP330" s="17"/>
+      <c r="OQ330" s="17"/>
+      <c r="OR330" s="17"/>
+      <c r="OS330" s="17"/>
+      <c r="OT330" s="17"/>
+      <c r="OU330" s="17"/>
+      <c r="OV330" s="17"/>
+      <c r="OW330" s="17"/>
+      <c r="OX330" s="17"/>
+      <c r="OY330" s="17"/>
+      <c r="OZ330" s="17"/>
+      <c r="PA330" s="17"/>
+      <c r="PB330" s="17"/>
+      <c r="PC330" s="17"/>
+      <c r="PD330" s="17"/>
+      <c r="PE330" s="17"/>
+      <c r="PF330" s="17"/>
+      <c r="PG330" s="17"/>
+      <c r="PH330" s="17"/>
+      <c r="PI330" s="17"/>
+      <c r="PJ330" s="17"/>
+      <c r="PK330" s="17"/>
+      <c r="PL330" s="17"/>
+      <c r="PM330" s="17"/>
+      <c r="PN330" s="17"/>
+      <c r="PO330" s="17"/>
+      <c r="PP330" s="17"/>
+      <c r="PQ330" s="17"/>
+      <c r="PR330" s="17"/>
+      <c r="PS330" s="17"/>
+      <c r="PT330" s="17"/>
+      <c r="PU330" s="17"/>
+      <c r="PV330" s="17"/>
+      <c r="PW330" s="17"/>
+      <c r="PX330" s="17"/>
+      <c r="PY330" s="17"/>
+      <c r="PZ330" s="17"/>
+      <c r="QA330" s="17"/>
+      <c r="QB330" s="17"/>
+      <c r="QC330" s="17"/>
+      <c r="QD330" s="17"/>
+      <c r="QE330" s="17"/>
+      <c r="QF330" s="17"/>
+    </row>
+    <row r="331" spans="1:448" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A331" s="14" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="332" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A332" s="17"/>
+      <c r="B332" s="17"/>
+      <c r="C332" s="17"/>
+      <c r="D332" s="17"/>
+      <c r="E332" s="17"/>
+      <c r="F332" s="17"/>
+      <c r="G332" s="17"/>
+      <c r="H332" s="17"/>
+      <c r="I332" s="17"/>
+      <c r="J332" s="17"/>
+      <c r="K332" s="17"/>
+      <c r="L332" s="17"/>
+      <c r="M332" s="17"/>
+      <c r="N332" s="17"/>
+      <c r="O332" s="17"/>
+      <c r="P332" s="17"/>
+      <c r="Q332" s="17"/>
+      <c r="R332" s="17"/>
+      <c r="S332" s="17"/>
+      <c r="T332" s="17"/>
+      <c r="U332" s="17"/>
+      <c r="V332" s="17"/>
+      <c r="W332" s="17"/>
+      <c r="X332" s="17"/>
+      <c r="Y332" s="17"/>
+      <c r="Z332" s="17"/>
+      <c r="AA332" s="17"/>
+      <c r="AB332" s="17"/>
+      <c r="AC332" s="17"/>
+      <c r="AD332" s="17"/>
+      <c r="AE332" s="17"/>
+      <c r="AF332" s="17"/>
+      <c r="AG332" s="17"/>
+      <c r="AH332" s="17"/>
+      <c r="AI332" s="17"/>
+      <c r="AJ332" s="17"/>
+      <c r="AK332" s="17"/>
+      <c r="AL332" s="17"/>
+      <c r="AM332" s="17"/>
+      <c r="AN332" s="17"/>
+      <c r="AO332" s="17"/>
+      <c r="AP332" s="17"/>
+      <c r="AQ332" s="17"/>
+      <c r="AR332" s="17"/>
+      <c r="AS332" s="17"/>
+      <c r="AT332" s="17"/>
+      <c r="AU332" s="17"/>
+      <c r="AV332" s="17"/>
+      <c r="AW332" s="17"/>
+      <c r="AX332" s="17"/>
+      <c r="AY332" s="17"/>
+      <c r="AZ332" s="17"/>
+      <c r="BA332" s="17"/>
+      <c r="BB332" s="17"/>
+      <c r="BC332" s="17"/>
+      <c r="BD332" s="17"/>
+      <c r="BE332" s="17"/>
+      <c r="BF332" s="17"/>
+      <c r="BG332" s="17"/>
+      <c r="BH332" s="17"/>
+      <c r="BI332" s="17"/>
+      <c r="BJ332" s="17"/>
+      <c r="BK332" s="17"/>
+      <c r="BL332" s="17"/>
+      <c r="BM332" s="17"/>
+      <c r="BN332" s="17"/>
+      <c r="BO332" s="17"/>
+      <c r="BP332" s="17"/>
+      <c r="BQ332" s="17"/>
+      <c r="BR332" s="17"/>
+      <c r="BS332" s="17"/>
+      <c r="BT332" s="17"/>
+      <c r="BU332" s="17"/>
+      <c r="BV332" s="17"/>
+      <c r="BW332" s="17"/>
+      <c r="BX332" s="17"/>
+      <c r="BY332" s="17"/>
+      <c r="BZ332" s="17"/>
+      <c r="CA332" s="17"/>
+      <c r="CB332" s="17"/>
+      <c r="CC332" s="17"/>
+      <c r="CD332" s="17"/>
+      <c r="CE332" s="17"/>
+      <c r="CF332" s="17"/>
+      <c r="CG332" s="17"/>
+      <c r="CH332" s="17"/>
+      <c r="CI332" s="17"/>
+      <c r="CJ332" s="17"/>
+      <c r="CK332" s="17"/>
+      <c r="CL332" s="17"/>
+      <c r="CM332" s="17"/>
+      <c r="CN332" s="17"/>
+      <c r="CO332" s="17"/>
+      <c r="CP332" s="17"/>
+      <c r="CQ332" s="17"/>
+      <c r="CR332" s="17"/>
+      <c r="CS332" s="17"/>
+      <c r="CT332" s="17"/>
+      <c r="CU332" s="17"/>
+      <c r="CV332" s="17"/>
+      <c r="CW332" s="17"/>
+      <c r="CX332" s="17"/>
+      <c r="CY332" s="17"/>
+      <c r="CZ332" s="17"/>
+      <c r="DA332" s="17"/>
+      <c r="DB332" s="17"/>
+      <c r="DC332" s="17"/>
+      <c r="DD332" s="17"/>
+      <c r="DE332" s="17"/>
+      <c r="DF332" s="17"/>
+      <c r="DG332" s="17"/>
+      <c r="DH332" s="17"/>
+      <c r="DI332" s="17"/>
+      <c r="DJ332" s="17"/>
+      <c r="DK332" s="17"/>
+      <c r="DL332" s="17"/>
+      <c r="DM332" s="17"/>
+      <c r="DN332" s="17"/>
+      <c r="DO332" s="17"/>
+      <c r="DP332" s="17"/>
+      <c r="DQ332" s="17"/>
+      <c r="DR332" s="17"/>
+      <c r="DS332" s="17"/>
+      <c r="DT332" s="17"/>
+      <c r="DU332" s="17"/>
+      <c r="DV332" s="17"/>
+      <c r="DW332" s="17"/>
+      <c r="DX332" s="17"/>
+      <c r="DY332" s="17"/>
+      <c r="DZ332" s="17"/>
+      <c r="EA332" s="17"/>
+      <c r="EB332" s="17"/>
+      <c r="EC332" s="17"/>
+      <c r="ED332" s="17"/>
+      <c r="EE332" s="17"/>
+      <c r="EF332" s="17"/>
+      <c r="EG332" s="17"/>
+      <c r="EH332" s="17"/>
+      <c r="EI332" s="17"/>
+      <c r="EJ332" s="17"/>
+      <c r="EK332" s="17"/>
+      <c r="EL332" s="17"/>
+      <c r="EM332" s="17"/>
+      <c r="EN332" s="17"/>
+      <c r="EO332" s="17"/>
+      <c r="EP332" s="17"/>
+      <c r="EQ332" s="17"/>
+      <c r="ER332" s="17"/>
+      <c r="ES332" s="17"/>
+      <c r="ET332" s="17"/>
+      <c r="EU332" s="17"/>
+      <c r="EV332" s="17"/>
+      <c r="EW332" s="17"/>
+      <c r="EX332" s="17"/>
+      <c r="EY332" s="17"/>
+      <c r="EZ332" s="17"/>
+      <c r="FA332" s="17"/>
+      <c r="FB332" s="17"/>
+      <c r="FC332" s="17"/>
+      <c r="FD332" s="17"/>
+      <c r="FE332" s="17"/>
+      <c r="FF332" s="17"/>
+      <c r="FG332" s="17"/>
+      <c r="FH332" s="17"/>
+      <c r="FI332" s="17"/>
+      <c r="FJ332" s="17"/>
+      <c r="FK332" s="17"/>
+      <c r="FL332" s="17"/>
+      <c r="FM332" s="17"/>
+      <c r="FN332" s="17"/>
+      <c r="FO332" s="17"/>
+      <c r="FP332" s="17"/>
+      <c r="FQ332" s="17"/>
+      <c r="FR332" s="17"/>
+      <c r="FS332" s="17"/>
+      <c r="FT332" s="17"/>
+      <c r="FU332" s="17"/>
+      <c r="FV332" s="17"/>
+      <c r="FW332" s="17"/>
+      <c r="FX332" s="17"/>
+      <c r="FY332" s="17"/>
+      <c r="FZ332" s="17"/>
+      <c r="GA332" s="17"/>
+      <c r="GB332" s="17"/>
+      <c r="GC332" s="17"/>
+      <c r="GD332" s="17"/>
+      <c r="GE332" s="17"/>
+      <c r="GF332" s="17"/>
+      <c r="GG332" s="17"/>
+      <c r="GH332" s="17"/>
+      <c r="GI332" s="17"/>
+      <c r="GJ332" s="17"/>
+      <c r="GK332" s="17"/>
+      <c r="GL332" s="17"/>
+      <c r="GM332" s="17"/>
+      <c r="GN332" s="17"/>
+      <c r="GO332" s="17"/>
+      <c r="GP332" s="17"/>
+      <c r="GQ332" s="17"/>
+      <c r="GR332" s="17"/>
+      <c r="GS332" s="17"/>
+      <c r="GT332" s="17"/>
+      <c r="GU332" s="17"/>
+      <c r="GV332" s="17"/>
+      <c r="GW332" s="17"/>
+      <c r="GX332" s="17"/>
+      <c r="GY332" s="17"/>
+      <c r="GZ332" s="17"/>
+      <c r="HA332" s="17"/>
+      <c r="HB332" s="17"/>
+      <c r="HC332" s="17"/>
+      <c r="HD332" s="17"/>
+      <c r="HE332" s="17"/>
+      <c r="HF332" s="17"/>
+      <c r="HG332" s="17"/>
+      <c r="HH332" s="17"/>
+      <c r="HI332" s="17"/>
+      <c r="HJ332" s="17"/>
+      <c r="HK332" s="17"/>
+      <c r="HL332" s="17"/>
+      <c r="HM332" s="17"/>
+      <c r="HN332" s="17"/>
+      <c r="HO332" s="17"/>
+      <c r="HP332" s="17"/>
+      <c r="HQ332" s="17"/>
+      <c r="HR332" s="17"/>
+      <c r="HS332" s="17"/>
+      <c r="HT332" s="17"/>
+      <c r="HU332" s="17"/>
+      <c r="HV332" s="17"/>
+      <c r="HW332" s="17"/>
+      <c r="HX332" s="17"/>
+      <c r="HY332" s="17"/>
+      <c r="HZ332" s="17"/>
+      <c r="IA332" s="17"/>
+      <c r="IB332" s="17"/>
+      <c r="IC332" s="17"/>
+      <c r="ID332" s="17"/>
+      <c r="IE332" s="17"/>
+      <c r="IF332" s="17"/>
+      <c r="IG332" s="17"/>
+      <c r="IH332" s="17"/>
+      <c r="II332" s="17"/>
+      <c r="IJ332" s="17"/>
+      <c r="IK332" s="17"/>
+      <c r="IL332" s="17"/>
+      <c r="IM332" s="17"/>
+      <c r="IN332" s="17"/>
+      <c r="IO332" s="17"/>
+      <c r="IP332" s="17"/>
+      <c r="IQ332" s="17"/>
+      <c r="IR332" s="17"/>
+      <c r="IS332" s="17"/>
+      <c r="IT332" s="17"/>
+      <c r="IU332" s="17"/>
+      <c r="IV332" s="17"/>
+      <c r="IW332" s="17"/>
+      <c r="IX332" s="17"/>
+      <c r="IY332" s="17"/>
+      <c r="IZ332" s="17"/>
+      <c r="JA332" s="17"/>
+      <c r="JB332" s="17"/>
+      <c r="JC332" s="17"/>
+      <c r="JD332" s="17"/>
+      <c r="JE332" s="17"/>
+      <c r="JF332" s="17"/>
+      <c r="JG332" s="17"/>
+      <c r="JH332" s="17"/>
+      <c r="JI332" s="17"/>
+      <c r="JJ332" s="17"/>
+      <c r="JK332" s="17"/>
+      <c r="JL332" s="17"/>
+      <c r="JM332" s="17"/>
+      <c r="JN332" s="17"/>
+      <c r="JO332" s="17"/>
+      <c r="JP332" s="17"/>
+      <c r="JQ332" s="17"/>
+      <c r="JR332" s="17"/>
+      <c r="JS332" s="17"/>
+      <c r="JT332" s="17"/>
+      <c r="JU332" s="17"/>
+      <c r="JV332" s="17"/>
+      <c r="JW332" s="17"/>
+      <c r="JX332" s="17"/>
+      <c r="JY332" s="17"/>
+      <c r="JZ332" s="17"/>
+      <c r="KA332" s="17"/>
+      <c r="KB332" s="17"/>
+      <c r="KC332" s="17"/>
+      <c r="KD332" s="17"/>
+      <c r="KE332" s="17"/>
+      <c r="KF332" s="17"/>
+      <c r="KG332" s="17"/>
+      <c r="KH332" s="17"/>
+      <c r="KI332" s="17"/>
+      <c r="KJ332" s="17"/>
+      <c r="KK332" s="17"/>
+      <c r="KL332" s="17"/>
+      <c r="KM332" s="17"/>
+      <c r="KN332" s="17"/>
+      <c r="KO332" s="17"/>
+      <c r="KP332" s="17"/>
+      <c r="KQ332" s="17"/>
+      <c r="KR332" s="17"/>
+      <c r="KS332" s="17"/>
+      <c r="KT332" s="17"/>
+      <c r="KU332" s="17"/>
+      <c r="KV332" s="17"/>
+      <c r="KW332" s="17"/>
+      <c r="KX332" s="17"/>
+      <c r="KY332" s="17"/>
+      <c r="KZ332" s="17"/>
+      <c r="LA332" s="17"/>
+      <c r="LB332" s="17"/>
+      <c r="LC332" s="17"/>
+      <c r="LD332" s="17"/>
+      <c r="LE332" s="17"/>
+      <c r="LF332" s="17"/>
+      <c r="LG332" s="17"/>
+      <c r="LH332" s="17"/>
+      <c r="LI332" s="17"/>
+      <c r="LJ332" s="17"/>
+      <c r="LK332" s="17"/>
+      <c r="LL332" s="17"/>
+      <c r="LM332" s="17"/>
+      <c r="LN332" s="17"/>
+      <c r="LO332" s="17"/>
+      <c r="LP332" s="17"/>
+      <c r="LQ332" s="17"/>
+      <c r="LR332" s="17"/>
+      <c r="LS332" s="17"/>
+      <c r="LT332" s="17"/>
+      <c r="LU332" s="17"/>
+      <c r="LV332" s="17"/>
+      <c r="LW332" s="17"/>
+      <c r="LX332" s="17"/>
+      <c r="LY332" s="17"/>
+      <c r="LZ332" s="17"/>
+      <c r="MA332" s="17"/>
+      <c r="MB332" s="17"/>
+      <c r="MC332" s="17"/>
+      <c r="MD332" s="17"/>
+      <c r="ME332" s="17"/>
+      <c r="MF332" s="17"/>
+      <c r="MG332" s="17"/>
+      <c r="MH332" s="17"/>
+      <c r="MI332" s="17"/>
+      <c r="MJ332" s="17"/>
+      <c r="MK332" s="17"/>
+      <c r="ML332" s="17"/>
+      <c r="MM332" s="17"/>
+      <c r="MN332" s="17"/>
+      <c r="MO332" s="17"/>
+      <c r="MP332" s="17"/>
+      <c r="MQ332" s="17"/>
+      <c r="MR332" s="17"/>
+      <c r="MS332" s="17"/>
+      <c r="MT332" s="17"/>
+      <c r="MU332" s="17"/>
+      <c r="MV332" s="17"/>
+      <c r="MW332" s="17"/>
+      <c r="MX332" s="17"/>
+      <c r="MY332" s="17"/>
+      <c r="MZ332" s="17"/>
+      <c r="NA332" s="17"/>
+      <c r="NB332" s="17"/>
+      <c r="NC332" s="17"/>
+      <c r="ND332" s="17"/>
+      <c r="NE332" s="17"/>
+      <c r="NF332" s="17"/>
+      <c r="NG332" s="17"/>
+      <c r="NH332" s="17"/>
+      <c r="NI332" s="17"/>
+      <c r="NJ332" s="17"/>
+      <c r="NK332" s="17"/>
+      <c r="NL332" s="17"/>
+      <c r="NM332" s="17"/>
+      <c r="NN332" s="17"/>
+      <c r="NO332" s="17"/>
+      <c r="NP332" s="17"/>
+      <c r="NQ332" s="17"/>
+      <c r="NR332" s="17"/>
+      <c r="NS332" s="17"/>
+      <c r="NT332" s="17"/>
+      <c r="NU332" s="17"/>
+      <c r="NV332" s="17"/>
+      <c r="NW332" s="17"/>
+      <c r="NX332" s="17"/>
+      <c r="NY332" s="17"/>
+      <c r="NZ332" s="17"/>
+      <c r="OA332" s="17"/>
+      <c r="OB332" s="17"/>
+      <c r="OC332" s="17"/>
+      <c r="OD332" s="17"/>
+      <c r="OE332" s="17"/>
+      <c r="OF332" s="17"/>
+      <c r="OG332" s="17"/>
+      <c r="OH332" s="17"/>
+      <c r="OI332" s="17"/>
+      <c r="OJ332" s="17"/>
+      <c r="OK332" s="17"/>
+      <c r="OL332" s="17"/>
+      <c r="OM332" s="17"/>
+      <c r="ON332" s="17"/>
+      <c r="OO332" s="17"/>
+      <c r="OP332" s="17"/>
+      <c r="OQ332" s="17"/>
+      <c r="OR332" s="17"/>
+      <c r="OS332" s="17"/>
+      <c r="OT332" s="17"/>
+      <c r="OU332" s="17"/>
+      <c r="OV332" s="17"/>
+      <c r="OW332" s="17"/>
+      <c r="OX332" s="17"/>
+      <c r="OY332" s="17"/>
+      <c r="OZ332" s="17"/>
+      <c r="PA332" s="17"/>
+      <c r="PB332" s="17"/>
+      <c r="PC332" s="17"/>
+      <c r="PD332" s="17"/>
+      <c r="PE332" s="17"/>
+      <c r="PF332" s="17"/>
+      <c r="PG332" s="17"/>
+      <c r="PH332" s="17"/>
+      <c r="PI332" s="17"/>
+      <c r="PJ332" s="17"/>
+      <c r="PK332" s="17"/>
+      <c r="PL332" s="17"/>
+      <c r="PM332" s="17"/>
+      <c r="PN332" s="17"/>
+      <c r="PO332" s="17"/>
+      <c r="PP332" s="17"/>
+      <c r="PQ332" s="17"/>
+      <c r="PR332" s="17"/>
+      <c r="PS332" s="17"/>
+      <c r="PT332" s="17"/>
+      <c r="PU332" s="17"/>
+      <c r="PV332" s="17"/>
+      <c r="PW332" s="17"/>
+      <c r="PX332" s="17"/>
+      <c r="PY332" s="17"/>
+      <c r="PZ332" s="17"/>
+      <c r="QA332" s="17"/>
+      <c r="QB332" s="17"/>
+      <c r="QC332" s="17"/>
+      <c r="QD332" s="17"/>
+      <c r="QE332" s="17"/>
+      <c r="QF332" s="17"/>
+    </row>
+    <row r="333" spans="1:448" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="334" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A334" s="17"/>
+      <c r="B334" s="17"/>
+      <c r="C334" s="17"/>
+      <c r="D334" s="17"/>
+      <c r="E334" s="17"/>
+      <c r="F334" s="17"/>
+      <c r="G334" s="17"/>
+      <c r="H334" s="17"/>
+      <c r="I334" s="17"/>
+      <c r="J334" s="17"/>
+      <c r="K334" s="17"/>
+      <c r="L334" s="17"/>
+      <c r="M334" s="17"/>
+      <c r="N334" s="17"/>
+      <c r="O334" s="17"/>
+      <c r="P334" s="17"/>
+      <c r="Q334" s="17"/>
+      <c r="R334" s="17"/>
+      <c r="S334" s="17"/>
+      <c r="T334" s="17"/>
+      <c r="U334" s="17"/>
+      <c r="V334" s="17"/>
+      <c r="W334" s="17"/>
+      <c r="X334" s="17"/>
+      <c r="Y334" s="17"/>
+      <c r="Z334" s="17"/>
+      <c r="AA334" s="17"/>
+      <c r="AB334" s="17"/>
+      <c r="AC334" s="17"/>
+      <c r="AD334" s="17"/>
+      <c r="AE334" s="17"/>
+      <c r="AF334" s="17"/>
+      <c r="AG334" s="17"/>
+      <c r="AH334" s="17"/>
+      <c r="AI334" s="17"/>
+      <c r="AJ334" s="17"/>
+      <c r="AK334" s="17"/>
+      <c r="AL334" s="17"/>
+      <c r="AM334" s="17"/>
+      <c r="AN334" s="17"/>
+      <c r="AO334" s="17"/>
+      <c r="AP334" s="17"/>
+      <c r="AQ334" s="17"/>
+      <c r="AR334" s="17"/>
+      <c r="AS334" s="17"/>
+      <c r="AT334" s="17"/>
+      <c r="AU334" s="17"/>
+      <c r="AV334" s="17"/>
+      <c r="AW334" s="17"/>
+      <c r="AX334" s="17"/>
+      <c r="AY334" s="17"/>
+      <c r="AZ334" s="17"/>
+      <c r="BA334" s="17"/>
+      <c r="BB334" s="17"/>
+      <c r="BC334" s="17"/>
+      <c r="BD334" s="17"/>
+      <c r="BE334" s="17"/>
+      <c r="BF334" s="17"/>
+      <c r="BG334" s="17"/>
+      <c r="BH334" s="17"/>
+      <c r="BI334" s="17"/>
+      <c r="BJ334" s="17"/>
+      <c r="BK334" s="17"/>
+      <c r="BL334" s="17"/>
+      <c r="BM334" s="17"/>
+      <c r="BN334" s="17"/>
+      <c r="BO334" s="17"/>
+      <c r="BP334" s="17"/>
+      <c r="BQ334" s="17"/>
+      <c r="BR334" s="17"/>
+      <c r="BS334" s="17"/>
+      <c r="BT334" s="17"/>
+      <c r="BU334" s="17"/>
+      <c r="BV334" s="17"/>
+      <c r="BW334" s="17"/>
+      <c r="BX334" s="17"/>
+      <c r="BY334" s="17"/>
+      <c r="BZ334" s="17"/>
+      <c r="CA334" s="17"/>
+      <c r="CB334" s="17"/>
+      <c r="CC334" s="17"/>
+      <c r="CD334" s="17"/>
+      <c r="CE334" s="17"/>
+      <c r="CF334" s="17"/>
+      <c r="CG334" s="17"/>
+      <c r="CH334" s="17"/>
+      <c r="CI334" s="17"/>
+      <c r="CJ334" s="17"/>
+      <c r="CK334" s="17"/>
+      <c r="CL334" s="17"/>
+      <c r="CM334" s="17"/>
+      <c r="CN334" s="17"/>
+      <c r="CO334" s="17"/>
+      <c r="CP334" s="17"/>
+      <c r="CQ334" s="17"/>
+      <c r="CR334" s="17"/>
+      <c r="CS334" s="17"/>
+      <c r="CT334" s="17"/>
+      <c r="CU334" s="17"/>
+      <c r="CV334" s="17"/>
+      <c r="CW334" s="17"/>
+      <c r="CX334" s="17"/>
+      <c r="CY334" s="17"/>
+      <c r="CZ334" s="17"/>
+      <c r="DA334" s="17"/>
+      <c r="DB334" s="17"/>
+      <c r="DC334" s="17"/>
+      <c r="DD334" s="17"/>
+      <c r="DE334" s="17"/>
+      <c r="DF334" s="17"/>
+      <c r="DG334" s="17"/>
+      <c r="DH334" s="17"/>
+      <c r="DI334" s="17"/>
+      <c r="DJ334" s="17"/>
+      <c r="DK334" s="17"/>
+      <c r="DL334" s="17"/>
+      <c r="DM334" s="17"/>
+      <c r="DN334" s="17"/>
+      <c r="DO334" s="17"/>
+      <c r="DP334" s="17"/>
+      <c r="DQ334" s="17"/>
+      <c r="DR334" s="17"/>
+      <c r="DS334" s="17"/>
+      <c r="DT334" s="17"/>
+      <c r="DU334" s="17"/>
+      <c r="DV334" s="17"/>
+      <c r="DW334" s="17"/>
+      <c r="DX334" s="17"/>
+      <c r="DY334" s="17"/>
+      <c r="DZ334" s="17"/>
+      <c r="EA334" s="17"/>
+      <c r="EB334" s="17"/>
+      <c r="EC334" s="17"/>
+      <c r="ED334" s="17"/>
+      <c r="EE334" s="17"/>
+      <c r="EF334" s="17"/>
+      <c r="EG334" s="17"/>
+      <c r="EH334" s="17"/>
+      <c r="EI334" s="17"/>
+      <c r="EJ334" s="17"/>
+      <c r="EK334" s="17"/>
+      <c r="EL334" s="17"/>
+      <c r="EM334" s="17"/>
+      <c r="EN334" s="17"/>
+      <c r="EO334" s="17"/>
+      <c r="EP334" s="17"/>
+      <c r="EQ334" s="17"/>
+      <c r="ER334" s="17"/>
+      <c r="ES334" s="17"/>
+      <c r="ET334" s="17"/>
+      <c r="EU334" s="17"/>
+      <c r="EV334" s="17"/>
+      <c r="EW334" s="17"/>
+      <c r="EX334" s="17"/>
+      <c r="EY334" s="17"/>
+      <c r="EZ334" s="17"/>
+      <c r="FA334" s="17"/>
+      <c r="FB334" s="17"/>
+      <c r="FC334" s="17"/>
+      <c r="FD334" s="17"/>
+      <c r="FE334" s="17"/>
+      <c r="FF334" s="17"/>
+      <c r="FG334" s="17"/>
+      <c r="FH334" s="17"/>
+      <c r="FI334" s="17"/>
+      <c r="FJ334" s="17"/>
+      <c r="FK334" s="17"/>
+      <c r="FL334" s="17"/>
+      <c r="FM334" s="17"/>
+      <c r="FN334" s="17"/>
+      <c r="FO334" s="17"/>
+      <c r="FP334" s="17"/>
+      <c r="FQ334" s="17"/>
+      <c r="FR334" s="17"/>
+      <c r="FS334" s="17"/>
+      <c r="FT334" s="17"/>
+      <c r="FU334" s="17"/>
+      <c r="FV334" s="17"/>
+      <c r="FW334" s="17"/>
+      <c r="FX334" s="17"/>
+      <c r="FY334" s="17"/>
+      <c r="FZ334" s="17"/>
+      <c r="GA334" s="17"/>
+      <c r="GB334" s="17"/>
+      <c r="GC334" s="17"/>
+      <c r="GD334" s="17"/>
+      <c r="GE334" s="17"/>
+      <c r="GF334" s="17"/>
+      <c r="GG334" s="17"/>
+      <c r="GH334" s="17"/>
+      <c r="GI334" s="17"/>
+      <c r="GJ334" s="17"/>
+      <c r="GK334" s="17"/>
+      <c r="GL334" s="17"/>
+      <c r="GM334" s="17"/>
+      <c r="GN334" s="17"/>
+      <c r="GO334" s="17"/>
+      <c r="GP334" s="17"/>
+      <c r="GQ334" s="17"/>
+      <c r="GR334" s="17"/>
+      <c r="GS334" s="17"/>
+      <c r="GT334" s="17"/>
+      <c r="GU334" s="17"/>
+      <c r="GV334" s="17"/>
+      <c r="GW334" s="17"/>
+      <c r="GX334" s="17"/>
+      <c r="GY334" s="17"/>
+      <c r="GZ334" s="17"/>
+      <c r="HA334" s="17"/>
+      <c r="HB334" s="17"/>
+      <c r="HC334" s="17"/>
+      <c r="HD334" s="17"/>
+      <c r="HE334" s="17"/>
+      <c r="HF334" s="17"/>
+      <c r="HG334" s="17"/>
+      <c r="HH334" s="17"/>
+      <c r="HI334" s="17"/>
+      <c r="HJ334" s="17"/>
+      <c r="HK334" s="17"/>
+      <c r="HL334" s="17"/>
+      <c r="HM334" s="17"/>
+      <c r="HN334" s="17"/>
+      <c r="HO334" s="17"/>
+      <c r="HP334" s="17"/>
+      <c r="HQ334" s="17"/>
+      <c r="HR334" s="17"/>
+      <c r="HS334" s="17"/>
+      <c r="HT334" s="17"/>
+      <c r="HU334" s="17"/>
+      <c r="HV334" s="17"/>
+      <c r="HW334" s="17"/>
+      <c r="HX334" s="17"/>
+      <c r="HY334" s="17"/>
+      <c r="HZ334" s="17"/>
+      <c r="IA334" s="17"/>
+      <c r="IB334" s="17"/>
+      <c r="IC334" s="17"/>
+      <c r="ID334" s="17"/>
+      <c r="IE334" s="17"/>
+      <c r="IF334" s="17"/>
+      <c r="IG334" s="17"/>
+      <c r="IH334" s="17"/>
+      <c r="II334" s="17"/>
+      <c r="IJ334" s="17"/>
+      <c r="IK334" s="17"/>
+      <c r="IL334" s="17"/>
+      <c r="IM334" s="17"/>
+      <c r="IN334" s="17"/>
+      <c r="IO334" s="17"/>
+      <c r="IP334" s="17"/>
+      <c r="IQ334" s="17"/>
+      <c r="IR334" s="17"/>
+      <c r="IS334" s="17"/>
+      <c r="IT334" s="17"/>
+      <c r="IU334" s="17"/>
+      <c r="IV334" s="17"/>
+      <c r="IW334" s="17"/>
+      <c r="IX334" s="17"/>
+      <c r="IY334" s="17"/>
+      <c r="IZ334" s="17"/>
+      <c r="JA334" s="17"/>
+      <c r="JB334" s="17"/>
+      <c r="JC334" s="17"/>
+      <c r="JD334" s="17"/>
+      <c r="JE334" s="17"/>
+      <c r="JF334" s="17"/>
+      <c r="JG334" s="17"/>
+      <c r="JH334" s="17"/>
+      <c r="JI334" s="17"/>
+      <c r="JJ334" s="17"/>
+      <c r="JK334" s="17"/>
+      <c r="JL334" s="17"/>
+      <c r="JM334" s="17"/>
+      <c r="JN334" s="17"/>
+      <c r="JO334" s="17"/>
+      <c r="JP334" s="17"/>
+      <c r="JQ334" s="17"/>
+      <c r="JR334" s="17"/>
+      <c r="JS334" s="17"/>
+      <c r="JT334" s="17"/>
+      <c r="JU334" s="17"/>
+      <c r="JV334" s="17"/>
+      <c r="JW334" s="17"/>
+      <c r="JX334" s="17"/>
+      <c r="JY334" s="17"/>
+      <c r="JZ334" s="17"/>
+      <c r="KA334" s="17"/>
+      <c r="KB334" s="17"/>
+      <c r="KC334" s="17"/>
+      <c r="KD334" s="17"/>
+      <c r="KE334" s="17"/>
+      <c r="KF334" s="17"/>
+      <c r="KG334" s="17"/>
+      <c r="KH334" s="17"/>
+      <c r="KI334" s="17"/>
+      <c r="KJ334" s="17"/>
+      <c r="KK334" s="17"/>
+      <c r="KL334" s="17"/>
+      <c r="KM334" s="17"/>
+      <c r="KN334" s="17"/>
+      <c r="KO334" s="17"/>
+      <c r="KP334" s="17"/>
+      <c r="KQ334" s="17"/>
+      <c r="KR334" s="17"/>
+      <c r="KS334" s="17"/>
+      <c r="KT334" s="17"/>
+      <c r="KU334" s="17"/>
+      <c r="KV334" s="17"/>
+      <c r="KW334" s="17"/>
+      <c r="KX334" s="17"/>
+      <c r="KY334" s="17"/>
+      <c r="KZ334" s="17"/>
+      <c r="LA334" s="17"/>
+      <c r="LB334" s="17"/>
+      <c r="LC334" s="17"/>
+      <c r="LD334" s="17"/>
+      <c r="LE334" s="17"/>
+      <c r="LF334" s="17"/>
+      <c r="LG334" s="17"/>
+      <c r="LH334" s="17"/>
+      <c r="LI334" s="17"/>
+      <c r="LJ334" s="17"/>
+      <c r="LK334" s="17"/>
+      <c r="LL334" s="17"/>
+      <c r="LM334" s="17"/>
+      <c r="LN334" s="17"/>
+      <c r="LO334" s="17"/>
+      <c r="LP334" s="17"/>
+      <c r="LQ334" s="17"/>
+      <c r="LR334" s="17"/>
+      <c r="LS334" s="17"/>
+      <c r="LT334" s="17"/>
+      <c r="LU334" s="17"/>
+      <c r="LV334" s="17"/>
+      <c r="LW334" s="17"/>
+      <c r="LX334" s="17"/>
+      <c r="LY334" s="17"/>
+      <c r="LZ334" s="17"/>
+      <c r="MA334" s="17"/>
+      <c r="MB334" s="17"/>
+      <c r="MC334" s="17"/>
+      <c r="MD334" s="17"/>
+      <c r="ME334" s="17"/>
+      <c r="MF334" s="17"/>
+      <c r="MG334" s="17"/>
+      <c r="MH334" s="17"/>
+      <c r="MI334" s="17"/>
+      <c r="MJ334" s="17"/>
+      <c r="MK334" s="17"/>
+      <c r="ML334" s="17"/>
+      <c r="MM334" s="17"/>
+      <c r="MN334" s="17"/>
+      <c r="MO334" s="17"/>
+      <c r="MP334" s="17"/>
+      <c r="MQ334" s="17"/>
+      <c r="MR334" s="17"/>
+      <c r="MS334" s="17"/>
+      <c r="MT334" s="17"/>
+      <c r="MU334" s="17"/>
+      <c r="MV334" s="17"/>
+      <c r="MW334" s="17"/>
+      <c r="MX334" s="17"/>
+      <c r="MY334" s="17"/>
+      <c r="MZ334" s="17"/>
+      <c r="NA334" s="17"/>
+      <c r="NB334" s="17"/>
+      <c r="NC334" s="17"/>
+      <c r="ND334" s="17"/>
+      <c r="NE334" s="17"/>
+      <c r="NF334" s="17"/>
+      <c r="NG334" s="17"/>
+      <c r="NH334" s="17"/>
+      <c r="NI334" s="17"/>
+      <c r="NJ334" s="17"/>
+      <c r="NK334" s="17"/>
+      <c r="NL334" s="17"/>
+      <c r="NM334" s="17"/>
+      <c r="NN334" s="17"/>
+      <c r="NO334" s="17"/>
+      <c r="NP334" s="17"/>
+      <c r="NQ334" s="17"/>
+      <c r="NR334" s="17"/>
+      <c r="NS334" s="17"/>
+      <c r="NT334" s="17"/>
+      <c r="NU334" s="17"/>
+      <c r="NV334" s="17"/>
+      <c r="NW334" s="17"/>
+      <c r="NX334" s="17"/>
+      <c r="NY334" s="17"/>
+      <c r="NZ334" s="17"/>
+      <c r="OA334" s="17"/>
+      <c r="OB334" s="17"/>
+      <c r="OC334" s="17"/>
+      <c r="OD334" s="17"/>
+      <c r="OE334" s="17"/>
+      <c r="OF334" s="17"/>
+      <c r="OG334" s="17"/>
+      <c r="OH334" s="17"/>
+      <c r="OI334" s="17"/>
+      <c r="OJ334" s="17"/>
+      <c r="OK334" s="17"/>
+      <c r="OL334" s="17"/>
+      <c r="OM334" s="17"/>
+      <c r="ON334" s="17"/>
+      <c r="OO334" s="17"/>
+      <c r="OP334" s="17"/>
+      <c r="OQ334" s="17"/>
+      <c r="OR334" s="17"/>
+      <c r="OS334" s="17"/>
+      <c r="OT334" s="17"/>
+      <c r="OU334" s="17"/>
+      <c r="OV334" s="17"/>
+      <c r="OW334" s="17"/>
+      <c r="OX334" s="17"/>
+      <c r="OY334" s="17"/>
+      <c r="OZ334" s="17"/>
+      <c r="PA334" s="17"/>
+      <c r="PB334" s="17"/>
+      <c r="PC334" s="17"/>
+      <c r="PD334" s="17"/>
+      <c r="PE334" s="17"/>
+      <c r="PF334" s="17"/>
+      <c r="PG334" s="17"/>
+      <c r="PH334" s="17"/>
+      <c r="PI334" s="17"/>
+      <c r="PJ334" s="17"/>
+      <c r="PK334" s="17"/>
+      <c r="PL334" s="17"/>
+      <c r="PM334" s="17"/>
+      <c r="PN334" s="17"/>
+      <c r="PO334" s="17"/>
+      <c r="PP334" s="17"/>
+      <c r="PQ334" s="17"/>
+      <c r="PR334" s="17"/>
+      <c r="PS334" s="17"/>
+      <c r="PT334" s="17"/>
+      <c r="PU334" s="17"/>
+      <c r="PV334" s="17"/>
+      <c r="PW334" s="17"/>
+      <c r="PX334" s="17"/>
+      <c r="PY334" s="17"/>
+      <c r="PZ334" s="17"/>
+      <c r="QA334" s="17"/>
+      <c r="QB334" s="17"/>
+      <c r="QC334" s="17"/>
+      <c r="QD334" s="17"/>
+      <c r="QE334" s="17"/>
+      <c r="QF334" s="17"/>
+    </row>
+    <row r="335" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="336" spans="1:448" s="23" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A336" s="23" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="329" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="330" spans="1:448" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A330" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="D330" s="14" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="331" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A331" s="17"/>
-      <c r="B331" s="17"/>
-      <c r="C331" s="17"/>
-      <c r="D331" s="17"/>
-      <c r="E331" s="17"/>
-      <c r="F331" s="17"/>
-      <c r="G331" s="17"/>
-      <c r="H331" s="17"/>
-      <c r="I331" s="17"/>
-      <c r="J331" s="17"/>
-      <c r="K331" s="17"/>
-      <c r="L331" s="17"/>
-      <c r="M331" s="17"/>
-      <c r="N331" s="17"/>
-      <c r="O331" s="17"/>
-      <c r="P331" s="17"/>
-      <c r="Q331" s="17"/>
-      <c r="R331" s="17"/>
-      <c r="S331" s="17"/>
-      <c r="T331" s="17"/>
-      <c r="U331" s="17"/>
-      <c r="V331" s="17"/>
-      <c r="W331" s="17"/>
-      <c r="X331" s="17"/>
-      <c r="Y331" s="17"/>
-      <c r="Z331" s="17"/>
-      <c r="AA331" s="17"/>
-      <c r="AB331" s="17"/>
-      <c r="AC331" s="17"/>
-      <c r="AD331" s="17"/>
-      <c r="AE331" s="17"/>
-      <c r="AF331" s="17"/>
-      <c r="AG331" s="17"/>
-      <c r="AH331" s="17"/>
-      <c r="AI331" s="17"/>
-      <c r="AJ331" s="17"/>
-      <c r="AK331" s="17"/>
-      <c r="AL331" s="17"/>
-      <c r="AM331" s="17"/>
-      <c r="AN331" s="17"/>
-      <c r="AO331" s="17"/>
-      <c r="AP331" s="17"/>
-      <c r="AQ331" s="17"/>
-      <c r="AR331" s="17"/>
-      <c r="AS331" s="17"/>
-      <c r="AT331" s="17"/>
-      <c r="AU331" s="17"/>
-      <c r="AV331" s="17"/>
-      <c r="AW331" s="17"/>
-      <c r="AX331" s="17"/>
-      <c r="AY331" s="17"/>
-      <c r="AZ331" s="17"/>
-      <c r="BA331" s="17"/>
-      <c r="BB331" s="17"/>
-      <c r="BC331" s="17"/>
-      <c r="BD331" s="17"/>
-      <c r="BE331" s="17"/>
-      <c r="BF331" s="17"/>
-      <c r="BG331" s="17"/>
-      <c r="BH331" s="17"/>
-      <c r="BI331" s="17"/>
-      <c r="BJ331" s="17"/>
-      <c r="BK331" s="17"/>
-      <c r="BL331" s="17"/>
-      <c r="BM331" s="17"/>
-      <c r="BN331" s="17"/>
-      <c r="BO331" s="17"/>
-      <c r="BP331" s="17"/>
-      <c r="BQ331" s="17"/>
-      <c r="BR331" s="17"/>
-      <c r="BS331" s="17"/>
-      <c r="BT331" s="17"/>
-      <c r="BU331" s="17"/>
-      <c r="BV331" s="17"/>
-    </row>
-    <row r="332" spans="1:448" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A332" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="D332" s="14" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="333" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A333" s="17"/>
-      <c r="B333" s="17"/>
-      <c r="C333" s="17"/>
-      <c r="D333" s="17"/>
-      <c r="E333" s="17"/>
-      <c r="F333" s="17"/>
-      <c r="G333" s="17"/>
-      <c r="H333" s="17"/>
-      <c r="I333" s="17"/>
-      <c r="J333" s="17"/>
-      <c r="K333" s="17"/>
-      <c r="L333" s="17"/>
-      <c r="M333" s="17"/>
-      <c r="N333" s="17"/>
-      <c r="O333" s="17"/>
-      <c r="P333" s="17"/>
-      <c r="Q333" s="17"/>
-      <c r="R333" s="17"/>
-      <c r="S333" s="17"/>
-      <c r="T333" s="17"/>
-      <c r="U333" s="17"/>
-      <c r="V333" s="17"/>
-      <c r="W333" s="17"/>
-      <c r="X333" s="17"/>
-      <c r="Y333" s="17"/>
-      <c r="Z333" s="17"/>
-      <c r="AA333" s="17"/>
-      <c r="AB333" s="17"/>
-      <c r="AC333" s="17"/>
-      <c r="AD333" s="17"/>
-      <c r="AE333" s="17"/>
-      <c r="AF333" s="17"/>
-      <c r="AG333" s="17"/>
-      <c r="AH333" s="17"/>
-      <c r="AI333" s="17"/>
-      <c r="AJ333" s="17"/>
-      <c r="AK333" s="17"/>
-      <c r="AL333" s="17"/>
-      <c r="AM333" s="17"/>
-      <c r="AN333" s="17"/>
-      <c r="AO333" s="17"/>
-      <c r="AP333" s="17"/>
-      <c r="AQ333" s="17"/>
-      <c r="AR333" s="17"/>
-      <c r="AS333" s="17"/>
-      <c r="AT333" s="17"/>
-      <c r="AU333" s="17"/>
-      <c r="AV333" s="17"/>
-      <c r="AW333" s="17"/>
-      <c r="AX333" s="17"/>
-      <c r="AY333" s="17"/>
-      <c r="AZ333" s="17"/>
-      <c r="BA333" s="17"/>
-      <c r="BB333" s="17"/>
-      <c r="BC333" s="17"/>
-      <c r="BD333" s="17"/>
-      <c r="BE333" s="17"/>
-      <c r="BF333" s="17"/>
-      <c r="BG333" s="17"/>
-      <c r="BH333" s="17"/>
-      <c r="BI333" s="17"/>
-      <c r="BJ333" s="17"/>
-      <c r="BK333" s="17"/>
-      <c r="BL333" s="17"/>
-      <c r="BM333" s="17"/>
-      <c r="BN333" s="17"/>
-      <c r="BO333" s="17"/>
-      <c r="BP333" s="17"/>
-      <c r="BQ333" s="17"/>
-      <c r="BR333" s="17"/>
-      <c r="BS333" s="17"/>
-      <c r="BT333" s="17"/>
-      <c r="BU333" s="17"/>
-      <c r="BV333" s="17"/>
-    </row>
-    <row r="334" spans="1:448" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A334" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="D334" s="14" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="335" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A335" s="17"/>
-      <c r="B335" s="17"/>
-      <c r="C335" s="17"/>
-      <c r="D335" s="17"/>
-      <c r="E335" s="17"/>
-      <c r="F335" s="17"/>
-      <c r="G335" s="17"/>
-      <c r="H335" s="17"/>
-      <c r="I335" s="17"/>
-      <c r="J335" s="17"/>
-      <c r="K335" s="17"/>
-      <c r="L335" s="17"/>
-      <c r="M335" s="17"/>
-      <c r="N335" s="17"/>
-      <c r="O335" s="17"/>
-      <c r="P335" s="17"/>
-      <c r="Q335" s="17"/>
-      <c r="R335" s="17"/>
-      <c r="S335" s="17"/>
-      <c r="T335" s="17"/>
-      <c r="U335" s="17"/>
-      <c r="V335" s="17"/>
-      <c r="W335" s="17"/>
-      <c r="X335" s="17"/>
-      <c r="Y335" s="17"/>
-      <c r="Z335" s="17"/>
-      <c r="AA335" s="17"/>
-      <c r="AB335" s="17"/>
-      <c r="AC335" s="17"/>
-      <c r="AD335" s="17"/>
-      <c r="AE335" s="17"/>
-      <c r="AF335" s="17"/>
-      <c r="AG335" s="17"/>
-      <c r="AH335" s="17"/>
-      <c r="AI335" s="17"/>
-      <c r="AJ335" s="17"/>
-      <c r="AK335" s="17"/>
-      <c r="AL335" s="17"/>
-      <c r="AM335" s="17"/>
-      <c r="AN335" s="17"/>
-      <c r="AO335" s="17"/>
-      <c r="AP335" s="17"/>
-      <c r="AQ335" s="17"/>
-      <c r="AR335" s="17"/>
-      <c r="AS335" s="17"/>
-      <c r="AT335" s="17"/>
-      <c r="AU335" s="17"/>
-      <c r="AV335" s="17"/>
-      <c r="AW335" s="17"/>
-      <c r="AX335" s="17"/>
-      <c r="AY335" s="17"/>
-      <c r="AZ335" s="17"/>
-      <c r="BA335" s="17"/>
-      <c r="BB335" s="17"/>
-      <c r="BC335" s="17"/>
-      <c r="BD335" s="17"/>
-      <c r="BE335" s="17"/>
-      <c r="BF335" s="17"/>
-      <c r="BG335" s="17"/>
-      <c r="BH335" s="17"/>
-      <c r="BI335" s="17"/>
-      <c r="BJ335" s="17"/>
-      <c r="BK335" s="17"/>
-      <c r="BL335" s="17"/>
-      <c r="BM335" s="17"/>
-      <c r="BN335" s="17"/>
-      <c r="BO335" s="17"/>
-      <c r="BP335" s="17"/>
-      <c r="BQ335" s="17"/>
-      <c r="BR335" s="17"/>
-      <c r="BS335" s="17"/>
-      <c r="BT335" s="17"/>
-      <c r="BU335" s="17"/>
-      <c r="BV335" s="17"/>
-    </row>
-    <row r="336" spans="1:448" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A336" s="14" t="s">
-        <v>366</v>
-      </c>
-      <c r="D336" s="14" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="337" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A337" s="17"/>
-      <c r="B337" s="17"/>
-      <c r="C337" s="17"/>
-      <c r="D337" s="17"/>
-      <c r="E337" s="17"/>
-      <c r="F337" s="17"/>
-      <c r="G337" s="17"/>
-      <c r="H337" s="17"/>
-      <c r="I337" s="17"/>
-      <c r="J337" s="17"/>
-      <c r="K337" s="17"/>
-      <c r="L337" s="17"/>
-      <c r="M337" s="17"/>
-      <c r="N337" s="17"/>
-      <c r="O337" s="17"/>
-      <c r="P337" s="17"/>
-      <c r="Q337" s="17"/>
-      <c r="R337" s="17"/>
-      <c r="S337" s="17"/>
-      <c r="T337" s="17"/>
-      <c r="U337" s="17"/>
-      <c r="V337" s="17"/>
-      <c r="W337" s="17"/>
-      <c r="X337" s="17"/>
-      <c r="Y337" s="17"/>
-      <c r="Z337" s="17"/>
-      <c r="AA337" s="17"/>
-      <c r="AB337" s="17"/>
-      <c r="AC337" s="17"/>
-      <c r="AD337" s="17"/>
-      <c r="AE337" s="17"/>
-      <c r="AF337" s="17"/>
-      <c r="AG337" s="17"/>
-      <c r="AH337" s="17"/>
-      <c r="AI337" s="17"/>
-      <c r="AJ337" s="17"/>
-      <c r="AK337" s="17"/>
-      <c r="AL337" s="17"/>
-      <c r="AM337" s="17"/>
-      <c r="AN337" s="17"/>
-      <c r="AO337" s="17"/>
-      <c r="AP337" s="17"/>
-      <c r="AQ337" s="17"/>
-      <c r="AR337" s="17"/>
-      <c r="AS337" s="17"/>
-      <c r="AT337" s="17"/>
-      <c r="AU337" s="17"/>
-      <c r="AV337" s="17"/>
-      <c r="AW337" s="17"/>
-      <c r="AX337" s="17"/>
-      <c r="AY337" s="17"/>
-      <c r="AZ337" s="17"/>
-      <c r="BA337" s="17"/>
-      <c r="BB337" s="17"/>
-      <c r="BC337" s="17"/>
-      <c r="BD337" s="17"/>
-      <c r="BE337" s="17"/>
-      <c r="BF337" s="17"/>
-      <c r="BG337" s="17"/>
-      <c r="BH337" s="17"/>
-      <c r="BI337" s="17"/>
-      <c r="BJ337" s="17"/>
-      <c r="BK337" s="17"/>
-      <c r="BL337" s="17"/>
-      <c r="BM337" s="17"/>
-      <c r="BN337" s="17"/>
-      <c r="BO337" s="17"/>
-      <c r="BP337" s="17"/>
-      <c r="BQ337" s="17"/>
-      <c r="BR337" s="17"/>
-      <c r="BS337" s="17"/>
-      <c r="BT337" s="17"/>
-      <c r="BU337" s="17"/>
-      <c r="BV337" s="17"/>
-    </row>
+    <row r="337" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="338" spans="1:74" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A338" s="14" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D338" s="14" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="339" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -8812,10 +10307,10 @@
     </row>
     <row r="340" spans="1:74" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A340" s="14" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D340" s="14" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="341" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -8896,10 +10391,10 @@
     </row>
     <row r="342" spans="1:74" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A342" s="14" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D342" s="14" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="343" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -8980,10 +10475,10 @@
     </row>
     <row r="344" spans="1:74" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A344" s="14" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D344" s="14" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="345" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -9064,10 +10559,10 @@
     </row>
     <row r="346" spans="1:74" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A346" s="14" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D346" s="14" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="347" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -9146,12 +10641,12 @@
       <c r="BU347" s="17"/>
       <c r="BV347" s="17"/>
     </row>
-    <row r="348" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A348" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="D348" s="9" t="s">
-        <v>408</v>
+    <row r="348" spans="1:74" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A348" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="D348" s="14" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="349" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -9230,12 +10725,12 @@
       <c r="BU349" s="17"/>
       <c r="BV349" s="17"/>
     </row>
-    <row r="350" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A350" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="D350" s="9" t="s">
-        <v>409</v>
+    <row r="350" spans="1:74" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A350" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="D350" s="14" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="351" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -9314,15 +10809,12 @@
       <c r="BU351" s="17"/>
       <c r="BV351" s="17"/>
     </row>
-    <row r="352" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A352" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="B352" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="D352" s="9" t="s">
-        <v>410</v>
+    <row r="352" spans="1:74" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A352" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="D352" s="14" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="353" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -9401,12 +10893,12 @@
       <c r="BU353" s="17"/>
       <c r="BV353" s="17"/>
     </row>
-    <row r="354" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A354" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="D354" s="9" t="s">
-        <v>411</v>
+    <row r="354" spans="1:74" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A354" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="D354" s="14" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="355" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -9487,10 +10979,10 @@
     </row>
     <row r="356" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A356" s="9" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D356" s="9" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="357" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -9571,10 +11063,10 @@
     </row>
     <row r="358" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A358" s="9" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D358" s="9" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="359" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -9655,10 +11147,13 @@
     </row>
     <row r="360" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A360" s="9" t="s">
-        <v>345</v>
+        <v>374</v>
+      </c>
+      <c r="B360" s="9" t="s">
+        <v>303</v>
       </c>
       <c r="D360" s="9" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="361" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -9739,10 +11234,10 @@
     </row>
     <row r="362" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A362" s="9" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D362" s="9" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="363" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -9823,10 +11318,10 @@
     </row>
     <row r="364" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A364" s="9" t="s">
-        <v>419</v>
+        <v>376</v>
       </c>
       <c r="D364" s="9" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
     </row>
     <row r="365" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -9907,10 +11402,10 @@
     </row>
     <row r="366" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A366" s="9" t="s">
-        <v>421</v>
+        <v>377</v>
       </c>
       <c r="D366" s="9" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
     </row>
     <row r="367" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -9991,10 +11486,10 @@
     </row>
     <row r="368" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A368" s="9" t="s">
-        <v>423</v>
+        <v>345</v>
       </c>
       <c r="D368" s="9" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="369" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -10073,7 +11568,14 @@
       <c r="BU369" s="17"/>
       <c r="BV369" s="17"/>
     </row>
-    <row r="370" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="370" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A370" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="D370" s="9" t="s">
+        <v>415</v>
+      </c>
+    </row>
     <row r="371" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A371" s="17"/>
       <c r="B371" s="17"/>
@@ -10150,7 +11652,14 @@
       <c r="BU371" s="17"/>
       <c r="BV371" s="17"/>
     </row>
-    <row r="372" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="372" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A372" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="D372" s="9" t="s">
+        <v>420</v>
+      </c>
+    </row>
     <row r="373" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A373" s="17"/>
       <c r="B373" s="17"/>
@@ -10227,7 +11736,14 @@
       <c r="BU373" s="17"/>
       <c r="BV373" s="17"/>
     </row>
-    <row r="374" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="374" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A374" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="D374" s="9" t="s">
+        <v>422</v>
+      </c>
+    </row>
     <row r="375" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A375" s="17"/>
       <c r="B375" s="17"/>
@@ -10304,6 +11820,14 @@
       <c r="BU375" s="17"/>
       <c r="BV375" s="17"/>
     </row>
+    <row r="376" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A376" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="D376" s="9" t="s">
+        <v>424</v>
+      </c>
+    </row>
     <row r="377" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A377" s="17"/>
       <c r="B377" s="17"/>
@@ -10380,6 +11904,11 @@
       <c r="BU377" s="17"/>
       <c r="BV377" s="17"/>
     </row>
+    <row r="378" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A378" s="9" t="s">
+        <v>425</v>
+      </c>
+    </row>
     <row r="379" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A379" s="17"/>
       <c r="B379" s="17"/>
@@ -10456,6 +11985,11 @@
       <c r="BU379" s="17"/>
       <c r="BV379" s="17"/>
     </row>
+    <row r="380" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A380" s="9" t="s">
+        <v>426</v>
+      </c>
+    </row>
     <row r="381" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A381" s="17"/>
       <c r="B381" s="17"/>
@@ -10532,6 +12066,7 @@
       <c r="BU381" s="17"/>
       <c r="BV381" s="17"/>
     </row>
+    <row r="382" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="383" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A383" s="17"/>
       <c r="B383" s="17"/>
@@ -10608,129 +12143,321 @@
       <c r="BU383" s="17"/>
       <c r="BV383" s="17"/>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A428" s="12"/>
-      <c r="B428" s="12"/>
-      <c r="C428" s="12"/>
-      <c r="D428" s="12"/>
-      <c r="E428" s="12"/>
-      <c r="F428" s="12"/>
-      <c r="G428" s="12"/>
-      <c r="H428" s="12"/>
-      <c r="I428" s="12"/>
-      <c r="J428" s="12"/>
-      <c r="K428" s="12"/>
-      <c r="L428" s="12"/>
-    </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A429" s="12"/>
-      <c r="B429" s="12"/>
-      <c r="C429" s="12"/>
-      <c r="D429" s="12"/>
-      <c r="E429" s="12"/>
-      <c r="F429" s="12"/>
-      <c r="G429" s="12"/>
-      <c r="H429" s="12"/>
-      <c r="I429" s="12"/>
-      <c r="J429" s="12"/>
-      <c r="K429" s="12"/>
-      <c r="L429" s="12"/>
-    </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A430" s="12"/>
-      <c r="B430" s="12"/>
-      <c r="C430" s="12"/>
-      <c r="D430" s="12"/>
-      <c r="E430" s="12"/>
-      <c r="F430" s="12"/>
-      <c r="G430" s="12"/>
-      <c r="H430" s="12"/>
-      <c r="I430" s="12"/>
-      <c r="J430" s="12"/>
-      <c r="K430" s="12"/>
-      <c r="L430" s="12"/>
-    </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A431" s="12"/>
-      <c r="B431" s="12"/>
-      <c r="C431" s="12"/>
-      <c r="D431" s="12"/>
-      <c r="E431" s="12"/>
-      <c r="F431" s="12"/>
-      <c r="G431" s="12"/>
-      <c r="H431" s="12"/>
-      <c r="I431" s="12"/>
-      <c r="J431" s="12"/>
-      <c r="K431" s="12"/>
-      <c r="L431" s="12"/>
-    </row>
-    <row r="432" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A432" s="14"/>
-      <c r="B432" s="14"/>
-      <c r="C432" s="14"/>
-      <c r="D432" s="14"/>
-      <c r="E432" s="14"/>
-      <c r="F432" s="14"/>
-      <c r="G432" s="14"/>
-      <c r="H432" s="14"/>
-      <c r="I432" s="14"/>
-      <c r="J432" s="14"/>
-      <c r="K432" s="12"/>
-      <c r="L432" s="12"/>
-    </row>
-    <row r="433" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A433" s="14"/>
-      <c r="B433" s="14"/>
-      <c r="C433" s="14"/>
-      <c r="D433" s="14"/>
-      <c r="E433" s="14"/>
-      <c r="F433" s="14"/>
-      <c r="G433" s="14"/>
-      <c r="H433" s="14"/>
-      <c r="I433" s="14"/>
-      <c r="J433" s="14"/>
-      <c r="K433" s="12"/>
-      <c r="L433" s="12"/>
-    </row>
-    <row r="434" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A434" s="14"/>
-      <c r="B434" s="14"/>
-      <c r="C434" s="14"/>
-      <c r="D434" s="14"/>
-      <c r="E434" s="14"/>
-      <c r="F434" s="14"/>
-      <c r="G434" s="14"/>
-      <c r="H434" s="14"/>
-      <c r="I434" s="14"/>
-      <c r="J434" s="14"/>
-      <c r="K434" s="12"/>
-      <c r="L434" s="12"/>
-    </row>
-    <row r="435" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A435" s="14"/>
-      <c r="B435" s="14"/>
-      <c r="C435" s="14"/>
-      <c r="D435" s="14"/>
-      <c r="E435" s="14"/>
-      <c r="F435" s="14"/>
-      <c r="G435" s="14"/>
-      <c r="H435" s="14"/>
-      <c r="I435" s="14"/>
-      <c r="J435" s="14"/>
-      <c r="K435" s="12"/>
-      <c r="L435" s="12"/>
-    </row>
-    <row r="436" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A436" s="14"/>
-      <c r="B436" s="14"/>
-      <c r="C436" s="14"/>
-      <c r="D436" s="14"/>
-      <c r="E436" s="14"/>
-      <c r="F436" s="14"/>
-      <c r="G436" s="14"/>
-      <c r="H436" s="14"/>
-      <c r="I436" s="14"/>
-      <c r="J436" s="14"/>
+    <row r="385" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A385" s="17"/>
+      <c r="B385" s="17"/>
+      <c r="C385" s="17"/>
+      <c r="D385" s="17"/>
+      <c r="E385" s="17"/>
+      <c r="F385" s="17"/>
+      <c r="G385" s="17"/>
+      <c r="H385" s="17"/>
+      <c r="I385" s="17"/>
+      <c r="J385" s="17"/>
+      <c r="K385" s="17"/>
+      <c r="L385" s="17"/>
+      <c r="M385" s="17"/>
+      <c r="N385" s="17"/>
+      <c r="O385" s="17"/>
+      <c r="P385" s="17"/>
+      <c r="Q385" s="17"/>
+      <c r="R385" s="17"/>
+      <c r="S385" s="17"/>
+      <c r="T385" s="17"/>
+      <c r="U385" s="17"/>
+      <c r="V385" s="17"/>
+      <c r="W385" s="17"/>
+      <c r="X385" s="17"/>
+      <c r="Y385" s="17"/>
+      <c r="Z385" s="17"/>
+      <c r="AA385" s="17"/>
+      <c r="AB385" s="17"/>
+      <c r="AC385" s="17"/>
+      <c r="AD385" s="17"/>
+      <c r="AE385" s="17"/>
+      <c r="AF385" s="17"/>
+      <c r="AG385" s="17"/>
+      <c r="AH385" s="17"/>
+      <c r="AI385" s="17"/>
+      <c r="AJ385" s="17"/>
+      <c r="AK385" s="17"/>
+      <c r="AL385" s="17"/>
+      <c r="AM385" s="17"/>
+      <c r="AN385" s="17"/>
+      <c r="AO385" s="17"/>
+      <c r="AP385" s="17"/>
+      <c r="AQ385" s="17"/>
+      <c r="AR385" s="17"/>
+      <c r="AS385" s="17"/>
+      <c r="AT385" s="17"/>
+      <c r="AU385" s="17"/>
+      <c r="AV385" s="17"/>
+      <c r="AW385" s="17"/>
+      <c r="AX385" s="17"/>
+      <c r="AY385" s="17"/>
+      <c r="AZ385" s="17"/>
+      <c r="BA385" s="17"/>
+      <c r="BB385" s="17"/>
+      <c r="BC385" s="17"/>
+      <c r="BD385" s="17"/>
+      <c r="BE385" s="17"/>
+      <c r="BF385" s="17"/>
+      <c r="BG385" s="17"/>
+      <c r="BH385" s="17"/>
+      <c r="BI385" s="17"/>
+      <c r="BJ385" s="17"/>
+      <c r="BK385" s="17"/>
+      <c r="BL385" s="17"/>
+      <c r="BM385" s="17"/>
+      <c r="BN385" s="17"/>
+      <c r="BO385" s="17"/>
+      <c r="BP385" s="17"/>
+      <c r="BQ385" s="17"/>
+      <c r="BR385" s="17"/>
+      <c r="BS385" s="17"/>
+      <c r="BT385" s="17"/>
+      <c r="BU385" s="17"/>
+      <c r="BV385" s="17"/>
+    </row>
+    <row r="387" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A387" s="17"/>
+      <c r="B387" s="17"/>
+      <c r="C387" s="17"/>
+      <c r="D387" s="17"/>
+      <c r="E387" s="17"/>
+      <c r="F387" s="17"/>
+      <c r="G387" s="17"/>
+      <c r="H387" s="17"/>
+      <c r="I387" s="17"/>
+      <c r="J387" s="17"/>
+      <c r="K387" s="17"/>
+      <c r="L387" s="17"/>
+      <c r="M387" s="17"/>
+      <c r="N387" s="17"/>
+      <c r="O387" s="17"/>
+      <c r="P387" s="17"/>
+      <c r="Q387" s="17"/>
+      <c r="R387" s="17"/>
+      <c r="S387" s="17"/>
+      <c r="T387" s="17"/>
+      <c r="U387" s="17"/>
+      <c r="V387" s="17"/>
+      <c r="W387" s="17"/>
+      <c r="X387" s="17"/>
+      <c r="Y387" s="17"/>
+      <c r="Z387" s="17"/>
+      <c r="AA387" s="17"/>
+      <c r="AB387" s="17"/>
+      <c r="AC387" s="17"/>
+      <c r="AD387" s="17"/>
+      <c r="AE387" s="17"/>
+      <c r="AF387" s="17"/>
+      <c r="AG387" s="17"/>
+      <c r="AH387" s="17"/>
+      <c r="AI387" s="17"/>
+      <c r="AJ387" s="17"/>
+      <c r="AK387" s="17"/>
+      <c r="AL387" s="17"/>
+      <c r="AM387" s="17"/>
+      <c r="AN387" s="17"/>
+      <c r="AO387" s="17"/>
+      <c r="AP387" s="17"/>
+      <c r="AQ387" s="17"/>
+      <c r="AR387" s="17"/>
+      <c r="AS387" s="17"/>
+      <c r="AT387" s="17"/>
+      <c r="AU387" s="17"/>
+      <c r="AV387" s="17"/>
+      <c r="AW387" s="17"/>
+      <c r="AX387" s="17"/>
+      <c r="AY387" s="17"/>
+      <c r="AZ387" s="17"/>
+      <c r="BA387" s="17"/>
+      <c r="BB387" s="17"/>
+      <c r="BC387" s="17"/>
+      <c r="BD387" s="17"/>
+      <c r="BE387" s="17"/>
+      <c r="BF387" s="17"/>
+      <c r="BG387" s="17"/>
+      <c r="BH387" s="17"/>
+      <c r="BI387" s="17"/>
+      <c r="BJ387" s="17"/>
+      <c r="BK387" s="17"/>
+      <c r="BL387" s="17"/>
+      <c r="BM387" s="17"/>
+      <c r="BN387" s="17"/>
+      <c r="BO387" s="17"/>
+      <c r="BP387" s="17"/>
+      <c r="BQ387" s="17"/>
+      <c r="BR387" s="17"/>
+      <c r="BS387" s="17"/>
+      <c r="BT387" s="17"/>
+      <c r="BU387" s="17"/>
+      <c r="BV387" s="17"/>
+    </row>
+    <row r="389" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A389" s="17"/>
+      <c r="B389" s="17"/>
+      <c r="C389" s="17"/>
+      <c r="D389" s="17"/>
+      <c r="E389" s="17"/>
+      <c r="F389" s="17"/>
+      <c r="G389" s="17"/>
+      <c r="H389" s="17"/>
+      <c r="I389" s="17"/>
+      <c r="J389" s="17"/>
+      <c r="K389" s="17"/>
+      <c r="L389" s="17"/>
+      <c r="M389" s="17"/>
+      <c r="N389" s="17"/>
+      <c r="O389" s="17"/>
+      <c r="P389" s="17"/>
+      <c r="Q389" s="17"/>
+      <c r="R389" s="17"/>
+      <c r="S389" s="17"/>
+      <c r="T389" s="17"/>
+      <c r="U389" s="17"/>
+      <c r="V389" s="17"/>
+      <c r="W389" s="17"/>
+      <c r="X389" s="17"/>
+      <c r="Y389" s="17"/>
+      <c r="Z389" s="17"/>
+      <c r="AA389" s="17"/>
+      <c r="AB389" s="17"/>
+      <c r="AC389" s="17"/>
+      <c r="AD389" s="17"/>
+      <c r="AE389" s="17"/>
+      <c r="AF389" s="17"/>
+      <c r="AG389" s="17"/>
+      <c r="AH389" s="17"/>
+      <c r="AI389" s="17"/>
+      <c r="AJ389" s="17"/>
+      <c r="AK389" s="17"/>
+      <c r="AL389" s="17"/>
+      <c r="AM389" s="17"/>
+      <c r="AN389" s="17"/>
+      <c r="AO389" s="17"/>
+      <c r="AP389" s="17"/>
+      <c r="AQ389" s="17"/>
+      <c r="AR389" s="17"/>
+      <c r="AS389" s="17"/>
+      <c r="AT389" s="17"/>
+      <c r="AU389" s="17"/>
+      <c r="AV389" s="17"/>
+      <c r="AW389" s="17"/>
+      <c r="AX389" s="17"/>
+      <c r="AY389" s="17"/>
+      <c r="AZ389" s="17"/>
+      <c r="BA389" s="17"/>
+      <c r="BB389" s="17"/>
+      <c r="BC389" s="17"/>
+      <c r="BD389" s="17"/>
+      <c r="BE389" s="17"/>
+      <c r="BF389" s="17"/>
+      <c r="BG389" s="17"/>
+      <c r="BH389" s="17"/>
+      <c r="BI389" s="17"/>
+      <c r="BJ389" s="17"/>
+      <c r="BK389" s="17"/>
+      <c r="BL389" s="17"/>
+      <c r="BM389" s="17"/>
+      <c r="BN389" s="17"/>
+      <c r="BO389" s="17"/>
+      <c r="BP389" s="17"/>
+      <c r="BQ389" s="17"/>
+      <c r="BR389" s="17"/>
+      <c r="BS389" s="17"/>
+      <c r="BT389" s="17"/>
+      <c r="BU389" s="17"/>
+      <c r="BV389" s="17"/>
+    </row>
+    <row r="391" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A391" s="17"/>
+      <c r="B391" s="17"/>
+      <c r="C391" s="17"/>
+      <c r="D391" s="17"/>
+      <c r="E391" s="17"/>
+      <c r="F391" s="17"/>
+      <c r="G391" s="17"/>
+      <c r="H391" s="17"/>
+      <c r="I391" s="17"/>
+      <c r="J391" s="17"/>
+      <c r="K391" s="17"/>
+      <c r="L391" s="17"/>
+      <c r="M391" s="17"/>
+      <c r="N391" s="17"/>
+      <c r="O391" s="17"/>
+      <c r="P391" s="17"/>
+      <c r="Q391" s="17"/>
+      <c r="R391" s="17"/>
+      <c r="S391" s="17"/>
+      <c r="T391" s="17"/>
+      <c r="U391" s="17"/>
+      <c r="V391" s="17"/>
+      <c r="W391" s="17"/>
+      <c r="X391" s="17"/>
+      <c r="Y391" s="17"/>
+      <c r="Z391" s="17"/>
+      <c r="AA391" s="17"/>
+      <c r="AB391" s="17"/>
+      <c r="AC391" s="17"/>
+      <c r="AD391" s="17"/>
+      <c r="AE391" s="17"/>
+      <c r="AF391" s="17"/>
+      <c r="AG391" s="17"/>
+      <c r="AH391" s="17"/>
+      <c r="AI391" s="17"/>
+      <c r="AJ391" s="17"/>
+      <c r="AK391" s="17"/>
+      <c r="AL391" s="17"/>
+      <c r="AM391" s="17"/>
+      <c r="AN391" s="17"/>
+      <c r="AO391" s="17"/>
+      <c r="AP391" s="17"/>
+      <c r="AQ391" s="17"/>
+      <c r="AR391" s="17"/>
+      <c r="AS391" s="17"/>
+      <c r="AT391" s="17"/>
+      <c r="AU391" s="17"/>
+      <c r="AV391" s="17"/>
+      <c r="AW391" s="17"/>
+      <c r="AX391" s="17"/>
+      <c r="AY391" s="17"/>
+      <c r="AZ391" s="17"/>
+      <c r="BA391" s="17"/>
+      <c r="BB391" s="17"/>
+      <c r="BC391" s="17"/>
+      <c r="BD391" s="17"/>
+      <c r="BE391" s="17"/>
+      <c r="BF391" s="17"/>
+      <c r="BG391" s="17"/>
+      <c r="BH391" s="17"/>
+      <c r="BI391" s="17"/>
+      <c r="BJ391" s="17"/>
+      <c r="BK391" s="17"/>
+      <c r="BL391" s="17"/>
+      <c r="BM391" s="17"/>
+      <c r="BN391" s="17"/>
+      <c r="BO391" s="17"/>
+      <c r="BP391" s="17"/>
+      <c r="BQ391" s="17"/>
+      <c r="BR391" s="17"/>
+      <c r="BS391" s="17"/>
+      <c r="BT391" s="17"/>
+      <c r="BU391" s="17"/>
+      <c r="BV391" s="17"/>
+    </row>
+    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A436" s="12"/>
+      <c r="B436" s="12"/>
+      <c r="C436" s="12"/>
+      <c r="D436" s="12"/>
+      <c r="E436" s="12"/>
+      <c r="F436" s="12"/>
+      <c r="G436" s="12"/>
+      <c r="H436" s="12"/>
+      <c r="I436" s="12"/>
+      <c r="J436" s="12"/>
       <c r="K436" s="12"/>
       <c r="L436" s="12"/>
     </row>
@@ -10776,17 +12503,17 @@
       <c r="K439" s="12"/>
       <c r="L439" s="12"/>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A440" s="12"/>
-      <c r="B440" s="12"/>
-      <c r="C440" s="12"/>
-      <c r="D440" s="12"/>
-      <c r="E440" s="12"/>
-      <c r="F440" s="12"/>
-      <c r="G440" s="12"/>
-      <c r="H440" s="12"/>
-      <c r="I440" s="12"/>
-      <c r="J440" s="12"/>
+    <row r="440" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A440" s="14"/>
+      <c r="B440" s="14"/>
+      <c r="C440" s="14"/>
+      <c r="D440" s="14"/>
+      <c r="E440" s="14"/>
+      <c r="F440" s="14"/>
+      <c r="G440" s="14"/>
+      <c r="H440" s="14"/>
+      <c r="I440" s="14"/>
+      <c r="J440" s="14"/>
       <c r="K440" s="12"/>
       <c r="L440" s="12"/>
     </row>
@@ -10846,59 +12573,59 @@
       <c r="K444" s="12"/>
       <c r="L444" s="12"/>
     </row>
-    <row r="445" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A445" s="14"/>
-      <c r="B445" s="14"/>
-      <c r="C445" s="14"/>
-      <c r="D445" s="14"/>
-      <c r="E445" s="14"/>
-      <c r="F445" s="14"/>
-      <c r="G445" s="14"/>
-      <c r="H445" s="14"/>
-      <c r="I445" s="14"/>
-      <c r="J445" s="14"/>
+    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A445" s="12"/>
+      <c r="B445" s="12"/>
+      <c r="C445" s="12"/>
+      <c r="D445" s="12"/>
+      <c r="E445" s="12"/>
+      <c r="F445" s="12"/>
+      <c r="G445" s="12"/>
+      <c r="H445" s="12"/>
+      <c r="I445" s="12"/>
+      <c r="J445" s="12"/>
       <c r="K445" s="12"/>
       <c r="L445" s="12"/>
     </row>
-    <row r="446" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A446" s="14"/>
-      <c r="B446" s="14"/>
-      <c r="C446" s="14"/>
-      <c r="D446" s="14"/>
-      <c r="E446" s="14"/>
-      <c r="F446" s="14"/>
-      <c r="G446" s="14"/>
-      <c r="H446" s="14"/>
-      <c r="I446" s="14"/>
-      <c r="J446" s="14"/>
+    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A446" s="12"/>
+      <c r="B446" s="12"/>
+      <c r="C446" s="12"/>
+      <c r="D446" s="12"/>
+      <c r="E446" s="12"/>
+      <c r="F446" s="12"/>
+      <c r="G446" s="12"/>
+      <c r="H446" s="12"/>
+      <c r="I446" s="12"/>
+      <c r="J446" s="12"/>
       <c r="K446" s="12"/>
       <c r="L446" s="12"/>
     </row>
-    <row r="447" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A447" s="14"/>
-      <c r="B447" s="14"/>
-      <c r="C447" s="14"/>
-      <c r="D447" s="14"/>
-      <c r="E447" s="14"/>
-      <c r="F447" s="14"/>
-      <c r="G447" s="14"/>
-      <c r="H447" s="14"/>
-      <c r="I447" s="14"/>
-      <c r="J447" s="14"/>
+    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A447" s="12"/>
+      <c r="B447" s="12"/>
+      <c r="C447" s="12"/>
+      <c r="D447" s="12"/>
+      <c r="E447" s="12"/>
+      <c r="F447" s="12"/>
+      <c r="G447" s="12"/>
+      <c r="H447" s="12"/>
+      <c r="I447" s="12"/>
+      <c r="J447" s="12"/>
       <c r="K447" s="12"/>
       <c r="L447" s="12"/>
     </row>
-    <row r="448" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A448" s="14"/>
-      <c r="B448" s="14"/>
-      <c r="C448" s="14"/>
-      <c r="D448" s="14"/>
-      <c r="E448" s="14"/>
-      <c r="F448" s="14"/>
-      <c r="G448" s="14"/>
-      <c r="H448" s="14"/>
-      <c r="I448" s="14"/>
-      <c r="J448" s="14"/>
+    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A448" s="12"/>
+      <c r="B448" s="12"/>
+      <c r="C448" s="12"/>
+      <c r="D448" s="12"/>
+      <c r="E448" s="12"/>
+      <c r="F448" s="12"/>
+      <c r="G448" s="12"/>
+      <c r="H448" s="12"/>
+      <c r="I448" s="12"/>
+      <c r="J448" s="12"/>
       <c r="K448" s="12"/>
       <c r="L448" s="12"/>
     </row>
@@ -10916,45 +12643,45 @@
       <c r="K449" s="12"/>
       <c r="L449" s="12"/>
     </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A450" s="12"/>
-      <c r="B450" s="12"/>
-      <c r="C450" s="12"/>
-      <c r="D450" s="12"/>
-      <c r="E450" s="12"/>
-      <c r="F450" s="12"/>
-      <c r="G450" s="12"/>
-      <c r="H450" s="12"/>
-      <c r="I450" s="12"/>
-      <c r="J450" s="12"/>
+    <row r="450" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A450" s="14"/>
+      <c r="B450" s="14"/>
+      <c r="C450" s="14"/>
+      <c r="D450" s="14"/>
+      <c r="E450" s="14"/>
+      <c r="F450" s="14"/>
+      <c r="G450" s="14"/>
+      <c r="H450" s="14"/>
+      <c r="I450" s="14"/>
+      <c r="J450" s="14"/>
       <c r="K450" s="12"/>
       <c r="L450" s="12"/>
     </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A451" s="12"/>
-      <c r="B451" s="12"/>
-      <c r="C451" s="12"/>
-      <c r="D451" s="12"/>
-      <c r="E451" s="12"/>
-      <c r="F451" s="12"/>
-      <c r="G451" s="12"/>
-      <c r="H451" s="12"/>
-      <c r="I451" s="12"/>
-      <c r="J451" s="12"/>
+    <row r="451" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A451" s="14"/>
+      <c r="B451" s="14"/>
+      <c r="C451" s="14"/>
+      <c r="D451" s="14"/>
+      <c r="E451" s="14"/>
+      <c r="F451" s="14"/>
+      <c r="G451" s="14"/>
+      <c r="H451" s="14"/>
+      <c r="I451" s="14"/>
+      <c r="J451" s="14"/>
       <c r="K451" s="12"/>
       <c r="L451" s="12"/>
     </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A452" s="12"/>
-      <c r="B452" s="12"/>
-      <c r="C452" s="12"/>
-      <c r="D452" s="12"/>
-      <c r="E452" s="12"/>
-      <c r="F452" s="12"/>
-      <c r="G452" s="12"/>
-      <c r="H452" s="12"/>
-      <c r="I452" s="12"/>
-      <c r="J452" s="12"/>
+    <row r="452" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A452" s="14"/>
+      <c r="B452" s="14"/>
+      <c r="C452" s="14"/>
+      <c r="D452" s="14"/>
+      <c r="E452" s="14"/>
+      <c r="F452" s="14"/>
+      <c r="G452" s="14"/>
+      <c r="H452" s="14"/>
+      <c r="I452" s="14"/>
+      <c r="J452" s="14"/>
       <c r="K452" s="12"/>
       <c r="L452" s="12"/>
     </row>
@@ -11028,55 +12755,55 @@
       <c r="K457" s="12"/>
       <c r="L457" s="12"/>
     </row>
-    <row r="458" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A458" s="14"/>
-      <c r="B458" s="14"/>
-      <c r="C458" s="14"/>
-      <c r="D458" s="14"/>
-      <c r="E458" s="14"/>
-      <c r="F458" s="14"/>
-      <c r="G458" s="14"/>
-      <c r="H458" s="14"/>
-      <c r="I458" s="14"/>
-      <c r="J458" s="14"/>
+    <row r="458" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A458" s="12"/>
+      <c r="B458" s="12"/>
+      <c r="C458" s="12"/>
+      <c r="D458" s="12"/>
+      <c r="E458" s="12"/>
+      <c r="F458" s="12"/>
+      <c r="G458" s="12"/>
+      <c r="H458" s="12"/>
+      <c r="I458" s="12"/>
+      <c r="J458" s="12"/>
       <c r="K458" s="12"/>
       <c r="L458" s="12"/>
     </row>
-    <row r="459" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A459" s="14"/>
-      <c r="B459" s="14"/>
-      <c r="C459" s="14"/>
-      <c r="D459" s="14"/>
-      <c r="E459" s="14"/>
-      <c r="F459" s="14"/>
-      <c r="G459" s="14"/>
-      <c r="H459" s="14"/>
-      <c r="I459" s="14"/>
-      <c r="J459" s="14"/>
+    <row r="459" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A459" s="12"/>
+      <c r="B459" s="12"/>
+      <c r="C459" s="12"/>
+      <c r="D459" s="12"/>
+      <c r="E459" s="12"/>
+      <c r="F459" s="12"/>
+      <c r="G459" s="12"/>
+      <c r="H459" s="12"/>
+      <c r="I459" s="12"/>
+      <c r="J459" s="12"/>
       <c r="K459" s="12"/>
       <c r="L459" s="12"/>
     </row>
-    <row r="460" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A460" s="12"/>
       <c r="B460" s="12"/>
       <c r="C460" s="12"/>
       <c r="D460" s="12"/>
       <c r="E460" s="12"/>
       <c r="F460" s="12"/>
-      <c r="G460" s="14"/>
-      <c r="H460" s="14"/>
-      <c r="I460" s="14"/>
-      <c r="J460" s="14"/>
+      <c r="G460" s="12"/>
+      <c r="H460" s="12"/>
+      <c r="I460" s="12"/>
+      <c r="J460" s="12"/>
       <c r="K460" s="12"/>
       <c r="L460" s="12"/>
     </row>
     <row r="461" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A461" s="12"/>
-      <c r="B461" s="12"/>
-      <c r="C461" s="12"/>
-      <c r="D461" s="12"/>
-      <c r="E461" s="12"/>
-      <c r="F461" s="12"/>
+      <c r="A461" s="14"/>
+      <c r="B461" s="14"/>
+      <c r="C461" s="14"/>
+      <c r="D461" s="14"/>
+      <c r="E461" s="14"/>
+      <c r="F461" s="14"/>
       <c r="G461" s="14"/>
       <c r="H461" s="14"/>
       <c r="I461" s="14"/>
@@ -11085,12 +12812,12 @@
       <c r="L461" s="12"/>
     </row>
     <row r="462" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A462" s="12"/>
-      <c r="B462" s="12"/>
-      <c r="C462" s="12"/>
-      <c r="D462" s="12"/>
-      <c r="E462" s="12"/>
-      <c r="F462" s="12"/>
+      <c r="A462" s="14"/>
+      <c r="B462" s="14"/>
+      <c r="C462" s="14"/>
+      <c r="D462" s="14"/>
+      <c r="E462" s="14"/>
+      <c r="F462" s="14"/>
       <c r="G462" s="14"/>
       <c r="H462" s="14"/>
       <c r="I462" s="14"/>
@@ -11098,17 +12825,17 @@
       <c r="K462" s="12"/>
       <c r="L462" s="12"/>
     </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A463" s="12"/>
-      <c r="B463" s="12"/>
-      <c r="C463" s="12"/>
-      <c r="D463" s="12"/>
-      <c r="E463" s="12"/>
-      <c r="F463" s="12"/>
-      <c r="G463" s="12"/>
-      <c r="H463" s="12"/>
-      <c r="I463" s="12"/>
-      <c r="J463" s="12"/>
+    <row r="463" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A463" s="14"/>
+      <c r="B463" s="14"/>
+      <c r="C463" s="14"/>
+      <c r="D463" s="14"/>
+      <c r="E463" s="14"/>
+      <c r="F463" s="14"/>
+      <c r="G463" s="14"/>
+      <c r="H463" s="14"/>
+      <c r="I463" s="14"/>
+      <c r="J463" s="14"/>
       <c r="K463" s="12"/>
       <c r="L463" s="12"/>
     </row>
@@ -11140,40 +12867,152 @@
       <c r="K465" s="12"/>
       <c r="L465" s="12"/>
     </row>
-    <row r="490" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A490" s="9"/>
-      <c r="B490" s="9"/>
-      <c r="C490" s="9"/>
-      <c r="D490" s="9"/>
-      <c r="E490" s="9"/>
-      <c r="F490" s="9"/>
-      <c r="G490" s="9"/>
-      <c r="H490" s="9"/>
-      <c r="I490" s="9"/>
-      <c r="J490" s="9"/>
-    </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A492" t="s">
+    <row r="466" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A466" s="14"/>
+      <c r="B466" s="14"/>
+      <c r="C466" s="14"/>
+      <c r="D466" s="14"/>
+      <c r="E466" s="14"/>
+      <c r="F466" s="14"/>
+      <c r="G466" s="14"/>
+      <c r="H466" s="14"/>
+      <c r="I466" s="14"/>
+      <c r="J466" s="14"/>
+      <c r="K466" s="12"/>
+      <c r="L466" s="12"/>
+    </row>
+    <row r="467" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A467" s="14"/>
+      <c r="B467" s="14"/>
+      <c r="C467" s="14"/>
+      <c r="D467" s="14"/>
+      <c r="E467" s="14"/>
+      <c r="F467" s="14"/>
+      <c r="G467" s="14"/>
+      <c r="H467" s="14"/>
+      <c r="I467" s="14"/>
+      <c r="J467" s="14"/>
+      <c r="K467" s="12"/>
+      <c r="L467" s="12"/>
+    </row>
+    <row r="468" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A468" s="12"/>
+      <c r="B468" s="12"/>
+      <c r="C468" s="12"/>
+      <c r="D468" s="12"/>
+      <c r="E468" s="12"/>
+      <c r="F468" s="12"/>
+      <c r="G468" s="14"/>
+      <c r="H468" s="14"/>
+      <c r="I468" s="14"/>
+      <c r="J468" s="14"/>
+      <c r="K468" s="12"/>
+      <c r="L468" s="12"/>
+    </row>
+    <row r="469" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A469" s="12"/>
+      <c r="B469" s="12"/>
+      <c r="C469" s="12"/>
+      <c r="D469" s="12"/>
+      <c r="E469" s="12"/>
+      <c r="F469" s="12"/>
+      <c r="G469" s="14"/>
+      <c r="H469" s="14"/>
+      <c r="I469" s="14"/>
+      <c r="J469" s="14"/>
+      <c r="K469" s="12"/>
+      <c r="L469" s="12"/>
+    </row>
+    <row r="470" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A470" s="12"/>
+      <c r="B470" s="12"/>
+      <c r="C470" s="12"/>
+      <c r="D470" s="12"/>
+      <c r="E470" s="12"/>
+      <c r="F470" s="12"/>
+      <c r="G470" s="14"/>
+      <c r="H470" s="14"/>
+      <c r="I470" s="14"/>
+      <c r="J470" s="14"/>
+      <c r="K470" s="12"/>
+      <c r="L470" s="12"/>
+    </row>
+    <row r="471" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A471" s="12"/>
+      <c r="B471" s="12"/>
+      <c r="C471" s="12"/>
+      <c r="D471" s="12"/>
+      <c r="E471" s="12"/>
+      <c r="F471" s="12"/>
+      <c r="G471" s="12"/>
+      <c r="H471" s="12"/>
+      <c r="I471" s="12"/>
+      <c r="J471" s="12"/>
+      <c r="K471" s="12"/>
+      <c r="L471" s="12"/>
+    </row>
+    <row r="472" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A472" s="14"/>
+      <c r="B472" s="14"/>
+      <c r="C472" s="14"/>
+      <c r="D472" s="14"/>
+      <c r="E472" s="14"/>
+      <c r="F472" s="14"/>
+      <c r="G472" s="14"/>
+      <c r="H472" s="14"/>
+      <c r="I472" s="14"/>
+      <c r="J472" s="14"/>
+      <c r="K472" s="12"/>
+      <c r="L472" s="12"/>
+    </row>
+    <row r="473" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A473" s="14"/>
+      <c r="B473" s="14"/>
+      <c r="C473" s="14"/>
+      <c r="D473" s="14"/>
+      <c r="E473" s="14"/>
+      <c r="F473" s="14"/>
+      <c r="G473" s="14"/>
+      <c r="H473" s="14"/>
+      <c r="I473" s="14"/>
+      <c r="J473" s="14"/>
+      <c r="K473" s="12"/>
+      <c r="L473" s="12"/>
+    </row>
+    <row r="498" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A498" s="9"/>
+      <c r="B498" s="9"/>
+      <c r="C498" s="9"/>
+      <c r="D498" s="9"/>
+      <c r="E498" s="9"/>
+      <c r="F498" s="9"/>
+      <c r="G498" s="9"/>
+      <c r="H498" s="9"/>
+      <c r="I498" s="9"/>
+      <c r="J498" s="9"/>
+    </row>
+    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A493" t="s">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A494" t="s">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A495" t="s">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A496" t="s">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
         <v>125</v>
       </c>
     </row>

--- a/Documents/AssetList-Planning.xlsx
+++ b/Documents/AssetList-Planning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9105" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="462">
   <si>
     <t>Planning</t>
   </si>
@@ -1315,6 +1315,102 @@
   </si>
   <si>
     <t>Floating Dust</t>
+  </si>
+  <si>
+    <t>8P-INT-WeaponSpark</t>
+  </si>
+  <si>
+    <t>8P-ENV-FloatingDust</t>
+  </si>
+  <si>
+    <t>8P-ENV-Butterflies</t>
+  </si>
+  <si>
+    <t>7S-ENV-SeaAmbientSound</t>
+  </si>
+  <si>
+    <t>7S-ENV-BirdChirps</t>
+  </si>
+  <si>
+    <t>Sprites 2.0</t>
+  </si>
+  <si>
+    <t>Labyrinth Gate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dees </t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>EnemyHit</t>
+  </si>
+  <si>
+    <t>PlayerHit</t>
+  </si>
+  <si>
+    <t>BunnyDeath</t>
+  </si>
+  <si>
+    <t>FallingLeaves</t>
+  </si>
+  <si>
+    <t>BunnyDamage</t>
+  </si>
+  <si>
+    <t>WaterSplash</t>
+  </si>
+  <si>
+    <t>FloatingDust</t>
+  </si>
+  <si>
+    <t>Glimmer</t>
+  </si>
+  <si>
+    <t>ColoredClouds</t>
+  </si>
+  <si>
+    <t>ShieldBlock</t>
+  </si>
+  <si>
+    <t>Well</t>
+  </si>
+  <si>
+    <t>FlowerBox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bones </t>
+  </si>
+  <si>
+    <t>Minotaur Animations</t>
+  </si>
+  <si>
+    <t>Villager Animations</t>
+  </si>
+  <si>
+    <t>Bunny Animations</t>
+  </si>
+  <si>
+    <t>Combat</t>
+  </si>
+  <si>
+    <t>Dialogue</t>
+  </si>
+  <si>
+    <t>Improvise</t>
+  </si>
+  <si>
+    <t>Lady All + Rig</t>
+  </si>
+  <si>
+    <t>Textures Lady</t>
+  </si>
+  <si>
+    <t>Textures Minotaur</t>
+  </si>
+  <si>
+    <t>Textures Alchemist</t>
   </si>
 </sst>
 </file>
@@ -1860,8 +1956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI93"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView tabSelected="1" topLeftCell="P43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AM77" sqref="AM77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1876,7 +1972,7 @@
     <col min="16" max="16" width="8.85546875" style="28"/>
     <col min="17" max="17" width="36.5703125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="8.85546875" style="28"/>
-    <col min="24" max="24" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="8.85546875" style="28"/>
     <col min="37" max="37" width="8.85546875" style="28"/>
     <col min="44" max="44" width="8.85546875" style="28"/>
@@ -2068,6 +2164,9 @@
         <v>255</v>
       </c>
       <c r="AD7" s="27"/>
+      <c r="AE7" s="9" t="s">
+        <v>457</v>
+      </c>
       <c r="AK7" s="27"/>
       <c r="AR7" s="27"/>
       <c r="AY7" s="27"/>
@@ -2218,10 +2317,16 @@
       </c>
       <c r="P18" s="27"/>
       <c r="Q18" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="W18" s="27"/>
+      <c r="X18" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="W18" s="27"/>
       <c r="AD18" s="27"/>
+      <c r="AE18" s="9" t="s">
+        <v>457</v>
+      </c>
       <c r="AK18" s="27"/>
       <c r="AR18" s="27"/>
       <c r="AY18" s="27"/>
@@ -2236,6 +2341,9 @@
       </c>
       <c r="P19" s="27"/>
       <c r="W19" s="27"/>
+      <c r="X19" s="9" t="s">
+        <v>455</v>
+      </c>
       <c r="AD19" s="27"/>
       <c r="AK19" s="27"/>
       <c r="AR19" s="27"/>
@@ -2254,6 +2362,9 @@
       </c>
       <c r="P20" s="27"/>
       <c r="W20" s="27"/>
+      <c r="X20" s="9" t="s">
+        <v>336</v>
+      </c>
       <c r="AD20" s="27"/>
       <c r="AK20" s="27"/>
       <c r="AR20" s="27"/>
@@ -2368,11 +2479,20 @@
       </c>
       <c r="P29" s="27"/>
       <c r="Q29" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="W29" s="27"/>
+      <c r="X29" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AD29" s="27"/>
+      <c r="AE29" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="AK29" s="27"/>
+      <c r="AL29" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="W29" s="27"/>
-      <c r="AD29" s="27"/>
-      <c r="AK29" s="27"/>
       <c r="AR29" s="27"/>
       <c r="AY29" s="27"/>
       <c r="BF29" s="27"/>
@@ -2392,11 +2512,20 @@
       </c>
       <c r="P30" s="27"/>
       <c r="Q30" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="W30" s="27"/>
+      <c r="X30" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="AD30" s="27"/>
+      <c r="AE30" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="AK30" s="27"/>
+      <c r="AL30" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="W30" s="27"/>
-      <c r="AD30" s="27"/>
-      <c r="AK30" s="27"/>
       <c r="AR30" s="27"/>
       <c r="AY30" s="27"/>
       <c r="BF30" s="27"/>
@@ -2412,12 +2541,18 @@
         <v>325</v>
       </c>
       <c r="P31" s="27"/>
-      <c r="Q31" s="9" t="s">
+      <c r="W31" s="27"/>
+      <c r="X31" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD31" s="27"/>
+      <c r="AE31" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="AK31" s="27"/>
+      <c r="AL31" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="W31" s="27"/>
-      <c r="AD31" s="27"/>
-      <c r="AK31" s="27"/>
       <c r="AR31" s="27"/>
       <c r="AY31" s="27"/>
       <c r="BF31" s="27"/>
@@ -2431,7 +2566,13 @@
       </c>
       <c r="P32" s="27"/>
       <c r="W32" s="27"/>
+      <c r="X32" s="9" t="s">
+        <v>117</v>
+      </c>
       <c r="AD32" s="27"/>
+      <c r="AE32" s="9" t="s">
+        <v>239</v>
+      </c>
       <c r="AK32" s="27"/>
       <c r="AR32" s="27"/>
       <c r="AY32" s="27"/>
@@ -2444,6 +2585,9 @@
       <c r="P33" s="27"/>
       <c r="W33" s="27"/>
       <c r="AD33" s="27"/>
+      <c r="AE33" s="9" t="s">
+        <v>116</v>
+      </c>
       <c r="AK33" s="27"/>
       <c r="AR33" s="27"/>
       <c r="AY33" s="27"/>
@@ -2456,6 +2600,9 @@
       <c r="P34" s="27"/>
       <c r="W34" s="27"/>
       <c r="AD34" s="27"/>
+      <c r="AE34" s="9" t="s">
+        <v>117</v>
+      </c>
       <c r="AK34" s="27"/>
       <c r="AR34" s="27"/>
       <c r="AY34" s="27"/>
@@ -2530,11 +2677,26 @@
       </c>
       <c r="P40" s="27"/>
       <c r="Q40" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="S40" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="W40" s="27"/>
+      <c r="X40" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="AD40" s="27"/>
+      <c r="AE40" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH40" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="W40" s="27"/>
-      <c r="AD40" s="27"/>
       <c r="AK40" s="27"/>
+      <c r="AL40" s="9" t="s">
+        <v>100</v>
+      </c>
       <c r="AR40" s="27"/>
       <c r="AY40" s="27"/>
       <c r="BF40" s="27"/>
@@ -2553,11 +2715,14 @@
         <v>289</v>
       </c>
       <c r="P41" s="27"/>
-      <c r="Q41" s="9" t="s">
+      <c r="W41" s="27"/>
+      <c r="X41" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD41" s="27"/>
+      <c r="AH41" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="W41" s="27"/>
-      <c r="AD41" s="27"/>
       <c r="AK41" s="27"/>
       <c r="AR41" s="27"/>
       <c r="AY41" s="27"/>
@@ -2571,11 +2736,11 @@
         <v>297</v>
       </c>
       <c r="P42" s="27"/>
-      <c r="Q42" s="9" t="s">
-        <v>118</v>
-      </c>
       <c r="W42" s="27"/>
       <c r="AD42" s="27"/>
+      <c r="AH42" s="9" t="s">
+        <v>118</v>
+      </c>
       <c r="AK42" s="27"/>
       <c r="AR42" s="27"/>
       <c r="AY42" s="27"/>
@@ -2589,9 +2754,6 @@
         <v>298</v>
       </c>
       <c r="P43" s="27"/>
-      <c r="Q43" s="9" t="s">
-        <v>347</v>
-      </c>
       <c r="W43" s="27"/>
       <c r="AD43" s="27"/>
       <c r="AK43" s="27"/>
@@ -2604,9 +2766,6 @@
       <c r="B44" s="27"/>
       <c r="I44" s="27"/>
       <c r="P44" s="27"/>
-      <c r="Q44" s="9" t="s">
-        <v>100</v>
-      </c>
       <c r="W44" s="27"/>
       <c r="AD44" s="27"/>
       <c r="AK44" s="27"/>
@@ -2691,9 +2850,21 @@
         <v>320</v>
       </c>
       <c r="P51" s="27"/>
+      <c r="Q51" s="9" t="s">
+        <v>320</v>
+      </c>
       <c r="W51" s="27"/>
+      <c r="X51" s="9" t="s">
+        <v>436</v>
+      </c>
       <c r="AD51" s="27"/>
+      <c r="AE51" s="9" t="s">
+        <v>436</v>
+      </c>
       <c r="AK51" s="27"/>
+      <c r="AL51" s="9" t="s">
+        <v>451</v>
+      </c>
       <c r="AR51" s="27"/>
       <c r="AY51" s="27"/>
       <c r="BF51" s="27"/>
@@ -2709,9 +2880,18 @@
         <v>295</v>
       </c>
       <c r="P52" s="27"/>
+      <c r="Q52" s="9" t="s">
+        <v>295</v>
+      </c>
       <c r="W52" s="27"/>
       <c r="AD52" s="27"/>
+      <c r="AE52" s="9" t="s">
+        <v>449</v>
+      </c>
       <c r="AK52" s="27"/>
+      <c r="AL52" s="9" t="s">
+        <v>235</v>
+      </c>
       <c r="AR52" s="27"/>
       <c r="AY52" s="27"/>
       <c r="BF52" s="27"/>
@@ -2723,6 +2903,9 @@
       <c r="P53" s="27"/>
       <c r="W53" s="27"/>
       <c r="AD53" s="27"/>
+      <c r="AE53" s="9" t="s">
+        <v>450</v>
+      </c>
       <c r="AK53" s="27"/>
       <c r="AR53" s="27"/>
       <c r="AY53" s="27"/>
@@ -2829,10 +3012,25 @@
         <v>321</v>
       </c>
       <c r="P62" s="27"/>
+      <c r="Q62" s="9" t="s">
+        <v>321</v>
+      </c>
       <c r="W62" s="27"/>
+      <c r="X62" s="9" t="s">
+        <v>452</v>
+      </c>
       <c r="AD62" s="27"/>
+      <c r="AE62" s="9" t="s">
+        <v>452</v>
+      </c>
       <c r="AK62" s="27"/>
+      <c r="AL62" s="9" t="s">
+        <v>452</v>
+      </c>
       <c r="AR62" s="27"/>
+      <c r="AS62" s="9" t="s">
+        <v>453</v>
+      </c>
       <c r="AY62" s="27"/>
       <c r="BF62" s="27"/>
       <c r="BG62" s="32"/>
@@ -2845,6 +3043,9 @@
       <c r="AD63" s="27"/>
       <c r="AK63" s="27"/>
       <c r="AR63" s="27"/>
+      <c r="AS63" s="9" t="s">
+        <v>454</v>
+      </c>
       <c r="AY63" s="27"/>
       <c r="BF63" s="27"/>
       <c r="BG63" s="32"/>
@@ -2961,25 +3162,78 @@
         <v>341</v>
       </c>
       <c r="P73" s="27"/>
+      <c r="Q73" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="S73" s="9" t="s">
+        <v>438</v>
+      </c>
       <c r="W73" s="27"/>
+      <c r="X73" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="AA73" s="9" t="s">
+        <v>427</v>
+      </c>
       <c r="AD73" s="27"/>
+      <c r="AE73" s="9" t="s">
+        <v>427</v>
+      </c>
       <c r="AK73" s="27"/>
+      <c r="AL73" s="9" t="s">
+        <v>443</v>
+      </c>
       <c r="AR73" s="27"/>
+      <c r="AS73" s="9" t="s">
+        <v>446</v>
+      </c>
       <c r="AY73" s="27"/>
+      <c r="AZ73" s="9" t="s">
+        <v>448</v>
+      </c>
       <c r="BF73" s="27"/>
       <c r="BG73" s="32"/>
     </row>
     <row r="74" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="27"/>
       <c r="I74" s="27"/>
+      <c r="J74" s="9" t="s">
+        <v>342</v>
+      </c>
       <c r="P74" s="27"/>
       <c r="W74" s="27"/>
+      <c r="X74" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA74" s="9" t="s">
+        <v>442</v>
+      </c>
       <c r="AD74" s="27"/>
+      <c r="AE74" s="9" t="s">
+        <v>442</v>
+      </c>
       <c r="AK74" s="27"/>
+      <c r="AL74" s="9" t="s">
+        <v>444</v>
+      </c>
       <c r="AR74" s="27"/>
+      <c r="AS74" s="9" t="s">
+        <v>447</v>
+      </c>
       <c r="AY74" s="27"/>
+      <c r="AZ74" s="9" t="s">
+        <v>428</v>
+      </c>
       <c r="BF74" s="27"/>
       <c r="BG74" s="32"/>
+    </row>
+    <row r="75" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="X75" t="s">
+        <v>441</v>
+      </c>
+      <c r="AL75" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="83" spans="1:59" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="84" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -2995,6 +3249,9 @@
         <v>339</v>
       </c>
       <c r="P84" s="27"/>
+      <c r="Q84" s="9" t="s">
+        <v>339</v>
+      </c>
       <c r="W84" s="27"/>
       <c r="AD84" s="27"/>
       <c r="AK84" s="27"/>
@@ -3121,8 +3378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:QF504"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A297" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I311" sqref="I311"/>
+    <sheetView topLeftCell="A298" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J329" sqref="J329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5524,84 +5781,135 @@
       </c>
     </row>
     <row r="288" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="289" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A289" s="9" t="s">
         <v>342</v>
       </c>
       <c r="D289" s="9" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="291" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I289" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J289" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="291" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A291" s="9" t="s">
         <v>343</v>
       </c>
       <c r="D291" s="9" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="293" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I291" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="293" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A293" s="9" t="s">
         <v>416</v>
       </c>
       <c r="D293" s="9" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="295" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I293" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J293" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="295" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A295" s="9" t="s">
         <v>417</v>
       </c>
       <c r="D295" s="9" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="297" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I295" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J295" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="297" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A297" s="9" t="s">
         <v>345</v>
       </c>
       <c r="D297" s="9" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="299" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I297" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J297" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="299" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A299" s="9" t="s">
         <v>346</v>
       </c>
       <c r="D299" s="9" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="301" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I299" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J299" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="301" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A301" s="9" t="s">
         <v>348</v>
       </c>
       <c r="D301" s="9" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="303" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I301" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J301" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="303" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A303" s="9" t="s">
         <v>349</v>
       </c>
       <c r="D303" s="9" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="I303" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J303" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="305" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A305" s="9" t="s">
         <v>350</v>
       </c>
       <c r="D305" s="9" t="s">
         <v>388</v>
+      </c>
+      <c r="I305" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J305" s="9" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="306" spans="1:448" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -5612,6 +5920,12 @@
       <c r="D307" s="9" t="s">
         <v>389</v>
       </c>
+      <c r="I307" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J307" s="9" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="308" spans="1:448" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="309" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -5624,6 +5938,12 @@
       <c r="D309" s="9" t="s">
         <v>390</v>
       </c>
+      <c r="I309" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J309" s="9" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="310" spans="1:448" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="311" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -5636,6 +5956,12 @@
       <c r="D311" s="9" t="s">
         <v>391</v>
       </c>
+      <c r="I311" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J311" s="9" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="312" spans="1:448" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="313" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -5645,6 +5971,9 @@
       <c r="D313" s="9" t="s">
         <v>392</v>
       </c>
+      <c r="I313" s="9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="314" spans="1:448" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="315" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -5653,6 +5982,12 @@
       </c>
       <c r="D315" s="9" t="s">
         <v>393</v>
+      </c>
+      <c r="I315" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J315" s="9" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="316" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -6112,6 +6447,9 @@
       <c r="D317" s="9" t="s">
         <v>394</v>
       </c>
+      <c r="I317" s="9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="318" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A318" s="17"/>
@@ -6570,6 +6908,12 @@
       <c r="D319" s="9" t="s">
         <v>395</v>
       </c>
+      <c r="I319" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J319" s="9" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="320" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A320" s="17"/>
@@ -7028,6 +7372,9 @@
       <c r="D321" s="9" t="s">
         <v>396</v>
       </c>
+      <c r="I321" s="9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="322" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A322" s="17"/>
@@ -7489,6 +7836,12 @@
       <c r="D323" s="9" t="s">
         <v>397</v>
       </c>
+      <c r="I323" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J323" s="9" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="324" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A324" s="17"/>
@@ -7947,6 +8300,9 @@
       <c r="D325" s="9" t="s">
         <v>398</v>
       </c>
+      <c r="I325" s="9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="326" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A326" s="17"/>
@@ -8402,6 +8758,15 @@
       <c r="A327" s="14" t="s">
         <v>427</v>
       </c>
+      <c r="D327" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="I327" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J327" s="14" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="328" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A328" s="17"/>
@@ -8857,6 +9222,15 @@
       <c r="A329" s="14" t="s">
         <v>428</v>
       </c>
+      <c r="D329" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="I329" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J329" s="14" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="330" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A330" s="17"/>
@@ -9311,6 +9685,15 @@
     <row r="331" spans="1:448" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A331" s="14" t="s">
         <v>429</v>
+      </c>
+      <c r="D331" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="I331" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J331" s="14" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="332" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -10228,6 +10611,12 @@
       <c r="D338" s="14" t="s">
         <v>399</v>
       </c>
+      <c r="I338" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J338" s="14" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="339" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A339" s="17"/>
@@ -10312,6 +10701,9 @@
       <c r="D340" s="14" t="s">
         <v>400</v>
       </c>
+      <c r="I340" s="14" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="341" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A341" s="17"/>
@@ -10396,6 +10788,9 @@
       <c r="D342" s="14" t="s">
         <v>401</v>
       </c>
+      <c r="I342" s="14" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="343" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A343" s="17"/>
@@ -10480,6 +10875,9 @@
       <c r="D344" s="14" t="s">
         <v>402</v>
       </c>
+      <c r="I344" s="14" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="345" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A345" s="17"/>
@@ -10564,6 +10962,12 @@
       <c r="D346" s="14" t="s">
         <v>403</v>
       </c>
+      <c r="I346" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J346" s="14" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="347" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A347" s="17"/>
@@ -10648,6 +11052,9 @@
       <c r="D348" s="14" t="s">
         <v>404</v>
       </c>
+      <c r="I348" s="14" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="349" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A349" s="17"/>
@@ -10732,6 +11139,9 @@
       <c r="D350" s="14" t="s">
         <v>405</v>
       </c>
+      <c r="I350" s="14" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="351" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A351" s="17"/>
@@ -10816,6 +11226,9 @@
       <c r="D352" s="14" t="s">
         <v>406</v>
       </c>
+      <c r="I352" s="14" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="353" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A353" s="17"/>
@@ -10900,6 +11313,12 @@
       <c r="D354" s="14" t="s">
         <v>407</v>
       </c>
+      <c r="I354" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J354" s="14" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="355" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A355" s="17"/>
@@ -10984,6 +11403,12 @@
       <c r="D356" s="9" t="s">
         <v>408</v>
       </c>
+      <c r="I356" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J356" s="9" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="357" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A357" s="17"/>
@@ -11068,6 +11493,12 @@
       <c r="D358" s="9" t="s">
         <v>409</v>
       </c>
+      <c r="I358" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J358" s="9" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="359" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A359" s="17"/>
@@ -11155,6 +11586,9 @@
       <c r="D360" s="9" t="s">
         <v>410</v>
       </c>
+      <c r="I360" s="9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="361" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A361" s="17"/>
@@ -11239,6 +11673,12 @@
       <c r="D362" s="9" t="s">
         <v>411</v>
       </c>
+      <c r="I362" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J362" s="9" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="363" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A363" s="17"/>
@@ -11323,6 +11763,12 @@
       <c r="D364" s="9" t="s">
         <v>412</v>
       </c>
+      <c r="I364" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J364" s="9" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="365" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A365" s="17"/>
@@ -11407,6 +11853,9 @@
       <c r="D366" s="9" t="s">
         <v>413</v>
       </c>
+      <c r="I366" s="9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="367" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A367" s="17"/>
@@ -11491,6 +11940,9 @@
       <c r="D368" s="9" t="s">
         <v>414</v>
       </c>
+      <c r="I368" s="9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="369" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A369" s="17"/>
@@ -11575,6 +12027,9 @@
       <c r="D370" s="9" t="s">
         <v>415</v>
       </c>
+      <c r="I370" s="9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="371" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A371" s="17"/>
@@ -11659,6 +12114,9 @@
       <c r="D372" s="9" t="s">
         <v>420</v>
       </c>
+      <c r="I372" s="9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="373" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A373" s="17"/>
@@ -11743,6 +12201,9 @@
       <c r="D374" s="9" t="s">
         <v>422</v>
       </c>
+      <c r="I374" s="9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="375" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A375" s="17"/>
@@ -11827,6 +12288,9 @@
       <c r="D376" s="9" t="s">
         <v>424</v>
       </c>
+      <c r="I376" s="9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="377" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A377" s="17"/>
@@ -11908,6 +12372,12 @@
       <c r="A378" s="9" t="s">
         <v>425</v>
       </c>
+      <c r="D378" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="I378" s="9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="379" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A379" s="17"/>
@@ -11988,6 +12458,12 @@
     <row r="380" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A380" s="9" t="s">
         <v>426</v>
+      </c>
+      <c r="D380" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="I380" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="381" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">

--- a/Documents/AssetList-Planning.xlsx
+++ b/Documents/AssetList-Planning.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enra\Pictures\Sexy-Egels\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enra\Pictures\Orphanage\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="464">
   <si>
     <t>Planning</t>
   </si>
@@ -1411,6 +1411,12 @@
   </si>
   <si>
     <t>Textures Alchemist</t>
+  </si>
+  <si>
+    <t>Pickup</t>
+  </si>
+  <si>
+    <t>DustBurst</t>
   </si>
 </sst>
 </file>
@@ -1956,8 +1962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AM77" sqref="AM77"/>
+    <sheetView tabSelected="1" topLeftCell="U43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AF66" sqref="AF66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3168,6 +3174,9 @@
       <c r="S73" s="9" t="s">
         <v>438</v>
       </c>
+      <c r="T73" s="9" t="s">
+        <v>462</v>
+      </c>
       <c r="W73" s="27"/>
       <c r="X73" s="9" t="s">
         <v>439</v>
@@ -3230,6 +3239,9 @@
     <row r="75" spans="1:59" x14ac:dyDescent="0.25">
       <c r="X75" t="s">
         <v>441</v>
+      </c>
+      <c r="AE75" t="s">
+        <v>463</v>
       </c>
       <c r="AL75" t="s">
         <v>445</v>

--- a/Documents/AssetList-Planning.xlsx
+++ b/Documents/AssetList-Planning.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="461">
   <si>
     <t>Planning</t>
   </si>
@@ -1347,16 +1347,7 @@
     <t>EnemyHit</t>
   </si>
   <si>
-    <t>PlayerHit</t>
-  </si>
-  <si>
-    <t>BunnyDeath</t>
-  </si>
-  <si>
     <t>FallingLeaves</t>
-  </si>
-  <si>
-    <t>BunnyDamage</t>
   </si>
   <si>
     <t>WaterSplash</t>
@@ -1962,8 +1953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF66" sqref="AF66"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2103,7 +2094,7 @@
         <v>42884</v>
       </c>
       <c r="Y5" s="30">
-        <v>42859</v>
+        <v>42890</v>
       </c>
       <c r="AD5" s="14"/>
       <c r="AE5" s="30">
@@ -2171,7 +2162,7 @@
       </c>
       <c r="AD7" s="27"/>
       <c r="AE7" s="9" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="AK7" s="27"/>
       <c r="AR7" s="27"/>
@@ -2323,7 +2314,7 @@
       </c>
       <c r="P18" s="27"/>
       <c r="Q18" s="9" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="W18" s="27"/>
       <c r="X18" s="9" t="s">
@@ -2331,7 +2322,7 @@
       </c>
       <c r="AD18" s="27"/>
       <c r="AE18" s="9" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="AK18" s="27"/>
       <c r="AR18" s="27"/>
@@ -2348,7 +2339,7 @@
       <c r="P19" s="27"/>
       <c r="W19" s="27"/>
       <c r="X19" s="9" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="AD19" s="27"/>
       <c r="AK19" s="27"/>
@@ -2493,7 +2484,7 @@
       </c>
       <c r="AD29" s="27"/>
       <c r="AE29" s="9" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AK29" s="27"/>
       <c r="AL29" s="9" t="s">
@@ -2518,7 +2509,7 @@
       </c>
       <c r="P30" s="27"/>
       <c r="Q30" s="9" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="W30" s="27"/>
       <c r="X30" s="9" t="s">
@@ -2526,7 +2517,7 @@
       </c>
       <c r="AD30" s="27"/>
       <c r="AE30" s="9" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="AK30" s="27"/>
       <c r="AL30" s="9" t="s">
@@ -2553,7 +2544,7 @@
       </c>
       <c r="AD31" s="27"/>
       <c r="AE31" s="9" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="AK31" s="27"/>
       <c r="AL31" s="9" t="s">
@@ -2869,7 +2860,7 @@
       </c>
       <c r="AK51" s="27"/>
       <c r="AL51" s="9" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="AR51" s="27"/>
       <c r="AY51" s="27"/>
@@ -2892,7 +2883,7 @@
       <c r="W52" s="27"/>
       <c r="AD52" s="27"/>
       <c r="AE52" s="9" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="AK52" s="27"/>
       <c r="AL52" s="9" t="s">
@@ -2910,7 +2901,7 @@
       <c r="W53" s="27"/>
       <c r="AD53" s="27"/>
       <c r="AE53" s="9" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="AK53" s="27"/>
       <c r="AR53" s="27"/>
@@ -3023,19 +3014,19 @@
       </c>
       <c r="W62" s="27"/>
       <c r="X62" s="9" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="AD62" s="27"/>
       <c r="AE62" s="9" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="AK62" s="27"/>
       <c r="AL62" s="9" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="AR62" s="27"/>
       <c r="AS62" s="9" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="AY62" s="27"/>
       <c r="BF62" s="27"/>
@@ -3050,7 +3041,7 @@
       <c r="AK63" s="27"/>
       <c r="AR63" s="27"/>
       <c r="AS63" s="9" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="AY63" s="27"/>
       <c r="BF63" s="27"/>
@@ -3155,7 +3146,7 @@
     <row r="72" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="BG72" s="32"/>
     </row>
-    <row r="73" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:59" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>288</v>
       </c>
@@ -3175,30 +3166,30 @@
         <v>438</v>
       </c>
       <c r="T73" s="9" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="W73" s="27"/>
       <c r="X73" s="9" t="s">
         <v>439</v>
       </c>
       <c r="AA73" s="9" t="s">
-        <v>427</v>
+        <v>460</v>
       </c>
       <c r="AD73" s="27"/>
       <c r="AE73" s="9" t="s">
         <v>427</v>
       </c>
       <c r="AK73" s="27"/>
-      <c r="AL73" s="9" t="s">
-        <v>443</v>
+      <c r="AL73" t="s">
+        <v>442</v>
       </c>
       <c r="AR73" s="27"/>
       <c r="AS73" s="9" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AY73" s="27"/>
       <c r="AZ73" s="9" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="BF73" s="27"/>
       <c r="BG73" s="32"/>
@@ -3212,22 +3203,22 @@
       <c r="P74" s="27"/>
       <c r="W74" s="27"/>
       <c r="X74" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="AA74" s="9" t="s">
         <v>440</v>
-      </c>
-      <c r="AA74" s="9" t="s">
-        <v>442</v>
       </c>
       <c r="AD74" s="27"/>
       <c r="AE74" s="9" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AK74" s="27"/>
       <c r="AL74" s="9" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AR74" s="27"/>
       <c r="AS74" s="9" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="AY74" s="27"/>
       <c r="AZ74" s="9" t="s">
@@ -3237,14 +3228,8 @@
       <c r="BG74" s="32"/>
     </row>
     <row r="75" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="X75" t="s">
-        <v>441</v>
-      </c>
       <c r="AE75" t="s">
-        <v>463</v>
-      </c>
-      <c r="AL75" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
     </row>
     <row r="83" spans="1:59" s="28" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/Documents/AssetList-Planning.xlsx
+++ b/Documents/AssetList-Planning.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enra\Pictures\Orphanage\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deesv_000\Desktop\Orphanage\Orphanage\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="462">
   <si>
     <t>Planning</t>
   </si>
@@ -1408,12 +1408,15 @@
   </si>
   <si>
     <t>DustBurst</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1953,7 +1956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="X6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
@@ -3375,8 +3378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:QF504"/>
   <sheetViews>
-    <sheetView topLeftCell="A298" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J329" sqref="J329"/>
+    <sheetView tabSelected="1" topLeftCell="A335" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J340" sqref="J340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10614,6 +10617,9 @@
       <c r="J338" s="14" t="s">
         <v>294</v>
       </c>
+      <c r="K338" s="14" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="339" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A339" s="17"/>
@@ -10701,6 +10707,9 @@
       <c r="I340" s="14" t="s">
         <v>50</v>
       </c>
+      <c r="J340" s="14" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="341" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A341" s="17"/>
@@ -10788,6 +10797,12 @@
       <c r="I342" s="14" t="s">
         <v>50</v>
       </c>
+      <c r="J342" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="K342" s="14" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="343" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A343" s="17"/>
@@ -10874,6 +10889,9 @@
       </c>
       <c r="I344" s="14" t="s">
         <v>50</v>
+      </c>
+      <c r="J344" s="14" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="345" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">

--- a/Documents/AssetList-Planning.xlsx
+++ b/Documents/AssetList-Planning.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="461">
   <si>
     <t>Planning</t>
   </si>
@@ -1953,8 +1953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+    <sheetView tabSelected="1" topLeftCell="AD49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AN59" sqref="AN59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2487,9 +2487,6 @@
         <v>456</v>
       </c>
       <c r="AK29" s="27"/>
-      <c r="AL29" s="9" t="s">
-        <v>239</v>
-      </c>
       <c r="AR29" s="27"/>
       <c r="AY29" s="27"/>
       <c r="BF29" s="27"/>
@@ -2520,9 +2517,6 @@
         <v>457</v>
       </c>
       <c r="AK30" s="27"/>
-      <c r="AL30" s="9" t="s">
-        <v>116</v>
-      </c>
       <c r="AR30" s="27"/>
       <c r="AY30" s="27"/>
       <c r="BF30" s="27"/>
@@ -2547,9 +2541,6 @@
         <v>458</v>
       </c>
       <c r="AK31" s="27"/>
-      <c r="AL31" s="9" t="s">
-        <v>117</v>
-      </c>
       <c r="AR31" s="27"/>
       <c r="AY31" s="27"/>
       <c r="BF31" s="27"/>
@@ -2567,9 +2558,6 @@
         <v>117</v>
       </c>
       <c r="AD32" s="27"/>
-      <c r="AE32" s="9" t="s">
-        <v>239</v>
-      </c>
       <c r="AK32" s="27"/>
       <c r="AR32" s="27"/>
       <c r="AY32" s="27"/>
@@ -2582,9 +2570,6 @@
       <c r="P33" s="27"/>
       <c r="W33" s="27"/>
       <c r="AD33" s="27"/>
-      <c r="AE33" s="9" t="s">
-        <v>116</v>
-      </c>
       <c r="AK33" s="27"/>
       <c r="AR33" s="27"/>
       <c r="AY33" s="27"/>
@@ -2597,9 +2582,6 @@
       <c r="P34" s="27"/>
       <c r="W34" s="27"/>
       <c r="AD34" s="27"/>
-      <c r="AE34" s="9" t="s">
-        <v>117</v>
-      </c>
       <c r="AK34" s="27"/>
       <c r="AR34" s="27"/>
       <c r="AY34" s="27"/>
@@ -2904,6 +2886,9 @@
         <v>447</v>
       </c>
       <c r="AK53" s="27"/>
+      <c r="AL53" s="9" t="s">
+        <v>239</v>
+      </c>
       <c r="AR53" s="27"/>
       <c r="AY53" s="27"/>
       <c r="BF53" s="27"/>
@@ -2915,7 +2900,13 @@
       <c r="P54" s="27"/>
       <c r="W54" s="27"/>
       <c r="AD54" s="27"/>
+      <c r="AE54" s="9" t="s">
+        <v>117</v>
+      </c>
       <c r="AK54" s="27"/>
+      <c r="AL54" s="9" t="s">
+        <v>116</v>
+      </c>
       <c r="AR54" s="27"/>
       <c r="AY54" s="27"/>
       <c r="BF54" s="27"/>
@@ -2928,6 +2919,9 @@
       <c r="W55" s="27"/>
       <c r="AD55" s="27"/>
       <c r="AK55" s="27"/>
+      <c r="AL55" s="9" t="s">
+        <v>117</v>
+      </c>
       <c r="AR55" s="27"/>
       <c r="AY55" s="27"/>
       <c r="BF55" s="27"/>
@@ -3179,6 +3173,9 @@
       <c r="AE73" s="9" t="s">
         <v>427</v>
       </c>
+      <c r="AH73" t="s">
+        <v>442</v>
+      </c>
       <c r="AK73" s="27"/>
       <c r="AL73" t="s">
         <v>442</v>
@@ -3188,9 +3185,6 @@
         <v>443</v>
       </c>
       <c r="AY73" s="27"/>
-      <c r="AZ73" s="9" t="s">
-        <v>445</v>
-      </c>
       <c r="BF73" s="27"/>
       <c r="BG73" s="32"/>
     </row>
@@ -3212,6 +3206,9 @@
       <c r="AE74" s="9" t="s">
         <v>440</v>
       </c>
+      <c r="AH74" s="9" t="s">
+        <v>441</v>
+      </c>
       <c r="AK74" s="27"/>
       <c r="AL74" s="9" t="s">
         <v>441</v>
@@ -3221,15 +3218,26 @@
         <v>444</v>
       </c>
       <c r="AY74" s="27"/>
-      <c r="AZ74" s="9" t="s">
-        <v>428</v>
-      </c>
       <c r="BF74" s="27"/>
       <c r="BG74" s="32"/>
     </row>
-    <row r="75" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AE75" t="s">
         <v>460</v>
+      </c>
+      <c r="AL75" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="AS75" s="9" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="76" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL76" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="AS76" s="9" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="83" spans="1:59" s="28" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/Documents/AssetList-Planning.xlsx
+++ b/Documents/AssetList-Planning.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="459">
   <si>
     <t>Planning</t>
   </si>
@@ -855,9 +855,6 @@
     <t>8P-ENV-Cloud</t>
   </si>
   <si>
-    <t>Waterfall</t>
-  </si>
-  <si>
     <t>Rilana</t>
   </si>
   <si>
@@ -1023,9 +1020,6 @@
     <t>Arms Animations Implementing</t>
   </si>
   <si>
-    <t>Pans</t>
-  </si>
-  <si>
     <t>Lvl Design</t>
   </si>
   <si>
@@ -1059,9 +1053,6 @@
     <t>Run Dust</t>
   </si>
   <si>
-    <t>8P-ENV-Waterfall</t>
-  </si>
-  <si>
     <t>Water Splash</t>
   </si>
   <si>
@@ -1074,9 +1065,6 @@
     <t>Bunny Damage</t>
   </si>
   <si>
-    <t>Bunny Death</t>
-  </si>
-  <si>
     <t>Player Death</t>
   </si>
   <si>
@@ -1092,9 +1080,6 @@
     <t>Finishing Crafting</t>
   </si>
   <si>
-    <t>PickUp Dust?</t>
-  </si>
-  <si>
     <t>Fire (Torch)</t>
   </si>
   <si>
@@ -1110,9 +1095,6 @@
     <t>Coins Glimmer</t>
   </si>
   <si>
-    <t>Chest Glow?</t>
-  </si>
-  <si>
     <t>Sounds</t>
   </si>
   <si>
@@ -1179,18 +1161,12 @@
     <t>8P-CHAR-PlayerHit</t>
   </si>
   <si>
-    <t>8P-ENV-WaterSplash</t>
-  </si>
-  <si>
     <t>8P-ENV-Fire</t>
   </si>
   <si>
     <t>8P-INT-BunnyDamage</t>
   </si>
   <si>
-    <t>8P-INT-BunnyDeath</t>
-  </si>
-  <si>
     <t>8P-CHAR-PlayerDeath</t>
   </si>
   <si>
@@ -1215,9 +1191,6 @@
     <t>8P-CHAR-ShieldBlock</t>
   </si>
   <si>
-    <t>8P-INT-ChestGlow</t>
-  </si>
-  <si>
     <t>8P-ENV-FallingLeaves</t>
   </si>
   <si>
@@ -1350,64 +1323,85 @@
     <t>FallingLeaves</t>
   </si>
   <si>
-    <t>WaterSplash</t>
-  </si>
-  <si>
     <t>FloatingDust</t>
   </si>
   <si>
+    <t>ColoredClouds</t>
+  </si>
+  <si>
+    <t>Well</t>
+  </si>
+  <si>
+    <t>FlowerBox</t>
+  </si>
+  <si>
+    <t>Minotaur Animations</t>
+  </si>
+  <si>
+    <t>Villager Animations</t>
+  </si>
+  <si>
+    <t>Bunny Animations</t>
+  </si>
+  <si>
+    <t>Combat</t>
+  </si>
+  <si>
+    <t>Dialogue</t>
+  </si>
+  <si>
+    <t>Lady All + Rig</t>
+  </si>
+  <si>
+    <t>Textures Lady</t>
+  </si>
+  <si>
+    <t>Textures Minotaur</t>
+  </si>
+  <si>
+    <t>Textures Alchemist</t>
+  </si>
+  <si>
+    <t>Pickup</t>
+  </si>
+  <si>
+    <t>DustBurst</t>
+  </si>
+  <si>
+    <t>PickUp Dust</t>
+  </si>
+  <si>
+    <t>Dust Burst</t>
+  </si>
+  <si>
+    <t>8P-ENV-DustBurst</t>
+  </si>
+  <si>
+    <t>HitEnvironment</t>
+  </si>
+  <si>
+    <t>Interior</t>
+  </si>
+  <si>
+    <t>UI Sprites</t>
+  </si>
+  <si>
+    <t>UISprites</t>
+  </si>
+  <si>
+    <t>User Interface</t>
+  </si>
+  <si>
+    <t>Arm Animations</t>
+  </si>
+  <si>
+    <t>bunny ai</t>
+  </si>
+  <si>
     <t>Glimmer</t>
   </si>
   <si>
-    <t>ColoredClouds</t>
-  </si>
-  <si>
-    <t>ShieldBlock</t>
-  </si>
-  <si>
-    <t>Well</t>
-  </si>
-  <si>
-    <t>FlowerBox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bones </t>
-  </si>
-  <si>
-    <t>Minotaur Animations</t>
-  </si>
-  <si>
-    <t>Villager Animations</t>
-  </si>
-  <si>
-    <t>Bunny Animations</t>
-  </si>
-  <si>
-    <t>Combat</t>
-  </si>
-  <si>
-    <t>Dialogue</t>
-  </si>
-  <si>
-    <t>Improvise</t>
-  </si>
-  <si>
-    <t>Lady All + Rig</t>
-  </si>
-  <si>
-    <t>Textures Lady</t>
-  </si>
-  <si>
-    <t>Textures Minotaur</t>
-  </si>
-  <si>
-    <t>Textures Alchemist</t>
-  </si>
-  <si>
-    <t>Pickup</t>
-  </si>
-  <si>
-    <t>DustBurst</t>
+    <t>CoinGlimmer</t>
   </si>
 </sst>
 </file>
@@ -1953,8 +1947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AN59" sqref="AN59"/>
+    <sheetView tabSelected="1" topLeftCell="U40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AP76" sqref="AP76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2023,7 +2017,7 @@
     </row>
     <row r="3" spans="1:61" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B3" s="12"/>
       <c r="I3" s="12"/>
@@ -2066,7 +2060,7 @@
     </row>
     <row r="5" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="30">
@@ -2134,7 +2128,7 @@
         <v>42916</v>
       </c>
       <c r="BI5" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:61" s="27" customFormat="1" x14ac:dyDescent="0.2">
@@ -2142,19 +2136,19 @@
     </row>
     <row r="7" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B7" s="27"/>
       <c r="C7" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I7" s="27"/>
       <c r="J7" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P7" s="27"/>
       <c r="Q7" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="W7" s="27"/>
       <c r="X7" s="9" t="s">
@@ -2165,6 +2159,9 @@
         <v>454</v>
       </c>
       <c r="AK7" s="27"/>
+      <c r="AL7" s="9" t="s">
+        <v>336</v>
+      </c>
       <c r="AR7" s="27"/>
       <c r="AY7" s="27"/>
       <c r="BF7" s="27"/>
@@ -2174,11 +2171,11 @@
     <row r="8" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="27"/>
       <c r="C8" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I8" s="27"/>
       <c r="J8" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P8" s="27"/>
       <c r="W8" s="27"/>
@@ -2192,11 +2189,11 @@
     <row r="9" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="27"/>
       <c r="C9" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I9" s="27"/>
       <c r="J9" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P9" s="27"/>
       <c r="W9" s="27"/>
@@ -2210,7 +2207,7 @@
     <row r="10" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="27"/>
       <c r="C10" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I10" s="27"/>
       <c r="P10" s="27"/>
@@ -2299,32 +2296,35 @@
     </row>
     <row r="18" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B18" s="27"/>
       <c r="C18" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I18" s="27"/>
       <c r="J18" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="M18" s="33" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="P18" s="27"/>
       <c r="Q18" s="9" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="W18" s="27"/>
       <c r="X18" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AD18" s="27"/>
       <c r="AE18" s="9" t="s">
-        <v>454</v>
+        <v>334</v>
       </c>
       <c r="AK18" s="27"/>
+      <c r="AL18" s="9" t="s">
+        <v>440</v>
+      </c>
       <c r="AR18" s="27"/>
       <c r="AY18" s="27"/>
       <c r="BF18" s="27"/>
@@ -2334,15 +2334,21 @@
       <c r="B19" s="27"/>
       <c r="I19" s="27"/>
       <c r="J19" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="P19" s="27"/>
       <c r="W19" s="27"/>
       <c r="X19" s="9" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="AD19" s="27"/>
+      <c r="AE19" s="9" t="s">
+        <v>455</v>
+      </c>
       <c r="AK19" s="27"/>
+      <c r="AL19" s="9" t="s">
+        <v>439</v>
+      </c>
       <c r="AR19" s="27"/>
       <c r="AY19" s="27"/>
       <c r="BF19" s="27"/>
@@ -2351,16 +2357,16 @@
     <row r="20" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="27"/>
       <c r="F20" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I20" s="27"/>
       <c r="J20" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="P20" s="27"/>
       <c r="W20" s="27"/>
       <c r="X20" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AD20" s="27"/>
       <c r="AK20" s="27"/>
@@ -2461,30 +2467,30 @@
     </row>
     <row r="29" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B29" s="27"/>
       <c r="C29" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I29" s="27"/>
       <c r="J29" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="P29" s="27"/>
       <c r="Q29" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="W29" s="27"/>
       <c r="X29" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AD29" s="27"/>
       <c r="AE29" s="9" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="AK29" s="27"/>
       <c r="AR29" s="27"/>
@@ -2495,18 +2501,18 @@
     <row r="30" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="27"/>
       <c r="C30" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I30" s="27"/>
       <c r="J30" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P30" s="27"/>
       <c r="Q30" s="9" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="W30" s="27"/>
       <c r="X30" s="9" t="s">
@@ -2514,7 +2520,7 @@
       </c>
       <c r="AD30" s="27"/>
       <c r="AE30" s="9" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="AK30" s="27"/>
       <c r="AR30" s="27"/>
@@ -2526,10 +2532,10 @@
       <c r="B31" s="27"/>
       <c r="I31" s="27"/>
       <c r="J31" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P31" s="27"/>
       <c r="W31" s="27"/>
@@ -2538,7 +2544,7 @@
       </c>
       <c r="AD31" s="27"/>
       <c r="AE31" s="9" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="AK31" s="27"/>
       <c r="AR31" s="27"/>
@@ -2550,7 +2556,7 @@
       <c r="B32" s="27"/>
       <c r="I32" s="27"/>
       <c r="J32" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P32" s="27"/>
       <c r="W32" s="27"/>
@@ -2641,42 +2647,45 @@
     </row>
     <row r="40" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B40" s="27"/>
       <c r="C40" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I40" s="27"/>
       <c r="J40" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M40" s="9" t="s">
         <v>35</v>
       </c>
       <c r="P40" s="27"/>
       <c r="Q40" s="9" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="S40" s="9" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="W40" s="27"/>
       <c r="X40" s="9" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="AD40" s="27"/>
       <c r="AE40" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="AH40" s="9" t="s">
-        <v>243</v>
-      </c>
       <c r="AK40" s="27"/>
       <c r="AL40" s="9" t="s">
         <v>100</v>
       </c>
+      <c r="AO40" s="9" t="s">
+        <v>452</v>
+      </c>
       <c r="AR40" s="27"/>
+      <c r="AS40" s="9" t="s">
+        <v>453</v>
+      </c>
       <c r="AY40" s="27"/>
       <c r="BF40" s="27"/>
       <c r="BG40" s="32"/>
@@ -2685,13 +2694,13 @@
       <c r="B41" s="27"/>
       <c r="I41" s="27"/>
       <c r="J41" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N41" s="33" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="P41" s="27"/>
       <c r="W41" s="27"/>
@@ -2699,9 +2708,6 @@
         <v>100</v>
       </c>
       <c r="AD41" s="27"/>
-      <c r="AH41" s="9" t="s">
-        <v>332</v>
-      </c>
       <c r="AK41" s="27"/>
       <c r="AR41" s="27"/>
       <c r="AY41" s="27"/>
@@ -2712,14 +2718,11 @@
       <c r="B42" s="27"/>
       <c r="I42" s="27"/>
       <c r="J42" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P42" s="27"/>
       <c r="W42" s="27"/>
       <c r="AD42" s="27"/>
-      <c r="AH42" s="9" t="s">
-        <v>118</v>
-      </c>
       <c r="AK42" s="27"/>
       <c r="AR42" s="27"/>
       <c r="AY42" s="27"/>
@@ -2730,7 +2733,7 @@
       <c r="B43" s="27"/>
       <c r="I43" s="27"/>
       <c r="J43" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P43" s="27"/>
       <c r="W43" s="27"/>
@@ -2818,31 +2821,31 @@
     </row>
     <row r="51" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B51" s="27"/>
       <c r="C51" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I51" s="27"/>
       <c r="J51" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="P51" s="27"/>
       <c r="Q51" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="W51" s="27"/>
       <c r="X51" s="9" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="AD51" s="27"/>
       <c r="AE51" s="9" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="AK51" s="27"/>
       <c r="AL51" s="9" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="AR51" s="27"/>
       <c r="AY51" s="27"/>
@@ -2852,25 +2855,22 @@
     <row r="52" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="27"/>
       <c r="C52" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I52" s="27"/>
       <c r="J52" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P52" s="27"/>
       <c r="Q52" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="W52" s="27"/>
       <c r="AD52" s="27"/>
       <c r="AE52" s="9" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="AK52" s="27"/>
-      <c r="AL52" s="9" t="s">
-        <v>235</v>
-      </c>
       <c r="AR52" s="27"/>
       <c r="AY52" s="27"/>
       <c r="BF52" s="27"/>
@@ -2883,12 +2883,9 @@
       <c r="W53" s="27"/>
       <c r="AD53" s="27"/>
       <c r="AE53" s="9" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="AK53" s="27"/>
-      <c r="AL53" s="9" t="s">
-        <v>239</v>
-      </c>
       <c r="AR53" s="27"/>
       <c r="AY53" s="27"/>
       <c r="BF53" s="27"/>
@@ -2904,9 +2901,6 @@
         <v>117</v>
       </c>
       <c r="AK54" s="27"/>
-      <c r="AL54" s="9" t="s">
-        <v>116</v>
-      </c>
       <c r="AR54" s="27"/>
       <c r="AY54" s="27"/>
       <c r="BF54" s="27"/>
@@ -2919,9 +2913,6 @@
       <c r="W55" s="27"/>
       <c r="AD55" s="27"/>
       <c r="AK55" s="27"/>
-      <c r="AL55" s="9" t="s">
-        <v>117</v>
-      </c>
       <c r="AR55" s="27"/>
       <c r="AY55" s="27"/>
       <c r="BF55" s="27"/>
@@ -2992,35 +2983,35 @@
     </row>
     <row r="62" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B62" s="27"/>
       <c r="C62" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I62" s="27"/>
       <c r="J62" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P62" s="27"/>
       <c r="Q62" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="W62" s="27"/>
       <c r="X62" s="9" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="AD62" s="27"/>
       <c r="AE62" s="9" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="AK62" s="27"/>
       <c r="AL62" s="9" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="AR62" s="27"/>
       <c r="AS62" s="9" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="AY62" s="27"/>
       <c r="BF62" s="27"/>
@@ -3035,7 +3026,7 @@
       <c r="AK63" s="27"/>
       <c r="AR63" s="27"/>
       <c r="AS63" s="9" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="AY63" s="27"/>
       <c r="BF63" s="27"/>
@@ -3142,47 +3133,47 @@
     </row>
     <row r="73" spans="1:59" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B73" s="27"/>
       <c r="C73" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I73" s="27"/>
       <c r="J73" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="P73" s="27"/>
       <c r="Q73" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="S73" s="9" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="T73" s="9" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="W73" s="27"/>
       <c r="X73" s="9" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="AA73" s="9" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="AD73" s="27"/>
       <c r="AE73" s="9" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="AH73" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="AK73" s="27"/>
-      <c r="AL73" t="s">
-        <v>442</v>
+      <c r="AL73" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="AR73" s="27"/>
       <c r="AS73" s="9" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="AY73" s="27"/>
       <c r="BF73" s="27"/>
@@ -3192,30 +3183,30 @@
       <c r="B74" s="27"/>
       <c r="I74" s="27"/>
       <c r="J74" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="P74" s="27"/>
       <c r="W74" s="27"/>
       <c r="X74" s="9" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="AA74" s="9" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="AD74" s="27"/>
       <c r="AE74" s="9" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="AH74" s="9" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="AK74" s="27"/>
       <c r="AL74" s="9" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="AR74" s="27"/>
       <c r="AS74" s="9" t="s">
-        <v>444</v>
+        <v>355</v>
       </c>
       <c r="AY74" s="27"/>
       <c r="BF74" s="27"/>
@@ -3223,44 +3214,50 @@
     </row>
     <row r="75" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AE75" t="s">
-        <v>460</v>
+        <v>446</v>
+      </c>
+      <c r="AH75" s="9" t="s">
+        <v>450</v>
       </c>
       <c r="AL75" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="AS75" s="9" t="s">
-        <v>445</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="AS75" s="9"/>
     </row>
     <row r="76" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="AL76" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="AS76" s="9" t="s">
-        <v>428</v>
-      </c>
+      <c r="AH76" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="AL76" s="9"/>
+      <c r="AS76" s="9"/>
     </row>
     <row r="83" spans="1:59" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="84" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B84" s="27"/>
       <c r="C84" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I84" s="27"/>
       <c r="J84" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="P84" s="27"/>
       <c r="Q84" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="W84" s="27"/>
       <c r="AD84" s="27"/>
       <c r="AK84" s="27"/>
+      <c r="AL84" s="9" t="s">
+        <v>356</v>
+      </c>
       <c r="AR84" s="27"/>
+      <c r="AS84" s="9" t="s">
+        <v>456</v>
+      </c>
       <c r="AY84" s="27"/>
       <c r="BF84" s="27"/>
       <c r="BG84" s="32"/>
@@ -3273,6 +3270,9 @@
       <c r="AD85" s="27"/>
       <c r="AK85" s="27"/>
       <c r="AR85" s="27"/>
+      <c r="AS85" s="9" t="s">
+        <v>356</v>
+      </c>
       <c r="AY85" s="27"/>
       <c r="BF85" s="27"/>
       <c r="BG85" s="32"/>
@@ -3381,10 +3381,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:QF504"/>
+  <dimension ref="A1:QF496"/>
   <sheetViews>
-    <sheetView topLeftCell="A298" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J329" sqref="J329"/>
+    <sheetView topLeftCell="A301" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A315" sqref="A315:XFD315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3530,7 +3530,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>20</v>
@@ -3565,7 +3565,7 @@
         <v>39</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -3579,7 +3579,7 @@
         <v>39</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -3592,7 +3592,7 @@
         <v>39</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -3605,7 +3605,7 @@
         <v>39</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3620,7 +3620,7 @@
         <v>39</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -3631,7 +3631,7 @@
         <v>39</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -3642,7 +3642,7 @@
         <v>39</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -3653,7 +3653,7 @@
         <v>39</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3668,7 +3668,7 @@
         <v>39</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -3679,7 +3679,7 @@
         <v>39</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -3690,7 +3690,7 @@
         <v>39</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -3701,16 +3701,16 @@
         <v>39</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="D29" s="15" t="s">
         <v>303</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>304</v>
       </c>
       <c r="I29" s="15" t="s">
         <v>50</v>
@@ -3718,7 +3718,7 @@
     </row>
     <row r="30" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D30" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I30" s="15" t="s">
         <v>50</v>
@@ -3726,7 +3726,7 @@
     </row>
     <row r="31" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D31" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I31" s="15" t="s">
         <v>50</v>
@@ -3734,7 +3734,7 @@
     </row>
     <row r="32" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D32" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I32" s="15" t="s">
         <v>50</v>
@@ -4047,10 +4047,10 @@
     <row r="85" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="86" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="D86" s="14" t="s">
         <v>299</v>
-      </c>
-      <c r="D86" s="14" t="s">
-        <v>300</v>
       </c>
       <c r="I86" s="14" t="s">
         <v>39</v>
@@ -4058,7 +4058,7 @@
     </row>
     <row r="87" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D87" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I87" s="9" t="s">
         <v>39</v>
@@ -4066,7 +4066,7 @@
     </row>
     <row r="88" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D88" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I88" s="9" t="s">
         <v>39</v>
@@ -4078,7 +4078,7 @@
         <v>60</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I90" s="14" t="s">
         <v>39</v>
@@ -4086,7 +4086,7 @@
     </row>
     <row r="91" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D91" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I91" s="9" t="s">
         <v>39</v>
@@ -4094,7 +4094,7 @@
     </row>
     <row r="92" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D92" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I92" s="14" t="s">
         <v>39</v>
@@ -4274,7 +4274,7 @@
         <v>179</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I118" s="9" t="s">
         <v>39</v>
@@ -4282,7 +4282,7 @@
     </row>
     <row r="119" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D119" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I119" s="9" t="s">
         <v>39</v>
@@ -4290,7 +4290,7 @@
     </row>
     <row r="120" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D120" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I120" s="9" t="s">
         <v>39</v>
@@ -4909,7 +4909,7 @@
         <v>39</v>
       </c>
       <c r="K179" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="180" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -4920,7 +4920,7 @@
         <v>39</v>
       </c>
       <c r="K180" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="181" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -4931,7 +4931,7 @@
         <v>39</v>
       </c>
       <c r="K181" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="182" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -4946,7 +4946,7 @@
         <v>39</v>
       </c>
       <c r="K183" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="184" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -4957,7 +4957,7 @@
         <v>39</v>
       </c>
       <c r="K184" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="185" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -4968,7 +4968,7 @@
         <v>39</v>
       </c>
       <c r="K185" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="186" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -5706,8 +5706,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="273" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="274" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="274" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A274" s="9" t="s">
         <v>265</v>
       </c>
@@ -5718,8 +5718,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="275" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="276" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="276" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A276" s="9" t="s">
         <v>267</v>
       </c>
@@ -5730,8 +5730,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="277" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="278" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="278" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A278" s="9" t="s">
         <v>269</v>
       </c>
@@ -5742,15 +5742,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="279" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="280" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="281" spans="1:9" s="23" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="280" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="281" spans="1:10" s="23" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A281" s="23" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="282" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="283" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="283" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A283" s="9" t="s">
         <v>272</v>
       </c>
@@ -5761,8 +5761,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="284" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="285" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="285" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A285" s="9" t="s">
         <v>274</v>
       </c>
@@ -5773,73 +5773,76 @@
         <v>39</v>
       </c>
     </row>
-    <row r="286" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="287" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="287" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A287" s="9" t="s">
-        <v>276</v>
+        <v>340</v>
       </c>
       <c r="D287" s="9" t="s">
-        <v>344</v>
+        <v>374</v>
       </c>
       <c r="I287" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+        <v>50</v>
+      </c>
+      <c r="J287" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="289" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A289" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D289" s="9" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="I289" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="J289" s="9" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="290" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="291" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A291" s="9" t="s">
-        <v>343</v>
+        <v>407</v>
       </c>
       <c r="D291" s="9" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="I291" s="9" t="s">
-        <v>50</v>
+        <v>39</v>
+      </c>
+      <c r="J291" s="9" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="292" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="293" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A293" s="9" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="D293" s="9" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="I293" s="9" t="s">
         <v>39</v>
       </c>
       <c r="J293" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="294" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="295" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A295" s="9" t="s">
-        <v>417</v>
+        <v>343</v>
       </c>
       <c r="D295" s="9" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="I295" s="9" t="s">
         <v>39</v>
       </c>
       <c r="J295" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="296" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -5848,13 +5851,13 @@
         <v>345</v>
       </c>
       <c r="D297" s="9" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="I297" s="9" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J297" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="298" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -5863,136 +5866,1483 @@
         <v>346</v>
       </c>
       <c r="D299" s="9" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="I299" s="9" t="s">
         <v>39</v>
       </c>
       <c r="J299" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="300" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="301" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A301" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D301" s="9" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="I301" s="9" t="s">
         <v>39</v>
       </c>
       <c r="J301" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="302" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="303" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A303" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
+      </c>
+      <c r="B303" s="9" t="s">
+        <v>302</v>
       </c>
       <c r="D303" s="9" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="I303" s="9" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J303" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="304" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="305" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A305" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B305" s="9" t="s">
         <v>350</v>
       </c>
       <c r="D305" s="9" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="I305" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J305" s="9" t="s">
-        <v>288</v>
+        <v>50</v>
       </c>
     </row>
     <row r="306" spans="1:448" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="307" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A307" s="9" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="D307" s="9" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="I307" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J307" s="9" t="s">
-        <v>288</v>
+        <v>50</v>
       </c>
     </row>
     <row r="308" spans="1:448" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="309" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A309" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="B309" s="9" t="s">
-        <v>303</v>
+        <v>351</v>
       </c>
       <c r="D309" s="9" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="I309" s="9" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J309" s="9" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="310" spans="1:448" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="310" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A310" s="17"/>
+      <c r="B310" s="17"/>
+      <c r="C310" s="17"/>
+      <c r="D310" s="17"/>
+      <c r="E310" s="17"/>
+      <c r="F310" s="17"/>
+      <c r="G310" s="17"/>
+      <c r="H310" s="17"/>
+      <c r="I310" s="17"/>
+      <c r="J310" s="17"/>
+      <c r="K310" s="17"/>
+      <c r="L310" s="17"/>
+      <c r="M310" s="17"/>
+      <c r="N310" s="17"/>
+      <c r="O310" s="17"/>
+      <c r="P310" s="17"/>
+      <c r="Q310" s="17"/>
+      <c r="R310" s="17"/>
+      <c r="S310" s="17"/>
+      <c r="T310" s="17"/>
+      <c r="U310" s="17"/>
+      <c r="V310" s="17"/>
+      <c r="W310" s="17"/>
+      <c r="X310" s="17"/>
+      <c r="Y310" s="17"/>
+      <c r="Z310" s="17"/>
+      <c r="AA310" s="17"/>
+      <c r="AB310" s="17"/>
+      <c r="AC310" s="17"/>
+      <c r="AD310" s="17"/>
+      <c r="AE310" s="17"/>
+      <c r="AF310" s="17"/>
+      <c r="AG310" s="17"/>
+      <c r="AH310" s="17"/>
+      <c r="AI310" s="17"/>
+      <c r="AJ310" s="17"/>
+      <c r="AK310" s="17"/>
+      <c r="AL310" s="17"/>
+      <c r="AM310" s="17"/>
+      <c r="AN310" s="17"/>
+      <c r="AO310" s="17"/>
+      <c r="AP310" s="17"/>
+      <c r="AQ310" s="17"/>
+      <c r="AR310" s="17"/>
+      <c r="AS310" s="17"/>
+      <c r="AT310" s="17"/>
+      <c r="AU310" s="17"/>
+      <c r="AV310" s="17"/>
+      <c r="AW310" s="17"/>
+      <c r="AX310" s="17"/>
+      <c r="AY310" s="17"/>
+      <c r="AZ310" s="17"/>
+      <c r="BA310" s="17"/>
+      <c r="BB310" s="17"/>
+      <c r="BC310" s="17"/>
+      <c r="BD310" s="17"/>
+      <c r="BE310" s="17"/>
+      <c r="BF310" s="17"/>
+      <c r="BG310" s="17"/>
+      <c r="BH310" s="17"/>
+      <c r="BI310" s="17"/>
+      <c r="BJ310" s="17"/>
+      <c r="BK310" s="17"/>
+      <c r="BL310" s="17"/>
+      <c r="BM310" s="17"/>
+      <c r="BN310" s="17"/>
+      <c r="BO310" s="17"/>
+      <c r="BP310" s="17"/>
+      <c r="BQ310" s="17"/>
+      <c r="BR310" s="17"/>
+      <c r="BS310" s="17"/>
+      <c r="BT310" s="17"/>
+      <c r="BU310" s="17"/>
+      <c r="BV310" s="17"/>
+      <c r="BW310" s="17"/>
+      <c r="BX310" s="17"/>
+      <c r="BY310" s="17"/>
+      <c r="BZ310" s="17"/>
+      <c r="CA310" s="17"/>
+      <c r="CB310" s="17"/>
+      <c r="CC310" s="17"/>
+      <c r="CD310" s="17"/>
+      <c r="CE310" s="17"/>
+      <c r="CF310" s="17"/>
+      <c r="CG310" s="17"/>
+      <c r="CH310" s="17"/>
+      <c r="CI310" s="17"/>
+      <c r="CJ310" s="17"/>
+      <c r="CK310" s="17"/>
+      <c r="CL310" s="17"/>
+      <c r="CM310" s="17"/>
+      <c r="CN310" s="17"/>
+      <c r="CO310" s="17"/>
+      <c r="CP310" s="17"/>
+      <c r="CQ310" s="17"/>
+      <c r="CR310" s="17"/>
+      <c r="CS310" s="17"/>
+      <c r="CT310" s="17"/>
+      <c r="CU310" s="17"/>
+      <c r="CV310" s="17"/>
+      <c r="CW310" s="17"/>
+      <c r="CX310" s="17"/>
+      <c r="CY310" s="17"/>
+      <c r="CZ310" s="17"/>
+      <c r="DA310" s="17"/>
+      <c r="DB310" s="17"/>
+      <c r="DC310" s="17"/>
+      <c r="DD310" s="17"/>
+      <c r="DE310" s="17"/>
+      <c r="DF310" s="17"/>
+      <c r="DG310" s="17"/>
+      <c r="DH310" s="17"/>
+      <c r="DI310" s="17"/>
+      <c r="DJ310" s="17"/>
+      <c r="DK310" s="17"/>
+      <c r="DL310" s="17"/>
+      <c r="DM310" s="17"/>
+      <c r="DN310" s="17"/>
+      <c r="DO310" s="17"/>
+      <c r="DP310" s="17"/>
+      <c r="DQ310" s="17"/>
+      <c r="DR310" s="17"/>
+      <c r="DS310" s="17"/>
+      <c r="DT310" s="17"/>
+      <c r="DU310" s="17"/>
+      <c r="DV310" s="17"/>
+      <c r="DW310" s="17"/>
+      <c r="DX310" s="17"/>
+      <c r="DY310" s="17"/>
+      <c r="DZ310" s="17"/>
+      <c r="EA310" s="17"/>
+      <c r="EB310" s="17"/>
+      <c r="EC310" s="17"/>
+      <c r="ED310" s="17"/>
+      <c r="EE310" s="17"/>
+      <c r="EF310" s="17"/>
+      <c r="EG310" s="17"/>
+      <c r="EH310" s="17"/>
+      <c r="EI310" s="17"/>
+      <c r="EJ310" s="17"/>
+      <c r="EK310" s="17"/>
+      <c r="EL310" s="17"/>
+      <c r="EM310" s="17"/>
+      <c r="EN310" s="17"/>
+      <c r="EO310" s="17"/>
+      <c r="EP310" s="17"/>
+      <c r="EQ310" s="17"/>
+      <c r="ER310" s="17"/>
+      <c r="ES310" s="17"/>
+      <c r="ET310" s="17"/>
+      <c r="EU310" s="17"/>
+      <c r="EV310" s="17"/>
+      <c r="EW310" s="17"/>
+      <c r="EX310" s="17"/>
+      <c r="EY310" s="17"/>
+      <c r="EZ310" s="17"/>
+      <c r="FA310" s="17"/>
+      <c r="FB310" s="17"/>
+      <c r="FC310" s="17"/>
+      <c r="FD310" s="17"/>
+      <c r="FE310" s="17"/>
+      <c r="FF310" s="17"/>
+      <c r="FG310" s="17"/>
+      <c r="FH310" s="17"/>
+      <c r="FI310" s="17"/>
+      <c r="FJ310" s="17"/>
+      <c r="FK310" s="17"/>
+      <c r="FL310" s="17"/>
+      <c r="FM310" s="17"/>
+      <c r="FN310" s="17"/>
+      <c r="FO310" s="17"/>
+      <c r="FP310" s="17"/>
+      <c r="FQ310" s="17"/>
+      <c r="FR310" s="17"/>
+      <c r="FS310" s="17"/>
+      <c r="FT310" s="17"/>
+      <c r="FU310" s="17"/>
+      <c r="FV310" s="17"/>
+      <c r="FW310" s="17"/>
+      <c r="FX310" s="17"/>
+      <c r="FY310" s="17"/>
+      <c r="FZ310" s="17"/>
+      <c r="GA310" s="17"/>
+      <c r="GB310" s="17"/>
+      <c r="GC310" s="17"/>
+      <c r="GD310" s="17"/>
+      <c r="GE310" s="17"/>
+      <c r="GF310" s="17"/>
+      <c r="GG310" s="17"/>
+      <c r="GH310" s="17"/>
+      <c r="GI310" s="17"/>
+      <c r="GJ310" s="17"/>
+      <c r="GK310" s="17"/>
+      <c r="GL310" s="17"/>
+      <c r="GM310" s="17"/>
+      <c r="GN310" s="17"/>
+      <c r="GO310" s="17"/>
+      <c r="GP310" s="17"/>
+      <c r="GQ310" s="17"/>
+      <c r="GR310" s="17"/>
+      <c r="GS310" s="17"/>
+      <c r="GT310" s="17"/>
+      <c r="GU310" s="17"/>
+      <c r="GV310" s="17"/>
+      <c r="GW310" s="17"/>
+      <c r="GX310" s="17"/>
+      <c r="GY310" s="17"/>
+      <c r="GZ310" s="17"/>
+      <c r="HA310" s="17"/>
+      <c r="HB310" s="17"/>
+      <c r="HC310" s="17"/>
+      <c r="HD310" s="17"/>
+      <c r="HE310" s="17"/>
+      <c r="HF310" s="17"/>
+      <c r="HG310" s="17"/>
+      <c r="HH310" s="17"/>
+      <c r="HI310" s="17"/>
+      <c r="HJ310" s="17"/>
+      <c r="HK310" s="17"/>
+      <c r="HL310" s="17"/>
+      <c r="HM310" s="17"/>
+      <c r="HN310" s="17"/>
+      <c r="HO310" s="17"/>
+      <c r="HP310" s="17"/>
+      <c r="HQ310" s="17"/>
+      <c r="HR310" s="17"/>
+      <c r="HS310" s="17"/>
+      <c r="HT310" s="17"/>
+      <c r="HU310" s="17"/>
+      <c r="HV310" s="17"/>
+      <c r="HW310" s="17"/>
+      <c r="HX310" s="17"/>
+      <c r="HY310" s="17"/>
+      <c r="HZ310" s="17"/>
+      <c r="IA310" s="17"/>
+      <c r="IB310" s="17"/>
+      <c r="IC310" s="17"/>
+      <c r="ID310" s="17"/>
+      <c r="IE310" s="17"/>
+      <c r="IF310" s="17"/>
+      <c r="IG310" s="17"/>
+      <c r="IH310" s="17"/>
+      <c r="II310" s="17"/>
+      <c r="IJ310" s="17"/>
+      <c r="IK310" s="17"/>
+      <c r="IL310" s="17"/>
+      <c r="IM310" s="17"/>
+      <c r="IN310" s="17"/>
+      <c r="IO310" s="17"/>
+      <c r="IP310" s="17"/>
+      <c r="IQ310" s="17"/>
+      <c r="IR310" s="17"/>
+      <c r="IS310" s="17"/>
+      <c r="IT310" s="17"/>
+      <c r="IU310" s="17"/>
+      <c r="IV310" s="17"/>
+      <c r="IW310" s="17"/>
+      <c r="IX310" s="17"/>
+      <c r="IY310" s="17"/>
+      <c r="IZ310" s="17"/>
+      <c r="JA310" s="17"/>
+      <c r="JB310" s="17"/>
+      <c r="JC310" s="17"/>
+      <c r="JD310" s="17"/>
+      <c r="JE310" s="17"/>
+      <c r="JF310" s="17"/>
+      <c r="JG310" s="17"/>
+      <c r="JH310" s="17"/>
+      <c r="JI310" s="17"/>
+      <c r="JJ310" s="17"/>
+      <c r="JK310" s="17"/>
+      <c r="JL310" s="17"/>
+      <c r="JM310" s="17"/>
+      <c r="JN310" s="17"/>
+      <c r="JO310" s="17"/>
+      <c r="JP310" s="17"/>
+      <c r="JQ310" s="17"/>
+      <c r="JR310" s="17"/>
+      <c r="JS310" s="17"/>
+      <c r="JT310" s="17"/>
+      <c r="JU310" s="17"/>
+      <c r="JV310" s="17"/>
+      <c r="JW310" s="17"/>
+      <c r="JX310" s="17"/>
+      <c r="JY310" s="17"/>
+      <c r="JZ310" s="17"/>
+      <c r="KA310" s="17"/>
+      <c r="KB310" s="17"/>
+      <c r="KC310" s="17"/>
+      <c r="KD310" s="17"/>
+      <c r="KE310" s="17"/>
+      <c r="KF310" s="17"/>
+      <c r="KG310" s="17"/>
+      <c r="KH310" s="17"/>
+      <c r="KI310" s="17"/>
+      <c r="KJ310" s="17"/>
+      <c r="KK310" s="17"/>
+      <c r="KL310" s="17"/>
+      <c r="KM310" s="17"/>
+      <c r="KN310" s="17"/>
+      <c r="KO310" s="17"/>
+      <c r="KP310" s="17"/>
+      <c r="KQ310" s="17"/>
+      <c r="KR310" s="17"/>
+      <c r="KS310" s="17"/>
+      <c r="KT310" s="17"/>
+      <c r="KU310" s="17"/>
+      <c r="KV310" s="17"/>
+      <c r="KW310" s="17"/>
+      <c r="KX310" s="17"/>
+      <c r="KY310" s="17"/>
+      <c r="KZ310" s="17"/>
+      <c r="LA310" s="17"/>
+      <c r="LB310" s="17"/>
+      <c r="LC310" s="17"/>
+      <c r="LD310" s="17"/>
+      <c r="LE310" s="17"/>
+      <c r="LF310" s="17"/>
+      <c r="LG310" s="17"/>
+      <c r="LH310" s="17"/>
+      <c r="LI310" s="17"/>
+      <c r="LJ310" s="17"/>
+      <c r="LK310" s="17"/>
+      <c r="LL310" s="17"/>
+      <c r="LM310" s="17"/>
+      <c r="LN310" s="17"/>
+      <c r="LO310" s="17"/>
+      <c r="LP310" s="17"/>
+      <c r="LQ310" s="17"/>
+      <c r="LR310" s="17"/>
+      <c r="LS310" s="17"/>
+      <c r="LT310" s="17"/>
+      <c r="LU310" s="17"/>
+      <c r="LV310" s="17"/>
+      <c r="LW310" s="17"/>
+      <c r="LX310" s="17"/>
+      <c r="LY310" s="17"/>
+      <c r="LZ310" s="17"/>
+      <c r="MA310" s="17"/>
+      <c r="MB310" s="17"/>
+      <c r="MC310" s="17"/>
+      <c r="MD310" s="17"/>
+      <c r="ME310" s="17"/>
+      <c r="MF310" s="17"/>
+      <c r="MG310" s="17"/>
+      <c r="MH310" s="17"/>
+      <c r="MI310" s="17"/>
+      <c r="MJ310" s="17"/>
+      <c r="MK310" s="17"/>
+      <c r="ML310" s="17"/>
+      <c r="MM310" s="17"/>
+      <c r="MN310" s="17"/>
+      <c r="MO310" s="17"/>
+      <c r="MP310" s="17"/>
+      <c r="MQ310" s="17"/>
+      <c r="MR310" s="17"/>
+      <c r="MS310" s="17"/>
+      <c r="MT310" s="17"/>
+      <c r="MU310" s="17"/>
+      <c r="MV310" s="17"/>
+      <c r="MW310" s="17"/>
+      <c r="MX310" s="17"/>
+      <c r="MY310" s="17"/>
+      <c r="MZ310" s="17"/>
+      <c r="NA310" s="17"/>
+      <c r="NB310" s="17"/>
+      <c r="NC310" s="17"/>
+      <c r="ND310" s="17"/>
+      <c r="NE310" s="17"/>
+      <c r="NF310" s="17"/>
+      <c r="NG310" s="17"/>
+      <c r="NH310" s="17"/>
+      <c r="NI310" s="17"/>
+      <c r="NJ310" s="17"/>
+      <c r="NK310" s="17"/>
+      <c r="NL310" s="17"/>
+      <c r="NM310" s="17"/>
+      <c r="NN310" s="17"/>
+      <c r="NO310" s="17"/>
+      <c r="NP310" s="17"/>
+      <c r="NQ310" s="17"/>
+      <c r="NR310" s="17"/>
+      <c r="NS310" s="17"/>
+      <c r="NT310" s="17"/>
+      <c r="NU310" s="17"/>
+      <c r="NV310" s="17"/>
+      <c r="NW310" s="17"/>
+      <c r="NX310" s="17"/>
+      <c r="NY310" s="17"/>
+      <c r="NZ310" s="17"/>
+      <c r="OA310" s="17"/>
+      <c r="OB310" s="17"/>
+      <c r="OC310" s="17"/>
+      <c r="OD310" s="17"/>
+      <c r="OE310" s="17"/>
+      <c r="OF310" s="17"/>
+      <c r="OG310" s="17"/>
+      <c r="OH310" s="17"/>
+      <c r="OI310" s="17"/>
+      <c r="OJ310" s="17"/>
+      <c r="OK310" s="17"/>
+      <c r="OL310" s="17"/>
+      <c r="OM310" s="17"/>
+      <c r="ON310" s="17"/>
+      <c r="OO310" s="17"/>
+      <c r="OP310" s="17"/>
+      <c r="OQ310" s="17"/>
+      <c r="OR310" s="17"/>
+      <c r="OS310" s="17"/>
+      <c r="OT310" s="17"/>
+      <c r="OU310" s="17"/>
+      <c r="OV310" s="17"/>
+      <c r="OW310" s="17"/>
+      <c r="OX310" s="17"/>
+      <c r="OY310" s="17"/>
+      <c r="OZ310" s="17"/>
+      <c r="PA310" s="17"/>
+      <c r="PB310" s="17"/>
+      <c r="PC310" s="17"/>
+      <c r="PD310" s="17"/>
+      <c r="PE310" s="17"/>
+      <c r="PF310" s="17"/>
+      <c r="PG310" s="17"/>
+      <c r="PH310" s="17"/>
+      <c r="PI310" s="17"/>
+      <c r="PJ310" s="17"/>
+      <c r="PK310" s="17"/>
+      <c r="PL310" s="17"/>
+      <c r="PM310" s="17"/>
+      <c r="PN310" s="17"/>
+      <c r="PO310" s="17"/>
+      <c r="PP310" s="17"/>
+      <c r="PQ310" s="17"/>
+      <c r="PR310" s="17"/>
+      <c r="PS310" s="17"/>
+      <c r="PT310" s="17"/>
+      <c r="PU310" s="17"/>
+      <c r="PV310" s="17"/>
+      <c r="PW310" s="17"/>
+      <c r="PX310" s="17"/>
+      <c r="PY310" s="17"/>
+      <c r="PZ310" s="17"/>
+      <c r="QA310" s="17"/>
+      <c r="QB310" s="17"/>
+      <c r="QC310" s="17"/>
+      <c r="QD310" s="17"/>
+      <c r="QE310" s="17"/>
+      <c r="QF310" s="17"/>
+    </row>
     <row r="311" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A311" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="B311" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D311" s="9" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="I311" s="9" t="s">
         <v>50</v>
       </c>
       <c r="J311" s="9" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="312" spans="1:448" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="312" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A312" s="17"/>
+      <c r="B312" s="17"/>
+      <c r="C312" s="17"/>
+      <c r="D312" s="17"/>
+      <c r="E312" s="17"/>
+      <c r="F312" s="17"/>
+      <c r="G312" s="17"/>
+      <c r="H312" s="17"/>
+      <c r="I312" s="17"/>
+      <c r="J312" s="17"/>
+      <c r="K312" s="17"/>
+      <c r="L312" s="17"/>
+      <c r="M312" s="17"/>
+      <c r="N312" s="17"/>
+      <c r="O312" s="17"/>
+      <c r="P312" s="17"/>
+      <c r="Q312" s="17"/>
+      <c r="R312" s="17"/>
+      <c r="S312" s="17"/>
+      <c r="T312" s="17"/>
+      <c r="U312" s="17"/>
+      <c r="V312" s="17"/>
+      <c r="W312" s="17"/>
+      <c r="X312" s="17"/>
+      <c r="Y312" s="17"/>
+      <c r="Z312" s="17"/>
+      <c r="AA312" s="17"/>
+      <c r="AB312" s="17"/>
+      <c r="AC312" s="17"/>
+      <c r="AD312" s="17"/>
+      <c r="AE312" s="17"/>
+      <c r="AF312" s="17"/>
+      <c r="AG312" s="17"/>
+      <c r="AH312" s="17"/>
+      <c r="AI312" s="17"/>
+      <c r="AJ312" s="17"/>
+      <c r="AK312" s="17"/>
+      <c r="AL312" s="17"/>
+      <c r="AM312" s="17"/>
+      <c r="AN312" s="17"/>
+      <c r="AO312" s="17"/>
+      <c r="AP312" s="17"/>
+      <c r="AQ312" s="17"/>
+      <c r="AR312" s="17"/>
+      <c r="AS312" s="17"/>
+      <c r="AT312" s="17"/>
+      <c r="AU312" s="17"/>
+      <c r="AV312" s="17"/>
+      <c r="AW312" s="17"/>
+      <c r="AX312" s="17"/>
+      <c r="AY312" s="17"/>
+      <c r="AZ312" s="17"/>
+      <c r="BA312" s="17"/>
+      <c r="BB312" s="17"/>
+      <c r="BC312" s="17"/>
+      <c r="BD312" s="17"/>
+      <c r="BE312" s="17"/>
+      <c r="BF312" s="17"/>
+      <c r="BG312" s="17"/>
+      <c r="BH312" s="17"/>
+      <c r="BI312" s="17"/>
+      <c r="BJ312" s="17"/>
+      <c r="BK312" s="17"/>
+      <c r="BL312" s="17"/>
+      <c r="BM312" s="17"/>
+      <c r="BN312" s="17"/>
+      <c r="BO312" s="17"/>
+      <c r="BP312" s="17"/>
+      <c r="BQ312" s="17"/>
+      <c r="BR312" s="17"/>
+      <c r="BS312" s="17"/>
+      <c r="BT312" s="17"/>
+      <c r="BU312" s="17"/>
+      <c r="BV312" s="17"/>
+      <c r="BW312" s="17"/>
+      <c r="BX312" s="17"/>
+      <c r="BY312" s="17"/>
+      <c r="BZ312" s="17"/>
+      <c r="CA312" s="17"/>
+      <c r="CB312" s="17"/>
+      <c r="CC312" s="17"/>
+      <c r="CD312" s="17"/>
+      <c r="CE312" s="17"/>
+      <c r="CF312" s="17"/>
+      <c r="CG312" s="17"/>
+      <c r="CH312" s="17"/>
+      <c r="CI312" s="17"/>
+      <c r="CJ312" s="17"/>
+      <c r="CK312" s="17"/>
+      <c r="CL312" s="17"/>
+      <c r="CM312" s="17"/>
+      <c r="CN312" s="17"/>
+      <c r="CO312" s="17"/>
+      <c r="CP312" s="17"/>
+      <c r="CQ312" s="17"/>
+      <c r="CR312" s="17"/>
+      <c r="CS312" s="17"/>
+      <c r="CT312" s="17"/>
+      <c r="CU312" s="17"/>
+      <c r="CV312" s="17"/>
+      <c r="CW312" s="17"/>
+      <c r="CX312" s="17"/>
+      <c r="CY312" s="17"/>
+      <c r="CZ312" s="17"/>
+      <c r="DA312" s="17"/>
+      <c r="DB312" s="17"/>
+      <c r="DC312" s="17"/>
+      <c r="DD312" s="17"/>
+      <c r="DE312" s="17"/>
+      <c r="DF312" s="17"/>
+      <c r="DG312" s="17"/>
+      <c r="DH312" s="17"/>
+      <c r="DI312" s="17"/>
+      <c r="DJ312" s="17"/>
+      <c r="DK312" s="17"/>
+      <c r="DL312" s="17"/>
+      <c r="DM312" s="17"/>
+      <c r="DN312" s="17"/>
+      <c r="DO312" s="17"/>
+      <c r="DP312" s="17"/>
+      <c r="DQ312" s="17"/>
+      <c r="DR312" s="17"/>
+      <c r="DS312" s="17"/>
+      <c r="DT312" s="17"/>
+      <c r="DU312" s="17"/>
+      <c r="DV312" s="17"/>
+      <c r="DW312" s="17"/>
+      <c r="DX312" s="17"/>
+      <c r="DY312" s="17"/>
+      <c r="DZ312" s="17"/>
+      <c r="EA312" s="17"/>
+      <c r="EB312" s="17"/>
+      <c r="EC312" s="17"/>
+      <c r="ED312" s="17"/>
+      <c r="EE312" s="17"/>
+      <c r="EF312" s="17"/>
+      <c r="EG312" s="17"/>
+      <c r="EH312" s="17"/>
+      <c r="EI312" s="17"/>
+      <c r="EJ312" s="17"/>
+      <c r="EK312" s="17"/>
+      <c r="EL312" s="17"/>
+      <c r="EM312" s="17"/>
+      <c r="EN312" s="17"/>
+      <c r="EO312" s="17"/>
+      <c r="EP312" s="17"/>
+      <c r="EQ312" s="17"/>
+      <c r="ER312" s="17"/>
+      <c r="ES312" s="17"/>
+      <c r="ET312" s="17"/>
+      <c r="EU312" s="17"/>
+      <c r="EV312" s="17"/>
+      <c r="EW312" s="17"/>
+      <c r="EX312" s="17"/>
+      <c r="EY312" s="17"/>
+      <c r="EZ312" s="17"/>
+      <c r="FA312" s="17"/>
+      <c r="FB312" s="17"/>
+      <c r="FC312" s="17"/>
+      <c r="FD312" s="17"/>
+      <c r="FE312" s="17"/>
+      <c r="FF312" s="17"/>
+      <c r="FG312" s="17"/>
+      <c r="FH312" s="17"/>
+      <c r="FI312" s="17"/>
+      <c r="FJ312" s="17"/>
+      <c r="FK312" s="17"/>
+      <c r="FL312" s="17"/>
+      <c r="FM312" s="17"/>
+      <c r="FN312" s="17"/>
+      <c r="FO312" s="17"/>
+      <c r="FP312" s="17"/>
+      <c r="FQ312" s="17"/>
+      <c r="FR312" s="17"/>
+      <c r="FS312" s="17"/>
+      <c r="FT312" s="17"/>
+      <c r="FU312" s="17"/>
+      <c r="FV312" s="17"/>
+      <c r="FW312" s="17"/>
+      <c r="FX312" s="17"/>
+      <c r="FY312" s="17"/>
+      <c r="FZ312" s="17"/>
+      <c r="GA312" s="17"/>
+      <c r="GB312" s="17"/>
+      <c r="GC312" s="17"/>
+      <c r="GD312" s="17"/>
+      <c r="GE312" s="17"/>
+      <c r="GF312" s="17"/>
+      <c r="GG312" s="17"/>
+      <c r="GH312" s="17"/>
+      <c r="GI312" s="17"/>
+      <c r="GJ312" s="17"/>
+      <c r="GK312" s="17"/>
+      <c r="GL312" s="17"/>
+      <c r="GM312" s="17"/>
+      <c r="GN312" s="17"/>
+      <c r="GO312" s="17"/>
+      <c r="GP312" s="17"/>
+      <c r="GQ312" s="17"/>
+      <c r="GR312" s="17"/>
+      <c r="GS312" s="17"/>
+      <c r="GT312" s="17"/>
+      <c r="GU312" s="17"/>
+      <c r="GV312" s="17"/>
+      <c r="GW312" s="17"/>
+      <c r="GX312" s="17"/>
+      <c r="GY312" s="17"/>
+      <c r="GZ312" s="17"/>
+      <c r="HA312" s="17"/>
+      <c r="HB312" s="17"/>
+      <c r="HC312" s="17"/>
+      <c r="HD312" s="17"/>
+      <c r="HE312" s="17"/>
+      <c r="HF312" s="17"/>
+      <c r="HG312" s="17"/>
+      <c r="HH312" s="17"/>
+      <c r="HI312" s="17"/>
+      <c r="HJ312" s="17"/>
+      <c r="HK312" s="17"/>
+      <c r="HL312" s="17"/>
+      <c r="HM312" s="17"/>
+      <c r="HN312" s="17"/>
+      <c r="HO312" s="17"/>
+      <c r="HP312" s="17"/>
+      <c r="HQ312" s="17"/>
+      <c r="HR312" s="17"/>
+      <c r="HS312" s="17"/>
+      <c r="HT312" s="17"/>
+      <c r="HU312" s="17"/>
+      <c r="HV312" s="17"/>
+      <c r="HW312" s="17"/>
+      <c r="HX312" s="17"/>
+      <c r="HY312" s="17"/>
+      <c r="HZ312" s="17"/>
+      <c r="IA312" s="17"/>
+      <c r="IB312" s="17"/>
+      <c r="IC312" s="17"/>
+      <c r="ID312" s="17"/>
+      <c r="IE312" s="17"/>
+      <c r="IF312" s="17"/>
+      <c r="IG312" s="17"/>
+      <c r="IH312" s="17"/>
+      <c r="II312" s="17"/>
+      <c r="IJ312" s="17"/>
+      <c r="IK312" s="17"/>
+      <c r="IL312" s="17"/>
+      <c r="IM312" s="17"/>
+      <c r="IN312" s="17"/>
+      <c r="IO312" s="17"/>
+      <c r="IP312" s="17"/>
+      <c r="IQ312" s="17"/>
+      <c r="IR312" s="17"/>
+      <c r="IS312" s="17"/>
+      <c r="IT312" s="17"/>
+      <c r="IU312" s="17"/>
+      <c r="IV312" s="17"/>
+      <c r="IW312" s="17"/>
+      <c r="IX312" s="17"/>
+      <c r="IY312" s="17"/>
+      <c r="IZ312" s="17"/>
+      <c r="JA312" s="17"/>
+      <c r="JB312" s="17"/>
+      <c r="JC312" s="17"/>
+      <c r="JD312" s="17"/>
+      <c r="JE312" s="17"/>
+      <c r="JF312" s="17"/>
+      <c r="JG312" s="17"/>
+      <c r="JH312" s="17"/>
+      <c r="JI312" s="17"/>
+      <c r="JJ312" s="17"/>
+      <c r="JK312" s="17"/>
+      <c r="JL312" s="17"/>
+      <c r="JM312" s="17"/>
+      <c r="JN312" s="17"/>
+      <c r="JO312" s="17"/>
+      <c r="JP312" s="17"/>
+      <c r="JQ312" s="17"/>
+      <c r="JR312" s="17"/>
+      <c r="JS312" s="17"/>
+      <c r="JT312" s="17"/>
+      <c r="JU312" s="17"/>
+      <c r="JV312" s="17"/>
+      <c r="JW312" s="17"/>
+      <c r="JX312" s="17"/>
+      <c r="JY312" s="17"/>
+      <c r="JZ312" s="17"/>
+      <c r="KA312" s="17"/>
+      <c r="KB312" s="17"/>
+      <c r="KC312" s="17"/>
+      <c r="KD312" s="17"/>
+      <c r="KE312" s="17"/>
+      <c r="KF312" s="17"/>
+      <c r="KG312" s="17"/>
+      <c r="KH312" s="17"/>
+      <c r="KI312" s="17"/>
+      <c r="KJ312" s="17"/>
+      <c r="KK312" s="17"/>
+      <c r="KL312" s="17"/>
+      <c r="KM312" s="17"/>
+      <c r="KN312" s="17"/>
+      <c r="KO312" s="17"/>
+      <c r="KP312" s="17"/>
+      <c r="KQ312" s="17"/>
+      <c r="KR312" s="17"/>
+      <c r="KS312" s="17"/>
+      <c r="KT312" s="17"/>
+      <c r="KU312" s="17"/>
+      <c r="KV312" s="17"/>
+      <c r="KW312" s="17"/>
+      <c r="KX312" s="17"/>
+      <c r="KY312" s="17"/>
+      <c r="KZ312" s="17"/>
+      <c r="LA312" s="17"/>
+      <c r="LB312" s="17"/>
+      <c r="LC312" s="17"/>
+      <c r="LD312" s="17"/>
+      <c r="LE312" s="17"/>
+      <c r="LF312" s="17"/>
+      <c r="LG312" s="17"/>
+      <c r="LH312" s="17"/>
+      <c r="LI312" s="17"/>
+      <c r="LJ312" s="17"/>
+      <c r="LK312" s="17"/>
+      <c r="LL312" s="17"/>
+      <c r="LM312" s="17"/>
+      <c r="LN312" s="17"/>
+      <c r="LO312" s="17"/>
+      <c r="LP312" s="17"/>
+      <c r="LQ312" s="17"/>
+      <c r="LR312" s="17"/>
+      <c r="LS312" s="17"/>
+      <c r="LT312" s="17"/>
+      <c r="LU312" s="17"/>
+      <c r="LV312" s="17"/>
+      <c r="LW312" s="17"/>
+      <c r="LX312" s="17"/>
+      <c r="LY312" s="17"/>
+      <c r="LZ312" s="17"/>
+      <c r="MA312" s="17"/>
+      <c r="MB312" s="17"/>
+      <c r="MC312" s="17"/>
+      <c r="MD312" s="17"/>
+      <c r="ME312" s="17"/>
+      <c r="MF312" s="17"/>
+      <c r="MG312" s="17"/>
+      <c r="MH312" s="17"/>
+      <c r="MI312" s="17"/>
+      <c r="MJ312" s="17"/>
+      <c r="MK312" s="17"/>
+      <c r="ML312" s="17"/>
+      <c r="MM312" s="17"/>
+      <c r="MN312" s="17"/>
+      <c r="MO312" s="17"/>
+      <c r="MP312" s="17"/>
+      <c r="MQ312" s="17"/>
+      <c r="MR312" s="17"/>
+      <c r="MS312" s="17"/>
+      <c r="MT312" s="17"/>
+      <c r="MU312" s="17"/>
+      <c r="MV312" s="17"/>
+      <c r="MW312" s="17"/>
+      <c r="MX312" s="17"/>
+      <c r="MY312" s="17"/>
+      <c r="MZ312" s="17"/>
+      <c r="NA312" s="17"/>
+      <c r="NB312" s="17"/>
+      <c r="NC312" s="17"/>
+      <c r="ND312" s="17"/>
+      <c r="NE312" s="17"/>
+      <c r="NF312" s="17"/>
+      <c r="NG312" s="17"/>
+      <c r="NH312" s="17"/>
+      <c r="NI312" s="17"/>
+      <c r="NJ312" s="17"/>
+      <c r="NK312" s="17"/>
+      <c r="NL312" s="17"/>
+      <c r="NM312" s="17"/>
+      <c r="NN312" s="17"/>
+      <c r="NO312" s="17"/>
+      <c r="NP312" s="17"/>
+      <c r="NQ312" s="17"/>
+      <c r="NR312" s="17"/>
+      <c r="NS312" s="17"/>
+      <c r="NT312" s="17"/>
+      <c r="NU312" s="17"/>
+      <c r="NV312" s="17"/>
+      <c r="NW312" s="17"/>
+      <c r="NX312" s="17"/>
+      <c r="NY312" s="17"/>
+      <c r="NZ312" s="17"/>
+      <c r="OA312" s="17"/>
+      <c r="OB312" s="17"/>
+      <c r="OC312" s="17"/>
+      <c r="OD312" s="17"/>
+      <c r="OE312" s="17"/>
+      <c r="OF312" s="17"/>
+      <c r="OG312" s="17"/>
+      <c r="OH312" s="17"/>
+      <c r="OI312" s="17"/>
+      <c r="OJ312" s="17"/>
+      <c r="OK312" s="17"/>
+      <c r="OL312" s="17"/>
+      <c r="OM312" s="17"/>
+      <c r="ON312" s="17"/>
+      <c r="OO312" s="17"/>
+      <c r="OP312" s="17"/>
+      <c r="OQ312" s="17"/>
+      <c r="OR312" s="17"/>
+      <c r="OS312" s="17"/>
+      <c r="OT312" s="17"/>
+      <c r="OU312" s="17"/>
+      <c r="OV312" s="17"/>
+      <c r="OW312" s="17"/>
+      <c r="OX312" s="17"/>
+      <c r="OY312" s="17"/>
+      <c r="OZ312" s="17"/>
+      <c r="PA312" s="17"/>
+      <c r="PB312" s="17"/>
+      <c r="PC312" s="17"/>
+      <c r="PD312" s="17"/>
+      <c r="PE312" s="17"/>
+      <c r="PF312" s="17"/>
+      <c r="PG312" s="17"/>
+      <c r="PH312" s="17"/>
+      <c r="PI312" s="17"/>
+      <c r="PJ312" s="17"/>
+      <c r="PK312" s="17"/>
+      <c r="PL312" s="17"/>
+      <c r="PM312" s="17"/>
+      <c r="PN312" s="17"/>
+      <c r="PO312" s="17"/>
+      <c r="PP312" s="17"/>
+      <c r="PQ312" s="17"/>
+      <c r="PR312" s="17"/>
+      <c r="PS312" s="17"/>
+      <c r="PT312" s="17"/>
+      <c r="PU312" s="17"/>
+      <c r="PV312" s="17"/>
+      <c r="PW312" s="17"/>
+      <c r="PX312" s="17"/>
+      <c r="PY312" s="17"/>
+      <c r="PZ312" s="17"/>
+      <c r="QA312" s="17"/>
+      <c r="QB312" s="17"/>
+      <c r="QC312" s="17"/>
+      <c r="QD312" s="17"/>
+      <c r="QE312" s="17"/>
+      <c r="QF312" s="17"/>
+    </row>
     <row r="313" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A313" s="9" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="D313" s="9" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="I313" s="9" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="314" spans="1:448" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="J313" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="314" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A314" s="17"/>
+      <c r="B314" s="17"/>
+      <c r="C314" s="17"/>
+      <c r="D314" s="17"/>
+      <c r="E314" s="17"/>
+      <c r="F314" s="17"/>
+      <c r="G314" s="17"/>
+      <c r="H314" s="17"/>
+      <c r="I314" s="17"/>
+      <c r="J314" s="17"/>
+      <c r="K314" s="17"/>
+      <c r="L314" s="17"/>
+      <c r="M314" s="17"/>
+      <c r="N314" s="17"/>
+      <c r="O314" s="17"/>
+      <c r="P314" s="17"/>
+      <c r="Q314" s="17"/>
+      <c r="R314" s="17"/>
+      <c r="S314" s="17"/>
+      <c r="T314" s="17"/>
+      <c r="U314" s="17"/>
+      <c r="V314" s="17"/>
+      <c r="W314" s="17"/>
+      <c r="X314" s="17"/>
+      <c r="Y314" s="17"/>
+      <c r="Z314" s="17"/>
+      <c r="AA314" s="17"/>
+      <c r="AB314" s="17"/>
+      <c r="AC314" s="17"/>
+      <c r="AD314" s="17"/>
+      <c r="AE314" s="17"/>
+      <c r="AF314" s="17"/>
+      <c r="AG314" s="17"/>
+      <c r="AH314" s="17"/>
+      <c r="AI314" s="17"/>
+      <c r="AJ314" s="17"/>
+      <c r="AK314" s="17"/>
+      <c r="AL314" s="17"/>
+      <c r="AM314" s="17"/>
+      <c r="AN314" s="17"/>
+      <c r="AO314" s="17"/>
+      <c r="AP314" s="17"/>
+      <c r="AQ314" s="17"/>
+      <c r="AR314" s="17"/>
+      <c r="AS314" s="17"/>
+      <c r="AT314" s="17"/>
+      <c r="AU314" s="17"/>
+      <c r="AV314" s="17"/>
+      <c r="AW314" s="17"/>
+      <c r="AX314" s="17"/>
+      <c r="AY314" s="17"/>
+      <c r="AZ314" s="17"/>
+      <c r="BA314" s="17"/>
+      <c r="BB314" s="17"/>
+      <c r="BC314" s="17"/>
+      <c r="BD314" s="17"/>
+      <c r="BE314" s="17"/>
+      <c r="BF314" s="17"/>
+      <c r="BG314" s="17"/>
+      <c r="BH314" s="17"/>
+      <c r="BI314" s="17"/>
+      <c r="BJ314" s="17"/>
+      <c r="BK314" s="17"/>
+      <c r="BL314" s="17"/>
+      <c r="BM314" s="17"/>
+      <c r="BN314" s="17"/>
+      <c r="BO314" s="17"/>
+      <c r="BP314" s="17"/>
+      <c r="BQ314" s="17"/>
+      <c r="BR314" s="17"/>
+      <c r="BS314" s="17"/>
+      <c r="BT314" s="17"/>
+      <c r="BU314" s="17"/>
+      <c r="BV314" s="17"/>
+      <c r="BW314" s="17"/>
+      <c r="BX314" s="17"/>
+      <c r="BY314" s="17"/>
+      <c r="BZ314" s="17"/>
+      <c r="CA314" s="17"/>
+      <c r="CB314" s="17"/>
+      <c r="CC314" s="17"/>
+      <c r="CD314" s="17"/>
+      <c r="CE314" s="17"/>
+      <c r="CF314" s="17"/>
+      <c r="CG314" s="17"/>
+      <c r="CH314" s="17"/>
+      <c r="CI314" s="17"/>
+      <c r="CJ314" s="17"/>
+      <c r="CK314" s="17"/>
+      <c r="CL314" s="17"/>
+      <c r="CM314" s="17"/>
+      <c r="CN314" s="17"/>
+      <c r="CO314" s="17"/>
+      <c r="CP314" s="17"/>
+      <c r="CQ314" s="17"/>
+      <c r="CR314" s="17"/>
+      <c r="CS314" s="17"/>
+      <c r="CT314" s="17"/>
+      <c r="CU314" s="17"/>
+      <c r="CV314" s="17"/>
+      <c r="CW314" s="17"/>
+      <c r="CX314" s="17"/>
+      <c r="CY314" s="17"/>
+      <c r="CZ314" s="17"/>
+      <c r="DA314" s="17"/>
+      <c r="DB314" s="17"/>
+      <c r="DC314" s="17"/>
+      <c r="DD314" s="17"/>
+      <c r="DE314" s="17"/>
+      <c r="DF314" s="17"/>
+      <c r="DG314" s="17"/>
+      <c r="DH314" s="17"/>
+      <c r="DI314" s="17"/>
+      <c r="DJ314" s="17"/>
+      <c r="DK314" s="17"/>
+      <c r="DL314" s="17"/>
+      <c r="DM314" s="17"/>
+      <c r="DN314" s="17"/>
+      <c r="DO314" s="17"/>
+      <c r="DP314" s="17"/>
+      <c r="DQ314" s="17"/>
+      <c r="DR314" s="17"/>
+      <c r="DS314" s="17"/>
+      <c r="DT314" s="17"/>
+      <c r="DU314" s="17"/>
+      <c r="DV314" s="17"/>
+      <c r="DW314" s="17"/>
+      <c r="DX314" s="17"/>
+      <c r="DY314" s="17"/>
+      <c r="DZ314" s="17"/>
+      <c r="EA314" s="17"/>
+      <c r="EB314" s="17"/>
+      <c r="EC314" s="17"/>
+      <c r="ED314" s="17"/>
+      <c r="EE314" s="17"/>
+      <c r="EF314" s="17"/>
+      <c r="EG314" s="17"/>
+      <c r="EH314" s="17"/>
+      <c r="EI314" s="17"/>
+      <c r="EJ314" s="17"/>
+      <c r="EK314" s="17"/>
+      <c r="EL314" s="17"/>
+      <c r="EM314" s="17"/>
+      <c r="EN314" s="17"/>
+      <c r="EO314" s="17"/>
+      <c r="EP314" s="17"/>
+      <c r="EQ314" s="17"/>
+      <c r="ER314" s="17"/>
+      <c r="ES314" s="17"/>
+      <c r="ET314" s="17"/>
+      <c r="EU314" s="17"/>
+      <c r="EV314" s="17"/>
+      <c r="EW314" s="17"/>
+      <c r="EX314" s="17"/>
+      <c r="EY314" s="17"/>
+      <c r="EZ314" s="17"/>
+      <c r="FA314" s="17"/>
+      <c r="FB314" s="17"/>
+      <c r="FC314" s="17"/>
+      <c r="FD314" s="17"/>
+      <c r="FE314" s="17"/>
+      <c r="FF314" s="17"/>
+      <c r="FG314" s="17"/>
+      <c r="FH314" s="17"/>
+      <c r="FI314" s="17"/>
+      <c r="FJ314" s="17"/>
+      <c r="FK314" s="17"/>
+      <c r="FL314" s="17"/>
+      <c r="FM314" s="17"/>
+      <c r="FN314" s="17"/>
+      <c r="FO314" s="17"/>
+      <c r="FP314" s="17"/>
+      <c r="FQ314" s="17"/>
+      <c r="FR314" s="17"/>
+      <c r="FS314" s="17"/>
+      <c r="FT314" s="17"/>
+      <c r="FU314" s="17"/>
+      <c r="FV314" s="17"/>
+      <c r="FW314" s="17"/>
+      <c r="FX314" s="17"/>
+      <c r="FY314" s="17"/>
+      <c r="FZ314" s="17"/>
+      <c r="GA314" s="17"/>
+      <c r="GB314" s="17"/>
+      <c r="GC314" s="17"/>
+      <c r="GD314" s="17"/>
+      <c r="GE314" s="17"/>
+      <c r="GF314" s="17"/>
+      <c r="GG314" s="17"/>
+      <c r="GH314" s="17"/>
+      <c r="GI314" s="17"/>
+      <c r="GJ314" s="17"/>
+      <c r="GK314" s="17"/>
+      <c r="GL314" s="17"/>
+      <c r="GM314" s="17"/>
+      <c r="GN314" s="17"/>
+      <c r="GO314" s="17"/>
+      <c r="GP314" s="17"/>
+      <c r="GQ314" s="17"/>
+      <c r="GR314" s="17"/>
+      <c r="GS314" s="17"/>
+      <c r="GT314" s="17"/>
+      <c r="GU314" s="17"/>
+      <c r="GV314" s="17"/>
+      <c r="GW314" s="17"/>
+      <c r="GX314" s="17"/>
+      <c r="GY314" s="17"/>
+      <c r="GZ314" s="17"/>
+      <c r="HA314" s="17"/>
+      <c r="HB314" s="17"/>
+      <c r="HC314" s="17"/>
+      <c r="HD314" s="17"/>
+      <c r="HE314" s="17"/>
+      <c r="HF314" s="17"/>
+      <c r="HG314" s="17"/>
+      <c r="HH314" s="17"/>
+      <c r="HI314" s="17"/>
+      <c r="HJ314" s="17"/>
+      <c r="HK314" s="17"/>
+      <c r="HL314" s="17"/>
+      <c r="HM314" s="17"/>
+      <c r="HN314" s="17"/>
+      <c r="HO314" s="17"/>
+      <c r="HP314" s="17"/>
+      <c r="HQ314" s="17"/>
+      <c r="HR314" s="17"/>
+      <c r="HS314" s="17"/>
+      <c r="HT314" s="17"/>
+      <c r="HU314" s="17"/>
+      <c r="HV314" s="17"/>
+      <c r="HW314" s="17"/>
+      <c r="HX314" s="17"/>
+      <c r="HY314" s="17"/>
+      <c r="HZ314" s="17"/>
+      <c r="IA314" s="17"/>
+      <c r="IB314" s="17"/>
+      <c r="IC314" s="17"/>
+      <c r="ID314" s="17"/>
+      <c r="IE314" s="17"/>
+      <c r="IF314" s="17"/>
+      <c r="IG314" s="17"/>
+      <c r="IH314" s="17"/>
+      <c r="II314" s="17"/>
+      <c r="IJ314" s="17"/>
+      <c r="IK314" s="17"/>
+      <c r="IL314" s="17"/>
+      <c r="IM314" s="17"/>
+      <c r="IN314" s="17"/>
+      <c r="IO314" s="17"/>
+      <c r="IP314" s="17"/>
+      <c r="IQ314" s="17"/>
+      <c r="IR314" s="17"/>
+      <c r="IS314" s="17"/>
+      <c r="IT314" s="17"/>
+      <c r="IU314" s="17"/>
+      <c r="IV314" s="17"/>
+      <c r="IW314" s="17"/>
+      <c r="IX314" s="17"/>
+      <c r="IY314" s="17"/>
+      <c r="IZ314" s="17"/>
+      <c r="JA314" s="17"/>
+      <c r="JB314" s="17"/>
+      <c r="JC314" s="17"/>
+      <c r="JD314" s="17"/>
+      <c r="JE314" s="17"/>
+      <c r="JF314" s="17"/>
+      <c r="JG314" s="17"/>
+      <c r="JH314" s="17"/>
+      <c r="JI314" s="17"/>
+      <c r="JJ314" s="17"/>
+      <c r="JK314" s="17"/>
+      <c r="JL314" s="17"/>
+      <c r="JM314" s="17"/>
+      <c r="JN314" s="17"/>
+      <c r="JO314" s="17"/>
+      <c r="JP314" s="17"/>
+      <c r="JQ314" s="17"/>
+      <c r="JR314" s="17"/>
+      <c r="JS314" s="17"/>
+      <c r="JT314" s="17"/>
+      <c r="JU314" s="17"/>
+      <c r="JV314" s="17"/>
+      <c r="JW314" s="17"/>
+      <c r="JX314" s="17"/>
+      <c r="JY314" s="17"/>
+      <c r="JZ314" s="17"/>
+      <c r="KA314" s="17"/>
+      <c r="KB314" s="17"/>
+      <c r="KC314" s="17"/>
+      <c r="KD314" s="17"/>
+      <c r="KE314" s="17"/>
+      <c r="KF314" s="17"/>
+      <c r="KG314" s="17"/>
+      <c r="KH314" s="17"/>
+      <c r="KI314" s="17"/>
+      <c r="KJ314" s="17"/>
+      <c r="KK314" s="17"/>
+      <c r="KL314" s="17"/>
+      <c r="KM314" s="17"/>
+      <c r="KN314" s="17"/>
+      <c r="KO314" s="17"/>
+      <c r="KP314" s="17"/>
+      <c r="KQ314" s="17"/>
+      <c r="KR314" s="17"/>
+      <c r="KS314" s="17"/>
+      <c r="KT314" s="17"/>
+      <c r="KU314" s="17"/>
+      <c r="KV314" s="17"/>
+      <c r="KW314" s="17"/>
+      <c r="KX314" s="17"/>
+      <c r="KY314" s="17"/>
+      <c r="KZ314" s="17"/>
+      <c r="LA314" s="17"/>
+      <c r="LB314" s="17"/>
+      <c r="LC314" s="17"/>
+      <c r="LD314" s="17"/>
+      <c r="LE314" s="17"/>
+      <c r="LF314" s="17"/>
+      <c r="LG314" s="17"/>
+      <c r="LH314" s="17"/>
+      <c r="LI314" s="17"/>
+      <c r="LJ314" s="17"/>
+      <c r="LK314" s="17"/>
+      <c r="LL314" s="17"/>
+      <c r="LM314" s="17"/>
+      <c r="LN314" s="17"/>
+      <c r="LO314" s="17"/>
+      <c r="LP314" s="17"/>
+      <c r="LQ314" s="17"/>
+      <c r="LR314" s="17"/>
+      <c r="LS314" s="17"/>
+      <c r="LT314" s="17"/>
+      <c r="LU314" s="17"/>
+      <c r="LV314" s="17"/>
+      <c r="LW314" s="17"/>
+      <c r="LX314" s="17"/>
+      <c r="LY314" s="17"/>
+      <c r="LZ314" s="17"/>
+      <c r="MA314" s="17"/>
+      <c r="MB314" s="17"/>
+      <c r="MC314" s="17"/>
+      <c r="MD314" s="17"/>
+      <c r="ME314" s="17"/>
+      <c r="MF314" s="17"/>
+      <c r="MG314" s="17"/>
+      <c r="MH314" s="17"/>
+      <c r="MI314" s="17"/>
+      <c r="MJ314" s="17"/>
+      <c r="MK314" s="17"/>
+      <c r="ML314" s="17"/>
+      <c r="MM314" s="17"/>
+      <c r="MN314" s="17"/>
+      <c r="MO314" s="17"/>
+      <c r="MP314" s="17"/>
+      <c r="MQ314" s="17"/>
+      <c r="MR314" s="17"/>
+      <c r="MS314" s="17"/>
+      <c r="MT314" s="17"/>
+      <c r="MU314" s="17"/>
+      <c r="MV314" s="17"/>
+      <c r="MW314" s="17"/>
+      <c r="MX314" s="17"/>
+      <c r="MY314" s="17"/>
+      <c r="MZ314" s="17"/>
+      <c r="NA314" s="17"/>
+      <c r="NB314" s="17"/>
+      <c r="NC314" s="17"/>
+      <c r="ND314" s="17"/>
+      <c r="NE314" s="17"/>
+      <c r="NF314" s="17"/>
+      <c r="NG314" s="17"/>
+      <c r="NH314" s="17"/>
+      <c r="NI314" s="17"/>
+      <c r="NJ314" s="17"/>
+      <c r="NK314" s="17"/>
+      <c r="NL314" s="17"/>
+      <c r="NM314" s="17"/>
+      <c r="NN314" s="17"/>
+      <c r="NO314" s="17"/>
+      <c r="NP314" s="17"/>
+      <c r="NQ314" s="17"/>
+      <c r="NR314" s="17"/>
+      <c r="NS314" s="17"/>
+      <c r="NT314" s="17"/>
+      <c r="NU314" s="17"/>
+      <c r="NV314" s="17"/>
+      <c r="NW314" s="17"/>
+      <c r="NX314" s="17"/>
+      <c r="NY314" s="17"/>
+      <c r="NZ314" s="17"/>
+      <c r="OA314" s="17"/>
+      <c r="OB314" s="17"/>
+      <c r="OC314" s="17"/>
+      <c r="OD314" s="17"/>
+      <c r="OE314" s="17"/>
+      <c r="OF314" s="17"/>
+      <c r="OG314" s="17"/>
+      <c r="OH314" s="17"/>
+      <c r="OI314" s="17"/>
+      <c r="OJ314" s="17"/>
+      <c r="OK314" s="17"/>
+      <c r="OL314" s="17"/>
+      <c r="OM314" s="17"/>
+      <c r="ON314" s="17"/>
+      <c r="OO314" s="17"/>
+      <c r="OP314" s="17"/>
+      <c r="OQ314" s="17"/>
+      <c r="OR314" s="17"/>
+      <c r="OS314" s="17"/>
+      <c r="OT314" s="17"/>
+      <c r="OU314" s="17"/>
+      <c r="OV314" s="17"/>
+      <c r="OW314" s="17"/>
+      <c r="OX314" s="17"/>
+      <c r="OY314" s="17"/>
+      <c r="OZ314" s="17"/>
+      <c r="PA314" s="17"/>
+      <c r="PB314" s="17"/>
+      <c r="PC314" s="17"/>
+      <c r="PD314" s="17"/>
+      <c r="PE314" s="17"/>
+      <c r="PF314" s="17"/>
+      <c r="PG314" s="17"/>
+      <c r="PH314" s="17"/>
+      <c r="PI314" s="17"/>
+      <c r="PJ314" s="17"/>
+      <c r="PK314" s="17"/>
+      <c r="PL314" s="17"/>
+      <c r="PM314" s="17"/>
+      <c r="PN314" s="17"/>
+      <c r="PO314" s="17"/>
+      <c r="PP314" s="17"/>
+      <c r="PQ314" s="17"/>
+      <c r="PR314" s="17"/>
+      <c r="PS314" s="17"/>
+      <c r="PT314" s="17"/>
+      <c r="PU314" s="17"/>
+      <c r="PV314" s="17"/>
+      <c r="PW314" s="17"/>
+      <c r="PX314" s="17"/>
+      <c r="PY314" s="17"/>
+      <c r="PZ314" s="17"/>
+      <c r="QA314" s="17"/>
+      <c r="QB314" s="17"/>
+      <c r="QC314" s="17"/>
+      <c r="QD314" s="17"/>
+      <c r="QE314" s="17"/>
+      <c r="QF314" s="17"/>
+    </row>
     <row r="315" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A315" s="9" t="s">
-        <v>356</v>
+        <v>409</v>
+      </c>
+      <c r="B315" s="9" t="s">
+        <v>354</v>
       </c>
       <c r="D315" s="9" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="I315" s="9" t="s">
         <v>39</v>
       </c>
       <c r="J315" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="316" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -6447,13 +7797,16 @@
     </row>
     <row r="317" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A317" s="9" t="s">
-        <v>357</v>
+        <v>447</v>
       </c>
       <c r="D317" s="9" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="I317" s="9" t="s">
         <v>50</v>
+      </c>
+      <c r="J317" s="9" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="318" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -6906,18 +8259,18 @@
       <c r="QE318" s="17"/>
       <c r="QF318" s="17"/>
     </row>
-    <row r="319" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A319" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="D319" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="I319" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="J319" s="9" t="s">
-        <v>288</v>
+    <row r="319" spans="1:448" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A319" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="D319" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="I319" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J319" s="14" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="320" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -7370,14 +8723,14 @@
       <c r="QE320" s="17"/>
       <c r="QF320" s="17"/>
     </row>
-    <row r="321" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A321" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="D321" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="I321" s="9" t="s">
+    <row r="321" spans="1:448" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A321" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="D321" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="I321" s="14" t="s">
         <v>50</v>
       </c>
     </row>
@@ -7831,21 +9184,18 @@
       <c r="QE322" s="17"/>
       <c r="QF322" s="17"/>
     </row>
-    <row r="323" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A323" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="B323" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="D323" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="I323" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J323" s="9" t="s">
-        <v>288</v>
+    <row r="323" spans="1:448" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A323" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="D323" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="I323" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J323" s="14" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="324" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -8298,15 +9648,18 @@
       <c r="QE324" s="17"/>
       <c r="QF324" s="17"/>
     </row>
-    <row r="325" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A325" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="D325" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="I325" s="9" t="s">
-        <v>50</v>
+    <row r="325" spans="1:448" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A325" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="D325" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="I325" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J325" s="14" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="326" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -8759,1868 +10112,376 @@
       <c r="QE326" s="17"/>
       <c r="QF326" s="17"/>
     </row>
-    <row r="327" spans="1:448" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A327" s="14" t="s">
-        <v>427</v>
-      </c>
-      <c r="D327" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="I327" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="J327" s="14" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="328" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A328" s="17"/>
-      <c r="B328" s="17"/>
-      <c r="C328" s="17"/>
-      <c r="D328" s="17"/>
-      <c r="E328" s="17"/>
-      <c r="F328" s="17"/>
-      <c r="G328" s="17"/>
-      <c r="H328" s="17"/>
-      <c r="I328" s="17"/>
-      <c r="J328" s="17"/>
-      <c r="K328" s="17"/>
-      <c r="L328" s="17"/>
-      <c r="M328" s="17"/>
-      <c r="N328" s="17"/>
-      <c r="O328" s="17"/>
-      <c r="P328" s="17"/>
-      <c r="Q328" s="17"/>
-      <c r="R328" s="17"/>
-      <c r="S328" s="17"/>
-      <c r="T328" s="17"/>
-      <c r="U328" s="17"/>
-      <c r="V328" s="17"/>
-      <c r="W328" s="17"/>
-      <c r="X328" s="17"/>
-      <c r="Y328" s="17"/>
-      <c r="Z328" s="17"/>
-      <c r="AA328" s="17"/>
-      <c r="AB328" s="17"/>
-      <c r="AC328" s="17"/>
-      <c r="AD328" s="17"/>
-      <c r="AE328" s="17"/>
-      <c r="AF328" s="17"/>
-      <c r="AG328" s="17"/>
-      <c r="AH328" s="17"/>
-      <c r="AI328" s="17"/>
-      <c r="AJ328" s="17"/>
-      <c r="AK328" s="17"/>
-      <c r="AL328" s="17"/>
-      <c r="AM328" s="17"/>
-      <c r="AN328" s="17"/>
-      <c r="AO328" s="17"/>
-      <c r="AP328" s="17"/>
-      <c r="AQ328" s="17"/>
-      <c r="AR328" s="17"/>
-      <c r="AS328" s="17"/>
-      <c r="AT328" s="17"/>
-      <c r="AU328" s="17"/>
-      <c r="AV328" s="17"/>
-      <c r="AW328" s="17"/>
-      <c r="AX328" s="17"/>
-      <c r="AY328" s="17"/>
-      <c r="AZ328" s="17"/>
-      <c r="BA328" s="17"/>
-      <c r="BB328" s="17"/>
-      <c r="BC328" s="17"/>
-      <c r="BD328" s="17"/>
-      <c r="BE328" s="17"/>
-      <c r="BF328" s="17"/>
-      <c r="BG328" s="17"/>
-      <c r="BH328" s="17"/>
-      <c r="BI328" s="17"/>
-      <c r="BJ328" s="17"/>
-      <c r="BK328" s="17"/>
-      <c r="BL328" s="17"/>
-      <c r="BM328" s="17"/>
-      <c r="BN328" s="17"/>
-      <c r="BO328" s="17"/>
-      <c r="BP328" s="17"/>
-      <c r="BQ328" s="17"/>
-      <c r="BR328" s="17"/>
-      <c r="BS328" s="17"/>
-      <c r="BT328" s="17"/>
-      <c r="BU328" s="17"/>
-      <c r="BV328" s="17"/>
-      <c r="BW328" s="17"/>
-      <c r="BX328" s="17"/>
-      <c r="BY328" s="17"/>
-      <c r="BZ328" s="17"/>
-      <c r="CA328" s="17"/>
-      <c r="CB328" s="17"/>
-      <c r="CC328" s="17"/>
-      <c r="CD328" s="17"/>
-      <c r="CE328" s="17"/>
-      <c r="CF328" s="17"/>
-      <c r="CG328" s="17"/>
-      <c r="CH328" s="17"/>
-      <c r="CI328" s="17"/>
-      <c r="CJ328" s="17"/>
-      <c r="CK328" s="17"/>
-      <c r="CL328" s="17"/>
-      <c r="CM328" s="17"/>
-      <c r="CN328" s="17"/>
-      <c r="CO328" s="17"/>
-      <c r="CP328" s="17"/>
-      <c r="CQ328" s="17"/>
-      <c r="CR328" s="17"/>
-      <c r="CS328" s="17"/>
-      <c r="CT328" s="17"/>
-      <c r="CU328" s="17"/>
-      <c r="CV328" s="17"/>
-      <c r="CW328" s="17"/>
-      <c r="CX328" s="17"/>
-      <c r="CY328" s="17"/>
-      <c r="CZ328" s="17"/>
-      <c r="DA328" s="17"/>
-      <c r="DB328" s="17"/>
-      <c r="DC328" s="17"/>
-      <c r="DD328" s="17"/>
-      <c r="DE328" s="17"/>
-      <c r="DF328" s="17"/>
-      <c r="DG328" s="17"/>
-      <c r="DH328" s="17"/>
-      <c r="DI328" s="17"/>
-      <c r="DJ328" s="17"/>
-      <c r="DK328" s="17"/>
-      <c r="DL328" s="17"/>
-      <c r="DM328" s="17"/>
-      <c r="DN328" s="17"/>
-      <c r="DO328" s="17"/>
-      <c r="DP328" s="17"/>
-      <c r="DQ328" s="17"/>
-      <c r="DR328" s="17"/>
-      <c r="DS328" s="17"/>
-      <c r="DT328" s="17"/>
-      <c r="DU328" s="17"/>
-      <c r="DV328" s="17"/>
-      <c r="DW328" s="17"/>
-      <c r="DX328" s="17"/>
-      <c r="DY328" s="17"/>
-      <c r="DZ328" s="17"/>
-      <c r="EA328" s="17"/>
-      <c r="EB328" s="17"/>
-      <c r="EC328" s="17"/>
-      <c r="ED328" s="17"/>
-      <c r="EE328" s="17"/>
-      <c r="EF328" s="17"/>
-      <c r="EG328" s="17"/>
-      <c r="EH328" s="17"/>
-      <c r="EI328" s="17"/>
-      <c r="EJ328" s="17"/>
-      <c r="EK328" s="17"/>
-      <c r="EL328" s="17"/>
-      <c r="EM328" s="17"/>
-      <c r="EN328" s="17"/>
-      <c r="EO328" s="17"/>
-      <c r="EP328" s="17"/>
-      <c r="EQ328" s="17"/>
-      <c r="ER328" s="17"/>
-      <c r="ES328" s="17"/>
-      <c r="ET328" s="17"/>
-      <c r="EU328" s="17"/>
-      <c r="EV328" s="17"/>
-      <c r="EW328" s="17"/>
-      <c r="EX328" s="17"/>
-      <c r="EY328" s="17"/>
-      <c r="EZ328" s="17"/>
-      <c r="FA328" s="17"/>
-      <c r="FB328" s="17"/>
-      <c r="FC328" s="17"/>
-      <c r="FD328" s="17"/>
-      <c r="FE328" s="17"/>
-      <c r="FF328" s="17"/>
-      <c r="FG328" s="17"/>
-      <c r="FH328" s="17"/>
-      <c r="FI328" s="17"/>
-      <c r="FJ328" s="17"/>
-      <c r="FK328" s="17"/>
-      <c r="FL328" s="17"/>
-      <c r="FM328" s="17"/>
-      <c r="FN328" s="17"/>
-      <c r="FO328" s="17"/>
-      <c r="FP328" s="17"/>
-      <c r="FQ328" s="17"/>
-      <c r="FR328" s="17"/>
-      <c r="FS328" s="17"/>
-      <c r="FT328" s="17"/>
-      <c r="FU328" s="17"/>
-      <c r="FV328" s="17"/>
-      <c r="FW328" s="17"/>
-      <c r="FX328" s="17"/>
-      <c r="FY328" s="17"/>
-      <c r="FZ328" s="17"/>
-      <c r="GA328" s="17"/>
-      <c r="GB328" s="17"/>
-      <c r="GC328" s="17"/>
-      <c r="GD328" s="17"/>
-      <c r="GE328" s="17"/>
-      <c r="GF328" s="17"/>
-      <c r="GG328" s="17"/>
-      <c r="GH328" s="17"/>
-      <c r="GI328" s="17"/>
-      <c r="GJ328" s="17"/>
-      <c r="GK328" s="17"/>
-      <c r="GL328" s="17"/>
-      <c r="GM328" s="17"/>
-      <c r="GN328" s="17"/>
-      <c r="GO328" s="17"/>
-      <c r="GP328" s="17"/>
-      <c r="GQ328" s="17"/>
-      <c r="GR328" s="17"/>
-      <c r="GS328" s="17"/>
-      <c r="GT328" s="17"/>
-      <c r="GU328" s="17"/>
-      <c r="GV328" s="17"/>
-      <c r="GW328" s="17"/>
-      <c r="GX328" s="17"/>
-      <c r="GY328" s="17"/>
-      <c r="GZ328" s="17"/>
-      <c r="HA328" s="17"/>
-      <c r="HB328" s="17"/>
-      <c r="HC328" s="17"/>
-      <c r="HD328" s="17"/>
-      <c r="HE328" s="17"/>
-      <c r="HF328" s="17"/>
-      <c r="HG328" s="17"/>
-      <c r="HH328" s="17"/>
-      <c r="HI328" s="17"/>
-      <c r="HJ328" s="17"/>
-      <c r="HK328" s="17"/>
-      <c r="HL328" s="17"/>
-      <c r="HM328" s="17"/>
-      <c r="HN328" s="17"/>
-      <c r="HO328" s="17"/>
-      <c r="HP328" s="17"/>
-      <c r="HQ328" s="17"/>
-      <c r="HR328" s="17"/>
-      <c r="HS328" s="17"/>
-      <c r="HT328" s="17"/>
-      <c r="HU328" s="17"/>
-      <c r="HV328" s="17"/>
-      <c r="HW328" s="17"/>
-      <c r="HX328" s="17"/>
-      <c r="HY328" s="17"/>
-      <c r="HZ328" s="17"/>
-      <c r="IA328" s="17"/>
-      <c r="IB328" s="17"/>
-      <c r="IC328" s="17"/>
-      <c r="ID328" s="17"/>
-      <c r="IE328" s="17"/>
-      <c r="IF328" s="17"/>
-      <c r="IG328" s="17"/>
-      <c r="IH328" s="17"/>
-      <c r="II328" s="17"/>
-      <c r="IJ328" s="17"/>
-      <c r="IK328" s="17"/>
-      <c r="IL328" s="17"/>
-      <c r="IM328" s="17"/>
-      <c r="IN328" s="17"/>
-      <c r="IO328" s="17"/>
-      <c r="IP328" s="17"/>
-      <c r="IQ328" s="17"/>
-      <c r="IR328" s="17"/>
-      <c r="IS328" s="17"/>
-      <c r="IT328" s="17"/>
-      <c r="IU328" s="17"/>
-      <c r="IV328" s="17"/>
-      <c r="IW328" s="17"/>
-      <c r="IX328" s="17"/>
-      <c r="IY328" s="17"/>
-      <c r="IZ328" s="17"/>
-      <c r="JA328" s="17"/>
-      <c r="JB328" s="17"/>
-      <c r="JC328" s="17"/>
-      <c r="JD328" s="17"/>
-      <c r="JE328" s="17"/>
-      <c r="JF328" s="17"/>
-      <c r="JG328" s="17"/>
-      <c r="JH328" s="17"/>
-      <c r="JI328" s="17"/>
-      <c r="JJ328" s="17"/>
-      <c r="JK328" s="17"/>
-      <c r="JL328" s="17"/>
-      <c r="JM328" s="17"/>
-      <c r="JN328" s="17"/>
-      <c r="JO328" s="17"/>
-      <c r="JP328" s="17"/>
-      <c r="JQ328" s="17"/>
-      <c r="JR328" s="17"/>
-      <c r="JS328" s="17"/>
-      <c r="JT328" s="17"/>
-      <c r="JU328" s="17"/>
-      <c r="JV328" s="17"/>
-      <c r="JW328" s="17"/>
-      <c r="JX328" s="17"/>
-      <c r="JY328" s="17"/>
-      <c r="JZ328" s="17"/>
-      <c r="KA328" s="17"/>
-      <c r="KB328" s="17"/>
-      <c r="KC328" s="17"/>
-      <c r="KD328" s="17"/>
-      <c r="KE328" s="17"/>
-      <c r="KF328" s="17"/>
-      <c r="KG328" s="17"/>
-      <c r="KH328" s="17"/>
-      <c r="KI328" s="17"/>
-      <c r="KJ328" s="17"/>
-      <c r="KK328" s="17"/>
-      <c r="KL328" s="17"/>
-      <c r="KM328" s="17"/>
-      <c r="KN328" s="17"/>
-      <c r="KO328" s="17"/>
-      <c r="KP328" s="17"/>
-      <c r="KQ328" s="17"/>
-      <c r="KR328" s="17"/>
-      <c r="KS328" s="17"/>
-      <c r="KT328" s="17"/>
-      <c r="KU328" s="17"/>
-      <c r="KV328" s="17"/>
-      <c r="KW328" s="17"/>
-      <c r="KX328" s="17"/>
-      <c r="KY328" s="17"/>
-      <c r="KZ328" s="17"/>
-      <c r="LA328" s="17"/>
-      <c r="LB328" s="17"/>
-      <c r="LC328" s="17"/>
-      <c r="LD328" s="17"/>
-      <c r="LE328" s="17"/>
-      <c r="LF328" s="17"/>
-      <c r="LG328" s="17"/>
-      <c r="LH328" s="17"/>
-      <c r="LI328" s="17"/>
-      <c r="LJ328" s="17"/>
-      <c r="LK328" s="17"/>
-      <c r="LL328" s="17"/>
-      <c r="LM328" s="17"/>
-      <c r="LN328" s="17"/>
-      <c r="LO328" s="17"/>
-      <c r="LP328" s="17"/>
-      <c r="LQ328" s="17"/>
-      <c r="LR328" s="17"/>
-      <c r="LS328" s="17"/>
-      <c r="LT328" s="17"/>
-      <c r="LU328" s="17"/>
-      <c r="LV328" s="17"/>
-      <c r="LW328" s="17"/>
-      <c r="LX328" s="17"/>
-      <c r="LY328" s="17"/>
-      <c r="LZ328" s="17"/>
-      <c r="MA328" s="17"/>
-      <c r="MB328" s="17"/>
-      <c r="MC328" s="17"/>
-      <c r="MD328" s="17"/>
-      <c r="ME328" s="17"/>
-      <c r="MF328" s="17"/>
-      <c r="MG328" s="17"/>
-      <c r="MH328" s="17"/>
-      <c r="MI328" s="17"/>
-      <c r="MJ328" s="17"/>
-      <c r="MK328" s="17"/>
-      <c r="ML328" s="17"/>
-      <c r="MM328" s="17"/>
-      <c r="MN328" s="17"/>
-      <c r="MO328" s="17"/>
-      <c r="MP328" s="17"/>
-      <c r="MQ328" s="17"/>
-      <c r="MR328" s="17"/>
-      <c r="MS328" s="17"/>
-      <c r="MT328" s="17"/>
-      <c r="MU328" s="17"/>
-      <c r="MV328" s="17"/>
-      <c r="MW328" s="17"/>
-      <c r="MX328" s="17"/>
-      <c r="MY328" s="17"/>
-      <c r="MZ328" s="17"/>
-      <c r="NA328" s="17"/>
-      <c r="NB328" s="17"/>
-      <c r="NC328" s="17"/>
-      <c r="ND328" s="17"/>
-      <c r="NE328" s="17"/>
-      <c r="NF328" s="17"/>
-      <c r="NG328" s="17"/>
-      <c r="NH328" s="17"/>
-      <c r="NI328" s="17"/>
-      <c r="NJ328" s="17"/>
-      <c r="NK328" s="17"/>
-      <c r="NL328" s="17"/>
-      <c r="NM328" s="17"/>
-      <c r="NN328" s="17"/>
-      <c r="NO328" s="17"/>
-      <c r="NP328" s="17"/>
-      <c r="NQ328" s="17"/>
-      <c r="NR328" s="17"/>
-      <c r="NS328" s="17"/>
-      <c r="NT328" s="17"/>
-      <c r="NU328" s="17"/>
-      <c r="NV328" s="17"/>
-      <c r="NW328" s="17"/>
-      <c r="NX328" s="17"/>
-      <c r="NY328" s="17"/>
-      <c r="NZ328" s="17"/>
-      <c r="OA328" s="17"/>
-      <c r="OB328" s="17"/>
-      <c r="OC328" s="17"/>
-      <c r="OD328" s="17"/>
-      <c r="OE328" s="17"/>
-      <c r="OF328" s="17"/>
-      <c r="OG328" s="17"/>
-      <c r="OH328" s="17"/>
-      <c r="OI328" s="17"/>
-      <c r="OJ328" s="17"/>
-      <c r="OK328" s="17"/>
-      <c r="OL328" s="17"/>
-      <c r="OM328" s="17"/>
-      <c r="ON328" s="17"/>
-      <c r="OO328" s="17"/>
-      <c r="OP328" s="17"/>
-      <c r="OQ328" s="17"/>
-      <c r="OR328" s="17"/>
-      <c r="OS328" s="17"/>
-      <c r="OT328" s="17"/>
-      <c r="OU328" s="17"/>
-      <c r="OV328" s="17"/>
-      <c r="OW328" s="17"/>
-      <c r="OX328" s="17"/>
-      <c r="OY328" s="17"/>
-      <c r="OZ328" s="17"/>
-      <c r="PA328" s="17"/>
-      <c r="PB328" s="17"/>
-      <c r="PC328" s="17"/>
-      <c r="PD328" s="17"/>
-      <c r="PE328" s="17"/>
-      <c r="PF328" s="17"/>
-      <c r="PG328" s="17"/>
-      <c r="PH328" s="17"/>
-      <c r="PI328" s="17"/>
-      <c r="PJ328" s="17"/>
-      <c r="PK328" s="17"/>
-      <c r="PL328" s="17"/>
-      <c r="PM328" s="17"/>
-      <c r="PN328" s="17"/>
-      <c r="PO328" s="17"/>
-      <c r="PP328" s="17"/>
-      <c r="PQ328" s="17"/>
-      <c r="PR328" s="17"/>
-      <c r="PS328" s="17"/>
-      <c r="PT328" s="17"/>
-      <c r="PU328" s="17"/>
-      <c r="PV328" s="17"/>
-      <c r="PW328" s="17"/>
-      <c r="PX328" s="17"/>
-      <c r="PY328" s="17"/>
-      <c r="PZ328" s="17"/>
-      <c r="QA328" s="17"/>
-      <c r="QB328" s="17"/>
-      <c r="QC328" s="17"/>
-      <c r="QD328" s="17"/>
-      <c r="QE328" s="17"/>
-      <c r="QF328" s="17"/>
-    </row>
-    <row r="329" spans="1:448" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A329" s="14" t="s">
-        <v>428</v>
-      </c>
-      <c r="D329" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="I329" s="14" t="s">
+    <row r="327" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="328" spans="1:448" s="23" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A328" s="23" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="329" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="330" spans="1:448" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A330" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="D330" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="I330" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J330" s="14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="331" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A331" s="17"/>
+      <c r="B331" s="17"/>
+      <c r="C331" s="17"/>
+      <c r="D331" s="17"/>
+      <c r="E331" s="17"/>
+      <c r="F331" s="17"/>
+      <c r="G331" s="17"/>
+      <c r="H331" s="17"/>
+      <c r="I331" s="17"/>
+      <c r="J331" s="17"/>
+      <c r="K331" s="17"/>
+      <c r="L331" s="17"/>
+      <c r="M331" s="17"/>
+      <c r="N331" s="17"/>
+      <c r="O331" s="17"/>
+      <c r="P331" s="17"/>
+      <c r="Q331" s="17"/>
+      <c r="R331" s="17"/>
+      <c r="S331" s="17"/>
+      <c r="T331" s="17"/>
+      <c r="U331" s="17"/>
+      <c r="V331" s="17"/>
+      <c r="W331" s="17"/>
+      <c r="X331" s="17"/>
+      <c r="Y331" s="17"/>
+      <c r="Z331" s="17"/>
+      <c r="AA331" s="17"/>
+      <c r="AB331" s="17"/>
+      <c r="AC331" s="17"/>
+      <c r="AD331" s="17"/>
+      <c r="AE331" s="17"/>
+      <c r="AF331" s="17"/>
+      <c r="AG331" s="17"/>
+      <c r="AH331" s="17"/>
+      <c r="AI331" s="17"/>
+      <c r="AJ331" s="17"/>
+      <c r="AK331" s="17"/>
+      <c r="AL331" s="17"/>
+      <c r="AM331" s="17"/>
+      <c r="AN331" s="17"/>
+      <c r="AO331" s="17"/>
+      <c r="AP331" s="17"/>
+      <c r="AQ331" s="17"/>
+      <c r="AR331" s="17"/>
+      <c r="AS331" s="17"/>
+      <c r="AT331" s="17"/>
+      <c r="AU331" s="17"/>
+      <c r="AV331" s="17"/>
+      <c r="AW331" s="17"/>
+      <c r="AX331" s="17"/>
+      <c r="AY331" s="17"/>
+      <c r="AZ331" s="17"/>
+      <c r="BA331" s="17"/>
+      <c r="BB331" s="17"/>
+      <c r="BC331" s="17"/>
+      <c r="BD331" s="17"/>
+      <c r="BE331" s="17"/>
+      <c r="BF331" s="17"/>
+      <c r="BG331" s="17"/>
+      <c r="BH331" s="17"/>
+      <c r="BI331" s="17"/>
+      <c r="BJ331" s="17"/>
+      <c r="BK331" s="17"/>
+      <c r="BL331" s="17"/>
+      <c r="BM331" s="17"/>
+      <c r="BN331" s="17"/>
+      <c r="BO331" s="17"/>
+      <c r="BP331" s="17"/>
+      <c r="BQ331" s="17"/>
+      <c r="BR331" s="17"/>
+      <c r="BS331" s="17"/>
+      <c r="BT331" s="17"/>
+      <c r="BU331" s="17"/>
+      <c r="BV331" s="17"/>
+    </row>
+    <row r="332" spans="1:448" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A332" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="D332" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="I332" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="J329" s="14" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="330" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A330" s="17"/>
-      <c r="B330" s="17"/>
-      <c r="C330" s="17"/>
-      <c r="D330" s="17"/>
-      <c r="E330" s="17"/>
-      <c r="F330" s="17"/>
-      <c r="G330" s="17"/>
-      <c r="H330" s="17"/>
-      <c r="I330" s="17"/>
-      <c r="J330" s="17"/>
-      <c r="K330" s="17"/>
-      <c r="L330" s="17"/>
-      <c r="M330" s="17"/>
-      <c r="N330" s="17"/>
-      <c r="O330" s="17"/>
-      <c r="P330" s="17"/>
-      <c r="Q330" s="17"/>
-      <c r="R330" s="17"/>
-      <c r="S330" s="17"/>
-      <c r="T330" s="17"/>
-      <c r="U330" s="17"/>
-      <c r="V330" s="17"/>
-      <c r="W330" s="17"/>
-      <c r="X330" s="17"/>
-      <c r="Y330" s="17"/>
-      <c r="Z330" s="17"/>
-      <c r="AA330" s="17"/>
-      <c r="AB330" s="17"/>
-      <c r="AC330" s="17"/>
-      <c r="AD330" s="17"/>
-      <c r="AE330" s="17"/>
-      <c r="AF330" s="17"/>
-      <c r="AG330" s="17"/>
-      <c r="AH330" s="17"/>
-      <c r="AI330" s="17"/>
-      <c r="AJ330" s="17"/>
-      <c r="AK330" s="17"/>
-      <c r="AL330" s="17"/>
-      <c r="AM330" s="17"/>
-      <c r="AN330" s="17"/>
-      <c r="AO330" s="17"/>
-      <c r="AP330" s="17"/>
-      <c r="AQ330" s="17"/>
-      <c r="AR330" s="17"/>
-      <c r="AS330" s="17"/>
-      <c r="AT330" s="17"/>
-      <c r="AU330" s="17"/>
-      <c r="AV330" s="17"/>
-      <c r="AW330" s="17"/>
-      <c r="AX330" s="17"/>
-      <c r="AY330" s="17"/>
-      <c r="AZ330" s="17"/>
-      <c r="BA330" s="17"/>
-      <c r="BB330" s="17"/>
-      <c r="BC330" s="17"/>
-      <c r="BD330" s="17"/>
-      <c r="BE330" s="17"/>
-      <c r="BF330" s="17"/>
-      <c r="BG330" s="17"/>
-      <c r="BH330" s="17"/>
-      <c r="BI330" s="17"/>
-      <c r="BJ330" s="17"/>
-      <c r="BK330" s="17"/>
-      <c r="BL330" s="17"/>
-      <c r="BM330" s="17"/>
-      <c r="BN330" s="17"/>
-      <c r="BO330" s="17"/>
-      <c r="BP330" s="17"/>
-      <c r="BQ330" s="17"/>
-      <c r="BR330" s="17"/>
-      <c r="BS330" s="17"/>
-      <c r="BT330" s="17"/>
-      <c r="BU330" s="17"/>
-      <c r="BV330" s="17"/>
-      <c r="BW330" s="17"/>
-      <c r="BX330" s="17"/>
-      <c r="BY330" s="17"/>
-      <c r="BZ330" s="17"/>
-      <c r="CA330" s="17"/>
-      <c r="CB330" s="17"/>
-      <c r="CC330" s="17"/>
-      <c r="CD330" s="17"/>
-      <c r="CE330" s="17"/>
-      <c r="CF330" s="17"/>
-      <c r="CG330" s="17"/>
-      <c r="CH330" s="17"/>
-      <c r="CI330" s="17"/>
-      <c r="CJ330" s="17"/>
-      <c r="CK330" s="17"/>
-      <c r="CL330" s="17"/>
-      <c r="CM330" s="17"/>
-      <c r="CN330" s="17"/>
-      <c r="CO330" s="17"/>
-      <c r="CP330" s="17"/>
-      <c r="CQ330" s="17"/>
-      <c r="CR330" s="17"/>
-      <c r="CS330" s="17"/>
-      <c r="CT330" s="17"/>
-      <c r="CU330" s="17"/>
-      <c r="CV330" s="17"/>
-      <c r="CW330" s="17"/>
-      <c r="CX330" s="17"/>
-      <c r="CY330" s="17"/>
-      <c r="CZ330" s="17"/>
-      <c r="DA330" s="17"/>
-      <c r="DB330" s="17"/>
-      <c r="DC330" s="17"/>
-      <c r="DD330" s="17"/>
-      <c r="DE330" s="17"/>
-      <c r="DF330" s="17"/>
-      <c r="DG330" s="17"/>
-      <c r="DH330" s="17"/>
-      <c r="DI330" s="17"/>
-      <c r="DJ330" s="17"/>
-      <c r="DK330" s="17"/>
-      <c r="DL330" s="17"/>
-      <c r="DM330" s="17"/>
-      <c r="DN330" s="17"/>
-      <c r="DO330" s="17"/>
-      <c r="DP330" s="17"/>
-      <c r="DQ330" s="17"/>
-      <c r="DR330" s="17"/>
-      <c r="DS330" s="17"/>
-      <c r="DT330" s="17"/>
-      <c r="DU330" s="17"/>
-      <c r="DV330" s="17"/>
-      <c r="DW330" s="17"/>
-      <c r="DX330" s="17"/>
-      <c r="DY330" s="17"/>
-      <c r="DZ330" s="17"/>
-      <c r="EA330" s="17"/>
-      <c r="EB330" s="17"/>
-      <c r="EC330" s="17"/>
-      <c r="ED330" s="17"/>
-      <c r="EE330" s="17"/>
-      <c r="EF330" s="17"/>
-      <c r="EG330" s="17"/>
-      <c r="EH330" s="17"/>
-      <c r="EI330" s="17"/>
-      <c r="EJ330" s="17"/>
-      <c r="EK330" s="17"/>
-      <c r="EL330" s="17"/>
-      <c r="EM330" s="17"/>
-      <c r="EN330" s="17"/>
-      <c r="EO330" s="17"/>
-      <c r="EP330" s="17"/>
-      <c r="EQ330" s="17"/>
-      <c r="ER330" s="17"/>
-      <c r="ES330" s="17"/>
-      <c r="ET330" s="17"/>
-      <c r="EU330" s="17"/>
-      <c r="EV330" s="17"/>
-      <c r="EW330" s="17"/>
-      <c r="EX330" s="17"/>
-      <c r="EY330" s="17"/>
-      <c r="EZ330" s="17"/>
-      <c r="FA330" s="17"/>
-      <c r="FB330" s="17"/>
-      <c r="FC330" s="17"/>
-      <c r="FD330" s="17"/>
-      <c r="FE330" s="17"/>
-      <c r="FF330" s="17"/>
-      <c r="FG330" s="17"/>
-      <c r="FH330" s="17"/>
-      <c r="FI330" s="17"/>
-      <c r="FJ330" s="17"/>
-      <c r="FK330" s="17"/>
-      <c r="FL330" s="17"/>
-      <c r="FM330" s="17"/>
-      <c r="FN330" s="17"/>
-      <c r="FO330" s="17"/>
-      <c r="FP330" s="17"/>
-      <c r="FQ330" s="17"/>
-      <c r="FR330" s="17"/>
-      <c r="FS330" s="17"/>
-      <c r="FT330" s="17"/>
-      <c r="FU330" s="17"/>
-      <c r="FV330" s="17"/>
-      <c r="FW330" s="17"/>
-      <c r="FX330" s="17"/>
-      <c r="FY330" s="17"/>
-      <c r="FZ330" s="17"/>
-      <c r="GA330" s="17"/>
-      <c r="GB330" s="17"/>
-      <c r="GC330" s="17"/>
-      <c r="GD330" s="17"/>
-      <c r="GE330" s="17"/>
-      <c r="GF330" s="17"/>
-      <c r="GG330" s="17"/>
-      <c r="GH330" s="17"/>
-      <c r="GI330" s="17"/>
-      <c r="GJ330" s="17"/>
-      <c r="GK330" s="17"/>
-      <c r="GL330" s="17"/>
-      <c r="GM330" s="17"/>
-      <c r="GN330" s="17"/>
-      <c r="GO330" s="17"/>
-      <c r="GP330" s="17"/>
-      <c r="GQ330" s="17"/>
-      <c r="GR330" s="17"/>
-      <c r="GS330" s="17"/>
-      <c r="GT330" s="17"/>
-      <c r="GU330" s="17"/>
-      <c r="GV330" s="17"/>
-      <c r="GW330" s="17"/>
-      <c r="GX330" s="17"/>
-      <c r="GY330" s="17"/>
-      <c r="GZ330" s="17"/>
-      <c r="HA330" s="17"/>
-      <c r="HB330" s="17"/>
-      <c r="HC330" s="17"/>
-      <c r="HD330" s="17"/>
-      <c r="HE330" s="17"/>
-      <c r="HF330" s="17"/>
-      <c r="HG330" s="17"/>
-      <c r="HH330" s="17"/>
-      <c r="HI330" s="17"/>
-      <c r="HJ330" s="17"/>
-      <c r="HK330" s="17"/>
-      <c r="HL330" s="17"/>
-      <c r="HM330" s="17"/>
-      <c r="HN330" s="17"/>
-      <c r="HO330" s="17"/>
-      <c r="HP330" s="17"/>
-      <c r="HQ330" s="17"/>
-      <c r="HR330" s="17"/>
-      <c r="HS330" s="17"/>
-      <c r="HT330" s="17"/>
-      <c r="HU330" s="17"/>
-      <c r="HV330" s="17"/>
-      <c r="HW330" s="17"/>
-      <c r="HX330" s="17"/>
-      <c r="HY330" s="17"/>
-      <c r="HZ330" s="17"/>
-      <c r="IA330" s="17"/>
-      <c r="IB330" s="17"/>
-      <c r="IC330" s="17"/>
-      <c r="ID330" s="17"/>
-      <c r="IE330" s="17"/>
-      <c r="IF330" s="17"/>
-      <c r="IG330" s="17"/>
-      <c r="IH330" s="17"/>
-      <c r="II330" s="17"/>
-      <c r="IJ330" s="17"/>
-      <c r="IK330" s="17"/>
-      <c r="IL330" s="17"/>
-      <c r="IM330" s="17"/>
-      <c r="IN330" s="17"/>
-      <c r="IO330" s="17"/>
-      <c r="IP330" s="17"/>
-      <c r="IQ330" s="17"/>
-      <c r="IR330" s="17"/>
-      <c r="IS330" s="17"/>
-      <c r="IT330" s="17"/>
-      <c r="IU330" s="17"/>
-      <c r="IV330" s="17"/>
-      <c r="IW330" s="17"/>
-      <c r="IX330" s="17"/>
-      <c r="IY330" s="17"/>
-      <c r="IZ330" s="17"/>
-      <c r="JA330" s="17"/>
-      <c r="JB330" s="17"/>
-      <c r="JC330" s="17"/>
-      <c r="JD330" s="17"/>
-      <c r="JE330" s="17"/>
-      <c r="JF330" s="17"/>
-      <c r="JG330" s="17"/>
-      <c r="JH330" s="17"/>
-      <c r="JI330" s="17"/>
-      <c r="JJ330" s="17"/>
-      <c r="JK330" s="17"/>
-      <c r="JL330" s="17"/>
-      <c r="JM330" s="17"/>
-      <c r="JN330" s="17"/>
-      <c r="JO330" s="17"/>
-      <c r="JP330" s="17"/>
-      <c r="JQ330" s="17"/>
-      <c r="JR330" s="17"/>
-      <c r="JS330" s="17"/>
-      <c r="JT330" s="17"/>
-      <c r="JU330" s="17"/>
-      <c r="JV330" s="17"/>
-      <c r="JW330" s="17"/>
-      <c r="JX330" s="17"/>
-      <c r="JY330" s="17"/>
-      <c r="JZ330" s="17"/>
-      <c r="KA330" s="17"/>
-      <c r="KB330" s="17"/>
-      <c r="KC330" s="17"/>
-      <c r="KD330" s="17"/>
-      <c r="KE330" s="17"/>
-      <c r="KF330" s="17"/>
-      <c r="KG330" s="17"/>
-      <c r="KH330" s="17"/>
-      <c r="KI330" s="17"/>
-      <c r="KJ330" s="17"/>
-      <c r="KK330" s="17"/>
-      <c r="KL330" s="17"/>
-      <c r="KM330" s="17"/>
-      <c r="KN330" s="17"/>
-      <c r="KO330" s="17"/>
-      <c r="KP330" s="17"/>
-      <c r="KQ330" s="17"/>
-      <c r="KR330" s="17"/>
-      <c r="KS330" s="17"/>
-      <c r="KT330" s="17"/>
-      <c r="KU330" s="17"/>
-      <c r="KV330" s="17"/>
-      <c r="KW330" s="17"/>
-      <c r="KX330" s="17"/>
-      <c r="KY330" s="17"/>
-      <c r="KZ330" s="17"/>
-      <c r="LA330" s="17"/>
-      <c r="LB330" s="17"/>
-      <c r="LC330" s="17"/>
-      <c r="LD330" s="17"/>
-      <c r="LE330" s="17"/>
-      <c r="LF330" s="17"/>
-      <c r="LG330" s="17"/>
-      <c r="LH330" s="17"/>
-      <c r="LI330" s="17"/>
-      <c r="LJ330" s="17"/>
-      <c r="LK330" s="17"/>
-      <c r="LL330" s="17"/>
-      <c r="LM330" s="17"/>
-      <c r="LN330" s="17"/>
-      <c r="LO330" s="17"/>
-      <c r="LP330" s="17"/>
-      <c r="LQ330" s="17"/>
-      <c r="LR330" s="17"/>
-      <c r="LS330" s="17"/>
-      <c r="LT330" s="17"/>
-      <c r="LU330" s="17"/>
-      <c r="LV330" s="17"/>
-      <c r="LW330" s="17"/>
-      <c r="LX330" s="17"/>
-      <c r="LY330" s="17"/>
-      <c r="LZ330" s="17"/>
-      <c r="MA330" s="17"/>
-      <c r="MB330" s="17"/>
-      <c r="MC330" s="17"/>
-      <c r="MD330" s="17"/>
-      <c r="ME330" s="17"/>
-      <c r="MF330" s="17"/>
-      <c r="MG330" s="17"/>
-      <c r="MH330" s="17"/>
-      <c r="MI330" s="17"/>
-      <c r="MJ330" s="17"/>
-      <c r="MK330" s="17"/>
-      <c r="ML330" s="17"/>
-      <c r="MM330" s="17"/>
-      <c r="MN330" s="17"/>
-      <c r="MO330" s="17"/>
-      <c r="MP330" s="17"/>
-      <c r="MQ330" s="17"/>
-      <c r="MR330" s="17"/>
-      <c r="MS330" s="17"/>
-      <c r="MT330" s="17"/>
-      <c r="MU330" s="17"/>
-      <c r="MV330" s="17"/>
-      <c r="MW330" s="17"/>
-      <c r="MX330" s="17"/>
-      <c r="MY330" s="17"/>
-      <c r="MZ330" s="17"/>
-      <c r="NA330" s="17"/>
-      <c r="NB330" s="17"/>
-      <c r="NC330" s="17"/>
-      <c r="ND330" s="17"/>
-      <c r="NE330" s="17"/>
-      <c r="NF330" s="17"/>
-      <c r="NG330" s="17"/>
-      <c r="NH330" s="17"/>
-      <c r="NI330" s="17"/>
-      <c r="NJ330" s="17"/>
-      <c r="NK330" s="17"/>
-      <c r="NL330" s="17"/>
-      <c r="NM330" s="17"/>
-      <c r="NN330" s="17"/>
-      <c r="NO330" s="17"/>
-      <c r="NP330" s="17"/>
-      <c r="NQ330" s="17"/>
-      <c r="NR330" s="17"/>
-      <c r="NS330" s="17"/>
-      <c r="NT330" s="17"/>
-      <c r="NU330" s="17"/>
-      <c r="NV330" s="17"/>
-      <c r="NW330" s="17"/>
-      <c r="NX330" s="17"/>
-      <c r="NY330" s="17"/>
-      <c r="NZ330" s="17"/>
-      <c r="OA330" s="17"/>
-      <c r="OB330" s="17"/>
-      <c r="OC330" s="17"/>
-      <c r="OD330" s="17"/>
-      <c r="OE330" s="17"/>
-      <c r="OF330" s="17"/>
-      <c r="OG330" s="17"/>
-      <c r="OH330" s="17"/>
-      <c r="OI330" s="17"/>
-      <c r="OJ330" s="17"/>
-      <c r="OK330" s="17"/>
-      <c r="OL330" s="17"/>
-      <c r="OM330" s="17"/>
-      <c r="ON330" s="17"/>
-      <c r="OO330" s="17"/>
-      <c r="OP330" s="17"/>
-      <c r="OQ330" s="17"/>
-      <c r="OR330" s="17"/>
-      <c r="OS330" s="17"/>
-      <c r="OT330" s="17"/>
-      <c r="OU330" s="17"/>
-      <c r="OV330" s="17"/>
-      <c r="OW330" s="17"/>
-      <c r="OX330" s="17"/>
-      <c r="OY330" s="17"/>
-      <c r="OZ330" s="17"/>
-      <c r="PA330" s="17"/>
-      <c r="PB330" s="17"/>
-      <c r="PC330" s="17"/>
-      <c r="PD330" s="17"/>
-      <c r="PE330" s="17"/>
-      <c r="PF330" s="17"/>
-      <c r="PG330" s="17"/>
-      <c r="PH330" s="17"/>
-      <c r="PI330" s="17"/>
-      <c r="PJ330" s="17"/>
-      <c r="PK330" s="17"/>
-      <c r="PL330" s="17"/>
-      <c r="PM330" s="17"/>
-      <c r="PN330" s="17"/>
-      <c r="PO330" s="17"/>
-      <c r="PP330" s="17"/>
-      <c r="PQ330" s="17"/>
-      <c r="PR330" s="17"/>
-      <c r="PS330" s="17"/>
-      <c r="PT330" s="17"/>
-      <c r="PU330" s="17"/>
-      <c r="PV330" s="17"/>
-      <c r="PW330" s="17"/>
-      <c r="PX330" s="17"/>
-      <c r="PY330" s="17"/>
-      <c r="PZ330" s="17"/>
-      <c r="QA330" s="17"/>
-      <c r="QB330" s="17"/>
-      <c r="QC330" s="17"/>
-      <c r="QD330" s="17"/>
-      <c r="QE330" s="17"/>
-      <c r="QF330" s="17"/>
-    </row>
-    <row r="331" spans="1:448" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A331" s="14" t="s">
-        <v>429</v>
-      </c>
-      <c r="D331" s="14" t="s">
-        <v>431</v>
-      </c>
-      <c r="I331" s="14" t="s">
+    </row>
+    <row r="333" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A333" s="17"/>
+      <c r="B333" s="17"/>
+      <c r="C333" s="17"/>
+      <c r="D333" s="17"/>
+      <c r="E333" s="17"/>
+      <c r="F333" s="17"/>
+      <c r="G333" s="17"/>
+      <c r="H333" s="17"/>
+      <c r="I333" s="17"/>
+      <c r="J333" s="17"/>
+      <c r="K333" s="17"/>
+      <c r="L333" s="17"/>
+      <c r="M333" s="17"/>
+      <c r="N333" s="17"/>
+      <c r="O333" s="17"/>
+      <c r="P333" s="17"/>
+      <c r="Q333" s="17"/>
+      <c r="R333" s="17"/>
+      <c r="S333" s="17"/>
+      <c r="T333" s="17"/>
+      <c r="U333" s="17"/>
+      <c r="V333" s="17"/>
+      <c r="W333" s="17"/>
+      <c r="X333" s="17"/>
+      <c r="Y333" s="17"/>
+      <c r="Z333" s="17"/>
+      <c r="AA333" s="17"/>
+      <c r="AB333" s="17"/>
+      <c r="AC333" s="17"/>
+      <c r="AD333" s="17"/>
+      <c r="AE333" s="17"/>
+      <c r="AF333" s="17"/>
+      <c r="AG333" s="17"/>
+      <c r="AH333" s="17"/>
+      <c r="AI333" s="17"/>
+      <c r="AJ333" s="17"/>
+      <c r="AK333" s="17"/>
+      <c r="AL333" s="17"/>
+      <c r="AM333" s="17"/>
+      <c r="AN333" s="17"/>
+      <c r="AO333" s="17"/>
+      <c r="AP333" s="17"/>
+      <c r="AQ333" s="17"/>
+      <c r="AR333" s="17"/>
+      <c r="AS333" s="17"/>
+      <c r="AT333" s="17"/>
+      <c r="AU333" s="17"/>
+      <c r="AV333" s="17"/>
+      <c r="AW333" s="17"/>
+      <c r="AX333" s="17"/>
+      <c r="AY333" s="17"/>
+      <c r="AZ333" s="17"/>
+      <c r="BA333" s="17"/>
+      <c r="BB333" s="17"/>
+      <c r="BC333" s="17"/>
+      <c r="BD333" s="17"/>
+      <c r="BE333" s="17"/>
+      <c r="BF333" s="17"/>
+      <c r="BG333" s="17"/>
+      <c r="BH333" s="17"/>
+      <c r="BI333" s="17"/>
+      <c r="BJ333" s="17"/>
+      <c r="BK333" s="17"/>
+      <c r="BL333" s="17"/>
+      <c r="BM333" s="17"/>
+      <c r="BN333" s="17"/>
+      <c r="BO333" s="17"/>
+      <c r="BP333" s="17"/>
+      <c r="BQ333" s="17"/>
+      <c r="BR333" s="17"/>
+      <c r="BS333" s="17"/>
+      <c r="BT333" s="17"/>
+      <c r="BU333" s="17"/>
+      <c r="BV333" s="17"/>
+    </row>
+    <row r="334" spans="1:448" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A334" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="D334" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="I334" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="J331" s="14" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="332" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A332" s="17"/>
-      <c r="B332" s="17"/>
-      <c r="C332" s="17"/>
-      <c r="D332" s="17"/>
-      <c r="E332" s="17"/>
-      <c r="F332" s="17"/>
-      <c r="G332" s="17"/>
-      <c r="H332" s="17"/>
-      <c r="I332" s="17"/>
-      <c r="J332" s="17"/>
-      <c r="K332" s="17"/>
-      <c r="L332" s="17"/>
-      <c r="M332" s="17"/>
-      <c r="N332" s="17"/>
-      <c r="O332" s="17"/>
-      <c r="P332" s="17"/>
-      <c r="Q332" s="17"/>
-      <c r="R332" s="17"/>
-      <c r="S332" s="17"/>
-      <c r="T332" s="17"/>
-      <c r="U332" s="17"/>
-      <c r="V332" s="17"/>
-      <c r="W332" s="17"/>
-      <c r="X332" s="17"/>
-      <c r="Y332" s="17"/>
-      <c r="Z332" s="17"/>
-      <c r="AA332" s="17"/>
-      <c r="AB332" s="17"/>
-      <c r="AC332" s="17"/>
-      <c r="AD332" s="17"/>
-      <c r="AE332" s="17"/>
-      <c r="AF332" s="17"/>
-      <c r="AG332" s="17"/>
-      <c r="AH332" s="17"/>
-      <c r="AI332" s="17"/>
-      <c r="AJ332" s="17"/>
-      <c r="AK332" s="17"/>
-      <c r="AL332" s="17"/>
-      <c r="AM332" s="17"/>
-      <c r="AN332" s="17"/>
-      <c r="AO332" s="17"/>
-      <c r="AP332" s="17"/>
-      <c r="AQ332" s="17"/>
-      <c r="AR332" s="17"/>
-      <c r="AS332" s="17"/>
-      <c r="AT332" s="17"/>
-      <c r="AU332" s="17"/>
-      <c r="AV332" s="17"/>
-      <c r="AW332" s="17"/>
-      <c r="AX332" s="17"/>
-      <c r="AY332" s="17"/>
-      <c r="AZ332" s="17"/>
-      <c r="BA332" s="17"/>
-      <c r="BB332" s="17"/>
-      <c r="BC332" s="17"/>
-      <c r="BD332" s="17"/>
-      <c r="BE332" s="17"/>
-      <c r="BF332" s="17"/>
-      <c r="BG332" s="17"/>
-      <c r="BH332" s="17"/>
-      <c r="BI332" s="17"/>
-      <c r="BJ332" s="17"/>
-      <c r="BK332" s="17"/>
-      <c r="BL332" s="17"/>
-      <c r="BM332" s="17"/>
-      <c r="BN332" s="17"/>
-      <c r="BO332" s="17"/>
-      <c r="BP332" s="17"/>
-      <c r="BQ332" s="17"/>
-      <c r="BR332" s="17"/>
-      <c r="BS332" s="17"/>
-      <c r="BT332" s="17"/>
-      <c r="BU332" s="17"/>
-      <c r="BV332" s="17"/>
-      <c r="BW332" s="17"/>
-      <c r="BX332" s="17"/>
-      <c r="BY332" s="17"/>
-      <c r="BZ332" s="17"/>
-      <c r="CA332" s="17"/>
-      <c r="CB332" s="17"/>
-      <c r="CC332" s="17"/>
-      <c r="CD332" s="17"/>
-      <c r="CE332" s="17"/>
-      <c r="CF332" s="17"/>
-      <c r="CG332" s="17"/>
-      <c r="CH332" s="17"/>
-      <c r="CI332" s="17"/>
-      <c r="CJ332" s="17"/>
-      <c r="CK332" s="17"/>
-      <c r="CL332" s="17"/>
-      <c r="CM332" s="17"/>
-      <c r="CN332" s="17"/>
-      <c r="CO332" s="17"/>
-      <c r="CP332" s="17"/>
-      <c r="CQ332" s="17"/>
-      <c r="CR332" s="17"/>
-      <c r="CS332" s="17"/>
-      <c r="CT332" s="17"/>
-      <c r="CU332" s="17"/>
-      <c r="CV332" s="17"/>
-      <c r="CW332" s="17"/>
-      <c r="CX332" s="17"/>
-      <c r="CY332" s="17"/>
-      <c r="CZ332" s="17"/>
-      <c r="DA332" s="17"/>
-      <c r="DB332" s="17"/>
-      <c r="DC332" s="17"/>
-      <c r="DD332" s="17"/>
-      <c r="DE332" s="17"/>
-      <c r="DF332" s="17"/>
-      <c r="DG332" s="17"/>
-      <c r="DH332" s="17"/>
-      <c r="DI332" s="17"/>
-      <c r="DJ332" s="17"/>
-      <c r="DK332" s="17"/>
-      <c r="DL332" s="17"/>
-      <c r="DM332" s="17"/>
-      <c r="DN332" s="17"/>
-      <c r="DO332" s="17"/>
-      <c r="DP332" s="17"/>
-      <c r="DQ332" s="17"/>
-      <c r="DR332" s="17"/>
-      <c r="DS332" s="17"/>
-      <c r="DT332" s="17"/>
-      <c r="DU332" s="17"/>
-      <c r="DV332" s="17"/>
-      <c r="DW332" s="17"/>
-      <c r="DX332" s="17"/>
-      <c r="DY332" s="17"/>
-      <c r="DZ332" s="17"/>
-      <c r="EA332" s="17"/>
-      <c r="EB332" s="17"/>
-      <c r="EC332" s="17"/>
-      <c r="ED332" s="17"/>
-      <c r="EE332" s="17"/>
-      <c r="EF332" s="17"/>
-      <c r="EG332" s="17"/>
-      <c r="EH332" s="17"/>
-      <c r="EI332" s="17"/>
-      <c r="EJ332" s="17"/>
-      <c r="EK332" s="17"/>
-      <c r="EL332" s="17"/>
-      <c r="EM332" s="17"/>
-      <c r="EN332" s="17"/>
-      <c r="EO332" s="17"/>
-      <c r="EP332" s="17"/>
-      <c r="EQ332" s="17"/>
-      <c r="ER332" s="17"/>
-      <c r="ES332" s="17"/>
-      <c r="ET332" s="17"/>
-      <c r="EU332" s="17"/>
-      <c r="EV332" s="17"/>
-      <c r="EW332" s="17"/>
-      <c r="EX332" s="17"/>
-      <c r="EY332" s="17"/>
-      <c r="EZ332" s="17"/>
-      <c r="FA332" s="17"/>
-      <c r="FB332" s="17"/>
-      <c r="FC332" s="17"/>
-      <c r="FD332" s="17"/>
-      <c r="FE332" s="17"/>
-      <c r="FF332" s="17"/>
-      <c r="FG332" s="17"/>
-      <c r="FH332" s="17"/>
-      <c r="FI332" s="17"/>
-      <c r="FJ332" s="17"/>
-      <c r="FK332" s="17"/>
-      <c r="FL332" s="17"/>
-      <c r="FM332" s="17"/>
-      <c r="FN332" s="17"/>
-      <c r="FO332" s="17"/>
-      <c r="FP332" s="17"/>
-      <c r="FQ332" s="17"/>
-      <c r="FR332" s="17"/>
-      <c r="FS332" s="17"/>
-      <c r="FT332" s="17"/>
-      <c r="FU332" s="17"/>
-      <c r="FV332" s="17"/>
-      <c r="FW332" s="17"/>
-      <c r="FX332" s="17"/>
-      <c r="FY332" s="17"/>
-      <c r="FZ332" s="17"/>
-      <c r="GA332" s="17"/>
-      <c r="GB332" s="17"/>
-      <c r="GC332" s="17"/>
-      <c r="GD332" s="17"/>
-      <c r="GE332" s="17"/>
-      <c r="GF332" s="17"/>
-      <c r="GG332" s="17"/>
-      <c r="GH332" s="17"/>
-      <c r="GI332" s="17"/>
-      <c r="GJ332" s="17"/>
-      <c r="GK332" s="17"/>
-      <c r="GL332" s="17"/>
-      <c r="GM332" s="17"/>
-      <c r="GN332" s="17"/>
-      <c r="GO332" s="17"/>
-      <c r="GP332" s="17"/>
-      <c r="GQ332" s="17"/>
-      <c r="GR332" s="17"/>
-      <c r="GS332" s="17"/>
-      <c r="GT332" s="17"/>
-      <c r="GU332" s="17"/>
-      <c r="GV332" s="17"/>
-      <c r="GW332" s="17"/>
-      <c r="GX332" s="17"/>
-      <c r="GY332" s="17"/>
-      <c r="GZ332" s="17"/>
-      <c r="HA332" s="17"/>
-      <c r="HB332" s="17"/>
-      <c r="HC332" s="17"/>
-      <c r="HD332" s="17"/>
-      <c r="HE332" s="17"/>
-      <c r="HF332" s="17"/>
-      <c r="HG332" s="17"/>
-      <c r="HH332" s="17"/>
-      <c r="HI332" s="17"/>
-      <c r="HJ332" s="17"/>
-      <c r="HK332" s="17"/>
-      <c r="HL332" s="17"/>
-      <c r="HM332" s="17"/>
-      <c r="HN332" s="17"/>
-      <c r="HO332" s="17"/>
-      <c r="HP332" s="17"/>
-      <c r="HQ332" s="17"/>
-      <c r="HR332" s="17"/>
-      <c r="HS332" s="17"/>
-      <c r="HT332" s="17"/>
-      <c r="HU332" s="17"/>
-      <c r="HV332" s="17"/>
-      <c r="HW332" s="17"/>
-      <c r="HX332" s="17"/>
-      <c r="HY332" s="17"/>
-      <c r="HZ332" s="17"/>
-      <c r="IA332" s="17"/>
-      <c r="IB332" s="17"/>
-      <c r="IC332" s="17"/>
-      <c r="ID332" s="17"/>
-      <c r="IE332" s="17"/>
-      <c r="IF332" s="17"/>
-      <c r="IG332" s="17"/>
-      <c r="IH332" s="17"/>
-      <c r="II332" s="17"/>
-      <c r="IJ332" s="17"/>
-      <c r="IK332" s="17"/>
-      <c r="IL332" s="17"/>
-      <c r="IM332" s="17"/>
-      <c r="IN332" s="17"/>
-      <c r="IO332" s="17"/>
-      <c r="IP332" s="17"/>
-      <c r="IQ332" s="17"/>
-      <c r="IR332" s="17"/>
-      <c r="IS332" s="17"/>
-      <c r="IT332" s="17"/>
-      <c r="IU332" s="17"/>
-      <c r="IV332" s="17"/>
-      <c r="IW332" s="17"/>
-      <c r="IX332" s="17"/>
-      <c r="IY332" s="17"/>
-      <c r="IZ332" s="17"/>
-      <c r="JA332" s="17"/>
-      <c r="JB332" s="17"/>
-      <c r="JC332" s="17"/>
-      <c r="JD332" s="17"/>
-      <c r="JE332" s="17"/>
-      <c r="JF332" s="17"/>
-      <c r="JG332" s="17"/>
-      <c r="JH332" s="17"/>
-      <c r="JI332" s="17"/>
-      <c r="JJ332" s="17"/>
-      <c r="JK332" s="17"/>
-      <c r="JL332" s="17"/>
-      <c r="JM332" s="17"/>
-      <c r="JN332" s="17"/>
-      <c r="JO332" s="17"/>
-      <c r="JP332" s="17"/>
-      <c r="JQ332" s="17"/>
-      <c r="JR332" s="17"/>
-      <c r="JS332" s="17"/>
-      <c r="JT332" s="17"/>
-      <c r="JU332" s="17"/>
-      <c r="JV332" s="17"/>
-      <c r="JW332" s="17"/>
-      <c r="JX332" s="17"/>
-      <c r="JY332" s="17"/>
-      <c r="JZ332" s="17"/>
-      <c r="KA332" s="17"/>
-      <c r="KB332" s="17"/>
-      <c r="KC332" s="17"/>
-      <c r="KD332" s="17"/>
-      <c r="KE332" s="17"/>
-      <c r="KF332" s="17"/>
-      <c r="KG332" s="17"/>
-      <c r="KH332" s="17"/>
-      <c r="KI332" s="17"/>
-      <c r="KJ332" s="17"/>
-      <c r="KK332" s="17"/>
-      <c r="KL332" s="17"/>
-      <c r="KM332" s="17"/>
-      <c r="KN332" s="17"/>
-      <c r="KO332" s="17"/>
-      <c r="KP332" s="17"/>
-      <c r="KQ332" s="17"/>
-      <c r="KR332" s="17"/>
-      <c r="KS332" s="17"/>
-      <c r="KT332" s="17"/>
-      <c r="KU332" s="17"/>
-      <c r="KV332" s="17"/>
-      <c r="KW332" s="17"/>
-      <c r="KX332" s="17"/>
-      <c r="KY332" s="17"/>
-      <c r="KZ332" s="17"/>
-      <c r="LA332" s="17"/>
-      <c r="LB332" s="17"/>
-      <c r="LC332" s="17"/>
-      <c r="LD332" s="17"/>
-      <c r="LE332" s="17"/>
-      <c r="LF332" s="17"/>
-      <c r="LG332" s="17"/>
-      <c r="LH332" s="17"/>
-      <c r="LI332" s="17"/>
-      <c r="LJ332" s="17"/>
-      <c r="LK332" s="17"/>
-      <c r="LL332" s="17"/>
-      <c r="LM332" s="17"/>
-      <c r="LN332" s="17"/>
-      <c r="LO332" s="17"/>
-      <c r="LP332" s="17"/>
-      <c r="LQ332" s="17"/>
-      <c r="LR332" s="17"/>
-      <c r="LS332" s="17"/>
-      <c r="LT332" s="17"/>
-      <c r="LU332" s="17"/>
-      <c r="LV332" s="17"/>
-      <c r="LW332" s="17"/>
-      <c r="LX332" s="17"/>
-      <c r="LY332" s="17"/>
-      <c r="LZ332" s="17"/>
-      <c r="MA332" s="17"/>
-      <c r="MB332" s="17"/>
-      <c r="MC332" s="17"/>
-      <c r="MD332" s="17"/>
-      <c r="ME332" s="17"/>
-      <c r="MF332" s="17"/>
-      <c r="MG332" s="17"/>
-      <c r="MH332" s="17"/>
-      <c r="MI332" s="17"/>
-      <c r="MJ332" s="17"/>
-      <c r="MK332" s="17"/>
-      <c r="ML332" s="17"/>
-      <c r="MM332" s="17"/>
-      <c r="MN332" s="17"/>
-      <c r="MO332" s="17"/>
-      <c r="MP332" s="17"/>
-      <c r="MQ332" s="17"/>
-      <c r="MR332" s="17"/>
-      <c r="MS332" s="17"/>
-      <c r="MT332" s="17"/>
-      <c r="MU332" s="17"/>
-      <c r="MV332" s="17"/>
-      <c r="MW332" s="17"/>
-      <c r="MX332" s="17"/>
-      <c r="MY332" s="17"/>
-      <c r="MZ332" s="17"/>
-      <c r="NA332" s="17"/>
-      <c r="NB332" s="17"/>
-      <c r="NC332" s="17"/>
-      <c r="ND332" s="17"/>
-      <c r="NE332" s="17"/>
-      <c r="NF332" s="17"/>
-      <c r="NG332" s="17"/>
-      <c r="NH332" s="17"/>
-      <c r="NI332" s="17"/>
-      <c r="NJ332" s="17"/>
-      <c r="NK332" s="17"/>
-      <c r="NL332" s="17"/>
-      <c r="NM332" s="17"/>
-      <c r="NN332" s="17"/>
-      <c r="NO332" s="17"/>
-      <c r="NP332" s="17"/>
-      <c r="NQ332" s="17"/>
-      <c r="NR332" s="17"/>
-      <c r="NS332" s="17"/>
-      <c r="NT332" s="17"/>
-      <c r="NU332" s="17"/>
-      <c r="NV332" s="17"/>
-      <c r="NW332" s="17"/>
-      <c r="NX332" s="17"/>
-      <c r="NY332" s="17"/>
-      <c r="NZ332" s="17"/>
-      <c r="OA332" s="17"/>
-      <c r="OB332" s="17"/>
-      <c r="OC332" s="17"/>
-      <c r="OD332" s="17"/>
-      <c r="OE332" s="17"/>
-      <c r="OF332" s="17"/>
-      <c r="OG332" s="17"/>
-      <c r="OH332" s="17"/>
-      <c r="OI332" s="17"/>
-      <c r="OJ332" s="17"/>
-      <c r="OK332" s="17"/>
-      <c r="OL332" s="17"/>
-      <c r="OM332" s="17"/>
-      <c r="ON332" s="17"/>
-      <c r="OO332" s="17"/>
-      <c r="OP332" s="17"/>
-      <c r="OQ332" s="17"/>
-      <c r="OR332" s="17"/>
-      <c r="OS332" s="17"/>
-      <c r="OT332" s="17"/>
-      <c r="OU332" s="17"/>
-      <c r="OV332" s="17"/>
-      <c r="OW332" s="17"/>
-      <c r="OX332" s="17"/>
-      <c r="OY332" s="17"/>
-      <c r="OZ332" s="17"/>
-      <c r="PA332" s="17"/>
-      <c r="PB332" s="17"/>
-      <c r="PC332" s="17"/>
-      <c r="PD332" s="17"/>
-      <c r="PE332" s="17"/>
-      <c r="PF332" s="17"/>
-      <c r="PG332" s="17"/>
-      <c r="PH332" s="17"/>
-      <c r="PI332" s="17"/>
-      <c r="PJ332" s="17"/>
-      <c r="PK332" s="17"/>
-      <c r="PL332" s="17"/>
-      <c r="PM332" s="17"/>
-      <c r="PN332" s="17"/>
-      <c r="PO332" s="17"/>
-      <c r="PP332" s="17"/>
-      <c r="PQ332" s="17"/>
-      <c r="PR332" s="17"/>
-      <c r="PS332" s="17"/>
-      <c r="PT332" s="17"/>
-      <c r="PU332" s="17"/>
-      <c r="PV332" s="17"/>
-      <c r="PW332" s="17"/>
-      <c r="PX332" s="17"/>
-      <c r="PY332" s="17"/>
-      <c r="PZ332" s="17"/>
-      <c r="QA332" s="17"/>
-      <c r="QB332" s="17"/>
-      <c r="QC332" s="17"/>
-      <c r="QD332" s="17"/>
-      <c r="QE332" s="17"/>
-      <c r="QF332" s="17"/>
-    </row>
-    <row r="333" spans="1:448" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="334" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A334" s="17"/>
-      <c r="B334" s="17"/>
-      <c r="C334" s="17"/>
-      <c r="D334" s="17"/>
-      <c r="E334" s="17"/>
-      <c r="F334" s="17"/>
-      <c r="G334" s="17"/>
-      <c r="H334" s="17"/>
-      <c r="I334" s="17"/>
-      <c r="J334" s="17"/>
-      <c r="K334" s="17"/>
-      <c r="L334" s="17"/>
-      <c r="M334" s="17"/>
-      <c r="N334" s="17"/>
-      <c r="O334" s="17"/>
-      <c r="P334" s="17"/>
-      <c r="Q334" s="17"/>
-      <c r="R334" s="17"/>
-      <c r="S334" s="17"/>
-      <c r="T334" s="17"/>
-      <c r="U334" s="17"/>
-      <c r="V334" s="17"/>
-      <c r="W334" s="17"/>
-      <c r="X334" s="17"/>
-      <c r="Y334" s="17"/>
-      <c r="Z334" s="17"/>
-      <c r="AA334" s="17"/>
-      <c r="AB334" s="17"/>
-      <c r="AC334" s="17"/>
-      <c r="AD334" s="17"/>
-      <c r="AE334" s="17"/>
-      <c r="AF334" s="17"/>
-      <c r="AG334" s="17"/>
-      <c r="AH334" s="17"/>
-      <c r="AI334" s="17"/>
-      <c r="AJ334" s="17"/>
-      <c r="AK334" s="17"/>
-      <c r="AL334" s="17"/>
-      <c r="AM334" s="17"/>
-      <c r="AN334" s="17"/>
-      <c r="AO334" s="17"/>
-      <c r="AP334" s="17"/>
-      <c r="AQ334" s="17"/>
-      <c r="AR334" s="17"/>
-      <c r="AS334" s="17"/>
-      <c r="AT334" s="17"/>
-      <c r="AU334" s="17"/>
-      <c r="AV334" s="17"/>
-      <c r="AW334" s="17"/>
-      <c r="AX334" s="17"/>
-      <c r="AY334" s="17"/>
-      <c r="AZ334" s="17"/>
-      <c r="BA334" s="17"/>
-      <c r="BB334" s="17"/>
-      <c r="BC334" s="17"/>
-      <c r="BD334" s="17"/>
-      <c r="BE334" s="17"/>
-      <c r="BF334" s="17"/>
-      <c r="BG334" s="17"/>
-      <c r="BH334" s="17"/>
-      <c r="BI334" s="17"/>
-      <c r="BJ334" s="17"/>
-      <c r="BK334" s="17"/>
-      <c r="BL334" s="17"/>
-      <c r="BM334" s="17"/>
-      <c r="BN334" s="17"/>
-      <c r="BO334" s="17"/>
-      <c r="BP334" s="17"/>
-      <c r="BQ334" s="17"/>
-      <c r="BR334" s="17"/>
-      <c r="BS334" s="17"/>
-      <c r="BT334" s="17"/>
-      <c r="BU334" s="17"/>
-      <c r="BV334" s="17"/>
-      <c r="BW334" s="17"/>
-      <c r="BX334" s="17"/>
-      <c r="BY334" s="17"/>
-      <c r="BZ334" s="17"/>
-      <c r="CA334" s="17"/>
-      <c r="CB334" s="17"/>
-      <c r="CC334" s="17"/>
-      <c r="CD334" s="17"/>
-      <c r="CE334" s="17"/>
-      <c r="CF334" s="17"/>
-      <c r="CG334" s="17"/>
-      <c r="CH334" s="17"/>
-      <c r="CI334" s="17"/>
-      <c r="CJ334" s="17"/>
-      <c r="CK334" s="17"/>
-      <c r="CL334" s="17"/>
-      <c r="CM334" s="17"/>
-      <c r="CN334" s="17"/>
-      <c r="CO334" s="17"/>
-      <c r="CP334" s="17"/>
-      <c r="CQ334" s="17"/>
-      <c r="CR334" s="17"/>
-      <c r="CS334" s="17"/>
-      <c r="CT334" s="17"/>
-      <c r="CU334" s="17"/>
-      <c r="CV334" s="17"/>
-      <c r="CW334" s="17"/>
-      <c r="CX334" s="17"/>
-      <c r="CY334" s="17"/>
-      <c r="CZ334" s="17"/>
-      <c r="DA334" s="17"/>
-      <c r="DB334" s="17"/>
-      <c r="DC334" s="17"/>
-      <c r="DD334" s="17"/>
-      <c r="DE334" s="17"/>
-      <c r="DF334" s="17"/>
-      <c r="DG334" s="17"/>
-      <c r="DH334" s="17"/>
-      <c r="DI334" s="17"/>
-      <c r="DJ334" s="17"/>
-      <c r="DK334" s="17"/>
-      <c r="DL334" s="17"/>
-      <c r="DM334" s="17"/>
-      <c r="DN334" s="17"/>
-      <c r="DO334" s="17"/>
-      <c r="DP334" s="17"/>
-      <c r="DQ334" s="17"/>
-      <c r="DR334" s="17"/>
-      <c r="DS334" s="17"/>
-      <c r="DT334" s="17"/>
-      <c r="DU334" s="17"/>
-      <c r="DV334" s="17"/>
-      <c r="DW334" s="17"/>
-      <c r="DX334" s="17"/>
-      <c r="DY334" s="17"/>
-      <c r="DZ334" s="17"/>
-      <c r="EA334" s="17"/>
-      <c r="EB334" s="17"/>
-      <c r="EC334" s="17"/>
-      <c r="ED334" s="17"/>
-      <c r="EE334" s="17"/>
-      <c r="EF334" s="17"/>
-      <c r="EG334" s="17"/>
-      <c r="EH334" s="17"/>
-      <c r="EI334" s="17"/>
-      <c r="EJ334" s="17"/>
-      <c r="EK334" s="17"/>
-      <c r="EL334" s="17"/>
-      <c r="EM334" s="17"/>
-      <c r="EN334" s="17"/>
-      <c r="EO334" s="17"/>
-      <c r="EP334" s="17"/>
-      <c r="EQ334" s="17"/>
-      <c r="ER334" s="17"/>
-      <c r="ES334" s="17"/>
-      <c r="ET334" s="17"/>
-      <c r="EU334" s="17"/>
-      <c r="EV334" s="17"/>
-      <c r="EW334" s="17"/>
-      <c r="EX334" s="17"/>
-      <c r="EY334" s="17"/>
-      <c r="EZ334" s="17"/>
-      <c r="FA334" s="17"/>
-      <c r="FB334" s="17"/>
-      <c r="FC334" s="17"/>
-      <c r="FD334" s="17"/>
-      <c r="FE334" s="17"/>
-      <c r="FF334" s="17"/>
-      <c r="FG334" s="17"/>
-      <c r="FH334" s="17"/>
-      <c r="FI334" s="17"/>
-      <c r="FJ334" s="17"/>
-      <c r="FK334" s="17"/>
-      <c r="FL334" s="17"/>
-      <c r="FM334" s="17"/>
-      <c r="FN334" s="17"/>
-      <c r="FO334" s="17"/>
-      <c r="FP334" s="17"/>
-      <c r="FQ334" s="17"/>
-      <c r="FR334" s="17"/>
-      <c r="FS334" s="17"/>
-      <c r="FT334" s="17"/>
-      <c r="FU334" s="17"/>
-      <c r="FV334" s="17"/>
-      <c r="FW334" s="17"/>
-      <c r="FX334" s="17"/>
-      <c r="FY334" s="17"/>
-      <c r="FZ334" s="17"/>
-      <c r="GA334" s="17"/>
-      <c r="GB334" s="17"/>
-      <c r="GC334" s="17"/>
-      <c r="GD334" s="17"/>
-      <c r="GE334" s="17"/>
-      <c r="GF334" s="17"/>
-      <c r="GG334" s="17"/>
-      <c r="GH334" s="17"/>
-      <c r="GI334" s="17"/>
-      <c r="GJ334" s="17"/>
-      <c r="GK334" s="17"/>
-      <c r="GL334" s="17"/>
-      <c r="GM334" s="17"/>
-      <c r="GN334" s="17"/>
-      <c r="GO334" s="17"/>
-      <c r="GP334" s="17"/>
-      <c r="GQ334" s="17"/>
-      <c r="GR334" s="17"/>
-      <c r="GS334" s="17"/>
-      <c r="GT334" s="17"/>
-      <c r="GU334" s="17"/>
-      <c r="GV334" s="17"/>
-      <c r="GW334" s="17"/>
-      <c r="GX334" s="17"/>
-      <c r="GY334" s="17"/>
-      <c r="GZ334" s="17"/>
-      <c r="HA334" s="17"/>
-      <c r="HB334" s="17"/>
-      <c r="HC334" s="17"/>
-      <c r="HD334" s="17"/>
-      <c r="HE334" s="17"/>
-      <c r="HF334" s="17"/>
-      <c r="HG334" s="17"/>
-      <c r="HH334" s="17"/>
-      <c r="HI334" s="17"/>
-      <c r="HJ334" s="17"/>
-      <c r="HK334" s="17"/>
-      <c r="HL334" s="17"/>
-      <c r="HM334" s="17"/>
-      <c r="HN334" s="17"/>
-      <c r="HO334" s="17"/>
-      <c r="HP334" s="17"/>
-      <c r="HQ334" s="17"/>
-      <c r="HR334" s="17"/>
-      <c r="HS334" s="17"/>
-      <c r="HT334" s="17"/>
-      <c r="HU334" s="17"/>
-      <c r="HV334" s="17"/>
-      <c r="HW334" s="17"/>
-      <c r="HX334" s="17"/>
-      <c r="HY334" s="17"/>
-      <c r="HZ334" s="17"/>
-      <c r="IA334" s="17"/>
-      <c r="IB334" s="17"/>
-      <c r="IC334" s="17"/>
-      <c r="ID334" s="17"/>
-      <c r="IE334" s="17"/>
-      <c r="IF334" s="17"/>
-      <c r="IG334" s="17"/>
-      <c r="IH334" s="17"/>
-      <c r="II334" s="17"/>
-      <c r="IJ334" s="17"/>
-      <c r="IK334" s="17"/>
-      <c r="IL334" s="17"/>
-      <c r="IM334" s="17"/>
-      <c r="IN334" s="17"/>
-      <c r="IO334" s="17"/>
-      <c r="IP334" s="17"/>
-      <c r="IQ334" s="17"/>
-      <c r="IR334" s="17"/>
-      <c r="IS334" s="17"/>
-      <c r="IT334" s="17"/>
-      <c r="IU334" s="17"/>
-      <c r="IV334" s="17"/>
-      <c r="IW334" s="17"/>
-      <c r="IX334" s="17"/>
-      <c r="IY334" s="17"/>
-      <c r="IZ334" s="17"/>
-      <c r="JA334" s="17"/>
-      <c r="JB334" s="17"/>
-      <c r="JC334" s="17"/>
-      <c r="JD334" s="17"/>
-      <c r="JE334" s="17"/>
-      <c r="JF334" s="17"/>
-      <c r="JG334" s="17"/>
-      <c r="JH334" s="17"/>
-      <c r="JI334" s="17"/>
-      <c r="JJ334" s="17"/>
-      <c r="JK334" s="17"/>
-      <c r="JL334" s="17"/>
-      <c r="JM334" s="17"/>
-      <c r="JN334" s="17"/>
-      <c r="JO334" s="17"/>
-      <c r="JP334" s="17"/>
-      <c r="JQ334" s="17"/>
-      <c r="JR334" s="17"/>
-      <c r="JS334" s="17"/>
-      <c r="JT334" s="17"/>
-      <c r="JU334" s="17"/>
-      <c r="JV334" s="17"/>
-      <c r="JW334" s="17"/>
-      <c r="JX334" s="17"/>
-      <c r="JY334" s="17"/>
-      <c r="JZ334" s="17"/>
-      <c r="KA334" s="17"/>
-      <c r="KB334" s="17"/>
-      <c r="KC334" s="17"/>
-      <c r="KD334" s="17"/>
-      <c r="KE334" s="17"/>
-      <c r="KF334" s="17"/>
-      <c r="KG334" s="17"/>
-      <c r="KH334" s="17"/>
-      <c r="KI334" s="17"/>
-      <c r="KJ334" s="17"/>
-      <c r="KK334" s="17"/>
-      <c r="KL334" s="17"/>
-      <c r="KM334" s="17"/>
-      <c r="KN334" s="17"/>
-      <c r="KO334" s="17"/>
-      <c r="KP334" s="17"/>
-      <c r="KQ334" s="17"/>
-      <c r="KR334" s="17"/>
-      <c r="KS334" s="17"/>
-      <c r="KT334" s="17"/>
-      <c r="KU334" s="17"/>
-      <c r="KV334" s="17"/>
-      <c r="KW334" s="17"/>
-      <c r="KX334" s="17"/>
-      <c r="KY334" s="17"/>
-      <c r="KZ334" s="17"/>
-      <c r="LA334" s="17"/>
-      <c r="LB334" s="17"/>
-      <c r="LC334" s="17"/>
-      <c r="LD334" s="17"/>
-      <c r="LE334" s="17"/>
-      <c r="LF334" s="17"/>
-      <c r="LG334" s="17"/>
-      <c r="LH334" s="17"/>
-      <c r="LI334" s="17"/>
-      <c r="LJ334" s="17"/>
-      <c r="LK334" s="17"/>
-      <c r="LL334" s="17"/>
-      <c r="LM334" s="17"/>
-      <c r="LN334" s="17"/>
-      <c r="LO334" s="17"/>
-      <c r="LP334" s="17"/>
-      <c r="LQ334" s="17"/>
-      <c r="LR334" s="17"/>
-      <c r="LS334" s="17"/>
-      <c r="LT334" s="17"/>
-      <c r="LU334" s="17"/>
-      <c r="LV334" s="17"/>
-      <c r="LW334" s="17"/>
-      <c r="LX334" s="17"/>
-      <c r="LY334" s="17"/>
-      <c r="LZ334" s="17"/>
-      <c r="MA334" s="17"/>
-      <c r="MB334" s="17"/>
-      <c r="MC334" s="17"/>
-      <c r="MD334" s="17"/>
-      <c r="ME334" s="17"/>
-      <c r="MF334" s="17"/>
-      <c r="MG334" s="17"/>
-      <c r="MH334" s="17"/>
-      <c r="MI334" s="17"/>
-      <c r="MJ334" s="17"/>
-      <c r="MK334" s="17"/>
-      <c r="ML334" s="17"/>
-      <c r="MM334" s="17"/>
-      <c r="MN334" s="17"/>
-      <c r="MO334" s="17"/>
-      <c r="MP334" s="17"/>
-      <c r="MQ334" s="17"/>
-      <c r="MR334" s="17"/>
-      <c r="MS334" s="17"/>
-      <c r="MT334" s="17"/>
-      <c r="MU334" s="17"/>
-      <c r="MV334" s="17"/>
-      <c r="MW334" s="17"/>
-      <c r="MX334" s="17"/>
-      <c r="MY334" s="17"/>
-      <c r="MZ334" s="17"/>
-      <c r="NA334" s="17"/>
-      <c r="NB334" s="17"/>
-      <c r="NC334" s="17"/>
-      <c r="ND334" s="17"/>
-      <c r="NE334" s="17"/>
-      <c r="NF334" s="17"/>
-      <c r="NG334" s="17"/>
-      <c r="NH334" s="17"/>
-      <c r="NI334" s="17"/>
-      <c r="NJ334" s="17"/>
-      <c r="NK334" s="17"/>
-      <c r="NL334" s="17"/>
-      <c r="NM334" s="17"/>
-      <c r="NN334" s="17"/>
-      <c r="NO334" s="17"/>
-      <c r="NP334" s="17"/>
-      <c r="NQ334" s="17"/>
-      <c r="NR334" s="17"/>
-      <c r="NS334" s="17"/>
-      <c r="NT334" s="17"/>
-      <c r="NU334" s="17"/>
-      <c r="NV334" s="17"/>
-      <c r="NW334" s="17"/>
-      <c r="NX334" s="17"/>
-      <c r="NY334" s="17"/>
-      <c r="NZ334" s="17"/>
-      <c r="OA334" s="17"/>
-      <c r="OB334" s="17"/>
-      <c r="OC334" s="17"/>
-      <c r="OD334" s="17"/>
-      <c r="OE334" s="17"/>
-      <c r="OF334" s="17"/>
-      <c r="OG334" s="17"/>
-      <c r="OH334" s="17"/>
-      <c r="OI334" s="17"/>
-      <c r="OJ334" s="17"/>
-      <c r="OK334" s="17"/>
-      <c r="OL334" s="17"/>
-      <c r="OM334" s="17"/>
-      <c r="ON334" s="17"/>
-      <c r="OO334" s="17"/>
-      <c r="OP334" s="17"/>
-      <c r="OQ334" s="17"/>
-      <c r="OR334" s="17"/>
-      <c r="OS334" s="17"/>
-      <c r="OT334" s="17"/>
-      <c r="OU334" s="17"/>
-      <c r="OV334" s="17"/>
-      <c r="OW334" s="17"/>
-      <c r="OX334" s="17"/>
-      <c r="OY334" s="17"/>
-      <c r="OZ334" s="17"/>
-      <c r="PA334" s="17"/>
-      <c r="PB334" s="17"/>
-      <c r="PC334" s="17"/>
-      <c r="PD334" s="17"/>
-      <c r="PE334" s="17"/>
-      <c r="PF334" s="17"/>
-      <c r="PG334" s="17"/>
-      <c r="PH334" s="17"/>
-      <c r="PI334" s="17"/>
-      <c r="PJ334" s="17"/>
-      <c r="PK334" s="17"/>
-      <c r="PL334" s="17"/>
-      <c r="PM334" s="17"/>
-      <c r="PN334" s="17"/>
-      <c r="PO334" s="17"/>
-      <c r="PP334" s="17"/>
-      <c r="PQ334" s="17"/>
-      <c r="PR334" s="17"/>
-      <c r="PS334" s="17"/>
-      <c r="PT334" s="17"/>
-      <c r="PU334" s="17"/>
-      <c r="PV334" s="17"/>
-      <c r="PW334" s="17"/>
-      <c r="PX334" s="17"/>
-      <c r="PY334" s="17"/>
-      <c r="PZ334" s="17"/>
-      <c r="QA334" s="17"/>
-      <c r="QB334" s="17"/>
-      <c r="QC334" s="17"/>
-      <c r="QD334" s="17"/>
-      <c r="QE334" s="17"/>
-      <c r="QF334" s="17"/>
-    </row>
-    <row r="335" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="336" spans="1:448" s="23" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A336" s="23" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="337" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="335" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A335" s="17"/>
+      <c r="B335" s="17"/>
+      <c r="C335" s="17"/>
+      <c r="D335" s="17"/>
+      <c r="E335" s="17"/>
+      <c r="F335" s="17"/>
+      <c r="G335" s="17"/>
+      <c r="H335" s="17"/>
+      <c r="I335" s="17"/>
+      <c r="J335" s="17"/>
+      <c r="K335" s="17"/>
+      <c r="L335" s="17"/>
+      <c r="M335" s="17"/>
+      <c r="N335" s="17"/>
+      <c r="O335" s="17"/>
+      <c r="P335" s="17"/>
+      <c r="Q335" s="17"/>
+      <c r="R335" s="17"/>
+      <c r="S335" s="17"/>
+      <c r="T335" s="17"/>
+      <c r="U335" s="17"/>
+      <c r="V335" s="17"/>
+      <c r="W335" s="17"/>
+      <c r="X335" s="17"/>
+      <c r="Y335" s="17"/>
+      <c r="Z335" s="17"/>
+      <c r="AA335" s="17"/>
+      <c r="AB335" s="17"/>
+      <c r="AC335" s="17"/>
+      <c r="AD335" s="17"/>
+      <c r="AE335" s="17"/>
+      <c r="AF335" s="17"/>
+      <c r="AG335" s="17"/>
+      <c r="AH335" s="17"/>
+      <c r="AI335" s="17"/>
+      <c r="AJ335" s="17"/>
+      <c r="AK335" s="17"/>
+      <c r="AL335" s="17"/>
+      <c r="AM335" s="17"/>
+      <c r="AN335" s="17"/>
+      <c r="AO335" s="17"/>
+      <c r="AP335" s="17"/>
+      <c r="AQ335" s="17"/>
+      <c r="AR335" s="17"/>
+      <c r="AS335" s="17"/>
+      <c r="AT335" s="17"/>
+      <c r="AU335" s="17"/>
+      <c r="AV335" s="17"/>
+      <c r="AW335" s="17"/>
+      <c r="AX335" s="17"/>
+      <c r="AY335" s="17"/>
+      <c r="AZ335" s="17"/>
+      <c r="BA335" s="17"/>
+      <c r="BB335" s="17"/>
+      <c r="BC335" s="17"/>
+      <c r="BD335" s="17"/>
+      <c r="BE335" s="17"/>
+      <c r="BF335" s="17"/>
+      <c r="BG335" s="17"/>
+      <c r="BH335" s="17"/>
+      <c r="BI335" s="17"/>
+      <c r="BJ335" s="17"/>
+      <c r="BK335" s="17"/>
+      <c r="BL335" s="17"/>
+      <c r="BM335" s="17"/>
+      <c r="BN335" s="17"/>
+      <c r="BO335" s="17"/>
+      <c r="BP335" s="17"/>
+      <c r="BQ335" s="17"/>
+      <c r="BR335" s="17"/>
+      <c r="BS335" s="17"/>
+      <c r="BT335" s="17"/>
+      <c r="BU335" s="17"/>
+      <c r="BV335" s="17"/>
+    </row>
+    <row r="336" spans="1:448" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A336" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="D336" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="I336" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="337" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A337" s="17"/>
+      <c r="B337" s="17"/>
+      <c r="C337" s="17"/>
+      <c r="D337" s="17"/>
+      <c r="E337" s="17"/>
+      <c r="F337" s="17"/>
+      <c r="G337" s="17"/>
+      <c r="H337" s="17"/>
+      <c r="I337" s="17"/>
+      <c r="J337" s="17"/>
+      <c r="K337" s="17"/>
+      <c r="L337" s="17"/>
+      <c r="M337" s="17"/>
+      <c r="N337" s="17"/>
+      <c r="O337" s="17"/>
+      <c r="P337" s="17"/>
+      <c r="Q337" s="17"/>
+      <c r="R337" s="17"/>
+      <c r="S337" s="17"/>
+      <c r="T337" s="17"/>
+      <c r="U337" s="17"/>
+      <c r="V337" s="17"/>
+      <c r="W337" s="17"/>
+      <c r="X337" s="17"/>
+      <c r="Y337" s="17"/>
+      <c r="Z337" s="17"/>
+      <c r="AA337" s="17"/>
+      <c r="AB337" s="17"/>
+      <c r="AC337" s="17"/>
+      <c r="AD337" s="17"/>
+      <c r="AE337" s="17"/>
+      <c r="AF337" s="17"/>
+      <c r="AG337" s="17"/>
+      <c r="AH337" s="17"/>
+      <c r="AI337" s="17"/>
+      <c r="AJ337" s="17"/>
+      <c r="AK337" s="17"/>
+      <c r="AL337" s="17"/>
+      <c r="AM337" s="17"/>
+      <c r="AN337" s="17"/>
+      <c r="AO337" s="17"/>
+      <c r="AP337" s="17"/>
+      <c r="AQ337" s="17"/>
+      <c r="AR337" s="17"/>
+      <c r="AS337" s="17"/>
+      <c r="AT337" s="17"/>
+      <c r="AU337" s="17"/>
+      <c r="AV337" s="17"/>
+      <c r="AW337" s="17"/>
+      <c r="AX337" s="17"/>
+      <c r="AY337" s="17"/>
+      <c r="AZ337" s="17"/>
+      <c r="BA337" s="17"/>
+      <c r="BB337" s="17"/>
+      <c r="BC337" s="17"/>
+      <c r="BD337" s="17"/>
+      <c r="BE337" s="17"/>
+      <c r="BF337" s="17"/>
+      <c r="BG337" s="17"/>
+      <c r="BH337" s="17"/>
+      <c r="BI337" s="17"/>
+      <c r="BJ337" s="17"/>
+      <c r="BK337" s="17"/>
+      <c r="BL337" s="17"/>
+      <c r="BM337" s="17"/>
+      <c r="BN337" s="17"/>
+      <c r="BO337" s="17"/>
+      <c r="BP337" s="17"/>
+      <c r="BQ337" s="17"/>
+      <c r="BR337" s="17"/>
+      <c r="BS337" s="17"/>
+      <c r="BT337" s="17"/>
+      <c r="BU337" s="17"/>
+      <c r="BV337" s="17"/>
+    </row>
     <row r="338" spans="1:74" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A338" s="14" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D338" s="14" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="I338" s="14" t="s">
         <v>39</v>
       </c>
       <c r="J338" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="339" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -10701,10 +10562,10 @@
     </row>
     <row r="340" spans="1:74" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A340" s="14" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D340" s="14" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="I340" s="14" t="s">
         <v>50</v>
@@ -10788,10 +10649,10 @@
     </row>
     <row r="342" spans="1:74" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A342" s="14" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D342" s="14" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="I342" s="14" t="s">
         <v>50</v>
@@ -10875,10 +10736,10 @@
     </row>
     <row r="344" spans="1:74" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A344" s="14" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D344" s="14" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="I344" s="14" t="s">
         <v>50</v>
@@ -10962,16 +10823,16 @@
     </row>
     <row r="346" spans="1:74" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A346" s="14" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D346" s="14" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="I346" s="14" t="s">
         <v>39</v>
       </c>
       <c r="J346" s="14" t="s">
-        <v>294</v>
+        <v>428</v>
       </c>
     </row>
     <row r="347" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -11050,15 +10911,18 @@
       <c r="BU347" s="17"/>
       <c r="BV347" s="17"/>
     </row>
-    <row r="348" spans="1:74" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A348" s="14" t="s">
-        <v>368</v>
-      </c>
-      <c r="D348" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="I348" s="14" t="s">
-        <v>50</v>
+    <row r="348" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A348" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="D348" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="I348" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J348" s="9" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="349" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -11137,15 +11001,18 @@
       <c r="BU349" s="17"/>
       <c r="BV349" s="17"/>
     </row>
-    <row r="350" spans="1:74" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A350" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="D350" s="14" t="s">
-        <v>405</v>
-      </c>
-      <c r="I350" s="14" t="s">
-        <v>50</v>
+    <row r="350" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A350" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="D350" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="I350" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J350" s="9" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="351" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -11224,14 +11091,17 @@
       <c r="BU351" s="17"/>
       <c r="BV351" s="17"/>
     </row>
-    <row r="352" spans="1:74" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A352" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="D352" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="I352" s="14" t="s">
+    <row r="352" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A352" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="B352" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="D352" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="I352" s="9" t="s">
         <v>50</v>
       </c>
     </row>
@@ -11311,18 +11181,18 @@
       <c r="BU353" s="17"/>
       <c r="BV353" s="17"/>
     </row>
-    <row r="354" spans="1:74" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A354" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="D354" s="14" t="s">
-        <v>407</v>
-      </c>
-      <c r="I354" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="J354" s="14" t="s">
-        <v>437</v>
+    <row r="354" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A354" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="D354" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="I354" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J354" s="9" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="355" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -11403,16 +11273,16 @@
     </row>
     <row r="356" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A356" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D356" s="9" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="I356" s="9" t="s">
         <v>39</v>
       </c>
       <c r="J356" s="9" t="s">
-        <v>437</v>
+        <v>293</v>
       </c>
     </row>
     <row r="357" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -11493,16 +11363,13 @@
     </row>
     <row r="358" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A358" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D358" s="9" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="I358" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J358" s="9" t="s">
-        <v>294</v>
+        <v>50</v>
       </c>
     </row>
     <row r="359" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -11583,13 +11450,10 @@
     </row>
     <row r="360" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A360" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="B360" s="9" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="D360" s="9" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="I360" s="9" t="s">
         <v>50</v>
@@ -11673,16 +11537,13 @@
     </row>
     <row r="362" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A362" s="9" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D362" s="9" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="I362" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J362" s="9" t="s">
-        <v>294</v>
+        <v>50</v>
       </c>
     </row>
     <row r="363" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -11763,16 +11624,13 @@
     </row>
     <row r="364" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A364" s="9" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="D364" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I364" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J364" s="9" t="s">
-        <v>294</v>
+        <v>50</v>
       </c>
     </row>
     <row r="365" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -11853,13 +11711,13 @@
     </row>
     <row r="366" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A366" s="9" t="s">
-        <v>377</v>
+        <v>412</v>
       </c>
       <c r="D366" s="9" t="s">
         <v>413</v>
       </c>
       <c r="I366" s="9" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="367" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -11940,13 +11798,13 @@
     </row>
     <row r="368" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A368" s="9" t="s">
-        <v>345</v>
+        <v>414</v>
       </c>
       <c r="D368" s="9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I368" s="9" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="369" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -12027,13 +11885,13 @@
     </row>
     <row r="370" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A370" s="9" t="s">
-        <v>378</v>
+        <v>416</v>
       </c>
       <c r="D370" s="9" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="I370" s="9" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="371" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -12114,10 +11972,10 @@
     </row>
     <row r="372" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A372" s="9" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D372" s="9" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="I372" s="9" t="s">
         <v>50</v>
@@ -12199,17 +12057,7 @@
       <c r="BU373" s="17"/>
       <c r="BV373" s="17"/>
     </row>
-    <row r="374" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A374" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="D374" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="I374" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
+    <row r="374" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="375" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A375" s="17"/>
       <c r="B375" s="17"/>
@@ -12286,17 +12134,6 @@
       <c r="BU375" s="17"/>
       <c r="BV375" s="17"/>
     </row>
-    <row r="376" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A376" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="D376" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="I376" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
     <row r="377" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A377" s="17"/>
       <c r="B377" s="17"/>
@@ -12373,17 +12210,6 @@
       <c r="BU377" s="17"/>
       <c r="BV377" s="17"/>
     </row>
-    <row r="378" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A378" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="D378" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="I378" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
     <row r="379" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A379" s="17"/>
       <c r="B379" s="17"/>
@@ -12460,17 +12286,6 @@
       <c r="BU379" s="17"/>
       <c r="BV379" s="17"/>
     </row>
-    <row r="380" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A380" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="D380" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="I380" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
     <row r="381" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A381" s="17"/>
       <c r="B381" s="17"/>
@@ -12547,7 +12362,6 @@
       <c r="BU381" s="17"/>
       <c r="BV381" s="17"/>
     </row>
-    <row r="382" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="383" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A383" s="17"/>
       <c r="B383" s="17"/>
@@ -12624,321 +12438,129 @@
       <c r="BU383" s="17"/>
       <c r="BV383" s="17"/>
     </row>
-    <row r="385" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A385" s="17"/>
-      <c r="B385" s="17"/>
-      <c r="C385" s="17"/>
-      <c r="D385" s="17"/>
-      <c r="E385" s="17"/>
-      <c r="F385" s="17"/>
-      <c r="G385" s="17"/>
-      <c r="H385" s="17"/>
-      <c r="I385" s="17"/>
-      <c r="J385" s="17"/>
-      <c r="K385" s="17"/>
-      <c r="L385" s="17"/>
-      <c r="M385" s="17"/>
-      <c r="N385" s="17"/>
-      <c r="O385" s="17"/>
-      <c r="P385" s="17"/>
-      <c r="Q385" s="17"/>
-      <c r="R385" s="17"/>
-      <c r="S385" s="17"/>
-      <c r="T385" s="17"/>
-      <c r="U385" s="17"/>
-      <c r="V385" s="17"/>
-      <c r="W385" s="17"/>
-      <c r="X385" s="17"/>
-      <c r="Y385" s="17"/>
-      <c r="Z385" s="17"/>
-      <c r="AA385" s="17"/>
-      <c r="AB385" s="17"/>
-      <c r="AC385" s="17"/>
-      <c r="AD385" s="17"/>
-      <c r="AE385" s="17"/>
-      <c r="AF385" s="17"/>
-      <c r="AG385" s="17"/>
-      <c r="AH385" s="17"/>
-      <c r="AI385" s="17"/>
-      <c r="AJ385" s="17"/>
-      <c r="AK385" s="17"/>
-      <c r="AL385" s="17"/>
-      <c r="AM385" s="17"/>
-      <c r="AN385" s="17"/>
-      <c r="AO385" s="17"/>
-      <c r="AP385" s="17"/>
-      <c r="AQ385" s="17"/>
-      <c r="AR385" s="17"/>
-      <c r="AS385" s="17"/>
-      <c r="AT385" s="17"/>
-      <c r="AU385" s="17"/>
-      <c r="AV385" s="17"/>
-      <c r="AW385" s="17"/>
-      <c r="AX385" s="17"/>
-      <c r="AY385" s="17"/>
-      <c r="AZ385" s="17"/>
-      <c r="BA385" s="17"/>
-      <c r="BB385" s="17"/>
-      <c r="BC385" s="17"/>
-      <c r="BD385" s="17"/>
-      <c r="BE385" s="17"/>
-      <c r="BF385" s="17"/>
-      <c r="BG385" s="17"/>
-      <c r="BH385" s="17"/>
-      <c r="BI385" s="17"/>
-      <c r="BJ385" s="17"/>
-      <c r="BK385" s="17"/>
-      <c r="BL385" s="17"/>
-      <c r="BM385" s="17"/>
-      <c r="BN385" s="17"/>
-      <c r="BO385" s="17"/>
-      <c r="BP385" s="17"/>
-      <c r="BQ385" s="17"/>
-      <c r="BR385" s="17"/>
-      <c r="BS385" s="17"/>
-      <c r="BT385" s="17"/>
-      <c r="BU385" s="17"/>
-      <c r="BV385" s="17"/>
-    </row>
-    <row r="387" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A387" s="17"/>
-      <c r="B387" s="17"/>
-      <c r="C387" s="17"/>
-      <c r="D387" s="17"/>
-      <c r="E387" s="17"/>
-      <c r="F387" s="17"/>
-      <c r="G387" s="17"/>
-      <c r="H387" s="17"/>
-      <c r="I387" s="17"/>
-      <c r="J387" s="17"/>
-      <c r="K387" s="17"/>
-      <c r="L387" s="17"/>
-      <c r="M387" s="17"/>
-      <c r="N387" s="17"/>
-      <c r="O387" s="17"/>
-      <c r="P387" s="17"/>
-      <c r="Q387" s="17"/>
-      <c r="R387" s="17"/>
-      <c r="S387" s="17"/>
-      <c r="T387" s="17"/>
-      <c r="U387" s="17"/>
-      <c r="V387" s="17"/>
-      <c r="W387" s="17"/>
-      <c r="X387" s="17"/>
-      <c r="Y387" s="17"/>
-      <c r="Z387" s="17"/>
-      <c r="AA387" s="17"/>
-      <c r="AB387" s="17"/>
-      <c r="AC387" s="17"/>
-      <c r="AD387" s="17"/>
-      <c r="AE387" s="17"/>
-      <c r="AF387" s="17"/>
-      <c r="AG387" s="17"/>
-      <c r="AH387" s="17"/>
-      <c r="AI387" s="17"/>
-      <c r="AJ387" s="17"/>
-      <c r="AK387" s="17"/>
-      <c r="AL387" s="17"/>
-      <c r="AM387" s="17"/>
-      <c r="AN387" s="17"/>
-      <c r="AO387" s="17"/>
-      <c r="AP387" s="17"/>
-      <c r="AQ387" s="17"/>
-      <c r="AR387" s="17"/>
-      <c r="AS387" s="17"/>
-      <c r="AT387" s="17"/>
-      <c r="AU387" s="17"/>
-      <c r="AV387" s="17"/>
-      <c r="AW387" s="17"/>
-      <c r="AX387" s="17"/>
-      <c r="AY387" s="17"/>
-      <c r="AZ387" s="17"/>
-      <c r="BA387" s="17"/>
-      <c r="BB387" s="17"/>
-      <c r="BC387" s="17"/>
-      <c r="BD387" s="17"/>
-      <c r="BE387" s="17"/>
-      <c r="BF387" s="17"/>
-      <c r="BG387" s="17"/>
-      <c r="BH387" s="17"/>
-      <c r="BI387" s="17"/>
-      <c r="BJ387" s="17"/>
-      <c r="BK387" s="17"/>
-      <c r="BL387" s="17"/>
-      <c r="BM387" s="17"/>
-      <c r="BN387" s="17"/>
-      <c r="BO387" s="17"/>
-      <c r="BP387" s="17"/>
-      <c r="BQ387" s="17"/>
-      <c r="BR387" s="17"/>
-      <c r="BS387" s="17"/>
-      <c r="BT387" s="17"/>
-      <c r="BU387" s="17"/>
-      <c r="BV387" s="17"/>
-    </row>
-    <row r="389" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A389" s="17"/>
-      <c r="B389" s="17"/>
-      <c r="C389" s="17"/>
-      <c r="D389" s="17"/>
-      <c r="E389" s="17"/>
-      <c r="F389" s="17"/>
-      <c r="G389" s="17"/>
-      <c r="H389" s="17"/>
-      <c r="I389" s="17"/>
-      <c r="J389" s="17"/>
-      <c r="K389" s="17"/>
-      <c r="L389" s="17"/>
-      <c r="M389" s="17"/>
-      <c r="N389" s="17"/>
-      <c r="O389" s="17"/>
-      <c r="P389" s="17"/>
-      <c r="Q389" s="17"/>
-      <c r="R389" s="17"/>
-      <c r="S389" s="17"/>
-      <c r="T389" s="17"/>
-      <c r="U389" s="17"/>
-      <c r="V389" s="17"/>
-      <c r="W389" s="17"/>
-      <c r="X389" s="17"/>
-      <c r="Y389" s="17"/>
-      <c r="Z389" s="17"/>
-      <c r="AA389" s="17"/>
-      <c r="AB389" s="17"/>
-      <c r="AC389" s="17"/>
-      <c r="AD389" s="17"/>
-      <c r="AE389" s="17"/>
-      <c r="AF389" s="17"/>
-      <c r="AG389" s="17"/>
-      <c r="AH389" s="17"/>
-      <c r="AI389" s="17"/>
-      <c r="AJ389" s="17"/>
-      <c r="AK389" s="17"/>
-      <c r="AL389" s="17"/>
-      <c r="AM389" s="17"/>
-      <c r="AN389" s="17"/>
-      <c r="AO389" s="17"/>
-      <c r="AP389" s="17"/>
-      <c r="AQ389" s="17"/>
-      <c r="AR389" s="17"/>
-      <c r="AS389" s="17"/>
-      <c r="AT389" s="17"/>
-      <c r="AU389" s="17"/>
-      <c r="AV389" s="17"/>
-      <c r="AW389" s="17"/>
-      <c r="AX389" s="17"/>
-      <c r="AY389" s="17"/>
-      <c r="AZ389" s="17"/>
-      <c r="BA389" s="17"/>
-      <c r="BB389" s="17"/>
-      <c r="BC389" s="17"/>
-      <c r="BD389" s="17"/>
-      <c r="BE389" s="17"/>
-      <c r="BF389" s="17"/>
-      <c r="BG389" s="17"/>
-      <c r="BH389" s="17"/>
-      <c r="BI389" s="17"/>
-      <c r="BJ389" s="17"/>
-      <c r="BK389" s="17"/>
-      <c r="BL389" s="17"/>
-      <c r="BM389" s="17"/>
-      <c r="BN389" s="17"/>
-      <c r="BO389" s="17"/>
-      <c r="BP389" s="17"/>
-      <c r="BQ389" s="17"/>
-      <c r="BR389" s="17"/>
-      <c r="BS389" s="17"/>
-      <c r="BT389" s="17"/>
-      <c r="BU389" s="17"/>
-      <c r="BV389" s="17"/>
-    </row>
-    <row r="391" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A391" s="17"/>
-      <c r="B391" s="17"/>
-      <c r="C391" s="17"/>
-      <c r="D391" s="17"/>
-      <c r="E391" s="17"/>
-      <c r="F391" s="17"/>
-      <c r="G391" s="17"/>
-      <c r="H391" s="17"/>
-      <c r="I391" s="17"/>
-      <c r="J391" s="17"/>
-      <c r="K391" s="17"/>
-      <c r="L391" s="17"/>
-      <c r="M391" s="17"/>
-      <c r="N391" s="17"/>
-      <c r="O391" s="17"/>
-      <c r="P391" s="17"/>
-      <c r="Q391" s="17"/>
-      <c r="R391" s="17"/>
-      <c r="S391" s="17"/>
-      <c r="T391" s="17"/>
-      <c r="U391" s="17"/>
-      <c r="V391" s="17"/>
-      <c r="W391" s="17"/>
-      <c r="X391" s="17"/>
-      <c r="Y391" s="17"/>
-      <c r="Z391" s="17"/>
-      <c r="AA391" s="17"/>
-      <c r="AB391" s="17"/>
-      <c r="AC391" s="17"/>
-      <c r="AD391" s="17"/>
-      <c r="AE391" s="17"/>
-      <c r="AF391" s="17"/>
-      <c r="AG391" s="17"/>
-      <c r="AH391" s="17"/>
-      <c r="AI391" s="17"/>
-      <c r="AJ391" s="17"/>
-      <c r="AK391" s="17"/>
-      <c r="AL391" s="17"/>
-      <c r="AM391" s="17"/>
-      <c r="AN391" s="17"/>
-      <c r="AO391" s="17"/>
-      <c r="AP391" s="17"/>
-      <c r="AQ391" s="17"/>
-      <c r="AR391" s="17"/>
-      <c r="AS391" s="17"/>
-      <c r="AT391" s="17"/>
-      <c r="AU391" s="17"/>
-      <c r="AV391" s="17"/>
-      <c r="AW391" s="17"/>
-      <c r="AX391" s="17"/>
-      <c r="AY391" s="17"/>
-      <c r="AZ391" s="17"/>
-      <c r="BA391" s="17"/>
-      <c r="BB391" s="17"/>
-      <c r="BC391" s="17"/>
-      <c r="BD391" s="17"/>
-      <c r="BE391" s="17"/>
-      <c r="BF391" s="17"/>
-      <c r="BG391" s="17"/>
-      <c r="BH391" s="17"/>
-      <c r="BI391" s="17"/>
-      <c r="BJ391" s="17"/>
-      <c r="BK391" s="17"/>
-      <c r="BL391" s="17"/>
-      <c r="BM391" s="17"/>
-      <c r="BN391" s="17"/>
-      <c r="BO391" s="17"/>
-      <c r="BP391" s="17"/>
-      <c r="BQ391" s="17"/>
-      <c r="BR391" s="17"/>
-      <c r="BS391" s="17"/>
-      <c r="BT391" s="17"/>
-      <c r="BU391" s="17"/>
-      <c r="BV391" s="17"/>
-    </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A436" s="12"/>
-      <c r="B436" s="12"/>
-      <c r="C436" s="12"/>
-      <c r="D436" s="12"/>
-      <c r="E436" s="12"/>
-      <c r="F436" s="12"/>
-      <c r="G436" s="12"/>
-      <c r="H436" s="12"/>
-      <c r="I436" s="12"/>
-      <c r="J436" s="12"/>
+    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A428" s="12"/>
+      <c r="B428" s="12"/>
+      <c r="C428" s="12"/>
+      <c r="D428" s="12"/>
+      <c r="E428" s="12"/>
+      <c r="F428" s="12"/>
+      <c r="G428" s="12"/>
+      <c r="H428" s="12"/>
+      <c r="I428" s="12"/>
+      <c r="J428" s="12"/>
+      <c r="K428" s="12"/>
+      <c r="L428" s="12"/>
+    </row>
+    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A429" s="12"/>
+      <c r="B429" s="12"/>
+      <c r="C429" s="12"/>
+      <c r="D429" s="12"/>
+      <c r="E429" s="12"/>
+      <c r="F429" s="12"/>
+      <c r="G429" s="12"/>
+      <c r="H429" s="12"/>
+      <c r="I429" s="12"/>
+      <c r="J429" s="12"/>
+      <c r="K429" s="12"/>
+      <c r="L429" s="12"/>
+    </row>
+    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A430" s="12"/>
+      <c r="B430" s="12"/>
+      <c r="C430" s="12"/>
+      <c r="D430" s="12"/>
+      <c r="E430" s="12"/>
+      <c r="F430" s="12"/>
+      <c r="G430" s="12"/>
+      <c r="H430" s="12"/>
+      <c r="I430" s="12"/>
+      <c r="J430" s="12"/>
+      <c r="K430" s="12"/>
+      <c r="L430" s="12"/>
+    </row>
+    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A431" s="12"/>
+      <c r="B431" s="12"/>
+      <c r="C431" s="12"/>
+      <c r="D431" s="12"/>
+      <c r="E431" s="12"/>
+      <c r="F431" s="12"/>
+      <c r="G431" s="12"/>
+      <c r="H431" s="12"/>
+      <c r="I431" s="12"/>
+      <c r="J431" s="12"/>
+      <c r="K431" s="12"/>
+      <c r="L431" s="12"/>
+    </row>
+    <row r="432" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A432" s="14"/>
+      <c r="B432" s="14"/>
+      <c r="C432" s="14"/>
+      <c r="D432" s="14"/>
+      <c r="E432" s="14"/>
+      <c r="F432" s="14"/>
+      <c r="G432" s="14"/>
+      <c r="H432" s="14"/>
+      <c r="I432" s="14"/>
+      <c r="J432" s="14"/>
+      <c r="K432" s="12"/>
+      <c r="L432" s="12"/>
+    </row>
+    <row r="433" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A433" s="14"/>
+      <c r="B433" s="14"/>
+      <c r="C433" s="14"/>
+      <c r="D433" s="14"/>
+      <c r="E433" s="14"/>
+      <c r="F433" s="14"/>
+      <c r="G433" s="14"/>
+      <c r="H433" s="14"/>
+      <c r="I433" s="14"/>
+      <c r="J433" s="14"/>
+      <c r="K433" s="12"/>
+      <c r="L433" s="12"/>
+    </row>
+    <row r="434" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A434" s="14"/>
+      <c r="B434" s="14"/>
+      <c r="C434" s="14"/>
+      <c r="D434" s="14"/>
+      <c r="E434" s="14"/>
+      <c r="F434" s="14"/>
+      <c r="G434" s="14"/>
+      <c r="H434" s="14"/>
+      <c r="I434" s="14"/>
+      <c r="J434" s="14"/>
+      <c r="K434" s="12"/>
+      <c r="L434" s="12"/>
+    </row>
+    <row r="435" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A435" s="14"/>
+      <c r="B435" s="14"/>
+      <c r="C435" s="14"/>
+      <c r="D435" s="14"/>
+      <c r="E435" s="14"/>
+      <c r="F435" s="14"/>
+      <c r="G435" s="14"/>
+      <c r="H435" s="14"/>
+      <c r="I435" s="14"/>
+      <c r="J435" s="14"/>
+      <c r="K435" s="12"/>
+      <c r="L435" s="12"/>
+    </row>
+    <row r="436" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A436" s="14"/>
+      <c r="B436" s="14"/>
+      <c r="C436" s="14"/>
+      <c r="D436" s="14"/>
+      <c r="E436" s="14"/>
+      <c r="F436" s="14"/>
+      <c r="G436" s="14"/>
+      <c r="H436" s="14"/>
+      <c r="I436" s="14"/>
+      <c r="J436" s="14"/>
       <c r="K436" s="12"/>
       <c r="L436" s="12"/>
     </row>
@@ -12984,17 +12606,17 @@
       <c r="K439" s="12"/>
       <c r="L439" s="12"/>
     </row>
-    <row r="440" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A440" s="14"/>
-      <c r="B440" s="14"/>
-      <c r="C440" s="14"/>
-      <c r="D440" s="14"/>
-      <c r="E440" s="14"/>
-      <c r="F440" s="14"/>
-      <c r="G440" s="14"/>
-      <c r="H440" s="14"/>
-      <c r="I440" s="14"/>
-      <c r="J440" s="14"/>
+    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A440" s="12"/>
+      <c r="B440" s="12"/>
+      <c r="C440" s="12"/>
+      <c r="D440" s="12"/>
+      <c r="E440" s="12"/>
+      <c r="F440" s="12"/>
+      <c r="G440" s="12"/>
+      <c r="H440" s="12"/>
+      <c r="I440" s="12"/>
+      <c r="J440" s="12"/>
       <c r="K440" s="12"/>
       <c r="L440" s="12"/>
     </row>
@@ -13054,59 +12676,59 @@
       <c r="K444" s="12"/>
       <c r="L444" s="12"/>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A445" s="12"/>
-      <c r="B445" s="12"/>
-      <c r="C445" s="12"/>
-      <c r="D445" s="12"/>
-      <c r="E445" s="12"/>
-      <c r="F445" s="12"/>
-      <c r="G445" s="12"/>
-      <c r="H445" s="12"/>
-      <c r="I445" s="12"/>
-      <c r="J445" s="12"/>
+    <row r="445" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A445" s="14"/>
+      <c r="B445" s="14"/>
+      <c r="C445" s="14"/>
+      <c r="D445" s="14"/>
+      <c r="E445" s="14"/>
+      <c r="F445" s="14"/>
+      <c r="G445" s="14"/>
+      <c r="H445" s="14"/>
+      <c r="I445" s="14"/>
+      <c r="J445" s="14"/>
       <c r="K445" s="12"/>
       <c r="L445" s="12"/>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A446" s="12"/>
-      <c r="B446" s="12"/>
-      <c r="C446" s="12"/>
-      <c r="D446" s="12"/>
-      <c r="E446" s="12"/>
-      <c r="F446" s="12"/>
-      <c r="G446" s="12"/>
-      <c r="H446" s="12"/>
-      <c r="I446" s="12"/>
-      <c r="J446" s="12"/>
+    <row r="446" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A446" s="14"/>
+      <c r="B446" s="14"/>
+      <c r="C446" s="14"/>
+      <c r="D446" s="14"/>
+      <c r="E446" s="14"/>
+      <c r="F446" s="14"/>
+      <c r="G446" s="14"/>
+      <c r="H446" s="14"/>
+      <c r="I446" s="14"/>
+      <c r="J446" s="14"/>
       <c r="K446" s="12"/>
       <c r="L446" s="12"/>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A447" s="12"/>
-      <c r="B447" s="12"/>
-      <c r="C447" s="12"/>
-      <c r="D447" s="12"/>
-      <c r="E447" s="12"/>
-      <c r="F447" s="12"/>
-      <c r="G447" s="12"/>
-      <c r="H447" s="12"/>
-      <c r="I447" s="12"/>
-      <c r="J447" s="12"/>
+    <row r="447" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A447" s="14"/>
+      <c r="B447" s="14"/>
+      <c r="C447" s="14"/>
+      <c r="D447" s="14"/>
+      <c r="E447" s="14"/>
+      <c r="F447" s="14"/>
+      <c r="G447" s="14"/>
+      <c r="H447" s="14"/>
+      <c r="I447" s="14"/>
+      <c r="J447" s="14"/>
       <c r="K447" s="12"/>
       <c r="L447" s="12"/>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A448" s="12"/>
-      <c r="B448" s="12"/>
-      <c r="C448" s="12"/>
-      <c r="D448" s="12"/>
-      <c r="E448" s="12"/>
-      <c r="F448" s="12"/>
-      <c r="G448" s="12"/>
-      <c r="H448" s="12"/>
-      <c r="I448" s="12"/>
-      <c r="J448" s="12"/>
+    <row r="448" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A448" s="14"/>
+      <c r="B448" s="14"/>
+      <c r="C448" s="14"/>
+      <c r="D448" s="14"/>
+      <c r="E448" s="14"/>
+      <c r="F448" s="14"/>
+      <c r="G448" s="14"/>
+      <c r="H448" s="14"/>
+      <c r="I448" s="14"/>
+      <c r="J448" s="14"/>
       <c r="K448" s="12"/>
       <c r="L448" s="12"/>
     </row>
@@ -13124,45 +12746,45 @@
       <c r="K449" s="12"/>
       <c r="L449" s="12"/>
     </row>
-    <row r="450" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A450" s="14"/>
-      <c r="B450" s="14"/>
-      <c r="C450" s="14"/>
-      <c r="D450" s="14"/>
-      <c r="E450" s="14"/>
-      <c r="F450" s="14"/>
-      <c r="G450" s="14"/>
-      <c r="H450" s="14"/>
-      <c r="I450" s="14"/>
-      <c r="J450" s="14"/>
+    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A450" s="12"/>
+      <c r="B450" s="12"/>
+      <c r="C450" s="12"/>
+      <c r="D450" s="12"/>
+      <c r="E450" s="12"/>
+      <c r="F450" s="12"/>
+      <c r="G450" s="12"/>
+      <c r="H450" s="12"/>
+      <c r="I450" s="12"/>
+      <c r="J450" s="12"/>
       <c r="K450" s="12"/>
       <c r="L450" s="12"/>
     </row>
-    <row r="451" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A451" s="14"/>
-      <c r="B451" s="14"/>
-      <c r="C451" s="14"/>
-      <c r="D451" s="14"/>
-      <c r="E451" s="14"/>
-      <c r="F451" s="14"/>
-      <c r="G451" s="14"/>
-      <c r="H451" s="14"/>
-      <c r="I451" s="14"/>
-      <c r="J451" s="14"/>
+    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A451" s="12"/>
+      <c r="B451" s="12"/>
+      <c r="C451" s="12"/>
+      <c r="D451" s="12"/>
+      <c r="E451" s="12"/>
+      <c r="F451" s="12"/>
+      <c r="G451" s="12"/>
+      <c r="H451" s="12"/>
+      <c r="I451" s="12"/>
+      <c r="J451" s="12"/>
       <c r="K451" s="12"/>
       <c r="L451" s="12"/>
     </row>
-    <row r="452" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A452" s="14"/>
-      <c r="B452" s="14"/>
-      <c r="C452" s="14"/>
-      <c r="D452" s="14"/>
-      <c r="E452" s="14"/>
-      <c r="F452" s="14"/>
-      <c r="G452" s="14"/>
-      <c r="H452" s="14"/>
-      <c r="I452" s="14"/>
-      <c r="J452" s="14"/>
+    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A452" s="12"/>
+      <c r="B452" s="12"/>
+      <c r="C452" s="12"/>
+      <c r="D452" s="12"/>
+      <c r="E452" s="12"/>
+      <c r="F452" s="12"/>
+      <c r="G452" s="12"/>
+      <c r="H452" s="12"/>
+      <c r="I452" s="12"/>
+      <c r="J452" s="12"/>
       <c r="K452" s="12"/>
       <c r="L452" s="12"/>
     </row>
@@ -13236,55 +12858,55 @@
       <c r="K457" s="12"/>
       <c r="L457" s="12"/>
     </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A458" s="12"/>
-      <c r="B458" s="12"/>
-      <c r="C458" s="12"/>
-      <c r="D458" s="12"/>
-      <c r="E458" s="12"/>
-      <c r="F458" s="12"/>
-      <c r="G458" s="12"/>
-      <c r="H458" s="12"/>
-      <c r="I458" s="12"/>
-      <c r="J458" s="12"/>
+    <row r="458" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A458" s="14"/>
+      <c r="B458" s="14"/>
+      <c r="C458" s="14"/>
+      <c r="D458" s="14"/>
+      <c r="E458" s="14"/>
+      <c r="F458" s="14"/>
+      <c r="G458" s="14"/>
+      <c r="H458" s="14"/>
+      <c r="I458" s="14"/>
+      <c r="J458" s="14"/>
       <c r="K458" s="12"/>
       <c r="L458" s="12"/>
     </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A459" s="12"/>
-      <c r="B459" s="12"/>
-      <c r="C459" s="12"/>
-      <c r="D459" s="12"/>
-      <c r="E459" s="12"/>
-      <c r="F459" s="12"/>
-      <c r="G459" s="12"/>
-      <c r="H459" s="12"/>
-      <c r="I459" s="12"/>
-      <c r="J459" s="12"/>
+    <row r="459" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A459" s="14"/>
+      <c r="B459" s="14"/>
+      <c r="C459" s="14"/>
+      <c r="D459" s="14"/>
+      <c r="E459" s="14"/>
+      <c r="F459" s="14"/>
+      <c r="G459" s="14"/>
+      <c r="H459" s="14"/>
+      <c r="I459" s="14"/>
+      <c r="J459" s="14"/>
       <c r="K459" s="12"/>
       <c r="L459" s="12"/>
     </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A460" s="12"/>
       <c r="B460" s="12"/>
       <c r="C460" s="12"/>
       <c r="D460" s="12"/>
       <c r="E460" s="12"/>
       <c r="F460" s="12"/>
-      <c r="G460" s="12"/>
-      <c r="H460" s="12"/>
-      <c r="I460" s="12"/>
-      <c r="J460" s="12"/>
+      <c r="G460" s="14"/>
+      <c r="H460" s="14"/>
+      <c r="I460" s="14"/>
+      <c r="J460" s="14"/>
       <c r="K460" s="12"/>
       <c r="L460" s="12"/>
     </row>
     <row r="461" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A461" s="14"/>
-      <c r="B461" s="14"/>
-      <c r="C461" s="14"/>
-      <c r="D461" s="14"/>
-      <c r="E461" s="14"/>
-      <c r="F461" s="14"/>
+      <c r="A461" s="12"/>
+      <c r="B461" s="12"/>
+      <c r="C461" s="12"/>
+      <c r="D461" s="12"/>
+      <c r="E461" s="12"/>
+      <c r="F461" s="12"/>
       <c r="G461" s="14"/>
       <c r="H461" s="14"/>
       <c r="I461" s="14"/>
@@ -13293,12 +12915,12 @@
       <c r="L461" s="12"/>
     </row>
     <row r="462" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A462" s="14"/>
-      <c r="B462" s="14"/>
-      <c r="C462" s="14"/>
-      <c r="D462" s="14"/>
-      <c r="E462" s="14"/>
-      <c r="F462" s="14"/>
+      <c r="A462" s="12"/>
+      <c r="B462" s="12"/>
+      <c r="C462" s="12"/>
+      <c r="D462" s="12"/>
+      <c r="E462" s="12"/>
+      <c r="F462" s="12"/>
       <c r="G462" s="14"/>
       <c r="H462" s="14"/>
       <c r="I462" s="14"/>
@@ -13306,17 +12928,17 @@
       <c r="K462" s="12"/>
       <c r="L462" s="12"/>
     </row>
-    <row r="463" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A463" s="14"/>
-      <c r="B463" s="14"/>
-      <c r="C463" s="14"/>
-      <c r="D463" s="14"/>
-      <c r="E463" s="14"/>
-      <c r="F463" s="14"/>
-      <c r="G463" s="14"/>
-      <c r="H463" s="14"/>
-      <c r="I463" s="14"/>
-      <c r="J463" s="14"/>
+    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A463" s="12"/>
+      <c r="B463" s="12"/>
+      <c r="C463" s="12"/>
+      <c r="D463" s="12"/>
+      <c r="E463" s="12"/>
+      <c r="F463" s="12"/>
+      <c r="G463" s="12"/>
+      <c r="H463" s="12"/>
+      <c r="I463" s="12"/>
+      <c r="J463" s="12"/>
       <c r="K463" s="12"/>
       <c r="L463" s="12"/>
     </row>
@@ -13348,152 +12970,40 @@
       <c r="K465" s="12"/>
       <c r="L465" s="12"/>
     </row>
-    <row r="466" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A466" s="14"/>
-      <c r="B466" s="14"/>
-      <c r="C466" s="14"/>
-      <c r="D466" s="14"/>
-      <c r="E466" s="14"/>
-      <c r="F466" s="14"/>
-      <c r="G466" s="14"/>
-      <c r="H466" s="14"/>
-      <c r="I466" s="14"/>
-      <c r="J466" s="14"/>
-      <c r="K466" s="12"/>
-      <c r="L466" s="12"/>
-    </row>
-    <row r="467" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A467" s="14"/>
-      <c r="B467" s="14"/>
-      <c r="C467" s="14"/>
-      <c r="D467" s="14"/>
-      <c r="E467" s="14"/>
-      <c r="F467" s="14"/>
-      <c r="G467" s="14"/>
-      <c r="H467" s="14"/>
-      <c r="I467" s="14"/>
-      <c r="J467" s="14"/>
-      <c r="K467" s="12"/>
-      <c r="L467" s="12"/>
-    </row>
-    <row r="468" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A468" s="12"/>
-      <c r="B468" s="12"/>
-      <c r="C468" s="12"/>
-      <c r="D468" s="12"/>
-      <c r="E468" s="12"/>
-      <c r="F468" s="12"/>
-      <c r="G468" s="14"/>
-      <c r="H468" s="14"/>
-      <c r="I468" s="14"/>
-      <c r="J468" s="14"/>
-      <c r="K468" s="12"/>
-      <c r="L468" s="12"/>
-    </row>
-    <row r="469" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A469" s="12"/>
-      <c r="B469" s="12"/>
-      <c r="C469" s="12"/>
-      <c r="D469" s="12"/>
-      <c r="E469" s="12"/>
-      <c r="F469" s="12"/>
-      <c r="G469" s="14"/>
-      <c r="H469" s="14"/>
-      <c r="I469" s="14"/>
-      <c r="J469" s="14"/>
-      <c r="K469" s="12"/>
-      <c r="L469" s="12"/>
-    </row>
-    <row r="470" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A470" s="12"/>
-      <c r="B470" s="12"/>
-      <c r="C470" s="12"/>
-      <c r="D470" s="12"/>
-      <c r="E470" s="12"/>
-      <c r="F470" s="12"/>
-      <c r="G470" s="14"/>
-      <c r="H470" s="14"/>
-      <c r="I470" s="14"/>
-      <c r="J470" s="14"/>
-      <c r="K470" s="12"/>
-      <c r="L470" s="12"/>
-    </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A471" s="12"/>
-      <c r="B471" s="12"/>
-      <c r="C471" s="12"/>
-      <c r="D471" s="12"/>
-      <c r="E471" s="12"/>
-      <c r="F471" s="12"/>
-      <c r="G471" s="12"/>
-      <c r="H471" s="12"/>
-      <c r="I471" s="12"/>
-      <c r="J471" s="12"/>
-      <c r="K471" s="12"/>
-      <c r="L471" s="12"/>
-    </row>
-    <row r="472" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A472" s="14"/>
-      <c r="B472" s="14"/>
-      <c r="C472" s="14"/>
-      <c r="D472" s="14"/>
-      <c r="E472" s="14"/>
-      <c r="F472" s="14"/>
-      <c r="G472" s="14"/>
-      <c r="H472" s="14"/>
-      <c r="I472" s="14"/>
-      <c r="J472" s="14"/>
-      <c r="K472" s="12"/>
-      <c r="L472" s="12"/>
-    </row>
-    <row r="473" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A473" s="14"/>
-      <c r="B473" s="14"/>
-      <c r="C473" s="14"/>
-      <c r="D473" s="14"/>
-      <c r="E473" s="14"/>
-      <c r="F473" s="14"/>
-      <c r="G473" s="14"/>
-      <c r="H473" s="14"/>
-      <c r="I473" s="14"/>
-      <c r="J473" s="14"/>
-      <c r="K473" s="12"/>
-      <c r="L473" s="12"/>
-    </row>
-    <row r="498" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A498" s="9"/>
-      <c r="B498" s="9"/>
-      <c r="C498" s="9"/>
-      <c r="D498" s="9"/>
-      <c r="E498" s="9"/>
-      <c r="F498" s="9"/>
-      <c r="G498" s="9"/>
-      <c r="H498" s="9"/>
-      <c r="I498" s="9"/>
-      <c r="J498" s="9"/>
-    </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A500" t="s">
+    <row r="490" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A490" s="9"/>
+      <c r="B490" s="9"/>
+      <c r="C490" s="9"/>
+      <c r="D490" s="9"/>
+      <c r="E490" s="9"/>
+      <c r="F490" s="9"/>
+      <c r="G490" s="9"/>
+      <c r="H490" s="9"/>
+      <c r="I490" s="9"/>
+      <c r="J490" s="9"/>
+    </row>
+    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A501" t="s">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A502" t="s">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A503" t="s">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A504" t="s">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
         <v>125</v>
       </c>
     </row>

--- a/Documents/AssetList-Planning.xlsx
+++ b/Documents/AssetList-Planning.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enra\Pictures\Orphanage\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deesv_000\Desktop\Orphanage\Orphanage\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="476">
   <si>
     <t>Planning</t>
   </si>
@@ -1122,9 +1122,6 @@
     <t>Shield Block</t>
   </si>
   <si>
-    <t>Minotaures</t>
-  </si>
-  <si>
     <t>Footsteps</t>
   </si>
   <si>
@@ -1221,9 +1218,6 @@
     <t>7S-INT-ShieldBlock</t>
   </si>
   <si>
-    <t>7S-CHAR-Minotaures</t>
-  </si>
-  <si>
     <t>7S-CHAR-Footsteps</t>
   </si>
   <si>
@@ -1402,12 +1396,69 @@
   </si>
   <si>
     <t>CoinGlimmer</t>
+  </si>
+  <si>
+    <t>Minotaur Roar</t>
+  </si>
+  <si>
+    <t>Minotaur Slash</t>
+  </si>
+  <si>
+    <t>Minotaur AxeToGround</t>
+  </si>
+  <si>
+    <t>Minotaur Grunt</t>
+  </si>
+  <si>
+    <t>Minotaur Walk</t>
+  </si>
+  <si>
+    <t>Minotaur Hit</t>
+  </si>
+  <si>
+    <t>Minotaur Death</t>
+  </si>
+  <si>
+    <t>Minotaur Stagger</t>
+  </si>
+  <si>
+    <t>7S-CHAR-MinotaurRoar</t>
+  </si>
+  <si>
+    <t>7S-CHAR-MinotaurATG</t>
+  </si>
+  <si>
+    <t>7S-CHAR-MinotaurSlash</t>
+  </si>
+  <si>
+    <t>7S-CHAR-MinotaurGrunt</t>
+  </si>
+  <si>
+    <t>7S-CHAR-MinotaurWalk</t>
+  </si>
+  <si>
+    <t>7S-CHAR-MinotaurHit</t>
+  </si>
+  <si>
+    <t>7S-CHAR-MinotaurDeath</t>
+  </si>
+  <si>
+    <t>7S-CHAR-MinotaurBChrg</t>
+  </si>
+  <si>
+    <t>7S-CHAR-MinotaurStggr</t>
+  </si>
+  <si>
+    <t>Minotaur Charge Sprint</t>
+  </si>
+  <si>
+    <t>Minotaur Charge Grunt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1947,7 +1998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="U56" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AP76" sqref="AP76"/>
     </sheetView>
   </sheetViews>
@@ -2156,7 +2207,7 @@
       </c>
       <c r="AD7" s="27"/>
       <c r="AE7" s="9" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AK7" s="27"/>
       <c r="AL7" s="9" t="s">
@@ -2311,7 +2362,7 @@
       </c>
       <c r="P18" s="27"/>
       <c r="Q18" s="9" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="W18" s="27"/>
       <c r="X18" s="9" t="s">
@@ -2323,7 +2374,7 @@
       </c>
       <c r="AK18" s="27"/>
       <c r="AL18" s="9" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AR18" s="27"/>
       <c r="AY18" s="27"/>
@@ -2339,15 +2390,15 @@
       <c r="P19" s="27"/>
       <c r="W19" s="27"/>
       <c r="X19" s="9" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AD19" s="27"/>
       <c r="AE19" s="9" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="AK19" s="27"/>
       <c r="AL19" s="9" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AR19" s="27"/>
       <c r="AY19" s="27"/>
@@ -2490,7 +2541,7 @@
       </c>
       <c r="AD29" s="27"/>
       <c r="AE29" s="9" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AK29" s="27"/>
       <c r="AR29" s="27"/>
@@ -2512,7 +2563,7 @@
       </c>
       <c r="P30" s="27"/>
       <c r="Q30" s="9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="W30" s="27"/>
       <c r="X30" s="9" t="s">
@@ -2520,7 +2571,7 @@
       </c>
       <c r="AD30" s="27"/>
       <c r="AE30" s="9" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AK30" s="27"/>
       <c r="AR30" s="27"/>
@@ -2544,7 +2595,7 @@
       </c>
       <c r="AD31" s="27"/>
       <c r="AE31" s="9" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AK31" s="27"/>
       <c r="AR31" s="27"/>
@@ -2662,7 +2713,7 @@
       </c>
       <c r="P40" s="27"/>
       <c r="Q40" s="9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="S40" s="9" t="s">
         <v>344</v>
@@ -2680,11 +2731,11 @@
         <v>100</v>
       </c>
       <c r="AO40" s="9" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AR40" s="27"/>
       <c r="AS40" s="9" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AY40" s="27"/>
       <c r="BF40" s="27"/>
@@ -2837,15 +2888,15 @@
       </c>
       <c r="W51" s="27"/>
       <c r="X51" s="9" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AD51" s="27"/>
       <c r="AE51" s="9" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AK51" s="27"/>
       <c r="AL51" s="9" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="AR51" s="27"/>
       <c r="AY51" s="27"/>
@@ -2868,7 +2919,7 @@
       <c r="W52" s="27"/>
       <c r="AD52" s="27"/>
       <c r="AE52" s="9" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AK52" s="27"/>
       <c r="AR52" s="27"/>
@@ -2883,7 +2934,7 @@
       <c r="W53" s="27"/>
       <c r="AD53" s="27"/>
       <c r="AE53" s="9" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AK53" s="27"/>
       <c r="AR53" s="27"/>
@@ -2999,19 +3050,19 @@
       </c>
       <c r="W62" s="27"/>
       <c r="X62" s="9" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AD62" s="27"/>
       <c r="AE62" s="9" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AK62" s="27"/>
       <c r="AL62" s="9" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AR62" s="27"/>
       <c r="AS62" s="9" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AY62" s="27"/>
       <c r="BF62" s="27"/>
@@ -3026,7 +3077,7 @@
       <c r="AK63" s="27"/>
       <c r="AR63" s="27"/>
       <c r="AS63" s="9" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AY63" s="27"/>
       <c r="BF63" s="27"/>
@@ -3148,32 +3199,32 @@
         <v>339</v>
       </c>
       <c r="S73" s="9" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="T73" s="9" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="W73" s="27"/>
       <c r="X73" s="9" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AA73" s="9" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AD73" s="27"/>
       <c r="AE73" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AH73" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AK73" s="27"/>
       <c r="AL73" s="9" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AR73" s="27"/>
       <c r="AS73" s="9" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AY73" s="27"/>
       <c r="BF73" s="27"/>
@@ -3188,21 +3239,21 @@
       <c r="P74" s="27"/>
       <c r="W74" s="27"/>
       <c r="X74" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AA74" s="9" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AD74" s="27"/>
       <c r="AE74" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="AH74" s="9" t="s">
         <v>431</v>
-      </c>
-      <c r="AH74" s="9" t="s">
-        <v>433</v>
       </c>
       <c r="AK74" s="27"/>
       <c r="AL74" s="9" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="AR74" s="27"/>
       <c r="AS74" s="9" t="s">
@@ -3214,19 +3265,19 @@
     </row>
     <row r="75" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AE75" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AH75" s="9" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="AL75" s="9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AS75" s="9"/>
     </row>
     <row r="76" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AH76" s="9" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AL76" s="9"/>
       <c r="AS76" s="9"/>
@@ -3256,7 +3307,7 @@
       </c>
       <c r="AR84" s="27"/>
       <c r="AS84" s="9" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AY84" s="27"/>
       <c r="BF84" s="27"/>
@@ -3381,10 +3432,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:QF496"/>
+  <dimension ref="A1:QF506"/>
   <sheetViews>
-    <sheetView topLeftCell="A301" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A315" sqref="A315:XFD315"/>
+    <sheetView tabSelected="1" topLeftCell="A335" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A355" sqref="A355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3530,7 +3581,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>20</v>
@@ -5779,7 +5830,7 @@
         <v>340</v>
       </c>
       <c r="D287" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I287" s="9" t="s">
         <v>50</v>
@@ -5794,7 +5845,7 @@
         <v>341</v>
       </c>
       <c r="D289" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I289" s="9" t="s">
         <v>50</v>
@@ -5803,10 +5854,10 @@
     <row r="290" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="291" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A291" s="9" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D291" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I291" s="9" t="s">
         <v>39</v>
@@ -5818,10 +5869,10 @@
     <row r="292" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="293" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A293" s="9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D293" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I293" s="9" t="s">
         <v>39</v>
@@ -5836,7 +5887,7 @@
         <v>343</v>
       </c>
       <c r="D295" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I295" s="9" t="s">
         <v>39</v>
@@ -5851,7 +5902,7 @@
         <v>345</v>
       </c>
       <c r="D297" s="9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I297" s="9" t="s">
         <v>39</v>
@@ -5866,7 +5917,7 @@
         <v>346</v>
       </c>
       <c r="D299" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I299" s="9" t="s">
         <v>39</v>
@@ -5881,7 +5932,7 @@
         <v>347</v>
       </c>
       <c r="D301" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I301" s="9" t="s">
         <v>39</v>
@@ -5899,7 +5950,7 @@
         <v>302</v>
       </c>
       <c r="D303" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I303" s="9" t="s">
         <v>50</v>
@@ -5917,7 +5968,7 @@
         <v>350</v>
       </c>
       <c r="D305" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I305" s="9" t="s">
         <v>50</v>
@@ -5929,7 +5980,7 @@
         <v>355</v>
       </c>
       <c r="D307" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I307" s="9" t="s">
         <v>50</v>
@@ -5941,7 +5992,7 @@
         <v>351</v>
       </c>
       <c r="D309" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I309" s="9" t="s">
         <v>39</v>
@@ -6405,7 +6456,7 @@
         <v>352</v>
       </c>
       <c r="D311" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I311" s="9" t="s">
         <v>50</v>
@@ -6869,7 +6920,7 @@
         <v>353</v>
       </c>
       <c r="D313" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I313" s="9" t="s">
         <v>50</v>
@@ -7330,13 +7381,13 @@
     </row>
     <row r="315" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A315" s="9" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B315" s="9" t="s">
         <v>354</v>
       </c>
       <c r="D315" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I315" s="9" t="s">
         <v>39</v>
@@ -7797,10 +7848,10 @@
     </row>
     <row r="317" spans="1:448" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A317" s="9" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D317" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I317" s="9" t="s">
         <v>50</v>
@@ -8261,10 +8312,10 @@
     </row>
     <row r="319" spans="1:448" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A319" s="14" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D319" s="14" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I319" s="14" t="s">
         <v>39</v>
@@ -8725,10 +8776,10 @@
     </row>
     <row r="321" spans="1:448" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A321" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D321" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I321" s="14" t="s">
         <v>50</v>
@@ -9186,10 +9237,10 @@
     </row>
     <row r="323" spans="1:448" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A323" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="D323" s="14" t="s">
         <v>420</v>
-      </c>
-      <c r="D323" s="14" t="s">
-        <v>422</v>
       </c>
       <c r="I323" s="14" t="s">
         <v>50</v>
@@ -9650,10 +9701,10 @@
     </row>
     <row r="325" spans="1:448" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A325" s="14" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D325" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="I325" s="14" t="s">
         <v>39</v>
@@ -10124,7 +10175,7 @@
         <v>357</v>
       </c>
       <c r="D330" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I330" s="14" t="s">
         <v>39</v>
@@ -10214,7 +10265,7 @@
         <v>358</v>
       </c>
       <c r="D332" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I332" s="14" t="s">
         <v>50</v>
@@ -10301,7 +10352,7 @@
         <v>359</v>
       </c>
       <c r="D334" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I334" s="14" t="s">
         <v>50</v>
@@ -10388,7 +10439,7 @@
         <v>360</v>
       </c>
       <c r="D336" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I336" s="14" t="s">
         <v>50</v>
@@ -10475,7 +10526,7 @@
         <v>361</v>
       </c>
       <c r="D338" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I338" s="14" t="s">
         <v>39</v>
@@ -10565,7 +10616,7 @@
         <v>362</v>
       </c>
       <c r="D340" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I340" s="14" t="s">
         <v>50</v>
@@ -10652,7 +10703,7 @@
         <v>363</v>
       </c>
       <c r="D342" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I342" s="14" t="s">
         <v>50</v>
@@ -10739,7 +10790,7 @@
         <v>364</v>
       </c>
       <c r="D344" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I344" s="14" t="s">
         <v>50</v>
@@ -10821,25 +10872,95 @@
       <c r="BU345" s="17"/>
       <c r="BV345" s="17"/>
     </row>
-    <row r="346" spans="1:74" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A346" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="D346" s="14" t="s">
-        <v>398</v>
-      </c>
-      <c r="I346" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="J346" s="14" t="s">
-        <v>428</v>
-      </c>
+    <row r="346" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A346" s="17" t="s">
+        <v>459</v>
+      </c>
+      <c r="B346" s="17"/>
+      <c r="C346" s="17"/>
+      <c r="D346" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="E346" s="17"/>
+      <c r="F346" s="17"/>
+      <c r="G346" s="17"/>
+      <c r="H346" s="17"/>
+      <c r="I346" s="17"/>
+      <c r="J346" s="17"/>
+      <c r="K346" s="17"/>
+      <c r="L346" s="17"/>
+      <c r="M346" s="17"/>
+      <c r="N346" s="17"/>
+      <c r="O346" s="17"/>
+      <c r="P346" s="17"/>
+      <c r="Q346" s="17"/>
+      <c r="R346" s="17"/>
+      <c r="S346" s="17"/>
+      <c r="T346" s="17"/>
+      <c r="U346" s="17"/>
+      <c r="V346" s="17"/>
+      <c r="W346" s="17"/>
+      <c r="X346" s="17"/>
+      <c r="Y346" s="17"/>
+      <c r="Z346" s="17"/>
+      <c r="AA346" s="17"/>
+      <c r="AB346" s="17"/>
+      <c r="AC346" s="17"/>
+      <c r="AD346" s="17"/>
+      <c r="AE346" s="17"/>
+      <c r="AF346" s="17"/>
+      <c r="AG346" s="17"/>
+      <c r="AH346" s="17"/>
+      <c r="AI346" s="17"/>
+      <c r="AJ346" s="17"/>
+      <c r="AK346" s="17"/>
+      <c r="AL346" s="17"/>
+      <c r="AM346" s="17"/>
+      <c r="AN346" s="17"/>
+      <c r="AO346" s="17"/>
+      <c r="AP346" s="17"/>
+      <c r="AQ346" s="17"/>
+      <c r="AR346" s="17"/>
+      <c r="AS346" s="17"/>
+      <c r="AT346" s="17"/>
+      <c r="AU346" s="17"/>
+      <c r="AV346" s="17"/>
+      <c r="AW346" s="17"/>
+      <c r="AX346" s="17"/>
+      <c r="AY346" s="17"/>
+      <c r="AZ346" s="17"/>
+      <c r="BA346" s="17"/>
+      <c r="BB346" s="17"/>
+      <c r="BC346" s="17"/>
+      <c r="BD346" s="17"/>
+      <c r="BE346" s="17"/>
+      <c r="BF346" s="17"/>
+      <c r="BG346" s="17"/>
+      <c r="BH346" s="17"/>
+      <c r="BI346" s="17"/>
+      <c r="BJ346" s="17"/>
+      <c r="BK346" s="17"/>
+      <c r="BL346" s="17"/>
+      <c r="BM346" s="17"/>
+      <c r="BN346" s="17"/>
+      <c r="BO346" s="17"/>
+      <c r="BP346" s="17"/>
+      <c r="BQ346" s="17"/>
+      <c r="BR346" s="17"/>
+      <c r="BS346" s="17"/>
+      <c r="BT346" s="17"/>
+      <c r="BU346" s="17"/>
+      <c r="BV346" s="17"/>
     </row>
     <row r="347" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A347" s="17"/>
+      <c r="A347" s="17" t="s">
+        <v>458</v>
+      </c>
       <c r="B347" s="17"/>
       <c r="C347" s="17"/>
-      <c r="D347" s="17"/>
+      <c r="D347" s="17" t="s">
+        <v>467</v>
+      </c>
       <c r="E347" s="17"/>
       <c r="F347" s="17"/>
       <c r="G347" s="17"/>
@@ -10911,380 +11032,74 @@
       <c r="BU347" s="17"/>
       <c r="BV347" s="17"/>
     </row>
-    <row r="348" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A348" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="D348" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="I348" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J348" s="9" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="349" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A349" s="17"/>
-      <c r="B349" s="17"/>
-      <c r="C349" s="17"/>
-      <c r="D349" s="17"/>
-      <c r="E349" s="17"/>
-      <c r="F349" s="17"/>
-      <c r="G349" s="17"/>
-      <c r="H349" s="17"/>
-      <c r="I349" s="17"/>
-      <c r="J349" s="17"/>
-      <c r="K349" s="17"/>
-      <c r="L349" s="17"/>
-      <c r="M349" s="17"/>
-      <c r="N349" s="17"/>
-      <c r="O349" s="17"/>
-      <c r="P349" s="17"/>
-      <c r="Q349" s="17"/>
-      <c r="R349" s="17"/>
-      <c r="S349" s="17"/>
-      <c r="T349" s="17"/>
-      <c r="U349" s="17"/>
-      <c r="V349" s="17"/>
-      <c r="W349" s="17"/>
-      <c r="X349" s="17"/>
-      <c r="Y349" s="17"/>
-      <c r="Z349" s="17"/>
-      <c r="AA349" s="17"/>
-      <c r="AB349" s="17"/>
-      <c r="AC349" s="17"/>
-      <c r="AD349" s="17"/>
-      <c r="AE349" s="17"/>
-      <c r="AF349" s="17"/>
-      <c r="AG349" s="17"/>
-      <c r="AH349" s="17"/>
-      <c r="AI349" s="17"/>
-      <c r="AJ349" s="17"/>
-      <c r="AK349" s="17"/>
-      <c r="AL349" s="17"/>
-      <c r="AM349" s="17"/>
-      <c r="AN349" s="17"/>
-      <c r="AO349" s="17"/>
-      <c r="AP349" s="17"/>
-      <c r="AQ349" s="17"/>
-      <c r="AR349" s="17"/>
-      <c r="AS349" s="17"/>
-      <c r="AT349" s="17"/>
-      <c r="AU349" s="17"/>
-      <c r="AV349" s="17"/>
-      <c r="AW349" s="17"/>
-      <c r="AX349" s="17"/>
-      <c r="AY349" s="17"/>
-      <c r="AZ349" s="17"/>
-      <c r="BA349" s="17"/>
-      <c r="BB349" s="17"/>
-      <c r="BC349" s="17"/>
-      <c r="BD349" s="17"/>
-      <c r="BE349" s="17"/>
-      <c r="BF349" s="17"/>
-      <c r="BG349" s="17"/>
-      <c r="BH349" s="17"/>
-      <c r="BI349" s="17"/>
-      <c r="BJ349" s="17"/>
-      <c r="BK349" s="17"/>
-      <c r="BL349" s="17"/>
-      <c r="BM349" s="17"/>
-      <c r="BN349" s="17"/>
-      <c r="BO349" s="17"/>
-      <c r="BP349" s="17"/>
-      <c r="BQ349" s="17"/>
-      <c r="BR349" s="17"/>
-      <c r="BS349" s="17"/>
-      <c r="BT349" s="17"/>
-      <c r="BU349" s="17"/>
-      <c r="BV349" s="17"/>
-    </row>
-    <row r="350" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A350" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="D350" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="I350" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J350" s="9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="351" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A351" s="17"/>
-      <c r="B351" s="17"/>
-      <c r="C351" s="17"/>
-      <c r="D351" s="17"/>
-      <c r="E351" s="17"/>
-      <c r="F351" s="17"/>
-      <c r="G351" s="17"/>
-      <c r="H351" s="17"/>
-      <c r="I351" s="17"/>
-      <c r="J351" s="17"/>
-      <c r="K351" s="17"/>
-      <c r="L351" s="17"/>
-      <c r="M351" s="17"/>
-      <c r="N351" s="17"/>
-      <c r="O351" s="17"/>
-      <c r="P351" s="17"/>
-      <c r="Q351" s="17"/>
-      <c r="R351" s="17"/>
-      <c r="S351" s="17"/>
-      <c r="T351" s="17"/>
-      <c r="U351" s="17"/>
-      <c r="V351" s="17"/>
-      <c r="W351" s="17"/>
-      <c r="X351" s="17"/>
-      <c r="Y351" s="17"/>
-      <c r="Z351" s="17"/>
-      <c r="AA351" s="17"/>
-      <c r="AB351" s="17"/>
-      <c r="AC351" s="17"/>
-      <c r="AD351" s="17"/>
-      <c r="AE351" s="17"/>
-      <c r="AF351" s="17"/>
-      <c r="AG351" s="17"/>
-      <c r="AH351" s="17"/>
-      <c r="AI351" s="17"/>
-      <c r="AJ351" s="17"/>
-      <c r="AK351" s="17"/>
-      <c r="AL351" s="17"/>
-      <c r="AM351" s="17"/>
-      <c r="AN351" s="17"/>
-      <c r="AO351" s="17"/>
-      <c r="AP351" s="17"/>
-      <c r="AQ351" s="17"/>
-      <c r="AR351" s="17"/>
-      <c r="AS351" s="17"/>
-      <c r="AT351" s="17"/>
-      <c r="AU351" s="17"/>
-      <c r="AV351" s="17"/>
-      <c r="AW351" s="17"/>
-      <c r="AX351" s="17"/>
-      <c r="AY351" s="17"/>
-      <c r="AZ351" s="17"/>
-      <c r="BA351" s="17"/>
-      <c r="BB351" s="17"/>
-      <c r="BC351" s="17"/>
-      <c r="BD351" s="17"/>
-      <c r="BE351" s="17"/>
-      <c r="BF351" s="17"/>
-      <c r="BG351" s="17"/>
-      <c r="BH351" s="17"/>
-      <c r="BI351" s="17"/>
-      <c r="BJ351" s="17"/>
-      <c r="BK351" s="17"/>
-      <c r="BL351" s="17"/>
-      <c r="BM351" s="17"/>
-      <c r="BN351" s="17"/>
-      <c r="BO351" s="17"/>
-      <c r="BP351" s="17"/>
-      <c r="BQ351" s="17"/>
-      <c r="BR351" s="17"/>
-      <c r="BS351" s="17"/>
-      <c r="BT351" s="17"/>
-      <c r="BU351" s="17"/>
-      <c r="BV351" s="17"/>
-    </row>
-    <row r="352" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A352" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="B352" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="D352" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="I352" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="353" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A353" s="17"/>
-      <c r="B353" s="17"/>
-      <c r="C353" s="17"/>
-      <c r="D353" s="17"/>
-      <c r="E353" s="17"/>
-      <c r="F353" s="17"/>
-      <c r="G353" s="17"/>
-      <c r="H353" s="17"/>
-      <c r="I353" s="17"/>
-      <c r="J353" s="17"/>
-      <c r="K353" s="17"/>
-      <c r="L353" s="17"/>
-      <c r="M353" s="17"/>
-      <c r="N353" s="17"/>
-      <c r="O353" s="17"/>
-      <c r="P353" s="17"/>
-      <c r="Q353" s="17"/>
-      <c r="R353" s="17"/>
-      <c r="S353" s="17"/>
-      <c r="T353" s="17"/>
-      <c r="U353" s="17"/>
-      <c r="V353" s="17"/>
-      <c r="W353" s="17"/>
-      <c r="X353" s="17"/>
-      <c r="Y353" s="17"/>
-      <c r="Z353" s="17"/>
-      <c r="AA353" s="17"/>
-      <c r="AB353" s="17"/>
-      <c r="AC353" s="17"/>
-      <c r="AD353" s="17"/>
-      <c r="AE353" s="17"/>
-      <c r="AF353" s="17"/>
-      <c r="AG353" s="17"/>
-      <c r="AH353" s="17"/>
-      <c r="AI353" s="17"/>
-      <c r="AJ353" s="17"/>
-      <c r="AK353" s="17"/>
-      <c r="AL353" s="17"/>
-      <c r="AM353" s="17"/>
-      <c r="AN353" s="17"/>
-      <c r="AO353" s="17"/>
-      <c r="AP353" s="17"/>
-      <c r="AQ353" s="17"/>
-      <c r="AR353" s="17"/>
-      <c r="AS353" s="17"/>
-      <c r="AT353" s="17"/>
-      <c r="AU353" s="17"/>
-      <c r="AV353" s="17"/>
-      <c r="AW353" s="17"/>
-      <c r="AX353" s="17"/>
-      <c r="AY353" s="17"/>
-      <c r="AZ353" s="17"/>
-      <c r="BA353" s="17"/>
-      <c r="BB353" s="17"/>
-      <c r="BC353" s="17"/>
-      <c r="BD353" s="17"/>
-      <c r="BE353" s="17"/>
-      <c r="BF353" s="17"/>
-      <c r="BG353" s="17"/>
-      <c r="BH353" s="17"/>
-      <c r="BI353" s="17"/>
-      <c r="BJ353" s="17"/>
-      <c r="BK353" s="17"/>
-      <c r="BL353" s="17"/>
-      <c r="BM353" s="17"/>
-      <c r="BN353" s="17"/>
-      <c r="BO353" s="17"/>
-      <c r="BP353" s="17"/>
-      <c r="BQ353" s="17"/>
-      <c r="BR353" s="17"/>
-      <c r="BS353" s="17"/>
-      <c r="BT353" s="17"/>
-      <c r="BU353" s="17"/>
-      <c r="BV353" s="17"/>
-    </row>
-    <row r="354" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A354" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="D354" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="I354" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J354" s="9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="355" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A355" s="17"/>
-      <c r="B355" s="17"/>
-      <c r="C355" s="17"/>
-      <c r="D355" s="17"/>
-      <c r="E355" s="17"/>
-      <c r="F355" s="17"/>
-      <c r="G355" s="17"/>
-      <c r="H355" s="17"/>
-      <c r="I355" s="17"/>
-      <c r="J355" s="17"/>
-      <c r="K355" s="17"/>
-      <c r="L355" s="17"/>
-      <c r="M355" s="17"/>
-      <c r="N355" s="17"/>
-      <c r="O355" s="17"/>
-      <c r="P355" s="17"/>
-      <c r="Q355" s="17"/>
-      <c r="R355" s="17"/>
-      <c r="S355" s="17"/>
-      <c r="T355" s="17"/>
-      <c r="U355" s="17"/>
-      <c r="V355" s="17"/>
-      <c r="W355" s="17"/>
-      <c r="X355" s="17"/>
-      <c r="Y355" s="17"/>
-      <c r="Z355" s="17"/>
-      <c r="AA355" s="17"/>
-      <c r="AB355" s="17"/>
-      <c r="AC355" s="17"/>
-      <c r="AD355" s="17"/>
-      <c r="AE355" s="17"/>
-      <c r="AF355" s="17"/>
-      <c r="AG355" s="17"/>
-      <c r="AH355" s="17"/>
-      <c r="AI355" s="17"/>
-      <c r="AJ355" s="17"/>
-      <c r="AK355" s="17"/>
-      <c r="AL355" s="17"/>
-      <c r="AM355" s="17"/>
-      <c r="AN355" s="17"/>
-      <c r="AO355" s="17"/>
-      <c r="AP355" s="17"/>
-      <c r="AQ355" s="17"/>
-      <c r="AR355" s="17"/>
-      <c r="AS355" s="17"/>
-      <c r="AT355" s="17"/>
-      <c r="AU355" s="17"/>
-      <c r="AV355" s="17"/>
-      <c r="AW355" s="17"/>
-      <c r="AX355" s="17"/>
-      <c r="AY355" s="17"/>
-      <c r="AZ355" s="17"/>
-      <c r="BA355" s="17"/>
-      <c r="BB355" s="17"/>
-      <c r="BC355" s="17"/>
-      <c r="BD355" s="17"/>
-      <c r="BE355" s="17"/>
-      <c r="BF355" s="17"/>
-      <c r="BG355" s="17"/>
-      <c r="BH355" s="17"/>
-      <c r="BI355" s="17"/>
-      <c r="BJ355" s="17"/>
-      <c r="BK355" s="17"/>
-      <c r="BL355" s="17"/>
-      <c r="BM355" s="17"/>
-      <c r="BN355" s="17"/>
-      <c r="BO355" s="17"/>
-      <c r="BP355" s="17"/>
-      <c r="BQ355" s="17"/>
-      <c r="BR355" s="17"/>
-      <c r="BS355" s="17"/>
-      <c r="BT355" s="17"/>
-      <c r="BU355" s="17"/>
-      <c r="BV355" s="17"/>
-    </row>
-    <row r="356" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A356" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="D356" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="I356" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J356" s="9" t="s">
-        <v>293</v>
-      </c>
-    </row>
+    <row r="348" spans="1:74" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A348" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="D348" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="I348" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J348" s="14" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="349" spans="1:74" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A349" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="D349" s="14" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="350" spans="1:74" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A350" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="D350" s="14" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="351" spans="1:74" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A351" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="D351" s="14" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="352" spans="1:74" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A352" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="D352" s="14" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="353" spans="1:74" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A353" s="14" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="354" spans="1:74" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A354" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="D354" s="14" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="355" spans="1:74" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A355" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="D355" s="14" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="356" spans="1:74" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="357" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A357" s="17"/>
       <c r="B357" s="17"/>
@@ -11363,13 +11178,16 @@
     </row>
     <row r="358" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A358" s="9" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D358" s="9" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="I358" s="9" t="s">
-        <v>50</v>
+        <v>39</v>
+      </c>
+      <c r="J358" s="9" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="359" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -11450,13 +11268,16 @@
     </row>
     <row r="360" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A360" s="9" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="D360" s="9" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="I360" s="9" t="s">
-        <v>50</v>
+        <v>39</v>
+      </c>
+      <c r="J360" s="9" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="361" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -11537,10 +11358,13 @@
     </row>
     <row r="362" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A362" s="9" t="s">
-        <v>372</v>
+        <v>367</v>
+      </c>
+      <c r="B362" s="9" t="s">
+        <v>302</v>
       </c>
       <c r="D362" s="9" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="I362" s="9" t="s">
         <v>50</v>
@@ -11624,13 +11448,16 @@
     </row>
     <row r="364" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A364" s="9" t="s">
-        <v>410</v>
+        <v>368</v>
       </c>
       <c r="D364" s="9" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="I364" s="9" t="s">
-        <v>50</v>
+        <v>39</v>
+      </c>
+      <c r="J364" s="9" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="365" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -11711,13 +11538,16 @@
     </row>
     <row r="366" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A366" s="9" t="s">
-        <v>412</v>
+        <v>369</v>
       </c>
       <c r="D366" s="9" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="I366" s="9" t="s">
         <v>39</v>
+      </c>
+      <c r="J366" s="9" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="367" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -11798,13 +11628,13 @@
     </row>
     <row r="368" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A368" s="9" t="s">
-        <v>414</v>
+        <v>370</v>
       </c>
       <c r="D368" s="9" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="I368" s="9" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="369" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -11885,13 +11715,13 @@
     </row>
     <row r="370" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A370" s="9" t="s">
-        <v>416</v>
+        <v>342</v>
       </c>
       <c r="D370" s="9" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="I370" s="9" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="371" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -11972,10 +11802,10 @@
     </row>
     <row r="372" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A372" s="9" t="s">
-        <v>417</v>
+        <v>371</v>
       </c>
       <c r="D372" s="9" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="I372" s="9" t="s">
         <v>50</v>
@@ -12057,7 +11887,17 @@
       <c r="BU373" s="17"/>
       <c r="BV373" s="17"/>
     </row>
-    <row r="374" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="374" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A374" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="D374" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="I374" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="375" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A375" s="17"/>
       <c r="B375" s="17"/>
@@ -12134,6 +11974,17 @@
       <c r="BU375" s="17"/>
       <c r="BV375" s="17"/>
     </row>
+    <row r="376" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A376" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="D376" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="I376" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="377" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A377" s="17"/>
       <c r="B377" s="17"/>
@@ -12210,6 +12061,17 @@
       <c r="BU377" s="17"/>
       <c r="BV377" s="17"/>
     </row>
+    <row r="378" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A378" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="D378" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="I378" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="379" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A379" s="17"/>
       <c r="B379" s="17"/>
@@ -12286,6 +12148,17 @@
       <c r="BU379" s="17"/>
       <c r="BV379" s="17"/>
     </row>
+    <row r="380" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A380" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="D380" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="I380" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="381" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A381" s="17"/>
       <c r="B381" s="17"/>
@@ -12362,6 +12235,17 @@
       <c r="BU381" s="17"/>
       <c r="BV381" s="17"/>
     </row>
+    <row r="382" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A382" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="D382" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="I382" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="383" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A383" s="17"/>
       <c r="B383" s="17"/>
@@ -12438,145 +12322,386 @@
       <c r="BU383" s="17"/>
       <c r="BV383" s="17"/>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A428" s="12"/>
-      <c r="B428" s="12"/>
-      <c r="C428" s="12"/>
-      <c r="D428" s="12"/>
-      <c r="E428" s="12"/>
-      <c r="F428" s="12"/>
-      <c r="G428" s="12"/>
-      <c r="H428" s="12"/>
-      <c r="I428" s="12"/>
-      <c r="J428" s="12"/>
-      <c r="K428" s="12"/>
-      <c r="L428" s="12"/>
-    </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A429" s="12"/>
-      <c r="B429" s="12"/>
-      <c r="C429" s="12"/>
-      <c r="D429" s="12"/>
-      <c r="E429" s="12"/>
-      <c r="F429" s="12"/>
-      <c r="G429" s="12"/>
-      <c r="H429" s="12"/>
-      <c r="I429" s="12"/>
-      <c r="J429" s="12"/>
-      <c r="K429" s="12"/>
-      <c r="L429" s="12"/>
-    </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A430" s="12"/>
-      <c r="B430" s="12"/>
-      <c r="C430" s="12"/>
-      <c r="D430" s="12"/>
-      <c r="E430" s="12"/>
-      <c r="F430" s="12"/>
-      <c r="G430" s="12"/>
-      <c r="H430" s="12"/>
-      <c r="I430" s="12"/>
-      <c r="J430" s="12"/>
-      <c r="K430" s="12"/>
-      <c r="L430" s="12"/>
-    </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A431" s="12"/>
-      <c r="B431" s="12"/>
-      <c r="C431" s="12"/>
-      <c r="D431" s="12"/>
-      <c r="E431" s="12"/>
-      <c r="F431" s="12"/>
-      <c r="G431" s="12"/>
-      <c r="H431" s="12"/>
-      <c r="I431" s="12"/>
-      <c r="J431" s="12"/>
-      <c r="K431" s="12"/>
-      <c r="L431" s="12"/>
-    </row>
-    <row r="432" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A432" s="14"/>
-      <c r="B432" s="14"/>
-      <c r="C432" s="14"/>
-      <c r="D432" s="14"/>
-      <c r="E432" s="14"/>
-      <c r="F432" s="14"/>
-      <c r="G432" s="14"/>
-      <c r="H432" s="14"/>
-      <c r="I432" s="14"/>
-      <c r="J432" s="14"/>
-      <c r="K432" s="12"/>
-      <c r="L432" s="12"/>
-    </row>
-    <row r="433" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A433" s="14"/>
-      <c r="B433" s="14"/>
-      <c r="C433" s="14"/>
-      <c r="D433" s="14"/>
-      <c r="E433" s="14"/>
-      <c r="F433" s="14"/>
-      <c r="G433" s="14"/>
-      <c r="H433" s="14"/>
-      <c r="I433" s="14"/>
-      <c r="J433" s="14"/>
-      <c r="K433" s="12"/>
-      <c r="L433" s="12"/>
-    </row>
-    <row r="434" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A434" s="14"/>
-      <c r="B434" s="14"/>
-      <c r="C434" s="14"/>
-      <c r="D434" s="14"/>
-      <c r="E434" s="14"/>
-      <c r="F434" s="14"/>
-      <c r="G434" s="14"/>
-      <c r="H434" s="14"/>
-      <c r="I434" s="14"/>
-      <c r="J434" s="14"/>
-      <c r="K434" s="12"/>
-      <c r="L434" s="12"/>
-    </row>
-    <row r="435" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A435" s="14"/>
-      <c r="B435" s="14"/>
-      <c r="C435" s="14"/>
-      <c r="D435" s="14"/>
-      <c r="E435" s="14"/>
-      <c r="F435" s="14"/>
-      <c r="G435" s="14"/>
-      <c r="H435" s="14"/>
-      <c r="I435" s="14"/>
-      <c r="J435" s="14"/>
-      <c r="K435" s="12"/>
-      <c r="L435" s="12"/>
-    </row>
-    <row r="436" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A436" s="14"/>
-      <c r="B436" s="14"/>
-      <c r="C436" s="14"/>
-      <c r="D436" s="14"/>
-      <c r="E436" s="14"/>
-      <c r="F436" s="14"/>
-      <c r="G436" s="14"/>
-      <c r="H436" s="14"/>
-      <c r="I436" s="14"/>
-      <c r="J436" s="14"/>
-      <c r="K436" s="12"/>
-      <c r="L436" s="12"/>
-    </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A437" s="12"/>
-      <c r="B437" s="12"/>
-      <c r="C437" s="12"/>
-      <c r="D437" s="12"/>
-      <c r="E437" s="12"/>
-      <c r="F437" s="12"/>
-      <c r="G437" s="12"/>
-      <c r="H437" s="12"/>
-      <c r="I437" s="12"/>
-      <c r="J437" s="12"/>
-      <c r="K437" s="12"/>
-      <c r="L437" s="12"/>
+    <row r="384" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="385" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A385" s="17"/>
+      <c r="B385" s="17"/>
+      <c r="C385" s="17"/>
+      <c r="D385" s="17"/>
+      <c r="E385" s="17"/>
+      <c r="F385" s="17"/>
+      <c r="G385" s="17"/>
+      <c r="H385" s="17"/>
+      <c r="I385" s="17"/>
+      <c r="J385" s="17"/>
+      <c r="K385" s="17"/>
+      <c r="L385" s="17"/>
+      <c r="M385" s="17"/>
+      <c r="N385" s="17"/>
+      <c r="O385" s="17"/>
+      <c r="P385" s="17"/>
+      <c r="Q385" s="17"/>
+      <c r="R385" s="17"/>
+      <c r="S385" s="17"/>
+      <c r="T385" s="17"/>
+      <c r="U385" s="17"/>
+      <c r="V385" s="17"/>
+      <c r="W385" s="17"/>
+      <c r="X385" s="17"/>
+      <c r="Y385" s="17"/>
+      <c r="Z385" s="17"/>
+      <c r="AA385" s="17"/>
+      <c r="AB385" s="17"/>
+      <c r="AC385" s="17"/>
+      <c r="AD385" s="17"/>
+      <c r="AE385" s="17"/>
+      <c r="AF385" s="17"/>
+      <c r="AG385" s="17"/>
+      <c r="AH385" s="17"/>
+      <c r="AI385" s="17"/>
+      <c r="AJ385" s="17"/>
+      <c r="AK385" s="17"/>
+      <c r="AL385" s="17"/>
+      <c r="AM385" s="17"/>
+      <c r="AN385" s="17"/>
+      <c r="AO385" s="17"/>
+      <c r="AP385" s="17"/>
+      <c r="AQ385" s="17"/>
+      <c r="AR385" s="17"/>
+      <c r="AS385" s="17"/>
+      <c r="AT385" s="17"/>
+      <c r="AU385" s="17"/>
+      <c r="AV385" s="17"/>
+      <c r="AW385" s="17"/>
+      <c r="AX385" s="17"/>
+      <c r="AY385" s="17"/>
+      <c r="AZ385" s="17"/>
+      <c r="BA385" s="17"/>
+      <c r="BB385" s="17"/>
+      <c r="BC385" s="17"/>
+      <c r="BD385" s="17"/>
+      <c r="BE385" s="17"/>
+      <c r="BF385" s="17"/>
+      <c r="BG385" s="17"/>
+      <c r="BH385" s="17"/>
+      <c r="BI385" s="17"/>
+      <c r="BJ385" s="17"/>
+      <c r="BK385" s="17"/>
+      <c r="BL385" s="17"/>
+      <c r="BM385" s="17"/>
+      <c r="BN385" s="17"/>
+      <c r="BO385" s="17"/>
+      <c r="BP385" s="17"/>
+      <c r="BQ385" s="17"/>
+      <c r="BR385" s="17"/>
+      <c r="BS385" s="17"/>
+      <c r="BT385" s="17"/>
+      <c r="BU385" s="17"/>
+      <c r="BV385" s="17"/>
+    </row>
+    <row r="387" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A387" s="17"/>
+      <c r="B387" s="17"/>
+      <c r="C387" s="17"/>
+      <c r="D387" s="17"/>
+      <c r="E387" s="17"/>
+      <c r="F387" s="17"/>
+      <c r="G387" s="17"/>
+      <c r="H387" s="17"/>
+      <c r="I387" s="17"/>
+      <c r="J387" s="17"/>
+      <c r="K387" s="17"/>
+      <c r="L387" s="17"/>
+      <c r="M387" s="17"/>
+      <c r="N387" s="17"/>
+      <c r="O387" s="17"/>
+      <c r="P387" s="17"/>
+      <c r="Q387" s="17"/>
+      <c r="R387" s="17"/>
+      <c r="S387" s="17"/>
+      <c r="T387" s="17"/>
+      <c r="U387" s="17"/>
+      <c r="V387" s="17"/>
+      <c r="W387" s="17"/>
+      <c r="X387" s="17"/>
+      <c r="Y387" s="17"/>
+      <c r="Z387" s="17"/>
+      <c r="AA387" s="17"/>
+      <c r="AB387" s="17"/>
+      <c r="AC387" s="17"/>
+      <c r="AD387" s="17"/>
+      <c r="AE387" s="17"/>
+      <c r="AF387" s="17"/>
+      <c r="AG387" s="17"/>
+      <c r="AH387" s="17"/>
+      <c r="AI387" s="17"/>
+      <c r="AJ387" s="17"/>
+      <c r="AK387" s="17"/>
+      <c r="AL387" s="17"/>
+      <c r="AM387" s="17"/>
+      <c r="AN387" s="17"/>
+      <c r="AO387" s="17"/>
+      <c r="AP387" s="17"/>
+      <c r="AQ387" s="17"/>
+      <c r="AR387" s="17"/>
+      <c r="AS387" s="17"/>
+      <c r="AT387" s="17"/>
+      <c r="AU387" s="17"/>
+      <c r="AV387" s="17"/>
+      <c r="AW387" s="17"/>
+      <c r="AX387" s="17"/>
+      <c r="AY387" s="17"/>
+      <c r="AZ387" s="17"/>
+      <c r="BA387" s="17"/>
+      <c r="BB387" s="17"/>
+      <c r="BC387" s="17"/>
+      <c r="BD387" s="17"/>
+      <c r="BE387" s="17"/>
+      <c r="BF387" s="17"/>
+      <c r="BG387" s="17"/>
+      <c r="BH387" s="17"/>
+      <c r="BI387" s="17"/>
+      <c r="BJ387" s="17"/>
+      <c r="BK387" s="17"/>
+      <c r="BL387" s="17"/>
+      <c r="BM387" s="17"/>
+      <c r="BN387" s="17"/>
+      <c r="BO387" s="17"/>
+      <c r="BP387" s="17"/>
+      <c r="BQ387" s="17"/>
+      <c r="BR387" s="17"/>
+      <c r="BS387" s="17"/>
+      <c r="BT387" s="17"/>
+      <c r="BU387" s="17"/>
+      <c r="BV387" s="17"/>
+    </row>
+    <row r="389" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A389" s="17"/>
+      <c r="B389" s="17"/>
+      <c r="C389" s="17"/>
+      <c r="D389" s="17"/>
+      <c r="E389" s="17"/>
+      <c r="F389" s="17"/>
+      <c r="G389" s="17"/>
+      <c r="H389" s="17"/>
+      <c r="I389" s="17"/>
+      <c r="J389" s="17"/>
+      <c r="K389" s="17"/>
+      <c r="L389" s="17"/>
+      <c r="M389" s="17"/>
+      <c r="N389" s="17"/>
+      <c r="O389" s="17"/>
+      <c r="P389" s="17"/>
+      <c r="Q389" s="17"/>
+      <c r="R389" s="17"/>
+      <c r="S389" s="17"/>
+      <c r="T389" s="17"/>
+      <c r="U389" s="17"/>
+      <c r="V389" s="17"/>
+      <c r="W389" s="17"/>
+      <c r="X389" s="17"/>
+      <c r="Y389" s="17"/>
+      <c r="Z389" s="17"/>
+      <c r="AA389" s="17"/>
+      <c r="AB389" s="17"/>
+      <c r="AC389" s="17"/>
+      <c r="AD389" s="17"/>
+      <c r="AE389" s="17"/>
+      <c r="AF389" s="17"/>
+      <c r="AG389" s="17"/>
+      <c r="AH389" s="17"/>
+      <c r="AI389" s="17"/>
+      <c r="AJ389" s="17"/>
+      <c r="AK389" s="17"/>
+      <c r="AL389" s="17"/>
+      <c r="AM389" s="17"/>
+      <c r="AN389" s="17"/>
+      <c r="AO389" s="17"/>
+      <c r="AP389" s="17"/>
+      <c r="AQ389" s="17"/>
+      <c r="AR389" s="17"/>
+      <c r="AS389" s="17"/>
+      <c r="AT389" s="17"/>
+      <c r="AU389" s="17"/>
+      <c r="AV389" s="17"/>
+      <c r="AW389" s="17"/>
+      <c r="AX389" s="17"/>
+      <c r="AY389" s="17"/>
+      <c r="AZ389" s="17"/>
+      <c r="BA389" s="17"/>
+      <c r="BB389" s="17"/>
+      <c r="BC389" s="17"/>
+      <c r="BD389" s="17"/>
+      <c r="BE389" s="17"/>
+      <c r="BF389" s="17"/>
+      <c r="BG389" s="17"/>
+      <c r="BH389" s="17"/>
+      <c r="BI389" s="17"/>
+      <c r="BJ389" s="17"/>
+      <c r="BK389" s="17"/>
+      <c r="BL389" s="17"/>
+      <c r="BM389" s="17"/>
+      <c r="BN389" s="17"/>
+      <c r="BO389" s="17"/>
+      <c r="BP389" s="17"/>
+      <c r="BQ389" s="17"/>
+      <c r="BR389" s="17"/>
+      <c r="BS389" s="17"/>
+      <c r="BT389" s="17"/>
+      <c r="BU389" s="17"/>
+      <c r="BV389" s="17"/>
+    </row>
+    <row r="391" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A391" s="17"/>
+      <c r="B391" s="17"/>
+      <c r="C391" s="17"/>
+      <c r="D391" s="17"/>
+      <c r="E391" s="17"/>
+      <c r="F391" s="17"/>
+      <c r="G391" s="17"/>
+      <c r="H391" s="17"/>
+      <c r="I391" s="17"/>
+      <c r="J391" s="17"/>
+      <c r="K391" s="17"/>
+      <c r="L391" s="17"/>
+      <c r="M391" s="17"/>
+      <c r="N391" s="17"/>
+      <c r="O391" s="17"/>
+      <c r="P391" s="17"/>
+      <c r="Q391" s="17"/>
+      <c r="R391" s="17"/>
+      <c r="S391" s="17"/>
+      <c r="T391" s="17"/>
+      <c r="U391" s="17"/>
+      <c r="V391" s="17"/>
+      <c r="W391" s="17"/>
+      <c r="X391" s="17"/>
+      <c r="Y391" s="17"/>
+      <c r="Z391" s="17"/>
+      <c r="AA391" s="17"/>
+      <c r="AB391" s="17"/>
+      <c r="AC391" s="17"/>
+      <c r="AD391" s="17"/>
+      <c r="AE391" s="17"/>
+      <c r="AF391" s="17"/>
+      <c r="AG391" s="17"/>
+      <c r="AH391" s="17"/>
+      <c r="AI391" s="17"/>
+      <c r="AJ391" s="17"/>
+      <c r="AK391" s="17"/>
+      <c r="AL391" s="17"/>
+      <c r="AM391" s="17"/>
+      <c r="AN391" s="17"/>
+      <c r="AO391" s="17"/>
+      <c r="AP391" s="17"/>
+      <c r="AQ391" s="17"/>
+      <c r="AR391" s="17"/>
+      <c r="AS391" s="17"/>
+      <c r="AT391" s="17"/>
+      <c r="AU391" s="17"/>
+      <c r="AV391" s="17"/>
+      <c r="AW391" s="17"/>
+      <c r="AX391" s="17"/>
+      <c r="AY391" s="17"/>
+      <c r="AZ391" s="17"/>
+      <c r="BA391" s="17"/>
+      <c r="BB391" s="17"/>
+      <c r="BC391" s="17"/>
+      <c r="BD391" s="17"/>
+      <c r="BE391" s="17"/>
+      <c r="BF391" s="17"/>
+      <c r="BG391" s="17"/>
+      <c r="BH391" s="17"/>
+      <c r="BI391" s="17"/>
+      <c r="BJ391" s="17"/>
+      <c r="BK391" s="17"/>
+      <c r="BL391" s="17"/>
+      <c r="BM391" s="17"/>
+      <c r="BN391" s="17"/>
+      <c r="BO391" s="17"/>
+      <c r="BP391" s="17"/>
+      <c r="BQ391" s="17"/>
+      <c r="BR391" s="17"/>
+      <c r="BS391" s="17"/>
+      <c r="BT391" s="17"/>
+      <c r="BU391" s="17"/>
+      <c r="BV391" s="17"/>
+    </row>
+    <row r="393" spans="1:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A393" s="17"/>
+      <c r="B393" s="17"/>
+      <c r="C393" s="17"/>
+      <c r="D393" s="17"/>
+      <c r="E393" s="17"/>
+      <c r="F393" s="17"/>
+      <c r="G393" s="17"/>
+      <c r="H393" s="17"/>
+      <c r="I393" s="17"/>
+      <c r="J393" s="17"/>
+      <c r="K393" s="17"/>
+      <c r="L393" s="17"/>
+      <c r="M393" s="17"/>
+      <c r="N393" s="17"/>
+      <c r="O393" s="17"/>
+      <c r="P393" s="17"/>
+      <c r="Q393" s="17"/>
+      <c r="R393" s="17"/>
+      <c r="S393" s="17"/>
+      <c r="T393" s="17"/>
+      <c r="U393" s="17"/>
+      <c r="V393" s="17"/>
+      <c r="W393" s="17"/>
+      <c r="X393" s="17"/>
+      <c r="Y393" s="17"/>
+      <c r="Z393" s="17"/>
+      <c r="AA393" s="17"/>
+      <c r="AB393" s="17"/>
+      <c r="AC393" s="17"/>
+      <c r="AD393" s="17"/>
+      <c r="AE393" s="17"/>
+      <c r="AF393" s="17"/>
+      <c r="AG393" s="17"/>
+      <c r="AH393" s="17"/>
+      <c r="AI393" s="17"/>
+      <c r="AJ393" s="17"/>
+      <c r="AK393" s="17"/>
+      <c r="AL393" s="17"/>
+      <c r="AM393" s="17"/>
+      <c r="AN393" s="17"/>
+      <c r="AO393" s="17"/>
+      <c r="AP393" s="17"/>
+      <c r="AQ393" s="17"/>
+      <c r="AR393" s="17"/>
+      <c r="AS393" s="17"/>
+      <c r="AT393" s="17"/>
+      <c r="AU393" s="17"/>
+      <c r="AV393" s="17"/>
+      <c r="AW393" s="17"/>
+      <c r="AX393" s="17"/>
+      <c r="AY393" s="17"/>
+      <c r="AZ393" s="17"/>
+      <c r="BA393" s="17"/>
+      <c r="BB393" s="17"/>
+      <c r="BC393" s="17"/>
+      <c r="BD393" s="17"/>
+      <c r="BE393" s="17"/>
+      <c r="BF393" s="17"/>
+      <c r="BG393" s="17"/>
+      <c r="BH393" s="17"/>
+      <c r="BI393" s="17"/>
+      <c r="BJ393" s="17"/>
+      <c r="BK393" s="17"/>
+      <c r="BL393" s="17"/>
+      <c r="BM393" s="17"/>
+      <c r="BN393" s="17"/>
+      <c r="BO393" s="17"/>
+      <c r="BP393" s="17"/>
+      <c r="BQ393" s="17"/>
+      <c r="BR393" s="17"/>
+      <c r="BS393" s="17"/>
+      <c r="BT393" s="17"/>
+      <c r="BU393" s="17"/>
+      <c r="BV393" s="17"/>
     </row>
     <row r="438" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A438" s="12"/>
@@ -12620,17 +12745,17 @@
       <c r="K440" s="12"/>
       <c r="L440" s="12"/>
     </row>
-    <row r="441" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A441" s="14"/>
-      <c r="B441" s="14"/>
-      <c r="C441" s="14"/>
-      <c r="D441" s="14"/>
-      <c r="E441" s="14"/>
-      <c r="F441" s="14"/>
-      <c r="G441" s="14"/>
-      <c r="H441" s="14"/>
-      <c r="I441" s="14"/>
-      <c r="J441" s="14"/>
+    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A441" s="12"/>
+      <c r="B441" s="12"/>
+      <c r="C441" s="12"/>
+      <c r="D441" s="12"/>
+      <c r="E441" s="12"/>
+      <c r="F441" s="12"/>
+      <c r="G441" s="12"/>
+      <c r="H441" s="12"/>
+      <c r="I441" s="12"/>
+      <c r="J441" s="12"/>
       <c r="K441" s="12"/>
       <c r="L441" s="12"/>
     </row>
@@ -12704,45 +12829,45 @@
       <c r="K446" s="12"/>
       <c r="L446" s="12"/>
     </row>
-    <row r="447" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A447" s="14"/>
-      <c r="B447" s="14"/>
-      <c r="C447" s="14"/>
-      <c r="D447" s="14"/>
-      <c r="E447" s="14"/>
-      <c r="F447" s="14"/>
-      <c r="G447" s="14"/>
-      <c r="H447" s="14"/>
-      <c r="I447" s="14"/>
-      <c r="J447" s="14"/>
+    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A447" s="12"/>
+      <c r="B447" s="12"/>
+      <c r="C447" s="12"/>
+      <c r="D447" s="12"/>
+      <c r="E447" s="12"/>
+      <c r="F447" s="12"/>
+      <c r="G447" s="12"/>
+      <c r="H447" s="12"/>
+      <c r="I447" s="12"/>
+      <c r="J447" s="12"/>
       <c r="K447" s="12"/>
       <c r="L447" s="12"/>
     </row>
-    <row r="448" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A448" s="14"/>
-      <c r="B448" s="14"/>
-      <c r="C448" s="14"/>
-      <c r="D448" s="14"/>
-      <c r="E448" s="14"/>
-      <c r="F448" s="14"/>
-      <c r="G448" s="14"/>
-      <c r="H448" s="14"/>
-      <c r="I448" s="14"/>
-      <c r="J448" s="14"/>
+    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A448" s="12"/>
+      <c r="B448" s="12"/>
+      <c r="C448" s="12"/>
+      <c r="D448" s="12"/>
+      <c r="E448" s="12"/>
+      <c r="F448" s="12"/>
+      <c r="G448" s="12"/>
+      <c r="H448" s="12"/>
+      <c r="I448" s="12"/>
+      <c r="J448" s="12"/>
       <c r="K448" s="12"/>
       <c r="L448" s="12"/>
     </row>
-    <row r="449" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A449" s="14"/>
-      <c r="B449" s="14"/>
-      <c r="C449" s="14"/>
-      <c r="D449" s="14"/>
-      <c r="E449" s="14"/>
-      <c r="F449" s="14"/>
-      <c r="G449" s="14"/>
-      <c r="H449" s="14"/>
-      <c r="I449" s="14"/>
-      <c r="J449" s="14"/>
+    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A449" s="12"/>
+      <c r="B449" s="12"/>
+      <c r="C449" s="12"/>
+      <c r="D449" s="12"/>
+      <c r="E449" s="12"/>
+      <c r="F449" s="12"/>
+      <c r="G449" s="12"/>
+      <c r="H449" s="12"/>
+      <c r="I449" s="12"/>
+      <c r="J449" s="12"/>
       <c r="K449" s="12"/>
       <c r="L449" s="12"/>
     </row>
@@ -12760,31 +12885,31 @@
       <c r="K450" s="12"/>
       <c r="L450" s="12"/>
     </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A451" s="12"/>
-      <c r="B451" s="12"/>
-      <c r="C451" s="12"/>
-      <c r="D451" s="12"/>
-      <c r="E451" s="12"/>
-      <c r="F451" s="12"/>
-      <c r="G451" s="12"/>
-      <c r="H451" s="12"/>
-      <c r="I451" s="12"/>
-      <c r="J451" s="12"/>
+    <row r="451" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A451" s="14"/>
+      <c r="B451" s="14"/>
+      <c r="C451" s="14"/>
+      <c r="D451" s="14"/>
+      <c r="E451" s="14"/>
+      <c r="F451" s="14"/>
+      <c r="G451" s="14"/>
+      <c r="H451" s="14"/>
+      <c r="I451" s="14"/>
+      <c r="J451" s="14"/>
       <c r="K451" s="12"/>
       <c r="L451" s="12"/>
     </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A452" s="12"/>
-      <c r="B452" s="12"/>
-      <c r="C452" s="12"/>
-      <c r="D452" s="12"/>
-      <c r="E452" s="12"/>
-      <c r="F452" s="12"/>
-      <c r="G452" s="12"/>
-      <c r="H452" s="12"/>
-      <c r="I452" s="12"/>
-      <c r="J452" s="12"/>
+    <row r="452" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A452" s="14"/>
+      <c r="B452" s="14"/>
+      <c r="C452" s="14"/>
+      <c r="D452" s="14"/>
+      <c r="E452" s="14"/>
+      <c r="F452" s="14"/>
+      <c r="G452" s="14"/>
+      <c r="H452" s="14"/>
+      <c r="I452" s="14"/>
+      <c r="J452" s="14"/>
       <c r="K452" s="12"/>
       <c r="L452" s="12"/>
     </row>
@@ -12886,59 +13011,59 @@
       <c r="K459" s="12"/>
       <c r="L459" s="12"/>
     </row>
-    <row r="460" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A460" s="12"/>
       <c r="B460" s="12"/>
       <c r="C460" s="12"/>
       <c r="D460" s="12"/>
       <c r="E460" s="12"/>
       <c r="F460" s="12"/>
-      <c r="G460" s="14"/>
-      <c r="H460" s="14"/>
-      <c r="I460" s="14"/>
-      <c r="J460" s="14"/>
+      <c r="G460" s="12"/>
+      <c r="H460" s="12"/>
+      <c r="I460" s="12"/>
+      <c r="J460" s="12"/>
       <c r="K460" s="12"/>
       <c r="L460" s="12"/>
     </row>
-    <row r="461" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A461" s="12"/>
       <c r="B461" s="12"/>
       <c r="C461" s="12"/>
       <c r="D461" s="12"/>
       <c r="E461" s="12"/>
       <c r="F461" s="12"/>
-      <c r="G461" s="14"/>
-      <c r="H461" s="14"/>
-      <c r="I461" s="14"/>
-      <c r="J461" s="14"/>
+      <c r="G461" s="12"/>
+      <c r="H461" s="12"/>
+      <c r="I461" s="12"/>
+      <c r="J461" s="12"/>
       <c r="K461" s="12"/>
       <c r="L461" s="12"/>
     </row>
-    <row r="462" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A462" s="12"/>
       <c r="B462" s="12"/>
       <c r="C462" s="12"/>
       <c r="D462" s="12"/>
       <c r="E462" s="12"/>
       <c r="F462" s="12"/>
-      <c r="G462" s="14"/>
-      <c r="H462" s="14"/>
-      <c r="I462" s="14"/>
-      <c r="J462" s="14"/>
+      <c r="G462" s="12"/>
+      <c r="H462" s="12"/>
+      <c r="I462" s="12"/>
+      <c r="J462" s="12"/>
       <c r="K462" s="12"/>
       <c r="L462" s="12"/>
     </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A463" s="12"/>
-      <c r="B463" s="12"/>
-      <c r="C463" s="12"/>
-      <c r="D463" s="12"/>
-      <c r="E463" s="12"/>
-      <c r="F463" s="12"/>
-      <c r="G463" s="12"/>
-      <c r="H463" s="12"/>
-      <c r="I463" s="12"/>
-      <c r="J463" s="12"/>
+    <row r="463" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A463" s="14"/>
+      <c r="B463" s="14"/>
+      <c r="C463" s="14"/>
+      <c r="D463" s="14"/>
+      <c r="E463" s="14"/>
+      <c r="F463" s="14"/>
+      <c r="G463" s="14"/>
+      <c r="H463" s="14"/>
+      <c r="I463" s="14"/>
+      <c r="J463" s="14"/>
       <c r="K463" s="12"/>
       <c r="L463" s="12"/>
     </row>
@@ -12970,40 +13095,180 @@
       <c r="K465" s="12"/>
       <c r="L465" s="12"/>
     </row>
-    <row r="490" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A490" s="9"/>
-      <c r="B490" s="9"/>
-      <c r="C490" s="9"/>
-      <c r="D490" s="9"/>
-      <c r="E490" s="9"/>
-      <c r="F490" s="9"/>
-      <c r="G490" s="9"/>
-      <c r="H490" s="9"/>
-      <c r="I490" s="9"/>
-      <c r="J490" s="9"/>
-    </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A492" t="s">
+    <row r="466" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A466" s="14"/>
+      <c r="B466" s="14"/>
+      <c r="C466" s="14"/>
+      <c r="D466" s="14"/>
+      <c r="E466" s="14"/>
+      <c r="F466" s="14"/>
+      <c r="G466" s="14"/>
+      <c r="H466" s="14"/>
+      <c r="I466" s="14"/>
+      <c r="J466" s="14"/>
+      <c r="K466" s="12"/>
+      <c r="L466" s="12"/>
+    </row>
+    <row r="467" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A467" s="14"/>
+      <c r="B467" s="14"/>
+      <c r="C467" s="14"/>
+      <c r="D467" s="14"/>
+      <c r="E467" s="14"/>
+      <c r="F467" s="14"/>
+      <c r="G467" s="14"/>
+      <c r="H467" s="14"/>
+      <c r="I467" s="14"/>
+      <c r="J467" s="14"/>
+      <c r="K467" s="12"/>
+      <c r="L467" s="12"/>
+    </row>
+    <row r="468" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A468" s="14"/>
+      <c r="B468" s="14"/>
+      <c r="C468" s="14"/>
+      <c r="D468" s="14"/>
+      <c r="E468" s="14"/>
+      <c r="F468" s="14"/>
+      <c r="G468" s="14"/>
+      <c r="H468" s="14"/>
+      <c r="I468" s="14"/>
+      <c r="J468" s="14"/>
+      <c r="K468" s="12"/>
+      <c r="L468" s="12"/>
+    </row>
+    <row r="469" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A469" s="14"/>
+      <c r="B469" s="14"/>
+      <c r="C469" s="14"/>
+      <c r="D469" s="14"/>
+      <c r="E469" s="14"/>
+      <c r="F469" s="14"/>
+      <c r="G469" s="14"/>
+      <c r="H469" s="14"/>
+      <c r="I469" s="14"/>
+      <c r="J469" s="14"/>
+      <c r="K469" s="12"/>
+      <c r="L469" s="12"/>
+    </row>
+    <row r="470" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A470" s="12"/>
+      <c r="B470" s="12"/>
+      <c r="C470" s="12"/>
+      <c r="D470" s="12"/>
+      <c r="E470" s="12"/>
+      <c r="F470" s="12"/>
+      <c r="G470" s="14"/>
+      <c r="H470" s="14"/>
+      <c r="I470" s="14"/>
+      <c r="J470" s="14"/>
+      <c r="K470" s="12"/>
+      <c r="L470" s="12"/>
+    </row>
+    <row r="471" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A471" s="12"/>
+      <c r="B471" s="12"/>
+      <c r="C471" s="12"/>
+      <c r="D471" s="12"/>
+      <c r="E471" s="12"/>
+      <c r="F471" s="12"/>
+      <c r="G471" s="14"/>
+      <c r="H471" s="14"/>
+      <c r="I471" s="14"/>
+      <c r="J471" s="14"/>
+      <c r="K471" s="12"/>
+      <c r="L471" s="12"/>
+    </row>
+    <row r="472" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A472" s="12"/>
+      <c r="B472" s="12"/>
+      <c r="C472" s="12"/>
+      <c r="D472" s="12"/>
+      <c r="E472" s="12"/>
+      <c r="F472" s="12"/>
+      <c r="G472" s="14"/>
+      <c r="H472" s="14"/>
+      <c r="I472" s="14"/>
+      <c r="J472" s="14"/>
+      <c r="K472" s="12"/>
+      <c r="L472" s="12"/>
+    </row>
+    <row r="473" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A473" s="12"/>
+      <c r="B473" s="12"/>
+      <c r="C473" s="12"/>
+      <c r="D473" s="12"/>
+      <c r="E473" s="12"/>
+      <c r="F473" s="12"/>
+      <c r="G473" s="12"/>
+      <c r="H473" s="12"/>
+      <c r="I473" s="12"/>
+      <c r="J473" s="12"/>
+      <c r="K473" s="12"/>
+      <c r="L473" s="12"/>
+    </row>
+    <row r="474" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A474" s="14"/>
+      <c r="B474" s="14"/>
+      <c r="C474" s="14"/>
+      <c r="D474" s="14"/>
+      <c r="E474" s="14"/>
+      <c r="F474" s="14"/>
+      <c r="G474" s="14"/>
+      <c r="H474" s="14"/>
+      <c r="I474" s="14"/>
+      <c r="J474" s="14"/>
+      <c r="K474" s="12"/>
+      <c r="L474" s="12"/>
+    </row>
+    <row r="475" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A475" s="14"/>
+      <c r="B475" s="14"/>
+      <c r="C475" s="14"/>
+      <c r="D475" s="14"/>
+      <c r="E475" s="14"/>
+      <c r="F475" s="14"/>
+      <c r="G475" s="14"/>
+      <c r="H475" s="14"/>
+      <c r="I475" s="14"/>
+      <c r="J475" s="14"/>
+      <c r="K475" s="12"/>
+      <c r="L475" s="12"/>
+    </row>
+    <row r="500" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A500" s="9"/>
+      <c r="B500" s="9"/>
+      <c r="C500" s="9"/>
+      <c r="D500" s="9"/>
+      <c r="E500" s="9"/>
+      <c r="F500" s="9"/>
+      <c r="G500" s="9"/>
+      <c r="H500" s="9"/>
+      <c r="I500" s="9"/>
+      <c r="J500" s="9"/>
+    </row>
+    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A493" t="s">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A494" t="s">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A495" t="s">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A496" t="s">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
         <v>125</v>
       </c>
     </row>
